--- a/tencent_video.xlsx
+++ b/tencent_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>categories</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>comments_num</t>
         </is>
@@ -478,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIP · 10958热度</t>
+          <t>VIP · 10923热度</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,85 +499,100 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>悬疑</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['这部电影成功的把所有女性洗脑了', ']看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n[鞠躬]看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n[鞠躬]看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活的好，必须要靠自己向命运挥拳！\n[鞠躬]看完《孤注一掷》不是让你别相信朋友，是让你学会在这个社会保护自己\n[鞠躬]看完《我经历过风暴》不是让你别结婚，而是一定要擦亮眼睛，可以多谈几个，日久见人心，婚后见人性\n所以，一定要有正确的三观，不要盲目跟风，不然苦的是自己。[求求了][求求了]', '这个赌鬼把刚怀孕的李木子把别人关在笼子里，一切多是沈漫计划的一场戏，就是为了让这个男的说实话', '李木子是最大的赌徒，她在赌一个赌徒的真心', '跟有那种的感觉 我看了两遍第一次在影院出门有分手的[泪目]这个我当时挺喜欢的后来单曲循环《笼》这首歌', '这个不建议看，我和我女朋友就是这样，和我女朋友在电影院看完消失的她然后想一起去吃个饭，她直接不理我，把我手甩开了，是真的，当时我还拿着她的包，我一看这样立马就生气了，包直接给她扔了，我说，如果你因为一部电影就认为我没有安全感，那我们也没必要在一起了，然后我自己就打车回去了收起到了第二天她来找我复合，说她错了，我说你拒绝我一次之后，第二次你就没机会了，电影里说的是女生不要让男生伤害第二次，那么同样，你是女生，我是男生，我也不会让你伤害我第二次，我是异地恋，当晚就坐动车回来了，然后就把她所有联系方式都给删了，你用行动拒绝我，我也会明确回应，狠下死心跟你分手，花着我的，吃着我的，包也是我买的，到头看完一部电影就甩脸子？给谁看呢？原谅是不可能的！', '这部电影拆散了好多情侣', '建议情人节档安排上，更适合情侣宝宝的好电影❤️！', '首先，这部电影并不是单单针对男人，现实生活中为了获得配偶遗产，杀夫与杀妻的现象都是存在的，不要说看了这部电影就要远离男人，影片所揭示人性的丑恶是针对不论男人女人的所有人。还有，男主是个好演员，他不是何非，请不要伤害演员！[意难平][意难平][意难平]', '《消失的她》……其实我们都知道！爱会消失！承诺会失效！人会走散！只是我们太执着！相信自己是个例外！可到最后无一例外···', '前有秦昊老师带你爬山\n后有朱一龙老师带你看海\n所爱隔山海，渣男送棺材[偷笑]', '特别好看，最后朱一龙为了保护木子和孩子把她放在防鲨笼，自己去引开鲨鱼，流的血汇成了海底星空那段真的感动死了，好久没看过这么好看的电影了[机智]', '剧情一般，没有让人觉得眼前一亮的一个瞬间，但细节处理的不错，木子怀孕了摸肚子，何非一直要求立案而不是找人。说到处都找过了，问过，身边的人（酒店服务员等）却没有感受出他对找妻子的急迫和同情，急迫的表情只对警察和陈麦表现。人物身份大概能猜测出来，警察都不愿意帮他，郑成出现在警察门口而不是警署内，陈麦一个颇负盛名的律师会欲擒故纵一样无条件帮他寻找他的妻子（有名的律师一般不会接这种穿着不像有钱人的案子，咨询费都挺贵的，一般不会自降身价）陈麦肯定就是知道他是谁才帮他，后面问他闺蜜尸体在哪里的时候，有人影晃动时间流逝造出一种压迫感，但却迟迟没有人来就能猜到陈麦和郑成是一伙的了。开始以为何非吃药可能也是为了让自己意识模糊骗自己真的在寻找妻子，结果是真有病，脑子和心理都治不好的那种，最后何非哭可能也是因为杀了自己的孩子而哭吧[抠鼻]还说做这些是为了匹配木子。说何非是赌徒不如说木子是最大的赌徒，赌一场虚幻的爱情和变幻莫测的人性。剃头发那里或许是一镜到底眼神没有感受到真正的惊恐，胸口以上没有绑住，麻药也刚打上还没有发挥作用，完全可以试着挣脱而不是任人宰割，面部抽搐演的还行。反而是郑成的笑感觉挺到位的。', '什么时候可以在手机上看啊救命', '看完以后真的很难压制住自己的愤怒，对一个那么爱自己的人去要了她的命，真的cs，当然不是指剧中演员，但是这部电影是根据事实改编的就很让人惋惜，这部剧告诉我们不能轻易相信一个男人的甜言蜜语，在他说这些话之前你应该先想想他说的和他做的，如果一个人粘上了赌毒那他几乎是戒不了，广大女性朋友在选择恋爱时真的应该把他了解清楚，认清他的为人，人品，这个世界真的存在太多居心莫测，保护好自己才是最重要的，作为一个男生看的何非这样对一个爱他的人下了杀手是真的愤怒，真的把渣男体现的淋漓尽致，女士如果碰到这样的人真的很危险，奉劝各位女性朋友以及男性朋友，不要恋爱脑，不要恋爱脑，当你用感情去看问题的时候你的理性就被屏蔽了，你会忘记他的缺点，他的不好，感情不应该是处处的处心积虑，两个人中有一方动了小心思那就真的很危险了，真的希望各位女同胞也好男同胞也好，遇到一个真正爱你，珍惜你的人，珍惜好眼前的人', '朱一龙又要拿影帝了[666啊]真牛', '所以，沾染了黄，赌，毒的人绝对不要相信他（她）会改邪归正，果断远离才是明智之举[打call了]', '这种也能放到电影院上？有啥一意义？', '真的很好看，非常悬疑', '确实挺不错的，唯一的缺憾就是酒瓶子砸脑袋，就两滴血还是顺着鼻梁留下来的。相信喝过酒的人都知道酒瓶子砸出血不可能就两滴，还想让它流哪就流哪。血有点偏黑，还是得用猪血，别的真不像。如果打分我只能打个8.5。', '远离黄赌毒，是有道理的！出轨，外遇，嫖娼，赌博，毒品毁了多少家庭！', '今天我才看这个消失的她，当初我女朋友看的时候也跟我说，没感全感，也跟我提过分手，因为一部电影分手，我原谅她，不计较，没太在意，直到七夕那天，我主动发红包，然后我说了一句今天应该收到很多红包吧？这句话说完就把我删了，我瞬间炸了，我就当她心情不好吧，下班了，我就打电话，发短信，发抖音，都把我删了，我加了微信无数次，通过了，立马发个红包人家131.4人家嫌弃少，说我哄小孩子呢。我她妈的辛辛苦苦的上班赚钱，异地恋，半年我主动发红包转账，1314+5200+520+52.0+131.4从来没有低于52.0的，我一个普通人打工的，我也要生活，异地恋啊，我一个月给你花几千，我得不到关心，疼爱陪伴，我去找你坐飞机去找你你不让我去就算了，任何事情都是我主动，男人主动发红包转账，任何事情我都是主动，从来没有让她开口，男人不花钱吧你说男人不爱你，花了吧换来的是删除，第一次删除我，我求爷爷告奶奶的加回来通过了，看到我发的131.4又把我删了，我去抖音评论把我拉黑了。害怕其他追求者看到了，把我藏起来谈恋爱生怕身边的人知道了，花我的钱，从来没有满足我任何事情，过年的时候在一起挺好的去了外地她就变了，都是成年人，因为一个电影，一句话就删除微信，说分手的那女人不要也罢，男人辛苦赚钱容易？真心对你爱你，你非要作，你说男人去赌博了，或者跟别的女人上床了不给你花钱了你折腾说分手，删除都可以理解的，她妈的我呢都没有因为一部电影分手，一句话删除微信，我看完消失的她，总结了，人啊一定要擦亮眼睛选择人，选择错了女人毁三代。选择错了男人你就是尸体！为何女主结局那样，因为她选择的男人野心渴望太大了，对钱，他只爱钱，同样女人也是的，当一个女人只爱钱，在爱情里，男人给她钱了就是爱，不给了就不是爱，电影里的男主不就是？女主不给钱了就没有爱了，现代女的她妈的就是这样，记住了没有男同胞们，但凡你的女朋友眼里只有钱，只爱钱的时候你一定让她滚，不要让她毁三代，因为当你一旦不给她钱的时候，她要么跟你分手，要么就让你家破人亡，给你戴绿帽子，男人们，看完消失的她，你记住做任何事问心无愧，给你钱花，是你值得，是爱你，不给你花那么因为我也要生活，生存，你太自私，只爱钱，这样的女人，不要也罢，今天看完了，我就把前任所有东西拉黑删除了，最气人的是，她说我跟你谈恋爱，可不能保证跟你结婚，你说你都三十的人了说出这样的话，不以结婚为目的的恋爱？', '你亲手杀死了这个世界最爱你的人', '能被电影左右的，老子祝它一辈子不会幸福', '好看是好看，就是总有小仙女一个月欠着三千块花呗老把自己代入成女主，三观脆弱的人建议别看', '三分之一的时候我猜了一个结局，三分之二的时候我又猜了一个结局，租潜水设备的时候而电影也接近尾声，闺蜜这个重要角色一直没有出现，又想到唯一一张闺蜜的照片，突然整部片子里的暗示就都明朗了，一直在被整部片子牵引着。真的太棒了', '现实中可能没有那么多钱可骗，就是画饼，发誓对你好，等结婚了，小孩生了，原形毕露，有家不回，家外有家，', '看完之后，我老婆问我有啥感想，我说这男主也蠢了点，应该翻翻女主的手机，把知道我们事情的闺蜜找出来，一并杀掉，才不会有手尾。这部剧也告诉了男人们，要完美犯罪，得多留个心眼', '看完《消失的她》远离男人看《我爱你》别生孩子看《八角笼》养不起孩子今年的电影主打一个不婚不育，小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角上亿资产你有啥，还带入自己什么锅，配什么盖也别怪你男朋友，有人破防今夏大爆款《消失的她》值得反复观看品味朱一龙演技朱一龙演技炸裂真的很好看啊！何非最后那个表情一刹那变脸太吓人了，朱一龙演的真的好，演技牛逼 不愧是金鸡影帝非常不错，演员演技都在线看了，很好看！朱一龙对角色的饰演和理解人物很透测，这个电影告诉我们，不要恋爱脑，远离黄赌毒好看好看好看，电影院看了一次手机看了一次，非常好看#2023暑期档最想看的电影#[高血压][泪目][高能][反转][欢乐快逃][梦海保护]', '全剧看完了，剧情紧凑，我也是在出租潜水装具的那个人说的那句话脑海里闪过一个猜想，结果事实确实证明了这一点。另外结尾最后这个彩蛋，如果换成行刑前几个带有跨度的慢镜头，枪声响起后，男主角脑海里瞬间回想起他们一起在夕阳余晖下拍照的场景，最后画面再回到男主的脸上，随着瞳孔越来越大，镜头也越来越远。画面再次回到那个两人一起的合照上，整部剧随着照片的飘落整部剧落下帷幕。话说你们是在哪里开始怀疑男主的？', '谁能告诉我去哪里举办，中国人民不想结婚就是这部电影害的', '这部电影超虐的，不建议情侣一起去看', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角有上亿资产你有啥，还带入自己什么锅配什么盖也别怪你男朋友，有人默默破防有人默默划走', '后半段看得我鸡皮疙瘩都起来了 朱一龙演技好牛逼！！！！！！！', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]', '如果能因为一部电影影响感情，那还不如趁早结束[皇冠]', '孩子没有自己带过，没有生下来，没有相处过是没有感情的，相信我', '就好奇何非为啥要去报案？唯一觉得这影片不合理的地方！', '那个男的是个赌徒之后老婆对象帮他还债，然后他又去赌，欠了钱她老婆怀孕了男的想杀死她老婆来获得💰 之后就是她的好姐妹和兄弟们演了一出戏，那个男的并不知道她老婆怀孕了他老婆很爱他，可他并不珍惜。最后知道啦后悔一辈子，执行死刑了嘎了', '太狗血了，男主竟然是渣男，女主让你受委屈😢了', '好想看这个电影啊', '朱一龙的何非演的太棒了，初到大城市和后面赌徒的他完全不一样，他的眼神也很到位，后面谎言被戳破那段表演爆发力很棒，剃头的戏演的很惊艳！让人对何非又怜又恨！\n电影消失的她引入了世界名画和动物元素，艺术价值和商业价值兼备！', '三观不正，不良嗜好，直到最后人性丧失，人心真是不可直视，爱情在人性面前一文不值，又何尝不是讽刺当今社会人活在面具下', '朱一龙演技炸裂 看第五遍了，哈哈哈，影院看了3遍，今天线下腾讯看2遍～太棒了 不愧是金鸡影帝，集演技人品努力颜值于一身的演员，值得赞美。', '朱一龙不仅有颜值，还有演技！有颜值却没受困于颜值！不像有些演员，已经是油腻大叔了，却偏偏要尬演小鲜肉角色，相信朱一龙最终会是帅大叔一枚！[打call了]', '我就想问问，女生们，人家女主资产过亿，所以被人谋害，请问你们有啥？？。[抠鼻][抠鼻][抠鼻]', '太好了，终于可以在腾讯视频看朱一龙消失的她了！', '啊啊啊啊啊！最后反转绝了，剃头那里才反应过来，朱一龙演技好好啊啊啊啊！！！！', '不沾赌，不吸毒，不出去乱玩，长得也还不错，最后我提出分手了，因为给不了她想要的二十万彩礼，最后我祝她幸福。', '一个电影，会导致多少情侣分手？跟那些毒鸡汤有什么区别？本来在这个物质的社会，男孩子找个女朋友就很麻烦，现在因为一些鸡汤，每天又有多少情侣、两口子在分手，离婚。想想吧。', '为啥手机上面不能看', '★★★★★朱一龙演技真的不错。很多情绪都塑造得很到位。这个片子也拍的很不错。值得一看。结局令人唏嘘。', '你说他和曼曼在水塔下喝酒的时候就不会愧疚嘛，水塔下有最爱他的人', '昨天去电影院看的，值得一张电影票。去看吧！不会后悔。', '朱一龙演的真好。电影悬疑的不止剧情还有人性。', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]有人默默破防有人默默划走', '所以说有个爱他的女人，而且那么有钱主要是这男主这么6嘛赌博长的又丑这么有钱又漂亮的女生怎么看上他的呢，钱真的有那么重要嘛杀人就为了钱', '看完真的不知道说啥了[意难平]\n姐妹儿们，以后谈恋爱一定要看清对方。男孩子们也要擦亮眼睛，不要被坏女孩骗了。[意难平][意难平][意难平][意难平][意难平]', '主要讲些什么呢？那个妻子到底怎么消失是，后面怎么又出现是的，有人告知吗？', '唯一不懂的是，为什么他报警，表现的那么着急，然后还找律师帮忙，为什么', '演技很好的朱一龙演了纯爱战士何非！剧情反转大家都看过了，但情感上的抒发才是最动人的。最后的海底星空让人动容。朱一龙加油，期待下部电影。', '朱一龙牛逼啊，怎么做到控制面部抽搐的，不愧是影帝啊，演技太好了！', '这阵容悬疑剧颜值天花板啊', '朱一龙演技好厉害，好看好看', '听说看了这个离婚率提高了很多？？？', '电影相当不错，值得二刷，作为观众来说这部剧的剧情是给我的感觉是为了反转而反转，反转的痕迹很强烈，如果还能深度打磨剧本，可能会成为电影史上的佳作', '不是什么时候手机上才能看啊', '人心，不可直视', '今天去电影院看了，简直了，反转太厉害了，后面刀有点刀', '赌博就像是吸毒，都有瘾虫在作怪；戒毒难，戒赌亦然；我辈平平，控制住好奇心，可是碰不得。电影拍的真好啊，妻就妻，还妻带儿，难了个大受！😫😫😫', '恋爱脑就别看了，我怕你疯', '我以为可以看，搞得我会员都开了[意难平]', '什么时候可以在手机上看', '什么时候可以在手机上看啊', '朱一龙演技好好啊！佩服佩服，在电影院看的时候给我惊的，牛逼！', '去电影院没有带眼镜看不清楚，又不好意思二刷，终于可以在网上看了', '朱一龙演技牛，好看', '昨天看了，超级好看', '作为一个剧本杀的硬核玩家 看一半就知道端倪了[吃瓜N]', '真的好看 全剧可能唯一不好解释的点就是摄影师哈苏为什么是沈曼的人了吧 总体看来瑕不掩瑜 很后悔没有在电影院看这部剧', '看完这个我感觉，少去外国旅游，远离赌博。', '希望且爱且珍惜吧。珍惜当下，不要错过。男的最后是后悔的。但是晚了。所以有幸福在身边的人就要珍惜不要错过。', '真的好看，之前电影院看过，但有一些细节没看懂，现在网上能看了，再过一遍👍朱一龙演的何非，真的很不错👍', '看完心里堵得慌', '来了来了。在影院看非常震撼！', '反正就觉得。第一自己别太有钱。第二 别找别人太有钱的。第三 坚决不出去旅游 杜绝一切山 水 活动', '远离黄赌毒吧！', '这是恐怖片吗', '只能说看了这部影片两口子吵架的都是幻想大师，特别是女生都想当白富美，觉得对自己的好的男人都是渣男，可悲！', '这个还要付6元子吧']</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>90</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['这部电影成功的把所有女性洗脑了', ']看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n[鞠躬]看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n[鞠躬]看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活的好，必须要靠自己向命运挥拳！\n[鞠躬]看完《孤注一掷》不是让你别相信朋友，是让你学会在这个社会保护自己\n[鞠躬]看完《我经历过风暴》不是让你别结婚，而是一定要擦亮眼睛，可以多谈几个，日久见人心，婚后见人性\n所以，一定要有正确的三观，不要盲目跟风，不然苦的是自己。[求求了][求求了]', '这个赌鬼把刚怀孕的李木子把别人关在笼子里，一切多是沈漫计划的一场戏，就是为了让这个男的说实话', '李木子是最大的赌徒，她在赌一个赌徒的真心', '跟有那种的感觉 我看了两遍第一次在影院出门有分手的[泪目]这个我当时挺喜欢的后来单曲循环《笼》这首歌', '这个不建议看，我和我女朋友就是这样，和我女朋友在电影院看完消失的她然后想一起去吃个饭，她直接不理我，把我手甩开了，是真的，当时我还拿着她的包，我一看这样立马就生气了，包直接给她扔了，我说，如果你因为一部电影就认为我没有安全感，那我们也没必要在一起了，然后我自己就打车回去了收起到了第二天她来找我复合，说她错了，我说你拒绝我一次之后，第二次你就没机会了，电影里说的是女生不要让男生伤害第二次，那么同样，你是女生，我是男生，我也不会让你伤害我第二次，我是异地恋，当晚就坐动车回来了，然后就把她所有联系方式都给删了，你用行动拒绝我，我也会明确回应，狠下死心跟你分手，花着我的，吃着我的，包也是我买的，到头看完一部电影就甩脸子？给谁看呢？原谅是不可能的！', '这部电影拆散了好多情侣', '建议情人节档安排上，更适合情侣宝宝的好电影❤️！', '《消失的她》……其实我们都知道！爱会消失！承诺会失效！人会走散！只是我们太执着！相信自己是个例外！可到最后无一例外···', '真的很好看，非常悬疑', '前有秦昊老师带你爬山\n后有朱一龙老师带你看海\n所爱隔山海，渣男送棺材[偷笑]', '特别好看，最后朱一龙为了保护木子和孩子把她放在防鲨笼，自己去引开鲨鱼，流的血汇成了海底星空那段真的感动死了，好久没看过这么好看的电影了[机智]', '看完以后真的很难压制住自己的愤怒，对一个那么爱自己的人去要了她的命，真的cs，当然不是指剧中演员，但是这部电影是根据事实改编的就很让人惋惜，这部剧告诉我们不能轻易相信一个男人的甜言蜜语，在他说这些话之前你应该先想想他说的和他做的，如果一个人粘上了赌毒那他几乎是戒不了，广大女性朋友在选择恋爱时真的应该把他了解清楚，认清他的为人，人品，这个世界真的存在太多居心莫测，保护好自己才是最重要的，作为一个男生看的何非这样对一个爱他的人下了杀手是真的愤怒，真的把渣男体现的淋漓尽致，女士如果碰到这样的人真的很危险，奉劝各位女性朋友以及男性朋友，不要恋爱脑，不要恋爱脑，当你用感情去看问题的时候你的理性就被屏蔽了，你会忘记他的缺点，他的不好，感情不应该是处处的处心积虑，两个人中有一方动了小心思那就真的很危险了，真的希望各位女同胞也好男同胞也好，遇到一个真正爱你，珍惜你的人，珍惜好眼前的人', '什么时候可以在手机上看啊救命', '所以，沾染了黄，赌，毒的人绝对不要相信他（她）会改邪归正，果断远离才是明智之举[打call了]', '这种也能放到电影院上？有啥一意义？', '远离黄赌毒，是有道理的！出轨，外遇，嫖娼，赌博，毒品毁了多少家庭！', '今天我才看这个消失的她，当初我女朋友看的时候也跟我说，没感全感，也跟我提过分手，因为一部电影分手，我原谅她，不计较，没太在意，直到七夕那天，我主动发红包，然后我说了一句今天应该收到很多红包吧？这句话说完就把我删了，我瞬间炸了，我就当她心情不好吧，下班了，我就打电话，发短信，发抖音，都把我删了，我加了微信无数次，通过了，立马发个红包人家131.4人家嫌弃少，说我哄小孩子呢。我她妈的辛辛苦苦的上班赚钱，异地恋，半年我主动发红包转账，1314+5200+520+52.0+131.4从来没有低于52.0的，我一个普通人打工的，我也要生活，异地恋啊，我一个月给你花几千，我得不到关心，疼爱陪伴，我去找你坐飞机去找你你不让我去就算了，任何事情都是我主动，男人主动发红包转账，任何事情我都是主动，从来没有让她开口，男人不花钱吧你说男人不爱你，花了吧换来的是删除，第一次删除我，我求爷爷告奶奶的加回来通过了，看到我发的131.4又把我删了，我去抖音评论把我拉黑了。害怕其他追求者看到了，把我藏起来谈恋爱生怕身边的人知道了，花我的钱，从来没有满足我任何事情，过年的时候在一起挺好的去了外地她就变了，都是成年人，因为一个电影，一句话就删除微信，说分手的那女人不要也罢，男人辛苦赚钱容易？真心对你爱你，你非要作，你说男人去赌博了，或者跟别的女人上床了不给你花钱了你折腾说分手，删除都可以理解的，她妈的我呢都没有因为一部电影分手，一句话删除微信，我看完消失的她，总结了，人啊一定要擦亮眼睛选择人，选择错了女人毁三代。选择错了男人你就是尸体！为何女主结局那样，因为她选择的男人野心渴望太大了，对钱，他只爱钱，同样女人也是的，当一个女人只爱钱，在爱情里，男人给她钱了就是爱，不给了就不是爱，电影里的男主不就是？女主不给钱了就没有爱了，现代女的她妈的就是这样，记住了没有男同胞们，但凡你的女朋友眼里只有钱，只爱钱的时候你一定让她滚，不要让她毁三代，因为当你一旦不给她钱的时候，她要么跟你分手，要么就让你家破人亡，给你戴绿帽子，男人们，看完消失的她，你记住做任何事问心无愧，给你钱花，是你值得，是爱你，不给你花那么因为我也要生活，生存，你太自私，只爱钱，这样的女人，不要也罢，今天看完了，我就把前任所有东西拉黑删除了，最气人的是，她说我跟你谈恋爱，可不能保证跟你结婚，你说你都三十的人了说出这样的话，不以结婚为目的的恋爱？', '看完之后，我老婆问我有啥感想，我说这男主也蠢了点，应该翻翻女主的手机，把知道我们事情的闺蜜找出来，一并杀掉，才不会有手尾。这部剧也告诉了男人们，要完美犯罪，得多留个心眼', '看完《消失的她》远离男人看《我爱你》别生孩子看《八角笼》养不起孩子今年的电影主打一个不婚不育，小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角上亿资产你有啥，还带入自己什么锅，配什么盖也别怪你男朋友，有人破防今夏大爆款《消失的她》值得反复观看品味朱一龙演技朱一龙演技炸裂真的很好看啊！何非最后那个表情一刹那变脸太吓人了，朱一龙演的真的好，演技牛逼 不愧是金鸡影帝非常不错，演员演技都在线看了，很好看！朱一龙对角色的饰演和理解人物很透测，这个电影告诉我们，不要恋爱脑，远离黄赌毒好看好看好看，电影院看了一次手机看了一次，非常好看#2023暑期档最想看的电影#[高血压][泪目][高能][反转][欢乐快逃][梦海保护]', '你亲手杀死了这个世界最爱你的人', '能被电影左右的，老子祝它一辈子不会幸福', '剧情一般，没有让人觉得眼前一亮的一个瞬间，但细节处理的不错，木子怀孕了摸肚子，何非一直要求立案而不是找人。说到处都找过了，问过，身边的人（酒店服务员等）却没有感受出他对找妻子的急迫和同情，急迫的表情只对警察和陈麦表现。人物身份大概能猜测出来，警察都不愿意帮他，郑成出现在警察门口而不是警署内，陈麦一个颇负盛名的律师会欲擒故纵一样无条件帮他寻找他的妻子（有名的律师一般不会接这种穿着不像有钱人的案子，咨询费都挺贵的，一般不会自降身价）陈麦肯定就是知道他是谁才帮他，后面问他闺蜜尸体在哪里的时候，有人影晃动时间流逝造出一种压迫感，但却迟迟没有人来就能猜到陈麦和郑成是一伙的了。开始以为何非吃药可能也是为了让自己意识模糊骗自己真的在寻找妻子，结果是真有病，脑子和心理都治不好的那种，最后何非哭可能也是因为杀了自己的孩子而哭吧[抠鼻]还说做这些是为了匹配木子。说何非是赌徒不如说木子是最大的赌徒，赌一场虚幻的爱情和变幻莫测的人性。剃头发那里或许是一镜到底眼神没有感受到真正的惊恐，胸口以上没有绑住，麻药也刚打上还没有发挥作用，完全可以试着挣脱而不是任人宰割，面部抽搐演的还行。反而是郑成的笑感觉挺到位的。', '好看是好看，就是总有小仙女一个月欠着三千块花呗老把自己代入成女主，三观脆弱的人建议别看', '三分之一的时候我猜了一个结局，三分之二的时候我又猜了一个结局，租潜水设备的时候而电影也接近尾声，闺蜜这个重要角色一直没有出现，又想到唯一一张闺蜜的照片，突然整部片子里的暗示就都明朗了，一直在被整部片子牵引着。真的太棒了', '现实中可能没有那么多钱可骗，就是画饼，发誓对你好，等结婚了，小孩生了，原形毕露，有家不回，家外有家，', '就好奇何非为啥要去报案？唯一觉得这影片不合理的地方！', '那个男的是个赌徒之后老婆对象帮他还债，然后他又去赌，欠了钱她老婆怀孕了男的想杀死她老婆来获得💰 之后就是她的好姐妹和兄弟们演了一出戏，那个男的并不知道她老婆怀孕了他老婆很爱他，可他并不珍惜。最后知道啦后悔一辈子，执行死刑了嘎了', '太狗血了，男主竟然是渣男，女主让你受委屈😢了', '全剧看完了，剧情紧凑，我也是在出租潜水装具的那个人说的那句话脑海里闪过一个猜想，结果事实确实证明了这一点。另外结尾最后这个彩蛋，如果换成行刑前几个带有跨度的慢镜头，枪声响起后，男主角脑海里瞬间回想起他们一起在夕阳余晖下拍照的场景，最后画面再回到男主的脸上，随着瞳孔越来越大，镜头也越来越远。画面再次回到那个两人一起的合照上，整部剧随着照片的飘落整部剧落下帷幕。话说你们是在哪里开始怀疑男主的？', '谁能告诉我去哪里举办，中国人民不想结婚就是这部电影害的', '这部电影超虐的，不建议情侣一起去看', '后半段看得我鸡皮疙瘩都起来了 朱一龙演技好牛逼！！！！！！！', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]', '如果能因为一部电影影响感情，那还不如趁早结束[皇冠]', '孩子没有自己带过，没有生下来，没有相处过是没有感情的，相信我', '好想看这个电影啊', '不沾赌，不吸毒，不出去乱玩，长得也还不错，最后我提出分手了，因为给不了她想要的二十万彩礼，最后我祝她幸福。', '一个电影，会导致多少情侣分手？跟那些毒鸡汤有什么区别？本来在这个物质的社会，男孩子找个女朋友就很麻烦，现在因为一些鸡汤，每天又有多少情侣、两口子在分手，离婚。想想吧。', '主要讲些什么呢？那个妻子到底怎么消失是，后面怎么又出现是的，有人告知吗？', '朱一龙的何非演的太棒了，初到大城市和后面赌徒的他完全不一样，他的眼神也很到位，后面谎言被戳破那段表演爆发力很棒，剃头的戏演的很惊艳！让人对何非又怜又恨！\n电影消失的她引入了世界名画和动物元素，艺术价值和商业价值兼备！', '三观不正，不良嗜好，直到最后人性丧失，人心真是不可直视，爱情在人性面前一文不值，又何尝不是讽刺当今社会人活在面具下', '朱一龙演技炸裂 看第五遍了，哈哈哈，影院看了3遍，今天线下腾讯看2遍～太棒了 不愧是金鸡影帝，集演技人品努力颜值于一身的演员，值得赞美。', '朱一龙不仅有颜值，还有演技！有颜值却没受困于颜值！不像有些演员，已经是油腻大叔了，却偏偏要尬演小鲜肉角色，相信朱一龙最终会是帅大叔一枚！[打call了]', '我就想问问，女生们，人家女主资产过亿，所以被人谋害，请问你们有啥？？。[抠鼻][抠鼻][抠鼻]', '打死都不去泰国缅甸老挝这些国家，怎么死都不知道', '啊啊啊啊啊！最后反转绝了，剃头那里才反应过来，朱一龙演技好好啊啊啊啊！！！！', '为啥手机上面不能看', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]有人默默破防有人默默划走', '唯一不懂的是，为什么他报警，表现的那么着急，然后还找律师帮忙，为什么', '昨天去电影院看的，值得一张电影票。去看吧！不会后悔。', '朱一龙演的真好。电影悬疑的不止剧情还有人性。', '演技很好的朱一龙演了纯爱战士何非！剧情反转大家都看过了，但情感上的抒发才是最动人的。最后的海底星空让人动容。朱一龙加油，期待下部电影。', '朱一龙牛逼啊，怎么做到控制面部抽搐的，不愧是影帝啊，演技太好了！', '这阵容悬疑剧颜值天花板啊', '所以说有个爱他的女人，而且那么有钱主要是这男主这么6嘛赌博长的又丑这么有钱又漂亮的女生怎么看上他的呢，钱真的有那么重要嘛杀人就为了钱', '看完真的不知道说啥了[意难平]\n姐妹儿们，以后谈恋爱一定要看清对方。男孩子们也要擦亮眼睛，不要被坏女孩骗了。[意难平][意难平][意难平][意难平][意难平]', '朱一龙演技好厉害，好看好看', '听说看了这个离婚率提高了很多？？？', '电影相当不错，值得二刷，作为观众来说这部剧的剧情是给我的感觉是为了反转而反转，反转的痕迹很强烈，如果还能深度打磨剧本，可能会成为电影史上的佳作', '不是什么时候手机上才能看啊', '人心，不可直视', '恋爱脑就别看了，我怕你疯', '我以为可以看，搞得我会员都开了[意难平]', '今天去电影院看了，简直了，反转太厉害了，后面刀有点刀', '什么时候可以在手机上看', '赌博就像是吸毒，都有瘾虫在作怪；戒毒难，戒赌亦然；我辈平平，控制住好奇心，可是碰不得。电影拍的真好啊，妻就妻，还妻带儿，难了个大受！😫😫😫', '什么时候可以在手机上看啊', '朱一龙演技好好啊！佩服佩服，在电影院看的时候给我惊的，牛逼！', '去电影院没有带眼镜看不清楚，又不好意思二刷，终于可以在网上看了', '朱一龙演技牛，好看', '看完这个我感觉，少去外国旅游，远离赌博。', '希望且爱且珍惜吧。珍惜当下，不要错过。男的最后是后悔的。但是晚了。所以有幸福在身边的人就要珍惜不要错过。', '昨天看了，超级好看', '真的好看，之前电影院看过，但有一些细节没看懂，现在网上能看了，再过一遍👍朱一龙演的何非，真的很不错👍', '作为一个剧本杀的硬核玩家 看一半就知道端倪了[吃瓜N]', '真的好看 全剧可能唯一不好解释的点就是摄影师哈苏为什么是沈曼的人了吧 总体看来瑕不掩瑜 很后悔没有在电影院看这部剧', '看完心里堵得慌', '来了来了。在影院看非常震撼！', '反正就觉得。第一自己别太有钱。第二 别找别人太有钱的。第三 坚决不出去旅游 杜绝一切山 水 活动', '远离黄赌毒吧！', '这是恐怖片吗', '终于等到了[意难平][意难平][意难平]', '只能说看了这部影片两口子吵架的都是幻想大师，特别是女生都想当白富美，觉得对自己的好的男人都是渣男，可悲！', '这个还要付6元子吧', '免费看嘻嘻', '8.25 4点在线观看']</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 失而复得 </t>
+          <t xml:space="preserve"> 斗破苍穹·觉醒 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIP · 10959热度</t>
+          <t>VIP · 10802热度</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>张亮私下交易假币，闹出人命,电影简介:如果有一百万美金放在你面前，你会想要得到它吗？出国归来的张博受人之托，要将百万美金送出境，同时青梅竹马的冯乐琪正在竭力调查一起假币案。两人连同各阶层爱财之人，意外卷入百万美金的陷阱中。真真假假的钞票、虚虚实实的情愫，每个人都成了局中人，一场好戏正在上演。</t>
+          <t>《斗破苍穹·觉醒》终极预告，马伯骞斗气觉醒，少年意气斩尽藩篱,电影简介:身为乌坦城三大家族之一的三公子的萧炎，因斗气等级不高成为众人的笑柄。在遭到云岚宗大弟子纳兰嫣然退婚之时，萧炎不堪受辱与嫣然订了三年之约，约定三年后以比武胜负来决定婚约。为提升斗气，萧炎来到了魔兽山脉，结识了小医仙，但也被卷入了狼头兵团的纠纷中。因为躲避狼头兵团追击时，萧炎偶然撞见了斗皇云芝和紫晶翼狮王在搏斗，云芝不敌狮皇，萧炎救下了云芝，两人经过一番曲折之后决定再次去挑战狮王，两人分头行动，最终成功。云芝偷偷离开，萧炎也决定离开魔兽山脉，前往蛇族沙漠……</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.9分</t>
+          <t>4.8分</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>内地</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['居然还能看到赵英俊😭', '趁现在评论少，我先吃个快餐', '为啥只有78条评论？不好看吗小伙伴们？', '祝我29岁生日快乐！[666啊]愿以后每天开心！[一起冲]', '我的妈呀！赵英俊死而复活了', '为了赵英俊而来。失而复得 00:49', '2023.12.05 第一个报道！！！！！', '为什么还没看，就排斥辛芷蕾', '你这是认真的吗？帽子这个链花都歪了', '张亮麻辣烫', '课代表给你们梳理包包的情况\n首先剧里一共3个包，外表一样，一包杂志，一包真钞，一包假钞。\n1，张博放了一包真钞，此时天花上只有一个包\n2，章国荣被女警追的时候从风扇处藏了一包杂志进去，此时天花上有一包真钞一包杂志\n3，三兄弟带着一包假钞来偷梁换柱想取走真钞，放上去一包假钞，拿走一包杂志，此时天花上还有一包假钞一包真钞\n4，章国荣醒来取走一包假钞，他的视角里那是他的一包杂志，此时天花上还剩一包真钞\n5，三兄弟误认为张博把真钞藏在了别的地方，第二次上天花想取走之前放的假钞，然后取走了天花上仅剩下的一包真钞。\n张博放的真钞不见了，认为是有人从风扇处偷走了\n三兄弟得到了一包杂志和一包真钞，但误认为拿到的是自己从假币贩子那买的假钞，不知道张博把真钞藏哪了\n章国荣拿着假钞以为是真钞，所以虽然不理解杂志怎么变成钞票了还是告诉了警察那是他的～', '谁能说说这是咋回事？怎么是2023年的呢？穿越了么？', '2024负债清零就好', '真的挺好看的 要好好捋一下情节 有疯狂石头那个意思', '疯狂的石头', '看得我一脸懵', '这是幻灯片还是ppt', '从头到尾没有辛芷蕾的', '有意思，和疯狂的石头类似', '流水席一样对付', '不错的片子，几路齐发线索，最后汇聚在一起，推荐路过朋友看看', '天网恢恢疏而不漏。', 'x6连倒车影像都没有，搞个串串', '洛阳来了', '纹身贴是贴的', '导演功底不够 硬抄疯狂的石头吧', '派人去糗（qiu三声），这不是东北话么[笑死我了][笑死我了][笑死我了]', '还不错，多个故事线串在一起', '🌊🌤🌴✨\n想过一千句描写旅行风景的句子\n却不及按一次留住幸福的快门📷', '肥皂剧吧，挺无趣的', '有点意思，也有点混乱，最后不太搞得清谁是谁了。', '有点没看明白啥意思', '逻辑混乱', '差劣的模仿…', '所以为啥开旅游公司的最后拿的是真钱？他拿的不是卖假币收藏的那个人的假钱吗？那个卖包的拿的钱咋是假钱？卖包的最后拿的不是王老爷子的一百万吗？？', '看了30分钟还不知道讲什么', '大家都是会员说话嚣张一点', '主演应该换成黄渤', '这片不拿吴樾辛芷蕾做宣传，估计没人点进来', '疯狂的赛车？', '有点看不懂', '为了潇洒哥而来', '啥啊这是', '这是麻辣烫那个张亮吗', '能不能演个恐怖片？', '这电影至少是3年前的了吧！赵英俊都走了快三年了。', '不是死了吗？', '这个电影好看吗？先来评论区逛逛😅', '客串的明星真不少，喜欢吴越', '来了 来了', '辛芷雷的👄', '都干嘛呢😁', '天啊张博他爸看的节目爸爸去哪儿1：12：20', '很搞笑，也非常有意思。剧情有点类似于《疯狂的石头》，喜欢看石头的，可以看看这个电影🎬。', '编剧有点厉害三个故事窜在一起玩', '给烂苹果打广告\n', '挺好的剧', '为啥电影名不叫张亮亮麻辣烫', '没王法了哈哈哈w', '没看明白', '这年头，男模都拍电影了', '人少占个座[准奏]', '一般酒吧舞女赌场镜头多的，多半都是烂...懂得都懂。哎。', '都看不出什么来', '真的不好看', '乱七八糟', '演的个啥', '突然看到赵英俊，真觉得恍惚了', '2023   12   8号观看', '张亮会演戏吗……', '南海归墟来的', '这是什么时候拍的电影，现在才放出来！', '这应该是赵英俊最后一部电影', '笑了一次算我输，不过有点疯狂的石头的感觉', '[狗头][狗头][狗头][狗头]占个前排', '这导演牛逼', '这里面居然还有韩兆', '这啥时候拍的呀？还有赵英俊？[放大镜]', '还热乎赶紧站个坐', '12月15日[吃瓜N]', '看不懂的举手', '王健林呀这是', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈歇一会哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '一个不尊重军人的人演上了警察', '难怪评论这么少', '乱码七糟，看不进去', '挺有意思哈哈哈😁', '是人是鬼！来拍电影', '赵英俊失而复得了', '笑死我了，屋里打架那段']</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>奇幻</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['我的评价是不如他', '谁要是买了我笑他六十年，三十年在河东笑，三十年在河西笑', '强烈要求严查导演，我怀疑拍这部电影的目的是为了洗💰！', '找不到拍的了吗？实在不行你去拍天线宝宝也行啊！！！', '对不起吴磊，我承认之前的声音有点大[意难平]', '终于免费了，我来看眼怎么个事，看到这个表情请戳瞎我，谢谢。', '打倒反派消炎', '消炎，云山，熏儿，这这这', '我的天呐，无语ing…', '工作人员 能不能认真一点', '大家别误会，我只是点进来骂几句就走！拍的和💩一样', '拍的好，大力支持，这一颗星是六星溢出来了！！！！！！！！！！……', '看了前面感觉还不错 花了六元买了看着更爽了 物有所值', '这要不是为了洗q，我把异火都吃了，第一次想看云山打死萧炎', '能不能退我六块钱，不是差钱，我感觉我的智商被侮辱了！', '这钱这么难洗吗[666啊]', '小马太敬业了 白内障了 还出来拍戏   点赞。。。。。', '萧炎还得他来演，吴磊也演不出', '………..emmm很难评。[泪奔]', '🙈我就不喷了', '看完这部戏后，我面色凝重，深深地低下头，默默的关掉电脑，起身打开冰箱，拿出一瓶伊利酸酸乳，紧紧地握在手里，细细的回忆着刚才的剧情，慢慢的走向窗前，外面的景色有些暗淡，就像我的心情一样，沉重。。。很沉重！渐渐的，外面灰蒙蒙的下起了小雨，为什么会这样？我的视线开始模糊了……不知道是我 流泪了、还是雨太大了！可能都有吧…… 我的心情更忧郁了，我再也无法抑制内心的情感！导演和编剧真的太侮辱观众智商啦！我缓缓的仰起头。。。对着窗外大喊了一声：这到底演的神马玩意啊？', '有一种打开奶奶家的皇家曲奇饼干盒确发现里面是针线的无力感', '这波我站魂殿这边，魂天帝必胜！[打call了]', '6块钱，我宁愿拿去买两瓶快乐水', '猖狂猖狂猖狂、三千雷动动动动动动', '人家辛辛苦苦拍的给你们看评分搞那么低对得起人们吗？又不想出钱，又想VIP有的看。看了里面的弹幕，个个都要白嫖。', '莫欺少年穷，当萧炎强势归来的时候，任何人都不配跟萧炎提鞋', '就说咱能不能尊重一下原著，原著没有人物描述吗，这一个个的是啥？\n这封面——\n萧炎要不要那么邪魅，跟个反派似的一点没有正气\n药老更离谱人家原著说的道风仙骨这咋出来个算命的瞎子\n云山虽说是岁数大但是人家突破斗宗后变年轻了啊，不说你找老演员了，就是找老演员也得找个像原著描述的啊，那姜武大圆脸戴假发玩呐，要是把假发摘了我都感觉像个大厨！\n也就是萧战这个演员还想点原著的任务描述', '这还演什么斗破苍穹，我觉得有歪嘴龙王就挺适合的😂', '这玩意这演员阵容能看吗？？？？？熏儿只能李沁或者李一桐才完美', '不是大哥，你们都没有手机吗？都没键盘吗？开喷啊，还等啥呢，等过年啊？', '真的有被马伯赛惊艳到，真的好适合这种片子，希望哥哥继续努力', '你要是实在没播的  你播天气预报  今天的博不准就播昨天的', '我的评价是一托史', '就这破东西我还犹豫了一会才点开，结果还收费？笑死，9毛钱我都嫌弃', '4.6的超高评分，我希望没有三年之约，我更希望云山干死萧炎', '真好看啊，我看了。推荐朋友也花了6块。第二天被朋友打进医院，朋友陪了我1万。以后有这样的片子，我还看', '笑死我了这云山', '要不要买，买了的说一下', '我靠，这拍的啥，有我美有我酷吗？', '导演不负众望，无论是剧情还是特效都非常的震撼！强烈推荐！！！\n唯一的缺点就是不够看，6分钟就看完了，希望导演能加些时长。', '谁花六块钱，我笑他60年，30年在河东笑，30年的河西笑', '吴磊我错怪你了，除了特效不行外你的演技还是挺好的[狗头]', '咱就是说，这些特效真的很不错，看起来就很有意思', '我怀疑着导演不是为了拍电影是为了洗一下不干净的Q', '像萧炎这样有能力的男生，没有哪一个女生不喜欢吧', '狗看了会兴奋的电影', '作怪的，如这个吗？啊？导演是谁？毁了一代人的三观', '期待～一直在期待，上班熬了个通宵都等到10点上线，还浪费了我省吃俭用的6块钱的早餐钱。看完这斗破苍穹后，我面色凝重，面无表情，躺到床上两眼一闭，回忆我看过的小说，回顾我追过的动漫，再总结我刚刚花早餐6块钱看完的电影，我直接开骂了，这尼玛的什么跟什么，毫无逻辑，毫无剧情，毫无经典。欺骗我对原著的情怀吗？拍的什么鬼，我起来跑的冰箱拿了一瓶啤酒，一口气喝完倒头睡下，听到窗外的雨声 仿佛我现在的心情，。。很沉重。很生气', '我可没有购买六块钱看，我只看看五分钟的鼻炎', '斗破苍穹到底得罪了谁，非要把它嚯嚯完吗？我看到这个云芝和熏儿，还有那个小医仙，我的天呐，还觉醒，你是要我们长眠吧！', '我觉得腾讯应该搞一个缴费看评论，应该会比这个电影收益高很多[上头-上][上头-头]', '[狗头]谁要是买了 我笑他六十年 三十年在河东笑 三十年在河西笑￼', '推荐给我的好兄弟们一起看，不能只有我自己难受', '毁三观的电影 我以为王晶的新倚天屠龙记已经天下无敌了 这是谁的部将', '我以为吴磊已经天下无敌了，没想到有人比他还勇猛[憨笑]', '家人们谁懂啊，我为了勋章，看了六个六分钟的经典大电影，谁懂啊，可惜电影太短了点就是！', '浪费我一瓶饮料钱 我承认之前对吴磊的声音有点大', '我叫萧炎\n我叫林动\n我叫牧尘\n萧炎：我目标是成为斗帝\n林动：我目标是晋级祖境\n牧尘：我目标是进入主宰境\n萧炎：我的戒指有个药老，比攻略还NB\n林动：我的石符里有个貂爷，比攻略还NB\n牧尘：我的黑纸里有个九幽雀，比攻略还NB\n萧炎：我有种东西叫异火，威力堪比神器级绝版装备\n林动：我有种东西叫祖符，威力堪比神器级绝版装备。”\n牧尘：我有种东西叫至尊身法，威力堪比神器级绝版装备\n萧炎：我出自乌坦城的萧家，是个小少爷\n林动：我出自青阳镇的林家，是个小少爷\n牧尘：我出自北灵境的牧域，是个小少爷\n萧炎：我喜欢古熏儿，可他家势大，不让我和她在一起\n林动：我喜欢绫清竹，可她家势大，不让我跟她在一起\n牧尘：我喜欢洛璃，可她家势大，不让我跟她在一起\n萧炎：年少时，我的目标是打败纳兰嫣然\n林动：年少时，我的目标是杀死林琅天\n牧尘：年少时，我的目标是打败姬玄\n萧炎：想当初，我斗皇的时候，栽在我手上的斗宗一大堆\n林动：想当初，我生玄境的时候，栽在我手上的死玄境一大堆\n牧尘：想当初，我化天境的时候，栽在我手上的通天境一大堆\n萧炎：我有特长，我会炼丹\n林动：我有特长，我会画符\n牧尘：我有特长，我会布阵\n萧炎：我有两个老婆\n林动：我也有两个老婆\n牧尘：我目前只有一个老婆，但我相信我会有第二个的\n萧炎：我的武器是尺子，叫玄重尺\n林动：我的武器有很多，合称九大神物\n牧尘：我的武器还没出现，现在用的都是一些缴获的，求武器啊，嘤嘤嘤。ＱＡＱ\n萧炎：我最后成为斗帝，打败了魂天帝，夺回了大陆的和平\n林动：我最后晋级祖境，打败了异魔皇，拯救了世界的万千生灵\n牧尘：我没有他们那么NB的事迹，但我还小，我相信我将来会比他们更Nb\n萧炎：后来，我加入了迦南学院，参加了学员大赛，一战成名\n林动：后来，我加入了道宗，参加了殿试，一战成名\n牧尘：后来，我加入北苍灵院，参加了狩猎赛，一战成名\n萧炎：我有一个特NB的大招，叫佛怒火莲\n林动：我有一个特NB的大招，叫青龙化天决\n牧尘：我有一个特NB的大招，叫九级浮屠塔\n萧炎：如有雷同\n林动：纯属巧合\n牧尘：我也没辙\u200b舞动', '没看过动漫的我，觉得很好看啊！全程看完，很有意思啊', '我的评价是：依托勾史', '我进来只是看看有人骂没，看到有人骂我就放心了，我真没看。🙋🏿\u200d♂️', '这几个老戏骨怎么接这种片子，实在是多穷接不到片子拍了', '离离原上谱', '从来没看过这么好看的电影，剧情选角特效都是绝佳，真心推荐大家看，五星好评虽然只有6分钟', '建议严查 不然这演的那么随意？现在什么电影都可以上架吗？', '我的评价是勾史一样的主角，勾史一样的剧情，勾史一样的演技，勾史一样的特效', '我就没花6块，我就看了6分钟。我买了两瓶快乐水，我骄傲啊。', '笑死，药老哪来的女弟子？还有小说都不知道萧炎他娘是谁，这还好意思拍出来？', '主角团用这些人就直接封神了\n萧炎：胡歌   萧熏儿：迪丽热巴/古力娜扎   小医仙：刘亦菲   \n云芝：白鹿   纳兰嫣然：关晓彤   美杜莎：迪丽热巴/古力娜扎', '观影20分钟才能评分，可我俩分钟就坚持不下去了。', '我以为斗气化马已经是极致了，没想到还有高手，对不起吴磊', '看来上一次被骂的还不够狠，兄弟们等这部片子出了继续骂。', '真人萧炎还得看吴磊，虽然电视剧特效差，但是吴磊很符合我对萧炎这个角色的少年感和有趣', '你们没看就别黑了，，真的挺好看的，就是只有六分钟', '那个云芝是打算要收萧炎为孙子吗', '我宁愿动漫追到死，也别想在这电影里赚我9块钱', '鱼越大，鱼刺越大，鱼刺越大，鱼肉越少，鱼肉越少，鱼越小，所以鱼越大，鱼越小。', '这种肯定要先看评论再买，我就问个事，对比吴磊的你们还喷吴磊吗？😂', '影史上改编成功的只有仙剑1和三了，其他小说游戏改编都很失败', '看了20分钟就为了给个差评.如果开始能评价我都不带看20分钟的.', '看来现在这钱确实是很难洗啊 ，但你也不能嚯嚯这小说啊 ……', '兄弟们建议大家不要看了，六块钱不如买个鸡腿吃吃', '别说六块钱    别说流量费    单单是浪费老子手机电量我都感觉巨亏', '投资者这么有钱，过来投资我，我要拍真人版葫芦娃', '吾等都说，客户是上帝，是衣食父母，如此行径犹如杀父弑母，众人必弃之。', '谁花 12块钱看我笑他 60 年，30 年在河东笑，30 年在河西笑', '我今年37岁 看了好几年动画 斗破苍穹  你们这个电影直接把 斗破苍穹 玷污了……', '我VIP7级表示不愿意花这6块，看这玩意儿（啥也不是）', '马伯骞真的nb，先参加明日之子，被毛不易压制，没火起来，又以不到而立之年参加《哥哥》，现在还能直接演电影']</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 黑豹2 </t>
+          <t xml:space="preserve"> 失而复得 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIP · 10887热度</t>
+          <t>VIP · 11077热度</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>《黑豹2》：英雄重生！瓦坎达全族共迎战海底变种人,电影简介:在“黑豹”特查拉国王不幸去世后，苏睿、奥克耶、拉曼达女王、姆巴库为了保护瓦坎达而战。瓦坎达人努力迎接他们的新篇章，他们必须在娜吉雅和罗斯探员的帮助下团结起来，为瓦坎达王国开辟新道路。</t>
+          <t>张亮私下交易假币，闹出人命,电影简介:如果有一百万美金放在你面前，你会想要得到它吗？出国归来的张博受人之托，要将百万美金送出境，同时青梅竹马的冯乐琪正在竭力调查一起假币案。两人连同各阶层爱财之人，意外卷入百万美金的陷阱中。真真假假的钞票、虚虚实实的情愫，每个人都成了局中人，一场好戏正在上演。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.1分</t>
+          <t>7.9分</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>内地</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['电影是好看的，就是整部电影只有6分钟，希望导演下次拍长点，多年老黑豹迷了', '颠覆了我对漫威的看法，选角随意，从海里出来，从海里的既视感完全比不上海王，感觉太随意了，打斗也随意', '已经看完了，会员不是免费的吗？', '我对黑人没有歧视。但是肤色本来就黑这电影晚上的光能亮点吗？根本看不见…不知道调色师搞什么鬼。', '漫威真的在走下坡路啦！怎么才6分钟啊？', '我看过了，剧中一直期待黑豹复活，直到电影结尾才发现此片结尾敬博斯曼，上网一查原来他本人真的去世了才没参演黑豹2。更没想到的是黑豹1和复联34都是在癌症晚期参演的，致敬', '我还是免费，哎呀', '建议让欧文出演', '评论区让我省了7块2毛！感谢各位大冤种！', '《黑豹2》是一部伟大的续集，继续讲述着瓦坎达王子翻身做大哥的故事。影片对非洲文化和历史进行了深刻的探索，人物形象塑造也更加丰富、立体，引人入胜。同时，电影的特效和动作场面堪称一流，让观众身临其境地感受瓦坎达的奇幻世界。不过，个人认为电影的反派角色塑造上有待加强，缺少了一些令人难忘的反派人物。总之，《黑豹2》是一部绝佳的科幻动作电影，引人入胜，强烈推荐。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '真难看，故事剧情简直胡扯淡，明明是美国在那里挑事不干美国两个高文明打起来，美国鬼子搁旁边看戏呢吗？永远是奥特曼打怪兽剧情', '喜欢黑豹2', '不管你信不信，六分钟之后我也退出了！', '最强大的国家和战士，我可以说美国资本做法是你喜欢意淫他十分愿意满足你', '两个高文明本来聊得好好的  然后因为一点点小事 直接开战 最后又因为心里放不下人民 又休战 和好如初  跟小孩子闹脾气一个样的科幻电影', '钢铁侠过后再无漫威', '这就很扯，这人鱼既然这么强，那灭霸来的时候他在干啥？说要保护族人，灭霸打响指的时候他又在干啥？纯属扯淡', '第三部不会是这个小孩回去挑战成为了新的黑豹吧！', '非常一般。在观看的两个小时内我一直在期待着精彩剧情的出现，然后就大冤种般地一直期待到了结尾......总之从头到尾我的内心都毫无波澜。', '可惜再也看不到黑豹1里的黑豹了', '本来想买的，一看评论那么拉，不买了', '明明2小时35分钟07秒，为什么那么多人说只有六分钟？', '花了钱的 大家说话硬气点', '黑豹主演不是去世了吗？又换一个？', '第一部就很好看了，2肯定也很精彩，期待上映', '国外不是已经上应了吗', '银河护卫队3来的', '我有个想法那就是中国能拍部昆仑墟吗，故事是这样传说在中国昆仑山里有个与世隔绝的昆仑墟，昆仑墟里的科技比外面发达几千年，想进去只能找到空间节点传送阵，故事开始就是在大洪水泛滥时代有龙族图腾，凤族图腾，麒麟族图腾，玄武族图腾，白虎族图腾，的部落为躲避大洪水迁徙到了昆仑山里的在探索定居的过程中五大部落发现了一个神秘的空间小世界，世界里有一艘采矿飞船不知道在里面多久了（反正已经损坏），小世界里有种神秘物质改变了周围的环境，植物，生物，矿石，于此五大部落的人们在这个神秘的小世界里开始了宏伟的大建设发展，在发展中因为破解了飞船里的科技使得后面从小世界各地发现了灵石、精金、万年玄铁、千年钢木、琉璃金沙，生命原液等东西，但人类没有走上修炼之路而是选择走上奇幻科技之路，用灵石替代能源，用精金、万年玄铁、千年钢木、琉璃金沙打造武器或者科技产品，喝生命原液使身体进化寿命长达上千年，直此昆仑墟文明进入大发展直到外面的世界进入二战时代发生世界大战发射核武器振荡地脉打开了无数年封闭的昆仑墟节界，直此昆仑人能进出外面的世界，但昆仑人没有侵略世界，昆仑人发现外面的世界里有好几个文明科技都要比明面上的国家发达几百年-几千年，如非洲黑人瓦坎达文明，大西洋海底海族亚特兰蒂斯文明，西方玛雅人文明，地下蜥蜴人文明', '熬到了免费   还好没买   ', '剧情先不说因为我没看完，而没看完的原因就是黑夜是真的黑，黑的看不清楚，我视力本来就不好，这样看我眼睛受不了', '唉 ，黑豹二这个剧情是不是有点问题啊 ？共同的敌人不是是寻找振金的人吗？别人在海里生活的很正常 ，别人为了保护家园，想同盟 ， 先表示出了诚意 ，告诉了秘密 ，瓦坎达人先偷击别人， 别人反击不是很正常吗 ？刷新我的三观，哎！', '这玩意跟黑豹有一毛钱关系吗？', '这算不算免费的', '都不知道长什么样，黑黑的看不见啊', '说实话，挺二的', 'ufc乌斯曼居然客串了！！！', '漫威电影开始拉垮了', '确实像威少[吃瓜N][我裂开了][我裂开了]', '没有1好看啊', '终于免费啦啦啦～', '很难评，电影三分之二都是在黑夜，还全是黑人，导演也挺不容易的，估计是把全世界黑人都找出来演这部电影了，总的来说看完眼睛很难受，一片漆黑，又是夜晚又是黑人，一直在找人', '黑2和黑1的差距不是一点啊  在黑2中一直人为黑1的男主会复活站出来  即便是男主真正的不在世了好歹也弄个不露脸的黑1男主在关键时刻出现在黑2中  黑2中的女主的力量与科技远远落后与黑1 自钢铁侠 黑1 复仇联盟1 2到无限后就下滑了', '差评差评，太黑了，看不清楚，根本看不清楚。', '怎么说呢，钢铁侠和黑豹的结合版，一句话，漫威真是不禁看了', '每个英雄的死亡都是跟档期和合约到期走的吗', '复联四就已经是结局了', '强行渲染主题', '必须刷好吧', '还能咋说，[富翁][富翁][富翁]', '电影大多数时间都是暗色系，关键里面的人一个比一个黑，看的眼睛好辛苦啊', '不知道大家喜不喜欢超清，漫威怎么基本上每部电影都是超清为天花板，怕别人盗蓝光版吗[握草]', '我先声明。没有一点种族歧视！！！片子很好看！！！就我一看到黑人亲嘴就特别别扭！！！说不出来的感觉！有没有跟我一样的？', '台湾省前来报道', '瓦坎达万岁，都是打过灭霸的人怎么还会怕海里的臭虫', '称为漫威最烂', '只有我觉得不好看吗？快进着看还断断续续看了3天[狗头]', '对比国内评分同档电影，这还是值得一看。致敬的意味很多，结尾又表达了一个想创造一个不一样的万坎达，也切题，剧本问题也还好，里面bgm选的不错', '真不愧是黑豹啊，真黑呀', '动作榜第三  怎么评分这么低', '太难看了，几乎没有任何能表扬的点', '草率了，还我早点钱', '这部太拉了吧  马上出第三部 孩子长大后又不得不变成黑豹拯救世界', '片子整体比1少了很多打斗镜头，更多的是各种情感，可能是少了黑豹，最后结局也是伏笔，可能还会有三，毕竟都是系列版，结局和速度与激情一样，纪念黑豹本人', '很好 在水里你们也说不了话是吧 ', '陆地对瓦坎达贼心不死，也许还会出第三部', '你们这把海王置于何地', '歌曲还是很好听的', '哎，漫威啊漫威。复联4之后的漫威，真不知道说啥了。失望', '又长又臭[金币]', '冗长，故事情节单调简单，没什么重点，影片传达的核心非常混乱', '第二部的剧情比第一部更复杂，但是少了黑豹，总感觉少了点什么。', '全程黑，看不清', '南京再次', '最差的一步漫威 毫无质疑', '看完了，为啥没见黑豹，有知道的吗，可以为我讲解一下吗', '所有的和平都是打出来的', '很好看不错', '看完了  只有一个感觉  瓦坎达活该', '真的一言难尽', '一部不应该在我们国家上映的电影。一个为了生存，躲与海底，一个高科技文明，不想侵略，而自封国家。却因为美国所谓的发展，而互相大打出手。是体现美国玩弄权势的手段？两个和平的国家发生战争，真的是可笑。这部电影最终想表达的是什么？', '什么逻辑呢，一个不能在陆地上生存的种族要去占领陆地，', '看了半天不知道看了啥', '为什么这个电影我希望黑豹早点挂？希望善良的海洋文明赢？', '没得意思', '真心地，不咋滴，十分满分的话，给个3分4分不错了', '你看看海王的亚特兰蒂斯 多亮', '你声音大聊不起呀 我泰兴吕林说的', '好像看到了乌斯曼', '美国队长：小鱼人你有点皮啊！']</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['居然还能看到赵英俊😭', '趁现在评论少，我先吃个快餐', '为啥只有78条评论？不好看吗小伙伴们？', '祝我29岁生日快乐！[666啊]愿以后每天开心！[一起冲]', '课代表给你们梳理包包的情况\n首先剧里一共3个包，外表一样，一包杂志，一包真钞，一包假钞。\n1，张博放了一包真钞，此时天花上只有一个包\n2，章国荣被女警追的时候从风扇处藏了一包杂志进去，此时天花上有一包真钞一包杂志\n3，三兄弟带着一包假钞来偷梁换柱想取走真钞，放上去一包假钞，拿走一包杂志，此时天花上还有一包假钞一包真钞\n4，章国荣醒来取走一包假钞，他的视角里那是他的一包杂志，此时天花上还剩一包真钞\n5，三兄弟误认为张博把真钞藏在了别的地方，第二次上天花想取走之前放的假钞，然后取走了天花上仅剩下的一包真钞。\n张博放的真钞不见了，认为是有人从风扇处偷走了\n三兄弟得到了一包杂志和一包真钞，但误认为拿到的是自己从假币贩子那买的假钞，不知道张博把真钞藏哪了\n章国荣拿着假钞以为是真钞，所以虽然不理解杂志怎么变成钞票了还是告诉了警察那是他的～', '为了赵英俊而来。失而复得 00:49', '2023.12.05 第一个报道！！！！！', '谁能说说这是咋回事？怎么是2023年的呢？穿越了么？', '为什么还没看，就排斥辛芷蕾', '张亮麻辣烫', '2024负债清零就好', '真的挺好看的 要好好捋一下情节 有疯狂石头那个意思', '导演功底不够 硬抄疯狂的石头吧', '疯狂的石头', '看得我一脸懵', '还不错，多个故事线串在一起', '这是幻灯片还是ppt', '从头到尾没有辛芷蕾的', '流水席一样对付', '派人去糗（qiu三声），这不是东北话么[笑死我了][笑死我了][笑死我了]', '不错的片子，几路齐发线索，最后汇聚在一起，推荐路过朋友看看', '天网恢恢疏而不漏。', 'x6连倒车影像都没有，搞个串串', '有点没看明白啥意思', '纹身贴是贴的', '逻辑混乱', '大家都是会员说话嚣张一点', '🌊🌤🌴✨\n想过一千句描写旅行风景的句子\n却不及按一次留住幸福的快门📷', '不是死了吗？', '肥皂剧吧，挺无趣的', '有点意思，也有点混乱，最后不太搞得清谁是谁了。', '差劣的模仿…', '所以为啥开旅游公司的最后拿的是真钱？他拿的不是卖假币收藏的那个人的假钱吗？那个卖包的拿的钱咋是假钱？卖包的最后拿的不是王老爷子的一百万吗？？', '有点看不懂', '看了30分钟还不知道讲什么', '主演应该换成黄渤', '很搞笑，也非常有意思。剧情有点类似于《疯狂的石头》，喜欢看石头的，可以看看这个电影🎬。', '这片不拿吴樾辛芷蕾做宣传，估计没人点进来', '疯狂的赛车？', '能不能演个恐怖片？', '辛芷雷的👄', '都干嘛呢😁', '为了潇洒哥而来', '这是麻辣烫那个张亮吗', '这电影至少是3年前的了吧！赵英俊都走了快三年了。', '都看不出什么来', '这个电影好看吗？先来评论区逛逛😅', '客串的明星真不少，喜欢吴越', '来了 来了', '编剧有点厉害三个故事窜在一起玩', '天啊张博他爸看的节目爸爸去哪儿1：12：20', '挺好的剧', '给烂苹果打广告\n', '为啥电影名不叫张亮亮麻辣烫', '看了半小时不知道他们在干嘛', '乱七八糟', '没看明白', '真的不好看', '演的个啥', '突然看到赵英俊，真觉得恍惚了', '南海归墟来的', '这年头，男模都拍电影了', '人少占个座[准奏]', '一般酒吧舞女赌场镜头多的，多半都是烂...懂得都懂。哎。', '这应该是赵英俊最后一部电影', '这导演牛逼', '2023   12   8号观看', '张亮会演戏吗……', '这里面居然还有韩兆', '这啥时候拍的呀？还有赵英俊？[放大镜]', '还热乎赶紧站个坐', '有点烧脑', '2023.12.7日打卡', '12月15日[吃瓜N]', '看蕾蕾姐', '片还不错  就是有点傻乎乎的', '一个不尊重军人的人演上了警察', '挺有意思哈哈哈😁', '是人是鬼！来拍电影', '赵英俊失而复得了', '看不懂的举手', '人这么少？？？啥子情况呀？', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈歇一会哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '捐的钱最后还是进了那些人口袋', '这剧情设计得有点复杂了。', '乱码七糟，看不进去', '笑死我了，屋里打架那段', '值得一看', '加油，我的雷妹妹', '难怪评论这么少']</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>90</v>
       </c>
     </row>
@@ -584,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIP · 10759热度</t>
+          <t>VIP · 10832热度</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,15 +619,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>动画</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['看不出来哪一件好看', '起初奔着搞笑去的 没想到这么有情怀', '就喜欢这个画风，不接受反驳', '快上腾讯视频，顶上去喜剧电影《茶啊二... 01:07', '很好看，国漫越来越好了，', '有些人在怀恋青春，在后悔在，还口口声声说回到过去就好好读书，却唯独不说现在该干嘛，看过去是为了反思现在，之前都不努力的你，现在还不知道努力，你也就那样了', '手机什么时候可以看啊', '看了，这是结尾，有一小段录屏这里发不了，真的很推荐观看', '哈哈实在', '3年的遗憾补上了', '画风没以前好看 感觉', '好看，五星⭐⭐⭐⭐⭐', '想起刚上初中的时候英语老师对我不放弃多次叫我回去继续上学叫我多努力学习步入社会就没那么苦🤧没听劝后悔当初', '电影是多少个小时？', '高伟会回来吗', '不容易啊终于要来了5年啊', '一天刷了这个动漫全四季，挺好的，挺喜欢！想起以前好多尬事，哈哈...\n不过，这动漫一开始定义的主题就是，青春，回忆，校园...以及写实！\n大电影继续这个风格不好吗？为啥非要跟风搞奇幻呢？\n还身体互换？一听这几个字，就剧透了一大半了，有点像...炒剩菜...\n无意褒贬，只是个人想法，勿喷~', '前面很好笑，后面也很感人', '正在看！好看！', '手机上什么时候可以看', '手机上什么时候上线', '鞠婧祎唱的歌[一起冲]', '啊啊啊，鞠婧祎唱的主题曲[撒花N][色][色]', '凌晨卡点看不会看不了吧？', '八月十五晚上带我女儿看的希望能给我女儿点启发吧，我自己觉得好看。茶啊二中 1:27:36', '什么时候手机上能看', '7.14号上映，这都7.17了，废了', '我是废了，荒度了学生时光，我的娃我希望她以后能有多彩的回忆', '哇塞 居然开播了！！！等了那么久！', '终于来了！😭', '兄弟们，卡点过来了', '说实话，很尬', '差评   变成了神话故事', '这就是当代女生宿舍的写照吗？哈哈有点真实', '青春与遗憾的联名是每个人都有的限量版', '好看，怀念读书时光', '好看好看，推，一定要看看\n', '我的心情已经不能用语言来表达了，期待第五季，期待下一个大电影', '我是听了刘宇宁那首《二中中二日记》来看这电影的，不错！挺好看的啊', '王强导不了怎么办', '彩蛋这段应该是很多人曾幻想过的吧', '寝室吃火锅，用汤灭火！这些行为实在不该出现在电影里', '爱应斯坦好调皮😜', '被记住的那一刻，已经变成了永远', '有点对不起高中老师', 'yx嫁给我', '非常好看啊！[一起冲][打call了][YYDSA]', '怪不得小胖那么胖，原来他还在偷吃零食，那个老师都不用他的', '好٩(•̤̀ᵕ•̤́๑)ᵒᵏᵎᵎᵎᵎ', '本来就是坨大便', '中学时代', '老套路互换身体没意思了', '唉。居然见不到这人了。', '石老师 你永远是我们最好的老师', '宿舍里真冷，我室友都已经被冻残', '这才是学校', '好看，幽默又感人。', '感动！这就是青春！', '感动！这就是青春。', '张忆冉我…我想你了', '真的无厘头，毫无看点', '用个男的来配女的声音夹子音？难听', '之前看抖音说这个电影不好看不值得看，就没去电影院，现在是真后悔，真的特别好看的一部电影，特别喜欢。', '2023.09.19\n题材很好 略带夸张的搞笑“手法”画风清奇，内容饱满，夸张的真实 无快进看完的电影 小时候在电视机上看过一半拉点 有手机后也很少看此系列动画 可能是缺少此类经历 十分推荐 祝爆火 强烈建议观看 支持国产动画 都无收费的电影 真的很好（仅个人观点 不喜勿喷 ，看剧还是根据个人喜好选择观看谢谢）[抱抱][抱抱][抱抱][抱抱][抱抱]\n    ---致我们逝去的青春[打卡-打][打卡-卡]', '真的看得很感动，今年大学毕业了，看完之后怀念起了初中高中的生活，七年前的那个时候还没有手机，很遗憾好多事情没能记录下来。\n那个时候的晚霞很漂亮，和同学一起躲在教室里看外面下的大雨也很有氛围感，自习的时候班级里的确很吵，还有那些老师和同学的故事，真的真的会想起那个时候，就像是歌词里说的“在我的少年时代里面，永远有个滚烫的夏天”或许现在想想真的是青春的感觉吧，人永远无法同时拥有青春和对青春的感受。', '挺搞笑，人物很丰满', '必须杠杠滴', '喜欢看，看了好几遍了，😍', '错过，不是错了，而是过了 ——夏达《长歌行》', '我的妈呀', '动画片。。果然是哄小孩的。。看网上评论，期待太高了，感觉中规中矩吧。。', '我从头看到尾一次都没笑，一直期待笑点能让我开心一小会儿可是却没有，我笑点真的不高，是真的没啥好笑的', '当我们有部分的人思考上学的路程的时候，这部电影就已经成功了', '就这，还天天前人在抖音刷存在感，还好没去看，真的不知道说什么好', '十老师太快了吧', '是我来晚了，再见了我的青春', '特别好看，我很喜欢', '太好看了欠一张电影票', '笑中带泪🥲 好片！', '真实的青春啊', '茶二中是我小时候的童年回忆，没想到一晃都20多岁了', '没意思儿', '推嘎嘎好嘎嘎推荐等了三年的', '我一生中最难看的电影', '评论区那些没良心的肯定就觉得不好看呀，有良心的都觉得好看。', '真的还挺好看的', '看了这部电影，怀念我的青春时光，非常好的片子，值得一看。', '我的青春爪会结束，', '太棒了吧，这个电影', '西山西，西瓜']</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['看不出来哪一件好看', '三年了，你知道我这三年怎么过来的吗，等了这部电影足足三年，茶啊二中一到四季足足看了不下一百多遍了，不容易啊终于等到了', '好看好看好看  必须去看绝对不后悔 评分给打上去 茶啊二中第五季也在做这呢', '起初奔着搞笑去的 没想到这么有情怀', '就喜欢这个画风，不接受反驳', '快上腾讯视频，顶上去喜剧电影《茶啊二... 01:07', '看了，这是结尾，有一小段录屏这里发不了，真的很推荐观看', '哈哈实在', '3年的遗憾补上了', '正在看！好看！', '很好看，国漫越来越好了，', '有些人在怀恋青春，在后悔在，还口口声声说回到过去就好好读书，却唯独不说现在该干嘛，看过去是为了反思现在，之前都不努力的你，现在还不知道努力，你也就那样了', '画风没以前好看 感觉', '好看，五星⭐⭐⭐⭐⭐', '想起刚上初中的时候英语老师对我不放弃多次叫我回去继续上学叫我多努力学习步入社会就没那么苦🤧没听劝后悔当初', '一天刷了这个动漫全四季，挺好的，挺喜欢！想起以前好多尬事，哈哈...\n不过，这动漫一开始定义的主题就是，青春，回忆，校园...以及写实！\n大电影继续这个风格不好吗？为啥非要跟风搞奇幻呢？\n还身体互换？一听这几个字，就剧透了一大半了，有点像...炒剩菜...\n无意褒贬，只是个人想法，勿喷~', '手机上什么时候上线', '啊啊啊，鞠婧祎唱的主题曲[撒花N][色][色]', '7.14号上映，这都7.17了，废了', '手机上什么时候可以看', '电影是多少个小时？', '高伟会回来吗', '不容易啊终于要来了5年啊', '前面很好笑，后面也很感人', '六年级开始等现在都高一了终于出来了', '鞠婧祎唱的歌[一起冲]', '凌晨卡点看不会看不了吧？', '八月十五晚上带我女儿看的希望能给我女儿点启发吧，我自己觉得好看。茶啊二中 1:27:36', '什么时候手机上能看', '我是废了，荒度了学生时光，我的娃我希望她以后能有多彩的回忆', '哇塞 居然开播了！！！等了那么久！', '终于来了！😭', '兄弟们，卡点过来了', '说实话，很尬', '差评   变成了神话故事', '这就是当代女生宿舍的写照吗？哈哈有点真实', '青春与遗憾的联名是每个人都有的限量版', '好看，怀念读书时光', '好看好看，推，一定要看看\n', '我的心情已经不能用语言来表达了，期待第五季，期待下一个大电影', '彩蛋这段应该是很多人曾幻想过的吧', '寝室吃火锅，用汤灭火！这些行为实在不该出现在电影里', '爱应斯坦好调皮😜', '茶啊二中 51:03可突击了', '我是听了刘宇宁那首《二中中二日记》来看这电影的，不错！挺好看的啊', '王强导不了怎么办', '有点对不起高中老师', 'yx嫁给我', '非常好看啊！[一起冲][打call了][YYDSA]', '怪不得小胖那么胖，原来他还在偷吃零食，那个老师都不用他的', '中学时代', '老套路互换身体没意思了', '唉。居然见不到这人了。', '石老师 你永远是我们最好的老师', '好٩(•̤̀ᵕ•̤́๑)ᵒᵏᵎᵎᵎᵎ', '本来就是坨大便', '宿舍里真冷，我室友都已经被冻残', '这才是学校', '好看，幽默又感人。', '感动！这就是青春！', '真的无厘头，毫无看点', '用个男的来配女的声音夹子音？难听', '之前看抖音说这个电影不好看不值得看，就没去电影院，现在是真后悔，真的特别好看的一部电影，特别喜欢。', '2023.09.19\n题材很好 略带夸张的搞笑“手法”画风清奇，内容饱满，夸张的真实 无快进看完的电影 小时候在电视机上看过一半拉点 有手机后也很少看此系列动画 可能是缺少此类经历 十分推荐 祝爆火 强烈建议观看 支持国产动画 都无收费的电影 真的很好（仅个人观点 不喜勿喷 ，看剧还是根据个人喜好选择观看谢谢）[抱抱][抱抱][抱抱][抱抱][抱抱]\n    ---致我们逝去的青春[打卡-打][打卡-卡]', '被记住的那一刻，已经变成了永远', '感动！这就是青春。', '挺搞笑，人物很丰满', '必须杠杠滴', '非常不错，好看', '喜欢看，看了好几遍了，😍', '动画片。。果然是哄小孩的。。看网上评论，期待太高了，感觉中规中矩吧。。', '我从头看到尾一次都没笑，一直期待笑点能让我开心一小会儿可是却没有，我笑点真的不高，是真的没啥好笑的', '真的看得很感动，今年大学毕业了，看完之后怀念起了初中高中的生活，七年前的那个时候还没有手机，很遗憾好多事情没能记录下来。\n那个时候的晚霞很漂亮，和同学一起躲在教室里看外面下的大雨也很有氛围感，自习的时候班级里的确很吵，还有那些老师和同学的故事，真的真的会想起那个时候，就像是歌词里说的“在我的少年时代里面，永远有个滚烫的夏天”或许现在想想真的是青春的感觉吧，人永远无法同时拥有青春和对青春的感受。', '错过，不是错了，而是过了 ——夏达《长歌行》', '我的妈呀', '我一生中最难看的电影', '太吓人了', '是我来晚了，再见了我的青春', '特别好看，我很喜欢', '太好看了欠一张电影票', '当我们有部分的人思考上学的路程的时候，这部电影就已经成功了', '茶二中是我小时候的童年回忆，没想到一晃都20多岁了', '很怀念初中那段时间，虽然我是一个不良少年，抽烟，打架，早恋，也被班主任斥责过，检讨也写过，但还是改变不了我叛逆的十五六岁，直道现在出了社会才知道生活的不易，也懂得了老师的辛勤付出，但现在才明白这些已经晚了，希望看到这条评论的在读学生好好珍惜这段时间吧', '笑中带泪🥲 好片！', '真的还挺好看的', '真实的青春啊', '推嘎嘎好嘎嘎推荐等了三年的', '评论区那些没良心的肯定就觉得不好看呀，有良心的都觉得好看。', '看了这部电影，怀念我的青春时光，非常好的片子，值得一看。', '我的青春爪会结束，']</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>90</v>
       </c>
     </row>
@@ -619,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VIP · 10872热度</t>
+          <t>VIP · 10822热度</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,891 +659,3425 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>励志</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['非常不喜欢这部八角笼，不管是不是真实事件改编个人观点非常不喜欢，底层人没有资源没有钱就用唯一有的命去博去打去抗吗，人人平等，人人平等，人人平等，重要的事情说三遍', '电影讲述了，政府的腐败 资本的利益 跟网络的可怕 还有人们不去了解真相的去伤害别人', '看完《八角笼中》这部电影，你也许就会明白。王宝强能以导演的身份翻身，不奇怪。而这个故事，也只有他来拍，才最有说服力。借着这部电影，让我们重新走进这位“龙套之王。电影《八角笼中》改编自真实事件。恩波先生曾先后资助和培养了近百位来自山区的贫困孩子，让他们学习拳击，以格斗打出自己的未来。而在2017年，有记者曝光，有些孩子在铁笼打拳，而且伤势不轻。恩波被指责“剥削儿童”，他的举动遭遇了很大的争议。为什么说这个故事，最适合由王宝强来拍？提炼一下，王宝强跟那些“格斗孤儿”一样，区别是。面对人生，孩子们的武器是拳头，而王宝强，靠的是戏。2017年，王宝强以导演的身份拍了《大闹天竺》。同样是公路喜剧，编剧也是《泰囧》的班底，但这部影片在审美、笑料、节奏层面都一言难尽。最终，影片豪取票房7.5亿。但口碑惨淡，3.7分收场。王宝强再次遭遇质疑：拍电影是有门槛的，而他是门外汉。拍《八角笼中》，是对非议的再次回应。为了第二部导演作品，王宝强在拍完《唐探3》后，就没再接过其他角色，一门心思投入其中。这需要极大的魄力。用演员王迅的话说就是——这几年，他要面对多少诱惑？找他的都是大戏啊，都是好角色。他能把这些戏推掉，就是成功的第一步。这不是每个人都能做到的。你推掉的就是钱啊。王宝强的这种品质，就是真诚。真诚面对观众，真诚面对创作，真诚面对自己。', '难道就我发现 今年唯一一部发火不收费的么？就这一点 就够赞的 给你一个大拇哥👍', '能看懂这个片子的只有农村出来的孩子，有钱人家的孩子根本就体会不到', '八角笼中道尽了这个社会的肮脏和黑暗。道尽了资本和官方的恶心，🉐谢谢官方', '这是电影史上第一次请的贫困山区孩子 来扮演主要角色 而且还是真实事件改编的  剧情励志催泪 必支持宝强的电影 这是暑假期间 最期待的一部电影 宝强这次出品必是精品 必须支持 预测票房40亿超上', '《八角笼中》这部电影，是时隔数年后王宝强在现实主义题材的一次回归。而在山区找来的儿童演员身上，他看到了曾经的自己。这似乎是一种传承。拍这个故事，他是有优势的。他和片中人物一样，都是底层逆袭，破笼而出。为了尽可能地呈现真实。王宝强在将近三年的时间里，去四川体验生活，“让这个作品成为他身上的一部分”。到了现场，对服化道，他的要求极为严格。唯一准则：“真”。落实在表演上，尽量做减法。他会要求王迅在塑造人物时，避免出现过多的枝节。再比如他饰演的向腾辉。在最开始，还有些唐仁的影子。慢慢的，整个人物就回归到了现实之中，他的表演越来越偏于内敛，以呈现人物的复杂心理。比如被记者围追堵截的惊恐与惶惑。比如对学员的愧疚与自责。在故事层面，他又尝试做加法。在《八角笼中》中，他加入了很多复杂、丰富的议题。比如向腾辉收留儿童所面对的道德困境，比如新闻媒体在公共事件中起到的作用，比如格斗孤儿的命运，以及他们对向腾辉的微妙感情。他想讲的内容，涉及人性、媒体与社会。看完这部作品，你能感受到，在导演层面，王宝强有了不小的进步。他用打水漂的石子和八角笼这样的意象，来阐明彼时贫困儿童的命运。他用丰富的影像，充盈叙事的表意。他用拳拳到肉的笼中格斗，来呈现猛兽出笼的痛苦、畅快和自由。王宝强是内娱少见的具有人格魅力的演员，他跟一些作品中的形象有着某种相似之处，朴素、真诚。现实中的他，还有一种特质：不服。每一次，他都以诚恳的态度面对，以踏实的行动抵达。王宝强，像极了《八角笼中》里的那些孩子们，单纯而热烈，等待着打破命运的那一天。而这样的人，我们似乎都不希望他们输掉。', '看完了。演的很好👍', '抽烟演技在线   树先生', '确实是个好电影，放在国际上都是一部不错的片子', '王宝强能当领演  乌鸦变凤凰了  试问你有文化吗？', '我就是大山里走出来的弃婴，那些没有经历过苦难的人不会明白底层人的世界，不理解没关系，但请心存善意，有能力就帮，没能力说句安慰的话，不会说就闭上你那高贵的嘴谢谢', '又是一部堪比我不是药神的剧。每年来一部这种的就够了。宝强牛逼', '三分钟就看完了，也不知道有什么意义，重点在哪里', '好，反映的山区孩子的困境，讽刺了道德绑架和披上伪善外衣的人性，', '￼￼￼￼好电影！做为演员，王宝强成功了！做为导演，他也成功了！🏆这才是我国影视行业进步的样子。', '有钱没品的人看不懂这个电影的真谛，他们根本感受不地道穷的没饭吃是什么滋味，穷人跟富人永远不会平等，等你出生的那一刻基本就决定了你的人生，极少部分人才会遇到贵人。就像马虎跟苏木，腾辉就是他们的贵人。', '￼￼￼￼￼￼￼￼￼￼￼￼有多少人和我一样是为了王宝强来的，看看有没有100万人点赞👍🏻', '￼￼￼￼￼￼￼￼￼￼￼有多少人是为了王宝强来的，举手￼￼🙋🏻\u200d♂️', '看完电影后 揭示了人性的复杂性和社会的阴暗面，引发了人们对道德与正义的深思，是一部非常感人的电影，它让我们看到了现实社会的残酷，也让我们看到了善良的力量。\n\u200b山沟里的贫穷,孤儿们的困苦,体育界的黑暗,虚伪贪心的教育人士,断章取义的新闻媒体,假仁假义的网络圣母,在影片中都有一一体现出来，选择这样一个真实事件还原进行题材改编拍摄，当初的恩波自己也是有一段不为人知的故事。', '评差的。让他们去山里生活个半年，让他们看看那里的孩子。在山里的孩子们，有多少人关注过，那里的教育、生活条件等等，能造就出什么文化方面的人才。但是他们需要生存，需要过的更好，需要家里人顿顿吃到肉。那些什么慈善机构别动不动给这个困难给钱，那个困难支援，走到山里去，帮帮他们。灾难当中有国家支援，有民众支援，灾难后都可以恢复正常。但是山里的那些孩子们却天天都在灾难中生活呀。我看到对这个影片的一些花絮，其中一个片段直击内心，两个孩子在吃饭，有个工作人员过去掰走一个男孩的半个馒头走。另一个男孩怕也掰走半个，直接就一口吃下去。（印象中这个花絮是工作人员有意的一个测试，看看孩子的反应）。另一个花絮是一个不会游泳的孩子，在水里训练手中举着石头，蹲下起来的）拍完后才知道这个孩子不会水，但是这个孩子知道这也许是他能走出大山的一个机会，用命去拼一个看不到的机会。王宝强能把这个搬到银幕上面就不能感动大家一些吗，还在这里风言风语的，不就是认为草根出了好作品，心里不平衡嘛，还看到马蓉都出来蹭热度，怎么不去看看影片的内容呢，怎么不换位思考一下那些孩子，为什么那么拼呢！外国的拍真实事件，成就英雄。我们拍的真实事件都是，差评。世态炎凉。永远支持王宝强，也希望王宝强多拍这种类型的电影。质量不是重要的，重要的是让人们的三观正一点。', '好评！草根英雄是否被水军排挤？居然有人评论差的？草根导演和草根拍出来的电影是否打了某些商演的脸？', '现在这个社会很畸形，真正做善举的人和机构被有心人和某些私心重机构网络引流攻击，一些无良媒体失去了无冕之王的正义和作为新闻人的严谨和公正，不核实真假，不辩明真相，为博头条，毫无新闻人的素养与底线。一群不知真假的唯恐天下不乱的网民像苍蝇闻到臭肉，兴奋狂欢，跟着起哄，像参加一场狂欢。把整个社会氛围变的戾气重重，压抑无比。', '这部剧拍的太赞了，题材非常好，真实改编才能深入人心，这个世界不良媒体太多，网络圣人太多，黑心资本更多，大山深出穷人的孩子想有出路太难，那些黑这部剧的看完了么？有良心么？', '这部电影是我今年以来看过最具有色彩的影剧，剧情真实，内容感人，十分能带动观众的情绪', '说真的，看的过程中泪水打着⭕，这不是矫情，我也是大山里出来的孩子，深刻体会到那样的生活，电影里那个姐姐那种无奈和绝望和对生活的妥协，最真实。别看现在的大环境好了，有机会你去偏远地区看看，去农村看看走一走，也许对你会有些许感触！\n\n唉，太真实了，看完想说的太多了，勾起太多的回忆！一言难尽', '非常不错，我不爱看国产电影，但是这一步我是真的动容了，国产电影崛起！！！宝强崛起！', '@妈妈说名字不要起得太长因为会有傻子跟着念: 看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活，必须要靠自己向命运挥拳！\n看完《扫毒3》不是让你别相信朋友，是让你学会在这个社会保护自己\n所以，那些人该有点正确的价值观了[抠鼻]', '你见过那个CBA球员是农村人和那个运动员是农村人的吗？也许剧中为和怎么样都要修那两百万的足球场只是这段没有写得很好，现实点还记得前段时间烟草公司吗？别人你一个普通人就算上了好的大学没背景资源出来没打螺丝就算幸运了，说这话可能会有很多人不喜欢听不过也无所谓。', '王宝强翻拍恩波格斗馆事件的同时，也是王宝强在翻拍他自己的人生经历', '王宝强拍了那么多好电影，塑造了那么多经典角色，却还没拿过主流权威电影奖的影帝，希望这次八角笼中能弥补这个遗憾吧[意难平][意难平][意难平][意难平]', '有人现在看旳吗', '要演技有演技，要人品有人品，王宝强真的很不错', '我是预言家，这个电影爆火了', '这就是我们的媒体。只报道自己想报道的。一点职业道德都没有了。', '在电影院刚看完，很好看，值得一看👍', '大多数城里人都看不起从大山里跟农村出来的人，在他们眼里，我们很粗俗，愚不可及，在资本的推动下，他们就是那么的高高在上，我们就是他们眼里最底层的人，而往往这些人却不知道，他们吃的穿用的，都是我们努力拼搏出来的，哪怕工资低点，累点，没事，顶的住，因为还有妻儿老小要用钱，加油老乡们（没文化的农村人路过）[拳头][拳头][拳头]', '电影院已经看过，说句真心话吧，看到一半我就想走，唉，宝强还是适合喜剧！', '别着急，慢慢来熬，影院上完了，就上腾讯，上了腾讯还得收费观看，等收费的看完了，再是会员，等会员看完了，才算真的完了😂😂😂😂😂', '太励志了很感动 是我今年看过最好看的电影没有之一 宝强我欠你一张电影票[意难平][意难平]', '星爷看了〈八角笼中〉默默地流泪。\n火🔥大火🔥🔥', '拍的非常好，非常棒', '宝哥是我喜欢为数不多的演员，人品好，演技也很好', '王宝强演这个角色，感觉他沉淀好久才可以演的这么出彩。', '一直觉得自己过的挺苦的，不想看太苦的剧，今天看了八角笼中，还是被剧情跟所有演员的演技打动了，善良的人即使最初的目的并美好，也不妨碍最终成为心有大爱的人，王宝强牛啊！', '我从深渊艰难爬出，你们又把我打回谷底，还要让我谢谢你的恩赐！', '王宝强历害了', '王宝强什么时候上啊', '还是预告啊', '支持王宝强', '苏木就是另一个我们，加油', '期待王宝强的新电影，这个这个电影是真实事件改变来的😭😭😭', '抽两个皮友给电影票', '王导，7.6毕有一张电影票', '玲离尽致', '永远支持宝强[一起冲]', '6666666', '不喜欢，但还是看完，因为评分高，我想搞清楚。方言已经让人产生厌恶感，时代不同了，叫过时吧。用贫穷吸引同情，现在全国各地门槛下降，人人可以自力更生，时代不同了。贫穷可以使人更加无底线努力，那是因为死不足惜（穷不怕死），但自信必须是克在骨里，那叫难能可贵。总而言之，言而总之，穷不怕死不一定光荣，贵不怕死一票难求', '对王宝强的最初印象是那部士兵突击，很有好感。剧情也很赞。后来的那个泰囧和唐探中，剧情角色仿佛掉到了同一种模式中，剧情故事也有些浮夸就很少关注了。八角笼中的出现开始有些突破，剧情讲述起点依旧是底层人的命运，但能感受到角色设定不再单一化，演技也提升了不少，情感的表达设定更加合理化，有隐忍有冲动。那几个年轻演员也是表现不俗。就是有一点，人物的心理回顾和回忆，镜头切换的有些生硬，不够自然。总之还是一部挺赞的片子。', '我把他们骗出了那个山沟沟，我骗他们练格斗，骗他们能拿冠军，以后能靠这个吃饭。咋了?他们是啥子人?家里牛牛没有，地地没有，工作工作没有，钱钱没有，他们往哪儿走啊?他们是一群除了我，连骗他们的人都没有的人[意难平]', '这么好的苗子 被治本和良心糟蹋成了这个样子……这个世道太黑暗了！', '可以说，《八角笼中》是从方方面面，各个层次，揭露着社会和人心的罪恶与邪恶！\n\n但是王宝强终究是王宝强，他没有让苏木趴下，生活很难，那八角笼子不只是他们格斗的场所，更是生活的牢笼，可是只要不服输，只要不认命，只要心中的那口气不灭，只要你敢去反抗，只要你来向往美好未来，那就努力把战斗吧，把那牢笼打开！闯出去，不遗余力地闯出去，哪怕受伤哪怕流血，只要出去了，就是另只要出去了，就是另一片天空！\n\n\n就像王宝强自己，他能从一无所有的草根，凭着自己一步步的踏实努力，走到如今，成就传奇。\n\n\n所以，他用最现实的手法，想纪录片一样，揭露着恶，却在着恶包围的世界里，颂扬着善良与正义，倡导着努力与坚强，给所有苦难中人们以阳光和希望！\n\n\n所以，苏木成功了！苏木的姐姐走出来大山！向腾辉沉冤得雪了！王凤从未背叛！更多的孩子们有了新的机会和人生！[赞N]', '八角笼中 49:482023年12月18号晚上18点14分深圳宝安黄丽珍', '只希望经历黑暗依旧相信阳光', '河南陪两根', '很有深度的电影反应和影射很多社会面', '很推荐，拍的很好，希望能有更多这么好的电影，更希望更多的不是根据现实改编。', '宝强真的变得高大上了.不是以前的傻根了。这电影真心不错。成功转型', '可以的这电影', '看到这些孩子，我更不能理解国家每年几十个亿的援助非洲是在做什么？', '八角笼播出以来，我从未看过，但是今天看到，这部电影内心有很大触动，反映出了社会中的种种事情，腐败等，穷人拼不了钱，就得拼命，加油吧，奋斗的年轻人！致敬！', '一句话，这才叫电影。', '这部电影挺励志的，王宝强演技也不错，孩子们也很棒，值得一看。', '支持宝强的每一部电影', '刚满18岁～', '有内容，有演技，故事节奏好，观感效果佳', '我没文化  牛逼', '父爱如山', '少宝强一张电影票', '我当好人的时候，一大堆人欺负我，当我当坏人的时候，又一大堆好人在审判我。你告诉我什么是“黑”？什么是“白”？', '不知道为什么我不喜欢这部片子。夸大了', '如果说因为一个地方的孩子穷你就可以这样子去私自的拥有  让他们去进行一些违法的事儿   个人觉得跟黄赌毒没啥区别  让没有法律意识年龄的孩子签合同   说什么是你给别人的路  说是你把他们带出了山沟沟  你的这些道理在黄赌毒上利用起来一样可以  是承认十几二十年前的国家并能照顾到方方面面   这是一个严重灰色地带电影', '刚刚搞偷袭', '八角笼中 17:51', '这部电影给我最大的困难是没证别管你有通天本领没证你只能打工，有些证不是普通人能办的，成年人才知道证有多重要，最后引起关注了才成功没有关注依然是没有证回归大山，现实中有多少个人会引起这么大的关注证是国家的收钱工具同样也是限制普通人致富的最大难关，没证你有多大本事只能去打工，想找个和我一样看到问题关键得评价都看不到，一群评价没有一个有用的', '只有真正在生活中才会发现艺术', '有深度 加油宝强', '点赞，绝对支持！', '王宝强，棒棒哒 好电影']</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['非常不喜欢这部八角笼，不管是不是真实事件改编个人观点非常不喜欢，底层人没有资源没有钱就用唯一有的命去博去打去抗吗，人人平等，人人平等，人人平等，重要的事情说三遍', '电影讲述了，政府的腐败 资本的利益 跟网络的可怕 还有人们不去了解真相的去伤害别人', '看完《八角笼中》这部电影，你也许就会明白。王宝强能以导演的身份翻身，不奇怪。而这个故事，也只有他来拍，才最有说服力。借着这部电影，让我们重新走进这位“龙套之王。电影《八角笼中》改编自真实事件。恩波先生曾先后资助和培养了近百位来自山区的贫困孩子，让他们学习拳击，以格斗打出自己的未来。而在2017年，有记者曝光，有些孩子在铁笼打拳，而且伤势不轻。恩波被指责“剥削儿童”，他的举动遭遇了很大的争议。为什么说这个故事，最适合由王宝强来拍？提炼一下，王宝强跟那些“格斗孤儿”一样，区别是。面对人生，孩子们的武器是拳头，而王宝强，靠的是戏。2017年，王宝强以导演的身份拍了《大闹天竺》。同样是公路喜剧，编剧也是《泰囧》的班底，但这部影片在审美、笑料、节奏层面都一言难尽。最终，影片豪取票房7.5亿。但口碑惨淡，3.7分收场。王宝强再次遭遇质疑：拍电影是有门槛的，而他是门外汉。拍《八角笼中》，是对非议的再次回应。为了第二部导演作品，王宝强在拍完《唐探3》后，就没再接过其他角色，一门心思投入其中。这需要极大的魄力。用演员王迅的话说就是——这几年，他要面对多少诱惑？找他的都是大戏啊，都是好角色。他能把这些戏推掉，就是成功的第一步。这不是每个人都能做到的。你推掉的就是钱啊。王宝强的这种品质，就是真诚。真诚面对观众，真诚面对创作，真诚面对自己。', '难道就我发现 今年唯一一部发火不收费的么？就这一点 就够赞的 给你一个大拇哥👍', '能看懂这个片子的只有农村出来的孩子，有钱人家的孩子根本就体会不到', '￼￼￼￼￼￼￼￼￼￼￼￼有多少人和我一样是为了王宝强来的，看看有没有100万人点赞👍🏻', '《八角笼中》这部电影，是时隔数年后王宝强在现实主义题材的一次回归。而在山区找来的儿童演员身上，他看到了曾经的自己。这似乎是一种传承。拍这个故事，他是有优势的。他和片中人物一样，都是底层逆袭，破笼而出。为了尽可能地呈现真实。王宝强在将近三年的时间里，去四川体验生活，“让这个作品成为他身上的一部分”。到了现场，对服化道，他的要求极为严格。唯一准则：“真”。落实在表演上，尽量做减法。他会要求王迅在塑造人物时，避免出现过多的枝节。再比如他饰演的向腾辉。在最开始，还有些唐仁的影子。慢慢的，整个人物就回归到了现实之中，他的表演越来越偏于内敛，以呈现人物的复杂心理。比如被记者围追堵截的惊恐与惶惑。比如对学员的愧疚与自责。在故事层面，他又尝试做加法。在《八角笼中》中，他加入了很多复杂、丰富的议题。比如向腾辉收留儿童所面对的道德困境，比如新闻媒体在公共事件中起到的作用，比如格斗孤儿的命运，以及他们对向腾辉的微妙感情。他想讲的内容，涉及人性、媒体与社会。看完这部作品，你能感受到，在导演层面，王宝强有了不小的进步。他用打水漂的石子和八角笼这样的意象，来阐明彼时贫困儿童的命运。他用丰富的影像，充盈叙事的表意。他用拳拳到肉的笼中格斗，来呈现猛兽出笼的痛苦、畅快和自由。王宝强是内娱少见的具有人格魅力的演员，他跟一些作品中的形象有着某种相似之处，朴素、真诚。现实中的他，还有一种特质：不服。每一次，他都以诚恳的态度面对，以踏实的行动抵达。王宝强，像极了《八角笼中》里的那些孩子们，单纯而热烈，等待着打破命运的那一天。而这样的人，我们似乎都不希望他们输掉。', '￼￼￼￼￼￼￼￼￼￼￼有多少人是为了王宝强来的，举手￼￼🙋🏻\u200d♂️', '看完了。演的很好👍', '抽烟演技在线   树先生', '八角笼中道尽了这个社会的肮脏和黑暗。道尽了资本和官方的恶心，🉐谢谢官方', '这是电影史上第一次请的贫困山区孩子 来扮演主要角色 而且还是真实事件改编的  剧情励志催泪 必支持宝强的电影 这是暑假期间 最期待的一部电影 宝强这次出品必是精品 必须支持 预测票房40亿超上', '确实是个好电影，放在国际上都是一部不错的片子', '王宝强能当领演  乌鸦变凤凰了  试问你有文化吗？', '我就是大山里走出来的弃婴，那些没有经历过苦难的人不会明白底层人的世界，不理解没关系，但请心存善意，有能力就帮，没能力说句安慰的话，不会说就闭上你那高贵的嘴谢谢', '又是一部堪比我不是药神的剧。每年来一部这种的就够了。宝强牛逼', '三分钟就看完了，也不知道有什么意义，重点在哪里', '好，反映的山区孩子的困境，讽刺了道德绑架和披上伪善外衣的人性，', '￼￼￼￼好电影！做为演员，王宝强成功了！做为导演，他也成功了！🏆这才是我国影视行业进步的样子。', '你见过那个CBA球员是农村人和那个运动员是农村人的吗？也许剧中为和怎么样都要修那两百万的足球场只是这段没有写得很好，现实点还记得前段时间烟草公司吗？别人你一个普通人就算上了好的大学没背景资源出来没打螺丝就算幸运了，说这话可能会有很多人不喜欢听不过也无所谓。', '有钱没品的人看不懂这个电影的真谛，他们根本感受不地道穷的没饭吃是什么滋味，穷人跟富人永远不会平等，等你出生的那一刻基本就决定了你的人生，极少部分人才会遇到贵人。就像马虎跟苏木，腾辉就是他们的贵人。', '看完电影后 揭示了人性的复杂性和社会的阴暗面，引发了人们对道德与正义的深思，是一部非常感人的电影，它让我们看到了现实社会的残酷，也让我们看到了善良的力量。\n\u200b山沟里的贫穷,孤儿们的困苦,体育界的黑暗,虚伪贪心的教育人士,断章取义的新闻媒体,假仁假义的网络圣母,在影片中都有一一体现出来，选择这样一个真实事件还原进行题材改编拍摄，当初的恩波自己也是有一段不为人知的故事。', '评差的。让他们去山里生活个半年，让他们看看那里的孩子。在山里的孩子们，有多少人关注过，那里的教育、生活条件等等，能造就出什么文化方面的人才。但是他们需要生存，需要过的更好，需要家里人顿顿吃到肉。那些什么慈善机构别动不动给这个困难给钱，那个困难支援，走到山里去，帮帮他们。灾难当中有国家支援，有民众支援，灾难后都可以恢复正常。但是山里的那些孩子们却天天都在灾难中生活呀。我看到对这个影片的一些花絮，其中一个片段直击内心，两个孩子在吃饭，有个工作人员过去掰走一个男孩的半个馒头走。另一个男孩怕也掰走半个，直接就一口吃下去。（印象中这个花絮是工作人员有意的一个测试，看看孩子的反应）。另一个花絮是一个不会游泳的孩子，在水里训练手中举着石头，蹲下起来的）拍完后才知道这个孩子不会水，但是这个孩子知道这也许是他能走出大山的一个机会，用命去拼一个看不到的机会。王宝强能把这个搬到银幕上面就不能感动大家一些吗，还在这里风言风语的，不就是认为草根出了好作品，心里不平衡嘛，还看到马蓉都出来蹭热度，怎么不去看看影片的内容呢，怎么不换位思考一下那些孩子，为什么那么拼呢！外国的拍真实事件，成就英雄。我们拍的真实事件都是，差评。世态炎凉。永远支持王宝强，也希望王宝强多拍这种类型的电影。质量不是重要的，重要的是让人们的三观正一点。', '好评！草根英雄是否被水军排挤？居然有人评论差的？草根导演和草根拍出来的电影是否打了某些商演的脸？', '现在这个社会很畸形，真正做善举的人和机构被有心人和某些私心重机构网络引流攻击，一些无良媒体失去了无冕之王的正义和作为新闻人的严谨和公正，不核实真假，不辩明真相，为博头条，毫无新闻人的素养与底线。一群不知真假的唯恐天下不乱的网民像苍蝇闻到臭肉，兴奋狂欢，跟着起哄，像参加一场狂欢。把整个社会氛围变的戾气重重，压抑无比。', '这部剧拍的太赞了，题材非常好，真实改编才能深入人心，这个世界不良媒体太多，网络圣人太多，黑心资本更多，大山深出穷人的孩子想有出路太难，那些黑这部剧的看完了么？有良心么？', '说真的，看的过程中泪水打着⭕，这不是矫情，我也是大山里出来的孩子，深刻体会到那样的生活，电影里那个姐姐那种无奈和绝望和对生活的妥协，最真实。别看现在的大环境好了，有机会你去偏远地区看看，去农村看看走一走，也许对你会有些许感触！\n\n唉，太真实了，看完想说的太多了，勾起太多的回忆！一言难尽', '@妈妈说名字不要起得太长因为会有傻子跟着念: 看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活，必须要靠自己向命运挥拳！\n看完《扫毒3》不是让你别相信朋友，是让你学会在这个社会保护自己\n所以，那些人该有点正确的价值观了[抠鼻]', '大多数城里人都看不起从大山里跟农村出来的人，在他们眼里，我们很粗俗，愚不可及，在资本的推动下，他们就是那么的高高在上，我们就是他们眼里最底层的人，而往往这些人却不知道，他们吃的穿用的，都是我们努力拼搏出来的，哪怕工资低点，累点，没事，顶的住，因为还有妻儿老小要用钱，加油老乡们（没文化的农村人路过）[拳头][拳头][拳头]', '电影院已经看过，说句真心话吧，看到一半我就想走，唉，宝强还是适合喜剧！', '这部电影是我今年以来看过最具有色彩的影剧，剧情真实，内容感人，十分能带动观众的情绪', '非常不错，我不爱看国产电影，但是这一步我是真的动容了，国产电影崛起！！！宝强崛起！', '王宝强翻拍恩波格斗馆事件的同时，也是王宝强在翻拍他自己的人生经历', '王宝强拍了那么多好电影，塑造了那么多经典角色，却还没拿过主流权威电影奖的影帝，希望这次八角笼中能弥补这个遗憾吧[意难平][意难平][意难平][意难平]', '有人现在看旳吗', '要演技有演技，要人品有人品，王宝强真的很不错', '我是预言家，这个电影爆火了', '星爷看了〈八角笼中〉默默地流泪。\n火🔥大火🔥🔥', '一直觉得自己过的挺苦的，不想看太苦的剧，今天看了八角笼中，还是被剧情跟所有演员的演技打动了，善良的人即使最初的目的并美好，也不妨碍最终成为心有大爱的人，王宝强牛啊！', '别着急，慢慢来熬，影院上完了，就上腾讯，上了腾讯还得收费观看，等收费的看完了，再是会员，等会员看完了，才算真的完了😂😂😂😂😂', '这就是我们的媒体。只报道自己想报道的。一点职业道德都没有了。', '在电影院刚看完，很好看，值得一看👍', '太励志了很感动 是我今年看过最好看的电影没有之一 宝强我欠你一张电影票[意难平][意难平]', '拍的非常好，非常棒', '宝哥是我喜欢为数不多的演员，人品好，演技也很好', '王宝强演这个角色，感觉他沉淀好久才可以演的这么出彩。', '我从深渊艰难爬出，你们又把我打回谷底，还要让我谢谢你的恩赐！', '王宝强历害了', '王宝强什么时候上啊', '还是预告啊', '苏木就是另一个我们，加油', '期待王宝强的新电影，这个这个电影是真实事件改变来的😭😭😭', '王导，7.6毕有一张电影票', '玲离尽致', '永远支持宝强[一起冲]', '6666666', '不喜欢，但还是看完，因为评分高，我想搞清楚。方言已经让人产生厌恶感，时代不同了，叫过时吧。用贫穷吸引同情，现在全国各地门槛下降，人人可以自力更生，时代不同了。贫穷可以使人更加无底线努力，那是因为死不足惜（穷不怕死），但自信必须是克在骨里，那叫难能可贵。总而言之，言而总之，穷不怕死不一定光荣，贵不怕死一票难求', '八角笼中 49:482023年12月18号晚上18点14分深圳宝安黄丽珍', '对王宝强的最初印象是那部士兵突击，很有好感。剧情也很赞。后来的那个泰囧和唐探中，剧情角色仿佛掉到了同一种模式中，剧情故事也有些浮夸就很少关注了。八角笼中的出现开始有些突破，剧情讲述起点依旧是底层人的命运，但能感受到角色设定不再单一化，演技也提升了不少，情感的表达设定更加合理化，有隐忍有冲动。那几个年轻演员也是表现不俗。就是有一点，人物的心理回顾和回忆，镜头切换的有些生硬，不够自然。总之还是一部挺赞的片子。', '只希望经历黑暗依旧相信阳光', '那些喜欢在网上乱说话的注意了，有时候你不经意的一句话可能会害了人命，谢谢王哥拍出这么有含义又励志的电影', '我把他们骗出了那个山沟沟，我骗他们练格斗，骗他们能拿冠军，以后能靠这个吃饭。咋了?他们是啥子人?家里牛牛没有，地地没有，工作工作没有，钱钱没有，他们往哪儿走啊?他们是一群除了我，连骗他们的人都没有的人[意难平]', '可以说，《八角笼中》是从方方面面，各个层次，揭露着社会和人心的罪恶与邪恶！\n\n但是王宝强终究是王宝强，他没有让苏木趴下，生活很难，那八角笼子不只是他们格斗的场所，更是生活的牢笼，可是只要不服输，只要不认命，只要心中的那口气不灭，只要你敢去反抗，只要你来向往美好未来，那就努力把战斗吧，把那牢笼打开！闯出去，不遗余力地闯出去，哪怕受伤哪怕流血，只要出去了，就是另只要出去了，就是另一片天空！\n\n\n就像王宝强自己，他能从一无所有的草根，凭着自己一步步的踏实努力，走到如今，成就传奇。\n\n\n所以，他用最现实的手法，想纪录片一样，揭露着恶，却在着恶包围的世界里，颂扬着善良与正义，倡导着努力与坚强，给所有苦难中人们以阳光和希望！\n\n\n所以，苏木成功了！苏木的姐姐走出来大山！向腾辉沉冤得雪了！王凤从未背叛！更多的孩子们有了新的机会和人生！[赞N]', '值得深看', '一句话，这才叫电影。', '河南陪两根', '很有深度的电影反应和影射很多社会面', '很推荐，拍的很好，希望能有更多这么好的电影，更希望更多的不是根据现实改编。', '宝强真的变得高大上了.不是以前的傻根了。这电影真心不错。成功转型', '可以的这电影', '这么好的苗子 被治本和良心糟蹋成了这个样子……这个世道太黑暗了！', '看到这些孩子，我更不能理解国家每年几十个亿的援助非洲是在做什么？', '这部电影挺励志的，王宝强演技也不错，孩子们也很棒，值得一看。', '支持宝强的每一部电影', '刚满18岁～', '八角笼中 17:51', '有内容，有演技，故事节奏好，观感效果佳', '我没文化  牛逼', '父爱如山', '少宝强一张电影票', '八角笼播出以来，我从未看过，但是今天看到，这部电影内心有很大触动，反映出了社会中的种种事情，腐败等，穷人拼不了钱，就得拼命，加油吧，奋斗的年轻人！致敬！', '我当好人的时候，一大堆人欺负我，当我当坏人的时候，又一大堆好人在审判我。你告诉我什么是“黑”？什么是“白”？', '如果说因为一个地方的孩子穷你就可以这样子去私自的拥有  让他们去进行一些违法的事儿   个人觉得跟黄赌毒没啥区别  让没有法律意识年龄的孩子签合同   说什么是你给别人的路  说是你把他们带出了山沟沟  你的这些道理在黄赌毒上利用起来一样可以  是承认十几二十年前的国家并能照顾到方方面面   这是一个严重灰色地带电影', '虽然删减了不少，但是依然是部好电影，社会的黑暗，舆论的恐怖，底层人民的艰难，刻画的很有深度！草根想逆袭那就得拼尽一切，那么多草根为何只有宝强成功了！说全是运气的那就是扯淡！', '当时用孩子打假拳不也挣钱了吗？挣了钱也并没有改善生活，当有穷人的孩子送来的时候，为什么还要收？我不理解，既然是小人物从电影中我并没有看出男主有多大的情怀 到后来签给新俱乐部，也不跟孩子解释？真的看不懂', '刚刚搞偷袭', '这部电影给我最大的困难是没证别管你有通天本领没证你只能打工，有些证不是普通人能办的，成年人才知道证有多重要，最后引起关注了才成功没有关注依然是没有证回归大山，现实中有多少个人会引起这么大的关注证是国家的收钱工具同样也是限制普通人致富的最大难关，没证你有多大本事只能去打工，想找个和我一样看到问题关键得评价都看不到，一群评价没有一个有用的', '绝佳的作品', '只有真正在生活中才会发现艺术', '有深度 加油宝强']</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 斗破苍穹·觉醒 </t>
+          <t xml:space="preserve"> 黑豹2 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VIP · 10905热度</t>
+          <t>VIP · 10859热度</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>《斗破苍穹·觉醒》终极预告，马伯骞斗气觉醒，少年意气斩尽藩篱,电影简介:身为乌坦城三大家族之一的三公子的萧炎，因斗气等级不高成为众人的笑柄。在遭到云岚宗大弟子纳兰嫣然退婚之时，萧炎不堪受辱与嫣然订了三年之约，约定三年后以比武胜负来决定婚约。为提升斗气，萧炎来到了魔兽山脉，结识了小医仙，但也被卷入了狼头兵团的纠纷中。因为躲避狼头兵团追击时，萧炎偶然撞见了斗皇云芝和紫晶翼狮王在搏斗，云芝不敌狮皇，萧炎救下了云芝，两人经过一番曲折之后决定再次去挑战狮王，两人分头行动，最终成功。云芝偷偷离开，萧炎也决定离开魔兽山脉，前往蛇族沙漠……</t>
+          <t>《黑豹2》：英雄重生！瓦坎达全族共迎战海底变种人,电影简介:在“黑豹”特查拉国王不幸去世后，苏睿、奥克耶、拉曼达女王、姆巴库为了保护瓦坎达而战。瓦坎达人努力迎接他们的新篇章，他们必须在娜吉雅和罗斯探员的帮助下团结起来，为瓦坎达王国开辟新道路。</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.8分</t>
+          <t>7.1分</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>奇幻</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['我的评价是不如他', '谁要是买了我笑他六十年，三十年在河东笑，三十年在河西笑', '强烈要求严查导演，我怀疑拍这部电影的目的是为了洗💰！', '找不到拍的了吗？实在不行你去拍天线宝宝也行啊！！！', '对不起吴磊，我承认之前的声音有点大[意难平]', '终于免费了，我来看眼怎么个事，看到这个表情请戳瞎我，谢谢。', '大家别误会，我只是点进来骂几句就走！拍的和💩一样', '拍的好，大力支持，这一颗星是六星溢出来了！！！！！！！！！！……', '消炎，云山，熏儿，这这这', '工作人员 能不能认真一点', '看了前面感觉还不错 花了六元买了看着更爽了 物有所值', '这要不是为了洗q，我把异火都吃了，第一次想看云山打死萧炎', '能不能退我六块钱，不是差钱，我感觉我的智商被侮辱了！', '这钱这么难洗吗[666啊]', '看完这部戏后，我面色凝重，深深地低下头，默默的关掉电脑，起身打开冰箱，拿出一瓶伊利酸酸乳，紧紧地握在手里，细细的回忆着刚才的剧情，慢慢的走向窗前，外面的景色有些暗淡，就像我的心情一样，沉重。。。很沉重！渐渐的，外面灰蒙蒙的下起了小雨，为什么会这样？我的视线开始模糊了……不知道是我 流泪了、还是雨太大了！可能都有吧…… 我的心情更忧郁了，我再也无法抑制内心的情感！导演和编剧真的太侮辱观众智商啦！我缓缓的仰起头。。。对着窗外大喊了一声：这到底演的神马玩意啊？', '有一种打开奶奶家的皇家曲奇饼干盒确发现里面是针线的无力感', '6块钱，我宁愿拿去买两瓶快乐水', '打倒反派消炎', '萧炎还得他来演，吴磊也演不出', '我的天呐，无语ing…', '人家辛辛苦苦拍的给你们看评分搞那么低对得起人们吗？又不想出钱，又想VIP有的看。看了里面的弹幕，个个都要白嫖。', '莫欺少年穷，当萧炎强势归来的时候，任何人都不配跟萧炎提鞋', '不是大哥，你们都没有手机吗？都没键盘吗？开喷啊，还等啥呢，等过年啊？', '真的有被马伯赛惊艳到，真的好适合这种片子，希望哥哥继续努力', '你要是实在没播的  你播天气预报  今天的博不准就播昨天的', '我的评价是一托史', '小马太敬业了 白内障了 还出来拍戏   点赞。。。。。', '………..emmm很难评。[泪奔]', '这玩意这演员阵容能看吗？？？？？熏儿只能李沁或者李一桐才完美', '🙈我就不喷了', '就这破东西我还犹豫了一会才点开，结果还收费？笑死，9毛钱我都嫌弃', '4.6的超高评分，我希望没有三年之约，我更希望云山干死萧炎', '真好看啊，我看了。推荐朋友也花了6块。第二天被朋友打进医院，朋友陪了我1万。以后有这样的片子，我还看', '导演不负众望，无论是剧情还是特效都非常的震撼！强烈推荐！！！\n唯一的缺点就是不够看，6分钟就看完了，希望导演能加些时长。', '谁花六块钱，我笑他60年，30年在河东笑，30年的河西笑', '吴磊我错怪你了，除了特效不行外你的演技还是挺好的[狗头]', '咱就是说，这些特效真的很不错，看起来就很有意思', '要不要买，买了的说一下', '就说咱能不能尊重一下原著，原著没有人物描述吗，这一个个的是啥？\n这封面——\n萧炎要不要那么邪魅，跟个反派似的一点没有正气\n药老更离谱人家原著说的道风仙骨这咋出来个算命的瞎子\n云山虽说是岁数大但是人家突破斗宗后变年轻了啊，不说你找老演员了，就是找老演员也得找个像原著描述的啊，那姜武大圆脸戴假发玩呐，要是把假发摘了我都感觉像个大厨！\n也就是萧战这个演员还想点原著的任务描述', '这还演什么斗破苍穹，我觉得有歪嘴龙王就挺适合的😂', '我怀疑着导演不是为了拍电影是为了洗一下不干净的Q', '像萧炎这样有能力的男生，没有哪一个女生不喜欢吧', '斗破苍穹到底得罪了谁，非要把它嚯嚯完吗？我看到这个云芝和熏儿，还有那个小医仙，我的天呐，还觉醒，你是要我们长眠吧！', '我觉得腾讯应该搞一个缴费看评论，应该会比这个电影收益高很多[上头-上][上头-头]', '[狗头]谁要是买了 我笑他六十年 三十年在河东笑 三十年在河西笑￼', '推荐给我的好兄弟们一起看，不能只有我自己难受', '毁三观的电影 我以为王晶的新倚天屠龙记已经天下无敌了 这是谁的部将', '作怪的，如这个吗？啊？导演是谁？毁了一代人的三观', '笑死我了这云山', '我靠，这拍的啥，有我美有我酷吗？', '家人们谁懂啊，我为了勋章，看了六个六分钟的经典大电影，谁懂啊，可惜电影太短了点就是！', '浪费我一瓶饮料钱 我承认之前对吴磊的声音有点大', '我的评价是：依托勾史', '我进来只是看看有人骂没，看到有人骂我就放心了，我真没看。🙋🏿\u200d♂️', '观众们的期待；熏儿——刘亦菲，雅妃——柳岩，纳兰嫣然——赵丽颖，云韵——佟丽娅，美杜莎——张雨绮，小医仙——古力娜扎，萧炎——我[看]', '离离原上谱', '从来没看过这么好看的电影，剧情选角特效都是绝佳，真心推荐大家看，五星好评虽然只有6分钟', '建议严查 不然这演的那么随意？现在什么电影都可以上架吗？', '我的评价是勾史一样的主角，勾史一样的剧情，勾史一样的演技，勾史一样的特效', '我可没有购买六块钱看，我只看看五分钟的鼻炎', '我就没花6块，我就看了6分钟。我买了两瓶快乐水，我骄傲啊。', '观影20分钟才能评分，可我俩分钟就坚持不下去了。', '我以为斗气化马已经是极致了，没想到还有高手，对不起吴磊', '看来上一次被骂的还不够狠，兄弟们等这部片子出了继续骂。', '你们充钱的观后感是不是很好，我感觉6分钟够看了', '真人萧炎还得看吴磊，虽然电视剧特效差，但是吴磊很符合我对萧炎这个角色的少年感和有趣', '你们没看就别黑了，，真的挺好看的，就是只有六分钟', '期待～一直在期待，上班熬了个通宵都等到10点上线，还浪费了我省吃俭用的6块钱的早餐钱。看完这斗破苍穹后，我面色凝重，面无表情，躺到床上两眼一闭，回忆我看过的小说，回顾我追过的动漫，再总结我刚刚花早餐6块钱看完的电影，我直接开骂了，这尼玛的什么跟什么，毫无逻辑，毫无剧情，毫无经典。欺骗我对原著的情怀吗？拍的什么鬼，我起来跑的冰箱拿了一瓶啤酒，一口气喝完倒头睡下，听到窗外的雨声 仿佛我现在的心情，。。很沉重。很生气', '我叫萧炎\n我叫林动\n我叫牧尘\n萧炎：我目标是成为斗帝\n林动：我目标是晋级祖境\n牧尘：我目标是进入主宰境\n萧炎：我的戒指有个药老，比攻略还NB\n林动：我的石符里有个貂爷，比攻略还NB\n牧尘：我的黑纸里有个九幽雀，比攻略还NB\n萧炎：我有种东西叫异火，威力堪比神器级绝版装备\n林动：我有种东西叫祖符，威力堪比神器级绝版装备。”\n牧尘：我有种东西叫至尊身法，威力堪比神器级绝版装备\n萧炎：我出自乌坦城的萧家，是个小少爷\n林动：我出自青阳镇的林家，是个小少爷\n牧尘：我出自北灵境的牧域，是个小少爷\n萧炎：我喜欢古熏儿，可他家势大，不让我和她在一起\n林动：我喜欢绫清竹，可她家势大，不让我跟她在一起\n牧尘：我喜欢洛璃，可她家势大，不让我跟她在一起\n萧炎：年少时，我的目标是打败纳兰嫣然\n林动：年少时，我的目标是杀死林琅天\n牧尘：年少时，我的目标是打败姬玄\n萧炎：想当初，我斗皇的时候，栽在我手上的斗宗一大堆\n林动：想当初，我生玄境的时候，栽在我手上的死玄境一大堆\n牧尘：想当初，我化天境的时候，栽在我手上的通天境一大堆\n萧炎：我有特长，我会炼丹\n林动：我有特长，我会画符\n牧尘：我有特长，我会布阵\n萧炎：我有两个老婆\n林动：我也有两个老婆\n牧尘：我目前只有一个老婆，但我相信我会有第二个的\n萧炎：我的武器是尺子，叫玄重尺\n林动：我的武器有很多，合称九大神物\n牧尘：我的武器还没出现，现在用的都是一些缴获的，求武器啊，嘤嘤嘤。ＱＡＱ\n萧炎：我最后成为斗帝，打败了魂天帝，夺回了大陆的和平\n林动：我最后晋级祖境，打败了异魔皇，拯救了世界的万千生灵\n牧尘：我没有他们那么NB的事迹，但我还小，我相信我将来会比他们更Nb\n萧炎：后来，我加入了迦南学院，参加了学员大赛，一战成名\n林动：后来，我加入了道宗，参加了殿试，一战成名\n牧尘：后来，我加入北苍灵院，参加了狩猎赛，一战成名\n萧炎：我有一个特NB的大招，叫佛怒火莲\n林动：我有一个特NB的大招，叫青龙化天决\n牧尘：我有一个特NB的大招，叫九级浮屠塔\n萧炎：如有雷同\n林动：纯属巧合\n牧尘：我也没辙\u200b舞动', '没看过动漫的我，觉得很好看啊！全程看完，很有意思啊', '那个云芝是打算要收萧炎为孙子吗', '我宁愿动漫追到死，也别想在这电影里赚我9块钱', '看了20分钟就为了给个差评.如果开始能评价我都不带看20分钟的.', '看来现在这钱确实是很难洗啊 ，但你也不能嚯嚯这小说啊 ……', '兄弟们建议大家不要看了，六块钱不如买个鸡腿吃吃', '别说六块钱    别说流量费    单单是浪费老子手机电量我都感觉巨亏', '投资者这么有钱，过来投资我，我要拍真人版葫芦娃', '吾等都说，客户是上帝，是衣食父母，如此行径犹如杀父弑母，众人必弃之。', '笑死，药老哪来的女弟子？还有小说都不知道萧炎他娘是谁，这还好意思拍出来？', '主角团用这些人就直接封神了\n萧炎：胡歌   萧熏儿：迪丽热巴/古力娜扎   小医仙：刘亦菲   \n云芝：白鹿   纳兰嫣然：关晓彤   美杜莎：迪丽热巴/古力娜扎', '谁花 12块钱看我笑他 60 年，30 年在河东笑，30 年在河西笑', '我今年37岁 看了好几年动画 斗破苍穹  你们这个电影直接把 斗破苍穹 玷污了……', '这个新出的电影版要付费6元，哪个大冤种要是付费看，我笑他六十年[尬笑]，三十年在河东笑，三十年在河西笑[泪奔][泪奔]', '还是个人吗  非得可斗破霍霍。其它动漫版权不卖还是人么回事  什么钱这么难洗', '鱼越大，鱼刺越大，鱼刺越大，鱼肉越少，鱼肉越少，鱼越小，所以鱼越大，鱼越小。', '这电影出来，真的是像si一样，以为电视版的离谱，没想到电影的更离谱，谁买了我笑他60年', '别买别买别买别买别买别买别买 能劝一个是一个！！！', '本来都退回去了，但我还是要回来说一句：💩一样的玩意儿还想让我花6块，想屁吃', '这种肯定要先看评论再买，我就问个事，对比吴磊的你们还喷吴磊吗？😂', '影史上改编成功的只有仙剑1和三了，其他小说游戏改编都很失败']</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['电影是好看的，就是整部电影只有6分钟，希望导演下次拍长点，多年老黑豹迷了', '颠覆了我对漫威的看法，选角随意，从海里出来，从海里的既视感完全比不上海王，感觉太随意了，打斗也随意', '明明可以联合一起保护振金，为了救公主好好的杀人家的人完事也不管也不救也不解释，人家复仇死了女王，完了又想着复仇杀回去，，这么狗血的剧情么', '已经看完了，会员不是免费的吗？', '我对黑人没有歧视。但是肤色本来就黑这电影晚上的光能亮点吗？根本看不见…不知道调色师搞什么鬼。', '漫威真的在走下坡路啦！怎么才6分钟啊？', '我看过了，剧中一直期待黑豹复活，直到电影结尾才发现此片结尾敬博斯曼，上网一查原来他本人真的去世了才没参演黑豹2。更没想到的是黑豹1和复联34都是在癌症晚期参演的，致敬', '我还是免费，哎呀', '建议让欧文出演', '评论区让我省了7块2毛！感谢各位大冤种！', '《黑豹2》是一部伟大的续集，继续讲述着瓦坎达王子翻身做大哥的故事。影片对非洲文化和历史进行了深刻的探索，人物形象塑造也更加丰富、立体，引人入胜。同时，电影的特效和动作场面堪称一流，让观众身临其境地感受瓦坎达的奇幻世界。不过，个人认为电影的反派角色塑造上有待加强，缺少了一些令人难忘的反派人物。总之，《黑豹2》是一部绝佳的科幻动作电影，引人入胜，强烈推荐。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '真难看，故事剧情简直胡扯淡，明明是美国在那里挑事不干美国两个高文明打起来，美国鬼子搁旁边看戏呢吗？永远是奥特曼打怪兽剧情', '喜欢黑豹2', '不管你信不信，六分钟之后我也退出了！', '这就很扯，这人鱼既然这么强，那灭霸来的时候他在干啥？说要保护族人，灭霸打响指的时候他又在干啥？纯属扯淡', '第三部不会是这个小孩回去挑战成为了新的黑豹吧！', '非常一般。在观看的两个小时内我一直在期待着精彩剧情的出现，然后就大冤种般地一直期待到了结尾......总之从头到尾我的内心都毫无波澜。', '可惜再也看不到黑豹1里的黑豹了', '黑豹主演不是去世了吗？又换一个？', '最强大的国家和战士，我可以说美国资本做法是你喜欢意淫他十分愿意满足你', '两个高文明本来聊得好好的  然后因为一点点小事 直接开战 最后又因为心里放不下人民 又休战 和好如初  跟小孩子闹脾气一个样的科幻电影', '钢铁侠过后再无漫威', '本来想买的，一看评论那么拉，不买了', '花了钱的 大家说话硬气点', '第一部就很好看了，2肯定也很精彩，期待上映', '国外不是已经上应了吗', '银河护卫队3来的', '我有个想法那就是中国能拍部昆仑墟吗，故事是这样传说在中国昆仑山里有个与世隔绝的昆仑墟，昆仑墟里的科技比外面发达几千年，想进去只能找到空间节点传送阵，故事开始就是在大洪水泛滥时代有龙族图腾，凤族图腾，麒麟族图腾，玄武族图腾，白虎族图腾，的部落为躲避大洪水迁徙到了昆仑山里的在探索定居的过程中五大部落发现了一个神秘的空间小世界，世界里有一艘采矿飞船不知道在里面多久了（反正已经损坏），小世界里有种神秘物质改变了周围的环境，植物，生物，矿石，于此五大部落的人们在这个神秘的小世界里开始了宏伟的大建设发展，在发展中因为破解了飞船里的科技使得后面从小世界各地发现了灵石、精金、万年玄铁、千年钢木、琉璃金沙，生命原液等东西，但人类没有走上修炼之路而是选择走上奇幻科技之路，用灵石替代能源，用精金、万年玄铁、千年钢木、琉璃金沙打造武器或者科技产品，喝生命原液使身体进化寿命长达上千年，直此昆仑墟文明进入大发展直到外面的世界进入二战时代发生世界大战发射核武器振荡地脉打开了无数年封闭的昆仑墟节界，直此昆仑人能进出外面的世界，但昆仑人没有侵略世界，昆仑人发现外面的世界里有好几个文明科技都要比明面上的国家发达几百年-几千年，如非洲黑人瓦坎达文明，大西洋海底海族亚特兰蒂斯文明，西方玛雅人文明，地下蜥蜴人文明', '熬到了免费   还好没买   ', '剧情先不说因为我没看完，而没看完的原因就是黑夜是真的黑，黑的看不清楚，我视力本来就不好，这样看我眼睛受不了', '唉 ，黑豹二这个剧情是不是有点问题啊 ？共同的敌人不是是寻找振金的人吗？别人在海里生活的很正常 ，别人为了保护家园，想同盟 ， 先表示出了诚意 ，告诉了秘密 ，瓦坎达人先偷击别人， 别人反击不是很正常吗 ？刷新我的三观，哎！', '这算不算免费的', '黑2和黑1的差距不是一点啊  在黑2中一直人为黑1的男主会复活站出来  即便是男主真正的不在世了好歹也弄个不露脸的黑1男主在关键时刻出现在黑2中  黑2中的女主的力量与科技远远落后与黑1 自钢铁侠 黑1 复仇联盟1 2到无限后就下滑了', '都不知道长什么样，黑黑的看不见啊', '说实话，挺二的', 'ufc乌斯曼居然客串了！！！', '漫威电影开始拉垮了', '确实像威少[吃瓜N][我裂开了][我裂开了]', '没有1好看啊', '这玩意跟黑豹有一毛钱关系吗？', '终于免费啦啦啦～', '很难评，电影三分之二都是在黑夜，还全是黑人，导演也挺不容易的，估计是把全世界黑人都找出来演这部电影了，总的来说看完眼睛很难受，一片漆黑，又是夜晚又是黑人，一直在找人', '差评差评，太黑了，看不清楚，根本看不清楚。', '怎么说呢，钢铁侠和黑豹的结合版，一句话，漫威真是不禁看了', '每个英雄的死亡都是跟档期和合约到期走的吗', '复联四就已经是结局了', '强行渲染主题', '必须刷好吧', '瓦坎达万岁，都是打过灭霸的人怎么还会怕海里的臭虫', '电影大多数时间都是暗色系，关键里面的人一个比一个黑，看的眼睛好辛苦啊', '不知道大家喜不喜欢超清，漫威怎么基本上每部电影都是超清为天花板，怕别人盗蓝光版吗[握草]', '我先声明。没有一点种族歧视！！！片子很好看！！！就我一看到黑人亲嘴就特别别扭！！！说不出来的感觉！有没有跟我一样的？', '台湾省前来报道', '只有我觉得不好看吗？快进着看还断断续续看了3天[狗头]', '对比国内评分同档电影，这还是值得一看。致敬的意味很多，结尾又表达了一个想创造一个不一样的万坎达，也切题，剧本问题也还好，里面bgm选的不错', '真不愧是黑豹啊，真黑呀', '动作榜第三  怎么评分这么低', '这部太拉了吧  马上出第三部 孩子长大后又不得不变成黑豹拯救世界', '很好 在水里你们也说不了话是吧 ', '太难看了，几乎没有任何能表扬的点', '草率了，还我早点钱', '歌曲还是很好听的', '片子整体比1少了很多打斗镜头，更多的是各种情感，可能是少了黑豹，最后结局也是伏笔，可能还会有三，毕竟都是系列版，结局和速度与激情一样，纪念黑豹本人', '哎，漫威啊漫威。复联4之后的漫威，真不知道说啥了。失望', '陆地对瓦坎达贼心不死，也许还会出第三部', '又长又臭[金币]', '全程黑，看不清', '南京再次', '所有的和平都是打出来的', '一部不应该在我们国家上映的电影。一个为了生存，躲与海底，一个高科技文明，不想侵略，而自封国家。却因为美国所谓的发展，而互相大打出手。是体现美国玩弄权势的手段？两个和平的国家发生战争，真的是可笑。这部电影最终想表达的是什么？', '一个高度文明居然被一个与世隔绝的原始文明按在地上摩擦', '第二部的剧情比第一部更复杂，但是少了黑豹，总感觉少了点什么。', '很好看不错', '看完了  只有一个感觉  瓦坎达活该', '看完了，为啥没见黑豹，有知道的吗，可以为我讲解一下吗', '真的一言难尽', '看了半天不知道看了啥', '没得意思', '你看看海王的亚特兰蒂斯 多亮', '什么逻辑呢，一个不能在陆地上生存的种族要去占领陆地，', '冗长，故事情节单调简单，没什么重点，影片传达的核心非常混乱', '好像看到了乌斯曼', '蛙看打这世界最强大的国家，派艘船两只小飞机几十只跑龙套的就敢发动国与国、文明对文明的复仇战，最后这几号人被堵船头差点嗝屁，那蛙看打算不算灭亡，梁静茹给的勇气吗？就这水平就敢在联合国大会镇压世界五常，其中一个还是拥有大量“妇联”牛鬼蛇神漫威英雄的国家！编剧看不起谁！', '美国队长：小鱼人你有点皮啊！', '为什么这个电影我希望黑豹早点挂？希望善良的海洋文明赢？', '挺不错的', '难道不是申公豹出场吗？', '啥啊这是', '实战6分钟是吧']</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 扫毒3：人在天涯 </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VIP · 10656热度</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>警匪动作巨制《扫毒3：人在天涯》曝“炸！”预告郭富城古天乐刘青云真打真枪真炸,电影简介:毒枭康素差一直带着手下张建行从事毒品交易，新加入的成员欧志远也因一次意外与两人有了过命交情，三人情同手足。康素差在香港的贩毒生意被警方查处后带团队逃到金三角发展，却意外发现身边藏有卧底。此刻，是敌是友，一片茫然。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['看看人家的电影，再看看内地的电影，人家直接不收费，内地的电影一直在收费', '看不起我阿伟[狗头]', '没有渣渣辉，有点小遗憾噢', '没有张家辉灵魂人物，搞什么', '还得是老戏骨啊', '老戏骨演技就是不一样', '没有渣渣辉', '非常喜欢这些老戏骨的演的电影，要是把张家辉和张学友请来那真是太好了，看他们一起飙戏太过瘾啦', '天天扫毒，有本事去缅甸扫啊', '4应该会有，刘青云要找他们报仇，他说他不会死的，名字都告诉他了', '渣渣辉没在，有一点点失望，但是也影响不了古仔跟刘青云的同台，能撑得起，😎😎😎', '上线了推我一下', '还是老演员演的经典，现在的小鲜肉演的什么东西？', '没有张家辉没有灵魂', '去电影院看了', '上线了踢我一下谢谢', '我记得有粤语版的预告吧', '阿伟已经死了，你挑的嘛偶像[富翁]', '这导演宋小宝亲哥？', '五毛特效', '香港电影一点创意没有啊，一直翻来覆去这点东西', '上线来个提示呗[666啊]', '应该，上渣渣辉的', '没有张家辉', '这部戏没一个大陆演员，说明大陆演员不适合演动作片', '郭富城不适合扫毒系列 比利换成张家辉就完美了', '和前作相比，真的太烂了！动作场面掩盖不了剧本逻辑的一塌糊涂！感受不到扫毒工作的残酷性！', '扫毒3部曲感觉没有连贯性', '毒品在哪里进货啊？搞点门路过来呀。', '怎么感觉不如前两部好看呢[发呆]', '感觉不太好，又是邱礼涛导演，你看.扫毒2，拆弹2，不能再烂了', '为什么没有渣渣辉呢', '实力演技派。看的就是过瘾', '不是可以看吗？没有网络的？', '故事线太乱了，一下子几月前，六月前，时不时回忆', '2023-8-10看的有没有', '我想找个老婆', '为什么没有渣渣辉？', '非常喜欢这些老戏骨的演的电影，看他们一起飙戏太过瘾啦', '云南第一', '打卡打卡', '朕已看完', '发么帖#腾讯视频9号开[意难平]放日# 北京线下有没有二维码~', '可以永远相信港片', '自己人打自己人，还得是古天乐', 'noon应该没死，她应该是司令的女儿。那个镇上碰到比利和noon后面被枪击的军方卧底，告密得是noon，参谋第一次去noon的村子也特别看了noon一眼。包括noon说她小时候爸爸离开，应该就是司令去贩毒', '这个是农夫山泉矿泉水吗', '云南人集合', '看了这部片子后，一直在想一个问题，港片为什么会没落？原因就是香港电影人还在延续着过去的辉煌当中，老套的剧情，精彩的打斗场面，然后呢？格格不入的理念，整个电影除了刘青云，其他演员都是满屏的尴尬，除了消费老演员的情怀以外并没有什么新意，这或许就是现在港片的现状吧', '刘青云你要长命百岁，我们看你电影长大的很喜欢你', '挺好看的电影，老戏骨演技还是[赞N][赞N][赞N]', '三个影帝加➕起来都 200 岁了🤗🤗', '老戏骨对垒，大饱眼福！\n激战名场面，太燃了！\n#扫毒三兄弟再聚首#\n#古天乐52岁生日快乐#', '这个女的应该是泰国警方的卧底', '我也是卧底', '河南南阳的来报道', '河南南阳打卡', '廖志磊我爱你🤟', '现在为数不多的港片电影了，制作剧情方面都很不错，汽车冲撞和枪战也都是好水准。很好看，很不错的电影，题材也很不错。', '好无聊的剧情', '差哥到最后都没怀疑过自己的兄弟，赴汤蹈火啊差哥', '还是喜欢看老牌演员演的电影', '动不动3个月前，动不动6个月前，好好拍行不？作为一个资深卧底随便在车上就跟外国警方人员承认自己是卧底太让人惊讶了。', '信阳光山', '刘青云厉害👍', '总司令：我在干什么？', '贵州黔东南苗族侗族自治州的有没有，凯里市', '一会儿5年，一会儿一年，一会一个月', '太好看了！！', '兄弟们，我在监狱看扫毒✌️', '希望各位卡里有钱，车里有油，不用因为物质而烦恼', '龚倩是我老婆', '为古天乐而来的请举手，看看有多少人🙋🏻\u200d♂️🙋🏻\u200d♂️', '扫毒3中完美的展示了香港警察的职业素养以及提现了现如今缉毒警察的不容易，在电影中我们可以明显的感觉到香港警察和毒贩之间的关系，整部电影中人物特色明显，演绎生动形象，完美的刻画了各个人物的人物个性，能够完美的将所要展示的内容体现出来，在观影过程中我们也能明显的感受当整部电影的细节。其中打斗部分相当的激烈，能够很好的吸引观众的眼球，是一部很值得观赏的电影，非常值得推荐。当我观看完这部电影，对我的感触也是特别深，懂得了缉毒警察的困难，也明白了缉毒警察的危险。电影能够给人深刻的影响，也能充分展示影片的哲学道理。', '至少感觉香港电影的辉煌岁月已经成过去式，现在我的感觉错了，但是演员还是青黄不接状态', '人不用减压，直接就起来了。真厉害', '远离黄赌毒，幸福一生', '来个大哥我跟你咚咚锵', '李慧我对象', '这女的为什么要跑出去，急的死么，莫名其妙的剧情', '第四部明年上映', '刘青云这个老大当的太可爱了', '别的先不说就这个枪战就值得五星，喜欢枪战的完全可以看，剧情基本都在打枪战就是感觉女主的戏份有点多余不如来一场纯粹的枪战这样更爽看的更过瘾。', '阿伟呢？阿伟已经死了[柠檬精]', '总司令准备火线入党', '知恩不报  是🐖🐩', '我感觉按电影这么演除了国外三不管那种地方，国内基本没活路，因为你任何一个新招的人都可能是卧底，搞这个死人是常有的，你不可能永远不补充人手，但是你补充就会有卧底，所以他们为啥要回国干呢？', '片子不错', '楚人来也', '还是香港电影才配用精彩来形容']</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 你的婚礼 </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VIP · 10663热度</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>《你的婚礼》终极预告，腾讯视频正在热播！谢谢你，青春里给过我的幸福,电影简介:电影讲述游泳特长生周潇齐与转校生尤咏慈长达15年的爱情故事。高中时，周潇齐对尤咏慈一见钟情，年少懵懂的纯纯爱恋，男孩默默守护，但女孩却不告而别。此后的人生，15年的爱情长跑。你的婚礼，也是我的成人礼。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>爱情</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['尤咏慈永远不知道那场烟花是周萧齐给她放的，而周萧齐也永远不知道尤咏慈的那场婚礼到最后也没有新郎。', '电影太仁慈. 总能让错过的人重新相遇. 生活不一样. 有些人说过再见就再也不见了 ', '你的婚礼 1:52:59也许青春里面的遗憾才是我的结局了吧！再见了 我最爱的汤喻欣！！！\n希望你以后在新的生活里面能再次遇到一位真正能对你好非常爱你的男孩子 谢谢你！！！', '挺遗憾的 青春就只有一个', '太感动了', "I'm so touched.", '我感觉这俩图片很配[随份子]', '我的那个她也在2022年2月七日结束了谢谢你夏梦婷', '个个都说没新郎这个是什么啊这就是结局', '两个小时我哭了半个小时', '尤咏慈永远不知道那场烟花是的周潇齐为她放的   周潇齐永远不知道那场婚礼没有新郎', '尤咏慈永远不知道那场烟花是周潇齐为她放的，而周潇齐永远不知道尤咏慈的婚礼没有新郎。', '兄弟们我截到了女主电话', '尤永慈永远都不会知道，生日那场烟花是周潇齐为她专门准备的，而周潇齐不知道的是，在尤永慈的婚礼上，根本就没有新郎', '再见了 陪伴了我三年的女孩.', '给我看哭了[意难平]', '  尤咏慈永远都不知道那晚的烟花是周潇齐特意为她放的 周潇齐也不知道其实在尤咏慈的未来规划里一直有他.', '我睡过她的房间，喝过她的水\n吃过她的剩饭，亲过她的嘴\n也见过她刚起床素颜的样子\n这辈子就当我娶过她了吧。', '看到这里就可以了 后面不看了 就当这是最美好得结局❤️', '失去她272天咯.这期间我也何尝不是每天都后悔自己不努力，没考上大学，如果我考上大学我们过的肯定很幸福.....', '我爱你，感谢你曾在我的生活里出现过。', '受不了了 太好看了 妈妈', '虽然很虐但是真的很喜欢', '她永远不知道他为她放了一场烟花', '再见她时，已经是两个孩子的妈了', '周萧齐和尤泳慈的十五年都没有结果 我和你的七年又算得了什么更何况七年里我们只见过三次.', '再一次重温，如何才能释怀，四年了每天都忘不掉点点滴滴，也不知道你过得怎么样，', '应该劫婚的', '祝福你“我错过的女孩@', '异地恋，去年偶尔一次聊天提到要去找你看这部电影、怪我又一次失信了，现在想用这种方式和你说再见、zyf谢谢你出现在我真挚而有热烈的十八岁、谢谢你教会我很多东南、遇到你我绝不后悔、感谢遇见！还想问下截屏ly是你对我说的话吗？', '太感动了😭', '尤咏慈永远不知道，那场烟花是周潇齐给她放的，周潇齐永远不知道，尤咏慈的婚礼上没新郎', '电影的世界真的好小，离开了几次的人又能再遇见。现实的世界真的好大，一个人走了就再也没有了消息', '2007年，17岁的我们在一起，18岁分开，2010年，20岁的我们各自去了不同的大学，分别有了新的恋爱，2013年，为了见她，我组织了同学聚会，2014年毕业后，我去了更远的城市，2015年，我们再次相遇，义无反顾走在一起，2017年，我们步入婚姻，我是幸运的，回忆这一路，无语表达内心滋味', '这场电影 我一个人去的影院看的！\n', '以前我俩一起看的 现在只有我了', '如果我是导演，我希望……那场婚礼，是尤咏慈给周潇齐的一个惊喜.', '尤咏慈因为周潇齐的“后悔”  就质\n疑了周潇齐15年的爱\n《你的婚礼》上映的时候好多人说周潇齐是舔狗  说这个电影毁三观  可是什么时候开始纯深情被加上了舔狗的标签\n就没有考虑过尤咏慈的成长坏境  原生家庭是一个很可怕的东西  周潇齐永远都不知道他的后悔对尤咏慈意味着什么  尤咏慈也是在及时止损  如果他们继续在一起  那么那一句后悔会消磨掉他们15年里所有的美好  （也不是所有人都懂周潇齐的后悔对尤咏齐意味着什么）', '尤咏慈永远也不会知道那一场烟花是周潇齐为她放的', '我希望剧情可以反转 我真的好希望站在礼堂的新郎就是周潇齐 一个人为另一个的十五年 用尽青春 最后都被 后悔 这两个字毁掉了 遇见一个人就没有什么后悔可言 为了你 我可以放弃一切 不管什么冠军 爱一个人 总而言之 珍惜彼此', '这辈子最羡慕的就是从校园到婚礼的爱情', '2021.8.30-2022.3.12 很遗憾没能走进你的心里', '很幸运遇见你，迪丽热巴，虽然已经分手了', '这样的结局配不上男主至死不渝的爱', '尤咏慈永远都不会知道那场烟花是为而她放的，周潇齐永远都不会知道尤咏慈的婚礼上没有新郎～～……', '这女主啥毛病啊，一和男主分开，马上能和其他男的好上，也是醉了。。。', '再见了 认识五年零四个月20天的女孩', '我们再也不会像以前一样了，hxy', '巧   下辈子别再错过我了   下辈子希望我们早点遇见   下辈子我带你回家😌', '分手两个月，本来以为看完会很感动。但是现在看完了，我一点也不感动，有的只是替男主的不值。虽说是15年时间，但是真正在一起的也就那么两年。前面的十几年可以说都是男主单方面的追求女主。从喜欢的角度讲，男主喜欢女主明显要比女主喜欢男主多的多。男主的喜欢是纯粹的喜欢，而女主的喜欢掺杂了感动 感激和愧疚。不能说两人不相爱，但是这种爱并不对等。男主真正应该后悔的是，没有答应女主的求婚。已经付出了那么多，结果最后一场空。而女主付出了什么？她什么都没有付出，却得到了幸福的结局。这就是爱情吗？', '看完了，没任何感觉，可能没谈过恋爱吧', '这个电影是我和她在2021年5月4日去影院看的，当时那个影院一个人都没有，只有我和她，那个时候都怪我太懦弱了，要是那个时候鼓起勇气给她表白，现在她也就不会是别人的宝贝了，但我不后悔，至少我曾经整个青春都是她的身影，潘广燕，我陈果曾经喜欢过你，我不遗憾，最后祝你幸福！', '2022年2🈷️2日 00:56分 这个电影我看哭了……\n  但还是祝我心里的那个他 永远幸福吧', '看了五遍还是觉得好看，五年内看过的最好的电影', '尤咏慈永远不知道周潇齐给她放了场烟花，男孩为了女孩重读，怕女孩遇到渣男打了她的男朋友，然后为了她断送自己的职业生涯，因为两个字女孩就离开了他，换我我理解不了', '周潇齐永远不知道尤咏慈的婚礼上没有新郎', '2022年1月28日15点39分，我又一次看哭了，即使缘分已尽，但还是感谢你曾经出现在我的生活中', '2022.2.14 情人节我来看这个?哈哈哈哈哈', '其实送你的那些礼物我都是我不吃饭留下来的', '连个合照都没有的集合一下吧！', '男主也对不住现任 明明有女朋友跟初恋成双入对的', '真的会改吗', '十二年的 你     希望我能看到你的婚礼  ', '2023.11.28凌晨3：40看完了。', '以前吧，不知道《你的婚礼》讲的是什么，直到我遇到她我彻底明白了什么是遗憾。在这里，我在爱的前任祝你幸福，希望你天天开心。', '再见了陪了我7年的女孩子', '心真的好痛在分手的这晚看了这部电影。\n所以说放不下以前，还是接受不了过去。', '结局真遗憾', '那个陪我六年的女孩 原谅我 你的婚礼我没参加 再见了我的女孩….', '太浪眼泪了', '看第五次了', '遇见你\n是我这辈子最骄傲的事情\n是你让我这个幼稚的男孩长大了', '看完就释怀了。', '2年了我来到了你们曾躲雨的地方却在也找不回感觉了', '还是不能释怀', '31号电影院见，一个人', '这个剧要被改了，是不是结局会在一起了', '生活不是电影   错过了就是真的错过了', '08年哪来的王者？', '希望能两个在一起', '终于等来重映了', '别人口中的烂片，我看了一遍又一遍', '谢谢你的陪伴宋女士', '怎么她也在啊？\n', '第一眼喜欢的人 我就没想过再爱别人 她不在的时候好像什么都没有了意义\n我总是惹她生气 有时候我在她面前确实挺傻我一做错事去光顾着和他道歉，忘了解释清楚 我说过永远爱她 我怕我放弃 有一天她不开心的时候找不到我 我不想错过她。[准奏] ', '付大头我爱你', '烟花再美 终究是灰', '中奖了 但是过期了', '非常好看，就是看的太遗憾了，非常的想哭', '再见了，我真正的初恋zxt，电影会重映我们不会重逢但是我还是想说，我不怪你，也祝我们各自的生活越来越好。']</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 移动迷宫3：死亡解药 </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>VIP · 10654热度</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>《移动迷宫3》肾上腺素预告负重前行打造良心终章,电影简介:被困在迷宫里三年，成功逃脱的他们，这一次他们要再次回到迷宫。托马斯带领小队成员开展最危险的行动，营救同伴、同时探索从进入迷宫开始就困扰大家的终极问题。</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.0分</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['移动迷宫4（新冠病毒）', '刚刚看完第三部，挺好看的', '结局可以，女主死了我就放心了', '注意了，移动迷宫是国内译名，原名叫maze runner，也就是迷宫行者，所以说内容重点是行者而不是迷宫，而且runner们也的确都在各种跑，所以并没有跑题', '123。1最好看，2一般般，3最难看。说实话1那么精彩，结尾感觉构造了一个庞大的末日世界，出了迷宫他们会经历很多精彩的估计，但是拍完23感觉是个烂尾。啥剧情啊？整个过程下来男主没感觉有什么聪明才智，只是圣母而已，谁都放不下，就是一路救人而已，呵呵。', '三只能看预告，要在哪里看呢', '求求上映', '我有个问题哦，男主在知道自己血液可以救人的时候，为什么不把自己的血液的给纽特，毕竟纽特当时已经是生死边缘了，死马当活马医啊，而且他自己也相信女主的话不然也不会回去了，而且就算他的血液当时做不了血清，但是给纽特喝下去，最起码也能起到一些抑制作用吧，毕竟他的血才是血清里最重要的物质', '纽特是怎么感染病毒的？？', '&lt;p&gt;人类处于神与禽兽之间，时而倾向一类，时而倾向另一类;有些人日益神圣，有些人变成野兽，大部分人保持中庸。凡事具有阴阳两面性，故而人性既有自私贪婪、急功近利的一面，也有宽容仁慈、勇于牺牲的一面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;电影《移动迷宫3：死亡解药》就完美演绎了人性中这样的两个极端。试验部负责人艾娃和詹森代表了自私贪婪和急功近利；而以托马斯为首的青少年们代表了宽容仁慈和勇于牺牲。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171945313/0"&gt;&lt;/p&gt;&lt;p&gt;过去，美国电影特别强调个人英雄主义比如《超人》《蜘蛛侠》等，都是依靠一个超能力者来救助贫民百姓，形成一个人拯救全世界的局面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;现在，美国电影的中心思想发生了改变，越来越强调团结合作了，比如《复仇者联盟》《移动迷宫》等，都是各有所长的人们组合在一起，共同拯救世界了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;没有看过《移动迷宫1》的人，理解第三部是困难的，所以我在此给大家科普一下这个故事发生的背景。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171963518/0"&gt;&lt;/p&gt;&lt;p&gt;这个故事发生在未来世界，那个时候虽然科技非常发达，但是环境污染也十分严重，导致人类受到病毒感染，死亡率急剧上升。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;为了制造免疫药物，人类统治者们成立了一个试验部，在全球寻找来没有被感染的青少年关在一个秘密基地——“林间空地”。而一个天生具有免疫力的青年托马斯和试验部的一个成员特瑞莎，也被送到了这个基地。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;这个基地实际上是一个可以移动的迷宫，想要出去必须穿过迷宫。而迷宫中藏有很多的食人怪物，但最终经过托马斯、纽特、米诺等努力，带领林间空地的青少年逃出了这个基地。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171973635/0"&gt;&lt;/p&gt;&lt;p&gt;他们以为逃出去就能回到过去幸福的生活，然而现实却让他们十分的沮丧。原来外面的世界早已被摧毁，绝大多数人因为感染了病毒而丧命。山川河流不复存在，家人们也不知所踪。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;迷茫之时，詹森出现了，他告诉托马斯他们还有一个安全的没有被感染的保护区可以让他们生活。等他们被带到保护区才发现，詹森想要拿他们来做免疫试验。于是，托马斯他们又开始了逃离之路。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;在脱跑的途中，米诺和其他几个青年又被抓走了。为了救出米诺，托马斯带领小伙伴们再一次展开了与试验部的斗争。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171983478/0"&gt;&lt;/p&gt;&lt;p&gt;试验部嘴上说的仁义道德，他们宣称是为了拯救全人类，找到治疗病毒的药物，才要做这样的试验。而实际上，他们为了达到目的不择手段，毫无人性地拿人做试验。这本身就违背了人伦道德。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;试验部的负责人艾娃一再强调，为了拯救人类总要有所牺牲的观点。是的，咋一听这个理论，似乎有那么点道理。但细想一下，所谓牺牲，难道不是应该牺牲自己吗？牺牲别人换取成就，不过是自私贪婪的借口罢了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果说艾娃还想给自己的行为找一个遮羞布，那么詹森就是连遮羞布都不要，更加赤裸裸的表现出急功近利的一面。他说托马斯他们不过就是实验室的小白鼠，所以根本就没有人权和尊严，只能够被利用。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;可见，即便科技再发达，人性如果不进步，世界一样会变得可怕。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171994329/0"&gt;&lt;/p&gt;&lt;p&gt;托马斯所带领的团队，和试验部的人形成了鲜明的对比。在为了活下去的战斗中，他们互相配合，通力合作，一次次战胜了试验部的追杀。当然这并不是说他们之间没有一点矛盾和冲突。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;但是他们因为共同的理念而把最大的宽容留给了队友。盖里曾经因为感染了病毒，失去意识杀死了队友，可以为了救出被关在试验部的米诺，托马斯选择了原谅他。于是他们合力救出了米诺。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;纽特也曾捅过盖里一刀，但是盖里却救了纽特。盖里说：“谁没有点错呢？”特瑞莎曾经和托马斯一起出生入死过，可是为了找到病毒的解药，她又回到了试验部。被特瑞莎背叛的托马斯，为了救人，再一次选择了相信她。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;人性最闪闪发光的就是宽容。所以他们虽然存在矛盾和冲突，但是最终因为宽容仁慈，又团结在一起。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172009359/0"&gt;&lt;/p&gt;&lt;p&gt;比宽容更难能可贵的是牺牲。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;相比艾娃的让别人牺牲的伪善，这群青年们却都甘愿为了别人自我牺牲。去救米诺是需要冒生命危险的，但是托马斯他们却毫不犹豫地去了。当纽特发现自己感染了病毒，会伤害托马斯的时候，为了保全托马斯，他自杀了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;最后托马斯和特瑞莎跑到屋顶，打算登上飞机逃走时，大楼却发生了爆炸。在这紧急关头，特瑞莎用尽全力把托马斯推上了飞机，自己却葬身火海。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;成全别人牺牲自己，才是这世间最伟大的爱。当托马斯打开纽特的遗物，发现了纽特的信。信中写到，他担心因为感染病毒而遗忘战友们，所以他把所有牺牲了的人的名字都记了下来。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;托马斯留着热泪看完信，把所有牺牲了的人的名字都刻在了岩石上。他心中有一个信念，那就是一定要带领大家找到新的家园，带所有牺牲的人回家。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172027907/0"&gt;&lt;/p&gt;&lt;p&gt;本片导演韦斯·波尔说，他想借本片表达的是希望和人性。同时也向我们提出另一个值得深思的问题：是要等到世界末日来临之际才开始重视希望和人性，还是从现在做起？\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果我们从现在开始就重视这些问题，也许就不会再有世界末日！&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172043629/0"&gt;&lt;/p&gt;', '整个世界观好奇怪呀，既然免疫者这么珍贵为啥要被放进迷宫？人们既然能造出机械兽为啥不对付丧失呢？就不能好好研究和发展吗？这都末日了还要内耗？还是新生代被牺牲，这搞得人类这个物种和傻子似的。', '18年的电影就知道要人人戴口罩了，是巧合还是有先见之明。这是个问题。', '早就出了第三部，几年前我就看完了，纽特死了，被感染了，解药来晚一步，纽特自杀了', '上线提醒，我来了', '😭️😭️😭️第一部看3遍了，现在第三都出来了，第二哪里可以看啊？', '纽特真的意难平', '这么好的电影才7.9分', '个人觉得第三部算是给第二部一个不错的结尾。\n首先，跟第一部的主题以及“迷宫”虽然已经在第二部就开始偏离了，但可能迷宫两个字不仅仅是表层意思，可能暗指另一种意思。换个角度说，如果第一部给我们一个好的结局，主角团们都逃出迷宫了，那么续作该如何延续迷宫就是个问题，所以肯定要往深层意义去挖掘。\n第二，我是很舍不得主角团们的牺牲，特别是纽特和特蕾莎。纽特怎么被抓伤就很不清楚，但是强忍着痛苦继续作战本身就困难，更何况是最后不想连累托马斯们选择自杀。而特蕾莎在本片中也是在研究与友谊之间来回切换的，她不是选择加入敌人，她是想着研究解药救助更多的人，才选择暂时接受研究，最后也是选择帮助男主脱离追杀以及火海最后牺牲。他们两个我是最渴望他们能和主角团们永远生活在一起，但现实依旧是残酷的。\n第三，我认为可能第二第三部的剧情就有点不合理。主角想要将实验对象们都救出来不被研究所抓到，但是救出来后只能选择一边躲避军队和和狂客，另外一边又要远离有病毒感染者的地方，虽然在一个岛屿上找到了所谓的“天堂”，但世界上最大的问题就是病毒该如何治疗，最后也拿到了解药，但主角团不一定会选择冒险离岛去就外面的人吧，所以解药怎么用就是个迷。另外一边，研究人员想要得到免疫者的血液，却要对他们有所隐瞒，直到第三部主角才确信自己的血液可以跟血清混合成为解药，这些就导致了研究进展不顺利了，其实第二部“右支”里面的军医就已经知道托马斯的血液可以救人成为解药，可惜愚蠢的敌人选择开枪射杀。实验体选择逃跑，剩下的人类只能听天由命，这也不算是一个很彻底的结尾吧。\n要我说推荐的话，第一部是力推的，而相对于第二、第三部我更推荐是两部一起看，第一部与第二、三部主题不一样让很多人对后续口碑有些差是没办法。所以要么先看二三再看一，这感觉就是两部不同主题的电影；而按顺序看的话剧情是通的，但是主题改变了就可能会跌口碑。', '我是vip几', '我可以拿自己做实验，那么你会实验吗，你能提供什么技术能力呢', '你把剧情写成当权者或者富人要这些免疫者的血续命我都能理解。这样搞真的逆天，还有主角团和反派的各种行为纯纯的降智，编也编的合理一点好吗。太逆天了', '非常好看，剧情反转，关键时候队友总是很给力。就是纽特死了有点可惜', '为什么一二部那个男的都叫民浩，三部又叫他米诺了呢？', '所以纽特是什么时候被感染的？', '都是死于嚰叽！', '刚看了12，这世界观有问题吧，既然是全球性的问题，为什么不能从免疫的年轻人里面挑选自愿者，公开正大关明的研究解药？抽血，实验，哪怕是付出生命的代价，是怕他们都不愿意吗？价值观都不对吧', '移动迷宫可惜没有第四部移动迷宫3：死亡... 02:05', '我勒个豆。因为女主死了多少人了，纽特说的挺对的。', '2099年12月20号地球最后一万人中一员穿越报到', '3出来了，1和2都忘完了', '本来一个人的血就可以支出疫苗，但却无辜牺牲了那么多人，就像国内一样总有几个张珊珊，还有一个不明白的是，他们还制造魔蛛干嘛啊', '不能投屏，差评', '评论区有些人表示不理解，为什么这个样子拍，因为人家这个是照着小说拍的，这三部电影就是外国同名小说改编的，人家不按照小说拍按照你的思路拍吗[我不理解][我不理解][我不理解]', '让我想到了葛优的那个剧： 如果你有100万你愿意用来帮助别人么 愿意  如果你有一个亿呢？ 全捐了  那如果你有一辆车呢  不愿意 因为他真有一辆车', '快来一起观看(つ≧▽≦)つ🎉🎉🎉🎉🎉🎉🎉🎉🎉🎉，亲爱的小伙伴', '移动迷宫拍着拍着就只剩移动了迷宫不见了[吃瓜N]', '叫回去送人头', '总结两个字：磨叽', '精准指向性实在是太强了[意难平]', '真的不理解你们看个电影那里这么多不理解', '发现外国人老得真快，第一部特丽莎和托马斯多嫩啊，这才过了几年，抬头纹鱼尾纹法令纹都出来了', '好好的移动迷宫，却成了僵尸大作战', '资本主义从来不把底层人民当人', '知道布伦达有血清，不早点给纽特用', '男主不死不解气。唯一一部想让男女主死的', '没有一点准备就去救人，主角除了热血什么都没有，连车玻璃都不会加上铁板，子弹也带不够，降智', '有这对视的时间，早踏马救上来了，真墨迹', '你对着驾驶室开两枪能干嘛，吸引火力么', '加利第一部被插心脏都能复活，纽特第四部也能复活。', '牛逼太烧脑无尿点', '原来纽特真名叫托马斯，真巧', '好遗憾，纽特竟然嘎了', '第十部才是最经典的。', '未来会不会真存在人和僵尸大战之类的谁也说不准，实验室会不会搞错会不会爆炸等等日本核废水排海，人污染了会是什么结果，会人传人吗？变异等，等等都说不准，一切前因和后果都是人造成的', '移动迷宫5 投屏需要人民币', '超极好看', '女主死了，好可惜', '真的不错🤩', '真不错 看着真挺好看[准奏][准奏][准奏][准奏]', '有没有女的一起看的', '真的太好看了[打call了]', '应该会有第4部吧，超好看，超期待', '我去，快2022年了。', '不是，我看完了三部，我怎么感觉看了个寂寞？第一男主跟女主都是实验公司的人知道内幕的，突然间男主看不下去了实验，开始以各种信息传递给外面的人，然后他自己被送进迷宫了，后面开始逃出去，自己用了病毒恢复记忆了，开始了我们要自由，要有自己的家，然后就死一大波，出去了几个人，后面该是第二部，东扯西扯又挂了一波人，后面兄弟抓，女主又回去了。这第二部一开始把女主救她的记忆基本上已经恢复完了，她知道这样救不了人类，跟男主绕了一圈，搞死一波人，又回去搞实验了。第三部感觉一样还在循环一样的剧情，男主救兄弟，女主搞解药，实验公司那边又拿男主的血来研究血清，到最后，兄弟没救到女主也挂了，好像女二也挂了，男主就救出一波人看着都不到1000个人和一个血清，搞死了这个末日世界2/3的人，然后就在一个岛上生存了？要武器没有武器，要装备没装备的这点人，外面全部是病毒肆虐的，这跟慢性等死有什么区别？这里面的反派实验公司主要的立场目的就是研究解药救人类的，男主的立场是内幕我都知道，就是看不惯你们，这样搞实验研究解药的不人道。看完我给看无语了。还有到达这种世界末日，人类种族要灭绝的的地步，男主的个人主义不感觉很渺小嘛？要是反派实验公司来个直接个公布男主血可以研究血清，根据这个末日世界观，还有人性这种，男主不就跟过街老鼠一样嘛，能走到那里去啊，就好像一两百个人说你错的不一定是错，但是有98%的人说你错了，哪就是一定错的。', '看看我是谁', '非常精彩', '会员都不能看高清    我❌哦', '这女的真墨迹，跳一下 兴许能活呢', '刚看了开头，太假了几个破枪打人家全副武装的，跟国产神剧有什么区别', '为什么纽特要死，如果没死的话是不是不会像现在看完这样哭死', '剧情真的是烂，很早就发现纽特被感染了，就是不用血清，快死了才去拿血清，', '值得一看', '女主男主真的讨厌🙃', '电影来源于生活', '你们不觉得布伦达 很像 阿力塔 吗？', '纽特我的意难平', '还没第一部好看。 [EMO了]', '惊吓产出的血液用来做血清最好', '黄毛是快银', '期待第4部', '第一部比较经典', '太值得看了，希望有第四部', '最后不还是回到最开始的那样吗？现在安逸的生活和当初在迷宫有什么不同？那些被感染的人和当初迷宫外的怪物有什么不同？所以迷宫没有跑题。兜兜转转还是最初。', '末日杀圣母，这话一点不假，还为了全人类，不就是自己觉得前期投入自己精力又有点效果不舍得实验就此结束要出名吗，连救命之恩都能背刺，男主还犹豫个六舅啊，男女主真恶心［呕吐］', '米诺死了吗？太可惜了，3部他都很帅😭😭😭😭', '啊，我最喜欢的那个是不是死了😭😭😭', '男主可以盐速度与激情', '保罗沃克', '复制生化危机还是行尸走肉', '亲嘴学会了吗']</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 疯狂动物城 </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>VIP · 10677热度</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VIP · 10618热度</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>疯狂动物城树懒片段要被急疯的节奏,电影简介:故事发生在一个所有哺乳类动物和谐共存的美好世界中，兔子朱迪从小就梦想着能够成为一名惩恶扬善的刑警，凭借着智慧和努力，朱迪成功的从警校中毕业进入了疯狂动物城警察局，殊不知这里是大型肉食类动物的领地，作为第一只，也是唯一的小型食草类动物，朱迪会遇到怎样的故事呢？
 近日里，城中接连发生动物失踪案件，就在全部警员都致力于调查案件真相之时，朱迪却被局长发配成为了一名无足轻重的交警。某日，正在执勤的兔子遇见了名为尼克的狐狸，两人不打不相识，之后又误打误撞的接受了寻找失踪的水獭先生的任务，如果不能在两天之内找到水獭先生，朱迪就必须自愿离开警局。朱迪找到了尼克，两人联手揭露了一个隐藏在疯狂动物城之中的惊天秘密。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>9.6分</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>动画</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', ' 尼克跟朱迪没有在谈恋爱', '尼克真的是迪士尼系列最佳男友！！！！', '&lt;p&gt;我只能说：9.5分太低了，起码得给个9.8分吧&lt;/p&gt;', '尼克比现在的偶像剧男主还会撩', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道', '糖尿病患者慎看。', '朋友之上，恋人未满\nYou know you love me😘\n痞帅的尼克和乐观朱迪', '🎬《疯狂动物城》\n主角朱迪从小就有一个警察梦，经过自己的不断坚持和努力，终于成功跻身一座现代化的动物城市去做警察，为了打破身边对于兔子当警察的偏见，朱迪和狐狸尼克开始调查一桩棘手的案件，并解开了阴谋背后的真相，最后成功的收获了身边人的认可和跨越种族的友情。\n看似是一个动物主题的冒险故事，但电影当中的不少片段，都折射出了生活当中的讽刺和隐喻', '看完开端决定再重温一遍动物城等更新', '这部动画讲了很多道理，把人性的丑恶和善良都描绘出来。食肉动物和食草动物，强大对弱小，偏见与傲慢，我们以为强势的老虎市长是始作俑者，但其实看似弱小值得同情的绵羊助理才是贪婪的恶人。我们以为肉食者改不了贪婪的本性，兔子警官下意识的拿出防御武器的时候尼克是心碎的。我们以为黑道大哥应该是强大恐怖的，结果是一只小小的老鼠，并且他也知恩图报。我们以为狐狸是狡猾的骗子，实际他们也有脆弱和希望得到认可的愿望。喜剧的内核必须有很多现实的元素才能让人觉得真实，饱满。里面的每个角色都有他的缺陷但又有其可爱之处。强烈的对比让我们反思人性的弱点', '同意出第二部的，点赞吧', '一只狐狸干过迪士尼所有王子', '主题很棒，大有讽刺的意味，但是有演绎的完美无瑕，用动物们来影射人类，小孩子看见正义与欢乐，成年人能看见明争暗斗与种族歧视', '出场才三分钟的树懒，简直承包了十足的笑点，哈哈哈', '迪士尼那么多的王子，果然最帅的还是尼克(˘•ω•˘)', '秒杀所有迪士尼王子的狐狸', '五年前刚出来的时候就跟男朋友去电影院看了，时间过得真快，现在他已经是别人的男朋友了，而我也是别人的男朋友了', '高分电影果然就是不一样 想看尼克和兔子结婚！', '开端来的', '为什么不能投屏呢！！', '包容各种动物，包容别人的过失，兔子承担自己的过失，狐狸兔子的 梦想，狐狸的 友情，兔子家人的 亲情。国产电影有这个表现力就好了！', '😂😂我是因为开端的二创视频来看的，，兔子好可爱啊', '看完开端，再来看遍看动物城', '因为《开端》，我决定把这个加入播放列表，明天就看', '《关于本人因为太想看开端把疯狂动物城又看了一遍这件事》', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道。如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', '本来性取向就不稳定，看完疯狂动物城连物种都不稳定了（我爱上这只狐狸了！！！！）', '有种cp叫朱迪尼克，糖尿病患者慎看。疯狂动物城(原声... 05:54', '一个字，好！', '这画质真拉垮', '“尼克狐尼克，你被捕了”\n“噢？为什么？因为伤了你的小心脏？”\n啊啊啊啊啊真的磕死我了\n“你知道你爱我”\n“我知道吗？好吧，就算我知道”\n呜呜呜大家都来看好吗！！[上头-上][上头-头]', '“you know you love me”尼克妥妥的理想型', '大先生和白熊', '很有意义的一部电影', '她现在啊是', '好看，是真好看', '超好看，三刷啦！', '超级无敌喜欢💕', '我都有老婆了', '这个小可爱是美洲狮啦，别搞错了呦', '尼克啊啊啊，全迪士尼的王子加一起也比不上一只狐狸[喜欢]', '￼有种cp叫朱迪尼克，', '小学时期的电影了，高中了还是很喜欢\n2023再来', '原来这电影是16年上映的，当年是在电影院看的', '办了他们', '意义好，内容好，而且很适合学英语', '好看 爱上一只狐狸', '为什么画质变低了', '2023.12.13来过', '2022年了，还有人看疯狂动物城吗', '在我看来这是汉语配音最完美的电影，还记得尼克狐尼克的那句：“为什么?伤了你的小心脏~”[打call了]', '兔子与狐狸🦊🐰', '超级好看 很有深度 超级棒', '&lt;p&gt;《疯狂动物城》，这是一部轻松的动画电影，当然，感触最深的大概是主题曲的歌词。故事很简单，表达的都是一些大家都明白的道理。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;梦想就坚持，说不准哪天就成功了呢&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个年轻人对大城市都心怀憧憬，那里有我们的梦想，我们的期望。想法很美好，然而这世上没有净土，伊甸园更多的只存于想象。&lt;/p&gt;&lt;p&gt;你追求梦想的赤诚，也许无形中会给他人带来伤害，更甚者，会被人利用，成为罪恶的推手。&lt;/p&gt;&lt;p&gt;与梦想几乎背道而驰的现实，善意的信念带来的却是糟糕的恶果，能不能承受？&lt;/p&gt;&lt;p&gt;兔子朱迪的职场经历何尝不是我们每一个人的缩影，追梦的道路上哪里又没有遇到过挫折和绝望。&lt;/p&gt;&lt;p&gt;失败也许还只是最小的打击，怕只怕，你所以为的善意，不仅没有带来追求的正义，反而还失去了其他重要的事物。&lt;/p&gt;&lt;p&gt;也许，为了某个职业梦想，放弃了深爱的人。也许，为了心底的善意，放弃了本属于自己的幸福。&lt;/p&gt;&lt;p&gt;经历过世事后才发现，那些你以为重要的，说不准才是不惧怕失去的。那些你以为可以舍弃的，才发现是无论如何不该放手的。&lt;/p&gt;&lt;p&gt;电影中，朱迪的梦想有过冲动，有过热血，有过失败，有过彷徨，她也曾失去，她也曾舍弃，她也曾伤害，她也曾挽回。所幸，最后她实现了梦想，也收获了幸福。&lt;/p&gt;&lt;p&gt;很多道理，知道的太迟，懂得的代价太大。幸运的是，时间没有太晚，还有机会改变。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKsA63MbGk8sJCf9lwteYyVQHicpCGqGoSjA/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;成为异类的日子里，哪怕被人排挤，你还是要努力发光&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;狐狸尼克不是一开始就圆滑事故，小时候的狐狸也有过单纯热情的梦想。直到有一天，它被信任的朋友们排斥在外，甚至于肆意践踏。&lt;/p&gt;&lt;p&gt;和别人不同，就会被视为异类。太过于聪明，平庸的人就会感到害怕。&lt;/p&gt;&lt;p&gt;你的聪明没有错，有错的是那些盲目的人们，你的热忱没有错，错的是那些以狭隘眼光对待你的人们。&lt;/p&gt;&lt;p&gt;你没有办法改变他人，如果你还是打算坚持自己选择的道路，就只能独自一人尝试坚持，直到有一天找到同伴。&lt;/p&gt;&lt;p&gt;这个世界上，总有一个人会来到你的身边，帮助你，支持你，成为你的同伴，从此携手同行。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKnZaAYSnatZPzMexy23wtebVIHibV36cLJw/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;生活总会有点不顺意，我们都会犯错。天性如何并不重要，重要的是你开始改变。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个人都无法预测明天会如何，我们往往没有那么多先见之明，没办法提前规避风险。&lt;/p&gt;&lt;p&gt;有时候我们会把未来想象得太好，会把梦想看得太重，当真正的一步一步走向期待的目标时，才会发现它并没有那么美好，这时，我们会失落，会受打击。&lt;/p&gt;&lt;p&gt;痛苦是必然的，煎熬也是必然的，尤其在付出了那么多之后，才发现一直渴望的生活与想象中差距那么大，说句信念坍塌也不为过。&lt;/p&gt;&lt;p&gt;仔细想象，现实与理想的差距太大，还是因为自己不够强，不够优秀，还没有能力缩短两者的距离。这个时候，别放弃，别妥协，要重新出发，勇敢去尝试每一件事情，别担心失败，别过于苛求，每一步都全力以赴，我们最终会抵达目标。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/yingping_pic/Q3auHgzwzM4VcOejxGlGaITiaOIXnsfQScUlhVjdwiaMO6LDYGCE365A/0" data-width="450" data-height="600"/&gt;&lt;/p&gt;&lt;p&gt;如果你喜欢我的影评，欢迎关注天天快报、今日头条“糖果悠唐”。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKm3PNV7zRn45cogGBefsnK6x6b5WhibLPXw/0" title="" data-width="400" data-height="400" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', '喜欢尼克！！', 'anyone could be anything, try it.', '24年第二部电影院见🥣', '帅气尼克and可爱朱迪', '这个很好。', '好看，先收藏，将来跟我的孩子看', '中国语的可以吗？', '把树懒当公务员，还真是这样，😂😂😂', '什么玩意不让投屏，我挠', '尼克真tm的烦！朱迪明明没有说他他就一直搁那对号入座！！真是个心机男！😡😡😡😡', '我居然会喜欢一只狐狸，他真的好好看', '这个地址都是南安特殊教育学校的 地址泰国这个玩意了视频', '超级好看，推荐！', '嘎嘎嘎嘎嘎嘎嘎嘎', '放下偏见', '看玩之后满满的感动。\n作为一个男生，我确实应该像尼克学习，学会独立挣钱，养活自己，做事有原则，有担当，懂得生活的意义。\n我也要像朱迪学习，朱迪在小时候时，别人嘲笑她的梦想，她有过失落和痛苦，但是她还是坚持了下来。如果朱迪当初放弃了自己的梦想，选择和现实低头，那么她也不会遇到尼克，也不会遇到和她志同道合的人。所以说，努力提升自己的能力，不断让自己变得强大，进去更好的圈子，才有可能遇到贵人。\n确实世界是不公平的，只有强者是制定规则的人，弱者只有服从的命令。赚到钱的人，一定是哪些不走寻常路，不随大流，有独立思考能力的人。', '有没有第二部，狐狸和兔子生出来是什么🤔', '这部电影就揭示了“动物（也包括人）心中与生俱来的成见",多数的食草动物对食肉动物的残暴成见，兔子对狐狸的狡猾的成见，包括那些身体高大的警官对于弱小兔子的成见。在人的层面讲，善良的人们总是对那些看似罪恶的人们有成见，强大有权势的人们总是看不起弱小的人们，那些正常聪明的人们对那些天生残缺的人有成见。就像哪吒动漫中所说的”人们心中有座山，那座山就是成见“。\n  世界本来就不公平，公平就是那些”享受公平“的人提出来安抚那些”不公平的人\'。生活中的我们就是那只兔子：总认为自己能改变点什么，但是最后才发现我们什么都做不了，默默地感到着自己。\n  “我竟然妄想自己能有所作为。”\n“我想我们应该放下顾虑 ...”\n                                                 2022，10，17', '我又回来重温了，闪电闪电', '超喜欢看无数遍了呜呜呜喜欢豹豹警官', '希望以后做的越来越好', '百看不腻', '很真实，剧情很意想不到', '好好看啊，期待第二部', '希望国漫也有这样的巨作！', '谁同意一定要出第二部点赞吧', '😘😘😆朱迪和尼克好磕[配R][配R]', '回老家了现在在家里面🍜腌就恐慌了', '00后多看国产经典，阿凡提，神笔马良，鱼童，骄傲的将军，狐狸打猎人，没头脑和不高兴，真假李逵，济公斗蟋蟀，老狼请客，半夜鸡叫，小马虎，崂山道士，红军桥，草原英雄好姐妹，好猫咪咪，牧童，熊猫百货商店，轰动世界', '这片的第二部预告片出了有段时间了吧？正片呢', '太好看了，yyds值得N刷', '几十年前就睡觉觉五哈', '是一部让人赏心悦目的电影，希望大家都可以静下心来看[准奏]', '改天左右眼了10', '狗好可爱晴晴雨雨停停']</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 移动迷宫3：死亡解药 </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>VIP · 10684热度</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>《移动迷宫3》肾上腺素预告负重前行打造良心终章,电影简介:被困在迷宫里三年，成功逃脱的他们，这一次他们要再次回到迷宫。托马斯带领小队成员开展最危险的行动，营救同伴、同时探索从进入迷宫开始就困扰大家的终极问题。</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.0分</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>科幻</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['移动迷宫4（新冠病毒）', '刚刚看完第三部，挺好看的', '结局可以，女主死了我就放心了', '注意了，移动迷宫是国内译名，原名叫maze runner，也就是迷宫行者，所以说内容重点是行者而不是迷宫，而且runner们也的确都在各种跑，所以并没有跑题', '123。1最好看，2一般般，3最难看。说实话1那么精彩，结尾感觉构造了一个庞大的末日世界，出了迷宫他们会经历很多精彩的估计，但是拍完23感觉是个烂尾。啥剧情啊？整个过程下来男主没感觉有什么聪明才智，只是圣母而已，谁都放不下，就是一路救人而已，呵呵。', '三只能看预告，要在哪里看呢', '求求上映', '我有个问题哦，男主在知道自己血液可以救人的时候，为什么不把自己的血液的给纽特，毕竟纽特当时已经是生死边缘了，死马当活马医啊，而且他自己也相信女主的话不然也不会回去了，而且就算他的血液当时做不了血清，但是给纽特喝下去，最起码也能起到一些抑制作用吧，毕竟他的血才是血清里最重要的物质', '纽特是怎么感染病毒的？？', '&lt;p&gt;人类处于神与禽兽之间，时而倾向一类，时而倾向另一类;有些人日益神圣，有些人变成野兽，大部分人保持中庸。凡事具有阴阳两面性，故而人性既有自私贪婪、急功近利的一面，也有宽容仁慈、勇于牺牲的一面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;电影《移动迷宫3：死亡解药》就完美演绎了人性中这样的两个极端。试验部负责人艾娃和詹森代表了自私贪婪和急功近利；而以托马斯为首的青少年们代表了宽容仁慈和勇于牺牲。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171945313/0"&gt;&lt;/p&gt;&lt;p&gt;过去，美国电影特别强调个人英雄主义比如《超人》《蜘蛛侠》等，都是依靠一个超能力者来救助贫民百姓，形成一个人拯救全世界的局面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;现在，美国电影的中心思想发生了改变，越来越强调团结合作了，比如《复仇者联盟》《移动迷宫》等，都是各有所长的人们组合在一起，共同拯救世界了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;没有看过《移动迷宫1》的人，理解第三部是困难的，所以我在此给大家科普一下这个故事发生的背景。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171963518/0"&gt;&lt;/p&gt;&lt;p&gt;这个故事发生在未来世界，那个时候虽然科技非常发达，但是环境污染也十分严重，导致人类受到病毒感染，死亡率急剧上升。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;为了制造免疫药物，人类统治者们成立了一个试验部，在全球寻找来没有被感染的青少年关在一个秘密基地——“林间空地”。而一个天生具有免疫力的青年托马斯和试验部的一个成员特瑞莎，也被送到了这个基地。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;这个基地实际上是一个可以移动的迷宫，想要出去必须穿过迷宫。而迷宫中藏有很多的食人怪物，但最终经过托马斯、纽特、米诺等努力，带领林间空地的青少年逃出了这个基地。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171973635/0"&gt;&lt;/p&gt;&lt;p&gt;他们以为逃出去就能回到过去幸福的生活，然而现实却让他们十分的沮丧。原来外面的世界早已被摧毁，绝大多数人因为感染了病毒而丧命。山川河流不复存在，家人们也不知所踪。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;迷茫之时，詹森出现了，他告诉托马斯他们还有一个安全的没有被感染的保护区可以让他们生活。等他们被带到保护区才发现，詹森想要拿他们来做免疫试验。于是，托马斯他们又开始了逃离之路。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;在脱跑的途中，米诺和其他几个青年又被抓走了。为了救出米诺，托马斯带领小伙伴们再一次展开了与试验部的斗争。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171983478/0"&gt;&lt;/p&gt;&lt;p&gt;试验部嘴上说的仁义道德，他们宣称是为了拯救全人类，找到治疗病毒的药物，才要做这样的试验。而实际上，他们为了达到目的不择手段，毫无人性地拿人做试验。这本身就违背了人伦道德。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;试验部的负责人艾娃一再强调，为了拯救人类总要有所牺牲的观点。是的，咋一听这个理论，似乎有那么点道理。但细想一下，所谓牺牲，难道不是应该牺牲自己吗？牺牲别人换取成就，不过是自私贪婪的借口罢了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果说艾娃还想给自己的行为找一个遮羞布，那么詹森就是连遮羞布都不要，更加赤裸裸的表现出急功近利的一面。他说托马斯他们不过就是实验室的小白鼠，所以根本就没有人权和尊严，只能够被利用。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;可见，即便科技再发达，人性如果不进步，世界一样会变得可怕。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171994329/0"&gt;&lt;/p&gt;&lt;p&gt;托马斯所带领的团队，和试验部的人形成了鲜明的对比。在为了活下去的战斗中，他们互相配合，通力合作，一次次战胜了试验部的追杀。当然这并不是说他们之间没有一点矛盾和冲突。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;但是他们因为共同的理念而把最大的宽容留给了队友。盖里曾经因为感染了病毒，失去意识杀死了队友，可以为了救出被关在试验部的米诺，托马斯选择了原谅他。于是他们合力救出了米诺。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;纽特也曾捅过盖里一刀，但是盖里却救了纽特。盖里说：“谁没有点错呢？”特瑞莎曾经和托马斯一起出生入死过，可是为了找到病毒的解药，她又回到了试验部。被特瑞莎背叛的托马斯，为了救人，再一次选择了相信她。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;人性最闪闪发光的就是宽容。所以他们虽然存在矛盾和冲突，但是最终因为宽容仁慈，又团结在一起。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172009359/0"&gt;&lt;/p&gt;&lt;p&gt;比宽容更难能可贵的是牺牲。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;相比艾娃的让别人牺牲的伪善，这群青年们却都甘愿为了别人自我牺牲。去救米诺是需要冒生命危险的，但是托马斯他们却毫不犹豫地去了。当纽特发现自己感染了病毒，会伤害托马斯的时候，为了保全托马斯，他自杀了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;最后托马斯和特瑞莎跑到屋顶，打算登上飞机逃走时，大楼却发生了爆炸。在这紧急关头，特瑞莎用尽全力把托马斯推上了飞机，自己却葬身火海。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;成全别人牺牲自己，才是这世间最伟大的爱。当托马斯打开纽特的遗物，发现了纽特的信。信中写到，他担心因为感染病毒而遗忘战友们，所以他把所有牺牲了的人的名字都记了下来。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;托马斯留着热泪看完信，把所有牺牲了的人的名字都刻在了岩石上。他心中有一个信念，那就是一定要带领大家找到新的家园，带所有牺牲的人回家。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172027907/0"&gt;&lt;/p&gt;&lt;p&gt;本片导演韦斯·波尔说，他想借本片表达的是希望和人性。同时也向我们提出另一个值得深思的问题：是要等到世界末日来临之际才开始重视希望和人性，还是从现在做起？\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果我们从现在开始就重视这些问题，也许就不会再有世界末日！&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172043629/0"&gt;&lt;/p&gt;', '整个世界观好奇怪呀，既然免疫者这么珍贵为啥要被放进迷宫？人们既然能造出机械兽为啥不对付丧失呢？就不能好好研究和发展吗？这都末日了还要内耗？还是新生代被牺牲，这搞得人类这个物种和傻子似的。', '18年的电影就知道要人人戴口罩了，是巧合还是有先见之明。这是个问题。', '早就出了第三部，几年前我就看完了，纽特死了，被感染了，解药来晚一步，纽特自杀了', '上线提醒，我来了', '😭️😭️😭️第一部看3遍了，现在第三都出来了，第二哪里可以看啊？', '这么好的电影才7.9分', '你把剧情写成当权者或者富人要这些免疫者的血续命我都能理解。这样搞真的逆天，还有主角团和反派的各种行为纯纯的降智，编也编的合理一点好吗。太逆天了', '个人觉得第三部算是给第二部一个不错的结尾。\n首先，跟第一部的主题以及“迷宫”虽然已经在第二部就开始偏离了，但可能迷宫两个字不仅仅是表层意思，可能暗指另一种意思。换个角度说，如果第一部给我们一个好的结局，主角团们都逃出迷宫了，那么续作该如何延续迷宫就是个问题，所以肯定要往深层意义去挖掘。\n第二，我是很舍不得主角团们的牺牲，特别是纽特和特蕾莎。纽特怎么被抓伤就很不清楚，但是强忍着痛苦继续作战本身就困难，更何况是最后不想连累托马斯们选择自杀。而特蕾莎在本片中也是在研究与友谊之间来回切换的，她不是选择加入敌人，她是想着研究解药救助更多的人，才选择暂时接受研究，最后也是选择帮助男主脱离追杀以及火海最后牺牲。他们两个我是最渴望他们能和主角团们永远生活在一起，但现实依旧是残酷的。\n第三，我认为可能第二第三部的剧情就有点不合理。主角想要将实验对象们都救出来不被研究所抓到，但是救出来后只能选择一边躲避军队和和狂客，另外一边又要远离有病毒感染者的地方，虽然在一个岛屿上找到了所谓的“天堂”，但世界上最大的问题就是病毒该如何治疗，最后也拿到了解药，但主角团不一定会选择冒险离岛去就外面的人吧，所以解药怎么用就是个迷。另外一边，研究人员想要得到免疫者的血液，却要对他们有所隐瞒，直到第三部主角才确信自己的血液可以跟血清混合成为解药，这些就导致了研究进展不顺利了，其实第二部“右支”里面的军医就已经知道托马斯的血液可以救人成为解药，可惜愚蠢的敌人选择开枪射杀。实验体选择逃跑，剩下的人类只能听天由命，这也不算是一个很彻底的结尾吧。\n要我说推荐的话，第一部是力推的，而相对于第二、第三部我更推荐是两部一起看，第一部与第二、三部主题不一样让很多人对后续口碑有些差是没办法。所以要么先看二三再看一，这感觉就是两部不同主题的电影；而按顺序看的话剧情是通的，但是主题改变了就可能会跌口碑。', '我是vip几', '我可以拿自己做实验，那么你会实验吗，你能提供什么技术能力呢', '非常好看，剧情反转，关键时候队友总是很给力。就是纽特死了有点可惜', '本来一个人的血就可以支出疫苗，但却无辜牺牲了那么多人，就像国内一样总有几个张珊珊，还有一个不明白的是，他们还制造魔蛛干嘛啊', '为什么一二部那个男的都叫民浩，三部又叫他米诺了呢？', '纽特本来可以不死的，给他喝点血就行，难道他的死就是为了最后让我掉几滴眼泪么', '所以纽特是什么时候被感染的？', '都是死于嚰叽！', '移动迷宫可惜没有第四部移动迷宫3：死亡... 02:05', '我勒个豆。因为女主死了多少人了，纽特说的挺对的。', '2099年12月20号地球最后一万人中一员穿越报到', '这电影很好看就是不知道后面还会出吗？有人知道吗', '不能投屏，差评', '发现外国人老得真快，第一部特丽莎和托马斯多嫩啊，这才过了几年，抬头纹鱼尾纹法令纹都出来了', '评论区有些人表示不理解，为什么这个样子拍，因为人家这个是照着小说拍的，这三部电影就是外国同名小说改编的，人家不按照小说拍按照你的思路拍吗[我不理解][我不理解][我不理解]', '3出来了，1和2都忘完了', '刚看了12，这世界观有问题吧，既然是全球性的问题，为什么不能从免疫的年轻人里面挑选自愿者，公开正大关明的研究解药？抽血，实验，哪怕是付出生命的代价，是怕他们都不愿意吗？价值观都不对吧', '让我想到了葛优的那个剧： 如果你有100万你愿意用来帮助别人么 愿意  如果你有一个亿呢？ 全捐了  那如果你有一辆车呢  不愿意 因为他真有一辆车', '快来一起观看(つ≧▽≦)つ🎉🎉🎉🎉🎉🎉🎉🎉🎉🎉，亲爱的小伙伴', '叫回去送人头', '总结两个字：磨叽', '精准指向性实在是太强了[意难平]', '好好的移动迷宫，却成了僵尸大作战', '原来纽特真名叫托马斯，真巧', '真的不理解你们看个电影那里这么多不理解', '移动迷宫拍着拍着就只剩移动了迷宫不见了[吃瓜N]', '资本主义从来不把底层人民当人', '知道布伦达有血清，不早点给纽特用', '男主不死不解气。唯一一部想让男女主死的', '有这对视的时间，早踏马救上来了，真墨迹', '你对着驾驶室开两枪能干嘛，吸引火力么', '加利第一部被插心脏都能复活，纽特第四部也能复活。', '应该会有第4部吧，超好看，超期待', '值得一看', '牛逼太烧脑无尿点', '未来会不会真存在人和僵尸大战之类的谁也说不准，实验室会不会搞错会不会爆炸等等日本核废水排海，人污染了会是什么结果，会人传人吗？变异等，等等都说不准，一切前因和后果都是人造成的', '第十部才是最经典的。', '超极好看', '移动迷宫5 投屏需要人民币', '女主死了，好可惜', '真的不错🤩', '真不错 看着真挺好看[准奏][准奏][准奏][准奏]', '好遗憾，纽特竟然嘎了', '女主男主真的讨厌🙃', '我去，快2022年了。', '有没有女的一起看的', '为什么，第二第三部是这样，跟迷宫没什么关系吧！', '看看我是谁', '非常精彩', '会员都不能看高清    我❌哦', '这女的真墨迹，跳一下 兴许能活呢', '刚看了开头，太假了几个破枪打人家全副武装的，跟国产神剧有什么区别', '剧情真的是烂，很早就发现纽特被感染了，就是不用血清，快死了才去拿血清，', '真的太好看了[打call了]', '不是，我看完了三部，我怎么感觉看了个寂寞？第一男主跟女主都是实验公司的人知道内幕的，突然间男主看不下去了实验，开始以各种信息传递给外面的人，然后他自己被送进迷宫了，后面开始逃出去，自己用了病毒恢复记忆了，开始了我们要自由，要有自己的家，然后就死一大波，出去了几个人，后面该是第二部，东扯西扯又挂了一波人，后面兄弟抓，女主又回去了。这第二部一开始把女主救她的记忆基本上已经恢复完了，她知道这样救不了人类，跟男主绕了一圈，搞死一波人，又回去搞实验了。第三部感觉一样还在循环一样的剧情，男主救兄弟，女主搞解药，实验公司那边又拿男主的血来研究血清，到最后，兄弟没救到女主也挂了，好像女二也挂了，男主就救出一波人看着都不到1000个人和一个血清，搞死了这个末日世界2/3的人，然后就在一个岛上生存了？要武器没有武器，要装备没装备的这点人，外面全部是病毒肆虐的，这跟慢性等死有什么区别？这里面的反派实验公司主要的立场目的就是研究解药救人类的，男主的立场是内幕我都知道，就是看不惯你们，这样搞实验研究解药的不人道。看完我给看无语了。还有到达这种世界末日，人类种族要灭绝的的地步，男主的个人主义不感觉很渺小嘛？要是反派实验公司来个直接个公布男主血可以研究血清，根据这个末日世界观，还有人性这种，男主不就跟过街老鼠一样嘛，能走到那里去啊，就好像一两百个人说你错的不一定是错，但是有98%的人说你错了，哪就是一定错的。', '为什么纽特要死，如果没死的话是不是不会像现在看完这样哭死', '电影来源于生活', '还没第一部好看。 [EMO了]', '纽特我的意难平', '惊吓产出的血液用来做血清最好', '黄毛是快银', '期待第4部', '太值得看了，希望有第四部', '再回来看一眼纽特', '最后不还是回到最开始的那样吗？现在安逸的生活和当初在迷宫有什么不同？那些被感染的人和当初迷宫外的怪物有什么不同？所以迷宫没有跑题。兜兜转转还是最初。', '末日杀圣母，这话一点不假，还为了全人类，不就是自己觉得前期投入自己精力又有点效果不舍得实验就此结束要出名吗，连救命之恩都能背刺，男主还犹豫个六舅啊，男女主真恶心［呕吐］', '米诺死了吗？太可惜了，3部他都很帅😭😭😭😭', '啊，我最喜欢的那个是不是死了😭😭😭', '男主可以盐速度与激情', '保罗沃克', '复制生化危机还是行尸走肉', '亲嘴学会了吗']</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 蜘蛛侠：纵横宇宙 </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>VIP · 10557热度</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>【幕后短花絮】我要按我的方式来,电影简介:影片讲述了新生代蜘蛛侠迈尔斯携手蜘蛛格温，穿越多元宇宙踏上更宏大的冒险征程的故事。面临每个蜘蛛侠都会失去至亲的宿命，迈尔斯誓言打破命运魔咒，找到属于自己的英雄之路。而这个决定和蜘蛛侠2099所领军的蜘蛛联盟产生了极大冲突，一场以一敌百的蜘蛛侠大内战即将拉响！</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.4分</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>动画</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['下周五出了踹我，往死里踹。', '电影院看了，效果剧炸裂，贼强', '动漫吗？那没必要看啦', '蜘蛛侠还得是索尼玩得好，漫威拍的太拉了，支持索尼宇宙', '就是没有中国蜘蛛侠哈哈哈', '我丢，应该还有一部 最精彩的时候没有了', '这个黑人这么大的爆炸头，蜘蛛侠的头套是怎么做到没有凸起的？', '出了踹死我，往死了踹', '祝你和温', '剧透一下，猜猜这是谁？', '虞书欣配的音太爱了', '出了踹我！\n', '为什么是英语\n', '为啥颜色是粉色太刺眼了，都不高舒服点啊', '上映了踹我一下', '牛啊牛啊   多元宇宙算是被漫威玩透了', '只要什么时候上线呢？我好想看', '7.2就没人出呗', '什么时候出啊', '两个半小时看个预告片。', '勾屎真的', '又是黑人。。。美国也快黑化了！', '迈尔斯是真的der，就一小屁孩，满是个人主义', '找几个人送他权限', '猜测之后的剧情就是斑点开始搞破坏，在主角宇宙的蜘蛛侠阻止开始对战，格温她们找到主角并前往主角宇宙，加入对付斑点的战斗，在战斗中其他宇宙的反派通过虫洞出现，蜘蛛侠们请求支援，在一段打斗争吵醒悟之后斑点被消灭，主角爸爸也没死，主角爸爸也知道主角是蜘蛛侠了。但是蜘蛛老大不乐意了，为什么我改变是事件造成了平行宇宙崩塌，而主角却并没有失去什么。(因为洛基掌握了神圣时间线，可以让每个宇宙的人拥有自己的选择，而不是按照规定的命运。)之后可能还有点故事看除了啥样吧', '首先，提醒各位看不懂的，这是《蜘蛛侠：纵横宇宙》上集！上集！上集！，下集《超越宇宙》预约明年3月在北美上映！[一起冲]\n真爱粉一定要看！超酷！各种画风各种年代的融合！已经不能说是动画电影了，这是艺术！[666啊]\n欣赏不了的人最好还是不要看了，省得看了还看不懂在那叫[吃瓜N]\n上集，基本上就是讲，接上前传迈尔斯的宇宙同一个宇宙两个蜘蛛侠，由于金并的对撞机，迈尔斯成了整个异次元错乱的源头，目前最大的敌人斑点(不知道下集会怎么样)。同时讲了迈尔斯与百蛛集结互相的关系，这里由女朋友格温引入。最后，小小剧透一点点，迈尔斯和格温确定了心意，导致格温才有强烈的信心招募联合愿意帮迈尔斯的蜘蛛侠们，一起打破命运，一起见证(下集)！\n42号宇宙的迈尔斯徘徊者登场的时候真的超帅，泰酷辣！[打call了][打call了][打call了]（42号宇宙没有蜘蛛侠）\n百蛛登场的地方，真的是经典名场面！还有好几个老熟人，真人版客串，还有加菲[放大镜][狗头]不看真的会后悔的！每个场景的配乐真的很nice！[一起冲]\n花了7.2元刷了三遍了还是不觉得腻！[金币]', '我是不是看错顺序了我先看的是平行宇宙然后又看这个应该顺序是对的吧', '张泽鸥我爱你😘', '我充了VIP', '谁懂啊，看了两个半小时都是为第二部铺垫，没正片，两个多小时看的都是第二部的预告', '动画片有啥好看的', '申请退款', '混乱，为赋新词强说愁。', '7.2元看了一个预告。', '谁买了？能不能私信我一下当一次好人好不好', '看的热血沸腾', '电影院的效果才炸裂呢，手机上看没那味儿', '怎么说呢，没第一季好看，电影看完一点感觉都没有，就像听了一首口水歌，挺失望的，看了又像什么都没看，没第一季惊艳，而且可能受传统文化和东西方文化差异的影响，我挺反感这一季的主角的，希望下一季能做好吧。', '今天刚能免费吗', '不是能力越大责任越大吗？蜘蛛侠拯救世界也会选择拯救世界（这个是啥？黑猪侠，烧的嘛而且半生不熟坏肚子那种）', '虞书欣配音惊艳到你了吗 这么爱破防吗 你发这些有什么目的？谁指使你的？你的动机是什么？你取得有关部门许可了吗？他们容许你发了吗？你背后是谁，发这些想做什么？你在讽刺谁？想颠覆什么？破坏什么？影射什么？', '说看不懂的什么成分？期待下一部', '拍的不错，下次拍时间长一点，才看6分钟就结束啦，不过瘾。', '想来想去还是世界太无趣 那么多人都在忙着辜负自己', '期待下一步', '2023/12/21打卡！！', '现在内个也能当蜘蛛侠了吗', '讨厌的政治正确，什么都要加黑人。', '这不是平行宇宙吗？', '好看的地方我都在哈哈[666啊]', '还跟和平联动了？！', '这预告片居然花了我两个多小时', '今年的美国不管是什么类型的，为什么主角都是黑人，我也是服了', '[准奏]本身就是不同宇宙线的蜘蛛侠 蜘蛛侠2099代表老旧恪守的一派 2099为各个平行宇宙的蜘蛛侠建立了基地 他也很热爱蜘蛛侠大家族 其他宇宙的蜘蛛侠围绕着蜘蛛侠2099身边组成了一个强大的守旧势力 他不是反派 但他依旧是迈尔斯最难抗衡的力量 而迈尔斯就属于颠覆派 迈尔斯不相信这些命运 他想要冲破旧格局 他想重新定义蜘蛛侠的命运 这就是两种信念的碰撞 不很好的把平行宇宙的概念引入进来了吗 看不懂就去看看解说￼￼', '这是在侮辱智商呢 那么多蜘蛛侠整不过一个迈尔斯 呵呵呵', '还是挺好的，虽然最后结束的有点突兀……期待下一部吧！😁😁', '英语2:14:26看完啦 周三晚上19:23 2023.12.20看了一周[一起冲][一起冲][一起冲]', '除了内个主角，其他一切完美', '我都看过了，再看一次', '就看视觉效果过去，一般', '6分钟的电影真好看', '电影特别好看，特别精彩，多种画风演技超高制作，导演简直是个天才，当然了，演员也是一堆天才我，而且里面还有真人扮演', '勋章不少', '棉花侠摘棉花一定很快', '彼得帕克啥时候变成niggggger了。。。。。', '好棒的电影，除了最后该死的“to be continued”主题贯穿整个故事，虽然是老套的“我命由我不由天”，但故事表现的很好，原本以为是宝宝宣传教育片，后面发现整个故事给人思维一种很震撼的感觉。', '尼哥居居侠', '我花这些钱只为看个预告片', '艺术 视听 画面 拉满了', '不是哥们，我看了个预告片', '我就知道还会出', '听说动画版与蜘蛛侠更配哦。', '这是2023年的电影？我怎么感觉几年前就看过了？还是说以前有这么一部类似的？我穿越了？', '视效 音效都是顶级的！ 还有不同蜘蛛侠不同画风的展现也是很好的创意！故事有点好懂希望下一部也能有同等水平 三部曲都获得奥斯卡就很牛逼了', '2023...12--18', '今年好像都流行拍一半', '哪来的9.4分啊不能理解', '什么玩意啊', '说句实话，真心不好看，中间我也没看到有什么高潮部分结果我以为高潮部分要开始了结果结束了', '画面很不错', '我真的很喜欢蜘蛛侠，当时刚出来的时候太忙没时间去看，腾讯竟然这么快就出来了，很开心', '平行宇宙是第一部吗？', '蜘蛛侠都变成nigher了果然政治正确  我呸！', '哇哦要出啦！！！', '这么好为啥没人', '好家伙，这是哪个宇宙的', '我天太帅了吧\n下一部必看啊', '感觉应该不错', '😈😈😈😈😈😈👿😈😈😈😈😈😈😈😈😈😈👿👿😈😈😈👿😈😈👿😈👿😈😈😈😈😈😈😈😈😈😈😈😈👿😈😈😈👿😈😈😈😈👿找😈有十个', '熬到你免费了 终于！']</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 纸新娘 </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>VIP · 10595热度</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>《纸新娘》热播！活人犯禁忌，与纸人结阴亲全家中邪！,电影简介:民国初年，清宝村马家大夫人正在为其因病去世的大孙子马不明举办阴婚，突然纸新娘离奇复活，现场一片混乱。阴阳半仙认为是其二孙子马不快因血跟纸新娘结了孽缘，从而被纸新娘缠上，必须送他离开马宅。十一年后，马不快携恋人李招娣回乡谈论婚嫁之事，不料在他回到马宅后诡异命案接连发生，不信任何鬼神怪论的他认为此事另有蹊跷，决定亲自解开谜团，并且在这过程中逐渐了解到一段尘封已久的恩怨。</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.0分</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>惊悚</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '帘外芭蕉惹骤雨门环惹铜绿，而我路过那江南小镇惹了你。在泼墨山水画里，你从墨色深处被隐去', '一，老夫人该死，封建迷信害死人，\n二，戏子该死，要了女人身子又不带她走，让她留下肯定是没好结果\n三，借鬼神杀人敛财更该死。', '那姑娘都愿意了，还在树后不答应。害人害己的东西[EMO了]', '8分20秒🙏🙏🙏', '好像发生了什么，又好像什么也没发生', '很好很好很好纸新娘 1:31:04', '气氛一下就没了', '我走错片场了吗？', '根本没有恐怖气氛感哟', '其实要不是碍于鬼怪电影大环境限制，国内很多这种题材还是可以拍的不错的，要不然总觉得差口气', '和春晚最后都要包饺子一样，鬼片最后都能科学解释', '每次看到国产恐怖片的高分影评就禁不住感慨，混口饭吃不容易', '调色师和导演是懂中式恐怖的，，配乐，音乐，色调，布景，小道具。这剧组拍灵异文也是完全可以的', '最该杀的不应该是戏子吗？要是他能带走她，还会有后面的事吗？', '这个结尾挺有意思，有悬疑，小时候缺氧昏迷扔水里都不能死的人大了自己跳应该是没死，让人有个疑影', '嘿竟然还行，拍的不是很水，小成本电影特效稍微有点差也能接受', '民俗中式恐怖电影麻烦请按这个标准卷起来！很好啊，就很好', '电影里开场便是阴雨，加上恐怖的老房子场景，难免有些毛骨悚然的感觉', '呢个电影纸新娘一般般，我估纸嫁衣游戏有一啲一致嘅情节呢，冇谂到系唔同嘅，就个女主角！也算冇问题了！', '哦豁！住进祖宅第一天晚上那个妹儿镯子都碎了，必有大凶啊！', '真的很不错，不说废话，不是很恐怖却很有深意告诉大家真的要破除封建迷信', '如果真的有鬼 那当年那些日本人都走不出南京。', '真的很吓人啊几乎全程捂眼睛不敢看，算是国产的及格了~', '推荐你们看国产恐怖片《山村狐妻》，回魂之夜，黄皮子坟（电影版），纸人回魂，落天荒，欧美恐怖片死寂，这个首屈一指，爽死你 厉鬼将映，禁闭岛', '现在的鬼片 没劲哪有鬼全是迷药', '排的真的一般', '有没有女生起床看这个的', '看到那个疯子的时候就知道咋回事了！', '过去的，别再遗憾；未来的，无须忧虑；现在的，加倍珍惜过去的，', '￼如果真的有鬼 那当年那些日本人都走不出南京。', '一点也不恐怖', '一个男孩喜欢一个女孩，但女孩并不喜欢男孩，于是男孩把女孩杀了，并将尸体丢到了深山老林，第二天男孩觉得身体很沉重，像是被什么东西压着一样，很难受，喘不过气。就出门散心，遇到一老道士，道士告诉他，他已经被女孩缠上了。男孩问我该怎么办？道士说七天后是回魂夜女孩必定回来杀你，你要在这七天完成三件事。第一去最近香火最盛的寺庙，求一个平安符，第二为女孩做一场法事并将尸体按正常下葬，第三把你杀女孩时她穿的衣服上的血迹清洗干净，这样或许能逃过一劫，男孩先去附近的寺庙求了一个平安符，将符戴上后男孩感觉自己身上的压力顿时消失了，走的时候主持看了他一眼说了一句善哉善哉，然后做了三天法事，第六天将女孩尸体下葬回去后已经下午七点，男孩赶紧把女孩那天穿的衣服拿出来洗，洗着感觉过了很久，一看已经十点了，男孩笑了，搞定了，把衣拿起一看腰部还有一片血迹，男孩大惊赶紧放在水中搓洗，\n23:59最后一分钟男孩绝望了，恐惧降临，头顶电灯一闪一闪像失灵一般，穿白色衣服的女孩漂在空中，惨白的脸，女孩发出刺耳的笑声，\n你洗啊 洗啊，男孩被吓的倒在地下双手撑在后面住后退 你别过来说着伸手拿出那枚平安符，突然灯熄灭了，男孩手中的平安符也碎了，黑暗中女孩问男孩你知道为什么你洗不干净吗？为什么？惨白的脸慢慢贴在男孩脸上，因为因为你没用立白洗衣服粉.….', '就想知道是中式恐怖吗？有真鬼吗？现在的国产鬼片烂的要死，到最后全是人做怪', '￼今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '差点以为是纸嫁衣', '怎么所有都要剧情都一样，还要为什么没有女主的名字？！', '戏精本精，戏子无情', '逻辑思维好', '既然电影不让有鬼的存在，那就多余拍这种片。', '挺好的恐怖片了', '这男人没度量', '什么东西啊？', '没太看懂，是大少爷死了假借冥婚娶纸新娘，实际上娶的是个活人，把活人活埋了吗？', '现在的恐怖片都是这样？有什么看法？开局几分钟吓人的，后面就是男主女主去破案，最后真相大白要么精神分裂要么别人复仇扮鬼', '有害怕鬼新娘的不，来组个队一起看，我请你喝奶茶', '南阳的有没有', '这是非常遗憾爱情片好叭😭', '不好，套路俗套', '挺好看的 女主让人看着很舒服', '全程没感觉恐怖  笑着看完的[富翁]', '鬼片拍成悬疑片，不过剧情还可以', '导演很用功呀，电影的摄影和剪辑非常精细，每个场景都处理得恰到好处', '。。。。。[再见][再见]剧情编剧真的一言难尽0.0。就不该对国产恐怖片抱有希望', '现在大陆的这类片看到最后都是人为的，是不是不让拍真鬼了过不了审', '看不明白', '挺好看，女主没错，感觉戏子有点渣', '凶手应该是招娣吧，妹妹给姐姐报仇', '他为什么晚上要来不白天来？', '又是这种剧情', '今天卡了吗。我Vip咋不能用了。[EMO了]', '我还以为是纸嫁衣嘞', '12月16日打卡', '哥哥死了，那三个坏人逼姐姐冥婚。那为什么让弟弟娶纸新娘', '我想说的是为什结局女主跳水了，男主第一时间反应过来跳水救女主没救成？真不知道导演怎么想的，虽然说结局不能让坏人逍遥法外，但是你他喵的人家男主也是第一时间跳的，最后男主上岸连个尸体都没抱上来，我看到最后以为男主会抱着女主上岸的，不得不说导演想像力也是一坨翔，为了过审这么拍结局是吧？', '国产恐怖片越来越好了，演技道具音乐剧情都不差', '有没有说说好看吗', '真的不错兄弟们', '不这么安排能过审吗？', '已经很不错了', '几乎所有的的案件类鬼片，技巧和手法都千篇一律了，国产恐怖片急需提升啊', '永远都是正义战胜邪恶。没啥意思。', '媒婆绑她姐干嘛她姐也没去马家啊她姐不是活着吗之前为什么要用纸人党替身稀里糊涂的', '不知道这片电影纸新娘好不好看\n反正我看了撞邪感觉给我一种\n不是狠恐怖惊的感觉[笑哭N][笑哭N][笑哭N][笑哭N][笑哭N]\n看到后来我都想笑了\n希望纸新娘可以给我一种焕然一新的感觉\n期待(*^o^*)这片纸新娘加油噢力给哦\n[泪奔][泪奔][泪奔][泪奔][泪奔][泪奔]', '管家有问题绝对', '招娣有问题绝对', '评论区实名', '其实用纸人可以了，听说以前都是用刚嘎不久的来配，也不知道真的假的', '那么坏，应该用机枪扫了他们！', '封建迷信要不得哦！时代变了，要与时俱进！', '最近恐怖电影不少啊，不错不错', '有现在看的吗', '又是人为的结局。', '半夜12:00看正常吗？', '纸嫁衣游戏出了之后，国产民俗电影和游戏一个接一个，不戳不戳，味道好极啦，奉天白事铺算一个，这又一个，喜欢看', '最后女主消失是为了迎合国家的法大于情！不然没法过审', '嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦[吃瓜N][666啊][666啊][EMO了][一起冲][皇冠][一起冲][皇冠][笑死我了][一起冲][笑死我了][意难平][皇冠][富翁][666啊][富翁][放大镜][没眼看][气到变形][我裂开了][我裂开了][击退][击退][击退][击退][打卡-卡][打卡-打][打卡-打][打卡-卡][打卡-卡][笑哭N][笑哭N][鼓掌][擦汗]', '虽然知道结局，还是可以的，好评', '大晚上开我也不敢看啊', '有没有可能，这个女孩是那个纸新娘的妹妹']</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', ' 尼克跟朱迪没有在谈恋爱', '尼克真的是迪士尼系列最佳男友！！！！', '&lt;p&gt;我只能说：9.5分太低了，起码得给个9.8分吧&lt;/p&gt;', '尼克比现在的偶像剧男主还会撩', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道', '这部动画讲了很多道理，把人性的丑恶和善良都描绘出来。食肉动物和食草动物，强大对弱小，偏见与傲慢，我们以为强势的老虎市长是始作俑者，但其实看似弱小值得同情的绵羊助理才是贪婪的恶人。我们以为肉食者改不了贪婪的本性，兔子警官下意识的拿出防御武器的时候尼克是心碎的。我们以为黑道大哥应该是强大恐怖的，结果是一只小小的老鼠，并且他也知恩图报。我们以为狐狸是狡猾的骗子，实际他们也有脆弱和希望得到认可的愿望。喜剧的内核必须有很多现实的元素才能让人觉得真实，饱满。里面的每个角色都有他的缺陷但又有其可爱之处。强烈的对比让我们反思人性的弱点', '同意出第二部的，点赞吧', '糖尿病患者慎看。', '看完开端决定再重温一遍动物城等更新', '一只狐狸干过迪士尼所有王子', '主题很棒，大有讽刺的意味，但是有演绎的完美无瑕，用动物们来影射人类，小孩子看见正义与欢乐，成年人能看见明争暗斗与种族歧视', '出场才三分钟的树懒，简直承包了十足的笑点，哈哈哈', '迪士尼那么多的王子，果然最帅的还是尼克(˘•ω•˘)', '秒杀所有迪士尼王子的狐狸', '五年前刚出来的时候就跟男朋友去电影院看了，时间过得真快，现在他已经是别人的男朋友了，而我也是别人的男朋友了', '高分电影果然就是不一样 想看尼克和兔子结婚！', '朋友之上，恋人未满\nYou know you love me😘\n痞帅的尼克和乐观朱迪', '🎬《疯狂动物城》\n主角朱迪从小就有一个警察梦，经过自己的不断坚持和努力，终于成功跻身一座现代化的动物城市去做警察，为了打破身边对于兔子当警察的偏见，朱迪和狐狸尼克开始调查一桩棘手的案件，并解开了阴谋背后的真相，最后成功的收获了身边人的认可和跨越种族的友情。\n看似是一个动物主题的冒险故事，但电影当中的不少片段，都折射出了生活当中的讽刺和隐喻', '开端来的', '为什么不能投屏呢！！', '包容各种动物，包容别人的过失，兔子承担自己的过失，狐狸兔子的 梦想，狐狸的 友情，兔子家人的 亲情。国产电影有这个表现力就好了！', '😂😂我是因为开端的二创视频来看的，，兔子好可爱啊', '看完开端，再来看遍看动物城', '因为《开端》，我决定把这个加入播放列表，明天就看', '《关于本人因为太想看开端把疯狂动物城又看了一遍这件事》', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道。如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', '本来性取向就不稳定，看完疯狂动物城连物种都不稳定了（我爱上这只狐狸了！！！！）', '有种cp叫朱迪尼克，糖尿病患者慎看。疯狂动物城(原声... 05:54', '一个字，好！', '这画质真拉垮', '“尼克狐尼克，你被捕了”\n“噢？为什么？因为伤了你的小心脏？”\n啊啊啊啊啊真的磕死我了\n“你知道你爱我”\n“我知道吗？好吧，就算我知道”\n呜呜呜大家都来看好吗！！[上头-上][上头-头]', '“you know you love me”尼克妥妥的理想型', '大先生和白熊', '很有意义的一部电影', '她现在啊是', '好看，是真好看', '超好看，三刷啦！', '超级无敌喜欢💕', '我都有老婆了', '尼克啊啊啊，全迪士尼的王子加一起也比不上一只狐狸[喜欢]', '这个小可爱是美洲狮啦，别搞错了呦', '￼有种cp叫朱迪尼克，', '小学时期的电影了，高中了还是很喜欢\n2023再来', '原来这电影是16年上映的，当年是在电影院看的', '办了他们', '意义好，内容好，而且很适合学英语', '好看 爱上一只狐狸', '为什么画质变低了', '2023.12.13来过', '2022年了，还有人看疯狂动物城吗', '在我看来这是汉语配音最完美的电影，还记得尼克狐尼克的那句：“为什么?伤了你的小心脏~”[打call了]', '兔子与狐狸🦊🐰', '&lt;p&gt;《疯狂动物城》，这是一部轻松的动画电影，当然，感触最深的大概是主题曲的歌词。故事很简单，表达的都是一些大家都明白的道理。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;梦想就坚持，说不准哪天就成功了呢&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个年轻人对大城市都心怀憧憬，那里有我们的梦想，我们的期望。想法很美好，然而这世上没有净土，伊甸园更多的只存于想象。&lt;/p&gt;&lt;p&gt;你追求梦想的赤诚，也许无形中会给他人带来伤害，更甚者，会被人利用，成为罪恶的推手。&lt;/p&gt;&lt;p&gt;与梦想几乎背道而驰的现实，善意的信念带来的却是糟糕的恶果，能不能承受？&lt;/p&gt;&lt;p&gt;兔子朱迪的职场经历何尝不是我们每一个人的缩影，追梦的道路上哪里又没有遇到过挫折和绝望。&lt;/p&gt;&lt;p&gt;失败也许还只是最小的打击，怕只怕，你所以为的善意，不仅没有带来追求的正义，反而还失去了其他重要的事物。&lt;/p&gt;&lt;p&gt;也许，为了某个职业梦想，放弃了深爱的人。也许，为了心底的善意，放弃了本属于自己的幸福。&lt;/p&gt;&lt;p&gt;经历过世事后才发现，那些你以为重要的，说不准才是不惧怕失去的。那些你以为可以舍弃的，才发现是无论如何不该放手的。&lt;/p&gt;&lt;p&gt;电影中，朱迪的梦想有过冲动，有过热血，有过失败，有过彷徨，她也曾失去，她也曾舍弃，她也曾伤害，她也曾挽回。所幸，最后她实现了梦想，也收获了幸福。&lt;/p&gt;&lt;p&gt;很多道理，知道的太迟，懂得的代价太大。幸运的是，时间没有太晚，还有机会改变。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKsA63MbGk8sJCf9lwteYyVQHicpCGqGoSjA/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;成为异类的日子里，哪怕被人排挤，你还是要努力发光&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;狐狸尼克不是一开始就圆滑事故，小时候的狐狸也有过单纯热情的梦想。直到有一天，它被信任的朋友们排斥在外，甚至于肆意践踏。&lt;/p&gt;&lt;p&gt;和别人不同，就会被视为异类。太过于聪明，平庸的人就会感到害怕。&lt;/p&gt;&lt;p&gt;你的聪明没有错，有错的是那些盲目的人们，你的热忱没有错，错的是那些以狭隘眼光对待你的人们。&lt;/p&gt;&lt;p&gt;你没有办法改变他人，如果你还是打算坚持自己选择的道路，就只能独自一人尝试坚持，直到有一天找到同伴。&lt;/p&gt;&lt;p&gt;这个世界上，总有一个人会来到你的身边，帮助你，支持你，成为你的同伴，从此携手同行。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKnZaAYSnatZPzMexy23wtebVIHibV36cLJw/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;生活总会有点不顺意，我们都会犯错。天性如何并不重要，重要的是你开始改变。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个人都无法预测明天会如何，我们往往没有那么多先见之明，没办法提前规避风险。&lt;/p&gt;&lt;p&gt;有时候我们会把未来想象得太好，会把梦想看得太重，当真正的一步一步走向期待的目标时，才会发现它并没有那么美好，这时，我们会失落，会受打击。&lt;/p&gt;&lt;p&gt;痛苦是必然的，煎熬也是必然的，尤其在付出了那么多之后，才发现一直渴望的生活与想象中差距那么大，说句信念坍塌也不为过。&lt;/p&gt;&lt;p&gt;仔细想象，现实与理想的差距太大，还是因为自己不够强，不够优秀，还没有能力缩短两者的距离。这个时候，别放弃，别妥协，要重新出发，勇敢去尝试每一件事情，别担心失败，别过于苛求，每一步都全力以赴，我们最终会抵达目标。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/yingping_pic/Q3auHgzwzM4VcOejxGlGaITiaOIXnsfQScUlhVjdwiaMO6LDYGCE365A/0" data-width="450" data-height="600"/&gt;&lt;/p&gt;&lt;p&gt;如果你喜欢我的影评，欢迎关注天天快报、今日头条“糖果悠唐”。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKm3PNV7zRn45cogGBefsnK6x6b5WhibLPXw/0" title="" data-width="400" data-height="400" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', '我要好好学习天天向上吧', '喜欢尼克！！', 'anyone could be anything, try it.', '24年第二部电影院见🥣', '夏奇拉吗', '帅气尼克and可爱朱迪', '好看，先收藏，将来跟我的孩子看', '中国语的可以吗？', '什么玩意不让投屏，我挠', '超级好看 很有深度 超级棒', '尼克真tm的烦！朱迪明明没有说他他就一直搁那对号入座！！真是个心机男！😡😡😡😡', '这个很好。', '这个地址都是南安特殊教育学校的 地址泰国这个玩意了视频', '我居然会喜欢一只狐狸，他真的好好看', '超级好看，推荐！', '嘎嘎嘎嘎嘎嘎嘎嘎', '把树懒当公务员，还真是这样，😂😂😂', '看玩之后满满的感动。\n作为一个男生，我确实应该像尼克学习，学会独立挣钱，养活自己，做事有原则，有担当，懂得生活的意义。\n我也要像朱迪学习，朱迪在小时候时，别人嘲笑她的梦想，她有过失落和痛苦，但是她还是坚持了下来。如果朱迪当初放弃了自己的梦想，选择和现实低头，那么她也不会遇到尼克，也不会遇到和她志同道合的人。所以说，努力提升自己的能力，不断让自己变得强大，进去更好的圈子，才有可能遇到贵人。\n确实世界是不公平的，只有强者是制定规则的人，弱者只有服从的命令。赚到钱的人，一定是哪些不走寻常路，不随大流，有独立思考能力的人。', '有没有第二部，狐狸和兔子生出来是什么🤔', '我又回来重温了，闪电闪电', '放下偏见', '超喜欢看无数遍了呜呜呜喜欢豹豹警官', '希望以后做的越来越好', '百看不腻', '很真实，剧情很意想不到', '好好看啊，期待第二部', '谁同意一定要出第二部点赞吧', '回老家了现在在家里面🍜腌就恐慌了', '这部电影就揭示了“动物（也包括人）心中与生俱来的成见",多数的食草动物对食肉动物的残暴成见，兔子对狐狸的狡猾的成见，包括那些身体高大的警官对于弱小兔子的成见。在人的层面讲，善良的人们总是对那些看似罪恶的人们有成见，强大有权势的人们总是看不起弱小的人们，那些正常聪明的人们对那些天生残缺的人有成见。就像哪吒动漫中所说的”人们心中有座山，那座山就是成见“。\n  世界本来就不公平，公平就是那些”享受公平“的人提出来安抚那些”不公平的人\'。生活中的我们就是那只兔子：总认为自己能改变点什么，但是最后才发现我们什么都做不了，默默地感到着自己。\n  “我竟然妄想自己能有所作为。”\n“我想我们应该放下顾虑 ...”\n                                                 2022，10，17', '这片的第二部预告片出了有段时间了吧？正片呢', '希望国漫也有这样的巨作！', '太好看了，yyds值得N刷', '几十年前就睡觉觉五哈', '是一部让人赏心悦目的电影，希望大家都可以静下心来看[准奏]', '改天左右眼了10', '狗好可爱晴晴雨雨停停']</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 扫毒3：人在天涯 </t>
+          <t xml:space="preserve"> 纸新娘 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VIP · 10689热度</t>
+          <t>VIP · 10831热度</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>警匪动作巨制《扫毒3：人在天涯》曝“炸！”预告郭富城古天乐刘青云真打真枪真炸,电影简介:毒枭康素差一直带着手下张建行从事毒品交易，新加入的成员欧志远也因一次意外与两人有了过命交情，三人情同手足。康素差在香港的贩毒生意被警方查处后带团队逃到金三角发展，却意外发现身边藏有卧底。此刻，是敌是友，一片茫然。</t>
+          <t>《纸新娘》热播！活人犯禁忌，与纸人结阴亲全家中邪！,电影简介:民国初年，清宝村马家大夫人正在为其因病去世的大孙子马不明举办阴婚，突然纸新娘离奇复活，现场一片混乱。阴阳半仙认为是其二孙子马不快因血跟纸新娘结了孽缘，从而被纸新娘缠上，必须送他离开马宅。十一年后，马不快携恋人李招娣回乡谈论婚嫁之事，不料在他回到马宅后诡异命案接连发生，不信任何鬼神怪论的他认为此事另有蹊跷，决定亲自解开谜团，并且在这过程中逐渐了解到一段尘封已久的恩怨。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.8分</t>
+          <t>7.0分</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>动作</t>
+          <t>内地</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['看看人家的电影，再看看内地的电影，人家直接不收费，内地的电影一直在收费', '看不起我阿伟[狗头]', '没有渣渣辉，有点小遗憾噢', '没有张家辉灵魂人物，搞什么', '也不知道，这几个老家伙还能拍几部电影，，，好好珍惜，以后没得看咯！', '还得是老戏骨啊', '老戏骨演技就是不一样', '天天扫毒，有本事去缅甸扫啊', '4应该会有，刘青云要找他们报仇，他说他不会死的，名字都告诉他了', '五毛特效', '没有渣渣辉', '非常喜欢这些老戏骨的演的电影，要是把张家辉和张学友请来那真是太好了，看他们一起飙戏太过瘾啦', '渣渣辉没在，有一点点失望，但是也影响不了古仔跟刘青云的同台，能撑得起，😎😎😎', '上线了推我一下', '没有张家辉没有灵魂', '去电影院看了', '郭富城不适合扫毒系列 比利换成张家辉就完美了', '毒品在哪里进货啊？搞点门路过来呀。', '这导演宋小宝亲哥？', '怎么感觉不如前两部好看呢[发呆]', '上线了踢我一下谢谢', '我记得有粤语版的预告吧', '阿伟已经死了，你挑的嘛偶像[富翁]', '香港电影一点创意没有啊，一直翻来覆去这点东西', '上线来个提示呗[666啊]', '真大片，不像某些。国产货什么时候能出点高质量的影视？港星大部分都老了还在拼，年轻一辈抗不起来，悲哀！', '应该，上渣渣辉的', '没有张家辉', '扫毒3部曲感觉没有连贯性', '感觉不太好，又是邱礼涛导演，你看.扫毒2，拆弹2，不能再烂了', '这部戏没一个大陆演员，说明大陆演员不适合演动作片', '和前作相比，真的太烂了！动作场面掩盖不了剧本逻辑的一塌糊涂！感受不到扫毒工作的残酷性！', '为什么没有渣渣辉呢', '实力演技派。看的就是过瘾', '不是可以看吗？没有网络的？', '故事线太乱了，一下子几月前，六月前，时不时回忆', '2023-8-10看的有没有', '我想找个老婆', '为什么没有渣渣辉？', '非常喜欢这些老戏骨的演的电影，看他们一起飙戏太过瘾啦', '打卡打卡', '云南第一', '朕已看完', '发么帖#腾讯视频9号开[意难平]放日# 北京线下有没有二维码~', '可以永远相信港片', '自己人打自己人，还得是古天乐', 'noon应该没死，她应该是司令的女儿。那个镇上碰到比利和noon后面被枪击的军方卧底，告密得是noon，参谋第一次去noon的村子也特别看了noon一眼。包括noon说她小时候爸爸离开，应该就是司令去贩毒', '这个是农夫山泉矿泉水吗', '云南人集合', '看了这部片子后，一直在想一个问题，港片为什么会没落？原因就是香港电影人还在延续着过去的辉煌当中，老套的剧情，精彩的打斗场面，然后呢？格格不入的理念，整个电影除了刘青云，其他演员都是满屏的尴尬，除了消费老演员的情怀以外并没有什么新意，这或许就是现在港片的现状吧', '挺好看的电影，老戏骨演技还是[赞N][赞N][赞N]', '三个影帝加➕起来都 200 岁了🤗🤗', '老戏骨对垒，大饱眼福！\n激战名场面，太燃了！\n#扫毒三兄弟再聚首#\n#古天乐52岁生日快乐#', '这个女的应该是泰国警方的卧底', '刘青云你要长命百岁，我们看你电影长大的很喜欢你', '我也是卧底', '河南南阳的来报道', '河南南阳打卡', '古天乐，我男神', '廖志磊我爱你🤟', '差哥到最后都没怀疑过自己的兄弟，赴汤蹈火啊差哥', '还是喜欢看老牌演员演的电影', '动不动3个月前，动不动6个月前，好好拍行不？作为一个资深卧底随便在车上就跟外国警方人员承认自己是卧底太让人惊讶了。', '现在为数不多的港片电影了，制作剧情方面都很不错，汽车冲撞和枪战也都是好水准。很好看，很不错的电影，题材也很不错。', '好无聊的剧情', '总司令：我在干什么？', '信阳光山', '刘青云厉害👍', '贵州黔东南苗族侗族自治州的有没有，凯里市', '一会儿5年，一会儿一年，一会一个月', '希望各位卡里有钱，车里有油，不用因为物质而烦恼', '第四部明年上映', '为古天乐而来的请举手，看看有多少人🙋🏻\u200d♂️🙋🏻\u200d♂️', '扫毒3中完美的展示了香港警察的职业素养以及提现了现如今缉毒警察的不容易，在电影中我们可以明显的感觉到香港警察和毒贩之间的关系，整部电影中人物特色明显，演绎生动形象，完美的刻画了各个人物的人物个性，能够完美的将所要展示的内容体现出来，在观影过程中我们也能明显的感受当整部电影的细节。其中打斗部分相当的激烈，能够很好的吸引观众的眼球，是一部很值得观赏的电影，非常值得推荐。当我观看完这部电影，对我的感触也是特别深，懂得了缉毒警察的困难，也明白了缉毒警察的危险。电影能够给人深刻的影响，也能充分展示影片的哲学道理。', '太好看了！！', '兄弟们，我在监狱看扫毒✌️', '人不用减压，直接就起来了。真厉害', '远离黄赌毒，幸福一生', '来个大哥我跟你咚咚锵', '李慧我对象', '爱我别走', '龚倩是我老婆', '别的先不说就这个枪战就值得五星，喜欢枪战的完全可以看，剧情基本都在打枪战就是感觉女主的戏份有点多余不如来一场纯粹的枪战这样更爽看的更过瘾。', '阿伟呢？阿伟已经死了[柠檬精]', '至少感觉香港电影的辉煌岁月已经成过去式，现在我的感觉错了，但是演员还是青黄不接状态', '这女的为什么要跑出去，急的死么，莫名其妙的剧情', '总司令准备火线入党', '知恩不报  是🐖🐩', '我感觉按电影这么演除了国外三不管那种地方，国内基本没活路，因为你任何一个新招的人都可能是卧底，搞这个死人是常有的，你不可能永远不补充人手，但是你补充就会有卧底，所以他们为啥要回国干呢？', '片子不错']</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '那姑娘都愿意了，还在树后不答应。害人害己的东西[EMO了]', '一，老夫人该死，封建迷信害死人，\n二，戏子该死，要了女人身子又不带她走，让她留下肯定是没好结果\n三，借鬼神杀人敛财更该死。', '帘外芭蕉惹骤雨门环惹铜绿，而我路过那江南小镇惹了你。在泼墨山水画里，你从墨色深处被隐去', '8分20秒🙏🙏🙏', '好像发生了什么，又好像什么也没发生', '很好很好很好纸新娘 1:31:04', '我走错片场了吗？', '根本没有恐怖气氛感哟', '要么是梦要么是人为复仇', '其实要不是碍于鬼怪电影大环境限制，国内很多这种题材还是可以拍的不错的，要不然总觉得差口气', '和春晚最后都要包饺子一样，鬼片最后都能科学解释', '每次看到国产恐怖片的高分影评就禁不住感慨，混口饭吃不容易', '调色师和导演是懂中式恐怖的，，配乐，音乐，色调，布景，小道具。这剧组拍灵异文也是完全可以的', '最该杀的不应该是戏子吗？要是他能带走她，还会有后面的事吗？', '这个结尾挺有意思，有悬疑，小时候缺氧昏迷扔水里都不能死的人大了自己跳应该是没死，让人有个疑影', '嘿竟然还行，拍的不是很水，小成本电影特效稍微有点差也能接受', '民俗中式恐怖电影麻烦请按这个标准卷起来！很好啊，就很好', '电影里开场便是阴雨，加上恐怖的老房子场景，难免有些毛骨悚然的感觉', '呢个电影纸新娘一般般，我估纸嫁衣游戏有一啲一致嘅情节呢，冇谂到系唔同嘅，就个女主角！也算冇问题了！', '架不住剧情的零散，两条主线的设定，并没有做到剧情的融合，而显得十分薄弱空洞', '哦豁！住进祖宅第一天晚上那个妹儿镯子都碎了，必有大凶啊！', '真的很不错，不说废话，不是很恐怖却很有深意告诉大家真的要破除封建迷信', '如果真的有鬼 那当年那些日本人都走不出南京。', '真的很吓人啊几乎全程捂眼睛不敢看，算是国产的及格了~', '推荐你们看国产恐怖片《山村狐妻》，回魂之夜，黄皮子坟（电影版），纸人回魂，落天荒，欧美恐怖片死寂，这个首屈一指，爽死你 厉鬼将映，禁闭岛', '现在的鬼片 没劲哪有鬼全是迷药', '排的真的一般', '有没有女生起床看这个的', '看到那个疯子的时候就知道咋回事了！', '￼如果真的有鬼 那当年那些日本人都走不出南京。', '一点也不恐怖', '一个男孩喜欢一个女孩，但女孩并不喜欢男孩，于是男孩把女孩杀了，并将尸体丢到了深山老林，第二天男孩觉得身体很沉重，像是被什么东西压着一样，很难受，喘不过气。就出门散心，遇到一老道士，道士告诉他，他已经被女孩缠上了。男孩问我该怎么办？道士说七天后是回魂夜女孩必定回来杀你，你要在这七天完成三件事。第一去最近香火最盛的寺庙，求一个平安符，第二为女孩做一场法事并将尸体按正常下葬，第三把你杀女孩时她穿的衣服上的血迹清洗干净，这样或许能逃过一劫，男孩先去附近的寺庙求了一个平安符，将符戴上后男孩感觉自己身上的压力顿时消失了，走的时候主持看了他一眼说了一句善哉善哉，然后做了三天法事，第六天将女孩尸体下葬回去后已经下午七点，男孩赶紧把女孩那天穿的衣服拿出来洗，洗着感觉过了很久，一看已经十点了，男孩笑了，搞定了，把衣拿起一看腰部还有一片血迹，男孩大惊赶紧放在水中搓洗，\n23:59最后一分钟男孩绝望了，恐惧降临，头顶电灯一闪一闪像失灵一般，穿白色衣服的女孩漂在空中，惨白的脸，女孩发出刺耳的笑声，\n你洗啊 洗啊，男孩被吓的倒在地下双手撑在后面住后退 你别过来说着伸手拿出那枚平安符，突然灯熄灭了，男孩手中的平安符也碎了，黑暗中女孩问男孩你知道为什么你洗不干净吗？为什么？惨白的脸慢慢贴在男孩脸上，因为因为你没用立白洗衣服粉.….', '就想知道是中式恐怖吗？有真鬼吗？现在的国产鬼片烂的要死，到最后全是人做怪', '过去的，别再遗憾；未来的，无须忧虑；现在的，加倍珍惜过去的，', '差点以为是纸嫁衣', '怎么所有都要剧情都一样，还要为什么没有女主的名字？！', '戏精本精，戏子无情', '逻辑思维好', '既然电影不让有鬼的存在，那就多余拍这种片。', '挺好的恐怖片了', '这男人没度量', '什么东西啊？', '没太看懂，是大少爷死了假借冥婚娶纸新娘，实际上娶的是个活人，把活人活埋了吗？', '现在的恐怖片都是这样？有什么看法？开局几分钟吓人的，后面就是男主女主去破案，最后真相大白要么精神分裂要么别人复仇扮鬼', '有害怕鬼新娘的不，来组个队一起看，我请你喝奶茶', '￼今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '南阳的有没有', '装神弄鬼，全是疯子罢了', '不好，套路俗套', '全程没感觉恐怖  笑着看完的[富翁]', '鬼片拍成悬疑片，不过剧情还可以', '导演很用功呀，电影的摄影和剪辑非常精细，每个场景都处理得恰到好处', '。。。。。[再见][再见]剧情编剧真的一言难尽0.0。就不该对国产恐怖片抱有希望', '现在大陆的这类片看到最后都是人为的，是不是不让拍真鬼了过不了审', '挺好看的 女主让人看着很舒服', '看不明白', '挺好看，女主没错，感觉戏子有点渣', '凶手应该是招娣吧，妹妹给姐姐报仇', '他为什么晚上要来不白天来？', '真的建议任何胆小的，在家人或者朋友的陪同下观看此影片', '今天卡了吗。我Vip咋不能用了。[EMO了]', '又是人为的结局。', '12月16日打卡', '哥哥死了，那三个坏人逼姐姐冥婚。那为什么让弟弟娶纸新娘', '国产恐怖片越来越好了，演技道具音乐剧情都不差', '有没有说说好看吗', '真的不错兄弟们', '不这么安排能过审吗？', '已经很不错了', '几乎所有的的案件类鬼片，技巧和手法都千篇一律了，国产恐怖片急需提升啊', '我还以为是纸嫁衣嘞', '最近恐怖电影不少啊，不错不错', '媒婆绑她姐干嘛她姐也没去马家啊她姐不是活着吗之前为什么要用纸人党替身稀里糊涂的', '我想说的是为什结局女主跳水了，男主第一时间反应过来跳水救女主没救成？真不知道导演怎么想的，虽然说结局不能让坏人逍遥法外，但是你他喵的人家男主也是第一时间跳的，最后男主上岸连个尸体都没抱上来，我看到最后以为男主会抱着女主上岸的，不得不说导演想像力也是一坨翔，为了过审这么拍结局是吧？', '不知道这片电影纸新娘好不好看\n反正我看了撞邪感觉给我一种\n不是狠恐怖惊的感觉[笑哭N][笑哭N][笑哭N][笑哭N][笑哭N]\n看到后来我都想笑了\n希望纸新娘可以给我一种焕然一新的感觉\n期待(*^o^*)这片纸新娘加油噢力给哦\n[泪奔][泪奔][泪奔][泪奔][泪奔][泪奔]', '管家有问题绝对', '招娣有问题绝对', '评论区实名', '其实用纸人可以了，听说以前都是用刚嘎不久的来配，也不知道真的假的', '有现在看的吗', '超过了我的预期呢，一部让我觉得有点吓人的国产恐怖片，给个4星鼓励一下', '半夜12:00看正常吗？', '纸嫁衣游戏出了之后，国产民俗电影和游戏一个接一个，不戳不戳，味道好极啦，奉天白事铺算一个，这又一个，喜欢看', '最后女主消失是为了迎合国家的法大于情！不然没法过审', '那么坏，应该用机枪扫了他们！', '封建迷信要不得哦！时代变了，要与时俱进！', '事事顺心仁寿县先锋等等点想滴滴打人的的点小动态信息收费的', '嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦[吃瓜N][666啊][666啊][EMO了][一起冲][皇冠][一起冲][皇冠][笑死我了][一起冲][笑死我了][意难平][皇冠][富翁][666啊][富翁][放大镜][没眼看][气到变形][我裂开了][我裂开了][击退][击退][击退][击退][打卡-卡][打卡-打][打卡-打][打卡-卡][打卡-卡][笑哭N][笑哭N][鼓掌][擦汗]', '虽然知道结局，还是可以的，好评']</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 阿凡达 </t>
+          <t xml:space="preserve"> 蜘蛛侠：纵横宇宙 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VIP · 10616热度</t>
+          <t>VIP · 10546热度</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>《阿凡达》“卡神”独家珍藏狩猎片段 首次曝光,电影简介:在未来世界中，人类为获取另一星球——潘多拉星球资源，启动了阿凡达计划，并以人类与纳美人（潘多拉星球土著）的DNA混血，培养出身高近3米高的“阿凡达”，以方便在潘多拉星球生存及开采矿产。受伤的退役军人杰克，同意接受实验并以他的阿凡达来到天堂般的潘多拉星球。然而，在这唯美幽境里，地上爬的、天上飞的、土里钻的生物却只只巨大且致命……杰克背负重任，身处险境中，在与纳美人首次意外接触后，虽然开启了沟通的可能，却也即将面临一场异想不到、浩瀚壮烈的世纪冲突，从中他也将获得空前启示……</t>
+          <t>【幕后短花絮】我要按我的方式来,电影简介:影片讲述了新生代蜘蛛侠迈尔斯携手蜘蛛格温，穿越多元宇宙踏上更宏大的冒险征程的故事。面临每个蜘蛛侠都会失去至亲的宿命，迈尔斯誓言打破命运魔咒，找到属于自己的英雄之路。而这个决定和蜘蛛侠2099所领军的蜘蛛联盟产生了极大冲突，一场以一敌百的蜘蛛侠大内战即将拉响！</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6分</t>
+          <t>9.4分</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>科幻</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['真棒，还能变成付费，真棒', '十年了，画质还是无人超越', '￼我敢打赌2023年没有女生会在腾讯看这个电影并且翻评论', '阿凡达是一部映射美国侵略印第安部落的作品', '我敢打赌2022年没有00后的女生会在腾讯看这个电影并且翻评论', '今天看了阿凡达2非常震撼好看，觉得人类真的是聪明又残忍', '下午刚看完《阿凡达2水之道》  剧情拖沓  演员演技一般  还是老套路  就剩特效支撑了   很失望！ 电影院坐的人不多！中途还有人打瞌睡 看的睡着的！ 哎 不是花了钱的  中途我就撤了！不看了 没意思！剧情都能猜到！！很失望', '小的时候光看到了特效，长大了在看却发现了偏人文的性质。这部片子很好的反映出来了当时欧洲殖民者占领了美洲大陆后，当地土著友好的接待他们，但是这些殖民者却想要的是他们的土地和他们的命。哈哈哈哈是真的讽刺', '第二部水之道最多给7分', '满满回忆', '太好看了吧，感动😭', '今天零点过后这个帐号会员就到期了 是我爸一直充会员看电视的账号 他很爱看电视 我妈前不久还批评过他看电视冲这么多钱 他说不充了 18号那天他走了  什么都来不及 连会员都没到期 心梗就把他从我们身边带走了 我17岁 女生 爸爸挑起的梁落到我身上了 我爸爸很可怜 我妈妈也是 我弟弟也是 可怜 我很想他 真的很想他 他真的对我们超好 我这一辈子都见不到他了\n以后这个账号不会亮起了', '神迹，也许本身就存在于自然界，只是人类无法明白才称之为神迹。科技也不是人类发明的，只是人类通过理解自然界的现象捕捉到“灵感”，以理论阐述出来，并弄出实物，称之为“发明”', '有没有发现，美国电影只要出现跨种族爱情，绝对都是土著女人爱上白人侵略者，白人都是带领她们走向性自由走向美好，是解放者不是侵略者。比如中国拍的红河谷，歌剧西贡小姐，蝴蝶夫人等等。偶尔出现《情人》这种白女+亚男的，那绝对是白人施舍的高高在上的结果悲惨的。', '反人类罪，这与印第安人的事没有一点可比性，印第安人与我们同为人类，外星人与我们是不同生命体系。人类终将踏灭星辰', '除了侵略战争这层意义，我觉得导演还想说的是，我们人类现在过度追求物质需求依赖现代科技产品，过度疏离自然，阿凡达的生活方式是精神层面的，而我们人类现在只会没日没夜的为了钱工作学习，像行尸走肉一样活着，精神层面极度空虚，所以在阿凡达看来人类才是低级生物', '这不妥妥的表现美国人屠杀印第安人的另一个角度吗。', '现在是2022年，第一次看这部影片，但我知道这是十年前的电影，为什么到现在才看，因为看之前就能猜到主题，真的很美国，拯救地球没有了新意，开始拯救外星人，故事是新故事，但桥段还是老桥段。看这一个镜头就知道下一个镜头要演什么。但有一点不可否认，在当年，这样的制作水平是一流的，确实很美国，影视工业很强大，大多数人都被影片的特效所震撼。从影片情节中，我也看到了现实中的美国，从哥伦布发现新大陆，白人屠杀印第安，到如今美国为资源挑起的战争。现在俄国还在跟乌克兰打仗，心情很压抑。有人和我一样吗？', '从客观角度来讲，我挺认同上校的观点的，阿凡达计划其实可行性确实比较低。如果真的双方爆发战争，科技落后的纳威是无法和现代武装力量抗衡的。从人类的利益角度来说，我们来潘多拉就是为了开发它、利用它的矿产。不破坏纳威人的生存环境当然更好，但如果他们执意不让步的话，那只好采取强硬手段了（仅代表个人观点）', '看来我才是真爱呀', '感觉像一群强盗看上了别人家的东西，然后闯入别人家里边拿棍棒殴打边给人嘴里塞颗糖，然后说“你怎么那么不识趣”', '我国什么时候有这样的特效，那些神话人物一定是最美的', '好几年以前的电影还要收费？搞笑', '太震撼了，12年之后看仍然是最顶尖的科幻作品。', '电影说的是美国白人屠杀印第安人', '第二部今年就要上了，重温一遍第一部，卡梅隆真的永远的神，还记得当时几百块一张的电影票还供不应求，朋友跑去香港看了一场，这是第一部3d啊，有着跨时代意义的电影', '终于可以不付费了🎉', '太好看了吧', '一个背叛人类的人做主角！', '一小时二十四分灵魂树哪里我记得有他们两个人辫子交缠在一起了好像，咋没了', '终于看上了熬了12年。小样的，咋不收费了。', '第一次看，特效制作水平确实被震撼了', '抛开所有的种族歧视，从零的角度看问题说一下你们的感觉！\n人类有时候真的很贪婪，为了自己的世界可以不择手段。对应我们现在的状况是不是正好对称，有多少稀有动物灭绝，有多少人在努力的挽留住大自然的馈赠。总有人去破坏生态平衡，这是地球的生存法则，想要发达，强大，繁荣，发展，生存，就要有牺牲，总会有失去。用原生态换取现代的需求！', '大家小心，买了还有期限的，不及时看下次还要再买一次', '科幻电影巅峰之作，至今没有超越，期待续集', '终于不用付费！', '外国人十多年前拍摄的特效都这么厉害，叼！', '《阿凡达》中纳美人有杰克，《三体》中人类有云天明。\n它们在不同的角度，各自为王！\n“黑暗森林法则”\n“当别人拥有你想要的，就把他们变成敌人，然后理直气壮地摧毁。”', '我之前没看过，现在付费看值不值？谢谢大家告诉我呀😊', '《阿凡达2》曝光正式片名Logo：为《阿凡达2：水之道》！同时，《阿凡达1》重制版又一次全球重映，时间是9月23日！阔别13年终于来啦，《阿凡达2》的公映日期确定不会再发生变动，詹姆斯·卡梅隆执导，萨姆·沃辛顿、佐伊·索尔达娜、凯特·温丝莱特、范·迪塞尔主演，12月16日上映。人类电影的奇迹，期待！', '放在12年后的现在看，仍旧震撼。', '电影中的人类公司侵略罪大恶极，但主角杰克也是人奸吧。开头说了屠杀土著会造成负面舆论，说明人类主流是反对侵略的，这只是这家公司的私人行为。但主角选择作为纳威人来抵抗侵略，最后彻底放弃了人类的身份，这是背叛自己种族了吧。他队友就以人类的身份留下来了，感觉比主角强。', '对，我们终于把他熬到免费了，赞', '第一遍看深深被电影特效震撼的不行，第二遍看很喜欢这个故事越来越相信潘多拉真的存在，第三遍看感觉电影何尝不是对咱们世界某些国家的一些东西的隐射:某些国家看上别的国家的东西了想要，跟人家商量没成功就发动战争打人家，然后还反过来叫人家暴民。。。果然坏人的行为就是擅长倒打一耙还装好人～电影真的很棒！', '为什么阿凡达不能投屏？', '2022.4.25现在看的是免费  过不了多久应该又收费吧', '一部经典的电影！即使放在十几年后的今天依然是巅峰。但是主角的行为还是背叛了人类！种族战争我永远站在人类这一立场！不管这场战争是否符合人类世界的道德标准和是否正义！这是作为一个人类的底线！！！', '阿凡达二零二二年五月四日00:51看完，小样，终于等到不收费。真的是很精彩', '这个不会是前些年那个阿凡达吧？现在找那部阿凡达找不到了，谁看过了？能不能和我说一下是新的还是之前那部🙏🙏🙏', '哪里有小姐？', '人口是财富，不是负担', '纳美人不就是暗喻美洲土著印第安人（黄种人）吗', '发张全家福，反光猫猫眼', '￼第二部虽然还没上架，但是我想说的是，很多人都说剧情枯燥乏味没有亮点，但是《阿凡达》一共五部曲，第二部剧情上不好我觉得可能是因为这五个是连续性的，不可能这么快完结的，并不像敢死队那样每一部是个独立的故事。第二部与其说剧情枯燥无味，倒不如说在剧情上卡神更想警醒世人的是当下的社会问题：人与自然的关系问题、父母与孩子之间的问题和种族歧视的问题，狩猎图鲲的鱼叉上有写着日浦的标识，这个细节意味着什么？海洋族歧视森林族，不就是在映射着种族歧视最严重的美国吗？如何与叛逆期的孩子交流？父母有没有真正懂得理解孩子的内心？难道只有奈特亚的死才会让男主和弟弟真正了解到自己犯下的错误吗？难道只有发生了结果了才追悔莫及吗？', '《最后的莫西干人》也是部印第安人电影，挺好看的啊', '投屏都不能，吃相不要太难看', '有多少人看完2回来看1的', '想像這是一部N年前的電影 放在2023年看一點也不覺得舊', '好看死了', '经典就是经典阿凡达(原声版) 04:19', '1492年哥伦布大航海时代，了解吗', '印第安人的血泪史，了解吗', '真喜欢男主他儿，虽然第一部没他。他真的好温柔，还有点皮，是个护姐狂魔，这小崽子这么可爱谁受得了', '看了2回忆一下1🥳', '我是水平座，但是我水平很高', '我觉得阿凡达讲述的更像是人与自然的较量，人为了自己的利益只知道firefire，惹得众怒，最终不自量力自食恶果。', '牛 逼，自己都忘了[笑哭N][笑哭N][笑哭N]', '六六六啊', '没有空气还能点火？', '这是第一部第二部我都看完了', '看看法国吧！本土人的灾难！', '外国人的目的是鸠占鹊巢', '2023了这部电影出来这么多年第一次看', '在圣母庇佑下，杰克成为真正的潘多拉新的人的纳威人，他虽然背叛了自己的人，但是没有背叛他的人性道德，这部电影像偷了别人的东西侵略试图独吞掉潘多拉星球纳威人的领地，打了别人巴掌还给糖别人吃说不是你的，我相信杰克的选择没有错的，幸好他选择不违背自己的人性，而选择了潘多拉星球，这是他唯一重新活在潘多拉星球唯一的希望新开始的人生，相信第二部《阿凡达》不会让我们失望，请期待而揭幕', '杰克家熊孩子表情包[狗头]', '好看好看，经典回顾阿凡达(原声版) 00:32', '寓意美国的侵略行为', '第一部居然09年的了吗？等了那么久才有免费的第二部[吃瓜N]', '09年的电影，哎！特效还吊打23年国产，加油了，我滴国产科幻电影', '这特效放到现在2023年依旧能打，阿凡达的脸太能打了🚀', '团结就是力量', '存地失人，人地皆失！', '太感动了，看给我哭的', '[蹲]留下片名赠片[互粉]', '牛逼的科幻电影，2023年才看到😭', '相当好看', '有点光遇雨林的感觉', '太好看啦，激动的心', '2023/12/21日重温', '美帝霸权主义，他的存在对全球来说就是个巨大的灾难']</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['越拍越难看！', '故事框架很大，但是不乱，画风也很棒，让人意犹未尽，期待下集', '下周五出了踹我，往死里踹。', '电影院看了，效果剧炸裂，贼强', '动漫吗？那没必要看啦', '蜘蛛侠还得是索尼玩得好，漫威拍的太拉了，支持索尼宇宙', '就是没有中国蜘蛛侠哈哈哈', '我丢，应该还有一部 最精彩的时候没有了', '祝你和温', '剧透一下，猜猜这是谁？', '这个黑人这么大的爆炸头，蜘蛛侠的头套是怎么做到没有凸起的？', '出了踹死我，往死了踹', '虞书欣配的音太爱了', '出了踹我！\n', '为什么是英语\n', '为啥颜色是粉色太刺眼了，都不高舒服点啊', '上映了踹我一下', '牛啊牛啊   多元宇宙算是被漫威玩透了', '只要什么时候上线呢？我好想看', '7.2就没人出呗', '什么时候出啊', '勾屎真的', '又是黑人。。。美国也快黑化了！', '迈尔斯是真的der，就一小屁孩，满是个人主义', '两个半小时看个预告片。', '找几个人送他权限', '猜测之后的剧情就是斑点开始搞破坏，在主角宇宙的蜘蛛侠阻止开始对战，格温她们找到主角并前往主角宇宙，加入对付斑点的战斗，在战斗中其他宇宙的反派通过虫洞出现，蜘蛛侠们请求支援，在一段打斗争吵醒悟之后斑点被消灭，主角爸爸也没死，主角爸爸也知道主角是蜘蛛侠了。但是蜘蛛老大不乐意了，为什么我改变是事件造成了平行宇宙崩塌，而主角却并没有失去什么。(因为洛基掌握了神圣时间线，可以让每个宇宙的人拥有自己的选择，而不是按照规定的命运。)之后可能还有点故事看除了啥样吧', '首先，提醒各位看不懂的，这是《蜘蛛侠：纵横宇宙》上集！上集！上集！，下集《超越宇宙》预约明年3月在北美上映！[一起冲]\n真爱粉一定要看！超酷！各种画风各种年代的融合！已经不能说是动画电影了，这是艺术！[666啊]\n欣赏不了的人最好还是不要看了，省得看了还看不懂在那叫[吃瓜N]\n上集，基本上就是讲，接上前传迈尔斯的宇宙同一个宇宙两个蜘蛛侠，由于金并的对撞机，迈尔斯成了整个异次元错乱的源头，目前最大的敌人斑点(不知道下集会怎么样)。同时讲了迈尔斯与百蛛集结互相的关系，这里由女朋友格温引入。最后，小小剧透一点点，迈尔斯和格温确定了心意，导致格温才有强烈的信心招募联合愿意帮迈尔斯的蜘蛛侠们，一起打破命运，一起见证(下集)！\n42号宇宙的迈尔斯徘徊者登场的时候真的超帅，泰酷辣！[打call了][打call了][打call了]（42号宇宙没有蜘蛛侠）\n百蛛登场的地方，真的是经典名场面！还有好几个老熟人，真人版客串，还有加菲[放大镜][狗头]不看真的会后悔的！每个场景的配乐真的很nice！[一起冲]\n花了7.2元刷了三遍了还是不觉得腻！[金币]', '我是不是看错顺序了我先看的是平行宇宙然后又看这个应该顺序是对的吧', '张泽鸥我爱你😘', '申请退款', '动画片有啥好看的', '混乱，为赋新词强说愁。', '7.2元看了一个预告。', '谁买了？能不能私信我一下当一次好人好不好', '谁懂啊，看了两个半小时都是为第二部铺垫，没正片，两个多小时看的都是第二部的预告', '电影院的效果才炸裂呢，手机上看没那味儿', '看的热血沸腾', '怎么说呢，没第一季好看，电影看完一点感觉都没有，就像听了一首口水歌，挺失望的，看了又像什么都没看，没第一季惊艳，而且可能受传统文化和东西方文化差异的影响，我挺反感这一季的主角的，希望下一季能做好吧。', '今天刚能免费吗', '虞书欣配音惊艳到你了吗 这么爱破防吗 你发这些有什么目的？谁指使你的？你的动机是什么？你取得有关部门许可了吗？他们容许你发了吗？你背后是谁，发这些想做什么？你在讽刺谁？想颠覆什么？破坏什么？影射什么？', '说看不懂的什么成分？期待下一部', '6分钟的电影真好看', '想来想去还是世界太无趣 那么多人都在忙着辜负自己', '不是能力越大责任越大吗？蜘蛛侠拯救世界也会选择拯救世界（这个是啥？黑猪侠，烧的嘛而且半生不熟坏肚子那种）', '现在内个也能当蜘蛛侠了吗', '期待下一步', '2023/12/21打卡！！', '讨厌的政治正确，什么都要加黑人。', '这不是平行宇宙吗？', '还跟和平联动了？！', '这预告片居然花了我两个多小时', '[准奏]本身就是不同宇宙线的蜘蛛侠 蜘蛛侠2099代表老旧恪守的一派 2099为各个平行宇宙的蜘蛛侠建立了基地 他也很热爱蜘蛛侠大家族 其他宇宙的蜘蛛侠围绕着蜘蛛侠2099身边组成了一个强大的守旧势力 他不是反派 但他依旧是迈尔斯最难抗衡的力量 而迈尔斯就属于颠覆派 迈尔斯不相信这些命运 他想要冲破旧格局 他想重新定义蜘蛛侠的命运 这就是两种信念的碰撞 不很好的把平行宇宙的概念引入进来了吗 看不懂就去看看解说￼￼', '这是在侮辱智商呢 那么多蜘蛛侠整不过一个迈尔斯 呵呵呵', '还是挺好的，虽然最后结束的有点突兀……期待下一部吧！😁😁', '好看的地方我都在哈哈[666啊]', '英语2:14:26看完啦 周三晚上19:23 2023.12.20看了一周[一起冲][一起冲][一起冲]', '除了内个主角，其他一切完美', '我都看过了，再看一次', '就看视觉效果过去，一般', '今年的美国不管是什么类型的，为什么主角都是黑人，我也是服了', '电影特别好看，特别精彩，多种画风演技超高制作，导演简直是个天才，当然了，演员也是一堆天才我，而且里面还有真人扮演', '我就知道还会出', '勋章不少', '棉花侠摘棉花一定很快', '好棒的电影，除了最后该死的“to be continued”主题贯穿整个故事，虽然是老套的“我命由我不由天”，但故事表现的很好，原本以为是宝宝宣传教育片，后面发现整个故事给人思维一种很震撼的感觉。', '彼得帕克啥时候变成niggggger了。。。。。', '尼哥居居侠', '我花这些钱只为看个预告片', '艺术 视听 画面 拉满了', '听说动画版与蜘蛛侠更配哦。', '这是2023年的电影？我怎么感觉几年前就看过了？还是说以前有这么一部类似的？我穿越了？', '哇哦要出啦！！！', '第三部呢', '不是哥们，我看了个预告片', '视效 音效都是顶级的！ 还有不同蜘蛛侠不同画风的展现也是很好的创意！故事有点好懂希望下一部也能有同等水平 三部曲都获得奥斯卡就很牛逼了', '2023...12--18', '哪来的9.4分啊不能理解', '什么玩意啊', '说句实话，真心不好看，中间我也没看到有什么高潮部分结果我以为高潮部分要开始了结果结束了', '我真的很喜欢蜘蛛侠，当时刚出来的时候太忙没时间去看，腾讯竟然这么快就出来了，很开心', '蜘蛛侠都变成nigher了果然政治正确  我呸！', '这么好为啥没人', '好家伙，这是哪个宇宙的', '今年好像都流行拍一半', '画面很不错', '我天太帅了吧\n下一部必看啊', '感觉应该不错', '😈😈😈😈😈😈👿😈😈😈😈😈😈😈😈😈😈👿👿😈😈😈👿😈😈👿😈👿😈😈😈😈😈😈😈😈😈😈😈😈👿😈😈😈👿😈😈😈😈👿找😈有十个', '熬到你免费了 终于！']</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 你的婚礼 </t>
+          <t xml:space="preserve"> 阿凡达 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VIP · 10627热度</t>
+          <t>VIP · 10555热度</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>《你的婚礼》终极预告，腾讯视频正在热播！谢谢你，青春里给过我的幸福,电影简介:电影讲述游泳特长生周潇齐与转校生尤咏慈长达15年的爱情故事。高中时，周潇齐对尤咏慈一见钟情，年少懵懂的纯纯爱恋，男孩默默守护，但女孩却不告而别。此后的人生，15年的爱情长跑。你的婚礼，也是我的成人礼。</t>
+          <t>《阿凡达》“卡神”独家珍藏狩猎片段 首次曝光,电影简介:在未来世界中，人类为获取另一星球——潘多拉星球资源，启动了阿凡达计划，并以人类与纳美人（潘多拉星球土著）的DNA混血，培养出身高近3米高的“阿凡达”，以方便在潘多拉星球生存及开采矿产。受伤的退役军人杰克，同意接受实验并以他的阿凡达来到天堂般的潘多拉星球。然而，在这唯美幽境里，地上爬的、天上飞的、土里钻的生物却只只巨大且致命……杰克背负重任，身处险境中，在与纳美人首次意外接触后，虽然开启了沟通的可能，却也即将面临一场异想不到、浩瀚壮烈的世纪冲突，从中他也将获得空前启示……</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.7分</t>
+          <t>6分</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>爱情</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['尤咏慈永远不知道那场烟花是周萧齐给她放的，而周萧齐也永远不知道尤咏慈的那场婚礼到最后也没有新郎。', '电影太仁慈. 总能让错过的人重新相遇. 生活不一样. 有些人说过再见就再也不见了 ', '你的婚礼 1:52:59也许青春里面的遗憾才是我的结局了吧！再见了 我最爱的汤喻欣！！！\n希望你以后在新的生活里面能再次遇到一位真正能对你好非常爱你的男孩子 谢谢你！！！', '挺遗憾的 青春就只有一个', '太感动了', "I'm so touched.", '我感觉这俩图片很配[随份子]', '我的那个她也在2022年2月七日结束了谢谢你夏梦婷', '个个都说没新郎这个是什么啊这就是结局', '第一张图是我初恋，第二张图我初恋和她老公，第三张图是我初恋的女儿她叫我爸爸O(∩_∩)O', '尤咏慈永远不知道那场烟花是的周潇齐为她放的   周潇齐永远不知道那场婚礼没有新郎', '尤咏慈永远不知道那场烟花是周潇齐为她放的，而周潇齐永远不知道尤咏慈的婚礼没有新郎。', '兄弟们我截到了女主电话', '尤永慈永远都不会知道，生日那场烟花是周潇齐为她专门准备的，而周潇齐不知道的是，在尤永慈的婚礼上，根本就没有新郎', '再见了 陪伴了我三年的女孩.', '给我看哭了[意难平]', '  尤咏慈永远都不知道那晚的烟花是周潇齐特意为她放的 周潇齐也不知道其实在尤咏慈的未来规划里一直有他.', '我睡过她的房间，喝过她的水\n吃过她的剩饭，亲过她的嘴\n也见过她刚起床素颜的样子\n这辈子就当我娶过她了吧。', '看到这里就可以了 后面不看了 就当这是最美好得结局❤️', '两个小时我哭了半个小时', '我爱你，感谢你曾在我的生活里出现过。', '受不了了 太好看了 妈妈', '虽然很虐但是真的很喜欢', '她永远不知道他为她放了一场烟花', '再见她时，已经是两个孩子的妈了', '周萧齐和尤泳慈的十五年都没有结果 我和你的七年又算得了什么更何况七年里我们只见过三次.', '失去她272天咯.这期间我也何尝不是每天都后悔自己不努力，没考上大学，如果我考上大学我们过的肯定很幸福.....', '再一次重温，如何才能释怀，四年了每天都忘不掉点点滴滴，也不知道你过得怎么样，', '应该劫婚的', '异地恋，去年偶尔一次聊天提到要去找你看这部电影、怪我又一次失信了，现在想用这种方式和你说再见、zyf谢谢你出现在我真挚而有热烈的十八岁、谢谢你教会我很多东南、遇到你我绝不后悔、感谢遇见！还想问下截屏ly是你对我说的话吗？', '太感动了😭', '尤咏慈永远不知道，那场烟花是周潇齐给她放的，周潇齐永远不知道，尤咏慈的婚礼上没新郎', '电影的世界真的好小，离开了几次的人又能再遇见。现实的世界真的好大，一个人走了就再也没有了消息', '2007年，17岁的我们在一起，18岁分开，2010年，20岁的我们各自去了不同的大学，分别有了新的恋爱，2013年，为了见她，我组织了同学聚会，2014年毕业后，我去了更远的城市，2015年，我们再次相遇，义无反顾走在一起，2017年，我们步入婚姻，我是幸运的，回忆这一路，无语表达内心滋味', '这场电影 我一个人去的影院看的！\n', '以前我俩一起看的 现在只有我了', '如果我是导演，我希望……那场婚礼，是尤咏慈给周潇齐的一个惊喜.', '尤咏慈因为周潇齐的“后悔”  就质\n疑了周潇齐15年的爱\n《你的婚礼》上映的时候好多人说周潇齐是舔狗  说这个电影毁三观  可是什么时候开始纯深情被加上了舔狗的标签\n就没有考虑过尤咏慈的成长坏境  原生家庭是一个很可怕的东西  周潇齐永远都不知道他的后悔对尤咏慈意味着什么  尤咏慈也是在及时止损  如果他们继续在一起  那么那一句后悔会消磨掉他们15年里所有的美好  （也不是所有人都懂周潇齐的后悔对尤咏齐意味着什么）', '祝福你“我错过的女孩@', '我希望剧情可以反转 我真的好希望站在礼堂的新郎就是周潇齐 一个人为另一个的十五年 用尽青春 最后都被 后悔 这两个字毁掉了 遇见一个人就没有什么后悔可言 为了你 我可以放弃一切 不管什么冠军 爱一个人 总而言之 珍惜彼此', '尤咏慈永远也不会知道那一场烟花是周潇齐为她放的', '这辈子最羡慕的就是从校园到婚礼的爱情', '2021.8.30-2022.3.12 很遗憾没能走进你的心里', '很幸运遇见你，迪丽热巴，虽然已经分手了', '这样的结局配不上男主至死不渝的爱', '尤咏慈永远都不会知道那场烟花是为而她放的，周潇齐永远都不会知道尤咏慈的婚礼上没有新郎～～……', '这女主啥毛病啊，一和男主分开，马上能和其他男的好上，也是醉了。。。', '再见了 认识五年零四个月20天的女孩', '我们再也不会像以前一样了，hxy', '分手两个月，本来以为看完会很感动。但是现在看完了，我一点也不感动，有的只是替男主的不值。虽说是15年时间，但是真正在一起的也就那么两年。前面的十几年可以说都是男主单方面的追求女主。从喜欢的角度讲，男主喜欢女主明显要比女主喜欢男主多的多。男主的喜欢是纯粹的喜欢，而女主的喜欢掺杂了感动 感激和愧疚。不能说两人不相爱，但是这种爱并不对等。男主真正应该后悔的是，没有答应女主的求婚。已经付出了那么多，结果最后一场空。而女主付出了什么？她什么都没有付出，却得到了幸福的结局。这就是爱情吗？', '巧   下辈子别再错过我了   下辈子希望我们早点遇见   下辈子我带你回家😌', '看完了，没任何感觉，可能没谈过恋爱吧', '这个电影是我和她在2021年5月4日去影院看的，当时那个影院一个人都没有，只有我和她，那个时候都怪我太懦弱了，要是那个时候鼓起勇气给她表白，现在她也就不会是别人的宝贝了，但我不后悔，至少我曾经整个青春都是她的身影，潘广燕，我陈果曾经喜欢过你，我不遗憾，最后祝你幸福！', '2022年2🈷️2日 00:56分 这个电影我看哭了……\n  但还是祝我心里的那个他 永远幸福吧', '看了五遍还是觉得好看，五年内看过的最好的电影', '尤咏慈永远不知道周潇齐给她放了场烟花，男孩为了女孩重读，怕女孩遇到渣男打了她的男朋友，然后为了她断送自己的职业生涯，因为两个字女孩就离开了他，换我我理解不了', '2022年1月28日15点39分，我又一次看哭了，即使缘分已尽，但还是感谢你曾经出现在我的生活中', '周潇齐永远不知道尤咏慈的婚礼上没有新郎', '2022.2.14 情人节我来看这个?哈哈哈哈哈', '连个合照都没有的集合一下吧！', '其实送你的那些礼物我都是我不吃饭留下来的', '看第五次了', '真的会改吗', '2023.11.28凌晨3：40看完了。', '以前吧，不知道《你的婚礼》讲的是什么，直到我遇到她我彻底明白了什么是遗憾。在这里，我在爱的前任祝你幸福，希望你天天开心。', '再见了陪了我7年的女孩子', '心真的好痛在分手的这晚看了这部电影。\n所以说放不下以前，还是接受不了过去。', '结局真遗憾', '那个陪我六年的女孩 原谅我 你的婚礼我没参加 再见了我的女孩….', '太浪眼泪了', '男主也对不住现任 明明有女朋友跟初恋成双入对的', '十二年的 你     希望我能看到你的婚礼  ', '看完就释怀了。', '2年了我来到了你们曾躲雨的地方却在也找不回感觉了', '电影可以重映，我们呢', '还是不能释怀', '31号电影院见，一个人', '这个剧要被改了，是不是结局会在一起了', '生活不是电影   错过了就是真的错过了', '08年哪来的王者？', '遇见你\n是我这辈子最骄傲的事情\n是你让我这个幼稚的男孩长大了', '终于等来重映了', '谢谢你的陪伴宋女士', '怎么她也在啊？\n', '第一眼喜欢的人 我就没想过再爱别人 她不在的时候好像什么都没有了意义\n我总是惹她生气 有时候我在她面前确实挺傻我一做错事去光顾着和他道歉，忘了解释清楚 我说过永远爱她 我怕我放弃 有一天她不开心的时候找不到我 我不想错过她。[准奏] ', '希望能两个在一起', '烟花再美 终究是灰', '中奖了 但是过期了', '非常好看，就是看的太遗憾了，非常的想哭', '再见了，我真正的初恋zxt，电影会重映我们不会重逢但是我还是想说，我不怪你，也祝我们各自的生活越来越好。']</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['真棒，还能变成付费，真棒', '十年了，画质还是无人超越', '神迹，也许本身就存在于自然界，只是人类无法明白才称之为神迹。科技也不是人类发明的，只是人类通过理解自然界的现象捕捉到“灵感”，以理论阐述出来，并弄出实物，称之为“发明”', '阿凡达是一部映射美国侵略印第安部落的作品', '￼我敢打赌2023年没有女生会在腾讯看这个电影并且翻评论', '我敢打赌2022年没有00后的女生会在腾讯看这个电影并且翻评论', '今天看了阿凡达2非常震撼好看，觉得人类真的是聪明又残忍', '下午刚看完《阿凡达2水之道》  剧情拖沓  演员演技一般  还是老套路  就剩特效支撑了   很失望！ 电影院坐的人不多！中途还有人打瞌睡 看的睡着的！ 哎 不是花了钱的  中途我就撤了！不看了 没意思！剧情都能猜到！！很失望', '第二部水之道最多给7分', '满满回忆', '太好看了吧，感动😭', '今天零点过后这个帐号会员就到期了 是我爸一直充会员看电视的账号 他很爱看电视 我妈前不久还批评过他看电视冲这么多钱 他说不充了 18号那天他走了  什么都来不及 连会员都没到期 心梗就把他从我们身边带走了 我17岁 女生 爸爸挑起的梁落到我身上了 我爸爸很可怜 我妈妈也是 我弟弟也是 可怜 我很想他 真的很想他 他真的对我们超好 我这一辈子都见不到他了\n以后这个账号不会亮起了', '小的时候光看到了特效，长大了在看却发现了偏人文的性质。这部片子很好的反映出来了当时欧洲殖民者占领了美洲大陆后，当地土著友好的接待他们，但是这些殖民者却想要的是他们的土地和他们的命。哈哈哈哈是真的讽刺', '有没有发现，美国电影只要出现跨种族爱情，绝对都是土著女人爱上白人侵略者，白人都是带领她们走向性自由走向美好，是解放者不是侵略者。比如中国拍的红河谷，歌剧西贡小姐，蝴蝶夫人等等。偶尔出现《情人》这种白女+亚男的，那绝对是白人施舍的高高在上的结果悲惨的。', '现在是2022年，第一次看这部影片，但我知道这是十年前的电影，为什么到现在才看，因为看之前就能猜到主题，真的很美国，拯救地球没有了新意，开始拯救外星人，故事是新故事，但桥段还是老桥段。看这一个镜头就知道下一个镜头要演什么。但有一点不可否认，在当年，这样的制作水平是一流的，确实很美国，影视工业很强大，大多数人都被影片的特效所震撼。从影片情节中，我也看到了现实中的美国，从哥伦布发现新大陆，白人屠杀印第安，到如今美国为资源挑起的战争。现在俄国还在跟乌克兰打仗，心情很压抑。有人和我一样吗？', '太好看了吧', '终于不用付费！', '从客观角度来讲，我挺认同上校的观点的，阿凡达计划其实可行性确实比较低。如果真的双方爆发战争，科技落后的纳威是无法和现代武装力量抗衡的。从人类的利益角度来说，我们来潘多拉就是为了开发它、利用它的矿产。不破坏纳威人的生存环境当然更好，但如果他们执意不让步的话，那只好采取强硬手段了（仅代表个人观点）', '看来我才是真爱呀', '一小时二十四分灵魂树哪里我记得有他们两个人辫子交缠在一起了好像，咋没了', '反人类罪，这与印第安人的事没有一点可比性，印第安人与我们同为人类，外星人与我们是不同生命体系。人类终将踏灭星辰', '除了侵略战争这层意义，我觉得导演还想说的是，我们人类现在过度追求物质需求依赖现代科技产品，过度疏离自然，阿凡达的生活方式是精神层面的，而我们人类现在只会没日没夜的为了钱工作学习，像行尸走肉一样活着，精神层面极度空虚，所以在阿凡达看来人类才是低级生物', '这不妥妥的表现美国人屠杀印第安人的另一个角度吗。', '感觉像一群强盗看上了别人家的东西，然后闯入别人家里边拿棍棒殴打边给人嘴里塞颗糖，然后说“你怎么那么不识趣”', '我国什么时候有这样的特效，那些神话人物一定是最美的', '好几年以前的电影还要收费？搞笑', '太震撼了，12年之后看仍然是最顶尖的科幻作品。', '第二部今年就要上了，重温一遍第一部，卡梅隆真的永远的神，还记得当时几百块一张的电影票还供不应求，朋友跑去香港看了一场，这是第一部3d啊，有着跨时代意义的电影', '大家小心，买了还有期限的，不及时看下次还要再买一次', '《阿凡达2》曝光正式片名Logo：为《阿凡达2：水之道》！同时，《阿凡达1》重制版又一次全球重映，时间是9月23日！阔别13年终于来啦，《阿凡达2》的公映日期确定不会再发生变动，詹姆斯·卡梅隆执导，萨姆·沃辛顿、佐伊·索尔达娜、凯特·温丝莱特、范·迪塞尔主演，12月16日上映。人类电影的奇迹，期待！', '电影说的是美国白人屠杀印第安人', '终于可以不付费了🎉', '终于看上了熬了12年。小样的，咋不收费了。', '一个背叛人类的人做主角！', '第一次看，特效制作水平确实被震撼了', '抛开所有的种族歧视，从零的角度看问题说一下你们的感觉！\n人类有时候真的很贪婪，为了自己的世界可以不择手段。对应我们现在的状况是不是正好对称，有多少稀有动物灭绝，有多少人在努力的挽留住大自然的馈赠。总有人去破坏生态平衡，这是地球的生存法则，想要发达，强大，繁荣，发展，生存，就要有牺牲，总会有失去。用原生态换取现代的需求！', '科幻电影巅峰之作，至今没有超越，期待续集', '我之前没看过，现在付费看值不值？谢谢大家告诉我呀😊', '电影中的人类公司侵略罪大恶极，但主角杰克也是人奸吧。开头说了屠杀土著会造成负面舆论，说明人类主流是反对侵略的，这只是这家公司的私人行为。但主角选择作为纳威人来抵抗侵略，最后彻底放弃了人类的身份，这是背叛自己种族了吧。他队友就以人类的身份留下来了，感觉比主角强。', '第一遍看深深被电影特效震撼的不行，第二遍看很喜欢这个故事越来越相信潘多拉真的存在，第三遍看感觉电影何尝不是对咱们世界某些国家的一些东西的隐射:某些国家看上别的国家的东西了想要，跟人家商量没成功就发动战争打人家，然后还反过来叫人家暴民。。。果然坏人的行为就是擅长倒打一耙还装好人～电影真的很棒！', '外国人十多年前拍摄的特效都这么厉害，叼！', '《阿凡达》中纳美人有杰克，《三体》中人类有云天明。\n它们在不同的角度，各自为王！\n“黑暗森林法则”\n“当别人拥有你想要的，就把他们变成敌人，然后理直气壮地摧毁。”', '放在12年后的现在看，仍旧震撼。', '对，我们终于把他熬到免费了，赞', '为什么阿凡达不能投屏？', '2022.4.25现在看的是免费  过不了多久应该又收费吧', '一部经典的电影！即使放在十几年后的今天依然是巅峰。但是主角的行为还是背叛了人类！种族战争我永远站在人类这一立场！不管这场战争是否符合人类世界的道德标准和是否正义！这是作为一个人类的底线！！！', '阿凡达二零二二年五月四日00:51看完，小样，终于等到不收费。真的是很精彩', '这个不会是前些年那个阿凡达吧？现在找那部阿凡达找不到了，谁看过了？能不能和我说一下是新的还是之前那部🙏🙏🙏', '哪里有小姐？', '团结就是力量', '纳美人不就是暗喻美洲土著印第安人（黄种人）吗', '发张全家福，反光猫猫眼', '￼第二部虽然还没上架，但是我想说的是，很多人都说剧情枯燥乏味没有亮点，但是《阿凡达》一共五部曲，第二部剧情上不好我觉得可能是因为这五个是连续性的，不可能这么快完结的，并不像敢死队那样每一部是个独立的故事。第二部与其说剧情枯燥无味，倒不如说在剧情上卡神更想警醒世人的是当下的社会问题：人与自然的关系问题、父母与孩子之间的问题和种族歧视的问题，狩猎图鲲的鱼叉上有写着日浦的标识，这个细节意味着什么？海洋族歧视森林族，不就是在映射着种族歧视最严重的美国吗？如何与叛逆期的孩子交流？父母有没有真正懂得理解孩子的内心？难道只有奈特亚的死才会让男主和弟弟真正了解到自己犯下的错误吗？难道只有发生了结果了才追悔莫及吗？', '《最后的莫西干人》也是部印第安人电影，挺好看的啊', '投屏都不能，吃相不要太难看', '有多少人看完2回来看1的', '想像這是一部N年前的電影 放在2023年看一點也不覺得舊', '好看死了', '经典就是经典阿凡达(原声版) 04:19', '1492年哥伦布大航海时代，了解吗', '印第安人的血泪史，了解吗', '真喜欢男主他儿，虽然第一部没他。他真的好温柔，还有点皮，是个护姐狂魔，这小崽子这么可爱谁受得了', '看了2回忆一下1🥳', '我是水平座，但是我水平很高', '我觉得阿凡达讲述的更像是人与自然的较量，人为了自己的利益只知道firefire，惹得众怒，最终不自量力自食恶果。', '牛 逼，自己都忘了[笑哭N][笑哭N][笑哭N]', '六六六啊', '没有空气还能点火？', '这是第一部第二部我都看完了', '外国人的目的是鸠占鹊巢', '看看法国吧！本土人的灾难！', '2023了这部电影出来这么多年第一次看', '在圣母庇佑下，杰克成为真正的潘多拉新的人的纳威人，他虽然背叛了自己的人，但是没有背叛他的人性道德，这部电影像偷了别人的东西侵略试图独吞掉潘多拉星球纳威人的领地，打了别人巴掌还给糖别人吃说不是你的，我相信杰克的选择没有错的，幸好他选择不违背自己的人性，而选择了潘多拉星球，这是他唯一重新活在潘多拉星球唯一的希望新开始的人生，相信第二部《阿凡达》不会让我们失望，请期待而揭幕', '杰克家熊孩子表情包[狗头]', '好看好看，经典回顾阿凡达(原声版) 00:32', '寓意美国的侵略行为', '第一部居然09年的了吗？等了那么久才有免费的第二部[吃瓜N]', '09年的电影，哎！特效还吊打23年国产，加油了，我滴国产科幻电影', '这特效放到现在2023年依旧能打，阿凡达的脸太能打了🚀', '人口是财富，不是负担', '存地失人，人地皆失！', '太感动了，看给我哭的', '[蹲]留下片名赠片[互粉]', '牛逼的科幻电影，2023年才看到😭', '相当好看', '有点光遇雨林的感觉', '太好看啦，激动的心', '2023/12/21日重温', '美帝霸权主义，他的存在对全球来说就是个巨大的灾难']</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 最后的真相 </t>
+          <t xml:space="preserve"> 疯狂元素城 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIP · 10514热度</t>
+          <t>云首发 · 10503热度</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>最后的真相《最后的真相》发片段黄晓明庭审逻辑大开划清边界,电影简介:六年未碰官司的律师丁义峰，为帮被告人金喜妹翻案辩护不择手段，主张反杀被害人马双喜属正当防卫，借此翻身一战成名，却遭公诉人孙宇的质疑与极力反对，双方针锋相对法庭激辩，然而金喜妹却誓死抗拒义峰的无罪辩护，她与马双喜之间的关系也似乎并不像案情描述的那般简单。</t>
+          <t>和腾讯视频迪士尼电影星推官金晨一起，看更多迪士尼优质好片！,电影简介:曾几何时，火焰一族的火柱和怀孕的妻子灯花背井离乡，远渡重洋，来到了元素城开始新的生活。经过十数年的经营，火柱老板的杂货店开得有声有色，而气竭力衰的他也开始琢磨将这家店传给开朗热情却脾气火爆的独生女小焰。在独自筹备某次促销活动时，小焰家的地下室管道出现意外，她也进而邂逅了水一族的青年渡阿波。阿波感性善良，作为市政府检查员，他不得不准备给这家店开出罚单。可是，这个店凝聚了小焰父亲全部的心血啊！为了阻止阿波，小焰使出浑身解数。
+而就在这一过程中，水火不相容的两个人开始尝试了解对方……</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.5分</t>
+          <t>9.5分</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>悬疑</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['我爸2020年出事，我们去请了律师，这律师没有提点什么该说什么不该说，就连和解协议也是我们自己去办的，这律师完全不管，让我们自己想办法解决，就连给他打电话发微信也是极其敷衍而且还不耐烦甚至发火，态度也不好。去法院审判当天他在法庭上也没提出什么关键性的问题，根本不像电影里演的那样字字珠玑犀利至极。检察院的人说什么他就同意什么。提出的观点我都感觉可笑，刚提出来就被检察院的人说不符。结束出来还拿着软中华发。后来是总共五万，他自己都觉得打的不好，退了三万。我真的后悔请律师了，还不如法律援助负责。经过这件事我真的不喜欢律师，律师这种职业更像是为了完成整个司法程序的流程而加上去来凑数的，律师在司法程序上的必要地位也成就了不负责的律师肆意盘削民脂的令牌。我希望我一辈子都不用再打官司，可恶的嘴脸我真的不想在神圣的法院里看到，那样会恶心到我。我不知道为什么社会的发展会变成这样，人越来越冷漠，势利，每个人都只喜欢钱，我并不是说喜欢钱有错，如果每个人可以靠自己的双手来满足自己的欲望，我只能说劳动最光荣。但每个人都想着如何去剥削别人来让自己衣食无忧，这样的社会是多么可悲？我常常思考是不是真的只有把自己的良心喂了狗才可以活的更好？我有的时候会觉得没有良心的我不是我，朴实憨厚的我才是真正的我，纵使良心这种无形东西失去可以换来更多的财富，我也不会去换，因为财富买不来的东西除了时间还可以是精神上的富足。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。\n', '在丁义峰面前罗翔都要靠边站，罗翔最多能把对方律师送进去，丁义峰更狠，能把自己送进去！', '中国的律师有几个好货？！吃了上家吃下家！！！没有职业道德！！！[打卡-打][怒]', '别看闫妮平时像喝了假酒似的，可她拍戏认真的很，喜欢她。', '保险没了，老头白死，女的武器，律师吊销执照进监狱，儿子三年估计没钱治病也得凉凉！这个片告诉我们，保险公司太牛了！千万别骗保！', '昨天看的这个，感觉一样的剧情', '这是爽了还是疼了', '请问这个女演员是谁。为什么演员表里没有她', '电影很不错，主旨比较清晰。可惜，这不是网友想要的。真相这么重要？别忘了，法律服务于人。喜梅一心求死，求仁得仁。老头命不久矣，骗保固然不对，但是可以挽救一个年轻的生命。小伙子在狱中服刑之后，会更加阴暗，暴虐，必然报复社会。律师前途尽毁，阿兹海默的老娘也会孤老死去。整件案子，除了检方和保险公司，没有一个赢家。\n法理好过，情理难容。\n电影不错。', '￼为闫妮来的有吗？点个赞看看有多少人', '闫妮演的真好，一个是爱她的男人，一个是她的肉，那种撕扯感，我都看进去了', '为黄晓明来的有吗？点个赞看看有多少人', '最后万万没想到，金喜妹和老头是真爱，两次大反转，律师真的黑的能说成白的，白的能说成黑的，表达的思想大概是要有良知。疑点是为什么金喜妹的朋友会说她每次回来身上都有伤。儿子是真的心理扭曲，老头的三个孩子也是白眼狼。最后说一句，晓明哥认真演戏真挺帅！', '马双喜明知道自己有肝硬化不能喝酒，为了自己爱的人，一杯一杯的喝，还喝假酒，所以他和金喜妹说“再等等，我这个人说过去就过去了”就为了骗保100万，给她儿子治病，金喜妹也是心疼老马，谁知他那不争气的儿子竟然按耐不住失手杀了老马，就在杀老马的前一刻，老马还在为了他喝假酒。我真哭死', '如果律师没有调查这个案子，简单的处理这个铁案，走个过场，那么，老马死了，喜妹或死或无期，儿子拿到保险金治病。这个结局我觉得很遗憾，几败俱伤，枉付了父母的苦心，全都搭进去了。但是从理想主义，儿子毁掉别人的同时就是毁掉了自己，一切欺骗都无处遁形，做错事就要承担后果。只能问，正义与同情，如何抉择。', '所以法律代表啦什么？冰凉且无情，被人唾弃的毁容男换到了监狱等死，爱他的被人唾弃的母亲失去啦爱她的人，善良没有儿女照顾的老头赌上啦性命也没换回毁容男活下去的机会，有良知的律师丢下啦老母亲却被锁在啦法律之内。闹外却是偷钱狠心的儿女，高高在上的法官，玩弄法律的有钱人，有洁癖的律师。。。所以法律改变啦什么？不幸的人依然不幸，有钱的人逍遥只在。最后的真像不过就是保险公公司获得了胜利不用赔钱拉吧。', '前无古人后无来者，PIAO出真爱，敬马大哥', '老马最后一刻还是求死想保全毛卫卫，那为什么不隐瞒下去  就让事情这样发展   骗保的钱给毛卫卫治疗烧伤   母女两个还可以继续生活下去   不管最后咋样老马都已经死了   这是个不可否认的结果     那为什么不让事情就这样结局   最后真相爆出来   女的无期徒刑   毛卫卫判三年   治疗的事情也没有任何着落了      有时候真相的代价是很大的', '我作为一个特别喜欢看电影的观众，基本是不写，影评的，但是，翻了翻评论，真的，特别特别有一种窒息的感受！首先说说电影本身，这部戏，是准备院线观看的，因为，闫妮！平台看完以后，觉得，小明的演技，也有很大进步，最起码，很落地，能够让小人物性格，饱满起来了。浅谈一下剧情，所谓跌宕，真谈不上，所谓反转，也更加觉得牵强。有些东西，导演甚至不用交代，反而，应该，交代一下，为什么一对母子，如此相处。看了一个影评说，整部戏，其实用“良知”贯穿，我并不愿意去抬杠一些东西，仅表达个人观点与感受，毕竟，观影后的思考，万人万念！整部戏，看下来，可以说，特别压抑，折射出的社会问题，正是发生在我们日常周遭，真的，极有可能出现的小问题，生存，赚钱，社会底层的挣扎与无奈，被贴标签，被误解，被钉耻辱柱，甚至求死，连律师都可以用违法来辩护，从而寻求真相，一系列的人性至暗，可怕，可怜，可悲！我的观点，人之初，性本恶，唯一能够唤醒所谓良知，只有爱，大爱，让人能够一下子产生共鸣的那种力量，正义凌然，公正不阿！而，整部戏，只有三个镜头，呼唤良知，一个凝望，一个鞠躬，一个无奈的遗憾。\n也许，这是导演，最高级的表现手法，不表达，个人观点，把思考留给所有人。如果，导演没这么想，只是艺术化了一个故事，那确实，导演能力，低下。\n最终，我想跟朋友们，分享，生活在当下，特别扭曲的社会当中，千万不要去，把过多个性去适应匹配进某一种，机制，体制当中。做自己，往往会做得最不得体，还是应该，多读书，多积累，有真才实学，温良恭简，渡己渡人！不模仿，不跟随，不停靠，让自己能够摸爬滚打，孔孟之道，中庸之风。\n真希望，公为天下，天下太平。', '我给打9分，一是闫妮和黄晓明在电影中的出色演技，把角色演的很到位；二是故意情节跌宕起伏，多次出入意料，反转的合情合理。在国产片中，很少能看到这类电影。\n但我觉得，有一点，应该在电影中有所解释，为什么保险最后的受益人变成了那马双喜的过刘学诚呢，', '晓明哥演技越来越好了啊大器晚成也感谢baby这个毒瘤', '故事很好，写出没个人的人性，但是编剧还需努力，写的警察太笨了，案发现场出现过几个人都不知道。\n', '最后的真相就是三个人都送进去了，保险公司赢了真扯哈哈哈哈', '哈哈保险公司投资的电影，不要骗保哦不然你是张三也得进去，柯南看多了一下就猜出来凶手是谁，应该还没有到结局，￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '刚看完感觉这部片子导演把观众当傻子，我气的必须来这里评论一下 。 黄晓明开头就交代了是个有良知的律师，中间为什么要去逼供。折腾了一圈铁案没翻 把自己弄进去了想表达什么。细节上漏洞百出，家里有第三人的指纹，桌上 地上烟灰缸到处都是警察没查到？保险受益人不是他儿子，那他自杀的意义是什么？最后光凭闫妮一句话就证明是她补刀了吗？而不是她替儿子顶罪吗？', '很多人看不明白，事实上很简单，一开始案情不符合谋杀逻辑，当然会认为她是找死，也很可能被告不懂法，无法界定自己是正当防卫，以及强奸，在剧情推进前，这些逻辑都是成立的! 所以他为了维护自己坚持的正义，用了点手段，第一是维护真相，第二是维护被告人权，尊严。 虽然威逼诱供做法律上是不认可的，但在良知上，大家都能接受! 因为这个视角是拯救被告的视角，一切证据都证实飞谋杀，和正当防卫! 在 剧情推进后，才找到新线索，在没有在医院见金喜妹之前，所有线索又指向她儿子误杀，劝他去自首，但见完金喜妹后，辞职转做证人，一切真相才真正浮出水面！ 片子告诉我们法律和正义也不能脱离人的良知，真相是什么也要有真正合理的逻辑，最后也说明，这并非是谋杀案，而是蓄谋骗保案，如果按一开始的证据链处理，就是一宗金钱纠纷谋杀案，之后的一切事情真相，将被永远埋葬!', '想不通为什么要拍这种片子，孩子已经经历了很多，他的极端是因为他从小被烧伤后，心理造成的创伤，再加上后续没有人给他进行心理上的疏导，不过我也知道，终身的残疾对于成年人都是很难接受的，何况还是那么小的孩子，为什么要这样拍，难道真的要证明残疾就是怪胎，就是灾难嘛？我觉得他们真的没有错，错的是世人看待他们的眼光。', '估计要上映了，马上', '这个剧感觉这个编剧完全就是为了反转而反转，法庭开庭像儿戏一样。编剧一点法律常识都没有吗？真是无语了', '阚清子的演技我觉得不好，我看过她的一些视频还有这个电影，都是靠吼，就感觉喜怒无常，哈哈', '剧本本身有点扯淡，编剧应该没有法律相关从业经验，闫妮不演喜剧感觉有点出戏，检察官扮演者演的太过用力，感觉跟被告有仇，颜值不在线，声音难听！', '最后的真相也不一定是真相，小明可能是为了成全一个母亲\n', '黄晓明的表演简直太精彩。厉害，这犀利的回答。直接把女律师怼到哑口无言。', '为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '黄晓明第一次监制的电影《最后的真相》非常成功，内容精彩无比。\n这部电影讲述了律师丁永辉在承办一起凶杀案时，发现该案真凶另有其人。在调查过程中，他不仅要面对各种阻力，还要解开多个谜团。在这部电影中，黄晓明凭借其出色的演技和独特的视角为观众呈现了一个不同于常规犯罪题材的电影。除了黄晓明之外，闫妮的表演也让人眼前一亮，她凭借出色的演技成功提名金鸡影后。这部电影的成功也离不开其制作团队的精心打造。在剧本创作方面，编剧发挥了自己的才华，将故事情节编织得扣人心弦。同时，导演也通过独特的视角和拍摄手法，将电影的氛围和情感传递得淋漓尽致。《最后的真相》的成功也表明了国内电影市场的成熟和发展，期待未来能够看到更多优秀的国产电影。\n如果你还没有看过这部电影，强烈建议你去看看。如果你已经看过了，那么你一定会和我一样对这部电影赞不绝口。', '这部电影的剧情和深度还是非常棒的。我建议可以重看一次。从电影的主线剧情来说，这是居于一个律师在不同时期阶段心里的不同层面变化做出的判断与决定。从支线剧情来说，其实是开放式的结局，疑点有很多导演未交代，1.儿子烧伤为什么极度怪罪于母亲。2.受益人为什么要给过命的兄弟，兄弟在其中作为什么角色。3.一百万剩下的40万去了哪（老三只交代偷走了60W）4.儿子的身世之谜……  还有很多待补充 这个案子不是按正常开头到结尾那么一句话概括的（那些说男主有病白忙活的是真没好好分析完电影） 最后的真相并不一定就是最后的真相 主线来说这个案件三次的反转 每次都能作为最后的判决或者真相 那么事实真的如此吗 最后的真相主角也搭进了自己 那么这个真相是真的还是另有其他？为了真相坚持的人是否都在做坚持呢 （个人观点勿喷）', '最后一次反转为反转而反转。有这样的律师吗？打着官司最后把自己送进去了。者的喝多少假酒能干出这事来。', '如果一开始直接判金喜妹故意杀人，保费能到手，毛卫卫的病也能治，结果一顿操作下来，自己搭进去，金喜妹还是故意杀人罪，保费没了，毛卫卫还被判了三年，这跟良知有关吗，这个反转的有的搞笑吧', '最后丁义峰和他老师的对话，让我感觉其实是金喜妹和丁义峰用自己做局串供，保下了毛卫卫', '来看黄晓明第一次监制的电影最后的真相，恭喜闫妮姐提名金鸡影后，加油加油', '这片子是把现场调查的警察视为无物了，漏洞百出', '一般般，这类电影，孙红雷演的那部有关于父爱的电影已经称王了', '阚清子，你演的是检查官！一副冷漠脸，横眉冷对却两眼空洞无神，哪点像检察官？', '这是今年难得的几部佳片之一，让人深思的问题很多！', '这逻辑思维也太差了，儿子用烟灰缸砸死了人，警察你居然查不到线索？', '闫妮挺喜欢的，但是，一看见黄晓明就什么兴趣都没有了', '这丁义峰，岂不是把毛卫卫拖进来，还让金喜妹白判无期，马双喜白S了…吗？…因为保险100万也没能拿到，毛卫卫也得不到治疗……', '￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '甚至看哭了。很多人都在纠结前后逻辑，人性哪儿有逻辑。就像我带着有色眼镜看人，觉得那种地方工作的人都是为了骗钱…………包括电影我爱你，我在思索老了真的挺难的，只有爱人相互陪伴，子女有子女自己的生活。夕阳红的感情生活，需要社会大众的正视。而不是带着有色眼镜。', '这难道不是老马白死了么  保还没骗成还是自己搭理了', '真不知道这案件什么的都这样，要公安，检察院干啥用，都是用律师找线索了', '这是一部票房辜负了的好电影。沉下心来看看，有赤诚有真心也有现实的无奈。', '影片最后说句实话，本片经过艺术加工[狗头]，现实中律师遇到了你就知道了', '现实生活中结局只会停留在一审，结局皆大欢喜，哪有为了良知放弃名利陷自己于牢狱之中的律师？', '啥跟啥啊，踩了个大雷，如果不是黄晓明在，都不会点进去看', '真心不错，让我浑身鸡皮疙瘩掉一地，人性展示的淋漓尽致', '怎么这个女配角又是律师啊，跟佟丽娅那个家暴的也是她拍的', '丁义峰不去翻案辩护， 那当事人顶罪死刑 算不算冤案？ 而公方只想早点结案不去查细节动机，最后辩方案翻了自己也进去了，最后谁是赢家？这样的法律又有什么意义？', '好想看，会员过期了', '真心和坚持最终会把我们引去该去的地方', '我快哭死了，莫名的我的悲伤无限大', '啥都没说清楚，老头白死了，浪费我两个小时😏😏', '真实社会坏人排行榜:第一:律师，第二:医生，第三:老师，第四:村干部，第五:黑社会...[欢颜-泪目]', '这个剧外行人可能看不太明白，我作为律师解读一下。真凶就是闫妮，最后无期或者死刑，她儿子故意伤害，判了3年，黄晓明扮演的律师是亦正亦邪的，如果没有闫妮对他的最后一次谈话，他也不可能说出自己诱导闫妮的事实，这种行为作为律师也是犯罪的，是要被吊销律师证的。黄小明一开始强行做无罪辩护，说闫妮是被强奸的，也是为了自己能翻身，能出名，毕竟他很多年没办案，也没啥钱了，他这个时候的行为就是要赢，不是为了什么正义，良知，最后闫妮找他倾诉，他被感动了，选择了良知，在庭上才说出了自己诱导闫妮的事实，也把自己献祭了。电影立意还是比较正能量的，但是现实基本上不会有律师会说出自己诱导、逼供的行为事实，因为这样就把自己毁了。现实中的律师，绝大部分都是那个律所主任，法律援助案子走走过程就好了，极少部分是黄晓明，把白的搞成黑的，当然也说明其自身的业务水平牛逼。', '老马白死，金喜妹无期，毛卫卫三年，骗保的钱也不合法，竹篮打水一场空。到底谁对谁错，反正这个律师没对', '真心不错', '说真的这个检察官确实不符合现实。入罪思想严重！', '看了十分钟那个女的让我烦没看了', '双数今年过年就回家', '老头是儿子杀的，最后的反转是因为检方已经发现骗保和儿子是凶手，丁律师之所以最后出来作假证，是为了保儿子故意伤害罪判三年，如果儿子死罪母亲无罪的话，母亲出去也是自杀。检方最后没有继续对丁律师质问，是看懂了丁律师的操作。这个片子不是普法片，最后还是拍成个悬疑片了。', '刚开始为了利益，逼迫被告说强奸，除了老头名誉受损其余的三赢的局面，律师收获了事业，儿子收获了金钱，女的无罪释放。结果为了一个律师突然无厘头的正义感，半途强行扭转局面，结果全输，老头没了保险也没了，女的无期徒刑，儿子三年有期徒刑还没了治病的保险金，律师丢了职业进去了。什么玩意，在这种权衡利弊的情况下，正常人根本不会为了这所谓的正义和真相，去牺牲这一切。', '快撑不下去了什么时候才能是个 头欠了一屁股债', '经过小明哥的操作，不仅葬送了自己，还把两个人送了进去，还把保费搞没了，牛逼[亲]', '演员们的演技很好', '这部电影反封律师，公诉，保险公司！😅😅😅😅', '再也看不到涂门老师的作品了！[破防][破防][破防][破防]', '我觉得好看，哭了，我看到的是夕阳红的真心，母爱的伟大，底层老百姓的无奈，只能以命换命。', '老头不行，怎么就强奸了。那么多人证明的。', '￼看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。', '好的律师都在影视作品里  现实中的律师真的是只知道狮子大开口 要完钱 收完钱对他来说就没事了 真的是没有一点职业道德[打卡-打]', '很愚蠢的结果，所得来的真相没有任何一个人获得好处，睁一只眼闭一只眼大家各得其所不好吗？', '前面的情节挺吸引人，但有的坑没埋，老马和金喜妹为了给毛卫卫治病而骗保，体现出父母对孩子伟大的爱，老年时期的爱情，后面保险的受益人写了刘，又是为什么，他是不是知道其中的事，毛卫卫因为别人对他异样的看待，使心理发生扭曲，但又因为什么事情，让毛卫卫说出这是金喜妹欠他的并没有体现出来，后面丁律因为自己的“良知”而在法庭上作证人证明老马是金喜妹杀的而毛卫卫只是故意伤害，结局就是毛卫卫因为烧伤皮肤癌要死了而且也被判了刑，金喜妹故意杀人和骗保被判刑，丁主角因为诱供被判刑，所以最后全都进监狱了？？？而且丁主角的母亲怎么办，他自己当时因为要赢所以诱供违背了良知，后面又因为一些事情想起了自己的良心，然后把所有人都送进去了，要是为了突出“良知”这个主题，这剧情就有点尬了吧。。。', '这种电影适合在韩国拍', '烟灰缸上就没指纹吗？现场就没找到第三人在场的证据吗？', '电影实在一般，甚至这么高分应该全是各位演员的演技分，剧本可以说是太烂了，强行反转，塑造主角，即使是09年的案发时间，警方的作用在剧中微乎其微，基本就是立案抓人起诉，完全没有相关证据体现，检方对案件的侦查也没有相关进展，法庭中检方的话语也漏洞百出，诱供，拍打桌面恐吓嫌疑人心理，攻破嫌疑人心理防线，这些违规行为真的允许吗，这真的是作为影视剧版国家司法机关做的事？法庭中法官也默不作声，种种证据链根本支撑不起这个案子。案件一直反转，是体现律师个人业务能力强悍，还是体现公检法三方的无能？剧情反转确实精彩，但是为了剧情精彩硬是不符合现实因素，时代一直在进步，演员的演技也都在线，剧本越来越拉胯，白瞎了', '好片子，对人性的刻画入木三分，有时候，良知和邪恶就在一念之间', '保险公司拍的，不要骗保哈哈，律师把自己送进去了，哈哈。鬼扯哦。。拍点现实的不行吗', '看守所还能做操']</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['中国回头拍个，疯狂元素表', '花5钱的举手🙋\u200d♂️', '我这是什么，交了会员，不能看', '等免费了我再来看', '已经可以看了', '剧情非常不错', '4399小游戏水娃火娃？', '源哥的《下个路口》真的超级好听啊啊啊啊啊', '我在电影院已经提前看过，剧情嘛，只能算是中等偏上吧，男主真的超爱哭，他们一家都是这样的，女主的嘛，她脾气很暴躁，反正就是控制不好脾气，而且生气的时候火焰会变紫色', '#元素城e人i人大集合# 看《疯狂元素城》写影评，领元素城精美正版周边！', '片尾曲真好听', '觉得剧情一般，没有想象中的好，钱花的有点不值', '开心，六月十六号是我的生日哎！！！！推广曲还是源哥唱的，开心开心', '疯狂动物城元素版？', '电影看过啦，超级好看\\(//∇//)\\', '我昨天花钱买的，过了一天就又要重新买了', '然后它们生了个双胞胎，就是森林冰火人，对吗？', '看不够根本看不够。', '给我看哭了', '写出了说话不用但又疯狂的爱情', '挺好看的，可惜剧组没钱，只拍了五分钟，希望下次拍长点。', '只要功夫深，铁杵磨成针。发挥我国传统美德愚公移山的精神。俺必能等到免费观看的一天[放大镜][放大镜][放大镜][超越][超越][超越]', '谁说水火不相融呢，相爱自会相融，而有缘也自会相见', '固安全来报告。', '剧情不错，很好看，就是6分钟太短了。', 'Beautiful', '我在想他们两个生的是个什么玩意儿', '期待第二部[金币][金币][金币]', '2023，12月21日', '画面细节真的超棒', '水火都能相容，你我却不能', '白花了4.8元，应该用观影券看', '这是一部充满创意和想象力的动画电影，它以独特的视角展现了一个充满奇幻色彩的元素世界。影片中的元素城市充满了各种奇特的生物和现象，让人目不暇接，同时也引发了观众对于现实生活中科学知识的好奇心。\n\n影片的画面表现力非常出色。导演通过精湛的技艺，将元素城市描绘得栩栩如生，各种奇特的生物和景象都呈现出极具视觉冲击力的效果。色彩搭配也非常和谐，既有梦幻般的蓝色，又有热情奔放的红色，为观众带来了一场视觉盛宴。\n\n剧情设定充满了想象力。元素城市中的各种元素都有各自的性格和特点，如火焰精灵热情奔放，水元素温柔善良等。这些元素之间的互动和冲突，构成了一幅五彩斑斓的世界画卷。同时，影片还通过元素城市的故事，传达了友谊、勇气和智慧等主题，具有很高的教育意义。\n\n音乐来说也为观众带来了愉悦的听觉体验。背景音乐旋律优美，与画面相得益彰，为影片增色不少。同时，影片中的音效也非常到位，如火焰燃烧的声音、水滴落下的声响等，都让观众仿佛置身于元素城市之中。\n\n但是在角色塑造方面略显不足。虽然各个元素都有各自的性格特点，但部分角色的个性较为单一，缺乏深度。此外，影片在情感表达方面也略显稚嫩，部分情节过于简单化，难以引起观众的共鸣。', '继疯狂动物城的新一部让我们对美好爱情的憧憬', '《疯狂元素城》是一部充满想象力和创意的动画电影，它以一种独特的方式展现了一个充满奇幻色彩的世界。影片中的城市由各种不同的元素构成，如火、水、土、风等，这些元素共同构成了一个充满活力和生机的城市。\n\n画面风格非常独特，色彩鲜艳且富有层次感。导演通过对各种元素的巧妙运用，创造出了一个充满奇幻色彩的世界。这种视觉上的冲击力让人印象深刻，也让观众更容易沉浸在这个奇妙的世界中。\n\n影片的故事情节紧凑且富有趣味性。主人公在寻找失落的元素的过程中，遇到了各种各样的困难和挑战。这些情节既充满了冒险和刺激，又不乏幽默和温情。观众在观看过程中，不仅能感受到主人公的成长和变化，还能体会到友情、亲情和爱情等深刻的情感。\n\n影片的音乐也是一大亮点。背景音乐既有动感十足的节奏，又有优美动听的旋律，为影片增色不少。音乐与画面的结合，使得整部影片的氛围更加浓厚，也让观众更容易沉浸在这个奇幻的世界中。', '打卡，20231220', '很好，哪位大好人可以分享吗', '火爸的声音好像幻影忍者里的吴大师', '就是就是花钱了', '花钱来的必须留名', '现在还在观看', '看完《疯狂元素城》之后的一些tips：#疯狂元素城\n1、父母想给孩子最好的，但那末必是孩子真正想要的！小焰并不想接管商店，但是作为爱爸爸妈妈的孩子，知道商店是父母一生的心血，努力并且积极帮父母\n分担和守护，但是总在某些节点控制不好自己的脾气，父母或许觉得孩子是历练不够，孩子或许觉得自己能力\n不行，实则是孩子做的并不是自己真正想做的事情.\n2、爱是伟大的力量，水火本不相容，阿波却慢慢的走进了小焰的心，因为阿波看见了小焰的逃避和内心真正的渴望，并且陪着她一点点尝试和探索：“我知道这很\n不容易...”;“这是你的人生，你不试试怎么知道”；欣赏小焰的玻璃花，带她去看时光花，洪水爆发后拼命帮忙守护“蓝色火焰”，让水火亦相融，终于让小焰直面自己的内心，勇敢的告诉父母“真相”。看似柔弱爱哭的阿\n波勇敢的表达爱，坦然面对生死。外表坚强的小焰却不敢直面自己的内心，在家庭和梦想之问摇摆。最终是父母对他们的爱让他们可以自由的追求自己的梦想…。\n3、父母的回应是孩子一生向阳的重要仪式之一…火爸爸在离开部落的时候向爷爷行临别趴行礼，爷爷看着离开儿子有些失望或者不舍并没有回应，这让爸爸一直耿耿于怀，终于在小焰的跪别趴行礼时候，小焰和爸爸都普通话47:09完成了与自己的内心和解，一个关于梦想的一个关于亲情的….\n最后：我们不要怀疑父母对孩子的爱也不要低估了孩子\n对于父母的爱，多一些允许和接纳或许生命中会开出很多“时光花”', '电影名称：《疯狂元素城》\n导演：彼得·孙\n演员：莉娅·刘易斯、马莫多·阿西\n上映年份及国家：2023年6月16日，美国、中国\n\n《疯狂元素城》是由皮克斯制作的一部动画电影，由才华横溢的彼得·孙执导。这部电影的配音阵容非常强大，由莉娅·刘易斯和马莫多·阿西担任主要角色的配音工作。\n\n电影的故事发生在一个充满各种元素的城市中，这些元素都有自己的特性和生活习性。然而，当城市的平衡被打破，一场混乱即将爆发时，主角们必须团结起来，找到恢复城市平衡的方法。\n\n《疯狂元素城》是一部充满想象力和创新的动画电影。导演彼得·孙巧妙地将各种元素的特性融入到故事中，使得电影既有趣味性，又富有教育意义。配音演员莉娅·刘易斯和马莫多·阿西的表演也非常出色，他们的声音为电影增添了更多的生动性和感染力。\n\n电影的画面精美绝伦，色彩鲜艳且富有层次感，让人仿佛置身于一个充满活力的元素世界。音乐也是电影的一大亮点，既有动感十足的节奏，又有深情的旋律，为电影增添了更多的魅力。\n\n总的来说，《疯狂元素城》是一部值得一看的动画电影，无论是对于孩子还是成年人，都能从中找到乐趣和启示。它不仅展示了皮克斯一贯的高水准制作，也再次证明了动画电影的魅力无穷。', '需要反复购买的吗？怎么前几天买的，现在就不能看了', '免费了我在看', '王梦梦，我就是喜欢你', '有会员还要购买电影，但电影挺好看的', '你们是懂元素的', '好看 而且根本看不够！[准奏][撒花N]', '太好看了！', '在好久之前就看过了。真的太好看了。', '热情的火焰，纯洁的水', '电影中的四大元素，是电影的一大亮点。电影将元素的特质和性格完美地融合在了角色中，让人印象深刻。风元素的守护者，灵动而又自由；火元素的守护者，热情而又坚定；水元素的守护者，温柔而又坚韧；土元素的守护者，稳健而又豁达。这些元素的特质，都与人类性格的某些方面相似，令人感到亲切。不仅如此，电影中还有一些充满深意的场景。比如，元素城市中的人们都是由元素构成的，而这些元素又恰恰是人们的情感和思维的体现。这是一种非常独特的表现方式，也是电影的一大特色。', '哇塞好好看[憨笑]他们生的孩子是水蒸气元素的吗[我不理解]阿波是胖子还是瘦子[我不理解]小焰是一生气就会变紫吗[我不理解]', '本来以为是迪士尼和皮克斯的强强联合，结果看完只觉得智商受到了侮辱，建议还是各做各的吧', '咋去投诉', '怎么去投诉', '陌杂日丹名🧚\u200d♀️🧚\u200d♀️', '你不能一直自己上。', '终于看到这了', '爱情的能量爆满', '吐槽不够看', '好看[笑死我了] 出第二部[皇冠]', '里面的火元素好少啊', '我有大把时间等你免费，免费在看', '《疯狂元素城》是一部兼具奇幻与科幻色彩的电影，其内涵易懂而不失深刻。虽然跨越“种族”恋爱和追逐梦想的剧情设计与此前的《疯狂动物城》等作品类似，稍显俗套，但其出色的画面展示和稳妥的节奏把控，仍使得其不失为一部老少皆宜的影片。\n对于不同年龄阶段的人来说，观看《疯狂元素城》能得到不同的感受：对于懵懂无知的孩童来说，有趣的画面和故事情节能焕发出别样的童趣；对于心花初绽的青少年来说，男女主角的双向奔赴与彼此欣赏最能令人向往；对于而立知天的中老年人来说，片中的父女、母女乃至婆媳关系，都十分生动有趣。', '比比比比比', '特别好看 后悔没时间去影院观看', '为什么购买了一次，再看还需要购买', '不收费了我再来看，家人们记得踢我一下[吃瓜N]', '我是会员哦[666啊][一起冲][握草][准奏][富翁][皇冠][金币][准时]', '超级超级喜欢', '第二部地球特派员还有没有小焰和阿波了？真的很好看', '😂爱哭的女婿', '超级无敌赞，', '还不错，每个人都会经历迷茫和懵懂，最终找到生命中的光[准奏]疯狂元素城（原声... 00:00', '好喜欢这首主题曲', '花了钱留个纪念', '2013  12  12广州', '好想看后续呀！期待😌', '啊，真爽，免费的。', '就很离谱🌚🌝🌚🌝', 'w y e 你看水跟火都能在一起，为什么你跟我就不能！[意难平]', '8 哈哈😃哈哈😃哈哈😃哈哈', '好好看呀！家人们谁都啊', '还没看够，希望有2', '源哥唱的主题曲在哪', '买了能退吗', '不就是6块钱吗？买了😒😒😒😒😒', '真的超级好看[意难平]']</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 最后的真相 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>VIP · 10565热度</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>最后的真相《最后的真相》发片段黄晓明庭审逻辑大开划清边界,电影简介:六年未碰官司的律师丁义峰，为帮被告人金喜妹翻案辩护不择手段，主张反杀被害人马双喜属正当防卫，借此翻身一战成名，却遭公诉人孙宇的质疑与极力反对，双方针锋相对法庭激辩，然而金喜妹却誓死抗拒义峰的无罪辩护，她与马双喜之间的关系也似乎并不像案情描述的那般简单。</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.5分</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['我爸2020年出事，我们去请了律师，这律师没有提点什么该说什么不该说，就连和解协议也是我们自己去办的，这律师完全不管，让我们自己想办法解决，就连给他打电话发微信也是极其敷衍而且还不耐烦甚至发火，态度也不好。去法院审判当天他在法庭上也没提出什么关键性的问题，根本不像电影里演的那样字字珠玑犀利至极。检察院的人说什么他就同意什么。提出的观点我都感觉可笑，刚提出来就被检察院的人说不符。结束出来还拿着软中华发。后来是总共五万，他自己都觉得打的不好，退了三万。我真的后悔请律师了，还不如法律援助负责。经过这件事我真的不喜欢律师，律师这种职业更像是为了完成整个司法程序的流程而加上去来凑数的，律师在司法程序上的必要地位也成就了不负责的律师肆意盘削民脂的令牌。我希望我一辈子都不用再打官司，可恶的嘴脸我真的不想在神圣的法院里看到，那样会恶心到我。我不知道为什么社会的发展会变成这样，人越来越冷漠，势利，每个人都只喜欢钱，我并不是说喜欢钱有错，如果每个人可以靠自己的双手来满足自己的欲望，我只能说劳动最光荣。但每个人都想着如何去剥削别人来让自己衣食无忧，这样的社会是多么可悲？我常常思考是不是真的只有把自己的良心喂了狗才可以活的更好？我有的时候会觉得没有良心的我不是我，朴实憨厚的我才是真正的我，纵使良心这种无形东西失去可以换来更多的财富，我也不会去换，因为财富买不来的东西除了时间还可以是精神上的富足。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '哭死我了，被迫杀了爱人的时候都能感同身受那种心如刀绞的感觉', '看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。\n', '在丁义峰面前罗翔都要靠边站，罗翔最多能把对方律师送进去，丁义峰更狠，能把自己送进去！', '前无古人后无来者，PIAO出真爱，敬马大哥', '昨天看的这个，感觉一样的剧情', '这是爽了还是疼了', '老马最后一刻还是求死想保全毛卫卫，那为什么不隐瞒下去  就让事情这样发展   骗保的钱给毛卫卫治疗烧伤   母女两个还可以继续生活下去   不管最后咋样老马都已经死了   这是个不可否认的结果     那为什么不让事情就这样结局   最后真相爆出来   女的无期徒刑   毛卫卫判三年   治疗的事情也没有任何着落了      有时候真相的代价是很大的', '请问这个女演员是谁。为什么演员表里没有她', '中国的律师有几个好货？！吃了上家吃下家！！！没有职业道德！！！[打卡-打][怒]', '别看闫妮平时像喝了假酒似的，可她拍戏认真的很，喜欢她。', '保险没了，老头白死，女的武器，律师吊销执照进监狱，儿子三年估计没钱治病也得凉凉！这个片告诉我们，保险公司太牛了！千万别骗保！', '电影很不错，主旨比较清晰。可惜，这不是网友想要的。真相这么重要？别忘了，法律服务于人。喜梅一心求死，求仁得仁。老头命不久矣，骗保固然不对，但是可以挽救一个年轻的生命。小伙子在狱中服刑之后，会更加阴暗，暴虐，必然报复社会。律师前途尽毁，阿兹海默的老娘也会孤老死去。整件案子，除了检方和保险公司，没有一个赢家。\n法理好过，情理难容。\n电影不错。', '￼为闫妮来的有吗？点个赞看看有多少人', '闫妮演的真好，一个是爱她的男人，一个是她的肉，那种撕扯感，我都看进去了', '为黄晓明来的有吗？点个赞看看有多少人', '最后万万没想到，金喜妹和老头是真爱，两次大反转，律师真的黑的能说成白的，白的能说成黑的，表达的思想大概是要有良知。疑点是为什么金喜妹的朋友会说她每次回来身上都有伤。儿子是真的心理扭曲，老头的三个孩子也是白眼狼。最后说一句，晓明哥认真演戏真挺帅！', '刚看完感觉这部片子导演把观众当傻子，我气的必须来这里评论一下 。 黄晓明开头就交代了是个有良知的律师，中间为什么要去逼供。折腾了一圈铁案没翻 把自己弄进去了想表达什么。细节上漏洞百出，家里有第三人的指纹，桌上 地上烟灰缸到处都是警察没查到？保险受益人不是他儿子，那他自杀的意义是什么？最后光凭闫妮一句话就证明是她补刀了吗？而不是她替儿子顶罪吗？', '估计要上映了，马上', '马双喜明知道自己有肝硬化不能喝酒，为了自己爱的人，一杯一杯的喝，还喝假酒，所以他和金喜妹说“再等等，我这个人说过去就过去了”就为了骗保100万，给她儿子治病，金喜妹也是心疼老马，谁知他那不争气的儿子竟然按耐不住失手杀了老马，就在杀老马的前一刻，老马还在为了他喝假酒。我真哭死', '我作为一个特别喜欢看电影的观众，基本是不写，影评的，但是，翻了翻评论，真的，特别特别有一种窒息的感受！首先说说电影本身，这部戏，是准备院线观看的，因为，闫妮！平台看完以后，觉得，小明的演技，也有很大进步，最起码，很落地，能够让小人物性格，饱满起来了。浅谈一下剧情，所谓跌宕，真谈不上，所谓反转，也更加觉得牵强。有些东西，导演甚至不用交代，反而，应该，交代一下，为什么一对母子，如此相处。看了一个影评说，整部戏，其实用“良知”贯穿，我并不愿意去抬杠一些东西，仅表达个人观点与感受，毕竟，观影后的思考，万人万念！整部戏，看下来，可以说，特别压抑，折射出的社会问题，正是发生在我们日常周遭，真的，极有可能出现的小问题，生存，赚钱，社会底层的挣扎与无奈，被贴标签，被误解，被钉耻辱柱，甚至求死，连律师都可以用违法来辩护，从而寻求真相，一系列的人性至暗，可怕，可怜，可悲！我的观点，人之初，性本恶，唯一能够唤醒所谓良知，只有爱，大爱，让人能够一下子产生共鸣的那种力量，正义凌然，公正不阿！而，整部戏，只有三个镜头，呼唤良知，一个凝望，一个鞠躬，一个无奈的遗憾。\n也许，这是导演，最高级的表现手法，不表达，个人观点，把思考留给所有人。如果，导演没这么想，只是艺术化了一个故事，那确实，导演能力，低下。\n最终，我想跟朋友们，分享，生活在当下，特别扭曲的社会当中，千万不要去，把过多个性去适应匹配进某一种，机制，体制当中。做自己，往往会做得最不得体，还是应该，多读书，多积累，有真才实学，温良恭简，渡己渡人！不模仿，不跟随，不停靠，让自己能够摸爬滚打，孔孟之道，中庸之风。\n真希望，公为天下，天下太平。', '如果律师没有调查这个案子，简单的处理这个铁案，走个过场，那么，老马死了，喜妹或死或无期，儿子拿到保险金治病。这个结局我觉得很遗憾，几败俱伤，枉付了父母的苦心，全都搭进去了。但是从理想主义，儿子毁掉别人的同时就是毁掉了自己，一切欺骗都无处遁形，做错事就要承担后果。只能问，正义与同情，如何抉择。', '所以法律代表啦什么？冰凉且无情，被人唾弃的毁容男换到了监狱等死，爱他的被人唾弃的母亲失去啦爱她的人，善良没有儿女照顾的老头赌上啦性命也没换回毁容男活下去的机会，有良知的律师丢下啦老母亲却被锁在啦法律之内。闹外却是偷钱狠心的儿女，高高在上的法官，玩弄法律的有钱人，有洁癖的律师。。。所以法律改变啦什么？不幸的人依然不幸，有钱的人逍遥只在。最后的真像不过就是保险公公司获得了胜利不用赔钱拉吧。', '我给打9分，一是闫妮和黄晓明在电影中的出色演技，把角色演的很到位；二是故意情节跌宕起伏，多次出入意料，反转的合情合理。在国产片中，很少能看到这类电影。\n但我觉得，有一点，应该在电影中有所解释，为什么保险最后的受益人变成了那马双喜的过刘学诚呢，', '晓明哥演技越来越好了啊大器晚成也感谢baby这个毒瘤', '故事很好，写出没个人的人性，但是编剧还需努力，写的警察太笨了，案发现场出现过几个人都不知道。\n', '想不通为什么要拍这种片子，孩子已经经历了很多，他的极端是因为他从小被烧伤后，心理造成的创伤，再加上后续没有人给他进行心理上的疏导，不过我也知道，终身的残疾对于成年人都是很难接受的，何况还是那么小的孩子，为什么要这样拍，难道真的要证明残疾就是怪胎，就是灾难嘛？我觉得他们真的没有错，错的是世人看待他们的眼光。', '如果一开始直接判金喜妹故意杀人，保费能到手，毛卫卫的病也能治，结果一顿操作下来，自己搭进去，金喜妹还是故意杀人罪，保费没了，毛卫卫还被判了三年，这跟良知有关吗，这个反转的有的搞笑吧', '看完提出几点思考：1.保险合同的受益人由他自己变成他铁哥们，那他铁哥们应该也参与到这个事情中了，但影片中未交代这方面。2.她儿子烧伤是个意外，是怎么烧伤的，与她有什么关系，以至于她儿子觉得是她欠下的，这方面没有交代清楚。3.她儿子的父亲又是谁，她又是如何生育养育儿子的，影片全篇未交代。4.真正的真相到底是什么，真相又是不是我们想要的，真相、良知、法律、正义，又该如何选择，这恐怕是影片想要传递给我们的思考。', '最后的真相就是三个人都送进去了，保险公司赢了真扯哈哈哈哈', '哈哈保险公司投资的电影，不要骗保哦不然你是张三也得进去，柯南看多了一下就猜出来凶手是谁，应该还没有到结局，￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '演技最好是老马和闫妮，晓明中规中矩，女检察官真是让人出戏，全程面部麻痹，台词吐字不清', '最后的真相也不一定是真相，小明可能是为了成全一个母亲\n', '黄晓明第一次监制的电影《最后的真相》非常成功，内容精彩无比。\n这部电影讲述了律师丁永辉在承办一起凶杀案时，发现该案真凶另有其人。在调查过程中，他不仅要面对各种阻力，还要解开多个谜团。在这部电影中，黄晓明凭借其出色的演技和独特的视角为观众呈现了一个不同于常规犯罪题材的电影。除了黄晓明之外，闫妮的表演也让人眼前一亮，她凭借出色的演技成功提名金鸡影后。这部电影的成功也离不开其制作团队的精心打造。在剧本创作方面，编剧发挥了自己的才华，将故事情节编织得扣人心弦。同时，导演也通过独特的视角和拍摄手法，将电影的氛围和情感传递得淋漓尽致。《最后的真相》的成功也表明了国内电影市场的成熟和发展，期待未来能够看到更多优秀的国产电影。\n如果你还没有看过这部电影，强烈建议你去看看。如果你已经看过了，那么你一定会和我一样对这部电影赞不绝口。', '这丁义峰，岂不是把毛卫卫拖进来，还让金喜妹白判无期，马双喜白S了…吗？…因为保险100万也没能拿到，毛卫卫也得不到治疗……', '￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '黄晓明的表演简直太精彩。厉害，这犀利的回答。直接把女律师怼到哑口无言。', '为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '这部电影的剧情和深度还是非常棒的。我建议可以重看一次。从电影的主线剧情来说，这是居于一个律师在不同时期阶段心里的不同层面变化做出的判断与决定。从支线剧情来说，其实是开放式的结局，疑点有很多导演未交代，1.儿子烧伤为什么极度怪罪于母亲。2.受益人为什么要给过命的兄弟，兄弟在其中作为什么角色。3.一百万剩下的40万去了哪（老三只交代偷走了60W）4.儿子的身世之谜……  还有很多待补充 这个案子不是按正常开头到结尾那么一句话概括的（那些说男主有病白忙活的是真没好好分析完电影） 最后的真相并不一定就是最后的真相 主线来说这个案件三次的反转 每次都能作为最后的判决或者真相 那么事实真的如此吗 最后的真相主角也搭进了自己 那么这个真相是真的还是另有其他？为了真相坚持的人是否都在做坚持呢 （个人观点勿喷）', '最后丁义峰和他老师的对话，让我感觉其实是金喜妹和丁义峰用自己做局串供，保下了毛卫卫', '来看黄晓明第一次监制的电影最后的真相，恭喜闫妮姐提名金鸡影后，加油加油', '虽然剧情有点扯，但小明演技好', '这片子是把现场调查的警察视为无物了，漏洞百出', '这逻辑思维也太差了，儿子用烟灰缸砸死了人，警察你居然查不到线索？', '真不知道这案件什么的都这样，要公安，检察院干啥用，都是用律师找线索了', '丁义峰不去翻案辩护， 那当事人顶罪死刑 算不算冤案？ 而公方只想早点结案不去查细节动机，最后辩方案翻了自己也进去了，最后谁是赢家？这样的法律又有什么意义？', '阚清子，你演的是检查官！一副冷漠脸，横眉冷对却两眼空洞无神，哪点像检察官？', '这是今年难得的几部佳片之一，让人深思的问题很多！', '闫妮挺喜欢的，但是，一看见黄晓明就什么兴趣都没有了', '我能说丁一峰这个人设崩塌了吗？前期为了赢，不择手段逼供，后面突然就放弃好不容易获得的胜利，把自己送进监狱。', '甚至看哭了。很多人都在纠结前后逻辑，人性哪儿有逻辑。就像我带着有色眼镜看人，觉得那种地方工作的人都是为了骗钱…………包括电影我爱你，我在思索老了真的挺难的，只有爱人相互陪伴，子女有子女自己的生活。夕阳红的感情生活，需要社会大众的正视。而不是带着有色眼镜。', '这难道不是老马白死了么  保还没骗成还是自己搭理了', '这是一部票房辜负了的好电影。沉下心来看看，有赤诚有真心也有现实的无奈。', '影片最后说句实话，本片经过艺术加工[狗头]，现实中律师遇到了你就知道了', '现实生活中结局只会停留在一审，结局皆大欢喜，哪有为了良知放弃名利陷自己于牢狱之中的律师？', '啥跟啥啊，踩了个大雷，如果不是黄晓明在，都不会点进去看', '真心不错，让我浑身鸡皮疙瘩掉一地，人性展示的淋漓尽致', '怎么这个女配角又是律师啊，跟佟丽娅那个家暴的也是她拍的', '好想看，会员过期了', '真心和坚持最终会把我们引去该去的地方', '我快哭死了，莫名的我的悲伤无限大', '啥都没说清楚，老头白死了，浪费我两个小时😏😏', '真实社会坏人排行榜:第一:律师，第二:医生，第三:老师，第四:村干部，第五:黑社会...[欢颜-泪目]', '这个剧外行人可能看不太明白，我作为律师解读一下。真凶就是闫妮，最后无期或者死刑，她儿子故意伤害，判了3年，黄晓明扮演的律师是亦正亦邪的，如果没有闫妮对他的最后一次谈话，他也不可能说出自己诱导闫妮的事实，这种行为作为律师也是犯罪的，是要被吊销律师证的。黄小明一开始强行做无罪辩护，说闫妮是被强奸的，也是为了自己能翻身，能出名，毕竟他很多年没办案，也没啥钱了，他这个时候的行为就是要赢，不是为了什么正义，良知，最后闫妮找他倾诉，他被感动了，选择了良知，在庭上才说出了自己诱导闫妮的事实，也把自己献祭了。电影立意还是比较正能量的，但是现实基本上不会有律师会说出自己诱导、逼供的行为事实，因为这样就把自己毁了。现实中的律师，绝大部分都是那个律所主任，法律援助案子走走过程就好了，极少部分是黄晓明，把白的搞成黑的，当然也说明其自身的业务水平牛逼。', '老马白死，金喜妹无期，毛卫卫三年，骗保的钱也不合法，竹篮打水一场空。到底谁对谁错，反正这个律师没对', '真心不错', '最后一次反转为反转而反转。有这样的律师吗？打着官司最后把自己送进去了。者的喝多少假酒能干出这事来。', '双数今年过年就回家', '老头是儿子杀的，最后的反转是因为检方已经发现骗保和儿子是凶手，丁律师之所以最后出来作假证，是为了保儿子故意伤害罪判三年，如果儿子死罪母亲无罪的话，母亲出去也是自杀。检方最后没有继续对丁律师质问，是看懂了丁律师的操作。这个片子不是普法片，最后还是拍成个悬疑片了。', '刚开始为了利益，逼迫被告说强奸，除了老头名誉受损其余的三赢的局面，律师收获了事业，儿子收获了金钱，女的无罪释放。结果为了一个律师突然无厘头的正义感，半途强行扭转局面，结果全输，老头没了保险也没了，女的无期徒刑，儿子三年有期徒刑还没了治病的保险金，律师丢了职业进去了。什么玩意，在这种权衡利弊的情况下，正常人根本不会为了这所谓的正义和真相，去牺牲这一切。', '快撑不下去了什么时候才能是个 头欠了一屁股债', '经过小明哥的操作，不仅葬送了自己，还把两个人送了进去，还把保费搞没了，牛逼[亲]', '说真的这个检察官确实不符合现实。入罪思想严重！', '看了十分钟那个女的让我烦没看了', '演员们的演技很好', '这部电影反封律师，公诉，保险公司！😅😅😅😅', '￼看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。', '好的律师都在影视作品里  现实中的律师真的是只知道狮子大开口 要完钱 收完钱对他来说就没事了 真的是没有一点职业道德[打卡-打]', '躺在医院看呢', '前面的情节挺吸引人，但有的坑没埋，老马和金喜妹为了给毛卫卫治病而骗保，体现出父母对孩子伟大的爱，老年时期的爱情，后面保险的受益人写了刘，又是为什么，他是不是知道其中的事，毛卫卫因为别人对他异样的看待，使心理发生扭曲，但又因为什么事情，让毛卫卫说出这是金喜妹欠他的并没有体现出来，后面丁律因为自己的“良知”而在法庭上作证人证明老马是金喜妹杀的而毛卫卫只是故意伤害，结局就是毛卫卫因为烧伤皮肤癌要死了而且也被判了刑，金喜妹故意杀人和骗保被判刑，丁主角因为诱供被判刑，所以最后全都进监狱了？？？而且丁主角的母亲怎么办，他自己当时因为要赢所以诱供违背了良知，后面又因为一些事情想起了自己的良心，然后把所有人都送进去了，要是为了突出“良知”这个主题，这剧情就有点尬了吧。。。', '再也看不到涂门老师的作品了！[破防][破防][破防][破防]', '烟灰缸上就没指纹吗？现场就没找到第三人在场的证据吗？', '我觉得好看，哭了，我看到的是夕阳红的真心，母爱的伟大，底层老百姓的无奈，只能以命换命。', '嗯……一言难尽……', '很愚蠢的结果，所得来的真相没有任何一个人获得好处，睁一只眼闭一只眼大家各得其所不好吗？', '这种电影适合在韩国拍']</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 变形金刚：超能勇士崛起 </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>VIP · 10440热度</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>《变形金刚：超能勇士崛起》“双擎会战”片段,电影简介:故事重返上世纪90年代，终极反派宇宙大帝从天而降，驱使以天灾为首的恐惧兽掀起地球危机。绝境之中，蛰伏许久的巨无霸终觉醒，联合汽车人变形出发，一场前所未有的决战即将上演。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.6分</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['大家要去投诉了，钱虽说不多，但不能当我们是傻子吧。', '能不能退钱我看了一半，退我2块行不行', '黑人怎么了？黑人就不配拍电影吗？不要种族歧视好不好', '才买的又要我买', '额，感觉柱子没有以前高了，没有以前帅了，没有以前霸气了', '已经看完了，感觉还不错，不知道这个手机版的什么时候上线？', '地球都快毁灭了，居然就两人参与阻止，不知道以为地球没人了，真6', '擦，白花4.8元，不要买', '感觉很幼稚又是拯救世界', '什么玩意，我想知道', '是不是没有经费了 剧情巨差没以前版本好看[微笑]', '我个人觉得，1到5部，是一个编剧，怎么到这一部？汽车人瘦了一圈，怎么感觉像看了个半成品，总体的话，得看个人，看了才知道，好不好看，我个人觉得观看性不是很大，但是能看，希望下一部汽车人不要再瘦一圈了', '大黄峰 ，幻影，对擎天柱说：我是你相识最久的朋友，为了你我可以献出我的生命。', '￼擎天柱变样子了？.？ 感觉没有以前好看霸气呢？？', '啊啊，超级喜欢看的变形金刚又来了，超级爱的，期待', '新瓶装旧酒，还借鉴钢铁侠[狗头][狗头][狗头]', '离谱，花4.8买了，看了半个小时左右，因为有事退出了一下，结果等我回来再点开的时候又要购买。这真的很离谱[意难平][意难平][意难平][意难平][意难平][意难平][擦汗][擦汗][擦汗][擦汗][委屈][委屈][委屈][委屈][委屈][委屈]', '擎天柱【他们】不会自己画自己！不喜欢建模，麻烦去喷美国的建模师！别说角色丑了！电影不等于≠2013剧场版《领袖之证》是独立世界观的！没有可比性！', '今天看完了，感觉剧情有点不太对劲呢，变5的时候宇宙大帝已经快苏醒了，而地球就是宇宙大帝幻化的，怎么又从别的地方传送过来个宇宙大帝呢……再说变1抢火种时候也没见猛兽侠来帮忙啊，变6是要烂尾了吗？', '能不能告诉我到底好不好看，变形金刚爱好者啊！看见评论都说不行，我到底要不要花五块钱[准时][准时]', '幻影 喜欢吗', '花了钱还看不了？还要收费什么意思？？？？？', '我在一个里面看完了！[富翁][富翁][狗头][狗头]', '没有第6季吗', '能不能还我那5块钱[柠檬精]', '购买完看不了，白瞎了我4.8元', '[富翁]这片子真不错，值得观看。就是时间只有6分钟，短了点。下回走点心，拍长点[金币][准时][吃瓜N][N刷][放大镜][蹲][打卡-打][打卡-卡][签到-签][签到-到][上头-上][上头-头][再见][抱抱][爱你][6周年][6周年][6周年][超越][超越][超越]￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼', '怎么购买了还看不了怎么回事', '4.8块，我要饿4天半才能省回来…呜呜', '我前几天买过了，为钱今天看不了了，又要重新买😭', '猩猩队长不会变身差评', '预约打卡☺️٩(ˊωˋ*)و，腾讯视频，变形金刚电影🎬🎬🎬(ง•̀_•́)ง，回归了，明日就可以看了。预告片。快点过来看，超级好看的。 动物机甲，外星科技。外国的还是中国的，都是很好看，完美。', '买了看不了  大家别买了', '已经购买了为什么看不了', '8 月上映', '都看了几十分钟勋章任务一动不动，真差劲👎🏻', '神雕侠侣之美国分雕', '还是原来的擎天柱帅，不许反驳', '这和之前的变形金刚有什么关联吗？', '临沧老乡有没有', '这不是大猩猩吗！😱', '导演用心良苦，为了他的黑人主人，贴心的添加了黑人男女主，大胆创新，以前那些美女观众都看腻了，丑男黑女才是现在的主流，男主演技在线，女主颜值在线，队友浴血奋战，男主哭哭啼啼，演技没有天灾的宠物好，女主除了长得让人作呕，别的没毛病，比男主有用一亿倍。', '吐槽一下，感觉有些时候看着很变扭。', '慢慢来，熬到你免费[吃瓜N]', '[上头-头][上头-上][加更-加][喜][大哭][大哭][KSWLA][PTSD][AWSL][SOSA][YYDSA][互粉][签到-到][赞N][庆祝N][蛋糕][钱]不太好吧🤷', 'k\u2006k\u2006b\u2006m）\u2006b\u2006b\u2006n\u2006n', '汽车人代表的是美国一群盟友实际上是打着正义的旗号却干着破坏秩序打家劫舍的勾当', '我是v几啊', '不是很认可这一部', '每一部变形金刚都看唯独这部拍得抽象', '幸亏大黄蜂复活了要是他死了这辈子不会看变形金刚了0.o[无羡]', '哈哈哈。10月7十点。我发现了。我不用付钱了', '太精彩了，擎天柱', '老好看了可以可以', '刺激，想加入战斗', '这男的你们怎么看', '贺秋，我想你了', '有恐龙吗😅️', '童年最喜欢的黄豹勇士居然没几个镜头', '精彩内容过少，片景插叙过多', '变形金刚系列，最丑女主', '剧情没以前用心了，还得是迈克尔贝导演的片子看着好看', '收了钱补给看，只有老马做的出来！', '在电影院看过了，还是感觉在电影院看得近', '搞不懂，这算不算变形金刚系列续集，时间线混乱，宇宙大帝又不是地球了，1994年算是变形金刚系列前传？作为爆米花电影总要跟主线贯通吧，完全是一部独立的作品，还加入了主线角色，超能勇士的剧情还没了霸王龙就很迷，看过动漫的没看过动漫的都得懵', '吓我一大跳', '那。bm', '太牛了吧！', '那个黑暗大帝手下保管好一半钥匙然后大帝直接降临地球把地球吞了不就拿到另外一半钥匙了吗？', '回顾哼哼唧唧几', '善恶一体，无法消灭彼此。只有认识到造物的要义，阴阳合一才是永恒之道。', '会员免费香得勒\n[富翁]', '来了来了', '充六块会员不叫看', '这电影顺序是啥呀', '好看吗这个', '非常一般，完全没有前几部得劲', '大黄蜂已经死了', 'Want to go to that?', '变形金刚版米莱狄', '腾讯视频出品，变形金刚，超能勇土崛起(•̀ᴗ•́)و̑，第7部❤️😭超强强烈支持。[签到-签][签到-到][狗头][打call了][西出玉门-超A][666啊][666啊]', '心疼流量', '看到评论很多在吐槽的，没有了期待。但是看完没感觉很差啊，毕竟都那么多部了，一开始看到的新鲜感和感官冲击和现在是没办法比较的。还是很喜欢，我带着娃把七部还是八部，反正都看了，希望一直有下一部🤭男孩子很喜欢看的', '乘迷、出一乊网1。华迷', '最丑男女主', '黑命贵吗？看这两个老黑演技真尴尬', '太牛了吧', '后面都这么危险了，还在打感情牌，还在打个人英雄主义，真牛啊。', '每次出场都这些', '不是啊，擎天柱怎么没有以前霸气了？']</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 汪汪队立大功大电影 </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VIP · 10282热度</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>《汪汪队立大功大电影》汪汪队全员蹦迪，这个冬天“嗨”起来！,电影简介:汪汪队出发救援！邪恶的韩丁那成为了冒险湾的市长，并且准备对这座城市进行大肆破坏。小男孩莱德和他英勇的汪汪队小狗们必须打起十二分精神，准备迎接全新的挑战。与此同时，小狗阿奇不得不面对他在冒险湾复杂的过去。好在这时团队迎来了新的盟友，聪明的腊肠犬贝贝。带着升级的武器和装备，汪汪队已经准备好随时为拯救冒险湾的居民们而战！</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['狗狗们也太可爱了！[打call了]', '除了字音以外，汪汪队，是好看的，一部值得推荐', '汪汪队离大谱', '啊啊啊啊真特么可爱', '先踩一下，熬到免费', '这种电影对于高中生来说可能有点幼稚，但是对我们大学生来说刚刚好', '小孩喜欢看', '28看这个正常嘛', '丶，在干什么呀？', '天天都是我的错了。吗你', '最喜欢啦。', '哈哈哈哈哈这套衣服真的太忙了？！哈哈哈哈哈哈哈哈😂？哈哈哈😆？', '想知道天天当时在想啥😂', '每个画面都非常惊艳，非常好漂亮', '噜啦啦噜啦啦金海湖u：', '也？▽不白问', '是汪汪队立大功，加了个光影吧。', '我六岁都', '这一个电影一开头融入了多少动画片啊。？', '我27看这个幼稚不', '汪汪队立大功大电... 03:45还是那6只狗狗。不过有点不同', '对了你们的聊天记录了，，，，，', '画质好了，头发都快没了[破防][破防][破防][笑哭N]', '咯👂她她物业物业', '                                       请问他们 是怎么从大楼里出来的  ', '英雄不是无所畏惧，而是即使害怕也能克服并勇往直前', '我好无语啊', '而且你要加油呀', '笑死我了哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', 'k科技节', '总结一下，汪汪队这些年来的成员：狗狗成员应该有阿奇，小砾，路马，天天，毛毛，珠珠，小克，灰灰，贝贝，还有一个猫咪成员：野猫。【本人总结出来的如有遗漏，可以评论告诉我】', '精灵太美了', '他们的级别高不高级？嗯，我感觉有点高级', '咋下来呢？', '晚安！槟榔大队。', '汪汪队立大功大电.汪汪队长', '莱德看着没成年 但是他已经成年了 只是身高定格了', '看我空間啊', '汪汪队拯救城市', '我也喜欢听普通话的。', '我的生活居然连狗都不如 狗都开超跑', '很好很科幻', '反正我觉得挺好看的，就是不太喜欢贝贝当上汪汪队队员，嗯嘛嘛，不过当上就好好待着冒险城帮助人们吧', ' B你好啊', '阿奇的吃车里还有电动车', '你却定是烟花不是炸弹', '我也7岁', '好喜欢看汪汪队呀，我都成年了还看', '谁懂，阿奇小时候，天天小时候还有毛毛都好可爱！！！！', '不会就我觉得毛毛好可爱吧？', '旺旺队，旺旺队，我们都是土匪，左手拿着ak，右手拿着嘞白泉，去超市抢劫，晚上就做贼。', '阿奇不配做队长', 't⊙ω⊙⊙ω⊙⊙ω⊙', '阿奇好勇敢', '来看看哭好几回', '我的长的路龙监控看到第一家朴三秦', '不对了我自己可以去', '我们自己可以去看看这个电影', '今天上午去的地方太远了？', '🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗', '我一直以为这动画是中国做的', '阿奇，怎么这样子啦？', '就5了5了5了', '微信 谷歌汪汪队 ？？？？ ？丿', '我在这个地方是天天说我有一个破家之后，他他看到雷子给给别人送东西，他天天就跟着来就来得，这次发现了。', '你们谁有会员', '一长一短全如1⃣️他', '#薛皓文#cv76*gghhuipllkkkyyddqqscttyiijhyttrwqqqaaaa❤️❤️❤️❤️😄😄😄🤣😇😍😍🥸🤪🤪😭😭😭😒😒💁', '不知道为什么', '勒沃库森看电视', '❤️ (  ⚫︎ー⚫︎  ) balalala~\n\u3000／\u3000\u3000\u3000   ＼\n  /\u3000\u3000\u3000  ○  \u3000\\\n/\u3000 /  \u3000\u3000    ヽ   \\大白\n|\u3000/\u3000 \u3000\u3000\u3000  \\\u3000|\n \\Ԏ\u3000\u3000\u3000\u3000     Ԏ/\n\u3000卜−\u3000\u3000   ―イ\n\u3000  \\\u3000\u3000/\\\u3000   /\n\u3000\u3000 ︶\u3000   ︶为你加油！！！！！！\n\u3000☆  *\u3000.  \u3000☆\n\u3000\u3000. ∧＿∧\u3000∩\u3000* ☆\n*  ☆ ( ・∀・)/ .\n\u3000.  ⊂\u3000\u3000 ノ* ☆\n☆ * (つ ノ  .☆\n\u3000\u3000 (ノ♪ 加油加油! ♪\nミ ゛ミ ∧＿∧ ミ゛ミ\nミ ミ ( ・∀・ )ミ゛ミ\n゛゛ ＼\u3000\u3000\u3000／゛゛\n\u3000\u3000 \u3000i⌒ヽ ｜\n\u3000\u3000 \u3000 (＿) ノ\n\u3000\u3000\u3000\u3000\u3000 ∪老\n\u3000板\n\u3000\u3000说\n\u3000\u3000\u3000今\n\u3000\u3000\u3000\u3000天\n\u3000\u3000\u3000\u3000\u3000放\n\u3000\u3000\u3000\u3000\u3000 假\n\u3000\u3000\u3000     ！\n\u3000ヽ＼\u3000 /／\n\u3000 \u3000 ∧∧\u3000｡\n\u3000 ﾟ (ﾟ∀ﾟ)っ ﾟ\n\u3000\u3000\u3000(っﾉ\n\u3000 \u3000\u3000`Ｊ✨  ︵ \n("\\(●-●)\n \\ /     0\\ \\\n  (          )"\n  \\__T__/∴＾小狗狗真棒，我爱你', '看到最后我哭了[意难平][意难平][大哭][大哭][大哭]', '李冰冰后悔h', '我我马上结束开始思考', '这有点不科学 那个那一集的时候不是不能摸 我不用玩 为什么他摸了 ？', '哈克萨斯孔雀舞', '对了，你了吗？？', '那时候才把汪汪队一大功之超能冒险也完全上市', '剧情很不错。值得推荐', '果然像马桶刷，哈哈哈', '我看这个合适吗？9岁', '玫瑰花香和我的每生一个都一样是一个配吗？这一头乌龟怎么能知道中的。 是站在广德', '他是怎么跳过去的', '刚刚太好看了', '这个是是想市长', '好像是小黄人\n这个电话很好看的呢', '♥加油 加油 阿奇 阿奇 阿奇', '总部太小了 整大点不行啊', '凤凰男火锅会难过染发', '13455677900']</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 碟中谍7：致命清算（上） </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VIP · 10349热度</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>《碟中谍7：致命清算（上）》“生死时速”特辑震撼来袭，阿汤哥真人实拍上演街头单手飙车,电影简介:《碟中谍7》是《碟中谍》系列的第七部，是由克里斯托夫·迈考利执导，汤姆·克鲁斯主演的动作电影，将于2021年11月19日在北美上映。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['从第一部追到第七部的举个手，看看有多少人👀', '最喜欢白寡妇，她活肯定很好！', '天呐还有下集😮\u200d💨', '感觉女主一直在找死，男主应该第一时间弄死她，后边也没那么多事了', '阿汤哥骑摩托车跳悬崖那段，据说没用替身，自己练习了很久，太拼了！', '没有杰瑞米班纳了吗？有一点点失望', '你们不觉得两部电影之间有某种联系吗[放大镜]哈哈哈哈哈', '终于等到了 ', '太精彩，太刺激了', '这是世界强国？但是不包括中国？', '最惊艳的是第四部 炸克林姆林宫，爬迪拜塔', '007退休了 碟中谍还能爬', '阿汤哥就是美国🇺🇸的成龙！！！👍👍👍', '四块八值不值？伙伴们', '不论情节如何，这种毅力先赞一个', '第一部1996年      第二部2000年      第三部2006年      \n     第四部2012年      第五部2015年      第六部2018年      第七部2021年', '速激10也是在罗马。你们两波人没有联谊一下子啊。😂', '超级喜欢这个女反派，上一部就喜欢她，感觉很适合这个角色。', '如果是我们中国小鲜肉，除了老演员 有哪个小鲜肉敢这样子？真实的在行驶中的火车顶上拍摄', '碟中谍7什么时候放上网', '最喜欢的国外男演员没有之一！', '估计最后一部了吧', '烫老59岁了啊还那么牛逼', '听说要上太空', '2023年才上映，耐心等待', '比凯奇 厉害多了。一直在坚持拍，加油', '什么时候上演我只关心这个', '丽贝卡佛格森是不是在这一季要牺牲了？', '最终大老板总会变坏，第一部菲利普如实，第七部前局长如实', '这配音，一言难尽', '太落后了。连个配钥匙的都没有', '这一次看为啥觉得男主角这么蠢呢？Grace坏了这么多事还差点杀了他，竟然还护着Grace，早点搞死后面就不会这么多事了…', '用不着那么费事，去58同城找个开锁师傅，给他照片就能配出来。', '为什么国外的能拍到1234567，国内的不行啊，', '这部电影，让我睡着了两次。碟中谍系列，到此为止吧', '什么情况？简介上写的北美上映时间是2021年11月上映？是简介错误还是引进错误？不可能倒时差要倒这么长时间吧？有人可以解惑吗？', '应该是在皮卡多', '沐蕾之声[666啊]', '近年难得能看进去的美国大片', '换个杨幂上去', '偷钥匙的那个女的真想打死她', '都21世纪了，美国脑子里装的还是殖民主义奴化思想', '大战人工智能，选题一流，过程精彩，但结果显然让人失望。', '只是要是汤姆哥的电影，不管多少钱，我都会充会员看的', '潜艇沉了还有电吗！不切实际。', '配一把钥匙这么难么，十来块钱就搞定了吧，还需要飞机大炮？[笑死我了]', '这种子才好看刺激，还是国外大片精彩刺激，中国始终拍不出这种效果。', '下部那里能看', '故事不严谨', '就讲了一个道理，不能随便相信女人', '三颗星给阿汤哥60多岁拍片。\n另，想了解其他观众的观影感受，与其看评论，不如打开弹幕，前前后后翻翻来的真切。\n7的想象力不足，逻辑性太差。抑或是由于想象力不足，导致本想无脑看爽片的我，无法沉浸看片，不由自主的开始思考剧情。\n全片全三分之一尚可，智体前段也算有高光，后续智体挂机，只剩下了追抢钥匙的环节。\n具体槽点较多，不一一列举了。\n另，对于弹幕中诸如“要求这么多，去看国产片啊”之类的言论，太过幼稚，过去好莱坞受欢迎来源于其高质量，在电影行业绝对的统治力。现今需要拿这两者比较，只能说明你自己也知道好莱坞已经不复当年了。', '我是不是成功熬到了它免费？', '碟中谍系列忠实粉丝，真的太精彩，更佩服的是，拍了这么多部真的看到一部比一部科技感增多，格局更大，更“不可能完成”，还有阿汤哥不管是年轻还是现在都是努力型演员，有天赋有颜值更难得的是还这么努力，很多特技都是自己上，演技不敷衍。天呐看完7上真的感慨，故事一直有，在1～7虽然有的情节觉得太过夸张，有的任务要是真能完成那就是天人的神力相助，但是不变的还是合情合理的惊险刺激、让人惊叹的尖端科技和不得不佩服的每个角色的人格魅力和个人实力。碟中谍系列真的太精彩啦！！', '一意孤行最可怕', '这么精彩的电影！怎么能放过观看呢？太帅了！', '感觉跟第六部比起来 有点差强人意啊', '怜香惜玉得过份了，害死了自己的同伴', '这咋没见人说开车不系安全带', '真的刺激，这才是动作大片，国产电影得学', '美国大片', '美国才是全球最大的恐怖分子，在电影上总把自己说得正义', '值得观看！值得期待下一部！', '看普通话版本会不会被嘲笑😝', '以前看电影看到这些觉得是科幻，现在已经不再是科幻电影，感觉就是未来，人工智能已经不是机器，以后真会经历这些风险', '傻女为什么跑，不能理解', '看过就忘，但每次看都很过瘾', '居然有田口的😀😀😀', '特工开纯电宝马！过分了啊！！', '4.5贷款以还清！', '这些警察都不拔钥匙啊', '没一点新意', '终于熬到免费了', '要我给钱才能看门都没有', '老外的行李箱都没密码啊，直接拉链一拉就开啦', '就是原声的才舒服  虽要看字幕  国语版太那个了', '这部是不是潜在里刚好在说AI智能和人类的关系呢？A及运用的好对人类有好处，要是让他们自己成为超控自己的，反而很可怕，离得的AI各个国家又都想要，成为自己称霸的工具，但是AI智能会这么容易被控制的吗？', '我是VIP', '碟中谍8：致命清算下 估计要2026年才上映去了', '女主很漂亮[狗头]', '会员在这里看的话也还可以。去电影就更有视觉咯，剧情一般', '人工智能终将吞噬一切，现在的大数据只不过是暂时可控的而已。', '★★★★★\n阿汤哥的碟中谍真是太经典了，每部都是佳作，百看不厌。', '还好有普通话，这钱花的值', '很好看 美剧看起来还是一如既往的有感觉', '美国佬的思维。。。已经是最影响观影体验的因素了。', '小偷女存在的意义何在', '有四川的不', '阿汤哥已经打不动了，好莱坞的套路一模一样看得遥遥欲睡。', '蹲个聊天搭子有没有', '看完才发现有普通话的[大哭]']</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 匍匐求生 </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VIP · 10251热度</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>生猛悍匪入室打劫，痛下毒手狂殴爆头,电影简介:一名男子在一间小屋里目睹了一起残忍的谋杀案后，躲在狭小的空间里，而凶手则在屋内搜寻隐藏的财富。当凶手越来越近时，他必须决定这个狭小空间是他的坟墓还是他为生存而战的战场。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['铜仁的小伙伴有没有[666啊]', '成都的举手🙋🏻\u200d♀️', '但是，可但是，地板是不是能撬开[吃瓜N]', '女主得劲', '这剧情紧凑  真可以呢！[一起冲]', '以钱开头以钱结尾', '松柏欲盖弥彰', '遂宁的小伙伴有没有', '剧情单调，低智商犯罪，像小孩子玩家家', '兰州的举手🙋', '宁夏的有没有', '出来聊天了', '有没有人在？', '英语34:30好不好看啊', '喜剧吧哈哈哈', '悬疑题材不错', '现在没什么好看的电影', '跟喜剧片似得哈哈哈', '恐怖片的主题是不是都一样 就一个字 黑 黑灯瞎火好办事', '人很少哦，留个足迹\n', '一个房子一部电影', '不错，不好看', '有点像《战栗空间》', '来了来了。', '蛮好看的', '有电脑没有手机？继续往下编。', '这得仔细看，不能跳着看😂😂', '不知道好看不', '正片开始', '真心不错，就是不好', '留个脚印👣', '居然是恐怖电影对我的口味大晚上看[吃瓜N]', '山东省临沂市兰山区来报到', '是这样查税务的？再继续往下编。', '广西 站位', '我是第7[柠檬精]', '别浪费时间了', '人在广东漂泊十年的🙋[金币]', '美国光头强砍树剧情', '卡丽漂亮', '不错 不好看', '？怎么没人', '不错  挺好看[富翁]', '人这么少']</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 劫数难逃 </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VIP · 10166热度</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>《劫数难逃》主创演员：张继聪采访,电影简介:本片讲述的是在1995年，香港商人孙逸臣出差时蒙冤入狱，在鱼龙混杂的异国监狱中挣扎求生的故事。</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.3分</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>犯罪</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['监狱里面不是应该非常严密吗？这样都能计划逃出去', '现在电影越来越长，怎么这90分钟都不到，是审核删减还是。。。。', '逸臣这是有多么幸运，才会遇到一个有良知的狱警啊', '2023年拍的大电影了，有多少人看过，帮忙点个赞，谢谢，一共是1小时多分钟', '看了这部剧百感交集，这是我第一次评论电影，本科退学后送外卖的我如同电影里的主人公，只有真正经历过这种落差才能体会那是一种怎么样的感觉，什么样的生活。\n看完后我得到了鼓励，参加成人高考，看着很遥远的目标，但是正如剧中说的一样，不努力尝试怎么知道不行，坚持不懈肯定会成功，与君共勉！', '有点像肖申克的救赎', '所以，跑了又主动自首。太正能量了吧，比肖申克的救赎更🐂🍺', '这个故事告诉我们一个道理，那就是会一门手艺，走遍天下都不怕', '电影：男主被冤枉进监狱，后面为自己上诉不成功，便和其他人越狱，途中有人越狱被狱长枪毙死了，有一个投降，另一个男主出狱成功，之后有一个看管犯人的狱警被开除了，做起了律师，男主角找那个狱警打官司，光明正大的无罪释放了', '最后环节，逸臣在水牢里装扮好直接出去了，怎么能见到五仔告诉逸臣司徒的钱在那这个事', '那个典狱长真的是太坏了光看他的面相就不是啥好人', '原来监狱中，烟才是硬通货，看来下次我进去的时候，要多准备点了', '这导演拍的  死者下体的污责没有DNA比对吗  就叛无期', '就是说被逸臣的智商给折服，看看这周密的计划就是万无一失', '五仔肯定是个销冠，就这商业头脑不得不服啊哪里都能赚钱', '记得当初因为停车位我一打三，最后的结果就是被关一晚上！这还不是看守所，只是被关派出所！里面关的啥样的人都有，奉劝各位千万不要违法犯罪，老实本分做人', '监狱中就是一个魔窟啊，我们可千万别犯事，不然进去绝对脱层皮', '最喜欢的就是这胖子了，这家伙这么多年了还一直这么胖', '这样恐怖的地方能够待下来大家的毅力也是有点强了', '肖克的救赎盗版', '刚从莫斯科过来的有没有', '翻拍肖申克的救赎？', '还是这部好看😊', '一个女人，真的熬不住了，说得好啊', '我感觉这部电影给了我别的电影所没有给我的那种感受反正我觉得很好看', '本来坐四年，结果还多坐一年零一个月🤔', '吾拍抖音晒游艇，来拍戏啊', '照抄肖申克救赎没啥意思[我裂开了][我裂开了][我裂开了]', '中国版肖克申？', '如果不是自己越狱找线索呢？', '很多人聊监狱聊狱警，其实现在的监狱居住环境比很多老的大学都好，伙食超过我们县城90%的家庭，警察也很好', '三年的会员，没试过被赞的感觉', '￼最触动我的就是明明无罪却会因为越狱加刑，这个我年轻几岁一定看不懂，可我现在真的是懂了，没有犯罪却因为越狱而加刑，没有犯罪却在牢里待了五年多，没有犯罪……莫须有，然而这就是法律，这就是现实……', '有点高开低走的感觉 后面最后莫名其妙 有些太梦幻了', '劫数难逃（普通话... 17:36杀人，死了', '我爱小锤', '整体来说可以的，主角是个文化人也是个技术人', '什么玩意', '好电影，愿天下少一些特权！', '对这肖申克跟速度与激情抄', '8.3不知道怎么来的，，，，，', '中国版《肖申克的救赎》', '很好看真的是高知越狱', '大淮南顶上去', '没头没尾', '這些電影全部都是香港人，拍的好算是好不過不是在香港拍攝的，開始到結束有沒有見到一個港牌車輛？（呢啲戏全部都系香港人，拍好算系好，不过唔系喺香港摄影嘅，开始到尾有冇见到一个港牌车？）', '这不是日本男演员吗，多少男人的目标。', '我没看懂什么意思', '最终成功越狱的竟然是逸臣，厉害了！', '非常一般', '看完这个电影只能说社会太黑暗人心太险恶，法律只是约束弱者，即使你正义了，也是迟到的公平', '周润发之后再无风云', '逻辑性太差了，光天化日宾馆破门犯案，动静这么大整层楼应该都惊动了，得在当日有多大力量才敢这么干，有这能量的人还能让宾馆留下监控视频？两个人搞那么大在现场不可能一点痕迹不留，能让警方无视证据直接判你入狱，现在就一个门口监控就能翻案了？胡警官品性跟监狱其他所有人都格格不入，靠什么呆下去还能职级比别人高的。孙逸臣越狱，五仔被卖了一次，不让老婆直接去拿钱，还一定要转告给孙逸臣，他老婆靠什么去找人。全剧貌似把精力和脑筋都用在孙逸臣的越狱方式上，其它地方的逻辑漏洞多到吐不过来', '天下万物生於有，有生於无', '兄弟听哥一句，这孩子不像你啊[意难平]', '请问扎多尔共和国在哪个洲？我在地图找半天没看到，难道是火星的？你这是科幻片？胡说八道的地名你发明的？', '睢县廖提路过', '我还以为会有些创新了  剧情照搬肖生克的救赎', '哈哈，这就是法律，白白关了五年多', '自己闭翳就想兄弟富贵啊嘛', '好好好，求老婆掉个监控这么难肯定要自己越出去掉是吧', '唯一一点，孙越狱，从哪里收到老五钱的位置信息？ 其他觉得还挺港剧的，好看', '全篇有一半情节抄袭肖申克的救赎[抠鼻][抠鼻][抠鼻]', '自己逃出去的  真可以[666啊]', '什么鬼东西', '逃狱判7年，自首减三年\n\n这个男主本身就出去给自己上诉，本来就是抓错了\n\n这个介绍真是看不懂', '还可以剧情不啰嗦', '这结尾结束的太简洁了', '有点肖申克的救赎的样子', '山西高平报道', '还是被关了五年多，多冤枉啊，其次，开头那两个杀人的原因也没有说明，这点也算是败笔', '监狱长司徒浩南啊很厉害的', '国产电影能到这个水平也算上了一个档次', '拍的非常着急感觉，', '一年人等心也等，两年心等人不等，三年人不等心不等，拜拜啦', '国产肖申克的救赎🖕🏻', '模仿肖申克的救赎就是不知道能不能模仿成功', '中国版肖恩克的救赎吗', '在里面呆两年，不是人在的地带，所以说干什么也不要犯罪', '这是越狱和肖申克的救赎联合版', '没有丝毫逻辑可言，就是为过审而拍', '这个不就像那个肖申克的救赎吗？', '怎么还吵电影啊.完全抄肖申克的救赎的啊', '这个电影导的太到位了，真的就像这个视频里面的一段录像，化粪池烂的像屎似的', '香港版肖申克的救赎', '他老婆连去酒店调个监控都不愿帮他办', '广电可不会让你逃出去', '什么钱这么难洗啊', '这狱警不错，你带他去一路向西吧', '没觉得哪里好看了，只是让我看懂了一个道理：好好读书，利用科技犯罪别人是抓不住滴[富翁]']</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 撞邪 </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VIP · 10277热度</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>《撞邪》终极预告刺激发布：《中邪》姐妹篇来袭，张智尧李倩老宅入邪，11月25日腾讯视频全网首播！,电影简介:本片发生在民国年间，影片讲述了警察赵仁在调查无头女尸案的过程中，接连遭遇了如镜中人、凶灵附身、邪神祭拜等灵异事件。不信鬼神的赵仁决心要查出背后的真相，然而，随着命案调查的深入，案件背后越来越多惊悚离奇的细节浮出水面。</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.6分</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>恐怖</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['不用看了，国产恐怖片最后都是精神病的幻觉。国家规定建国以后动物都不能成精何来的鬼怪', '自建国以来，我国不允许成精， 结局都不用猜了，不是精神病就是迷幻药[吃瓜N][吃瓜N]', '推荐大家看这个电影', '在中国这个环境下，拍出这种片子已经不错了，能在片尾反转比一般的新颖多了', '摄像大哥都隔这站着呢\n😏', '窗户开了[狗头][狗头]', '哪里可怕了..有啥好怕', '很久没看到这么给力的恐怖片，虽然难逃国产恐怖片的结局，但是明显感觉导演用心了[打call了]', '我发现很多人没有看懂电影，可能平常很少看悬疑片，我给大家简单解析一下。首先电影的故事整个是警长赵仁，也就是穆元的回忆加想象中进行的（昏迷中）。回忆的部分，也就是真实发生的部分是，警长赵仁3年前和青儿两人青梅竹马，且结婚生子，有了女儿小梦。他在警局用现在话来说就是个打酱油的，剧里说是打扫卫生。但由于贪慕权贵，加上穆府的大小姐穆芳爱慕赵仁，便雇凶刘勇害死了青儿，（刘勇在杀害青儿后再没有出现，后来的刘勇其实是他自己，后边我会解释）。改名穆元入赘穆家，想凭借穆家的势力上位，但没有成功，这也是后来家暴穆芳的原因。由于穆芳后来知道了他害死了青儿，便逼疯了穆芳，后又利用职务之便害死了穆芳，其实根本不是穆芳和他合谋的。在调查穆芳案件的时候他又杀害他的同事，也就是说，刘勇才是他真实的自己，这也是为什么后来刘勇一定要作法给青儿还头，他只是给自己赎罪。其实他就没有当上警长，那只不过是他回忆中美化自己的想象，在他的想象中青儿还活着，一家三口和睦幸福，就是警长夫人阿蓉。阿蓉就是青儿，青儿就是阿蓉。在想象中女儿不能说话是病，事实上女儿是因为他入赘穆家你不愿和他说话，他女儿当时应该是不知道真相的。神仙草和邪煞只不过是他逃避现实而编造出来的。电影开头的部分也算是他想象（编造）的，只是为了减少他的负罪感。后来终于承受不住压力一病不起，昏迷了。', '我建议大家调一下胆小模式哈哈哈哈哈哈', '报看，最后就是那个警长的一场梦。我真的服，跟中邪哪有可比性啊？这噱头也打的太冠冕堂皇了。', '我的天，你给别人缝制头就不能选个好看的嘛，你这头别个鬼当然看不上呀。', '讲点中肯的评价吧，首先呢在国产恐怖片的大前提下，受限于过审条件，肯定不能怪力乱神的，最后结局写成这样也没有办法。看到有人评价是虎头蛇尾，我是认可的，开头真的非常精彩，一切都渲染得很到位，起的太高了，后续水平跟不上就有点虎头蛇尾了。剧情上呢更是有点定位不清晰，最初呢是恐怖片，然后在引出这些邪煞其实是有人利用神仙草制造幻觉杀人后剧情已经向悬疑推理上发展了，那之后就是一个盘逻辑的过程，观众的思绪都会跟着你的逻辑走：凶手是谁？怎么通过一系列的手法作案的？结果这些刚得出之后，编剧嘿嘿一笑说：“哈哈之前都是逗你玩哒！其实只是始作俑者由于自责在做梦罢了！”直接跟闹着玩一样就把逻辑全部推翻，告诉你根本没那些逻辑，这样的转折确实很出人意料，但是也相当于说先前全是扯皮，这种引入逻辑，再跳脱出来说根本没有逻辑跟真正意义上悬疑片里的“误导”是有差异的。但作为一部恐怖片，也不能要求那么严格，至少在前中期的逻辑都还算严谨，恐怖氛围也都很到位，算是近几年大陆拍的较为出色的恐怖片了，还是值得一看的。', '就这张吓人', '剧情不拉胯，故事情节设定也很精彩，真的是很有看点的一部恐怖片', '这是最好的一部恐怖题材的电影了，且看且珍惜吧，之后能不能在出这类型的片子都不一定。', '9.0评分刷出来的吧？你真敢拍撞邪给5分，都是灵异的幌子拍悬疑，还私带一点亲情，搞得悬疑不悬疑，灵异不灵异，惊悚不惊悚，亲情不亲情，四不像？', '一点都不好看 到最后居然是男主的一场梦 ，九分估计是请人刷的[意难平][意难平][意难平][意难平]', '为啥都这个时候了还要去温柔乡了？难道这些男人一天想的都是这个吗？感觉还真的是有点无语啊。', '精彩又刺激的恐怖氛围，跌宕起伏的剧情，整体观感很不错', '我的天，真的太恐怖了，光无头尸体出现的那一刻，我都被吓的汗毛竖起。', '结局万万没想到！[握草]', '国产片真的废了，哎，这不让拍那不让拍的[意难平][意难平][意难平]', '第一次知道胆小模式😂', '这……自己给自己打九分？？？？', '看的打瞌睡😪', '结果烂尾', '我就说怎么就得李倩不对劲，原来是志没有了', '我的没有这个功能', '太恐怖了，看完三天睡不着觉，太吓人了', '太吓人了，有谁陪我一起看的吗？', '推荐大家看看这个电影，剧情紧张，刺激，肾上腺素狂飙。', '国产恐怖片我的评价是💩', '小样长的挺别致的，有没有人想要，只要4.444，包邮到家。', '剧情反转的让人尴尬，看完都不知道讲了个什么故事', '演员不错，故事一般，脏糠之妻不可弃总有因果', '什么啊这是', '够恐怖可以', '哪有胆小模式？', '只能说成本低，构思不够', '一个警察都怕成这样，直服了，不要是头了没头也算个屁', '现实中谁相信鬼神存在，没有人相信，鬼神毕竟是人创造出来的！', '大半夜看这有点不敢看 祝愿不梦到鬼', '除了香港那些恐怖片以外。这部恐怖片绝对可以排行国内恐怖片第一了，这从头吓到尾。以后多拍这种滴少，像这种，昆岩池，超级恐怖片拍出来绝对碾压香港那些恐怖片了', '这个形状挺特别', '呀，我是 V2啊🤔', '张智尧人帅演技好希望未来有更好的作品', '大聪明拍这个片，咋没整成喜剧片', '胆小模式竟然是放烟雾弹[笑哭N]', '都没有山村老尸第一部吓人', '灭火不用水的吗', '全都带回去化验？这是那个时代的技术吗？', '老公我怕抱抱我', '这个世界上是有鬼的，其实鬼就是一种磁场生物，实体是伤不了人的，当然很早以前可以，现在不行，它们顶多可以入侵你们的梦，给你编一些乱七八糟的梦而已，那种就比较诡异的梦，还有在梦里杀人正常的，这些都是他们希望你觉得杀人很正常，慢慢改变你的世界观而已', '这部电影真好看，故事紧凑，情节跌宕起伏，引人入胜，墙裂推荐大家也去看', '这拍的是个啥？前面拍的还可以，怎么就弄个这样的结尾，全是想出来的？树先生吗？', '世界上的鬼不可怕。可怕的是人心', '结局没看懂', '真是够了，看别人做了一场梦', '好好好，懵逼树上懵逼果，懵逼树下你和我', '找不到剧看了👪们有什么推荐得', '强烈呼吁广电局放开鬼片审核，使恐怖片里可以出现鬼怪', '他一个队长住得起大宅子？', '不懂就问，胆小模式是啥', '躲被窝一个人看[666啊]', '12-18赵振方实名观看！', '难看，看到最后居然是一场梦！', '胆小模式无敌', '哈哈哈哈，胆小？', '1557快来快来15424515457244', '我一女的一个人看都不害怕你们大老爷们怕个de', '有鬼的不能怕，恐怖的不能拍，见血的不能拍，宫斗剧不能拍，还有两样不能拍：这样不能拍，那样不能拍😂', '不用看了，最后没有鬼', '最让我奇怪的就是为什么他老婆和这个青儿长得这么相像呢？这应该也不是什么偶然的情况吧。', '咪哎哦哦您', '胆小鬼，模式是什么鬼？', '这剧情像小学生写得', '民国时期的巡捕，审讯的时候不应该除了打就是打吗？像这种装神弄鬼的，5分钟就能破案了。', '看得我一愣一愣的，除了渲染恐怖气氛。节奏慢得赶得上日本动漫了。就算过审受限，咋也不至于这样吧', '绝绝子！，很无语', '看的有点懵逼', '有点阴森', '都经不起推敲', '头尾不协调啊，没意思', '姐姐～怕怕', '诸神庇佑  点赞护体', '好久没看到这么好看恐怖片了', '狗血剧情，佩服导演的思维，一般人欣赏不来', '就是一个精神病的一场梦', '最后我想说一下:孔子没看懂，孟子没看懂，就连老子也没看懂[折磨]']</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 长津湖 </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VIP · 10108热度</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>“雷公”胡军独家新年祝福！,电影简介:电影《长津湖》以抗美援朝战争第二次战役中的长津湖战役为背景，讲述了一段波澜壮阔的历史：71年前，中国人民志愿军赴朝作战，在极寒严酷环境下，东线作战部队凭着钢铁意志和英勇无畏的战斗精神一路追击，奋勇杀敌，扭转了战场态势，打出了军威国威。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.7分</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['这是我爷爷留下的，能看出来是什么吗？', '看完这个电影，想起了我的姥爷。可惜他早已经不在了，在我小的时候因病去世。我只对他有模糊的印象，遗憾不能亲自听他讲述他的故事！', '没有听过您说过很多，却发现您的遗物。', '我姥爷今年94岁了，我为我姥爷感到骄傲和自豪！！！', '多希望父亲能在，能跟他一起看这部片子。', '怎么就没女生看了，女生+1', '要是我父亲还在世的话看到这电影会触动很大的，那些地方都是他曾经最痛的记忆！', '说实话 现实绝对比电影残酷多了', '第七穿插连队，应到一百五十七人，实到十四亿人！', '外公负伤回国，健在', '怎么才8.9分 ，应该10分。', '爷爷不在了存在我奶奶讲的故事中', '小时候经常听你说的故事，现在看来好伤心，', '这是伍千里原型，英雄至今还健在！', '评分应该是十分才是，怎么才8.9分？', '为什么我的眼里常含泪水，因为我对这土地爱得深沉', '有人问难道没有彩蛋吗，你打开窗户望外看，这就是彩蛋.', '我从来不过圣诞节', '#2021国庆档你最期待哪部片#我爷爷被子弹打中胳膊 ', '这么好的电影评分太低了', '向老英雄致敬，我爷爷已经91了，身子骨还可以。', '首映当天和女朋友去看的，电影还在，人不在了', '#如何评价易烊千玺的表演#演得太好了，非常好看', '2022新年快乐！祝福祖国繁荣富强！致敬最可爱的人！', '希望祖国能把他们都带回家！一个都不能少！', '终于上线了，我要好好的看完', '我爷爷当年是指导员，我为他骄傲', '我爷爷身体越来越差了。', '哭了几个小时了', '我的爷爷！', '#如何评价易烊千玺的表演#眼睛里有东西！年轻一代里演技真没人能跟他相比', '雷公临死前一句别把我一个人留在这儿，直接给我哭破防了', '我哭了我老婆没哭我把她打哭了', '等了好久，终于上线，第四次重温', '再难有老一辈难吗？最后的人为阻击敌人逃跑，都冻成冰人了，活在当下，多幸福！', '向英雄们致敬，祝福祖国繁荣富强！', '2022新年第一天来报个到……成都路过', '致敬英雄，喜欢看那部剧呢投个票吧！', '🧨2021 𝘽𝙮𝙚 𝘽𝙮𝙚 ·2022 𝙃𝙞 𝙃𝙞🧨\n滴~体温正常，欢迎进入2022', '终于可以看啦！！！', '终于上线了，我要再看亿遍', '人民英雄', '致敬抗美援朝的英雄们。', '我很想念我的爷爷，去年过世了，一辈子都献给可国家，得开老年痴呆走失，被发现的时候是再部队门口。', '不晒爷爷的，晒一下自己的吧。每一代人有每一代人的责任，为了人民，负重前行。', '这一场战争是残酷的，打出了中国的军人的威信，世界有名，只有国家的强大，科技的发展，任何敌人不敢侵犯，记住这个历史', '这也是一个教育片教育，后来人记住先一辈英雄，工具，向英雄们学习，爱自己的国家，祝我们的国家强大繁荣富强', '谢谢这个平台，谢谢各位看友，今天的幸福来自前辈们的先烈，这场电影真的很感动，愿大家每天看好片', '中国人民志愿军万岁，中国人民志愿军万岁！中国人民志愿军万万岁！！', '长津湖之后再无圣诞节', '长津湖战役，不应该是VIP，应该是免费的！', '这种剧[气到变形][气到变形][气到变形][气到变形]。还我时间[意难平][意难平][意难平]。', '想想当年的长津湖，再想想现在，致敬先辈', '炸药箱都是空的，露馅了', '这太恐怖了，直接插进别人肚子', '志愿军万岁！志愿军万岁！志愿军万万岁！！', '向伟大的志愿军致敬！！', '向伟大的英雄们致敬！！', '伍门三杰', '易烊千玺是头一次演抗战片吗？', '没有志愿军，哪来有今天的中国？', '真的很一般这电影', '砍死日本鬼子美国鬼子', '刚刚看完志愿军，现在又来回顾长津湖，感觉这些影片不应该要会员，应该免费观看，且不需要看广告，这是具有纪念性的影片，这能让我们的下一代有印象，牢记历史', '依稀记得我问爷爷:你总说你参加抗美援朝 那你到底有没有杀过敌人，  爷爷告诉我记不得杀了多少了  看完电影立马让我爸拿出我爷爷的遗物，  当场泪目 😭', '看谁的表情最好笑', '整个七连就伍万里活了', '#易烊千玺#讲真的，不敢看第二回', '易烊千玺妈咪，永远爱你', '你们都是为谁来的', '以前村里一位老人，参加过解放战争和抗美援朝，一辈子没结婚，也没收养子女，我们小时候几个小孩围到一起缠着他讲以前打仗的事情，刚开始的时候他只讲解放战争的，只字不提抗美援朝，直到他的老战友来开导他，我们才知道这些事：当年抗美援朝我们村里去了十几个人，只回来了两个，他是其中之一；长津湖战役时他是排长，一场仗下来只剩了他一个；自那以后他就把自己封闭起来，他认为那一排人牺牲他是罪人；负伤回来后他也没去专门赚钱，都是谁家有事找他帮忙给他钱，没给钱的他也不去要；村里人给他安排相亲他也不去，去了也是跟女方挑明了说他不结婚，直接把女方吓跑了，他妹妹为此还跟他决裂了；后来由于战场上的伤复发，身体也变得不好了，慢慢地什么活也干不了了，他被纳入低保；他认为他那一排人都死了只有他还活着，他不敢比那一排人活得好，否则就更对不起他们了。\n在他老战友走后，他开始给我们一点一点地讲长津湖的事，但他始终不提他那个排的事。当他讲到五六个人俘虏美军三四十人的时候我们都不相信，还以为他在敷衍我们，然后我们就都不愿意听了。\n九十岁那年得了一场大病，医生都下病危通知了，他硬是挺了过来；后来因为他是战斗英雄，民政局发生活费，照顾他，给他买了一台大彩电（当时村里也没有几台），可那时他因为最近一次高烧耳朵也不好使了（之前那次大病眼睛一只失明，另一只也几近失明）；九十八岁那年他去世了，去世时只有他妹妹在，还有村里几个干部帮忙出殡\n直到现在我才明白他是经历了怎样的艰难，他这一辈子都没离开过那个战场，他生前常说的一句话就是，活着真好', '我也晒晒我爷爷的', '中国万岁！万岁！万万岁！', '2小时43分，是不是欧豪？', '吴京太牛了，在 战狼2开坦克在长津湖依旧开坦克', '死神来了，你们都将死在这里', '什么电影都不如这个。', '希望祖国能把他们都带回家！一个都不能少！#长津湖中谁的演技最触动你#', '怎么才8.9分 ，应该10分。#长津湖中谁的演技最触动你#', '铭记历史，缅怀先烈', '理性评分，有些夸张了', '有谁是看了志愿军雄兵出击二刷长津湖的', '牛不牛逼啊？', '是不是要在我身边天了？你的图就是天太尴尬太', '易烊千玺好入戏', '跨过鸭绿江。从第九兵团开始入朝过来看的。', '伟人的伟大就是高瞻远瞩', '易烊千玺演技真的好', '易烊千玺，你真帅', '这脸长也被压下去了']</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 卧鼠藏虫 </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10134热度</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>卧鼠藏虫：霸道总裁沦为最惨打工人，他还能否揭开迷雾重掌豪门,电影简介:影片讲述了失散多年的双生兄弟在企业抢夺战的反向推动、血脉亲情的感召与国际大案的卷入之下跨国重逢，在身份对调被识破后，兄弟俩统一目标，并肩作战对抗幕后黑手，赶走阴霾重新开始美好生活的喜剧式励志故事。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['看完感动的稀里哗啦的', '我名字叫郭浩', '和崔志佳怎么差这么多', '哭的稀里哗啦的', '笑死我了', '这张很明显不是一个人', '这是谁啊🤣', '小米广告', '中国电影', '2022.5.3号疫情期间在隔离 就喜欢截屏 喜欢你演的每部剧 好看 同意的赞起来 ', '大东北真的是鸟大了，林子都装不下《东北警察故事》《这个杀手不太冷静》《猛虫过江》《卧鼠藏虫》《我不是酒神》《你好，老叔》《锤神》…………', '个人觉得评分应该在8.2以上', '从头看到尾，看到了文松的用心和认真，感动', '没经历过此事的人根本不懂，挺不错。', '支持一下，主要导演比较爷们', '拍的挺好，个人比较喜欢。', '好一句“虽然隔着海，但我们是一家人”', '看的我云里雾里的，还是那个告别天团好看', '在平凡的岗位上致敬不凡，他们一生择一事，以匠心追求极致。这份用心，值得致敬！祝大家五一劳动节快乐！', '统计局投资。', '值得一看,非常精彩\n', '这是今年看到的除东北告别天团第二部精彩的电影', '拿一个小学生跟大学生比较文化程度，这很不公平。文松是喜剧人，他想做点自己喜欢的事，是挑战是学习。已经很不错了，不出戏，不像小品。演员不用师兄弟，是怕观众觉得怎么看都像小品。之前中心也是反应出国务工的安保，也是一种正能量。东北告别天团也很好，那是情怀，这是小众的调调。都很喜欢，加油！', '被人砸晕扔海里还能活，😂', '剧情挺饱满，但是多少缺了点味道，不过比很多为了搞笑而搞笑用力过度的电影要好，没有过多笑点，却能一直保持观众轻松、向往和期待的情绪，比较清新的轻喜剧。演员的演技很好，而且很多表演细节还是很到位的，是一部比较完整的作品，值得看。', '这部电影可以影院上映啊拍的真好是真好\n', '97年我三岁', '为什么我看到的是志愿军的封面啊？不能瞎搞哦', '电影都不审核吗？什么片都可以', '蹲女朋友', '代乐乐？是代乐乐吗？', '我不是VIP，直接看了', '这也太感动了。', '我喝了5瓶啤酒看完这个高质量电影', '弹幕带色吗？', '没看懂这片电影', '这个电影好好看，绝了！', '什么v几', '这都不是事儿', '我是V几呀', '河南人处个对象', '留个言2023年11月 16日祝自己一切都好', '烂的出奇，剧情烂，打戏烂，表演烂', '拍的太好了，下次别拍了[笑哭N][笑哭N][笑哭N]', '来包十句', '97年抽相思鸟', '我是v几啊', '为啥排第一？', '以假乱真了', '什么玩意儿这是', '差点意思', '留个言2023年11月20日凌晨3:19分 希望自己越来越好顺风顺水前程似锦', '有哪些兄弟是看小视频过来的🤔', '背景音乐太吵了', '前几天在学校看的，然后没看完到家看  真的很好看', '用的什么发胶发型都不会乱', '97年，不拿97年的纸币吗', '甘肃人处个对象', '难得看到文松正经的时候😃', '为什么蓝利群才十六块', '张少辅我爱你！', '都不要会员 偷摸看去吧。还评价', '鹅鹅鹅鹅', '感觉剧情很下饭 根本想吃了饭看 结果看入迷了，太好看了', '爱德华的妹妹真人名叫啥啊', '想找个瑟瑟的男朋友', '喜剧，凑合着看吧 打戏可以跳过', '没看，先哭', '虽然有一点点剽窃的嫌疑，但有自己的故事，也很感人[打call了]', '标准的 小型黑中介！上车，留下证件！发走…\n可惜没 体现出来…', '头不是头，尾不是尾', '这个电影好看吗？', '看完了，还不错哦', '穿帮了吧[狗头]', '有些人评价别人之前也不看看自己什么角色', '真好看谢谢', '云南的来个女朋友吧.202312.7', '男，93，石家庄，找个对象', '泊头火柴呀', '我是老实人你们别匡我', '还挺好看的', '留个言2023年11月 12日祝自己一切都好', '那年代有阿萨姆？', '有没有新疆的？', '太感动了！', '太搞笑了', '我又不是兽医', '九七年用手机抽十元的烟应该也是大款了', '第一次哟，可以了，还不错，', '有点东西']</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 超能一家人 </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VIP · 10055热度</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>开心麻花《超能一家人》热映中，曝马丽魏翔东北译制腔彩蛋,电影简介:郑前新开发的APP被狡猾又诚实的反派乞乞科夫盯上了。幸好郑前一家人意外获得了超能力，姐姐会飞天，爸爸能隐身，爷爷不死术，妹妹力大无穷。郑前本指望家人们出手帮忙，一家人却常常出糗帮倒忙，虽强但傻的“超能力一家人”将如何对抗乞乞科夫，一场超能力VS钞能力的大战一触即发……</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['笑点很尬，没有什么内涵，亲情部分感觉也是强行升华', '已经看了不建议去看', '以为夏洛特烦恼是开心麻花的开始，没想到是巅峰[上头-上][上头-头][上头-上][上头-头]', '据说大年初一好像这个下架了\n、', '2022年贺岁片都不上映？', '又是艾伦当主角？不是我吹，肯定火不了，开心麻花凉了', '看简介介绍 这剧情电影好像在哪里见过', '拍摄取景地青岛市市南区瞿塘峡路与三门峡交叉口，剧组人员中午吃饭在我店里吃的。', '大年初一沈腾直接两部电影春节档？', '别想了己经撤档了。', '在这么拍下去早晚凉凉  永远离不开以前的作品  笑点都一样  看多了就没意思了', '不是怎么好看', '什么时候手机上就能看了', '一般我看喜剧，只看含腾量高不高…😁', '最好看的是彩蛋', '被这部喜剧电影咬到了，新颖的故事情节让我眼前一亮，很有意思', '啥时候上起码给个回应啊，吐了，一个交代都没有就突然销声匿迹了', '别跟我说像四海一样  含腾亮极低', '含腾量200%。双腾出没，🙈', '又是翻拍的啥电影', '真的又一次惊艳到了我，沈腾的戏份再多一点更完美了，真的特别喜欢看沈腾', '真的好看', '看到沈腾就想笑，必看\n', '速度激情十上来就9.2.....国产5.2慢慢涨上来的，搞笑是搞笑他做主角不喜欢了', '当时不上映的原因是因为疫情影响的    上映没有上座率😀😀', '看沈腾的剧情看的挺过瘾的。开心麻花的电影看一次笑一次，感动一次', '缺个贾玲', '腾格尔又对网络歌曲下嘴了,可怕', '今年还能看到吗', '什么时候上线啊', '春节为什么撤档啊', '抛弃喜剧的初衷，只是给人一个教育的电影，已经不叫喜剧了', '想采访腾哥学俄语的心路历程', '腾格尔唱这首歌，感觉鸡皮疙瘩都起来了', '没赶上电影院，主要也不知道啥时候上映的，这刷短视频也没推我啊，还是看到腾格尔翻唱合集，才想到超能电影，再一看评论……嗯……', '腾哥外语练了多久，说实话哈哈😄', '太喜欢沈腾了', '这片宣传得蛮早的嘛！', '完整版可以看了呀', '为什么没有马丽。。。。。不对啊', '沈腾的角色还是很好看的', '我以为是这个杀手不太冷看完也没看到扯裆镜头…', '以前记得看过一个外国的电影，也是一家人有超能力，去银行偷钱', '改档期了', '2022年大年初一，提前了一年嘛？你们是过了年初一了？数学谁教的', '这蒸馏水咋一股草原味', '沈腾来咯啦咯', '难道今天不是大年初一', '神马玩意', '好家伙，这个点赞特效也太帅了', '如坐针毡，如芒在背，如鲠在喉，全片不如彩蛋好看', '演得很精彩[一起冲]', '里面还是有不少情节设计的很有趣，比如爷爷被电舞蹈，还有姐姐空中芭蕾（她最后打戏也运用了可惜设计的少。', '谁敢和我斗图？', '有笑点，有泪点', '开心麻花出品，必是精品', '打卡2023 12 23', '我觉得挺好看的啊 特效也可以', '还行，还是沈腾', '张楚岚爷爷重生了[666啊][666啊]', '很尴尬。。完全没有共鸣点，我反而比较喜欢两个反派，起码角色鲜明。这一家人无条件纵容主角，主角能丢下爷爷一走了之，即使明知道他离开爷爷就死了。在监狱就一回忆家人又来救他了。而且家人哪里是互相拖累了，这啥主题，家人明明是互相包容和成就。尤其那个小女孩，我真的很讨厌。我更喜欢波波洛娃，我是希望她能复仇成功的，主角拿着自己都站不住脚的道理去劝别人放下仇恨真的，可笑。当然了，也有笑点，但是不多，整体就是尴尬又无聊。', '编剧写包袱，全靠演员自己。剧情的发展煽情多于搞笑。全程吐槽没笑', '好好的喜剧片强行煽情，要搞笑就搞笑要看看以前是怎么拍的再看看现在', '真棒 和女朋友一起看的 好看爱看 我一般不评论的 我还现搜了怎么打评分 好好好 真棒', '说实话…..我觉得挺好看啊……很好笑啊', '杠杠的，很顶。演的好啊，真好看。不错，挺棒的，腾讯视频出品。开心麻花电影🎬超能一家人。【含艾伦】腾讯视频', '一点也不搞笑，刻意搞笑就不好笑了', '挺好看的，看的很开心😁😁😁', '沈腾就是搞笑的存在', '腾哥在上面太搞笑了', '我看弹幕一直看到结尾，看到有人说全局没笑一次没有任何笑点，我想说那还真是辛苦您嘞，没笑点你都能看完整部电影属实厉害👍🏻', '幼稚，情节简单无内涵。', '说实话，如果不是有沈腾，这剧就废了…艾伦还是适合演搞笑角色，这部电影里他的感情戏好尬… 你说不好笑吧 还有几个点有点意思 你说好笑吧 也就那几个点而已… \n评分6.多真不是盖的… 已经算高评了😅', '6.7分是因为啥  谁能直接跟我说说', '天吼战斗民族吗', '“郑前”     的字面意思是     “挣钱”', '真的特别特别好看，很喜欢这部电影！期待第二部', '斗地主赢了', '快乐加感动', '女生最开心的三件事就是：买、买、买', '满分，能坑一个是一个', '挺好看的[一起冲]', '看着挺不错的', '超能一家人 1:17:36xsos😨😨😨😨😨😱😱', '为什么，我希望反派赢呢', '这是卖核弹的小女孩吧？(˵¯͒〰¯͒˵)', '笑死人个人，看着笑着就没停过[一起冲][一起冲][一起冲][准奏]', '我感觉这个姐姐非常的好', '我觉得挺好看的每个人的笑点不一样，不爱看的话你就别看了呗', '好喜欢！！！看中间真的好感动！！！']</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 学爸 </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VIP · 10060热度</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>电影《学爸》片尾彩蛋,电影简介:雷大力为了让儿子雷小米能够拥有更高的人生起点，在单亲妈妈刘真真的带领下，被迫卷入了“幼升小”的激烈角逐。又在火哥和火嫂的影响下，不惜倾尽所有购入学区房，重重压力让父子二人的生活变得不堪一击。雷小米小姨的出现，又让雷大力领悟了“拼娃”的本质是“拼父母”……
+面对残酷的现实，父子的生活困境应该如何破局？几组家庭又将做出怎样的人生抉择？</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['剧本不火，是触犯了很多人的利益', '学的是习，拼的是父母', '家长为了孩子的未来拼了老命，但孩子没有兴趣，不快乐，这个竞争激烈的社会真的很现实很残酷。', '我连这部电影都要免费了再看，掏钱买什么学区房，资本家就喜欢制造各种各样的焦虑，忽略孩子的快乐才是最大的教育失败，孩子平庸无所谓，平安就够了。', '我是一名老师，是一个民办贵族学校的老师，我看的时候真的深有体会。很多父母其实条件并没有那么好，但是还是拼尽全力把孩子送到这里来读书。其实有时候孩子并不适合这里的教学氛围，虽然聪明，但不开心，他们的成绩自然会越来越差。家长们就会很焦虑，觉得我们花这么多钱把你送到这里来读书，你还不认真，不好好学。然后就会更逼孩子，让孩子在学校也有压力回家了还要被父母逼。他们的身心疲惫，很痛苦。其实我觉得适合孩子的才是最好的。', '上学这么难，电瓶车只允许带一个小孩，国家为什么还提倡生二胎三胎，很矛盾吧', '中国教育的可悲，如果是家长看到了这个电影，恐怕会直接评论来骂，中国式的教育是真的恐怖，你们只想着自己，却不想想自己的孩子，对，你为他好，这是对的，但是别人接受你的好吗？？你自己都没成功，为什么要逼迫别人呢？', '不能宠坏孩子，也不能把我们的想法强加到孩子身上，就这样挺好！', '让我看看，好不好笑', '中国式教育：你知道的他也知道，大家学习的都一样去补习班他也去补习班，父母一切说为了孩子，可没问孩子是不是他想要的，孩子帮父母考上了清华，孩子跳楼遗书里说：为你们考上清华了，太累了一直按照你们的为了你好，物质很好精神崩塌。\n中国式教育：教育社会及制造业需要的  听话的雇员，工作，消费，消费完，工作，消费，消费完，工作。 循环。\n你问他们长大了要干嘛？找份好工作  赚钱 消费  消费完  赚钱  消费  消费完  赚钱', '￼我很喜欢黄渤，这个演员，很接地气。真实不做作，影片值得一看', '学区房贷款，物业费，高昂的 补课费，生生压垮了8090后', '我们都要学会接受自己的平凡与不平凡，因为那才是生活。', '所有人都在跑，我不敢停', '这部电影应该很有教育意义！值得看', '腾讯你是怎么觉得是喜剧电影的！！！！！！', '本来养娃就焦虑，看完更加不好了', '我花80万给小儿子买个学区房，现在天天班级倒数', '￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '现在还有学区房唛？', '中国式教育就是这样 孩子从上幼儿园就开始学 各种作业 老是每天把作业发到手机里 家长成了孩子的老师 试问如果家长文化程度低 留守儿童 老人不会弄手机怎么教孩子 为了孩子能上好学校连夜排队 学区房 各种补课机构', '现实更残酷，电影最后还要找补点美好，从根本上想解决大环境，🉐有双宏观控制的手，如果不控就是越来越多人清醒的不结婚不生孩子。这是最悲哀的无声抵抗这充满套路压抑的生活', '那些说外公来的时候就该让孩子跟着走的，真不知道怎么想的，如果可以，谁不愿意把孩子留在身边，孩子就是宁愿跟着你吃馒头也不愿意跟着别人吃肉的，孩子也感觉在你身边有安全感，就因为觉得肉比馒头好，就应该逼一个不喜欢吃肉的人去吃肉吗？', '支持黄渤，不能错过！', '电影《学爸》的片尾有句话“你不一定满分，我一定爱你”。这句话表达了父母为了孩子可以不顾一切，但孩子不一定快乐', '￼￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '农村读书也不错', '很好！！！！强烈推荐', '黄渤演的我都爱看！喜欢！一定很好看～', '黄渤主演的学爸，超级有看点', '哇 ！终于熬到新电影免费了[666啊][666啊][666啊][666啊]', '其实父母都是为了孩子 谁不想自己的孩子好', '四川 来了', '看到16分23秒，看不进去了。不是电影不好，是自己不喜欢这种题材，且看起来太压抑剧情的片子。而且前面的镜头换来换去，晃来晃去。真的晕了。尤其是在黄渤被打流鼻血，和另一个店员聊天那一个片段的镜头切换，视觉感受非常不舒服。', '上帝给我一个任务\n叫我牵一只蜗牛去散步。\n我不能走太快，蜗牛已经尽力爬，\n为何每次总是那么一点点？\n我催它，我唬它，我责备它。\n蜗牛用抱歉的眼光看着我，\n彷佛说：“人家已经尽力了嘛！”\n我拉它，我扯它，甚至想踢它。\n蜗牛受了伤，它流着汗，\n喘着气，往前爬…\n真奇怪，\n为什么上帝叫我牵一只蜗牛去散步？\n“上帝啊！为什么？”\n天上一片安静。\n“唉！也许上帝抓蜗牛去了！”\n好吧！松手了！\n反正上帝不管了，我还管什么？\n让蜗牛往前爬，我在后面生闷气。\n咦？我闻到花香，\n原来这边还有个花园，\n我感到微风，\n原来夜里的微风这么温柔。\n慢着！\n我听到鸟叫，我听到虫鸣。\n我看到满天的星斗多亮丽！\n咦？我以前怎么没有这般细腻的体会？\n我忽然想起来了，莫非我错了？\n是上帝叫一只蜗牛牵我去散步。', '电影在呈现教育焦虑问题的同时，也以幽默的方式点亮了剧情。导演巧妙地运用川渝方言和和谐的幽默，让笑点与泪点交织在一起。黄渤饰演的爸爸在带娃过程中的种种奇葩经历，总是能够触发观众的共鸣，同时也传达出关爱孩子、包容孩子的情感。[送爱心]', '我已经研究生毕业了，可是我还是怪我爸妈当初没把我送到市里去学习，都已经30多岁了，还是怪他们，所以我送我孩子去市里学习了，我不想让她怪我，至少这点上，我不想我愧对她。[蹲]', '小时候开心了，后半辈子就难过了', '夫妻俩唱双簧呢', '广西了来看看', '建议取消英语改成中医', '中国教育的失败，令人痛心，我是名学生，我深知中国教育的黑暗，若能用我的命换中国教育的光明，死也知足', '看完只配说呵呵~不知道从什么时候所谓的九年义务教育，已经变成了家长的焦虑，孩子的噩梦，就拿我家侄子来说，他上高二，没有童年，只有充斥在生活中的各种补习班，就这他还没有那么多的兴趣班，看着他的近视镜，还有头上的白发，好心疼，他还是个孩子，大学，高等教育，什么时候变成吃人的魔窟了，选个专业都给请人来分析，不知道应该说是社会的悲哀，还是教育的失败，所谓的双减，所谓的分流，只不过是让普通人认清自己的阶层，承认自己的平庸，可即使是这样，我们的父母也在尽自己最大的力量给我们最好的，当然，如果可以忽略职场的阶级性，职场的无形霸凌！', '以单亲爸爸为小升初儿子找重点小学为切入点，通过讲述单亲爸爸凑钱买“学区房”、为上“户口”临时结婚组家庭、给孩子报特长班、练习孩子英文口语等各种方式方法，现实的批判了当前小孩子的升学压力以及当代普通父母为小孩升学的压力窘境。家长的反思，孩子的努力，双方共同成长并拒绝内卷追求童心。电影取自现实，升华现实，有笑点有泪点，展现现实生活无奈的同时，突出每一位父母对儿女的迫切愿望。片尾针对学区房、特长班等学业压力的法律法规指导办法，是电影的亮点，我想也是电影传达的教育意义。最好的并不一定是最适合的，是金子在哪里都会发光，共勉。彩蛋里，教育资源对农村郊区学校的倾斜使得家长留下来，孩子还保持童真与快乐的学习，有时候教育资源的均等化是改善升学教育难题的关键。', '不是孩子的错，也不是父母的错，只是在这个社会我们都身不由己，致自己吧', '影后观感，平庸的父母，接受不了孩子像他们一样平庸', '现实比电影更残酷', '领导问题', '拍的真的好', '挺好看的，可能接近现实吧，不过我是在农村长大的挺好的，没体会过😂😂', '看完电影，默默把对象删了，不祸害姑娘了，以后不会拖累儿女', '我不想给我儿子报补习班，只要完成课堂作业就行了，不想逼他，不想让孩子压力太大，现在好多孩子抑郁的，太可怕了', '学区房，兴趣班，，，你们品，细细品！以前不是种个地都能把孩子送进清华北大的吗，那个年代的教育相对来说多纯粹。现在的教育模式培养的都是个啥？我就问问你们有些家长，你们家孩子在这个当下，学习效率如何？孩子有没有厌学症？孩子视力怎样？最后，家庭和谐指数怎样？统统乱七八糟！', '很多年前我就承诺过，我绝不会在中国这样的国家生孩子。', '8090后疯狂的玩，也没耽误扛起国家的重任，为什么要让现在的孩子这么累，孩子快乐比什么都重要！', '不觉得好笑，中间好几段很让人生气，结局是好的，但是又感觉不真实', '很贴近现实，电影拍得也很不错', '27了  不结婚不生娃   3个女朋友     我搞不懂你们   结婚生娃的意义在哪', '现在的社会真的就是这样，父母希望孩子起点高把所有的希望寄托在孩子身上，但是对于孩子来说每一步更需要他们自己脚踏实地走，父母在旁边提点即可！让孩子们也享受自己当下的人生吧！[一起冲]', '现在还有想结婚生孩子的吗，房贷车贷，补习，还有很多补习班，孩子累，家长更累，', '一部药神、一部学爸，道出百姓医疗、教育的辛酸与无奈……', '被资本绑架的国家，注定没有出路', '自己当爸爸了，才知道小孩多难教，两个儿子都我在教，每天都气个半死。太难了，没有那个经济去攀比，过好自己就行了，成不成才无所谓，长大别学歪了我就满足知足了。', '很好看，很现实。我现在还没结婚呢，今晚跟我对象聊以后，他也提到了买学区房，然后我点进腾讯就看到了这个。哎，没结婚压力大，结了婚压力也大，现在的小娃儿也压力大，上不完的补习班，写不完的作业。', '新川外国语学校', '河南南阳的来报道', '好看，受益', '我是一个三岁孩子的妈妈，自从生了孩子，现在生活过的也不好，身体也不好。生孩子不是简单的事，真的很难很苦。', '会泽陪一条[666啊]', '广东韶关的有没有', '勿忘国耻爱我中华致敬英雄', '我家的我就是散养，没有任何辅导班，看他爱好。学习也一般。但是他快乐就好.\n', '中国的教育真的要改革了，孩子累，家长累，老师也累。', '看了半天是想叫没有能力给孩子提供好条件的家长躺平呗！告诉普通人不要和命挣，顺其自然。为什么老要叫老百姓改变呢？社会制度不能为了老百姓改变吗？教育资源不能向老百姓倾斜吗？', '看完电影后就觉得，中国式父母，真的好卷啊，为了孩子，太感慨了，最后上国际学校那段，隔着屏幕都觉得，现实好残酷啊，没有能力就只能释怀，顺其自然放过孩子也放过自己\n', '还可以哈，不错哈', '为什么为了上某一个学校而去买房，还是因为国家教育资源分别配不均，现在上学很简单乡镇也可以，但为什么不去呢？资源不同教育水平不同', '我以为你睡了', '好看好看，真的太有寓意了，值得看！！！', '填补了现实里没有的', '中国教育问题已经很严重了', '很棒的电影！\n        我是一个初中孩子的妈妈，为了孩子我和孩子爸爸付出一切，就为换来一个所谓的乖孩子、好孩子、成绩拔尖的孩子，但是孩子给我的是什么？沉浸在手机中不可自拔，害怕去学校、不想上学。我自问我对孩子不好吗？但是一路走来的艰辛让我明白了一个道理：“不是我对他不好，而是扭曲的爱让孩子感到压抑、与束缚。我忘记了孩子的人生需要他自己去一步一个脚印的走出来的。”小米说的对——谁说只有鲤鱼跳龙门，土泥鳅也能坚韧不拔的打洞钻龙门。\n       此时的我只想给有同样感概的父母说一句——他若优秀，便报效祖国；他若平凡，便承欢膝下！孩子的心理健康、身体健康才是最重要的，成人才可成材！\n       感谢《学爸》让我悟了很多，懂了很多。终于我坚定的迈出了第一步，让他选择自己喜欢的学校。与《学爸》同款，非常棒的学校！\n        奔跑吧！少年，无论前路漫漫，我和爸爸都将是你永远的依靠……', '学习不是唯一的出路，却是最好的出路', '一切问题是国家的问题', '老百姓的思想就是天真，会几句鸟语就能上天？不在城市生活根本不懂城市的险恶', '演的不错，一步一个坑，坑完还没用[斜眼]', '也不觉得好笑是不是演错了', '真受不了这川普', '现实  力推', '在我没看电影前 其他平台对这部电影的评价都不算好 但是在我看了电影之后 所接收到的情感表达 故事的叙述都很好 已经可以排在靠前的位置了 唯一不足的一点 那也是我在挑刺了因为需要演这样一部电影小主人公已经很不错了 非常好的电影推荐[握草][握草]']</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 哪吒之魔童降世 </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VIP · 10037热度</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>《哪吒》哪吒敖丙仙魔互助逆天改命，成就今夏最强CP,电影简介:天地灵气孕育出一颗能量巨大的混元珠，元始天尊将混元珠提炼成灵珠和魔丸，灵珠投胎为人，助周伐纣时可堪大用；而魔丸则会诞出魔王，为祸人间。元始天尊启动了天劫咒语，3年后天雷将会降临，摧毁魔丸。太乙受命将灵珠托生于陈塘关李靖家的儿子哪吒身上。然而阴差阳错，灵珠和魔丸竟然被掉包。本应是灵珠英雄的哪吒却成了混世大魔王。调皮捣蛋顽劣不堪的哪吒却徒有一颗做英雄的心。然而面对众人对魔丸的误解和即将来临的天雷的降临，哪吒是否命中注定会立地成魔？他将何去何从？</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3分</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['藕饼这个样子真搞笑😄😄', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈😂？不好意思你说了一句对不起🧎\u200d♂️！你说他喜欢的人会觉得我真的不愿意辅导他自己辅导小孩很多的作业不是作业不是滋味！不好意思也不能再联系你', '2022年，重温，还有人嘛', '看得我哭了呜呜😭', '哪吒小时候好可爱。', '又看了一下，妈的又不争气，又哭了。', '开的车吗？嫂子啊🙀🙀🙀🙀🙀🙀🙀🙀🙀啊啊啊啊啊啊啊啊啊啊啊啊啊我的错我的错', '好多桥段都是向周星驰致敬的啊', '这是敖丙小时候😘。', '看了半个小时 哪吒娘谁配的一塌糊涂她非要和哪吒配出姐妹的感觉才开心', '救命，哪吒好师！', '希望看到第二部', '不同的风格', '人心中的成见是一座大山，任凭你怎么努力都改变不了\n我一个魔丸活的都比你有个人样，你一个灵珠转世可以活的再怂些吗？', '这几张图挺好', '若命运不公，便和它斗下去！《哪吒之魔童降世》真是一部让人看了又哭又笑的电影，里面实在是有太多发人深省的台词了，来说说最让你印象深刻的是哪句台词？鹅叔想到的是我命由我不由天！', '元始天尊出关后，听说哪吒的事很感动，教了太乙一招，利用莲儿恢复哪吒真身，龙王为了救敖丙，用自身的龙丹换了敖丙一命。龙王死后。龙王小公主为了复仇，又和申公豹一起，把天牢里的怪兽放出来了，让他们去杀死陈塘关百姓，还有李靖和哪吒。龙王小公主抓了李靖夫妇要挟哪吒，哪吒要去赴死换回父母时，被敖丙偷偷将人放了，龙族将敖丙锁了起来准备邢死，哪吒知道消息，只身赴龙宫打算换敖丙一命，但是被申公豹用计谋抓住。为了救哪吒，太子真人与李靖夫妇也赶到了龙宫，将与申公豹和龙族怪兽开展一场殊死搏斗？最后如何，，，哪吒三会有预告！！！', '2022.4.8号还有人看吗，虽然看了七八遍，但还是看一次感动一次，好片。', '我之前就想一个问题，太乙真人是真傻还是假傻，要是假傻，太乙都算到了，从灵珠抢夺到最后，眼看事情有变，就为了就哪吒敖丙而被天雷费去修为拼命护住，那太乙的心机可就有点深啊！\n（当然这是我假如的一种可能，仅供参考，不喜勿喷，谢谢）', '二零二一年十月十三日没有比我更晚的吧', '因为你，又来重温一遍。不认命是哪吒的命，也是你的选择。那就一起加油！✊✊✊', '怎么感觉每一次看都不一样，第一次时感觉是申公豹错了！他偷灵珠，害的哪吒背黑锅！可是这次感觉不一样了！（灵珠或魔珠赋予的那一刻，有谁问过他？为了哪吒，给哪吒积德行善，有谁在乎他？哪吒最后两年光阴就应该被囚禁于山河图内？打退妖怪，村民不理解打骂，他父亲看出来了却不说出来，不为他辩解？）这些真的挺心寒的！从最开始魔丸降临的时候，魔气入体的不能自己，到孤身一人无玩伴所有人躲着他，再到别人大骂妖怪，再到囚禁，再到雷劫也是够阴暗的了！', '一个认真修炼，一个玩，一个状态全开，一个没有完全开，还有神甲，还打不赢笑了', '2022.1.7还有人看吗？', '2023年12月18号会员打卡', '国产动画电影的巅峰  没有之一', '有人去看隔壁那部哪吒2重生了吗……简直一言难尽😥', '牛牛牛⺧生牛牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼', '灵魂是你打我撒，你打我撒', '这是哪位？？？看起来挺吊', '隔壁的哪咤，像木偶戏，皮影戏。根本没眼看。火了一个魔童降世，各种蹭ip的都出来了，', '2023年来重温的看这里', '好看的电影，后面很感动。我命由我不由天！', '太好看了吧！刚刚又刷了一遍，超级感动！，真好看要是有第二部就好了', '2022/4/16\n22：20打卡', '我仿佛看见了我们小时候的两个莲花灯。', '哈哈哈哈哈哈哈哈重刷', '你们有没有忘记一件事他才三岁', '阿姨裤子鞋子休闲鞋韩版考虑考虑问题吧', '太好看了 快来看看看！！！', '我是小妖怪， 逍遥又自在， 杀人不眨眼，吃人不放盐 ，一口七八个， 肚子要撑破， 茅房去拉屎， 想起忘带纸 。', '在2019年的《哪吒之魔童降世》，刚放出预告片时，片子被网友骂疯了。烟熏妆、鲨鱼牙、又丧又拽。张口就是「杀人不眨眼，吃人不放盐」。妥妥的「毁童年」系列。谁能想到就这么一个「丧王之王」，在2019票房居然吊打了《复仇者联盟4》。要知道，这部可是漫威十年收官之作啊！打败它的国产动画，谁敢不服。颠覆形象，是哪吒之所以爆火的重要原因。角色全是大家熟悉的人，事件也大差不差。可喊着「我命由我不由天」的的哪吒，和将爱藏在严厉外表下的李靖。加上敖丙和哪吒双雄对垒的设定。它用旧故事的壳，套入了当下观众的情感需求。另一方面，电影爆火也印证了传统文化的力量。与《大圣归来》类似的民族认同感，在它身上也得以印证。观众对「国产动画」崛起的心，反复被撩动。每逢爆款出现，总会引发集体狂欢。遗憾的是，「封神宇宙」只成就了哪吒。后续无论是杨戬，还是姜子牙，都难扛大旗。《哪吒2》呢？让我们拭目以待吧！', '还是喜欢😍', '没意思，这就没了。', 'q\u2006q\u2006a\u2006s', '别的电影结局都是好的，这个是坏的。', '正所谓不要在意别人的眼光，做你自己就好不管是魔还是仙，只要你做的是好事，不要在意别人的眼光，你就是好的你就是好人有的是好人，表面是好人，但是做坏事他就是坏人有的坏人长相凶神恶煞，但他内心是善良的，那就是好人是魔是仙只在一念之间哪吒，你虽然是魔丸但是你为了阻止敖丙选择拯救大家，那你就是英雄是好的是魔怎么了只要你做好事，那你就是英雄，就是好人不要在意别人的眼光做你自己就好😊😊😊😊😊😊', '来回顾的，又哭又笑了一遍', '笑死，人了，东西都行了', '李靖成功洗白，“他是我儿”四字一出，热泪盈眶', '国漫顶级', '满分满分', '这么高的分，如果是我审核这电影一定不让他通过，如果童年都是这样的童年怎么可能反转，对就是对错就是错，不是做了错的事，在做对的事就能功过共算。错必罚，功必赏，赏罚分明。不以小恶而为之。不以小善而不为。', '#迪丽热巴拍摄安乐传#加油', '第二部是姜子牙吗', '国漫的天花板的确不错   值得一看', '如果你们看过周星驰的电影 你们就会发现 有很多台词 都是致敬周星驰 ', '期待第二', '加了啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊', '你打我撒，你打我撒。', '国产动漫巅峰了吧', '完美。。。就目前（国内）最好动漫电影没有之一', '每次看，都豆笑我，哈哈哈😄', '真的好好看，我看了两次，还留着以后还会看，太好看了', '托儿，他不是坏蛋，他是个守护世界的好人', '这才是正版', '敖丙真的很可怜，所以说人就不能心软，就因为他不是人类救了人也要除掉他', '一歌女画家', '🥰中坛元帅最帅了', '给我低调点懂吗', '大胖子太坏了', '我第一次看哪扎', '故事告诉我们没有开始就是坏人，或好人只说，只要做好自己就可以，哪怕你是杀人犯的后代，也不能因为上一代打上这样的标签，哪怕上一代是个善人，你是杀人犯，不要给上一辈也带上标签，这不知道看第几遍了，看懂了', '我一天之内看了三遍', '好喜欢哪吒他妈🌚贼豪迈，我真的爱死了！', '我和我妹妹看了100遍[笑死我了]', '哪吒：天气冷了，给你们暖和暖和[撒花N][撒花N][撒花N]', '二三年十二月十二日重温[准奏]', '当我看完10万个冷笑话再来看这个，我操，居然过了那么久了', '谁家孩子👶带着项链？', '这就是中国人的天性，信命但不认命。命由天定运有己造。如果天命难违，那老子就他妈的逆天改命。', '好可爱的小肚肚', '哪吒明明很讨厌他的父母，为什么藕饼打他父母却阻止了呢？', '骚气的太乙', '踢个毽子能死人啊  *', '这肥子好嚣张叫吧。', '我想玩这手上的胖子的那一个什么东西', '那个是肾公公还是申公豹？', '欧冰之年怎么过了呢？', '我请问这一年怎么过这么快？']</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 满江红 </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VIP · 10040热度</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>《满江红》上线，实力派演员大集结！,电影简介:南宋绍兴年间，岳飞死后四年，秦桧率兵与金国会谈。会谈前夜，金国使者死在宰相驻地，所携密信也不翼而飞。一个小兵与亲兵营副统领机缘巧合被裹挟进这巨大阴谋之中，宰相秦桧命两人限一个时辰之内找到凶手，而事情却远没有这么简单……
+伴随危机四伏的深入调查，案件的背后似乎隐藏着一场更大的阴谋。局中有局、人外有人，人心叵测、生死难料，一夜之间风云变幻，各方势力暗流涌动……</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['俩个字，一般，可看可不看的那种', '怪不得被骂那么惨，是嫉妒啊，真的拍的很好，每人演技都在线[满江红张大][满江红张大][满江红张大][满江红张大]', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐，牵强的笑点。最后合唱诗词打着精忠报国的旗号', '有些没有血性，不了解历史的人。张嘴就说这电影不行，贻笑大方罢了', '电影不错 就是只有六分钟 导演下次拍长点', '流浪地球的失败是必然的。我去电影院看流浪地球，电影院售票人员给我调满江红界面，我说他是不是搞错了，他说都一样，然后然后用管理员账号把票价调成和流浪地球一样的58，上面显示我买了满江红的票，最后去别的厅看了流浪地球\n——转自其他网友\u200b', '历史上的《满江红》都没有证实是岳飞写的，岳飞写的是《满江红，登黄鹤楼有感》。而且岳飞的死主要是赵构和金人谈判求和的一个条件。秦桧是千古奸臣，但不是在岳飞的事是体现。秦桧只是赵构杀岳飞的一个名正言顺的借口', '怒发冲冠 凭阑处 潇潇雨歇', '看完了反转特别大，有些画面可能不适合太小的孩子', '4.28满江红全网上线，一腔热血一生忠义，再入宰相府看风云涌动，探人心叵测，共破迷局~', '可能会让你们失望了', '看完了，非常好看，近几年难得的好看电影，喜剧＋悬疑而且反转太多了，不看到最后你都不知道每个人是怎么回事，很棒', '拍得什么这玩意，强行消费岳飞的感觉。难怪春节档被人说用手段玩阴兵场，不然连球2的尾灯都看不见\n', '最让我震撼的是每个人都有一份属于自己的温柔，何力手下无活人，可是最后桃丫头活下来了', '就这玩意儿，票房怎么起来的', '昨天看了，很一般吧', '一颗太子屎，坏了一锅汤', '看完觉得之前网络上的那些喷子都是些没家国情怀的人。人不管在什么朝代，什么阶层，什么职位，都有迫不得已的苦衷。但是爱国是底薪。我们要继承岳飞的爱国情怀，把满江红深深地刻在DNA里！', '[打卡-打][打卡-卡]满江红，全片看完就是感觉是一个自喻聪明的人设计剧情，以为不断反转就是悬疑跌宕起伏，但看完后就是耍猴戏。片中走了好多次巷子放了多次音乐轰炸，新春档上来就杀杀杀，走一次巷子杀一次。片尾有洗白秦跪的台词，杀了那么多人，结局强行降智反派秦跪，逼背诵满江红，强行剧情杀，杀了后又直接反转，被杀的是替身，真身直接现身，啥护卫都没有。然后要杀真身又反转，说搞了那么多就为背首诗强行烂尾！十足烂片 \u200b[气到变形][气到变形][气到变形][气到变形][气到变形]', '大年初一，相约满江红', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐', '昨天去看了，搞笑片，全程没笑点最后我朋友大咕噜给大伙整乐了[狗头][狗头]', '谢谢你满江红，治好了我的失眠症', '真的绝绝子！在电影院看完了，很是震撼！！反转很多，后劲超大。从电影院出来的时候我都要哭死了！一句话，满江红值得！', '这个阵容谁看了不迷糊[憨笑]', '不愧是大盗演，这部电影凭什么在春节档拿票房No1，真见识到上通天（官）下通地（资本）是什么样的了', '好看，反转总是出乎意料，演员演技都炸裂，特别是最后全军复诵满江红特别感人震撼。', '真的，笑点高一点点的都笑不出来，玩的大多是尬笑，玩梗，跟个剧本杀一样。虽说剧情紧凑，且以岳飞被害为背景，提现爱国情怀，也足够反转。但场景的单一，以及人物查案时的事件不够震撼，加上悬疑带点尬笑的影设，导致剧情显得稍有沉闷。人物进行场景转移的时候都会有戏腔音乐点缀，让人稍微精神，但还是难改沉闷。十分我评6.5分吧，稍有失望😞', '特别好看真的 不知道为什么会有人喷[哭到脸大][哭到脸大][哭到脸大][哭到脸大]后半段我特别感动看一眼男朋友他眼泪也在眼眶里 看完出来我俩都特别感悟[意难平][意难平]真的特别好看', '我知道这部电影里面有你们喜欢的明星，或者是哥哥，就说电影本身，不关演员之类的，我看这个电影是看这演员阵容都很牛，才看的，但是我看了之后就俩字后悔😅，我跟那些看一半走了的不同，我是坚持完全看完了，都感觉没啥好看的 就是感觉被割韭菜一样，就这么几个地方，来回走一走，搞得好像那种综艺侦探破案。不多说了，我有点心疼我的钱[泪奔]', '资本的力量这么强大，看看选角都是什么演员都大概看出什么电影了。知名大导演这几年水准不咋地', '电影还得是老谋子，拍的是真牛逼啊', '感觉票房估计要凉。因为，感觉怎么像三枪拍案惊奇汗', '我认为，这是张艺谋近十几年来，最好的片子！自打《英雄》后，張导的作品大多不如以前。这片子，張导宣传民族精神主题，但采用很现代的拍摄方式，，，内容正能量，形式上嬉笑怒骂，不拘传统，把正能量融入幽默滑稽之中。我看，挺新潮，前卫的，，', '像几个人玩的游戏一样，没有电影的感觉，期待太高，有些失望', '没得说，真的好看，刚去电影院看了。今年最好看的电影，没有之一真的，直接冲。', '今天去看了，很好的电影。单论电影，是部好电影，电影本身来源于生活却高于生活，与现实肯定有些出入。电影剧情环环相扣，可能需要点脑子才能看懂。张大从投靠孙均开始，便已经有了打算，故意被射死的刘喜，和叛变说出一切都丁三旺，甚至张大的死，所有的一切都在张大的谋划中，为的就是孙均的觉醒，张孙均才是最关键的人物。为了这场计划，张大摸清了所有人的性格，堵上所有人的生命，至于瑶琴，有她才使这场谋划更加真实，当然，就算没有瑶琴进来，计划依旧是这样。而这一切都目的，就是制止秦桧的计划，还岳飞一个忠义名节，以岳飞遗志，唤醒民众，不能弯腰臣服于金人。可以说，张大将所有人都算计了进去，总的来说，值得一看', '我女朋友今晚陪她老公去看的就是这个', '还用不用掏六块钱了', '手机上可以看吗（免费的那种）', '不懂老谋子的人还是太多，太深沉，厚重的原因吧。', '历史剧，最好不要找喜剧演员。因为在怎么演。看着有点搞笑。不是演的不好，让一直演坏人的人演好人，怎么都不像，个人观点。', '巨好看。初一去电影院看了。\n全军复诵:都去看 满江红', '我就想问一句话，岳云鹏真的会演电影吗？哎！！！', '“怒发冲冠，凭阑处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。”\n中国优秀传统文化志精华，除了感动，还有热血。感谢张艺谋导演，今后多拍些这类电影！祖国复兴，山河一统，就是要有这种中国精神！！！', '把满江红拍成喜剧，简直就是不负责任。', '没有张译我是不会去看的，有多少人是奔着张译来的', '一星都是奢侈', '易烊千玺！！祝满江红票房大卖', '个人认为电影不错，就和无极一样刚开始看不懂，等多看几遍就理解了，会突然发现这些电影的内涵，我觉得还算可以的电影，看不懂的人是因为前面剧情无聊而没有耐心认真看下去', '刚看完，并不算很好看，局中局计中计，剧情基本能猜到一半，搞笑情节不算多，个人观后感一般般吧。', '各有各的说辞。理性分析，为什么美国会批判我们的流浪地球，说明那个会影响他们的地位。', '六块钱呀，六块钱可以买两瓶冰红茶，可以买一顿早饭', '对历史要严肃啊', '玺哥的电影肯定要不见不散呀', '期待千玺的满江红', '这就是在咱们山西太原古县城拍的大片！必须捧场哈！', '可以可以，近年来不错的电影', '这么一会就这么多评论了呀，看来和我一样闲的人不少啊', '好看吗？好看吗？这种电影可以坐票房第一是为什么？', '手机啥时候能看？', '这表情不错', '难怪都说这部就是在一个院子里跑来跑去的，确实是这样！不过也有升华，最后的满江红真的很振奋人心！但仅仅是满江红，与这部电影无关！确切的来说这部电影与当时的票房不符，可见票房能超过同期的小破球2还是有手段的！电影也不至于太差，就是能超小破球2太可疑！仅个人所感！', '专门去打个卡，秦桧头都打烂了贴个补丁', '孙均最后杀了宰相', '浅浅剧透一下', '为了刺杀秦桧[满江红孙均][满江红张大][反转]', '不会就我一个人其实已经看过了吧', '最后背诵满江红升华，绷不住了[意难平]', '从此便有了满江红', '看到1次，我要吐槽一次。纯纯的割韭菜电影，当初真是脑子不好了才会去影院看', '我也看了，很一般', '老谋子 不负众望 好片子 有搞笑 有泪点 有大义 有情怀  堪称经典', '有一个逻辑破绽，既然想对死人开膛拿信，为何就不能对活人开膛拿信？', '啥也不是', '满江红·写怀\n\n宋 ·岳飞\n\n怒发冲冠，凭栏处、潇潇雨歇。抬望眼、仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。', '怒发冲 冠', '再看一次', '值得推荐的一部电影[满江红孙均]', '玛德配音给我吓一跳', '这电影一般人还真看不懂，都会觉得拍的啥玩意，真正懂的人才知道这电影牛逼坏了', '现在的心情：壮怀激烈！全片不见岳武穆，全片处处岳武穆👍🏻张艺谋是懂什么叫家国情怀的～\n\n你永远可以相信张艺谋的艺术审美！镜头空间感运用的炉火纯青，很多一镜到底真的特别有代入感！喜剧元素处理的也十分巧妙，和剧情节奏融合的很自然，笑点很密但没有一处是为了爆梗而爆梗～配乐极其加分，诙谐又热血👍🏻\n\n剧情完美体现了什么是“聪明反被聪明误”“螳螂捕蝉黄雀在后”。每个角色都精准到位，情节环环相扣，不停反转，每当观众以为“啊 不会吧”下一秒就是“我去 还能这样” 不到最后一刻大幕落下，谁也不知道最后会发生什么～观众心态被很很拿捏！\n\n“比起市面上一些为了追求“所谓艺术”而味如嚼蜡的电影，《满江红》真的完美兼顾了电影商业性、艺术性、思想性！”\n\n最喜欢结尾，全军复诵岳飞词作《满江红》中，孙均满身带血的远走天涯，收拢剩余所有的诗意～\n\n总之，真心推荐大家都来看看满江红！一边长脑子，一边笑掉脑子，悬疑管够，笑到最后！', '没有这群人斗智斗勇奔赴死，何来岳飞遗言满江红？', '满江红这首诗谁都可以念，唯独秦桧不能念出来，让岳飞后人怎么看', '可以用会员观看电影啦', '前面笑的有多欢乐，后面就哭的有多难受', '还可以，没有那么震撼的感觉', '欠张导一张电影票', '多拍好看电影', '可惜了，南宋近200年，上上下下没能完成这又骨气的事情，一直到老朱菜驱除鞑虏，恢复中华，收复燕云16州，还是再蒙古高压打的情况下，活不了才反抗，现在不可能了，全民教育，基本都知道礼义廉耻，不可能再有这样的事情了，又个别小丑，不可蒙蔽中华']</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 狙击手 </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>VIP · 10022热度</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>张杰献声张艺谋春节电影《狙击手》《年轻人》致敬先烈守护盛世,电影简介:影片根据抗美援朝战争“冷枪冷炮”运动中神枪手群体事迹改编。1952年冬至1953年初，中国人民志愿军与联合国军在朝鲜战场形成僵持，双方发起了低强度的密集狙击战，史称“冷枪冷炮”。在连长带领下的狙击五班战士枪法过人，成为敌军的心头大患，班长刘文武更成为重点狙击对象。为重创狙击五班，敌方调配精英狙击小队，配以最先进的武器装备，更迫使狙击五班战士大永等人为救同伴进入其设好的险境之地。但正当敌军打响自己如意算盘之时，他们未料到，被他们当作诱饵的侦察兵亮亮身上其实隐藏着更大的秘密。</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.3分</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['很震撼的一部电影！值得观看！', '演的啥玩意，为了一个尸体一个一个的送死，送死敢死队？', '英雄枯骨无人问，戏子家事天下知！！那些被资本炒作捧红的流量明星不值得追捧', '我爸爸叫桑贵福当年就是38军的战士', '不真实，演员太胖了，刚解放的时候，人们几乎都是消瘦健康的。女演员说话语气太嗲，太现代。', '不懂战争的残酷就不要瞎喷。子弹和军人都没有错，为了自己祖国的利益，军人、子弹、炮弹都只是在完成自己的使命而已。全世界的军人都应当受当该有的尊重。其实军队就是国家机器，不要瞎喷军人。我向在历次战争中牺牲的每一位军人敬礼。\n', '之前唱歌那么大声，不怕暴露？', '向先辈烈士致敬', '立正，敬礼', '最初拿到绿卡的几个外国人之一', '伟大的中国人民志愿军万岁，中国共产党万岁', '别人有的我们现在也有了，雄起。', '可能剧情偏神话了，小米步枪干掉对方高精密武器团，实在话不可能的，能赢是我们中国牺牲很多很多换来的，珍惜现在的和平。', '这个月是要交智商税吗？还是我该补补脑', '按事实拍比这神多了…打死两百多还活着回中国', '我能开透视嘛？', '院线上映了吗？我怎么不记得啊，知道的话肯定去电影院看的', '这是一种精神寄托', '他们18岁已经是一名出色的战士，而我们呢？也许在校园追哪个女孩子，也许在哪里逍遥快活', '致敬先烈，致敬英雄！', '这么好的片子，必须高分，致敬我们的先辈，我们的英雄', '细节把握得很到位，故事逻辑性也很强，一步步引人入胜。', '看起老火，非得去送死', '被敌人放这里的还有情报？', '好电影，打出了中国人的处事方式，打出了共产党的精神，张导好样的。', '致敬最可爱的人！！', '最后的点名  炸哭我', '以前当兵的都有真功夫的', '没看过瘾。以前的故事多拍一点。00后10后20后  都要知道', '老谋子还是老谋子，拍的很好，不是什么大战役，只是一瞬间的生和死，残酷，决绝，勇于奉献，一直很紧张的看着，看着看着就流泪了', '想不明白为什么要为一个尸体再做不必要的牺牲', '为了祖国和平 为了共产党的信仰，我国的中华儿女奋勇向前，献出了自己宝贵的生命！为我国中华儿女的先辈们致敬！', '满屏诚意 连群演演技都很好 居然没有一个出圈的 怎么了这是 影视圈真的不需要演技派吗[蹲]', '真值得看一看。', '为什么用这种办法拖亮亮？', '你踏马闹着玩呢，狙击手对决敢这样？在讲感情也不可能这样，狙击手最起码的理智', '致敬英雄～敬礼！', '打的是肾上腺素吗？', '现在绝对没有这样的人了', '可以，不错', '场面没有宏大，但情感描述到位了，与宏大场面的剧是两种形式，还是要点赞👍', '永生难忘', '超级好看！！！', '特别好看', '水门桥他们比这苦太多了', '我觉得没带上美国狙击枪有点不合理', '太喜欢了', '不管这是拍得好与不好！这样的都是真实的！有前辈们的牺牲才有现在我们的生活！', '看了几遍还想看', '拯救大兵亮亮', '致敬张桃芳', '弹幕看的我直接关掉了，真的是不知道怎么说那些人，那时候我们的通信设备只有电台，而电台也是很稀缺的，想会用电台就必须经过长期的训练才行，能说出为了救两个尸体而牺牲那么多人有什么意义的那些人，你以为我们的英雄想要这样子去送吗，我们那时候想要得到重要情报，很多时候都是靠人命去堆出来的，那时候我们要是通信设备和对方一样普及，我们还需要这样吗？请记住一句话：落后就要挨打。在这种面对面的情况下想要得到情报而不牺牲的，基本不可能，不要被现在的一些神剧带偏了', '一点也不好，看，把志愿军和美帝都拍成了傻子', '差评的都是00后吧！', '见火在敲，后发制人', '《狙击手》这部影片中的五班战士，是英雄更是一个个有血有肉、活生生的人。这符合张艺谋一贯的偏好，也没有他影片常见的造作。估计作为女儿的张末对此贡献不少。希望以后我们会有越来越多优秀战争电影涌现出来，打破美国人对于电影美学的定义权。', '致敬先烈\n', '很细节的电影', '一直不敢看这类题材的，怕自己忍不住。后面把其他几部也慢慢看了', '还是老谋子的电影好看', '佩服，神枪手太厉害了', '确实好看力推', '抗美援朝胜利了，战争的残酷，电影艺术的表现形式可能有不及的程度，流着泪看完的，致敬英雄先烈们，您们的负重前行，才换来我们的太平生活！🙏🙏', '题材真心感动！', '雄起 做大做强', '致敬所有牺牲的抗美援朝烈士们，致敬所有英雄们。你们是当之无愧的英雄。敬礼！', '为人民子弟兵致敬', '非常精彩好看', '2023.12.12成功打卡[准时]', '这么好的剧，评论这么少', '很好的电影，很有教育意义。深刻体会到革命先辈的不易和伟大！很喜欢章宇，很有魅力的演员，演技一流，演什么是什么！！！新人演员也都不错，很棒的影片！', '非常好看的电影', '狙击精英？', '没当过兵的80后哭了一路，给80后丢脸了！', '亮亮身上有重要情报', '绝对值得看', '战争的残酷，人性的光环', '了不起的先辈……敬礼！', '这是怎么了？暴露位置，对方也不打了？', '今天看了三遍了', '能把我眼泪看出来的就是好片', '比抗日神剧好看多了。真实多了', '确实拍的不错', '这两个老美打一个人急成这样', '还不如一个小孩', '此类题材希望多拍，通过影片让更多后代去了解当年先辈们用生命换来今天的和平，先辈们把我们的苦都吃完了。致敬先辈，致敬中国军人。', '说神剧的都是不知道抗美援朝战争的冷枪冷炮', '能看看，毕竟中国狙击电影不多', '眼睛有点湿', '最后忍不住流泪，焰火年代，无数的牺牲换来今天和平日子']</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 龙马精神 </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>VIP · 10035热度</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>成龙郭麒麟刘浩存，《龙马精神》“混搭”惊喜,电影简介:曾经风光一时，如今落魄的龙虎武师老罗与爱马赤兔相依为命。因赤兔卷入了一起债务纠纷，面临着“父子分离”的危机。情急之下，老罗向存在多年误会的女儿小宝和其男友乃华求救。在三人一马的自救之路中，闹出不少笑话，也渐渐靠近彼此……</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.0分</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['我感觉这是一部会大火的电影', '为什么是刘浩存 女主  真讨厌', '好后悔当初没去电影院支持一票，这是致敬龙虎武师，致敬成龙大哥一生的电影，希望有机会还您这张电影票。', '成龙大叔，我看你超级不顺眼，所以我诅咒你平平安安，健健康康，顺顺利利……', '[放大镜]￼￼￼￼￼￼￼￼为了成龙来的举个手看看有多少人￼￼￼￼￼￼￼ ￼￼￼？￼￼￼￼', '成龙大哥老了 我也长大了', '说实话，龙叔的电影看一部少一部，所以就算不及格也会支持，不为别的，就为他是成龙', '好可惜呀。好喜欢郭麒麟 结果因为女主可能不会贡献票房啦 ', '战损男跑这儿来了😂', '嗨嗨嗨，内卷了[斜眼][斜眼]', '我靠，这个7.4到底谁给打的，龙叔的电影在我心里一直是满分', '为成龙大哥的奉献精神加油', '只要成龙大哥拍电影我就看，因为他是青春呀', '喜欢刘浩存[准时]还喜欢周冬雨[随份子] 气死你们', '郭麒麟这辈子赚了能跟龙叔合作', '刚刚去影院观看了，影片很不错，有精彩打戏，也有亲情呈现。很不错的影片，值得推荐', '有刘浩存不看', '一定要去看看', '感觉成龙老了，电影没有以前的激情了！', '支持龙叔，上映当天已看完', '可惜了有女主', '一看就知道不好看，成龙老了，只能说年轻时那份精神可嘉', '好想看郭麒麟', '上映上映！不想去电影院！没时间去看', '火麒麟怎么在，真烦人', '挺感动的片子，成龙一路走来确实不容易，拿命拼回来的。', '这是龙叔的收关之作了吗？把以前的那些所有的电影都回顾了！', '成龙大哥这部片是不是拍给他女儿看的呀?', '大米哥拍的时候肯定压力很大[EMO了]普通话07:52普通话07:54', '感觉成龙的电影动作片都是取巧，打他的不是自己碰到，就是自己摔倒。', '都怪刘浩存，希望她以后别去影响别人的电影票房', '22年12月31上映现在就出预告会不会太早了？', '很棒，感觉致敬了龙叔一生的奉献', '怎么感觉大哥在“告别”似的', '有成龙必须看', '郭麒麟郭麒麟（虽然我…嗯…怎么不算喜欢刘浩存呢[蹲]）', '如果人品不行，拍的电影电视剧看着都没意思，作为大众演员，人品过关拍出来的作品，才会让大众喜欢', '刘浩存？笑呢？', '跑了个龙套，不知道有没有我的镜头😄', '超级计划果子狸炖水鱼鞭', '致敬龙虎武师。致敬经典。致敬敬业精神。也许在未来流量明星当道。再也不会有这些很好的作品了', '我是眼含泪水看完的   希望大哥身体健康  龙马精神', '成龙电影带领了一个时代，我们慢慢变老，以前的优秀演员慢慢落幕[没眼看][没眼看][没眼看]', '我们的龙叔真的老了，他的影片从小陪伴我们长大，他对这份事业的热爱与付出远超我们所想，此片应该也算了了他对动作影片的念想，，但愿我们的龙虎武师永远健康平安[打call了]', '这是我看哭得最多的一部剧了我们大家都感谢大哥給我们带来的这么多好看的电视剧电影向成龙大哥致敬[一起冲][一起冲][一起冲][一起冲][一起冲]', '一辈子的贡献，几代人的青春，感谢成龙大哥', '从小看成龙的电影长大的，长大后还是喜欢看他的电影。', '龙叔是我一辈子偶像，从小是，长大也是，个人觉得好看.', '必须和女朋友贡献几张电影票', '这是我看过最好看的电影，没有之一', '比满江红好看', '本身就是成龙的粉丝，龙叔的电影百看不厌，幸苦了，', '好久没有看到成龙演电影了，从小到大就喜欢成龙演的电影，很喜欢', '真好，好电影看一部少一部咯！成龙叔叔的电影也看一部少一部了！', '致敬了很多龙叔的电影片段', '童年就最喜欢龙叔的电影，到现在都没变过，[意难平]我爱龙叔的电影，致敬龙叔[意难平]', '全程泪目啊   龙叔好样的', '看着成龙电影，这部电影看出了成龙的确不容易，支持龙哥，给你点赞', '哭了哭了哭惨了', '居然腾讯vip能看全集', '精神永不褪色', '支持龙叔，龙叔的电影必须看。', '敬成龙大哥👍', '寡人来看了，2023年12月14日', '9分52秒，替身[打卡-打][打卡-卡]', '还是我原来的龙叔，翻帽子名场面', '打卡成龙电影龙马精神 31:11😊😊', '哭了，推荐大家看', '果然不亏是陪伴了我三十来年的龙叔，好久美看电影看哭过了，这会是真的哭的眼都肿了', '2023.12.22致敬龙叔，我的童年结束了～\n希望龙叔身体健健康康的。', '很感人，马摔的时候，让人很心疼。很想知道马受伤了没有，片子不错，又一次塑造了经典。可是马遭罪，马是无辜的，心里很难过，希望马能被善待，妥善安置好，算是救赎吧，因为我们是人。希望你们能懂吧，为马儿祈祷！', '刘浩存是谁，就是单纯认为这个女的真的尴尬，不尴尬吗？没有这女的，可能多5亿，', '龙马精神 1:57:14，成龙的女儿让我来，谁也不要跟我抢[破防][破防][破防][破防]', '哈哈哈，太喜欢这个姿势爆满', '2023致敬龙叔', '不摔，观众看什么啊！应该让小鲜肉们都看看这部电影👍👍👍👍👍', '确实很不错 值得推荐 嗯真的很不错👍', '[大哭][大哭][大哭][大哭]哭鼠我了', '这会是龙叔的封山之作嘛😭', '太感动了，龙叔电影总是给人力量。后半场一直哭着看完。', '真正看完龙叔所有电影后来看龙马精神是不一样的感觉，龙叔真的老了，我不要评分多高，票房多高，我只需要自己内心的感觉，不管是不是最后一部，感谢龙叔，您辛苦了！', '成龙大哥拍的都好好看，熬夜看完，哭的稀里哗啦😭😭😭', '如果没有刘浩存。票房估计能多一两亿。很多理性的网友肯定也是和我一样支持龙叔，但是又过不了心里道德那一关。才没买票去看。唉', '我觉得拍的不错啊，挺好的。感觉这可能是龙叔的最后一部电影了\n、', '龙马精神！🤙龙马精神 36:03', '好看，看哭了😭', '郭麒麟又胖回去了吗', '我00后，龙叔是我的英雄，这辈子没有人能替代龙叔在我心目中的位置', '不知道那些觉得不好看的是因为什么，我是个粗人，没有那么高的品鉴能力，我只能依靠我的本能去看，只要他能触动到我，他就是好作品，仅代表个人观点。', '很感人，我想养过动物的人都能懂']</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 冰雪奇缘 </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>VIP · 9937热度</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4部迪士尼动画中的隐藏彩蛋，艾莎和人猿泰山竟然是“亲姐弟”？,电影简介:在四面环海、风景如画的阿伦黛尔王国，生活着两位可爱美丽的小公主，艾莎和安娜。艾莎天生具有制造冰雪的能力，随着年龄的增长，她的能力越来越强，甚至险些夺走妹妹的生命。为此国王紧闭宫门，也中断了两姐妹的联系。悲哀的海难过后，艾莎终于到了加冕的年龄，各国王公齐来祝贺。艾莎战战兢兢，唯恐被人识破隐藏了多年的秘密。然而当听说安娜将要和初次见面的南埃尔斯王子汉斯结婚时，依然情绪失控露出了马脚。在此之后她逃到山中，构建了属于自己的冰雪王国，而阿伦黛尔也陷入可怕的寒冷之中。
+安娜独自来到山中，在山民克斯托夫的帮助下总算来到姐姐的宫殿，她能否让国家重新找回失落的绿意？</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.1分</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['姐姐为了不伤害别人，伤害安娜，把安娜拒之门外，每天戴着手套，安娜不明白为什么？以为姐姐讨厌她，后来，与一个刚认识一天的男人订婚，姐姐不同意，还逼的姐姐爆发，逃离城堡了，从刚开始到这里我都不怎么喜欢安娜，结局安娜为了救姐姐牺牲自己，让姐姐明白爱可以让冬天变回夏天，安娜最后也找到的真正爱自己的人，从头到尾都心疼姐姐艾莎，妹妹从小天真烂漫，可艾莎因为不能控制魔法，容易误伤别人，只能把所有人拒之门外，心里承受的太多了#艾莎女王#', '就我觉得安娜很烦吗？', '艾莎心中是充满爱的，正是为了保护她的子民、保护安娜，才独自一人远离城堡。\n当她真正感受到被爱时，同时也救醒了安娜，爱能感化一切，纯粹无私的爱最伟大！', '之前能投屏 怎么现在不能了', '冰雪女王。生来就与他人不一样，明明很厉害，却要收起自己的光芒。隐藏自我。因为没有人会教自己如何使用自己的强大技能，用不好就会伤人，尤其是伤害了自己最亲近的人。\n想要逃离，却被告知越是害怕越是容易被控制。\n世界上的人不全是友好的，小心翼翼的抵挡，小心翼翼的提防。我有个可爱的妹妹，她重新给予我勇气与力量。勇气不是不害怕，而是在害怕的同时选择做比害怕更重要的事情。\n冰雪女王做到了。以爱为出发点，冰雪的力量得以很好的控制！\n爱，不一定是爱情，亲情也可以，无关乎性别，无关乎种族。\n每个女孩子都可以做自己的女王，相信自己的力量，爱自己，爱爱自己的人。', '从2018年的时候，就开始看《冰雪奇缘》，逐渐开始，就是每年无聊的时候就来看看我也是冰雪奇缘的老粉，可如今爱莎公主的颜值，还是那样的漂亮可看见，《万界神主》和《完美世界》，女主的颜值也十分感叹，但也没说艾莎公主的颜值落于下风，我只能说国漫的技术是国外不能媲美的 ୧⍢⃝୨ ୧⍢⃝୨ ୧⍢⃝୨可惜《冰雪奇缘》不允许截图', '今天晚上🌃', '我的投屏成功了', '我投上了🤣', '22年2月8号了，还在回味冰奇', '其实不能投屏是版权问题。', '俺不是爱上你唱的歌真好听', '“公主才需要王子，而女王不需要。”', '1314怎么说[狗头]', '冰雪奇缘徽章[打卡-打][打卡-卡]', '千山不了一山中山', '这魔法真强，冰城堡', '内容没有内涵，太难看了', '喜欢😍艾莎[超越][喜欢][一起冲][一起冲]', '被咯取消🌸🌟🧚\u200d♂️🧚\u200d♀️🧞\u200d♀️🧞\u200d♂️👗🧢👠💄🌻🌺🌸🌼🍄💐🌷🌹🔮🎀🎁🧡💜💙💚💛❤️💕', '哦不🙅🏻\u200d♂️！我求你了别唱歌🎤了', '印象最深的就是艾莎说:爱能解冻。所以我相信艾莎心里是有爱的，她本有不同于别人的能力，以为把自己封闭起来就可以让自己逃避，可是安娜让她明白了，爱能解冻，只要有爱可以融化一切，最后的艾莎克服恐惧，勇敢的做了自己的女王。', '《冰雪奇缘》是一部动画电影，赢得了广泛的赞誉。\n故事以两位姐妹安娜和艾莎为中心展开。故事中融入了家庭和自我救赎的主题，赋予了电影极大的情感和意义。\n动画制作水平非常出色，令人叹为观止。精美的动画风格、生动的角色表情和流畅的动作设计提升了整部影片观赏性。\n该片的角色塑造着重于女性角色的成长和自我价值的追寻。安娜和艾莎都是坚强独立的女性角色，她们展现了不同的性格和面对困境时的勇气和智慧，为年轻观众树立了积极的榜样。[撒花N][撒花N][撒花N]', '好喜欢安娜这句Do you want build a snowman?', '好可爱的雪宝呀我好喜欢你啊我真的好喜欢你呀我好想抱着你一起回家', '第二部跟第一部相比就能发现安娜真的成长了很多[意难平]她很勇敢啊', '看着电影看到艾莎唱歌那个片段震撼了', '不喜欢安娜是因为单纯讨厌恋爱脑', 'annanan/ansjsn', '刚开始穿那个蓝色衣服的时候好漂亮呀！', '这个反派王子挺不错的，有野心，有手段，有勇气，是个合格的国王，就是运气不好。', '爱莎，你是我的偶像，也是我的本事。我喜欢你，哼。', '这是多少人的童年回忆。我记得这是我唯一一部重复看的电影，小时候经常重复看，因为真的太喜欢了', '在手机投屏还没反应过来的时候赶紧点投屏！就能投了！', '艾莎数学训练。', '不会掉下去吗？', '广东省广州市公安局交警👮', '汉撕坏人', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好', '我也是一个很努力的人', '23年了还有人看吗哈哈哈哈', '艾莎我看见长发公主，你那时候不应该躲在房间里该出去，而且我也是你的粉丝不应该这样就逃跑哎呦你妹妹也是很想看你，他不是故意的，你唱的那首歌很好听我是你', '僵尸艾莎公主，我看到这个电影，现在我要吃，我要吃坑的，他现在问的是每一天看他出这七个空间，我都玩了，怎么说都不回说啊', '勋章来了', '我的第100个勋章', '现在好了，凉凉。', '我看完了妹妹看，现在我的闺女开始看了，一整天不带换的[我裂开了]', '23年年底看完星愿回来n刷，不管看多少遍还是很震撼！', '这下给那男的一巴掌', '这个电影里，50%都是唱歌，管一人', '大哥我求你了，能不能别唱了？', '小时候真的贼喜欢艾莎建城堡那段，反反复复至少看了不下50次[一起冲][一起冲]虽然我现在已经成年了，哈哈哈', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦冰雪奇缘(普通话... 05:20', '哦可斯诺克睡觉睡觉三甲集哎阿吉十几集啊就爱就啊经济阿吉手机啊经济阿吉就啊叫撒爱莎公主最喜欢澜 每天我要多看爱莎公主', '艾莎和安娜唱的歌好好听啊，但是太多了吧', '我最喜欢看冰雪奇缘了！', '不是你刚才那个裙子好漂亮', '我来艾莎从哪来的魔法', '我家狗狗一会儿瞅一会儿不瞅，一会儿睡觉。', '这不怪爱莎吧[我不理解]', '过去这么多年还是喜欢\U0001f979', '安娜的记忆被篡改过来，只剩下一些美好的记忆，我们是上帝视角所以觉得安娜不对，但是安娜的视角就是本来玩的很好的姐姐，突然不联系了，整个城堡也就变成一个牢笼，父母去之后更是只剩艾莎一个亲人，但艾莎不理她！爱莎是知道原因主动把自己封闭的，安娜是莫名其妙的就被限制和外界接触的！安娜就跟楚门一样在一个封闭的世界生活，但是楚门至少有别人陪他演戏，城堡里的仆人可不敢跟公主说三道四，从小也没人教过安娜什么事爱情！被关了十多年，刚出门遇见一个文质彬彬的王子，上来就是一顿糖衣炮弹性格又跟你合得来，你爱不爱？安娜想帮助艾莎跟他一起寻找解决之道，艾莎害怕伤害她们跑了，安娜一路追到北山，安娜一直选择面对，艾莎一直逃避，小时候地精族长就说过击中心脏难搞，艾莎仍旧选择把安娜赶出去，即便在生命的最后关头，面对活命的机会和自己的姐姐，安娜依旧选择救姐姐！我们是上帝视角，安娜不是！', '他会使用多种魔法比如说是🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️💦💦💦💦💧💧💧💧💧⛄️⛄️⛄️⛄️⛄️', '快点来来来来来来来来来', '为什么安娜和艾莎？长大以后不上学呢？', '前面还挺好看的', '一会艾莎。肯定就要倒霉了。', '好看从小看到大', '安娜死亡寄', '安娜怎么就在逼艾莎了，她一直都在鼓励艾莎给艾莎面对恐惧的勇气[冰块狗头][擦汗]', '好看，希望每个女孩都是自己的女王', '我最喜欢这个埃拉特们的声音', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦', '#重磅！欧文近期将重返篮网#', '真的很喜欢，oh my god', '$…%…@？%%…%@IPTV，%$%突然有事先到时再说吧了吧啦的大师', '很好看，看的很感动。', 'dimfkfnnv~know how you feel better', '太难了呀，安娜公主', '好看好看就好看', '真的就很好看，我已经看了很多遍了希望能推荐更多像这种的电影', '那时候用的是我爸爸的培根。那个是我爸爸的会员。', '很符合一般的童话，唉，就唯一的迷惑，女王其实可以从小练习如何让正确利用魔法，最终成为一代强者，毕竟这个国家地精都有，估计也会有强大的魔法师是来教，不过这样就会成为热血少女漫画，哈哈哈。就蛮遗憾的。', '不就是拳击手安娜\n\n', '王子真会', '能不能别动不动就唱歌ಠ╭╮ಠ', '我是觉得是特别好看', '太喜欢了啊啊啊啊', '我喜欢这个雪人', '老姐儿 我想你了']</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 消失的她 </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VIP · 10970热度</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹅斯卡X电影《消失的她》：文咏珊克服砸酒瓶的心里恐惧，只为呈现最好的效果,电影简介:东南亚某国，年轻男子何非疯狂寻找失踪的妻子李木子，然而当地警局视若罔闻，令他出离愤怒。可就在某个清晨，何非突然发现身边躺着一名陌生女子，更令他毛骨悚然的是，女子居然声称是他的妻子李木子。慌乱之余，何找来华人警察郑成，试图揭穿假冒者的骗局，谁知种种迹象表明，对面的陌生人真实不虚。隐隐之中，何非认为妻子被犯罪团伙绑架，他只得求助干练的金牌律师陈麦追索真相。在调查中过程中，细微线索逐渐浮出水面，而更加黑暗的真相也开始暴露在阳光之下……
+本片改编自前苏联电影《为单身汉设下的陷阱》。</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.5分</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['这部电影成功的把所有女性洗脑了', ']看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n[鞠躬]看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n[鞠躬]看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活的好，必须要靠自己向命运挥拳！\n[鞠躬]看完《孤注一掷》不是让你别相信朋友，是让你学会在这个社会保护自己\n[鞠躬]看完《我经历过风暴》不是让你别结婚，而是一定要擦亮眼睛，可以多谈几个，日久见人心，婚后见人性\n所以，一定要有正确的三观，不要盲目跟风，不然苦的是自己。[求求了][求求了]', '这个赌鬼把刚怀孕的李木子把别人关在笼子里，一切多是沈漫计划的一场戏，就是为了让这个男的说实话', '李木子是最大的赌徒，她在赌一个赌徒的真心', '这个不建议看，我和我女朋友就是这样，和我女朋友在电影院看完消失的她然后想一起去吃个饭，她直接不理我，把我手甩开了，是真的，当时我还拿着她的包，我一看这样立马就生气了，包直接给她扔了，我说，如果你因为一部电影就认为我没有安全感，那我们也没必要在一起了，然后我自己就打车回去了收起到了第二天她来找我复合，说她错了，我说你拒绝我一次之后，第二次你就没机会了，电影里说的是女生不要让男生伤害第二次，那么同样，你是女生，我是男生，我也不会让你伤害我第二次，我是异地恋，当晚就坐动车回来了，然后就把她所有联系方式都给删了，你用行动拒绝我，我也会明确回应，狠下死心跟你分手，花着我的，吃着我的，包也是我买的，到头看完一部电影就甩脸子？给谁看呢？原谅是不可能的！', '这部电影拆散了好多情侣', '《消失的她》……其实我们都知道！爱会消失！承诺会失效！人会走散！只是我们太执着！相信自己是个例外！可到最后无一例外···', '看完《消失的她》远离男人看《我爱你》别生孩子看《八角笼》养不起孩子今年的电影主打一个不婚不育，小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角上亿资产你有啥，还带入自己什么锅，配什么盖也别怪你男朋友，有人破防今夏大爆款《消失的她》值得反复观看品味朱一龙演技朱一龙演技炸裂真的很好看啊！何非最后那个表情一刹那变脸太吓人了，朱一龙演的真的好，演技牛逼 不愧是金鸡影帝非常不错，演员演技都在线看了，很好看！朱一龙对角色的饰演和理解人物很透测，这个电影告诉我们，不要恋爱脑，远离黄赌毒好看好看好看，电影院看了一次手机看了一次，非常好看#2023暑期档最想看的电影#[高血压][泪目][高能][反转][欢乐快逃][梦海保护]', '真的很好看，非常悬疑', '确实挺不错的，唯一的缺憾就是酒瓶子砸脑袋，就两滴血还是顺着鼻梁留下来的。相信喝过酒的人都知道酒瓶子砸出血不可能就两滴，还想让它流哪就流哪。血有点偏黑，还是得用猪血，别的真不像。如果打分我只能打个8.5。', '建议情人节档安排上，更适合情侣宝宝的好电影❤️！', '首先，这部电影并不是单单针对男人，现实生活中为了获得配偶遗产，杀夫与杀妻的现象都是存在的，不要说看了这部电影就要远离男人，影片所揭示人性的丑恶是针对不论男人女人的所有人。还有，男主是个好演员，他不是何非，请不要伤害演员！[意难平][意难平][意难平]', '剧情一般，没有让人觉得眼前一亮的一个瞬间，但细节处理的不错，木子怀孕了摸肚子，何非一直要求立案而不是找人。说到处都找过了，问过，身边的人（酒店服务员等）却没有感受出他对找妻子的急迫和同情，急迫的表情只对警察和陈麦表现。人物身份大概能猜测出来，警察都不愿意帮他，郑成出现在警察门口而不是警署内，陈麦一个颇负盛名的律师会欲擒故纵一样无条件帮他寻找他的妻子（有名的律师一般不会接这种穿着不像有钱人的案子，咨询费都挺贵的，一般不会自降身价）陈麦肯定就是知道他是谁才帮他，后面问他闺蜜尸体在哪里的时候，有人影晃动时间流逝造出一种压迫感，但却迟迟没有人来就能猜到陈麦和郑成是一伙的了。开始以为何非吃药可能也是为了让自己意识模糊骗自己真的在寻找妻子，结果是真有病，脑子和心理都治不好的那种，最后何非哭可能也是因为杀了自己的孩子而哭吧[抠鼻]还说做这些是为了匹配木子。说何非是赌徒不如说木子是最大的赌徒，赌一场虚幻的爱情和变幻莫测的人性。剃头发那里或许是一镜到底眼神没有感受到真正的惊恐，胸口以上没有绑住，麻药也刚打上还没有发挥作用，完全可以试着挣脱而不是任人宰割，面部抽搐演的还行。反而是郑成的笑感觉挺到位的。', '前有秦昊老师带你爬山\n后有朱一龙老师带你看海\n所爱隔山海，渣男送棺材[偷笑]', '看完以后真的很难压制住自己的愤怒，对一个那么爱自己的人去要了她的命，真的cs，当然不是指剧中演员，但是这部电影是根据事实改编的就很让人惋惜，这部剧告诉我们不能轻易相信一个男人的甜言蜜语，在他说这些话之前你应该先想想他说的和他做的，如果一个人粘上了赌毒那他几乎是戒不了，广大女性朋友在选择恋爱时真的应该把他了解清楚，认清他的为人，人品，这个世界真的存在太多居心莫测，保护好自己才是最重要的，作为一个男生看的何非这样对一个爱他的人下了杀手是真的愤怒，真的把渣男体现的淋漓尽致，女士如果碰到这样的人真的很危险，奉劝各位女性朋友以及男性朋友，不要恋爱脑，不要恋爱脑，当你用感情去看问题的时候你的理性就被屏蔽了，你会忘记他的缺点，他的不好，感情不应该是处处的处心积虑，两个人中有一方动了小心思那就真的很危险了，真的希望各位女同胞也好男同胞也好，遇到一个真正爱你，珍惜你的人，珍惜好眼前的人', '特别好看，最后朱一龙为了保护木子和孩子把她放在防鲨笼，自己去引开鲨鱼，流的血汇成了海底星空那段真的感动死了，好久没看过这么好看的电影了[机智]', '今天我才看这个消失的她，当初我女朋友看的时候也跟我说，没感全感，也跟我提过分手，因为一部电影分手，我原谅她，不计较，没太在意，直到七夕那天，我主动发红包，然后我说了一句今天应该收到很多红包吧？这句话说完就把我删了，我瞬间炸了，我就当她心情不好吧，下班了，我就打电话，发短信，发抖音，都把我删了，我加了微信无数次，通过了，立马发个红包人家131.4人家嫌弃少，说我哄小孩子呢。我她妈的辛辛苦苦的上班赚钱，异地恋，半年我主动发红包转账，1314+5200+520+52.0+131.4从来没有低于52.0的，我一个普通人打工的，我也要生活，异地恋啊，我一个月给你花几千，我得不到关心，疼爱陪伴，我去找你坐飞机去找你你不让我去就算了，任何事情都是我主动，男人主动发红包转账，任何事情我都是主动，从来没有让她开口，男人不花钱吧你说男人不爱你，花了吧换来的是删除，第一次删除我，我求爷爷告奶奶的加回来通过了，看到我发的131.4又把我删了，我去抖音评论把我拉黑了。害怕其他追求者看到了，把我藏起来谈恋爱生怕身边的人知道了，花我的钱，从来没有满足我任何事情，过年的时候在一起挺好的去了外地她就变了，都是成年人，因为一个电影，一句话就删除微信，说分手的那女人不要也罢，男人辛苦赚钱容易？真心对你爱你，你非要作，你说男人去赌博了，或者跟别的女人上床了不给你花钱了你折腾说分手，删除都可以理解的，她妈的我呢都没有因为一部电影分手，一句话删除微信，我看完消失的她，总结了，人啊一定要擦亮眼睛选择人，选择错了女人毁三代。选择错了男人你就是尸体！为何女主结局那样，因为她选择的男人野心渴望太大了，对钱，他只爱钱，同样女人也是的，当一个女人只爱钱，在爱情里，男人给她钱了就是爱，不给了就不是爱，电影里的男主不就是？女主不给钱了就没有爱了，现代女的她妈的就是这样，记住了没有男同胞们，但凡你的女朋友眼里只有钱，只爱钱的时候你一定让她滚，不要让她毁三代，因为当你一旦不给她钱的时候，她要么跟你分手，要么就让你家破人亡，给你戴绿帽子，男人们，看完消失的她，你记住做任何事问心无愧，给你钱花，是你值得，是爱你，不给你花那么因为我也要生活，生存，你太自私，只爱钱，这样的女人，不要也罢，今天看完了，我就把前任所有东西拉黑删除了，最气人的是，她说我跟你谈恋爱，可不能保证跟你结婚，你说你都三十的人了说出这样的话，不以结婚为目的的恋爱？', '太狗血了，男主竟然是渣男，女主让你受委屈😢了', '看完之后，我老婆问我有啥感想，我说这男主也蠢了点，应该翻翻女主的手机，把知道我们事情的闺蜜找出来，一并杀掉，才不会有手尾。这部剧也告诉了男人们，要完美犯罪，得多留个心眼', '全剧看完了，剧情紧凑，我也是在出租潜水装具的那个人说的那句话脑海里闪过一个猜想，结果事实确实证明了这一点。另外结尾最后这个彩蛋，如果换成行刑前几个带有跨度的慢镜头，枪声响起后，男主角脑海里瞬间回想起他们一起在夕阳余晖下拍照的场景，最后画面再回到男主的脸上，随着瞳孔越来越大，镜头也越来越远。画面再次回到那个两人一起的合照上，整部剧随着照片的飘落整部剧落下帷幕。话说你们是在哪里开始怀疑男主的？', '什么时候可以在手机上看啊救命', '朱一龙又要拿影帝了[666啊]真牛', '跟有那种的感觉 我看了两遍第一次在影院出门有分手的[泪目]这个我当时挺喜欢的后来单曲循环《笼》这首歌', '所以，沾染了黄，赌，毒的人绝对不要相信他（她）会改邪归正，果断远离才是明智之举[打call了]', '这种也能放到电影院上？有啥一意义？', '远离黄赌毒，是有道理的！出轨，外遇，嫖娼，赌博，毒品毁了多少家庭！', '三分之一的时候我猜了一个结局，三分之二的时候我又猜了一个结局，租潜水设备的时候而电影也接近尾声，闺蜜这个重要角色一直没有出现，又想到唯一一张闺蜜的照片，突然整部片子里的暗示就都明朗了，一直在被整部片子牵引着。真的太棒了', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角有上亿资产你有啥，还带入自己什么锅配什么盖也别怪你男朋友，有人默默破防有人默默划走', '就好奇何非为啥要去报案？唯一觉得这影片不合理的地方！', '那个男的是个赌徒之后老婆对象帮他还债，然后他又去赌，欠了钱她老婆怀孕了男的想杀死她老婆来获得💰 之后就是她的好姐妹和兄弟们演了一出戏，那个男的并不知道她老婆怀孕了他老婆很爱他，可他并不珍惜。最后知道啦后悔一辈子，执行死刑了嘎了', '你亲手杀死了这个世界最爱你的人', '能被电影左右的，老子祝它一辈子不会幸福', '好看是好看，就是总有小仙女一个月欠着三千块花呗老把自己代入成女主，三观脆弱的人建议别看', '现实中可能没有那么多钱可骗，就是画饼，发誓对你好，等结婚了，小孩生了，原形毕露，有家不回，家外有家，', '谁能告诉我去哪里举办，中国人民不想结婚就是这部电影害的', '这部电影超虐的，不建议情侣一起去看', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]', '不沾赌，不吸毒，不出去乱玩，长得也还不错，最后我提出分手了，因为给不了她想要的二十万彩礼，最后我祝她幸福。', '一个电影，会导致多少情侣分手？跟那些毒鸡汤有什么区别？本来在这个物质的社会，男孩子找个女朋友就很麻烦，现在因为一些鸡汤，每天又有多少情侣、两口子在分手，离婚。想想吧。', '主要讲些什么呢？那个妻子到底怎么消失是，后面怎么又出现是的，有人告知吗？', '后半段看得我鸡皮疙瘩都起来了 朱一龙演技好牛逼！！！！！！！', '如果能因为一部电影影响感情，那还不如趁早结束[皇冠]', '孩子没有自己带过，没有生下来，没有相处过是没有感情的，相信我', '好想看这个电影啊', '朱一龙的何非演的太棒了，初到大城市和后面赌徒的他完全不一样，他的眼神也很到位，后面谎言被戳破那段表演爆发力很棒，剃头的戏演的很惊艳！让人对何非又怜又恨！\n电影消失的她引入了世界名画和动物元素，艺术价值和商业价值兼备！', '三观不正，不良嗜好，直到最后人性丧失，人心真是不可直视，爱情在人性面前一文不值，又何尝不是讽刺当今社会人活在面具下', '朱一龙演技炸裂 看第五遍了，哈哈哈，影院看了3遍，今天线下腾讯看2遍～太棒了 不愧是金鸡影帝，集演技人品努力颜值于一身的演员，值得赞美。', '朱一龙不仅有颜值，还有演技！有颜值却没受困于颜值！不像有些演员，已经是油腻大叔了，却偏偏要尬演小鲜肉角色，相信朱一龙最终会是帅大叔一枚！[打call了]', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]有人默默破防有人默默划走', '唯一不懂的是，为什么他报警，表现的那么着急，然后还找律师帮忙，为什么', '我就想问问，女生们，人家女主资产过亿，所以被人谋害，请问你们有啥？？。[抠鼻][抠鼻][抠鼻]', '打死都不去泰国缅甸老挝这些国家，怎么死都不知道', '太好了，终于可以在腾讯视频看朱一龙消失的她了！', '啊啊啊啊啊！最后反转绝了，剃头那里才反应过来，朱一龙演技好好啊啊啊啊！！！！', '为啥手机上面不能看', '★★★★★朱一龙演技真的不错。很多情绪都塑造得很到位。这个片子也拍的很不错。值得一看。结局令人唏嘘。', '可能没有感同身受吧，觉得很平淡，并不觉得很好看，只是个人观点', '你说他和曼曼在水塔下喝酒的时候就不会愧疚嘛，水塔下有最爱他的人', '所以说有个爱他的女人，而且那么有钱主要是这男主这么6嘛赌博长的又丑这么有钱又漂亮的女生怎么看上他的呢，钱真的有那么重要嘛杀人就为了钱', '看完真的不知道说啥了[意难平]\n姐妹儿们，以后谈恋爱一定要看清对方。男孩子们也要擦亮眼睛，不要被坏女孩骗了。[意难平][意难平][意难平][意难平][意难平]', '昨天去电影院看的，值得一张电影票。去看吧！不会后悔。', '朱一龙演的真好。电影悬疑的不止剧情还有人性。', '演技很好的朱一龙演了纯爱战士何非！剧情反转大家都看过了，但情感上的抒发才是最动人的。最后的海底星空让人动容。朱一龙加油，期待下部电影。', '朱一龙牛逼啊，怎么做到控制面部抽搐的，不愧是影帝啊，演技太好了！', '这阵容悬疑剧颜值天花板啊', '朱一龙演技好厉害，好看好看', '听说看了这个离婚率提高了很多？？？', '电影相当不错，值得二刷，作为观众来说这部剧的剧情是给我的感觉是为了反转而反转，反转的痕迹很强烈，如果还能深度打磨剧本，可能会成为电影史上的佳作', '不是什么时候手机上才能看啊', '赌博就像是吸毒，都有瘾虫在作怪；戒毒难，戒赌亦然；我辈平平，控制住好奇心，可是碰不得。电影拍的真好啊，妻就妻，还妻带儿，难了个大受！😫😫😫', '人心，不可直视', '恋爱脑就别看了，我怕你疯', '我以为可以看，搞得我会员都开了[意难平]', '今天去电影院看了，简直了，反转太厉害了，后面刀有点刀', '什么时候可以在手机上看', '朱一龙演技好好啊！佩服佩服，在电影院看的时候给我惊的，牛逼！', '去电影院没有带眼镜看不清楚，又不好意思二刷，终于可以在网上看了', '朱一龙演技牛，好看', '看完这个我感觉，少去外国旅游，远离赌博。', '真的好看 全剧可能唯一不好解释的点就是摄影师哈苏为什么是沈曼的人了吧 总体看来瑕不掩瑜 很后悔没有在电影院看这部剧', '希望且爱且珍惜吧。珍惜当下，不要错过。男的最后是后悔的。但是晚了。所以有幸福在身边的人就要珍惜不要错过。', '昨天看了，超级好看', '真的好看，之前电影院看过，但有一些细节没看懂，现在网上能看了，再过一遍👍朱一龙演的何非，真的很不错👍', '看完心里堵得慌', '来了来了。在影院看非常震撼！', '反正就觉得。第一自己别太有钱。第二 别找别人太有钱的。第三 坚决不出去旅游 杜绝一切山 水 活动', '作为一个剧本杀的硬核玩家 看一半就知道端倪了[吃瓜N]', '远离黄赌毒吧！', '这是恐怖片吗', '终于等到了[意难平][意难平][意难平]']</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 斗破苍穹·觉醒 </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VIP · 10773热度</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>《斗破苍穹·觉醒》终极预告，马伯骞斗气觉醒，少年意气斩尽藩篱,电影简介:身为乌坦城三大家族之一的三公子的萧炎，因斗气等级不高成为众人的笑柄。在遭到云岚宗大弟子纳兰嫣然退婚之时，萧炎不堪受辱与嫣然订了三年之约，约定三年后以比武胜负来决定婚约。为提升斗气，萧炎来到了魔兽山脉，结识了小医仙，但也被卷入了狼头兵团的纠纷中。因为躲避狼头兵团追击时，萧炎偶然撞见了斗皇云芝和紫晶翼狮王在搏斗，云芝不敌狮皇，萧炎救下了云芝，两人经过一番曲折之后决定再次去挑战狮王，两人分头行动，最终成功。云芝偷偷离开，萧炎也决定离开魔兽山脉，前往蛇族沙漠……</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.8分</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>奇幻</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['我的评价是不如他', '谁要是买了我笑他六十年，三十年在河东笑，三十年在河西笑', '强烈要求严查导演，我怀疑拍这部电影的目的是为了洗💰！', '找不到拍的了吗？实在不行你去拍天线宝宝也行啊！！！', '对不起吴磊，我承认之前的声音有点大[意难平]', '终于免费了，我来看眼怎么个事，看到这个表情请戳瞎我，谢谢。', '打倒反派消炎', '消炎，云山，熏儿，这这这', '我的天呐，无语ing…', '工作人员 能不能认真一点', '大家别误会，我只是点进来骂几句就走！拍的和💩一样', '拍的好，大力支持，这一颗星是六星溢出来了！！！！！！！！！！……', '看了前面感觉还不错 花了六元买了看着更爽了 物有所值', '这要不是为了洗q，我把异火都吃了，第一次想看云山打死萧炎', '能不能退我六块钱，不是差钱，我感觉我的智商被侮辱了！', '这钱这么难洗吗[666啊]', '小马太敬业了 白内障了 还出来拍戏   点赞。。。。。', '萧炎还得他来演，吴磊也演不出', '………..emmm很难评。[泪奔]', '🙈我就不喷了', '看完这部戏后，我面色凝重，深深地低下头，默默的关掉电脑，起身打开冰箱，拿出一瓶伊利酸酸乳，紧紧地握在手里，细细的回忆着刚才的剧情，慢慢的走向窗前，外面的景色有些暗淡，就像我的心情一样，沉重。。。很沉重！渐渐的，外面灰蒙蒙的下起了小雨，为什么会这样？我的视线开始模糊了……不知道是我 流泪了、还是雨太大了！可能都有吧…… 我的心情更忧郁了，我再也无法抑制内心的情感！导演和编剧真的太侮辱观众智商啦！我缓缓的仰起头。。。对着窗外大喊了一声：这到底演的神马玩意啊？', '有一种打开奶奶家的皇家曲奇饼干盒确发现里面是针线的无力感', '这波我站魂殿这边，魂天帝必胜！[打call了]', '6块钱，我宁愿拿去买两瓶快乐水', '猖狂猖狂猖狂、三千雷动动动动动动', '人家辛辛苦苦拍的给你们看评分搞那么低对得起人们吗？又不想出钱，又想VIP有的看。看了里面的弹幕，个个都要白嫖。', '莫欺少年穷，当萧炎强势归来的时候，任何人都不配跟萧炎提鞋', '就说咱能不能尊重一下原著，原著没有人物描述吗，这一个个的是啥？\n这封面——\n萧炎要不要那么邪魅，跟个反派似的一点没有正气\n药老更离谱人家原著说的道风仙骨这咋出来个算命的瞎子\n云山虽说是岁数大但是人家突破斗宗后变年轻了啊，不说你找老演员了，就是找老演员也得找个像原著描述的啊，那姜武大圆脸戴假发玩呐，要是把假发摘了我都感觉像个大厨！\n也就是萧战这个演员还想点原著的任务描述', '这还演什么斗破苍穹，我觉得有歪嘴龙王就挺适合的😂', '这玩意这演员阵容能看吗？？？？？熏儿只能李沁或者李一桐才完美', '不是大哥，你们都没有手机吗？都没键盘吗？开喷啊，还等啥呢，等过年啊？', '真的有被马伯赛惊艳到，真的好适合这种片子，希望哥哥继续努力', '你要是实在没播的  你播天气预报  今天的博不准就播昨天的', '我的评价是一托史', '就这破东西我还犹豫了一会才点开，结果还收费？笑死，9毛钱我都嫌弃', '狗看了会兴奋的电影', '作怪的，如这个吗？啊？导演是谁？毁了一代人的三观', '笑死我了这云山', '要不要买，买了的说一下', '我靠，这拍的啥，有我美有我酷吗？', '4.6的超高评分，我希望没有三年之约，我更希望云山干死萧炎', '真好看啊，我看了。推荐朋友也花了6块。第二天被朋友打进医院，朋友陪了我1万。以后有这样的片子，我还看', '导演不负众望，无论是剧情还是特效都非常的震撼！强烈推荐！！！\n唯一的缺点就是不够看，6分钟就看完了，希望导演能加些时长。', '谁花六块钱，我笑他60年，30年在河东笑，30年的河西笑', '吴磊我错怪你了，除了特效不行外你的演技还是挺好的[狗头]', '咱就是说，这些特效真的很不错，看起来就很有意思', '观众们的期待；熏儿——刘亦菲，雅妃——柳岩，纳兰嫣然——赵丽颖，云韵——佟丽娅，美杜莎——张雨绮，小医仙——古力娜扎，萧炎——我[看]', '期待～一直在期待，上班熬了个通宵都等到10点上线，还浪费了我省吃俭用的6块钱的早餐钱。看完这斗破苍穹后，我面色凝重，面无表情，躺到床上两眼一闭，回忆我看过的小说，回顾我追过的动漫，再总结我刚刚花早餐6块钱看完的电影，我直接开骂了，这尼玛的什么跟什么，毫无逻辑，毫无剧情，毫无经典。欺骗我对原著的情怀吗？拍的什么鬼，我起来跑的冰箱拿了一瓶啤酒，一口气喝完倒头睡下，听到窗外的雨声 仿佛我现在的心情，。。很沉重。很生气', '我叫萧炎\n我叫林动\n我叫牧尘\n萧炎：我目标是成为斗帝\n林动：我目标是晋级祖境\n牧尘：我目标是进入主宰境\n萧炎：我的戒指有个药老，比攻略还NB\n林动：我的石符里有个貂爷，比攻略还NB\n牧尘：我的黑纸里有个九幽雀，比攻略还NB\n萧炎：我有种东西叫异火，威力堪比神器级绝版装备\n林动：我有种东西叫祖符，威力堪比神器级绝版装备。”\n牧尘：我有种东西叫至尊身法，威力堪比神器级绝版装备\n萧炎：我出自乌坦城的萧家，是个小少爷\n林动：我出自青阳镇的林家，是个小少爷\n牧尘：我出自北灵境的牧域，是个小少爷\n萧炎：我喜欢古熏儿，可他家势大，不让我和她在一起\n林动：我喜欢绫清竹，可她家势大，不让我跟她在一起\n牧尘：我喜欢洛璃，可她家势大，不让我跟她在一起\n萧炎：年少时，我的目标是打败纳兰嫣然\n林动：年少时，我的目标是杀死林琅天\n牧尘：年少时，我的目标是打败姬玄\n萧炎：想当初，我斗皇的时候，栽在我手上的斗宗一大堆\n林动：想当初，我生玄境的时候，栽在我手上的死玄境一大堆\n牧尘：想当初，我化天境的时候，栽在我手上的通天境一大堆\n萧炎：我有特长，我会炼丹\n林动：我有特长，我会画符\n牧尘：我有特长，我会布阵\n萧炎：我有两个老婆\n林动：我也有两个老婆\n牧尘：我目前只有一个老婆，但我相信我会有第二个的\n萧炎：我的武器是尺子，叫玄重尺\n林动：我的武器有很多，合称九大神物\n牧尘：我的武器还没出现，现在用的都是一些缴获的，求武器啊，嘤嘤嘤。ＱＡＱ\n萧炎：我最后成为斗帝，打败了魂天帝，夺回了大陆的和平\n林动：我最后晋级祖境，打败了异魔皇，拯救了世界的万千生灵\n牧尘：我没有他们那么NB的事迹，但我还小，我相信我将来会比他们更Nb\n萧炎：后来，我加入了迦南学院，参加了学员大赛，一战成名\n林动：后来，我加入了道宗，参加了殿试，一战成名\n牧尘：后来，我加入北苍灵院，参加了狩猎赛，一战成名\n萧炎：我有一个特NB的大招，叫佛怒火莲\n林动：我有一个特NB的大招，叫青龙化天决\n牧尘：我有一个特NB的大招，叫九级浮屠塔\n萧炎：如有雷同\n林动：纯属巧合\n牧尘：我也没辙\u200b舞动', '我可没有购买六块钱看，我只看看五分钟的鼻炎', '我怀疑着导演不是为了拍电影是为了洗一下不干净的Q', '像萧炎这样有能力的男生，没有哪一个女生不喜欢吧', '我觉得腾讯应该搞一个缴费看评论，应该会比这个电影收益高很多[上头-上][上头-头]', '[狗头]谁要是买了 我笑他六十年 三十年在河东笑 三十年在河西笑￼', '推荐给我的好兄弟们一起看，不能只有我自己难受', '毁三观的电影 我以为王晶的新倚天屠龙记已经天下无敌了 这是谁的部将', '我以为吴磊已经天下无敌了，没想到有人比他还勇猛[憨笑]', '家人们谁懂啊，我为了勋章，看了六个六分钟的经典大电影，谁懂啊，可惜电影太短了点就是！', '没看过动漫的我，觉得很好看啊！全程看完，很有意思啊', '主角团用这些人就直接封神了\n萧炎：胡歌   萧熏儿：迪丽热巴/古力娜扎   小医仙：刘亦菲   \n云芝：白鹿   纳兰嫣然：关晓彤   美杜莎：迪丽热巴/古力娜扎', '浪费我一瓶饮料钱 我承认之前对吴磊的声音有点大', '我的评价是：依托勾史', '我进来只是看看有人骂没，看到有人骂我就放心了，我真没看。🙋🏿\u200d♂️', '这几个老戏骨怎么接这种片子，实在是多穷接不到片子拍了', '离离原上谱', '从来没看过这么好看的电影，剧情选角特效都是绝佳，真心推荐大家看，五星好评虽然只有6分钟', '鱼越大，鱼刺越大，鱼刺越大，鱼肉越少，鱼肉越少，鱼越小，所以鱼越大，鱼越小。', '笑死，药老哪来的女弟子？还有小说都不知道萧炎他娘是谁，这还好意思拍出来？', '这种肯定要先看评论再买，我就问个事，对比吴磊的你们还喷吴磊吗？😂', '影史上改编成功的只有仙剑1和三了，其他小说游戏改编都很失败', '建议严查 不然这演的那么随意？现在什么电影都可以上架吗？', '我的评价是勾史一样的主角，勾史一样的剧情，勾史一样的演技，勾史一样的特效', '我就没花6块，我就看了6分钟。我买了两瓶快乐水，我骄傲啊。', '观影20分钟才能评分，可我俩分钟就坚持不下去了。', '我以为斗气化马已经是极致了，没想到还有高手，对不起吴磊', '看来上一次被骂的还不够狠，兄弟们等这部片子出了继续骂。', '你们没看就别黑了，，真的挺好看的，就是只有六分钟', '我VIP7级表示不愿意花这6块，看这玩意儿（啥也不是）', '马伯骞真的nb，先参加明日之子，被毛不易压制，没火起来，又以不到而立之年参加《哥哥》，现在还能直接演电影', '还没买，不知道好不好看？买过的可以告诉我嘛？值不值得？', '你们充钱的观后感是不是很好，我感觉6分钟够看了', '真人萧炎还得看吴磊，虽然电视剧特效差，但是吴磊很符合我对萧炎这个角色的少年感和有趣', '那个云芝是打算要收萧炎为孙子吗', '我宁愿动漫追到死，也别想在这电影里赚我9块钱', '看了20分钟就为了给个差评.如果开始能评价我都不带看20分钟的.', '看来现在这钱确实是很难洗啊 ，但你也不能嚯嚯这小说啊 ……', '兄弟们建议大家不要看了，六块钱不如买个鸡腿吃吃', '特效不错，还行吧，败就败在前有小说有动漫以及人性这玩意，像国外那些科幻片的新鲜感就能是他们的爸爸😂😂😂😂😂', '斗破苍穹是个好机会看谁能抓住名留青史！我觉得周星驰导演够用，他对细节的把控非常到位！国内科幻类型的特效比较差要是能克服才能有大成就', '马伯骞是个什么关系大户？不止是父亲建筑师、母亲高学历吧？']</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 失而复得 </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>VIP · 11077热度</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>张亮私下交易假币，闹出人命,电影简介:如果有一百万美金放在你面前，你会想要得到它吗？出国归来的张博受人之托，要将百万美金送出境，同时青梅竹马的冯乐琪正在竭力调查一起假币案。两人连同各阶层爱财之人，意外卷入百万美金的陷阱中。真真假假的钞票、虚虚实实的情愫，每个人都成了局中人，一场好戏正在上演。</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.9分</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['居然还能看到赵英俊😭', '趁现在评论少，我先吃个快餐', '为啥只有78条评论？不好看吗小伙伴们？', '祝我29岁生日快乐！[666啊]愿以后每天开心！[一起冲]', '我的妈呀！赵英俊死而复活了', '为了赵英俊而来。失而复得 00:49', '2023.12.05 第一个报道！！！！！', '为什么还没看，就排斥辛芷蕾', '你这是认真的吗？帽子这个链花都歪了', '张亮麻辣烫', '课代表给你们梳理包包的情况\n首先剧里一共3个包，外表一样，一包杂志，一包真钞，一包假钞。\n1，张博放了一包真钞，此时天花上只有一个包\n2，章国荣被女警追的时候从风扇处藏了一包杂志进去，此时天花上有一包真钞一包杂志\n3，三兄弟带着一包假钞来偷梁换柱想取走真钞，放上去一包假钞，拿走一包杂志，此时天花上还有一包假钞一包真钞\n4，章国荣醒来取走一包假钞，他的视角里那是他的一包杂志，此时天花上还剩一包真钞\n5，三兄弟误认为张博把真钞藏在了别的地方，第二次上天花想取走之前放的假钞，然后取走了天花上仅剩下的一包真钞。\n张博放的真钞不见了，认为是有人从风扇处偷走了\n三兄弟得到了一包杂志和一包真钞，但误认为拿到的是自己从假币贩子那买的假钞，不知道张博把真钞藏哪了\n章国荣拿着假钞以为是真钞，所以虽然不理解杂志怎么变成钞票了还是告诉了警察那是他的～', '谁能说说这是咋回事？怎么是2023年的呢？穿越了么？', '2024负债清零就好', '真的挺好看的 要好好捋一下情节 有疯狂石头那个意思', '疯狂的石头', '看得我一脸懵', '这是幻灯片还是ppt', '来看蕾子~~~~', '从头到尾没有辛芷蕾的', '有意思，和疯狂的石头类似', '不错的片子，几路齐发线索，最后汇聚在一起，推荐路过朋友看看', '天网恢恢疏而不漏。', '洛阳来了', '纹身贴是贴的', '导演功底不够 硬抄疯狂的石头吧', '流水席一样对付', '派人去糗（qiu三声），这不是东北话么[笑死我了][笑死我了][笑死我了]', '还不错，多个故事线串在一起', '🌊🌤🌴✨\n想过一千句描写旅行风景的句子\n却不及按一次留住幸福的快门📷', '肥皂剧吧，挺无趣的', 'x6连倒车影像都没有，搞个串串', '有点意思，也有点混乱，最后不太搞得清谁是谁了。', '有点没看明白啥意思', '逻辑混乱', '所以为啥开旅游公司的最后拿的是真钱？他拿的不是卖假币收藏的那个人的假钱吗？那个卖包的拿的钱咋是假钱？卖包的最后拿的不是王老爷子的一百万吗？？', '看了30分钟还不知道讲什么', '大家都是会员说话嚣张一点', '主演应该换成黄渤', '这片不拿吴樾辛芷蕾做宣传，估计没人点进来', '疯狂的赛车？', '差劣的模仿…', '有点看不懂', '为了潇洒哥而来', '啥啊这是', '能不能演个恐怖片？', '不是死了吗？', '这电影至少是3年前的了吧！赵英俊都走了快三年了。', '都看不出什么来', '这个电影好看吗？先来评论区逛逛😅', '客串的明星真不少，喜欢吴越', '辛芷雷的👄', '都干嘛呢😁', '这是麻辣烫那个张亮吗', '来了 来了', '很搞笑，也非常有意思。剧情有点类似于《疯狂的石头》，喜欢看石头的，可以看看这个电影🎬。', '给烂苹果打广告\n', '编剧有点厉害三个故事窜在一起玩', '挺好的剧', '为啥电影名不叫张亮亮麻辣烫', '没王法了哈哈哈w', '天啊张博他爸看的节目爸爸去哪儿1：12：20', '没看明白', '乱七八糟', '真的不好看', '王健林呀这是', '这应该是赵英俊最后一部电影', '演的个啥', '突然看到赵英俊，真觉得恍惚了', '2023   12   8号观看', '张亮会演戏吗……', '南海归墟来的', '人少占个座[准奏]', '这导演牛逼', '笑了一次算我输，不过有点疯狂的石头的感觉', '这剧情设计得有点复杂了。', '2023.12.7日打卡', '这里面居然还有韩兆', '这啥时候拍的呀？还有赵英俊？[放大镜]', '还热乎赶紧站个坐', '12月15日[吃瓜N]', '看不懂的举手', '￼2023.12.05 第二个报道！！！！！', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈歇一会哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '一个不尊重军人的人演上了警察', '有点烧脑', '片还不错  就是有点傻乎乎的', '挺有意思哈哈哈😁', '是人是鬼！来拍电影', '赵英俊失而复得了', '捐的钱最后还是进了那些人口袋']</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 茶啊二中 </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>VIP · 10832热度</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>孤注一掷、死磕五年！电影《茶啊二中》曝“强迫症”导演故事,电影简介:初三三班最调皮的“学渣”王强和“暴躁班主任”石妙娜意外互换了身体，压迫已久的王强过了一把当班主任的瘾，石妙娜也体会到了做“学渣”的滋味。石妙娜的公开课比赛日期临近，二人急需找到换回身体的方法，却遇到重重阻碍……</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.5分</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['看不出来哪一件好看', '三年了，你知道我这三年怎么过来的吗，等了这部电影足足三年，茶啊二中一到四季足足看了不下一百多遍了，不容易啊终于等到了', '好看好看好看  必须去看绝对不后悔 评分给打上去 茶啊二中第五季也在做这呢', '起初奔着搞笑去的 没想到这么有情怀', '快上腾讯视频，顶上去喜剧电影《茶啊二... 01:07', '很好看，国漫越来越好了，', '有些人在怀恋青春，在后悔在，还口口声声说回到过去就好好读书，却唯独不说现在该干嘛，看过去是为了反思现在，之前都不努力的你，现在还不知道努力，你也就那样了', '看了，这是结尾，有一小段录屏这里发不了，真的很推荐观看', '哈哈实在', '3年的遗憾补上了', '手机什么时候可以看啊', '画风没以前好看 感觉', '好看，五星⭐⭐⭐⭐⭐', '想起刚上初中的时候英语老师对我不放弃多次叫我回去继续上学叫我多努力学习步入社会就没那么苦🤧没听劝后悔当初', '电影是多少个小时？', '高伟会回来吗', '不容易啊终于要来了5年啊', '一天刷了这个动漫全四季，挺好的，挺喜欢！想起以前好多尬事，哈哈...\n不过，这动漫一开始定义的主题就是，青春，回忆，校园...以及写实！\n大电影继续这个风格不好吗？为啥非要跟风搞奇幻呢？\n还身体互换？一听这几个字，就剧透了一大半了，有点像...炒剩菜...\n无意褒贬，只是个人想法，勿喷~', '正在看！好看！', '手机上什么时候可以看', '前面很好笑，后面也很感人', '六年级开始等现在都高一了终于出来了', '手机上什么时候上线', '鞠婧祎唱的歌[一起冲]', '啊啊啊，鞠婧祎唱的主题曲[撒花N][色][色]', '凌晨卡点看不会看不了吧？', '八月十五晚上带我女儿看的希望能给我女儿点启发吧，我自己觉得好看。茶啊二中 1:27:36', '什么时候手机上能看', '7.14号上映，这都7.17了，废了', '我是废了，荒度了学生时光，我的娃我希望她以后能有多彩的回忆', '哇塞 居然开播了！！！等了那么久！', '终于来了！😭', '兄弟们，卡点过来了', '说实话，很尬', '差评   变成了神话故事', '这就是当代女生宿舍的写照吗？哈哈有点真实', '青春与遗憾的联名是每个人都有的限量版', '好看，怀念读书时光', '好看好看，推，一定要看看\n', '我的心情已经不能用语言来表达了，期待第五季，期待下一个大电影', '彩蛋这段应该是很多人曾幻想过的吧', '寝室吃火锅，用汤灭火！这些行为实在不该出现在电影里', '爱应斯坦好调皮😜', '茶啊二中 51:03可突击了', '我是听了刘宇宁那首《二中中二日记》来看这电影的，不错！挺好看的啊', '王强导不了怎么办', '有点对不起高中老师', 'yx嫁给我', '非常好看啊！[一起冲][打call了][YYDSA]', '怪不得小胖那么胖，原来他还在偷吃零食，那个老师都不用他的', '中学时代', '老套路互换身体没意思了', '被记住的那一刻，已经变成了永远', '石老师 你永远是我们最好的老师', '好٩(•̤̀ᵕ•̤́๑)ᵒᵏᵎᵎᵎᵎ', '本来就是坨大便', '宿舍里真冷，我室友都已经被冻残', '这才是学校', '好看，幽默又感人。', '感动！这就是青春！', '真的无厘头，毫无看点', '用个男的来配女的声音夹子音？难听', '唉。居然见不到这人了。', '2023.09.19\n题材很好 略带夸张的搞笑“手法”画风清奇，内容饱满，夸张的真实 无快进看完的电影 小时候在电视机上看过一半拉点 有手机后也很少看此系列动画 可能是缺少此类经历 十分推荐 祝爆火 强烈建议观看 支持国产动画 都无收费的电影 真的很好（仅个人观点 不喜勿喷 ，看剧还是根据个人喜好选择观看谢谢）[抱抱][抱抱][抱抱][抱抱][抱抱]\n    ---致我们逝去的青春[打卡-打][打卡-卡]', '感动！这就是青春。', '张忆冉我…我想你了', '挺搞笑，人物很丰满', '必须杠杠滴', '非常不错，好看', '喜欢看，看了好几遍了，😍', '动画片。。果然是哄小孩的。。看网上评论，期待太高了，感觉中规中矩吧。。', '我从头看到尾一次都没笑，一直期待笑点能让我开心一小会儿可是却没有，我笑点真的不高，是真的没啥好笑的', '之前看抖音说这个电影不好看不值得看，就没去电影院，现在是真后悔，真的特别好看的一部电影，特别喜欢。', '就这，还天天前人在抖音刷存在感，还好没去看，真的不知道说什么好', '真的看得很感动，今年大学毕业了，看完之后怀念起了初中高中的生活，七年前的那个时候还没有手机，很遗憾好多事情没能记录下来。\n那个时候的晚霞很漂亮，和同学一起躲在教室里看外面下的大雨也很有氛围感，自习的时候班级里的确很吵，还有那些老师和同学的故事，真的真的会想起那个时候，就像是歌词里说的“在我的少年时代里面，永远有个滚烫的夏天”或许现在想想真的是青春的感觉吧，人永远无法同时拥有青春和对青春的感受。', '错过，不是错了，而是过了 ——夏达《长歌行》', '我的妈呀', '太吓人了', '十老师太快了吧', '是我来晚了，再见了我的青春', '当我们有部分的人思考上学的路程的时候，这部电影就已经成功了', '茶二中是我小时候的童年回忆，没想到一晃都20多岁了', '特别好看，我很喜欢', '我一生中最难看的电影', '笑中带泪🥲 好片！', '真的还挺好看的', '真实的青春啊', '推嘎嘎好嘎嘎推荐等了三年的', '评论区那些没良心的肯定就觉得不好看呀，有良心的都觉得好看。', '看了这部电影，怀念我的青春时光，非常好的片子，值得一看。']</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 八角笼中 </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>VIP · 10915热度</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>缘尽至此，王宝强与八角孩子爆发冲突放手一搏,电影简介:电影讲述了向腾辉倾注心血想把当地无人照料的孩子培养成才，这让生活本没有出路的孩子们看到了一丝通向未来的曙光。然而，随着往日的表演视频被爆出，这些“残忍、血腥”的画面刺激了不明真相的人们的神经。一夜之间，舆论开始发酵。向腾辉的生活、孩子们的前途都陷入到人们以善良为名编织的大网中，让他们难以挣脱，重回泥沼，关于未来，他们的“出路”又将在哪……</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.6分</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>励志</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['非常不喜欢这部八角笼，不管是不是真实事件改编个人观点非常不喜欢，底层人没有资源没有钱就用唯一有的命去博去打去抗吗，人人平等，人人平等，人人平等，重要的事情说三遍', '电影讲述了，政府的腐败 资本的利益 跟网络的可怕 还有人们不去了解真相的去伤害别人', '看完《八角笼中》这部电影，你也许就会明白。王宝强能以导演的身份翻身，不奇怪。而这个故事，也只有他来拍，才最有说服力。借着这部电影，让我们重新走进这位“龙套之王。电影《八角笼中》改编自真实事件。恩波先生曾先后资助和培养了近百位来自山区的贫困孩子，让他们学习拳击，以格斗打出自己的未来。而在2017年，有记者曝光，有些孩子在铁笼打拳，而且伤势不轻。恩波被指责“剥削儿童”，他的举动遭遇了很大的争议。为什么说这个故事，最适合由王宝强来拍？提炼一下，王宝强跟那些“格斗孤儿”一样，区别是。面对人生，孩子们的武器是拳头，而王宝强，靠的是戏。2017年，王宝强以导演的身份拍了《大闹天竺》。同样是公路喜剧，编剧也是《泰囧》的班底，但这部影片在审美、笑料、节奏层面都一言难尽。最终，影片豪取票房7.5亿。但口碑惨淡，3.7分收场。王宝强再次遭遇质疑：拍电影是有门槛的，而他是门外汉。拍《八角笼中》，是对非议的再次回应。为了第二部导演作品，王宝强在拍完《唐探3》后，就没再接过其他角色，一门心思投入其中。这需要极大的魄力。用演员王迅的话说就是——这几年，他要面对多少诱惑？找他的都是大戏啊，都是好角色。他能把这些戏推掉，就是成功的第一步。这不是每个人都能做到的。你推掉的就是钱啊。王宝强的这种品质，就是真诚。真诚面对观众，真诚面对创作，真诚面对自己。', '难道就我发现 今年唯一一部发火不收费的么？就这一点 就够赞的 给你一个大拇哥👍', '能看懂这个片子的只有农村出来的孩子，有钱人家的孩子根本就体会不到', '八角笼中道尽了这个社会的肮脏和黑暗。道尽了资本和官方的恶心，🉐谢谢官方', '这是电影史上第一次请的贫困山区孩子 来扮演主要角色 而且还是真实事件改编的  剧情励志催泪 必支持宝强的电影 这是暑假期间 最期待的一部电影 宝强这次出品必是精品 必须支持 预测票房40亿超上', '确实是个好电影，放在国际上都是一部不错的片子', '《八角笼中》这部电影，是时隔数年后王宝强在现实主义题材的一次回归。而在山区找来的儿童演员身上，他看到了曾经的自己。这似乎是一种传承。拍这个故事，他是有优势的。他和片中人物一样，都是底层逆袭，破笼而出。为了尽可能地呈现真实。王宝强在将近三年的时间里，去四川体验生活，“让这个作品成为他身上的一部分”。到了现场，对服化道，他的要求极为严格。唯一准则：“真”。落实在表演上，尽量做减法。他会要求王迅在塑造人物时，避免出现过多的枝节。再比如他饰演的向腾辉。在最开始，还有些唐仁的影子。慢慢的，整个人物就回归到了现实之中，他的表演越来越偏于内敛，以呈现人物的复杂心理。比如被记者围追堵截的惊恐与惶惑。比如对学员的愧疚与自责。在故事层面，他又尝试做加法。在《八角笼中》中，他加入了很多复杂、丰富的议题。比如向腾辉收留儿童所面对的道德困境，比如新闻媒体在公共事件中起到的作用，比如格斗孤儿的命运，以及他们对向腾辉的微妙感情。他想讲的内容，涉及人性、媒体与社会。看完这部作品，你能感受到，在导演层面，王宝强有了不小的进步。他用打水漂的石子和八角笼这样的意象，来阐明彼时贫困儿童的命运。他用丰富的影像，充盈叙事的表意。他用拳拳到肉的笼中格斗，来呈现猛兽出笼的痛苦、畅快和自由。王宝强是内娱少见的具有人格魅力的演员，他跟一些作品中的形象有着某种相似之处，朴素、真诚。现实中的他，还有一种特质：不服。每一次，他都以诚恳的态度面对，以踏实的行动抵达。王宝强，像极了《八角笼中》里的那些孩子们，单纯而热烈，等待着打破命运的那一天。而这样的人，我们似乎都不希望他们输掉。', '看完了。演的很好👍', '王宝强能当领演  乌鸦变凤凰了  试问你有文化吗？', '我就是大山里走出来的弃婴，那些没有经历过苦难的人不会明白底层人的世界，不理解没关系，但请心存善意，有能力就帮，没能力说句安慰的话，不会说就闭上你那高贵的嘴谢谢', '又是一部堪比我不是药神的剧。每年来一部这种的就够了。宝强牛逼', '三分钟就看完了，也不知道有什么意义，重点在哪里', '好，反映的山区孩子的困境，讽刺了道德绑架和披上伪善外衣的人性，', '￼￼￼￼好电影！做为演员，王宝强成功了！做为导演，他也成功了！🏆这才是我国影视行业进步的样子。', '有钱没品的人看不懂这个电影的真谛，他们根本感受不地道穷的没饭吃是什么滋味，穷人跟富人永远不会平等，等你出生的那一刻基本就决定了你的人生，极少部分人才会遇到贵人。就像马虎跟苏木，腾辉就是他们的贵人。', '￼￼￼￼￼￼￼￼￼￼￼￼有多少人和我一样是为了王宝强来的，看看有没有100万人点赞👍🏻', '￼￼￼￼￼￼￼￼￼￼￼有多少人是为了王宝强来的，举手￼￼🙋🏻\u200d♂️', '抽烟演技在线   树先生', '看完电影后 揭示了人性的复杂性和社会的阴暗面，引发了人们对道德与正义的深思，是一部非常感人的电影，它让我们看到了现实社会的残酷，也让我们看到了善良的力量。\n\u200b山沟里的贫穷,孤儿们的困苦,体育界的黑暗,虚伪贪心的教育人士,断章取义的新闻媒体,假仁假义的网络圣母,在影片中都有一一体现出来，选择这样一个真实事件还原进行题材改编拍摄，当初的恩波自己也是有一段不为人知的故事。', '评差的。让他们去山里生活个半年，让他们看看那里的孩子。在山里的孩子们，有多少人关注过，那里的教育、生活条件等等，能造就出什么文化方面的人才。但是他们需要生存，需要过的更好，需要家里人顿顿吃到肉。那些什么慈善机构别动不动给这个困难给钱，那个困难支援，走到山里去，帮帮他们。灾难当中有国家支援，有民众支援，灾难后都可以恢复正常。但是山里的那些孩子们却天天都在灾难中生活呀。我看到对这个影片的一些花絮，其中一个片段直击内心，两个孩子在吃饭，有个工作人员过去掰走一个男孩的半个馒头走。另一个男孩怕也掰走半个，直接就一口吃下去。（印象中这个花絮是工作人员有意的一个测试，看看孩子的反应）。另一个花絮是一个不会游泳的孩子，在水里训练手中举着石头，蹲下起来的）拍完后才知道这个孩子不会水，但是这个孩子知道这也许是他能走出大山的一个机会，用命去拼一个看不到的机会。王宝强能把这个搬到银幕上面就不能感动大家一些吗，还在这里风言风语的，不就是认为草根出了好作品，心里不平衡嘛，还看到马蓉都出来蹭热度，怎么不去看看影片的内容呢，怎么不换位思考一下那些孩子，为什么那么拼呢！外国的拍真实事件，成就英雄。我们拍的真实事件都是，差评。世态炎凉。永远支持王宝强，也希望王宝强多拍这种类型的电影。质量不是重要的，重要的是让人们的三观正一点。', '好评！草根英雄是否被水军排挤？居然有人评论差的？草根导演和草根拍出来的电影是否打了某些商演的脸？', '现在这个社会很畸形，真正做善举的人和机构被有心人和某些私心重机构网络引流攻击，一些无良媒体失去了无冕之王的正义和作为新闻人的严谨和公正，不核实真假，不辩明真相，为博头条，毫无新闻人的素养与底线。一群不知真假的唯恐天下不乱的网民像苍蝇闻到臭肉，兴奋狂欢，跟着起哄，像参加一场狂欢。把整个社会氛围变的戾气重重，压抑无比。', '这部剧拍的太赞了，题材非常好，真实改编才能深入人心，这个世界不良媒体太多，网络圣人太多，黑心资本更多，大山深出穷人的孩子想有出路太难，那些黑这部剧的看完了么？有良心么？', '这部电影是我今年以来看过最具有色彩的影剧，剧情真实，内容感人，十分能带动观众的情绪', '说真的，看的过程中泪水打着⭕，这不是矫情，我也是大山里出来的孩子，深刻体会到那样的生活，电影里那个姐姐那种无奈和绝望和对生活的妥协，最真实。别看现在的大环境好了，有机会你去偏远地区看看，去农村看看走一走，也许对你会有些许感触！\n\n唉，太真实了，看完想说的太多了，勾起太多的回忆！一言难尽', '@妈妈说名字不要起得太长因为会有傻子跟着念: 看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活，必须要靠自己向命运挥拳！\n看完《扫毒3》不是让你别相信朋友，是让你学会在这个社会保护自己\n所以，那些人该有点正确的价值观了[抠鼻]', '电影院已经看过，说句真心话吧，看到一半我就想走，唉，宝强还是适合喜剧！', '你见过那个CBA球员是农村人和那个运动员是农村人的吗？也许剧中为和怎么样都要修那两百万的足球场只是这段没有写得很好，现实点还记得前段时间烟草公司吗？别人你一个普通人就算上了好的大学没背景资源出来没打螺丝就算幸运了，说这话可能会有很多人不喜欢听不过也无所谓。', '非常不错，我不爱看国产电影，但是这一步我是真的动容了，国产电影崛起！！！宝强崛起！', '王宝强翻拍恩波格斗馆事件的同时，也是王宝强在翻拍他自己的人生经历', '王宝强拍了那么多好电影，塑造了那么多经典角色，却还没拿过主流权威电影奖的影帝，希望这次八角笼中能弥补这个遗憾吧[意难平][意难平][意难平][意难平]', '有人现在看旳吗', '要演技有演技，要人品有人品，王宝强真的很不错', '我是预言家，这个电影爆火了', '这就是我们的媒体。只报道自己想报道的。一点职业道德都没有了。', '在电影院刚看完，很好看，值得一看👍', '大多数城里人都看不起从大山里跟农村出来的人，在他们眼里，我们很粗俗，愚不可及，在资本的推动下，他们就是那么的高高在上，我们就是他们眼里最底层的人，而往往这些人却不知道，他们吃的穿用的，都是我们努力拼搏出来的，哪怕工资低点，累点，没事，顶的住，因为还有妻儿老小要用钱，加油老乡们（没文化的农村人路过）[拳头][拳头][拳头]', '一直觉得自己过的挺苦的，不想看太苦的剧，今天看了八角笼中，还是被剧情跟所有演员的演技打动了，善良的人即使最初的目的并美好，也不妨碍最终成为心有大爱的人，王宝强牛啊！', '太励志了很感动 是我今年看过最好看的电影没有之一 宝强我欠你一张电影票[意难平][意难平]', '星爷看了〈八角笼中〉默默地流泪。\n火🔥大火🔥🔥', '拍的非常好，非常棒', '宝哥是我喜欢为数不多的演员，人品好，演技也很好', '王宝强演这个角色，感觉他沉淀好久才可以演的这么出彩。', '我从深渊艰难爬出，你们又把我打回谷底，还要让我谢谢你的恩赐！', '王宝强历害了', '支持王宝强', '王宝强什么时候上啊', '还是预告啊', '苏木就是另一个我们，加油', '期待王宝强的新电影，这个这个电影是真实事件改变来的😭😭😭', '抽两个皮友给电影票', '王导，7.6毕有一张电影票', '永远支持宝强[一起冲]', '6666666', '不喜欢，但还是看完，因为评分高，我想搞清楚。方言已经让人产生厌恶感，时代不同了，叫过时吧。用贫穷吸引同情，现在全国各地门槛下降，人人可以自力更生，时代不同了。贫穷可以使人更加无底线努力，那是因为死不足惜（穷不怕死），但自信必须是克在骨里，那叫难能可贵。总而言之，言而总之，穷不怕死不一定光荣，贵不怕死一票难求', '八角笼中 49:482023年12月18号晚上18点14分深圳宝安黄丽珍', '对王宝强的最初印象是那部士兵突击，很有好感。剧情也很赞。后来的那个泰囧和唐探中，剧情角色仿佛掉到了同一种模式中，剧情故事也有些浮夸就很少关注了。八角笼中的出现开始有些突破，剧情讲述起点依旧是底层人的命运，但能感受到角色设定不再单一化，演技也提升了不少，情感的表达设定更加合理化，有隐忍有冲动。那几个年轻演员也是表现不俗。就是有一点，人物的心理回顾和回忆，镜头切换的有些生硬，不够自然。总之还是一部挺赞的片子。', '只希望经历黑暗依旧相信阳光', '我把他们骗出了那个山沟沟，我骗他们练格斗，骗他们能拿冠军，以后能靠这个吃饭。咋了?他们是啥子人?家里牛牛没有，地地没有，工作工作没有，钱钱没有，他们往哪儿走啊?他们是一群除了我，连骗他们的人都没有的人[意难平]', '这么好的苗子 被治本和良心糟蹋成了这个样子……这个世道太黑暗了！', '可以说，《八角笼中》是从方方面面，各个层次，揭露着社会和人心的罪恶与邪恶！\n\n但是王宝强终究是王宝强，他没有让苏木趴下，生活很难，那八角笼子不只是他们格斗的场所，更是生活的牢笼，可是只要不服输，只要不认命，只要心中的那口气不灭，只要你敢去反抗，只要你来向往美好未来，那就努力把战斗吧，把那牢笼打开！闯出去，不遗余力地闯出去，哪怕受伤哪怕流血，只要出去了，就是另只要出去了，就是另一片天空！\n\n\n就像王宝强自己，他能从一无所有的草根，凭着自己一步步的踏实努力，走到如今，成就传奇。\n\n\n所以，他用最现实的手法，想纪录片一样，揭露着恶，却在着恶包围的世界里，颂扬着善良与正义，倡导着努力与坚强，给所有苦难中人们以阳光和希望！\n\n\n所以，苏木成功了！苏木的姐姐走出来大山！向腾辉沉冤得雪了！王凤从未背叛！更多的孩子们有了新的机会和人生！[赞N]', '值得深看', '一句话，这才叫电影。', '河南陪两根', '很有深度的电影反应和影射很多社会面', '很推荐，拍的很好，希望能有更多这么好的电影，更希望更多的不是根据现实改编。', '宝强真的变得高大上了.不是以前的傻根了。这电影真心不错。成功转型', '可以的这电影', '那些喜欢在网上乱说话的注意了，有时候你不经意的一句话可能会害了人命，谢谢王哥拍出这么有含义又励志的电影', '看到这些孩子，我更不能理解国家每年几十个亿的援助非洲是在做什么？', '这部电影挺励志的，王宝强演技也不错，孩子们也很棒，值得一看。', '支持宝强的每一部电影', '刚满18岁～', '八角笼中 17:51', '有内容，有演技，故事节奏好，观感效果佳', '我没文化  牛逼', '父爱如山', '少宝强一张电影票', '八角笼播出以来，我从未看过，但是今天看到，这部电影内心有很大触动，反映出了社会中的种种事情，腐败等，穷人拼不了钱，就得拼命，加油吧，奋斗的年轻人！致敬！', '我当好人的时候，一大堆人欺负我，当我当坏人的时候，又一大堆好人在审判我。你告诉我什么是“黑”？什么是“白”？', '如果说因为一个地方的孩子穷你就可以这样子去私自的拥有  让他们去进行一些违法的事儿   个人觉得跟黄赌毒没啥区别  让没有法律意识年龄的孩子签合同   说什么是你给别人的路  说是你把他们带出了山沟沟  你的这些道理在黄赌毒上利用起来一样可以  是承认十几二十年前的国家并能照顾到方方面面   这是一个严重灰色地带电影', '虽然删减了不少，但是依然是部好电影，社会的黑暗，舆论的恐怖，底层人民的艰难，刻画的很有深度！草根想逆袭那就得拼尽一切，那么多草根为何只有宝强成功了！说全是运气的那就是扯淡！', '当时用孩子打假拳不也挣钱了吗？挣了钱也并没有改善生活，当有穷人的孩子送来的时候，为什么还要收？我不理解，既然是小人物从电影中我并没有看出男主有多大的情怀 到后来签给新俱乐部，也不跟孩子解释？真的看不懂', '刚刚搞偷袭', '这部电影给我最大的困难是没证别管你有通天本领没证你只能打工，有些证不是普通人能办的，成年人才知道证有多重要，最后引起关注了才成功没有关注依然是没有证回归大山，现实中有多少个人会引起这么大的关注证是国家的收钱工具同样也是限制普通人致富的最大难关，没证你有多大本事只能去打工，想找个和我一样看到问题关键得评价都看不到，一群评价没有一个有用的', '绝佳的作品', '只有真正在生活中才会发现艺术', '有深度 加油宝强']</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 黑豹2 </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VIP · 10812热度</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>《黑豹2》：英雄重生！瓦坎达全族共迎战海底变种人,电影简介:在“黑豹”特查拉国王不幸去世后，苏睿、奥克耶、拉曼达女王、姆巴库为了保护瓦坎达而战。瓦坎达人努力迎接他们的新篇章，他们必须在娜吉雅和罗斯探员的帮助下团结起来，为瓦坎达王国开辟新道路。</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.1分</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['电影是好看的，就是整部电影只有6分钟，希望导演下次拍长点，多年老黑豹迷了', '颠覆了我对漫威的看法，选角随意，从海里出来，从海里的既视感完全比不上海王，感觉太随意了，打斗也随意', '已经看完了，会员不是免费的吗？', '我对黑人没有歧视。但是肤色本来就黑这电影晚上的光能亮点吗？根本看不见…不知道调色师搞什么鬼。', '漫威真的在走下坡路啦！怎么才6分钟啊？', '我看过了，剧中一直期待黑豹复活，直到电影结尾才发现此片结尾敬博斯曼，上网一查原来他本人真的去世了才没参演黑豹2。更没想到的是黑豹1和复联34都是在癌症晚期参演的，致敬', '我还是免费，哎呀', '建议让欧文出演', '《黑豹2》是一部伟大的续集，继续讲述着瓦坎达王子翻身做大哥的故事。影片对非洲文化和历史进行了深刻的探索，人物形象塑造也更加丰富、立体，引人入胜。同时，电影的特效和动作场面堪称一流，让观众身临其境地感受瓦坎达的奇幻世界。不过，个人认为电影的反派角色塑造上有待加强，缺少了一些令人难忘的反派人物。总之，《黑豹2》是一部绝佳的科幻动作电影，引人入胜，强烈推荐。', '这就很扯，这人鱼既然这么强，那灭霸来的时候他在干啥？说要保护族人，灭霸打响指的时候他又在干啥？纯属扯淡', '评论区让我省了7块2毛！感谢各位大冤种！', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '真难看，故事剧情简直胡扯淡，明明是美国在那里挑事不干美国两个高文明打起来，美国鬼子搁旁边看戏呢吗？永远是奥特曼打怪兽剧情', '不管你信不信，六分钟之后我也退出了！', '两个高文明本来聊得好好的  然后因为一点点小事 直接开战 最后又因为心里放不下人民 又休战 和好如初  跟小孩子闹脾气一个样的科幻电影', '钢铁侠过后再无漫威', '第三部不会是这个小孩回去挑战成为了新的黑豹吧！', '非常一般。在观看的两个小时内我一直在期待着精彩剧情的出现，然后就大冤种般地一直期待到了结尾......总之从头到尾我的内心都毫无波澜。', '可惜再也看不到黑豹1里的黑豹了', '黑豹主演不是去世了吗？又换一个？', '本来想买的，一看评论那么拉，不买了', '明明2小时35分钟07秒，为什么那么多人说只有六分钟？', '花了钱的 大家说话硬气点', '第一部就很好看了，2肯定也很精彩，期待上映', '国外不是已经上应了吗', '银河护卫队3来的', '我有个想法那就是中国能拍部昆仑墟吗，故事是这样传说在中国昆仑山里有个与世隔绝的昆仑墟，昆仑墟里的科技比外面发达几千年，想进去只能找到空间节点传送阵，故事开始就是在大洪水泛滥时代有龙族图腾，凤族图腾，麒麟族图腾，玄武族图腾，白虎族图腾，的部落为躲避大洪水迁徙到了昆仑山里的在探索定居的过程中五大部落发现了一个神秘的空间小世界，世界里有一艘采矿飞船不知道在里面多久了（反正已经损坏），小世界里有种神秘物质改变了周围的环境，植物，生物，矿石，于此五大部落的人们在这个神秘的小世界里开始了宏伟的大建设发展，在发展中因为破解了飞船里的科技使得后面从小世界各地发现了灵石、精金、万年玄铁、千年钢木、琉璃金沙，生命原液等东西，但人类没有走上修炼之路而是选择走上奇幻科技之路，用灵石替代能源，用精金、万年玄铁、千年钢木、琉璃金沙打造武器或者科技产品，喝生命原液使身体进化寿命长达上千年，直此昆仑墟文明进入大发展直到外面的世界进入二战时代发生世界大战发射核武器振荡地脉打开了无数年封闭的昆仑墟节界，直此昆仑人能进出外面的世界，但昆仑人没有侵略世界，昆仑人发现外面的世界里有好几个文明科技都要比明面上的国家发达几百年-几千年，如非洲黑人瓦坎达文明，大西洋海底海族亚特兰蒂斯文明，西方玛雅人文明，地下蜥蜴人文明', '这算不算免费的', '熬到了免费   还好没买   ', '都不知道长什么样，黑黑的看不见啊', '剧情先不说因为我没看完，而没看完的原因就是黑夜是真的黑，黑的看不清楚，我视力本来就不好，这样看我眼睛受不了', '唉 ，黑豹二这个剧情是不是有点问题啊 ？共同的敌人不是是寻找振金的人吗？别人在海里生活的很正常 ，别人为了保护家园，想同盟 ， 先表示出了诚意 ，告诉了秘密 ，瓦坎达人先偷击别人， 别人反击不是很正常吗 ？刷新我的三观，哎！', '这玩意跟黑豹有一毛钱关系吗？', '黑2和黑1的差距不是一点啊  在黑2中一直人为黑1的男主会复活站出来  即便是男主真正的不在世了好歹也弄个不露脸的黑1男主在关键时刻出现在黑2中  黑2中的女主的力量与科技远远落后与黑1 自钢铁侠 黑1 复仇联盟1 2到无限后就下滑了', '说实话，挺二的', 'ufc乌斯曼居然客串了！！！', '漫威电影开始拉垮了', '确实像威少[吃瓜N][我裂开了][我裂开了]', '没有1好看啊', '差评差评，太黑了，看不清楚，根本看不清楚。', '终于免费啦啦啦～', '很难评，电影三分之二都是在黑夜，还全是黑人，导演也挺不容易的，估计是把全世界黑人都找出来演这部电影了，总的来说看完眼睛很难受，一片漆黑，又是夜晚又是黑人，一直在找人', '电影大多数时间都是暗色系，关键里面的人一个比一个黑，看的眼睛好辛苦啊', '台湾省前来报道', '怎么说呢，钢铁侠和黑豹的结合版，一句话，漫威真是不禁看了', '每个英雄的死亡都是跟档期和合约到期走的吗', '复联四就已经是结局了', '强行渲染主题', '必须刷好吧', '还能咋说，[富翁][富翁][富翁]', '不知道大家喜不喜欢超清，漫威怎么基本上每部电影都是超清为天花板，怕别人盗蓝光版吗[握草]', '我先声明。没有一点种族歧视！！！片子很好看！！！就我一看到黑人亲嘴就特别别扭！！！说不出来的感觉！有没有跟我一样的？', '太难看了，几乎没有任何能表扬的点', '瓦坎达万岁，都是打过灭霸的人怎么还会怕海里的臭虫', '称为漫威最烂', '片子整体比1少了很多打斗镜头，更多的是各种情感，可能是少了黑豹，最后结局也是伏笔，可能还会有三，毕竟都是系列版，结局和速度与激情一样，纪念黑豹本人', '只有我觉得不好看吗？快进着看还断断续续看了3天[狗头]', '对比国内评分同档电影，这还是值得一看。致敬的意味很多，结尾又表达了一个想创造一个不一样的万坎达，也切题，剧本问题也还好，里面bgm选的不错', '请问谁知道黑豹是怎么不幸去世的？什么原因啊？这个系列要结束来那么一个收尾也太扯了吧[准时]', '动作榜第三  怎么评分这么低', '草率了，还我早点钱', '第二部的剧情比第一部更复杂，但是少了黑豹，总感觉少了点什么。', '这部太拉了吧  马上出第三部 孩子长大后又不得不变成黑豹拯救世界', '陆地对瓦坎达贼心不死，也许还会出第三部', '很好 在水里你们也说不了话是吧 ', '看完了，为啥没见黑豹，有知道的吗，可以为我讲解一下吗', '你们这把海王置于何地', '歌曲还是很好听的', '哎，漫威啊漫威。复联4之后的漫威，真不知道说啥了。失望', '又长又臭[金币]', '冗长，故事情节单调简单，没什么重点，影片传达的核心非常混乱', '全程黑，看不清', '真心地，不咋滴，十分满分的话，给个3分4分不错了', '南京再次', '好看不 家人们 我看免费的呀', '看了四十多分钟，全是乌漆麻黑的场面，亮度拉到最高都看不清楚，这看个集贸啊', '所有的和平都是打出来的', '看完了  只有一个感觉  瓦坎达活该', '真的一言难尽', '看了半天不知道看了啥', '什么逻辑呢，一个不能在陆地上生存的种族要去占领陆地，', '一个高度文明居然被一个与世隔绝的原始文明按在地上摩擦', '没得意思', '蛙看打这世界最强大的国家，派艘船两只小飞机几十只跑龙套的就敢发动国与国、文明对文明的复仇战，最后这几号人被堵船头差点嗝屁，那蛙看打算不算灭亡，梁静茹给的勇气吗？就这水平就敢在联合国大会镇压世界五常，其中一个还是拥有大量“妇联”牛鬼蛇神漫威英雄的国家！编剧看不起谁！', '你看看海王的亚特兰蒂斯 多亮', '为什么这个电影我希望黑豹早点挂？希望善良的海洋文明赢？', '好像看到了乌斯曼', '美国队长：小鱼人你有点皮啊！', '挺不错的', '难道不是申公豹出场吗？']</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 扫毒3：人在天涯 </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>VIP · 10653热度</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>警匪动作巨制《扫毒3：人在天涯》曝“炸！”预告郭富城古天乐刘青云真打真枪真炸,电影简介:毒枭康素差一直带着手下张建行从事毒品交易，新加入的成员欧志远也因一次意外与两人有了过命交情，三人情同手足。康素差在香港的贩毒生意被警方查处后带团队逃到金三角发展，却意外发现身边藏有卧底。此刻，是敌是友，一片茫然。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['看看人家的电影，再看看内地的电影，人家直接不收费，内地的电影一直在收费', '看不起我阿伟[狗头]', '还是老演员演的经典，现在的小鲜肉演的什么东西？', '也不知道，这几个老家伙还能拍几部电影，，，好好珍惜，以后没得看咯！', '没有渣渣辉，有点小遗憾噢', '没有张家辉灵魂人物，搞什么', '还得是老戏骨啊', '天天扫毒，有本事去缅甸扫啊', '4应该会有，刘青云要找他们报仇，他说他不会死的，名字都告诉他了', '这导演宋小宝亲哥？', '老戏骨演技就是不一样', '没有渣渣辉', '非常喜欢这些老戏骨的演的电影，要是把张家辉和张学友请来那真是太好了，看他们一起飙戏太过瘾啦', '渣渣辉没在，有一点点失望，但是也影响不了古仔跟刘青云的同台，能撑得起，😎😎😎', '上线了推我一下', '郭富城不适合扫毒系列 比利换成张家辉就完美了', '扫毒3部曲感觉没有连贯性', '毒品在哪里进货啊？搞点门路过来呀。', '怎么感觉不如前两部好看呢[发呆]', '五毛特效', '去电影院看了', '我记得有粤语版的预告吧', '阿伟已经死了，你挑的嘛偶像[富翁]', '香港电影一点创意没有啊，一直翻来覆去这点东西', '上线来个提示呗[666啊]', '真大片，不像某些。国产货什么时候能出点高质量的影视？港星大部分都老了还在拼，年轻一辈抗不起来，悲哀！', '应该，上渣渣辉的', '和前作相比，真的太烂了！动作场面掩盖不了剧本逻辑的一塌糊涂！感受不到扫毒工作的残酷性！', '感觉不太好，又是邱礼涛导演，你看.扫毒2，拆弹2，不能再烂了', '为什么没有渣渣辉？', '这部戏没一个大陆演员，说明大陆演员不适合演动作片', '为什么没有渣渣辉呢', '不是可以看吗？没有网络的？', '2023-8-10看的有没有', '我想找个老婆', '非常喜欢这些老戏骨的演的电影，看他们一起飙戏太过瘾啦', '云南第一', '打卡打卡', '朕已看完', '发么帖#腾讯视频9号开[意难平]放日# 北京线下有没有二维码~', '可以永远相信港片', '自己人打自己人，还得是古天乐', 'noon应该没死，她应该是司令的女儿。那个镇上碰到比利和noon后面被枪击的军方卧底，告密得是noon，参谋第一次去noon的村子也特别看了noon一眼。包括noon说她小时候爸爸离开，应该就是司令去贩毒', '这个是农夫山泉矿泉水吗', '云南人集合', '看了这部片子后，一直在想一个问题，港片为什么会没落？原因就是香港电影人还在延续着过去的辉煌当中，老套的剧情，精彩的打斗场面，然后呢？格格不入的理念，整个电影除了刘青云，其他演员都是满屏的尴尬，除了消费老演员的情怀以外并没有什么新意，这或许就是现在港片的现状吧', '刘青云你要长命百岁，我们看你电影长大的很喜欢你', '我也是卧底', '河南南阳的来报道', '河南南阳打卡', '挺好看的电影，老戏骨演技还是[赞N][赞N][赞N]', '三个影帝加➕起来都 200 岁了🤗🤗', '老戏骨对垒，大饱眼福！\n激战名场面，太燃了！\n#扫毒三兄弟再聚首#\n#古天乐52岁生日快乐#', '这个女的应该是泰国警方的卧底', '古天乐，我男神', '廖志磊我爱你🤟', '现在为数不多的港片电影了，制作剧情方面都很不错，汽车冲撞和枪战也都是好水准。很好看，很不错的电影，题材也很不错。', '好无聊的剧情', '信阳光山', '刘青云厉害👍', '差哥到最后都没怀疑过自己的兄弟，赴汤蹈火啊差哥', '还是喜欢看老牌演员演的电影', '动不动3个月前，动不动6个月前，好好拍行不？作为一个资深卧底随便在车上就跟外国警方人员承认自己是卧底太让人惊讶了。', '贵州黔东南苗族侗族自治州的有没有，凯里市', '一会儿5年，一会儿一年，一会一个月', '总司令：我在干什么？', '太好看了！！', '兄弟们，我在监狱看扫毒✌️', '人不用减压，直接就起来了。真厉害', '远离黄赌毒，幸福一生', '希望各位卡里有钱，车里有油，不用因为物质而烦恼', '龚倩是我老婆', '为古天乐而来的请举手，看看有多少人🙋🏻\u200d♂️🙋🏻\u200d♂️', '扫毒3中完美的展示了香港警察的职业素养以及提现了现如今缉毒警察的不容易，在电影中我们可以明显的感觉到香港警察和毒贩之间的关系，整部电影中人物特色明显，演绎生动形象，完美的刻画了各个人物的人物个性，能够完美的将所要展示的内容体现出来，在观影过程中我们也能明显的感受当整部电影的细节。其中打斗部分相当的激烈，能够很好的吸引观众的眼球，是一部很值得观赏的电影，非常值得推荐。当我观看完这部电影，对我的感触也是特别深，懂得了缉毒警察的困难，也明白了缉毒警察的危险。电影能够给人深刻的影响，也能充分展示影片的哲学道理。', '至少感觉香港电影的辉煌岁月已经成过去式，现在我的感觉错了，但是演员还是青黄不接状态', '来个大哥我跟你咚咚锵', '李慧我对象', '这女的为什么要跑出去，急的死么，莫名其妙的剧情', '总司令准备火线入党', '知恩不报  是🐖🐩', '爱我别走', '第四部明年上映', '别的先不说就这个枪战就值得五星，喜欢枪战的完全可以看，剧情基本都在打枪战就是感觉女主的戏份有点多余不如来一场纯粹的枪战这样更爽看的更过瘾。', '阿伟呢？阿伟已经死了[柠檬精]', '我感觉按电影这么演除了国外三不管那种地方，国内基本没活路，因为你任何一个新招的人都可能是卧底，搞这个死人是常有的，你不可能永远不补充人手，但是你补充就会有卧底，所以他们为啥要回国干呢？', '片子不错', '楚人来也', '还是香港电影才配用精彩来形容', '没有张家辉这部电影就没有灵魂', '发卡：我复活甲秒切名刀接秽土转生，根本死不掉[狗头]']</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 你的婚礼 </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>VIP · 10663热度</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>《你的婚礼》终极预告，腾讯视频正在热播！谢谢你，青春里给过我的幸福,电影简介:电影讲述游泳特长生周潇齐与转校生尤咏慈长达15年的爱情故事。高中时，周潇齐对尤咏慈一见钟情，年少懵懂的纯纯爱恋，男孩默默守护，但女孩却不告而别。此后的人生，15年的爱情长跑。你的婚礼，也是我的成人礼。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>爱情</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['尤咏慈永远不知道那场烟花是周萧齐给她放的，而周萧齐也永远不知道尤咏慈的那场婚礼到最后也没有新郎。', '电影太仁慈. 总能让错过的人重新相遇. 生活不一样. 有些人说过再见就再也不见了 ', '你的婚礼 1:52:59也许青春里面的遗憾才是我的结局了吧！再见了 我最爱的汤喻欣！！！\n希望你以后在新的生活里面能再次遇到一位真正能对你好非常爱你的男孩子 谢谢你！！！', '挺遗憾的 青春就只有一个', '太感动了', "I'm so touched.", '我感觉这俩图片很配[随份子]', '我的那个她也在2022年2月七日结束了谢谢你夏梦婷', '个个都说没新郎这个是什么啊这就是结局', '第一张图是我初恋，第二张图我初恋和她老公，第三张图是我初恋的女儿她叫我爸爸O(∩_∩)O', '尤咏慈永远不知道那场烟花是的周潇齐为她放的   周潇齐永远不知道那场婚礼没有新郎', '尤咏慈永远不知道那场烟花是周潇齐为她放的，而周潇齐永远不知道尤咏慈的婚礼没有新郎。', '兄弟们我截到了女主电话', '尤永慈永远都不会知道，生日那场烟花是周潇齐为她专门准备的，而周潇齐不知道的是，在尤永慈的婚礼上，根本就没有新郎', '再见了 陪伴了我三年的女孩.', '给我看哭了[意难平]', '  尤咏慈永远都不知道那晚的烟花是周潇齐特意为她放的 周潇齐也不知道其实在尤咏慈的未来规划里一直有他.', '看到这里就可以了 后面不看了 就当这是最美好得结局❤️', '两个小时我哭了半个小时', '失去她272天咯.这期间我也何尝不是每天都后悔自己不努力，没考上大学，如果我考上大学我们过的肯定很幸福.....', '我睡过她的房间，喝过她的水\n吃过她的剩饭，亲过她的嘴\n也见过她刚起床素颜的样子\n这辈子就当我娶过她了吧。', '我爱你，感谢你曾在我的生活里出现过。', '受不了了 太好看了 妈妈', '虽然很虐但是真的很喜欢', '她永远不知道他为她放了一场烟花', '再见她时，已经是两个孩子的妈了', '周萧齐和尤泳慈的十五年都没有结果 我和你的七年又算得了什么更何况七年里我们只见过三次.', '太感动了😭', '再一次重温，如何才能释怀，四年了每天都忘不掉点点滴滴，也不知道你过得怎么样，', '应该劫婚的', '尤咏慈永远不知道，那场烟花是周潇齐给她放的，周潇齐永远不知道，尤咏慈的婚礼上没新郎', '电影的世界真的好小，离开了几次的人又能再遇见。现实的世界真的好大，一个人走了就再也没有了消息', '2007年，17岁的我们在一起，18岁分开，2010年，20岁的我们各自去了不同的大学，分别有了新的恋爱，2013年，为了见她，我组织了同学聚会，2014年毕业后，我去了更远的城市，2015年，我们再次相遇，义无反顾走在一起，2017年，我们步入婚姻，我是幸运的，回忆这一路，无语表达内心滋味', '这场电影 我一个人去的影院看的！\n', '以前我俩一起看的 现在只有我了', '如果我是导演，我希望……那场婚礼，是尤咏慈给周潇齐的一个惊喜.', '尤咏慈因为周潇齐的“后悔”  就质\n疑了周潇齐15年的爱\n《你的婚礼》上映的时候好多人说周潇齐是舔狗  说这个电影毁三观  可是什么时候开始纯深情被加上了舔狗的标签\n就没有考虑过尤咏慈的成长坏境  原生家庭是一个很可怕的东西  周潇齐永远都不知道他的后悔对尤咏慈意味着什么  尤咏慈也是在及时止损  如果他们继续在一起  那么那一句后悔会消磨掉他们15年里所有的美好  （也不是所有人都懂周潇齐的后悔对尤咏齐意味着什么）', '祝福你“我错过的女孩@', '我希望剧情可以反转 我真的好希望站在礼堂的新郎就是周潇齐 一个人为另一个的十五年 用尽青春 最后都被 后悔 这两个字毁掉了 遇见一个人就没有什么后悔可言 为了你 我可以放弃一切 不管什么冠军 爱一个人 总而言之 珍惜彼此', '异地恋，去年偶尔一次聊天提到要去找你看这部电影、怪我又一次失信了，现在想用这种方式和你说再见、zyf谢谢你出现在我真挚而有热烈的十八岁、谢谢你教会我很多东南、遇到你我绝不后悔、感谢遇见！还想问下截屏ly是你对我说的话吗？', '尤咏慈永远也不会知道那一场烟花是周潇齐为她放的', '这辈子最羡慕的就是从校园到婚礼的爱情', '2021.8.30-2022.3.12 很遗憾没能走进你的心里', '很幸运遇见你，迪丽热巴，虽然已经分手了', '这样的结局配不上男主至死不渝的爱', '尤咏慈永远都不会知道那场烟花是为而她放的，周潇齐永远都不会知道尤咏慈的婚礼上没有新郎～～……', '这女主啥毛病啊，一和男主分开，马上能和其他男的好上，也是醉了。。。', '再见了 认识五年零四个月20天的女孩', '我们再也不会像以前一样了，hxy', '分手两个月，本来以为看完会很感动。但是现在看完了，我一点也不感动，有的只是替男主的不值。虽说是15年时间，但是真正在一起的也就那么两年。前面的十几年可以说都是男主单方面的追求女主。从喜欢的角度讲，男主喜欢女主明显要比女主喜欢男主多的多。男主的喜欢是纯粹的喜欢，而女主的喜欢掺杂了感动 感激和愧疚。不能说两人不相爱，但是这种爱并不对等。男主真正应该后悔的是，没有答应女主的求婚。已经付出了那么多，结果最后一场空。而女主付出了什么？她什么都没有付出，却得到了幸福的结局。这就是爱情吗？', '巧   下辈子别再错过我了   下辈子希望我们早点遇见   下辈子我带你回家😌', '看完了，没任何感觉，可能没谈过恋爱吧', '这个电影是我和她在2021年5月4日去影院看的，当时那个影院一个人都没有，只有我和她，那个时候都怪我太懦弱了，要是那个时候鼓起勇气给她表白，现在她也就不会是别人的宝贝了，但我不后悔，至少我曾经整个青春都是她的身影，潘广燕，我陈果曾经喜欢过你，我不遗憾，最后祝你幸福！', '2022年2🈷️2日 00:56分 这个电影我看哭了……\n  但还是祝我心里的那个他 永远幸福吧', '看了五遍还是觉得好看，五年内看过的最好的电影', '尤咏慈永远不知道周潇齐给她放了场烟花，男孩为了女孩重读，怕女孩遇到渣男打了她的男朋友，然后为了她断送自己的职业生涯，因为两个字女孩就离开了他，换我我理解不了', '周潇齐永远不知道尤咏慈的婚礼上没有新郎', '2022年1月28日15点39分，我又一次看哭了，即使缘分已尽，但还是感谢你曾经出现在我的生活中', '2022.2.14 情人节我来看这个?哈哈哈哈哈', '连个合照都没有的集合一下吧！', '其实送你的那些礼物我都是我不吃饭留下来的', '男主也对不住现任 明明有女朋友跟初恋成双入对的', '真的会改吗', '2023.11.28凌晨3：40看完了。', '以前吧，不知道《你的婚礼》讲的是什么，直到我遇到她我彻底明白了什么是遗憾。在这里，我在爱的前任祝你幸福，希望你天天开心。', '再见了陪了我7年的女孩子', '结局真遗憾', '电影可以重映，我们呢', '那个陪我六年的女孩 原谅我 你的婚礼我没参加 再见了我的女孩….', '太浪眼泪了', '看第五次了', '十二年的 你     希望我能看到你的婚礼  ', '看完就释怀了。', '2年了我来到了你们曾躲雨的地方却在也找不回感觉了', '还是不能释怀', '31号电影院见，一个人', '这个剧要被改了，是不是结局会在一起了', '生活不是电影   错过了就是真的错过了', '08年哪来的王者？', '希望能两个在一起', '遇见你\n是我这辈子最骄傲的事情\n是你让我这个幼稚的男孩长大了', '终于等来重映了', '谢谢你的陪伴宋女士', '怎么她也在啊？\n', '第一眼喜欢的人 我就没想过再爱别人 她不在的时候好像什么都没有了意义\n我总是惹她生气 有时候我在她面前确实挺傻我一做错事去光顾着和他道歉，忘了解释清楚 我说过永远爱她 我怕我放弃 有一天她不开心的时候找不到我 我不想错过她。[准奏] ', '付大头我爱你', '烟花再美 终究是灰', '中奖了 但是过期了', '非常好看，就是看的太遗憾了，非常的想哭', '再见了，我真正的初恋zxt，电影会重映我们不会重逢但是我还是想说，我不怪你，也祝我们各自的生活越来越好。']</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 移动迷宫3：死亡解药 </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>VIP · 10790热度</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>《移动迷宫3》肾上腺素预告负重前行打造良心终章,电影简介:被困在迷宫里三年，成功逃脱的他们，这一次他们要再次回到迷宫。托马斯带领小队成员开展最危险的行动，营救同伴、同时探索从进入迷宫开始就困扰大家的终极问题。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.0分</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['移动迷宫4（新冠病毒）', '刚刚看完第三部，挺好看的', '结局可以，女主死了我就放心了', '注意了，移动迷宫是国内译名，原名叫maze runner，也就是迷宫行者，所以说内容重点是行者而不是迷宫，而且runner们也的确都在各种跑，所以并没有跑题', '123。1最好看，2一般般，3最难看。说实话1那么精彩，结尾感觉构造了一个庞大的末日世界，出了迷宫他们会经历很多精彩的估计，但是拍完23感觉是个烂尾。啥剧情啊？整个过程下来男主没感觉有什么聪明才智，只是圣母而已，谁都放不下，就是一路救人而已，呵呵。', '三只能看预告，要在哪里看呢', '求求上映', '我有个问题哦，男主在知道自己血液可以救人的时候，为什么不把自己的血液的给纽特，毕竟纽特当时已经是生死边缘了，死马当活马医啊，而且他自己也相信女主的话不然也不会回去了，而且就算他的血液当时做不了血清，但是给纽特喝下去，最起码也能起到一些抑制作用吧，毕竟他的血才是血清里最重要的物质', '纽特是怎么感染病毒的？？', '&lt;p&gt;人类处于神与禽兽之间，时而倾向一类，时而倾向另一类;有些人日益神圣，有些人变成野兽，大部分人保持中庸。凡事具有阴阳两面性，故而人性既有自私贪婪、急功近利的一面，也有宽容仁慈、勇于牺牲的一面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;电影《移动迷宫3：死亡解药》就完美演绎了人性中这样的两个极端。试验部负责人艾娃和詹森代表了自私贪婪和急功近利；而以托马斯为首的青少年们代表了宽容仁慈和勇于牺牲。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171945313/0"&gt;&lt;/p&gt;&lt;p&gt;过去，美国电影特别强调个人英雄主义比如《超人》《蜘蛛侠》等，都是依靠一个超能力者来救助贫民百姓，形成一个人拯救全世界的局面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;现在，美国电影的中心思想发生了改变，越来越强调团结合作了，比如《复仇者联盟》《移动迷宫》等，都是各有所长的人们组合在一起，共同拯救世界了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;没有看过《移动迷宫1》的人，理解第三部是困难的，所以我在此给大家科普一下这个故事发生的背景。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171963518/0"&gt;&lt;/p&gt;&lt;p&gt;这个故事发生在未来世界，那个时候虽然科技非常发达，但是环境污染也十分严重，导致人类受到病毒感染，死亡率急剧上升。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;为了制造免疫药物，人类统治者们成立了一个试验部，在全球寻找来没有被感染的青少年关在一个秘密基地——“林间空地”。而一个天生具有免疫力的青年托马斯和试验部的一个成员特瑞莎，也被送到了这个基地。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;这个基地实际上是一个可以移动的迷宫，想要出去必须穿过迷宫。而迷宫中藏有很多的食人怪物，但最终经过托马斯、纽特、米诺等努力，带领林间空地的青少年逃出了这个基地。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171973635/0"&gt;&lt;/p&gt;&lt;p&gt;他们以为逃出去就能回到过去幸福的生活，然而现实却让他们十分的沮丧。原来外面的世界早已被摧毁，绝大多数人因为感染了病毒而丧命。山川河流不复存在，家人们也不知所踪。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;迷茫之时，詹森出现了，他告诉托马斯他们还有一个安全的没有被感染的保护区可以让他们生活。等他们被带到保护区才发现，詹森想要拿他们来做免疫试验。于是，托马斯他们又开始了逃离之路。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;在脱跑的途中，米诺和其他几个青年又被抓走了。为了救出米诺，托马斯带领小伙伴们再一次展开了与试验部的斗争。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171983478/0"&gt;&lt;/p&gt;&lt;p&gt;试验部嘴上说的仁义道德，他们宣称是为了拯救全人类，找到治疗病毒的药物，才要做这样的试验。而实际上，他们为了达到目的不择手段，毫无人性地拿人做试验。这本身就违背了人伦道德。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;试验部的负责人艾娃一再强调，为了拯救人类总要有所牺牲的观点。是的，咋一听这个理论，似乎有那么点道理。但细想一下，所谓牺牲，难道不是应该牺牲自己吗？牺牲别人换取成就，不过是自私贪婪的借口罢了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果说艾娃还想给自己的行为找一个遮羞布，那么詹森就是连遮羞布都不要，更加赤裸裸的表现出急功近利的一面。他说托马斯他们不过就是实验室的小白鼠，所以根本就没有人权和尊严，只能够被利用。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;可见，即便科技再发达，人性如果不进步，世界一样会变得可怕。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171994329/0"&gt;&lt;/p&gt;&lt;p&gt;托马斯所带领的团队，和试验部的人形成了鲜明的对比。在为了活下去的战斗中，他们互相配合，通力合作，一次次战胜了试验部的追杀。当然这并不是说他们之间没有一点矛盾和冲突。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;但是他们因为共同的理念而把最大的宽容留给了队友。盖里曾经因为感染了病毒，失去意识杀死了队友，可以为了救出被关在试验部的米诺，托马斯选择了原谅他。于是他们合力救出了米诺。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;纽特也曾捅过盖里一刀，但是盖里却救了纽特。盖里说：“谁没有点错呢？”特瑞莎曾经和托马斯一起出生入死过，可是为了找到病毒的解药，她又回到了试验部。被特瑞莎背叛的托马斯，为了救人，再一次选择了相信她。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;人性最闪闪发光的就是宽容。所以他们虽然存在矛盾和冲突，但是最终因为宽容仁慈，又团结在一起。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172009359/0"&gt;&lt;/p&gt;&lt;p&gt;比宽容更难能可贵的是牺牲。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;相比艾娃的让别人牺牲的伪善，这群青年们却都甘愿为了别人自我牺牲。去救米诺是需要冒生命危险的，但是托马斯他们却毫不犹豫地去了。当纽特发现自己感染了病毒，会伤害托马斯的时候，为了保全托马斯，他自杀了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;最后托马斯和特瑞莎跑到屋顶，打算登上飞机逃走时，大楼却发生了爆炸。在这紧急关头，特瑞莎用尽全力把托马斯推上了飞机，自己却葬身火海。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;成全别人牺牲自己，才是这世间最伟大的爱。当托马斯打开纽特的遗物，发现了纽特的信。信中写到，他担心因为感染病毒而遗忘战友们，所以他把所有牺牲了的人的名字都记了下来。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;托马斯留着热泪看完信，把所有牺牲了的人的名字都刻在了岩石上。他心中有一个信念，那就是一定要带领大家找到新的家园，带所有牺牲的人回家。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172027907/0"&gt;&lt;/p&gt;&lt;p&gt;本片导演韦斯·波尔说，他想借本片表达的是希望和人性。同时也向我们提出另一个值得深思的问题：是要等到世界末日来临之际才开始重视希望和人性，还是从现在做起？\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果我们从现在开始就重视这些问题，也许就不会再有世界末日！&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172043629/0"&gt;&lt;/p&gt;', '整个世界观好奇怪呀，既然免疫者这么珍贵为啥要被放进迷宫？人们既然能造出机械兽为啥不对付丧失呢？就不能好好研究和发展吗？这都末日了还要内耗？还是新生代被牺牲，这搞得人类这个物种和傻子似的。', '18年的电影就知道要人人戴口罩了，是巧合还是有先见之明。这是个问题。', '早就出了第三部，几年前我就看完了，纽特死了，被感染了，解药来晚一步，纽特自杀了', '上线提醒，我来了', '😭️😭️😭️第一部看3遍了，现在第三都出来了，第二哪里可以看啊？', '纽特真的意难平', '这么好的电影才7.9分', '个人觉得第三部算是给第二部一个不错的结尾。\n首先，跟第一部的主题以及“迷宫”虽然已经在第二部就开始偏离了，但可能迷宫两个字不仅仅是表层意思，可能暗指另一种意思。换个角度说，如果第一部给我们一个好的结局，主角团们都逃出迷宫了，那么续作该如何延续迷宫就是个问题，所以肯定要往深层意义去挖掘。\n第二，我是很舍不得主角团们的牺牲，特别是纽特和特蕾莎。纽特怎么被抓伤就很不清楚，但是强忍着痛苦继续作战本身就困难，更何况是最后不想连累托马斯们选择自杀。而特蕾莎在本片中也是在研究与友谊之间来回切换的，她不是选择加入敌人，她是想着研究解药救助更多的人，才选择暂时接受研究，最后也是选择帮助男主脱离追杀以及火海最后牺牲。他们两个我是最渴望他们能和主角团们永远生活在一起，但现实依旧是残酷的。\n第三，我认为可能第二第三部的剧情就有点不合理。主角想要将实验对象们都救出来不被研究所抓到，但是救出来后只能选择一边躲避军队和和狂客，另外一边又要远离有病毒感染者的地方，虽然在一个岛屿上找到了所谓的“天堂”，但世界上最大的问题就是病毒该如何治疗，最后也拿到了解药，但主角团不一定会选择冒险离岛去就外面的人吧，所以解药怎么用就是个迷。另外一边，研究人员想要得到免疫者的血液，却要对他们有所隐瞒，直到第三部主角才确信自己的血液可以跟血清混合成为解药，这些就导致了研究进展不顺利了，其实第二部“右支”里面的军医就已经知道托马斯的血液可以救人成为解药，可惜愚蠢的敌人选择开枪射杀。实验体选择逃跑，剩下的人类只能听天由命，这也不算是一个很彻底的结尾吧。\n要我说推荐的话，第一部是力推的，而相对于第二、第三部我更推荐是两部一起看，第一部与第二、三部主题不一样让很多人对后续口碑有些差是没办法。所以要么先看二三再看一，这感觉就是两部不同主题的电影；而按顺序看的话剧情是通的，但是主题改变了就可能会跌口碑。', '我是vip几', '我可以拿自己做实验，那么你会实验吗，你能提供什么技术能力呢', '你把剧情写成当权者或者富人要这些免疫者的血续命我都能理解。这样搞真的逆天，还有主角团和反派的各种行为纯纯的降智，编也编的合理一点好吗。太逆天了', '发现外国人老得真快，第一部特丽莎和托马斯多嫩啊，这才过了几年，抬头纹鱼尾纹法令纹都出来了', '为什么一二部那个男的都叫民浩，三部又叫他米诺了呢？', '纽特本来可以不死的，给他喝点血就行，难道他的死就是为了最后让我掉几滴眼泪么', '所以纽特是什么时候被感染的？', '都是死于嚰叽！', '移动迷宫可惜没有第四部移动迷宫3：死亡... 02:05', '我勒个豆。因为女主死了多少人了，纽特说的挺对的。', '2099年12月20号地球最后一万人中一员穿越报到', '这电影很好看就是不知道后面还会出吗？有人知道吗', '好好的移动迷宫，却成了僵尸大作战', '应该会有第4部吧，超好看，超期待', '评论区有些人表示不理解，为什么这个样子拍，因为人家这个是照着小说拍的，这三部电影就是外国同名小说改编的，人家不按照小说拍按照你的思路拍吗[我不理解][我不理解][我不理解]', '3出来了，1和2都忘完了', '刚看了12，这世界观有问题吧，既然是全球性的问题，为什么不能从免疫的年轻人里面挑选自愿者，公开正大关明的研究解药？抽血，实验，哪怕是付出生命的代价，是怕他们都不愿意吗？价值观都不对吧', '让我想到了葛优的那个剧： 如果你有100万你愿意用来帮助别人么 愿意  如果你有一个亿呢？ 全捐了  那如果你有一辆车呢  不愿意 因为他真有一辆车', '快来一起观看(つ≧▽≦)つ🎉🎉🎉🎉🎉🎉🎉🎉🎉🎉，亲爱的小伙伴', '总结两个字：磨叽', '精准指向性实在是太强了[意难平]', '真的不理解你们看个电影那里这么多不理解', '原来纽特真名叫托马斯，真巧', '值得一看', '资本主义从来不把底层人民当人', '移动迷宫拍着拍着就只剩移动了迷宫不见了[吃瓜N]', '男主不死不解气。唯一一部想让男女主死的', '未来会不会真存在人和僵尸大战之类的谁也说不准，实验室会不会搞错会不会爆炸等等日本核废水排海，人污染了会是什么结果，会人传人吗？变异等，等等都说不准，一切前因和后果都是人造成的', '有这对视的时间，早踏马救上来了，真墨迹', '你对着驾驶室开两枪能干嘛，吸引火力么', '加利第一部被插心脏都能复活，纽特第四部也能复活。', '第十部才是最经典的。', '女主男主真的讨厌🙃', '我去，快2022年了。', '移动迷宫5 投屏需要人民币', '知道布伦达有血清，不早点给纽特用', '女主死了，好可惜', '没有一点准备就去救人，主角除了热血什么都没有，连车玻璃都不会加上铁板，子弹也带不够，降智', '真的不错🤩', '真不错 看着真挺好看[准奏][准奏][准奏][准奏]', '看看我是谁', '非常精彩', '剧情真的是烂，很早就发现纽特被感染了，就是不用血清，快死了才去拿血清，', '真的太好看了[打call了]', '不是，我看完了三部，我怎么感觉看了个寂寞？第一男主跟女主都是实验公司的人知道内幕的，突然间男主看不下去了实验，开始以各种信息传递给外面的人，然后他自己被送进迷宫了，后面开始逃出去，自己用了病毒恢复记忆了，开始了我们要自由，要有自己的家，然后就死一大波，出去了几个人，后面该是第二部，东扯西扯又挂了一波人，后面兄弟抓，女主又回去了。这第二部一开始把女主救她的记忆基本上已经恢复完了，她知道这样救不了人类，跟男主绕了一圈，搞死一波人，又回去搞实验了。第三部感觉一样还在循环一样的剧情，男主救兄弟，女主搞解药，实验公司那边又拿男主的血来研究血清，到最后，兄弟没救到女主也挂了，好像女二也挂了，男主就救出一波人看着都不到1000个人和一个血清，搞死了这个末日世界2/3的人，然后就在一个岛上生存了？要武器没有武器，要装备没装备的这点人，外面全部是病毒肆虐的，这跟慢性等死有什么区别？这里面的反派实验公司主要的立场目的就是研究解药救人类的，男主的立场是内幕我都知道，就是看不惯你们，这样搞实验研究解药的不人道。看完我给看无语了。还有到达这种世界末日，人类种族要灭绝的的地步，男主的个人主义不感觉很渺小嘛？要是反派实验公司来个直接个公布男主血可以研究血清，根据这个末日世界观，还有人性这种，男主不就跟过街老鼠一样嘛，能走到那里去啊，就好像一两百个人说你错的不一定是错，但是有98%的人说你错了，哪就是一定错的。', '会员都不能看高清    我❌哦', '刚看了开头，太假了几个破枪打人家全副武装的，跟国产神剧有什么区别', '超极好看', '为什么纽特要死，如果没死的话是不是不会像现在看完这样哭死', '电影来源于生活', '还没第一部好看。 [EMO了]', '惊吓产出的血液用来做血清最好', '太值得看了，希望有第四部', '再回来看一眼纽特', '这部移动迷宫的影子都没有了，人倒是有', '黄毛是快银', '期待第4部', '你们不觉得布伦达 很像 阿力塔 吗？', '米诺死了吗？太可惜了，3部他都很帅😭😭😭😭', '男主可以盐速度与激情', '保罗沃克', '复制生化危机还是行尸走肉', '第一部比较经典', '2023/4/19  我陪王腊银看完三部\n', '最后不还是回到最开始的那样吗？现在安逸的生活和当初在迷宫有什么不同？那些被感染的人和当初迷宫外的怪物有什么不同？所以迷宫没有跑题。兜兜转转还是最初。', '有点不太明白，第二部托马斯就用他的血做出血清救了布兰特，第三部纽特感染为啥不用血清救他，非要等到病发才说去拿血清，我是错过了什么没看懂？', '亲嘴学会了吗', '基情四射', '不管你咋样洗啊那也是个脏东西', '稍微了解漂亮国的信仰和追求，可能就会稍微的了解到这个想要表达的东西，个人见解', '这个男的了用都没有', '还可以吧']</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 疯狂动物城 </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>VIP · 10609热度</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>疯狂动物城树懒片段要被急疯的节奏,电影简介:故事发生在一个所有哺乳类动物和谐共存的美好世界中，兔子朱迪从小就梦想着能够成为一名惩恶扬善的刑警，凭借着智慧和努力，朱迪成功的从警校中毕业进入了疯狂动物城警察局，殊不知这里是大型肉食类动物的领地，作为第一只，也是唯一的小型食草类动物，朱迪会遇到怎样的故事呢？
+近日里，城中接连发生动物失踪案件，就在全部警员都致力于调查案件真相之时，朱迪却被局长发配成为了一名无足轻重的交警。某日，正在执勤的兔子遇见了名为尼克的狐狸，两人不打不相识，之后又误打误撞的接受了寻找失踪的水獭先生的任务，如果不能在两天之内找到水獭先生，朱迪就必须自愿离开警局。朱迪找到了尼克，两人联手揭露了一个隐藏在疯狂动物城之中的惊天秘密。</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.6分</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', ' 尼克跟朱迪没有在谈恋爱', '尼克真的是迪士尼系列最佳男友！！！！', '&lt;p&gt;我只能说：9.5分太低了，起码得给个9.8分吧&lt;/p&gt;', '尼克比现在的偶像剧男主还会撩', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道', '糖尿病患者慎看。', '朋友之上，恋人未满\nYou know you love me😘\n痞帅的尼克和乐观朱迪', '🎬《疯狂动物城》\n主角朱迪从小就有一个警察梦，经过自己的不断坚持和努力，终于成功跻身一座现代化的动物城市去做警察，为了打破身边对于兔子当警察的偏见，朱迪和狐狸尼克开始调查一桩棘手的案件，并解开了阴谋背后的真相，最后成功的收获了身边人的认可和跨越种族的友情。\n看似是一个动物主题的冒险故事，但电影当中的不少片段，都折射出了生活当中的讽刺和隐喻', '看完开端决定再重温一遍动物城等更新', '这部动画讲了很多道理，把人性的丑恶和善良都描绘出来。食肉动物和食草动物，强大对弱小，偏见与傲慢，我们以为强势的老虎市长是始作俑者，但其实看似弱小值得同情的绵羊助理才是贪婪的恶人。我们以为肉食者改不了贪婪的本性，兔子警官下意识的拿出防御武器的时候尼克是心碎的。我们以为黑道大哥应该是强大恐怖的，结果是一只小小的老鼠，并且他也知恩图报。我们以为狐狸是狡猾的骗子，实际他们也有脆弱和希望得到认可的愿望。喜剧的内核必须有很多现实的元素才能让人觉得真实，饱满。里面的每个角色都有他的缺陷但又有其可爱之处。强烈的对比让我们反思人性的弱点', '同意出第二部的，点赞吧', '一只狐狸干过迪士尼所有王子', '主题很棒，大有讽刺的意味，但是有演绎的完美无瑕，用动物们来影射人类，小孩子看见正义与欢乐，成年人能看见明争暗斗与种族歧视', '出场才三分钟的树懒，简直承包了十足的笑点，哈哈哈', '迪士尼那么多的王子，果然最帅的还是尼克(˘•ω•˘)', '五年前刚出来的时候就跟男朋友去电影院看了，时间过得真快，现在他已经是别人的男朋友了，而我也是别人的男朋友了', '高分电影果然就是不一样 想看尼克和兔子结婚！', '为什么不能投屏呢！！', '开端来的', '秒杀所有迪士尼王子的狐狸', '包容各种动物，包容别人的过失，兔子承担自己的过失，狐狸兔子的 梦想，狐狸的 友情，兔子家人的 亲情。国产电影有这个表现力就好了！', '😂😂我是因为开端的二创视频来看的，，兔子好可爱啊', '看完开端，再来看遍看动物城', '因为《开端》，我决定把这个加入播放列表，明天就看', '《关于本人因为太想看开端把疯狂动物城又看了一遍这件事》', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道。如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', '本来性取向就不稳定，看完疯狂动物城连物种都不稳定了（我爱上这只狐狸了！！！！）', '有种cp叫朱迪尼克，糖尿病患者慎看。疯狂动物城(原声... 05:54', '一个字，好！', '这画质真拉垮', '“尼克狐尼克，你被捕了”\n“噢？为什么？因为伤了你的小心脏？”\n啊啊啊啊啊真的磕死我了\n“你知道你爱我”\n“我知道吗？好吧，就算我知道”\n呜呜呜大家都来看好吗！！[上头-上][上头-头]', '“you know you love me”尼克妥妥的理想型', '大先生和白熊', '很有意义的一部电影', '她现在啊是', '好看，是真好看', '超好看，三刷啦！', '超级无敌喜欢💕', '原来这电影是16年上映的，当年是在电影院看的', '尼克啊啊啊，全迪士尼的王子加一起也比不上一只狐狸[喜欢]', '这个小可爱是美洲狮啦，别搞错了呦', '￼有种cp叫朱迪尼克，', '小学时期的电影了，高中了还是很喜欢\n2023再来', '办了他们', '意义好，内容好，而且很适合学英语', '好看 爱上一只狐狸', '为什么画质变低了', '2023.12.13来过', '我要好好学习天天向上吧', '2022年了，还有人看疯狂动物城吗', '在我看来这是汉语配音最完美的电影，还记得尼克狐尼克的那句：“为什么?伤了你的小心脏~”[打call了]', '尼克真tm的烦！朱迪明明没有说他他就一直搁那对号入座！！真是个心机男！😡😡😡😡', '&lt;p&gt;《疯狂动物城》，这是一部轻松的动画电影，当然，感触最深的大概是主题曲的歌词。故事很简单，表达的都是一些大家都明白的道理。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;梦想就坚持，说不准哪天就成功了呢&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个年轻人对大城市都心怀憧憬，那里有我们的梦想，我们的期望。想法很美好，然而这世上没有净土，伊甸园更多的只存于想象。&lt;/p&gt;&lt;p&gt;你追求梦想的赤诚，也许无形中会给他人带来伤害，更甚者，会被人利用，成为罪恶的推手。&lt;/p&gt;&lt;p&gt;与梦想几乎背道而驰的现实，善意的信念带来的却是糟糕的恶果，能不能承受？&lt;/p&gt;&lt;p&gt;兔子朱迪的职场经历何尝不是我们每一个人的缩影，追梦的道路上哪里又没有遇到过挫折和绝望。&lt;/p&gt;&lt;p&gt;失败也许还只是最小的打击，怕只怕，你所以为的善意，不仅没有带来追求的正义，反而还失去了其他重要的事物。&lt;/p&gt;&lt;p&gt;也许，为了某个职业梦想，放弃了深爱的人。也许，为了心底的善意，放弃了本属于自己的幸福。&lt;/p&gt;&lt;p&gt;经历过世事后才发现，那些你以为重要的，说不准才是不惧怕失去的。那些你以为可以舍弃的，才发现是无论如何不该放手的。&lt;/p&gt;&lt;p&gt;电影中，朱迪的梦想有过冲动，有过热血，有过失败，有过彷徨，她也曾失去，她也曾舍弃，她也曾伤害，她也曾挽回。所幸，最后她实现了梦想，也收获了幸福。&lt;/p&gt;&lt;p&gt;很多道理，知道的太迟，懂得的代价太大。幸运的是，时间没有太晚，还有机会改变。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKsA63MbGk8sJCf9lwteYyVQHicpCGqGoSjA/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;成为异类的日子里，哪怕被人排挤，你还是要努力发光&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;狐狸尼克不是一开始就圆滑事故，小时候的狐狸也有过单纯热情的梦想。直到有一天，它被信任的朋友们排斥在外，甚至于肆意践踏。&lt;/p&gt;&lt;p&gt;和别人不同，就会被视为异类。太过于聪明，平庸的人就会感到害怕。&lt;/p&gt;&lt;p&gt;你的聪明没有错，有错的是那些盲目的人们，你的热忱没有错，错的是那些以狭隘眼光对待你的人们。&lt;/p&gt;&lt;p&gt;你没有办法改变他人，如果你还是打算坚持自己选择的道路，就只能独自一人尝试坚持，直到有一天找到同伴。&lt;/p&gt;&lt;p&gt;这个世界上，总有一个人会来到你的身边，帮助你，支持你，成为你的同伴，从此携手同行。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKnZaAYSnatZPzMexy23wtebVIHibV36cLJw/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;生活总会有点不顺意，我们都会犯错。天性如何并不重要，重要的是你开始改变。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个人都无法预测明天会如何，我们往往没有那么多先见之明，没办法提前规避风险。&lt;/p&gt;&lt;p&gt;有时候我们会把未来想象得太好，会把梦想看得太重，当真正的一步一步走向期待的目标时，才会发现它并没有那么美好，这时，我们会失落，会受打击。&lt;/p&gt;&lt;p&gt;痛苦是必然的，煎熬也是必然的，尤其在付出了那么多之后，才发现一直渴望的生活与想象中差距那么大，说句信念坍塌也不为过。&lt;/p&gt;&lt;p&gt;仔细想象，现实与理想的差距太大，还是因为自己不够强，不够优秀，还没有能力缩短两者的距离。这个时候，别放弃，别妥协，要重新出发，勇敢去尝试每一件事情，别担心失败，别过于苛求，每一步都全力以赴，我们最终会抵达目标。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/yingping_pic/Q3auHgzwzM4VcOejxGlGaITiaOIXnsfQScUlhVjdwiaMO6LDYGCE365A/0" data-width="450" data-height="600"/&gt;&lt;/p&gt;&lt;p&gt;如果你喜欢我的影评，欢迎关注天天快报、今日头条“糖果悠唐”。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKm3PNV7zRn45cogGBefsnK6x6b5WhibLPXw/0" title="" data-width="400" data-height="400" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', '喜欢尼克！！', 'anyone could be anything, try it.', '24年第二部电影院见🥣', '夏奇拉吗', '帅气尼克and可爱朱迪', '这个很好。', '好看，先收藏，将来跟我的孩子看', '中国语的可以吗？', '什么玩意不让投屏，我挠', '超级好看 很有深度 超级棒', '看玩之后满满的感动。\n作为一个男生，我确实应该像尼克学习，学会独立挣钱，养活自己，做事有原则，有担当，懂得生活的意义。\n我也要像朱迪学习，朱迪在小时候时，别人嘲笑她的梦想，她有过失落和痛苦，但是她还是坚持了下来。如果朱迪当初放弃了自己的梦想，选择和现实低头，那么她也不会遇到尼克，也不会遇到和她志同道合的人。所以说，努力提升自己的能力，不断让自己变得强大，进去更好的圈子，才有可能遇到贵人。\n确实世界是不公平的，只有强者是制定规则的人，弱者只有服从的命令。赚到钱的人，一定是哪些不走寻常路，不随大流，有独立思考能力的人。', '我又回来重温了，闪电闪电', '我居然会喜欢一只狐狸，他真的好好看', '超级好看，推荐！', '放下偏见', '超喜欢看无数遍了呜呜呜喜欢豹豹警官', '把树懒当公务员，还真是这样，😂😂😂', '有没有第二部，狐狸和兔子生出来是什么🤔', '这部电影就揭示了“动物（也包括人）心中与生俱来的成见",多数的食草动物对食肉动物的残暴成见，兔子对狐狸的狡猾的成见，包括那些身体高大的警官对于弱小兔子的成见。在人的层面讲，善良的人们总是对那些看似罪恶的人们有成见，强大有权势的人们总是看不起弱小的人们，那些正常聪明的人们对那些天生残缺的人有成见。就像哪吒动漫中所说的”人们心中有座山，那座山就是成见“。\n  世界本来就不公平，公平就是那些”享受公平“的人提出来安抚那些”不公平的人\'。生活中的我们就是那只兔子：总认为自己能改变点什么，但是最后才发现我们什么都做不了，默默地感到着自己。\n  “我竟然妄想自己能有所作为。”\n“我想我们应该放下顾虑 ...”\n                                                 2022，10，17', '这片的第二部预告片出了有段时间了吧？正片呢', '希望以后做的越来越好', '百看不腻', '很真实，剧情很意想不到', '好好看啊，期待第二部', '希望国漫也有这样的巨作！', '太好看了，yyds值得N刷', '谁同意一定要出第二部点赞吧', '😘😘😆朱迪和尼克好磕[配R][配R]', '回老家了现在在家里面🍜腌就恐慌了', '00后多看国产经典，阿凡提，神笔马良，鱼童，骄傲的将军，狐狸打猎人，没头脑和不高兴，真假李逵，济公斗蟋蟀，老狼请客，半夜鸡叫，小马虎，崂山道士，红军桥，草原英雄好姐妹，好猫咪咪，牧童，熊猫百货商店，轰动世界', '什么时候有第二部啊', '几十年前就睡觉觉五哈', '是一部让人赏心悦目的电影，希望大家都可以静下心来看[准奏]', '改天左右眼了10', '狗好可爱晴晴雨雨停停', '后期狗狗好可爱']</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 纸新娘 </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>VIP · 10586热度</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>《纸新娘》热播！活人犯禁忌，与纸人结阴亲全家中邪！,电影简介:民国初年，清宝村马家大夫人正在为其因病去世的大孙子马不明举办阴婚，突然纸新娘离奇复活，现场一片混乱。阴阳半仙认为是其二孙子马不快因血跟纸新娘结了孽缘，从而被纸新娘缠上，必须送他离开马宅。十一年后，马不快携恋人李招娣回乡谈论婚嫁之事，不料在他回到马宅后诡异命案接连发生，不信任何鬼神怪论的他认为此事另有蹊跷，决定亲自解开谜团，并且在这过程中逐渐了解到一段尘封已久的恩怨。</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.0分</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '那姑娘都愿意了，还在树后不答应。害人害己的东西[EMO了]', '一，老夫人该死，封建迷信害死人，\n二，戏子该死，要了女人身子又不带她走，让她留下肯定是没好结果\n三，借鬼神杀人敛财更该死。', '帘外芭蕉惹骤雨门环惹铜绿，而我路过那江南小镇惹了你。在泼墨山水画里，你从墨色深处被隐去', '8分20秒🙏🙏🙏', '很好很好很好纸新娘 1:31:04', '气氛一下就没了', '我走错片场了吗？', '要么是梦要么是人为复仇', '呢个电影纸新娘一般般，我估纸嫁衣游戏有一啲一致嘅情节呢，冇谂到系唔同嘅，就个女主角！也算冇问题了！', '其实要不是碍于鬼怪电影大环境限制，国内很多这种题材还是可以拍的不错的，要不然总觉得差口气', '和春晚最后都要包饺子一样，鬼片最后都能科学解释', '每次看到国产恐怖片的高分影评就禁不住感慨，混口饭吃不容易', '调色师和导演是懂中式恐怖的，，配乐，音乐，色调，布景，小道具。这剧组拍灵异文也是完全可以的', '最该杀的不应该是戏子吗？要是他能带走她，还会有后面的事吗？', '这个结尾挺有意思，有悬疑，小时候缺氧昏迷扔水里都不能死的人大了自己跳应该是没死，让人有个疑影', '嘿竟然还行，拍的不是很水，小成本电影特效稍微有点差也能接受', '电影里开场便是阴雨，加上恐怖的老房子场景，难免有些毛骨悚然的感觉', '架不住剧情的零散，两条主线的设定，并没有做到剧情的融合，而显得十分薄弱空洞', '哦豁！住进祖宅第一天晚上那个妹儿镯子都碎了，必有大凶啊！', '真的很不错，不说废话，不是很恐怖却很有深意告诉大家真的要破除封建迷信', '如果真的有鬼 那当年那些日本人都走不出南京。', '真的很吓人啊几乎全程捂眼睛不敢看，算是国产的及格了~', '推荐你们看国产恐怖片《山村狐妻》，回魂之夜，黄皮子坟（电影版），纸人回魂，落天荒，欧美恐怖片死寂，这个首屈一指，爽死你 厉鬼将映，禁闭岛', '现在的鬼片 没劲哪有鬼全是迷药', '排的真的一般', '有没有女生起床看这个的', '看到那个疯子的时候就知道咋回事了！', '过去的，别再遗憾；未来的，无须忧虑；现在的，加倍珍惜过去的，', '差点以为是纸嫁衣', '￼如果真的有鬼 那当年那些日本人都走不出南京。', '一点也不恐怖', '什么东西啊？', '一个男孩喜欢一个女孩，但女孩并不喜欢男孩，于是男孩把女孩杀了，并将尸体丢到了深山老林，第二天男孩觉得身体很沉重，像是被什么东西压着一样，很难受，喘不过气。就出门散心，遇到一老道士，道士告诉他，他已经被女孩缠上了。男孩问我该怎么办？道士说七天后是回魂夜女孩必定回来杀你，你要在这七天完成三件事。第一去最近香火最盛的寺庙，求一个平安符，第二为女孩做一场法事并将尸体按正常下葬，第三把你杀女孩时她穿的衣服上的血迹清洗干净，这样或许能逃过一劫，男孩先去附近的寺庙求了一个平安符，将符戴上后男孩感觉自己身上的压力顿时消失了，走的时候主持看了他一眼说了一句善哉善哉，然后做了三天法事，第六天将女孩尸体下葬回去后已经下午七点，男孩赶紧把女孩那天穿的衣服拿出来洗，洗着感觉过了很久，一看已经十点了，男孩笑了，搞定了，把衣拿起一看腰部还有一片血迹，男孩大惊赶紧放在水中搓洗，\n23:59最后一分钟男孩绝望了，恐惧降临，头顶电灯一闪一闪像失灵一般，穿白色衣服的女孩漂在空中，惨白的脸，女孩发出刺耳的笑声，\n你洗啊 洗啊，男孩被吓的倒在地下双手撑在后面住后退 你别过来说着伸手拿出那枚平安符，突然灯熄灭了，男孩手中的平安符也碎了，黑暗中女孩问男孩你知道为什么你洗不干净吗？为什么？惨白的脸慢慢贴在男孩脸上，因为因为你没用立白洗衣服粉.….', '就想知道是中式恐怖吗？有真鬼吗？现在的国产鬼片烂的要死，到最后全是人做怪', '￼今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '怎么所有都要剧情都一样，还要为什么没有女主的名字？！', '逻辑思维好', '既然电影不让有鬼的存在，那就多余拍这种片。', '南阳的有没有', '挺好的恐怖片了', '这男人没度量', '没太看懂，是大少爷死了假借冥婚娶纸新娘，实际上娶的是个活人，把活人活埋了吗？', '有害怕鬼新娘的不，来组个队一起看，我请你喝奶茶', '。。。。。[再见][再见]剧情编剧真的一言难尽0.0。就不该对国产恐怖片抱有希望', '装神弄鬼，全是疯子罢了', '这是非常遗憾爱情片好叭😭', '不好，套路俗套', '挺好看的 女主让人看着很舒服', '挺好看，女主没错，感觉戏子有点渣', '全程没感觉恐怖  笑着看完的[富翁]', '鬼片拍成悬疑片，不过剧情还可以', '又是人为的结局。', '现在大陆的这类片看到最后都是人为的，是不是不让拍真鬼了过不了审', '凶手应该是招娣吧，妹妹给姐姐报仇', '他为什么晚上要来不白天来？', '又是这种剧情', '真的不错兄弟们', '不这么安排能过审吗？', '已经很不错了', '真的建议任何胆小的，在家人或者朋友的陪同下观看此影片', '几乎所有的的案件类鬼片，技巧和手法都千篇一律了，国产恐怖片急需提升啊', '我还以为是纸嫁衣嘞', '12月16日打卡', '哥哥死了，那三个坏人逼姐姐冥婚。那为什么让弟弟娶纸新娘', '我想说的是为什结局女主跳水了，男主第一时间反应过来跳水救女主没救成？真不知道导演怎么想的，虽然说结局不能让坏人逍遥法外，但是你他喵的人家男主也是第一时间跳的，最后男主上岸连个尸体都没抱上来，我看到最后以为男主会抱着女主上岸的，不得不说导演想像力也是一坨翔，为了过审这么拍结局是吧？', '国产恐怖片越来越好了，演技道具音乐剧情都不差', '有没有说说好看吗', '管家有问题绝对', '招娣有问题绝对', '今天卡了吗。我Vip咋不能用了。[EMO了]', '永远都是正义战胜邪恶。没啥意思。', '媒婆绑她姐干嘛她姐也没去马家啊她姐不是活着吗之前为什么要用纸人党替身稀里糊涂的', '不知道这片电影纸新娘好不好看\n反正我看了撞邪感觉给我一种\n不是狠恐怖惊的感觉[笑哭N][笑哭N][笑哭N][笑哭N][笑哭N]\n看到后来我都想笑了\n希望纸新娘可以给我一种焕然一新的感觉\n期待(*^o^*)这片纸新娘加油噢力给哦\n[泪奔][泪奔][泪奔][泪奔][泪奔][泪奔]', '纸嫁衣游戏出了之后，国产民俗电影和游戏一个接一个，不戳不戳，味道好极啦，奉天白事铺算一个，这又一个，喜欢看', '最后女主消失是为了迎合国家的法大于情！不然没法过审', '评论区实名', '其实用纸人可以了，听说以前都是用刚嘎不久的来配，也不知道真的假的', '封建迷信要不得哦！时代变了，要与时俱进！', '嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦[吃瓜N][666啊][666啊][EMO了][一起冲][皇冠][一起冲][皇冠][笑死我了][一起冲][笑死我了][意难平][皇冠][富翁][666啊][富翁][放大镜][没眼看][气到变形][我裂开了][我裂开了][击退][击退][击退][击退][打卡-卡][打卡-打][打卡-打][打卡-卡][打卡-卡][笑哭N][笑哭N][鼓掌][擦汗]', '最近恐怖电影不少啊，不错不错', '有现在看的吗', '现在的恐怖片都是这样？有什么看法？开局几分钟吓人的，后面就是男主女主去破案，最后真相大白要么精神分裂要么别人复仇扮鬼', '半夜12:00看正常吗？', '看不明白', '虽然知道结局，还是可以的，好评', '大晚上开我也不敢看啊', '有没有可能，这个女孩是那个纸新娘的妹妹', '纸嫁衣同意了吗？', '招娣像晴儿。好漂亮']</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 蜘蛛侠：纵横宇宙 </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>VIP · 10594热度</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>【幕后短花絮】我要按我的方式来,电影简介:影片讲述了新生代蜘蛛侠迈尔斯携手蜘蛛格温，穿越多元宇宙踏上更宏大的冒险征程的故事。面临每个蜘蛛侠都会失去至亲的宿命，迈尔斯誓言打破命运魔咒，找到属于自己的英雄之路。而这个决定和蜘蛛侠2099所领军的蜘蛛联盟产生了极大冲突，一场以一敌百的蜘蛛侠大内战即将拉响！</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.4分</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['越拍越难看！', '故事框架很大，但是不乱，画风也很棒，让人意犹未尽，期待下集', '下周五出了踹我，往死里踹。', '电影院看了，效果剧炸裂，贼强', '动漫吗？那没必要看啦', '蜘蛛侠还得是索尼玩得好，漫威拍的太拉了，支持索尼宇宙', '就是没有中国蜘蛛侠哈哈哈', '我丢，应该还有一部 最精彩的时候没有了', '祝你和温', '剧透一下，猜猜这是谁？', '这个黑人这么大的爆炸头，蜘蛛侠的头套是怎么做到没有凸起的？', '出了踹死我，往死了踹', '虞书欣配的音太爱了', '出了踹我！\n', '为什么是英语\n', '为啥颜色是粉色太刺眼了，都不高舒服点啊', '上映了踹我一下', '牛啊牛啊   多元宇宙算是被漫威玩透了', '只要什么时候上线呢？我好想看', '什么时候出啊', '7.2就没人出呗', '勾屎真的', '又是黑人。。。美国也快黑化了！', '很好看，就是只有6分钟，下次拍长点。[吃瓜N][打call了]', '找几个人送他权限', '猜测之后的剧情就是斑点开始搞破坏，在主角宇宙的蜘蛛侠阻止开始对战，格温她们找到主角并前往主角宇宙，加入对付斑点的战斗，在战斗中其他宇宙的反派通过虫洞出现，蜘蛛侠们请求支援，在一段打斗争吵醒悟之后斑点被消灭，主角爸爸也没死，主角爸爸也知道主角是蜘蛛侠了。但是蜘蛛老大不乐意了，为什么我改变是事件造成了平行宇宙崩塌，而主角却并没有失去什么。(因为洛基掌握了神圣时间线，可以让每个宇宙的人拥有自己的选择，而不是按照规定的命运。)之后可能还有点故事看除了啥样吧', '首先，提醒各位看不懂的，这是《蜘蛛侠：纵横宇宙》上集！上集！上集！，下集《超越宇宙》预约明年3月在北美上映！[一起冲]\n真爱粉一定要看！超酷！各种画风各种年代的融合！已经不能说是动画电影了，这是艺术！[666啊]\n欣赏不了的人最好还是不要看了，省得看了还看不懂在那叫[吃瓜N]\n上集，基本上就是讲，接上前传迈尔斯的宇宙同一个宇宙两个蜘蛛侠，由于金并的对撞机，迈尔斯成了整个异次元错乱的源头，目前最大的敌人斑点(不知道下集会怎么样)。同时讲了迈尔斯与百蛛集结互相的关系，这里由女朋友格温引入。最后，小小剧透一点点，迈尔斯和格温确定了心意，导致格温才有强烈的信心招募联合愿意帮迈尔斯的蜘蛛侠们，一起打破命运，一起见证(下集)！\n42号宇宙的迈尔斯徘徊者登场的时候真的超帅，泰酷辣！[打call了][打call了][打call了]（42号宇宙没有蜘蛛侠）\n百蛛登场的地方，真的是经典名场面！还有好几个老熟人，真人版客串，还有加菲[放大镜][狗头]不看真的会后悔的！每个场景的配乐真的很nice！[一起冲]\n花了7.2元刷了三遍了还是不觉得腻！[金币]', '我是不是看错顺序了我先看的是平行宇宙然后又看这个应该顺序是对的吧', '张泽鸥我爱你😘', '我充了VIP', '迈尔斯是真的der，就一小屁孩，满是个人主义', '动画片有啥好看的', '混乱，为赋新词强说愁。', '7.2元看了一个预告。', '谁买了？能不能私信我一下当一次好人好不好', '谁懂啊，看了两个半小时都是为第二部铺垫，没正片，两个多小时看的都是第二部的预告', '电影院的效果才炸裂呢，手机上看没那味儿', '看的热血沸腾', '怎么说呢，没第一季好看，电影看完一点感觉都没有，就像听了一首口水歌，挺失望的，看了又像什么都没看，没第一季惊艳，而且可能受传统文化和东西方文化差异的影响，我挺反感这一季的主角的，希望下一季能做好吧。', '今天刚能免费吗', '申请退款', '虞书欣配音惊艳到你了吗 这么爱破防吗 你发这些有什么目的？谁指使你的？你的动机是什么？你取得有关部门许可了吗？他们容许你发了吗？你背后是谁，发这些想做什么？你在讽刺谁？想颠覆什么？破坏什么？影射什么？', '说看不懂的什么成分？期待下一部', '拍的不错，下次拍时间长一点，才看6分钟就结束啦，不过瘾。', '想来想去还是世界太无趣 那么多人都在忙着辜负自己', '不是能力越大责任越大吗？蜘蛛侠拯救世界也会选择拯救世界（这个是啥？黑猪侠，烧的嘛而且半生不熟坏肚子那种）', '期待下一步', '现在内个也能当蜘蛛侠了吗', '2023/12/21打卡！！', '讨厌的政治正确，什么都要加黑人。', '这预告片居然花了我两个多小时', '6分钟的电影真好看', '[准奏]本身就是不同宇宙线的蜘蛛侠 蜘蛛侠2099代表老旧恪守的一派 2099为各个平行宇宙的蜘蛛侠建立了基地 他也很热爱蜘蛛侠大家族 其他宇宙的蜘蛛侠围绕着蜘蛛侠2099身边组成了一个强大的守旧势力 他不是反派 但他依旧是迈尔斯最难抗衡的力量 而迈尔斯就属于颠覆派 迈尔斯不相信这些命运 他想要冲破旧格局 他想重新定义蜘蛛侠的命运 这就是两种信念的碰撞 不很好的把平行宇宙的概念引入进来了吗 看不懂就去看看解说￼￼', '还是挺好的，虽然最后结束的有点突兀……期待下一部吧！😁😁', '这不是平行宇宙吗？', '就看视觉效果过去，一般', '好看的地方我都在哈哈[666啊]', '英语2:14:26看完啦 周三晚上19:23 2023.12.20看了一周[一起冲][一起冲][一起冲]', '除了内个主角，其他一切完美', '我都看过了，再看一次', '今年的美国不管是什么类型的，为什么主角都是黑人，我也是服了', '电影特别好看，特别精彩，多种画风演技超高制作，导演简直是个天才，当然了，演员也是一堆天才我，而且里面还有真人扮演', '勋章不少', '这是在侮辱智商呢 那么多蜘蛛侠整不过一个迈尔斯 呵呵呵', '棉花侠摘棉花一定很快', '好棒的电影，除了最后该死的“to be continued”主题贯穿整个故事，虽然是老套的“我命由我不由天”，但故事表现的很好，原本以为是宝宝宣传教育片，后面发现整个故事给人思维一种很震撼的感觉。', '彼得帕克啥时候变成niggggger了。。。。。', '尼哥居居侠', '我花这些钱只为看个预告片', '艺术 视听 画面 拉满了', '我就知道还会出', '听说动画版与蜘蛛侠更配哦。', '不是哥们，我看了个预告片', '第三部呢', '2023...12--18', '视效 音效都是顶级的！ 还有不同蜘蛛侠不同画风的展现也是很好的创意！故事有点好懂希望下一部也能有同等水平 三部曲都获得奥斯卡就很牛逼了', '哪来的9.4分啊不能理解', '什么玩意啊', '说句实话，真心不好看，中间我也没看到有什么高潮部分结果我以为高潮部分要开始了结果结束了', '画面很不错', '我真的很喜欢蜘蛛侠，当时刚出来的时候太忙没时间去看，腾讯竟然这么快就出来了，很开心', '蜘蛛侠都变成nigher了果然政治正确  我呸！', '这是2023年的电影？我怎么感觉几年前就看过了？还是说以前有这么一部类似的？我穿越了？', '哇哦要出啦！！！', '我天太帅了吧\n下一部必看啊', '今年好像都流行拍一半', '感觉应该不错', '😈😈😈😈😈😈👿😈😈😈😈😈😈😈😈😈😈👿👿😈😈😈👿😈😈👿😈👿😈😈😈😈😈😈😈😈😈😈😈😈👿😈😈😈👿😈😈😈😈👿找😈有十个', '熬到你免费了 终于！', '黑猩猩，蜘蛛侠[吃瓜N]']</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 阿凡达 </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VIP · 10555热度</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>《阿凡达》“卡神”独家珍藏狩猎片段 首次曝光,电影简介:在未来世界中，人类为获取另一星球——潘多拉星球资源，启动了阿凡达计划，并以人类与纳美人（潘多拉星球土著）的DNA混血，培养出身高近3米高的“阿凡达”，以方便在潘多拉星球生存及开采矿产。受伤的退役军人杰克，同意接受实验并以他的阿凡达来到天堂般的潘多拉星球。然而，在这唯美幽境里，地上爬的、天上飞的、土里钻的生物却只只巨大且致命……杰克背负重任，身处险境中，在与纳美人首次意外接触后，虽然开启了沟通的可能，却也即将面临一场异想不到、浩瀚壮烈的世纪冲突，从中他也将获得空前启示……</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6分</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['真棒，还能变成付费，真棒', '十年了，画质还是无人超越', '￼我敢打赌2023年没有女生会在腾讯看这个电影并且翻评论', '阿凡达是一部映射美国侵略印第安部落的作品', '神迹，也许本身就存在于自然界，只是人类无法明白才称之为神迹。科技也不是人类发明的，只是人类通过理解自然界的现象捕捉到“灵感”，以理论阐述出来，并弄出实物，称之为“发明”', '我敢打赌2022年没有00后的女生会在腾讯看这个电影并且翻评论', '今天看了阿凡达2非常震撼好看，觉得人类真的是聪明又残忍', '太好看了吧，感动😭', '第二部水之道最多给7分', '满满回忆', '下午刚看完《阿凡达2水之道》  剧情拖沓  演员演技一般  还是老套路  就剩特效支撑了   很失望！ 电影院坐的人不多！中途还有人打瞌睡 看的睡着的！ 哎 不是花了钱的  中途我就撤了！不看了 没意思！剧情都能猜到！！很失望', '今天零点过后这个帐号会员就到期了 是我爸一直充会员看电视的账号 他很爱看电视 我妈前不久还批评过他看电视冲这么多钱 他说不充了 18号那天他走了  什么都来不及 连会员都没到期 心梗就把他从我们身边带走了 我17岁 女生 爸爸挑起的梁落到我身上了 我爸爸很可怜 我妈妈也是 我弟弟也是 可怜 我很想他 真的很想他 他真的对我们超好 我这一辈子都见不到他了\n以后这个账号不会亮起了', '小的时候光看到了特效，长大了在看却发现了偏人文的性质。这部片子很好的反映出来了当时欧洲殖民者占领了美洲大陆后，当地土著友好的接待他们，但是这些殖民者却想要的是他们的土地和他们的命。哈哈哈哈是真的讽刺', '有没有发现，美国电影只要出现跨种族爱情，绝对都是土著女人爱上白人侵略者，白人都是带领她们走向性自由走向美好，是解放者不是侵略者。比如中国拍的红河谷，歌剧西贡小姐，蝴蝶夫人等等。偶尔出现《情人》这种白女+亚男的，那绝对是白人施舍的高高在上的结果悲惨的。', '反人类罪，这与印第安人的事没有一点可比性，印第安人与我们同为人类，外星人与我们是不同生命体系。人类终将踏灭星辰', '除了侵略战争这层意义，我觉得导演还想说的是，我们人类现在过度追求物质需求依赖现代科技产品，过度疏离自然，阿凡达的生活方式是精神层面的，而我们人类现在只会没日没夜的为了钱工作学习，像行尸走肉一样活着，精神层面极度空虚，所以在阿凡达看来人类才是低级生物', '这不妥妥的表现美国人屠杀印第安人的另一个角度吗。', '现在是2022年，第一次看这部影片，但我知道这是十年前的电影，为什么到现在才看，因为看之前就能猜到主题，真的很美国，拯救地球没有了新意，开始拯救外星人，故事是新故事，但桥段还是老桥段。看这一个镜头就知道下一个镜头要演什么。但有一点不可否认，在当年，这样的制作水平是一流的，确实很美国，影视工业很强大，大多数人都被影片的特效所震撼。从影片情节中，我也看到了现实中的美国，从哥伦布发现新大陆，白人屠杀印第安，到如今美国为资源挑起的战争。现在俄国还在跟乌克兰打仗，心情很压抑。有人和我一样吗？', '从客观角度来讲，我挺认同上校的观点的，阿凡达计划其实可行性确实比较低。如果真的双方爆发战争，科技落后的纳威是无法和现代武装力量抗衡的。从人类的利益角度来说，我们来潘多拉就是为了开发它、利用它的矿产。不破坏纳威人的生存环境当然更好，但如果他们执意不让步的话，那只好采取强硬手段了（仅代表个人观点）', '看来我才是真爱呀', '感觉像一群强盗看上了别人家的东西，然后闯入别人家里边拿棍棒殴打边给人嘴里塞颗糖，然后说“你怎么那么不识趣”', '我国什么时候有这样的特效，那些神话人物一定是最美的', '好几年以前的电影还要收费？搞笑', '太震撼了，12年之后看仍然是最顶尖的科幻作品。', '第二部今年就要上了，重温一遍第一部，卡梅隆真的永远的神，还记得当时几百块一张的电影票还供不应求，朋友跑去香港看了一场，这是第一部3d啊，有着跨时代意义的电影', '电影说的是美国白人屠杀印第安人', '太好看了吧', '终于不用付费！', '《阿凡达2》曝光正式片名Logo：为《阿凡达2：水之道》！同时，《阿凡达1》重制版又一次全球重映，时间是9月23日！阔别13年终于来啦，《阿凡达2》的公映日期确定不会再发生变动，詹姆斯·卡梅隆执导，萨姆·沃辛顿、佐伊·索尔达娜、凯特·温丝莱特、范·迪塞尔主演，12月16日上映。人类电影的奇迹，期待！', '一小时二十四分灵魂树哪里我记得有他们两个人辫子交缠在一起了好像，咋没了', '终于可以不付费了🎉', '终于看上了熬了12年。小样的，咋不收费了。', '一个背叛人类的人做主角！', '第一次看，特效制作水平确实被震撼了', '抛开所有的种族歧视，从零的角度看问题说一下你们的感觉！\n人类有时候真的很贪婪，为了自己的世界可以不择手段。对应我们现在的状况是不是正好对称，有多少稀有动物灭绝，有多少人在努力的挽留住大自然的馈赠。总有人去破坏生态平衡，这是地球的生存法则，想要发达，强大，繁荣，发展，生存，就要有牺牲，总会有失去。用原生态换取现代的需求！', '大家小心，买了还有期限的，不及时看下次还要再买一次', '科幻电影巅峰之作，至今没有超越，期待续集', '外国人十多年前拍摄的特效都这么厉害，叼！', '电影中的人类公司侵略罪大恶极，但主角杰克也是人奸吧。开头说了屠杀土著会造成负面舆论，说明人类主流是反对侵略的，这只是这家公司的私人行为。但主角选择作为纳威人来抵抗侵略，最后彻底放弃了人类的身份，这是背叛自己种族了吧。他队友就以人类的身份留下来了，感觉比主角强。', '第一遍看深深被电影特效震撼的不行，第二遍看很喜欢这个故事越来越相信潘多拉真的存在，第三遍看感觉电影何尝不是对咱们世界某些国家的一些东西的隐射:某些国家看上别的国家的东西了想要，跟人家商量没成功就发动战争打人家，然后还反过来叫人家暴民。。。果然坏人的行为就是擅长倒打一耙还装好人～电影真的很棒！', '《阿凡达》中纳美人有杰克，《三体》中人类有云天明。\n它们在不同的角度，各自为王！\n“黑暗森林法则”\n“当别人拥有你想要的，就把他们变成敌人，然后理直气壮地摧毁。”', '我之前没看过，现在付费看值不值？谢谢大家告诉我呀😊', '放在12年后的现在看，仍旧震撼。', '对，我们终于把他熬到免费了，赞', '为什么阿凡达不能投屏？', '2022.4.25现在看的是免费  过不了多久应该又收费吧', '一部经典的电影！即使放在十几年后的今天依然是巅峰。但是主角的行为还是背叛了人类！种族战争我永远站在人类这一立场！不管这场战争是否符合人类世界的道德标准和是否正义！这是作为一个人类的底线！！！', '阿凡达二零二二年五月四日00:51看完，小样，终于等到不收费。真的是很精彩', '这个不会是前些年那个阿凡达吧？现在找那部阿凡达找不到了，谁看过了？能不能和我说一下是新的还是之前那部🙏🙏🙏', '哪里有小姐？', '团结就是力量', '人口是财富，不是负担', '发张全家福，反光猫猫眼', '￼第二部虽然还没上架，但是我想说的是，很多人都说剧情枯燥乏味没有亮点，但是《阿凡达》一共五部曲，第二部剧情上不好我觉得可能是因为这五个是连续性的，不可能这么快完结的，并不像敢死队那样每一部是个独立的故事。第二部与其说剧情枯燥无味，倒不如说在剧情上卡神更想警醒世人的是当下的社会问题：人与自然的关系问题、父母与孩子之间的问题和种族歧视的问题，狩猎图鲲的鱼叉上有写着日浦的标识，这个细节意味着什么？海洋族歧视森林族，不就是在映射着种族歧视最严重的美国吗？如何与叛逆期的孩子交流？父母有没有真正懂得理解孩子的内心？难道只有奈特亚的死才会让男主和弟弟真正了解到自己犯下的错误吗？难道只有发生了结果了才追悔莫及吗？', '《最后的莫西干人》也是部印第安人电影，挺好看的啊', '投屏都不能，吃相不要太难看', '有多少人看完2回来看1的', '想像這是一部N年前的電影 放在2023年看一點也不覺得舊', '好看死了', '经典就是经典阿凡达(原声版) 04:19', '印第安人的血泪史，了解吗', '1492年哥伦布大航海时代，了解吗', '真喜欢男主他儿，虽然第一部没他。他真的好温柔，还有点皮，是个护姐狂魔，这小崽子这么可爱谁受得了', '看了2回忆一下1🥳', '我是水平座，但是我水平很高', '我觉得阿凡达讲述的更像是人与自然的较量，人为了自己的利益只知道firefire，惹得众怒，最终不自量力自食恶果。', '牛 逼，自己都忘了[笑哭N][笑哭N][笑哭N]', '六六六啊', '没有空气还能点火？', '这是第一部第二部我都看完了', '纳美人不就是暗喻美洲土著印第安人（黄种人）吗', '外国人的目的是鸠占鹊巢', '2023了这部电影出来这么多年第一次看', '杰克家熊孩子表情包[狗头]', '[蹲]留下片名赠片[互粉]', '好看好看，经典回顾阿凡达(原声版) 00:32', '寓意美国的侵略行为', '第一部居然09年的了吗？等了那么久才有免费的第二部[吃瓜N]', '09年的电影，哎！特效还吊打23年国产，加油了，我滴国产科幻电影', '这特效放到现在2023年依旧能打，阿凡达的脸太能打了🚀', '看看法国吧！本土人的灾难！', '存地失人，人地皆失！', '太感动了，看给我哭的', '今天和闺蜜看了《阿凡达：水之道》3个多小时的剧情太好看了！[打call了][打call了][打call了][打call了]', '牛逼的科幻电影，2023年才看到😭', '相当好看', '有点光遇雨林的感觉', '2023/12/21日重温', '美帝霸权主义，他的存在对全球来说就是个巨大的灾难', '别说，这弹幕评论还挺搞笑的。']</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 疯狂元素城 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>云首发 · 10530热度</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>云首发 · 10503热度</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>和腾讯视频迪士尼电影星推官金晨一起，看更多迪士尼优质好片！,电影简介:曾几何时，火焰一族的火柱和怀孕的妻子灯花背井离乡，远渡重洋，来到了元素城开始新的生活。经过十数年的经营，火柱老板的杂货店开得有声有色，而气竭力衰的他也开始琢磨将这家店传给开朗热情却脾气火爆的独生女小焰。在独自筹备某次促销活动时，小焰家的地下室管道出现意外，她也进而邂逅了水一族的青年渡阿波。阿波感性善良，作为市政府检查员，他不得不准备给这家店开出罚单。可是，这个店凝聚了小焰父亲全部的心血啊！为了阻止阿波，小焰使出浑身解数。
 而就在这一过程中，水火不相容的两个人开始尝试了解对方……</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>9.5分</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>动画</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['中国回头拍个，疯狂元素表', '花5钱的举手🙋\u200d♂️', '我这是什么，交了会员，不能看', '等免费了我再来看', '已经可以看了', '剧情非常不错', '4399小游戏水娃火娃？', '源哥的《下个路口》真的超级好听啊啊啊啊啊', '我在电影院已经提前看过，剧情嘛，只能算是中等偏上吧，男主真的超爱哭，他们一家都是这样的，女主的嘛，她脾气很暴躁，反正就是控制不好脾气，而且生气的时候火焰会变紫色', '#元素城e人i人大集合# 看《疯狂元素城》写影评，领元素城精美正版周边！', '片尾曲真好听', '觉得剧情一般，没有想象中的好，钱花的有点不值', '开心，六月十六号是我的生日哎！！！！推广曲还是源哥唱的，开心开心', '疯狂动物城元素版？', '电影看过啦，超级好看\\(//∇//)\\', '我昨天花钱买的，过了一天就又要重新买了', '然后它们生了个双胞胎，就是森林冰火人，对吗？', '谁说水火不相融呢，相爱自会相融，而有缘也自会相见', '给我看哭了', '写出了说话不用但又疯狂的爱情', '挺好看的，可惜剧组没钱，只拍了五分钟，希望下次拍长点。', '只要功夫深，铁杵磨成针。发挥我国传统美德愚公移山的精神。俺必能等到免费观看的一天[放大镜][放大镜][放大镜][超越][超越][超越]', '这是一部充满创意和想象力的动画电影，它以独特的视角展现了一个充满奇幻色彩的元素世界。影片中的元素城市充满了各种奇特的生物和现象，让人目不暇接，同时也引发了观众对于现实生活中科学知识的好奇心。\n\n影片的画面表现力非常出色。导演通过精湛的技艺，将元素城市描绘得栩栩如生，各种奇特的生物和景象都呈现出极具视觉冲击力的效果。色彩搭配也非常和谐，既有梦幻般的蓝色，又有热情奔放的红色，为观众带来了一场视觉盛宴。\n\n剧情设定充满了想象力。元素城市中的各种元素都有各自的性格和特点，如火焰精灵热情奔放，水元素温柔善良等。这些元素之间的互动和冲突，构成了一幅五彩斑斓的世界画卷。同时，影片还通过元素城市的故事，传达了友谊、勇气和智慧等主题，具有很高的教育意义。\n\n音乐来说也为观众带来了愉悦的听觉体验。背景音乐旋律优美，与画面相得益彰，为影片增色不少。同时，影片中的音效也非常到位，如火焰燃烧的声音、水滴落下的声响等，都让观众仿佛置身于元素城市之中。\n\n但是在角色塑造方面略显不足。虽然各个元素都有各自的性格特点，但部分角色的个性较为单一，缺乏深度。此外，影片在情感表达方面也略显稚嫩，部分情节过于简单化，难以引起观众的共鸣。', '《疯狂元素城》是一部充满想象力和创意的动画电影，它以一种独特的方式展现了一个充满奇幻色彩的世界。影片中的城市由各种不同的元素构成，如火、水、土、风等，这些元素共同构成了一个充满活力和生机的城市。\n\n画面风格非常独特，色彩鲜艳且富有层次感。导演通过对各种元素的巧妙运用，创造出了一个充满奇幻色彩的世界。这种视觉上的冲击力让人印象深刻，也让观众更容易沉浸在这个奇妙的世界中。\n\n影片的故事情节紧凑且富有趣味性。主人公在寻找失落的元素的过程中，遇到了各种各样的困难和挑战。这些情节既充满了冒险和刺激，又不乏幽默和温情。观众在观看过程中，不仅能感受到主人公的成长和变化，还能体会到友情、亲情和爱情等深刻的情感。\n\n影片的音乐也是一大亮点。背景音乐既有动感十足的节奏，又有优美动听的旋律，为影片增色不少。音乐与画面的结合，使得整部影片的氛围更加浓厚，也让观众更容易沉浸在这个奇幻的世界中。', '固安全来报告。', '剧情不错，很好看，就是6分钟太短了。', '我在想他们两个生的是个什么玩意儿', '期待第二部[金币][金币][金币]', '2023，12月21日', '画面细节真的超棒', '水火都能相容，你我却不能', '水族天生爱哭，气族天生爱生气。', '白花了4.8元，应该用观影券看', '电影名称：《疯狂元素城》\n导演：彼得·孙\n演员：莉娅·刘易斯、马莫多·阿西\n上映年份及国家：2023年6月16日，美国、中国\n\n《疯狂元素城》是由皮克斯制作的一部动画电影，由才华横溢的彼得·孙执导。这部电影的配音阵容非常强大，由莉娅·刘易斯和马莫多·阿西担任主要角色的配音工作。\n\n电影的故事发生在一个充满各种元素的城市中，这些元素都有自己的特性和生活习性。然而，当城市的平衡被打破，一场混乱即将爆发时，主角们必须团结起来，找到恢复城市平衡的方法。\n\n《疯狂元素城》是一部充满想象力和创新的动画电影。导演彼得·孙巧妙地将各种元素的特性融入到故事中，使得电影既有趣味性，又富有教育意义。配音演员莉娅·刘易斯和马莫多·阿西的表演也非常出色，他们的声音为电影增添了更多的生动性和感染力。\n\n电影的画面精美绝伦，色彩鲜艳且富有层次感，让人仿佛置身于一个充满活力的元素世界。音乐也是电影的一大亮点，既有动感十足的节奏，又有深情的旋律，为电影增添了更多的魅力。\n\n总的来说，《疯狂元素城》是一部值得一看的动画电影，无论是对于孩子还是成年人，都能从中找到乐趣和启示。它不仅展示了皮克斯一贯的高水准制作，也再次证明了动画电影的魅力无穷。', '继疯狂动物城的新一部让我们对美好爱情的憧憬', '打卡，20231220', '很好，哪位大好人可以分享吗', '火爸的声音好像幻影忍者里的吴大师', '就是就是花钱了', '花钱来的必须留名', '现在还在观看', '看完《疯狂元素城》之后的一些tips：#疯狂元素城\n1、父母想给孩子最好的，但那末必是孩子真正想要的！小焰并不想接管商店，但是作为爱爸爸妈妈的孩子，知道商店是父母一生的心血，努力并且积极帮父母\n分担和守护，但是总在某些节点控制不好自己的脾气，父母或许觉得孩子是历练不够，孩子或许觉得自己能力\n不行，实则是孩子做的并不是自己真正想做的事情.\n2、爱是伟大的力量，水火本不相容，阿波却慢慢的走进了小焰的心，因为阿波看见了小焰的逃避和内心真正的渴望，并且陪着她一点点尝试和探索：“我知道这很\n不容易...”;“这是你的人生，你不试试怎么知道”；欣赏小焰的玻璃花，带她去看时光花，洪水爆发后拼命帮忙守护“蓝色火焰”，让水火亦相融，终于让小焰直面自己的内心，勇敢的告诉父母“真相”。看似柔弱爱哭的阿\n波勇敢的表达爱，坦然面对生死。外表坚强的小焰却不敢直面自己的内心，在家庭和梦想之问摇摆。最终是父母对他们的爱让他们可以自由的追求自己的梦想…。\n3、父母的回应是孩子一生向阳的重要仪式之一…火爸爸在离开部落的时候向爷爷行临别趴行礼，爷爷看着离开儿子有些失望或者不舍并没有回应，这让爸爸一直耿耿于怀，终于在小焰的跪别趴行礼时候，小焰和爸爸都普通话47:09完成了与自己的内心和解，一个关于梦想的一个关于亲情的….\n最后：我们不要怀疑父母对孩子的爱也不要低估了孩子\n对于父母的爱，多一些允许和接纳或许生命中会开出很多“时光花”', '在好久之前就看过了。真的太好看了。', '需要反复购买的吗？怎么前几天买的，现在就不能看了', '免费了我在看', '王梦梦，我就是喜欢你', '有会员还要购买电影，但电影挺好看的', '你们是懂元素的', '好看 而且根本看不够！[准奏][撒花N]', '太好看了！', '热情的火焰，纯洁的水', '爱情的能量爆满', '哇塞好好看[憨笑]他们生的孩子是水蒸气元素的吗[我不理解]阿波是胖子还是瘦子[我不理解]小焰是一生气就会变紫吗[我不理解]', '本来以为是迪士尼和皮克斯的强强联合，结果看完只觉得智商受到了侮辱，建议还是各做各的吧', '《疯狂元素城》是一部兼具奇幻与科幻色彩的电影，其内涵易懂而不失深刻。虽然跨越“种族”恋爱和追逐梦想的剧情设计与此前的《疯狂动物城》等作品类似，稍显俗套，但其出色的画面展示和稳妥的节奏把控，仍使得其不失为一部老少皆宜的影片。\n对于不同年龄阶段的人来说，观看《疯狂元素城》能得到不同的感受：对于懵懂无知的孩童来说，有趣的画面和故事情节能焕发出别样的童趣；对于心花初绽的青少年来说，男女主角的双向奔赴与彼此欣赏最能令人向往；对于而立知天的中老年人来说，片中的父女、母女乃至婆媳关系，都十分生动有趣。', '咋去投诉', '怎么去投诉', '陌杂日丹名🧚\u200d♀️🧚\u200d♀️', '你不能一直自己上。', '终于看到这了', '吐槽不够看', '超级超级喜欢', '好看[笑死我了] 出第二部[皇冠]', '第二部地球特派员还有没有小焰和阿波了？真的很好看', '我有大把时间等你免费，免费在看', '比比比比比', '特别好看 后悔没时间去影院观看', '😂爱哭的女婿', '为什么购买了一次，再看还需要购买', '不收费了我再来看，家人们记得踢我一下[吃瓜N]', '我是会员哦[666啊][一起冲][握草][准奏][富翁][皇冠][金币][准时]', '啊，真爽，免费的。', '就很离谱🌚🌝🌚🌝', '8 哈哈😃哈哈😃哈哈😃哈哈', '超级无敌赞，', '好喜欢这首主题曲', '花了钱留个纪念', '2013  12  12广州', '好想看后续呀！期待😌', '好好看呀！家人们谁都啊', '画质好好', 'w y e 你看水跟火都能在一起，为什么你跟我就不能！[意难平]', '源哥唱的主题曲在哪', '还没看够，希望有2', '买了能退吗', '看到彩虹不应该背对着太阳吗？', '不就是6块钱吗？买了😒😒😒😒😒', '真的超级好看[意难平]', '我们，会一直在一起的，对不对，程贤彬', '好看，太棒了']</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['中国回头拍个，疯狂元素表', '花5钱的举手🙋\u200d♂️', '我这是什么，交了会员，不能看', '已经可以看了', '4399小游戏水娃火娃？', '源哥的《下个路口》真的超级好听啊啊啊啊啊', '我在电影院已经提前看过，剧情嘛，只能算是中等偏上吧，男主真的超爱哭，他们一家都是这样的，女主的嘛，她脾气很暴躁，反正就是控制不好脾气，而且生气的时候火焰会变紫色', '片尾曲真好听', '开心，六月十六号是我的生日哎！！！！推广曲还是源哥唱的，开心开心', '#元素城e人i人大集合# 看《疯狂元素城》写影评，领元素城精美正版周边！', '觉得剧情一般，没有想象中的好，钱花的有点不值', '疯狂动物城元素版？', '电影看过啦，超级好看\\(//∇//)\\', '我昨天花钱买的，过了一天就又要重新买了', '然后它们生了个双胞胎，就是森林冰火人，对吗？', '谁说水火不相融呢，相爱自会相融，而有缘也自会相见', '看不够根本看不够。', '给我看哭了', '写出了说话不用但又疯狂的爱情', '固安全来报告。', '只要功夫深，铁杵磨成针。发挥我国传统美德愚公移山的精神。俺必能等到免费观看的一天[放大镜][放大镜][放大镜][超越][超越][超越]', '水火都能相容，你我却不能', '这是一部充满创意和想象力的动画电影，它以独特的视角展现了一个充满奇幻色彩的元素世界。影片中的元素城市充满了各种奇特的生物和现象，让人目不暇接，同时也引发了观众对于现实生活中科学知识的好奇心。\n\n影片的画面表现力非常出色。导演通过精湛的技艺，将元素城市描绘得栩栩如生，各种奇特的生物和景象都呈现出极具视觉冲击力的效果。色彩搭配也非常和谐，既有梦幻般的蓝色，又有热情奔放的红色，为观众带来了一场视觉盛宴。\n\n剧情设定充满了想象力。元素城市中的各种元素都有各自的性格和特点，如火焰精灵热情奔放，水元素温柔善良等。这些元素之间的互动和冲突，构成了一幅五彩斑斓的世界画卷。同时，影片还通过元素城市的故事，传达了友谊、勇气和智慧等主题，具有很高的教育意义。\n\n音乐来说也为观众带来了愉悦的听觉体验。背景音乐旋律优美，与画面相得益彰，为影片增色不少。同时，影片中的音效也非常到位，如火焰燃烧的声音、水滴落下的声响等，都让观众仿佛置身于元素城市之中。\n\n但是在角色塑造方面略显不足。虽然各个元素都有各自的性格特点，但部分角色的个性较为单一，缺乏深度。此外，影片在情感表达方面也略显稚嫩，部分情节过于简单化，难以引起观众的共鸣。', '剧情不错，很好看，就是6分钟太短了。', 'Beautiful', '我在想他们两个生的是个什么玩意儿', '期待第二部[金币][金币][金币]', '2023，12月21日', '画面细节真的超棒', '打卡，20231220', '白花了4.8元，应该用观影券看', '水族天生爱哭，气族天生爱生气。', '电影名称：《疯狂元素城》\n导演：彼得·孙\n演员：莉娅·刘易斯、马莫多·阿西\n上映年份及国家：2023年6月16日，美国、中国\n\n《疯狂元素城》是由皮克斯制作的一部动画电影，由才华横溢的彼得·孙执导。这部电影的配音阵容非常强大，由莉娅·刘易斯和马莫多·阿西担任主要角色的配音工作。\n\n电影的故事发生在一个充满各种元素的城市中，这些元素都有自己的特性和生活习性。然而，当城市的平衡被打破，一场混乱即将爆发时，主角们必须团结起来，找到恢复城市平衡的方法。\n\n《疯狂元素城》是一部充满想象力和创新的动画电影。导演彼得·孙巧妙地将各种元素的特性融入到故事中，使得电影既有趣味性，又富有教育意义。配音演员莉娅·刘易斯和马莫多·阿西的表演也非常出色，他们的声音为电影增添了更多的生动性和感染力。\n\n电影的画面精美绝伦，色彩鲜艳且富有层次感，让人仿佛置身于一个充满活力的元素世界。音乐也是电影的一大亮点，既有动感十足的节奏，又有深情的旋律，为电影增添了更多的魅力。\n\n总的来说，《疯狂元素城》是一部值得一看的动画电影，无论是对于孩子还是成年人，都能从中找到乐趣和启示。它不仅展示了皮克斯一贯的高水准制作，也再次证明了动画电影的魅力无穷。', '继疯狂动物城的新一部让我们对美好爱情的憧憬', '《疯狂元素城》是一部充满想象力和创意的动画电影，它以一种独特的方式展现了一个充满奇幻色彩的世界。影片中的城市由各种不同的元素构成，如火、水、土、风等，这些元素共同构成了一个充满活力和生机的城市。\n\n画面风格非常独特，色彩鲜艳且富有层次感。导演通过对各种元素的巧妙运用，创造出了一个充满奇幻色彩的世界。这种视觉上的冲击力让人印象深刻，也让观众更容易沉浸在这个奇妙的世界中。\n\n影片的故事情节紧凑且富有趣味性。主人公在寻找失落的元素的过程中，遇到了各种各样的困难和挑战。这些情节既充满了冒险和刺激，又不乏幽默和温情。观众在观看过程中，不仅能感受到主人公的成长和变化，还能体会到友情、亲情和爱情等深刻的情感。\n\n影片的音乐也是一大亮点。背景音乐既有动感十足的节奏，又有优美动听的旋律，为影片增色不少。音乐与画面的结合，使得整部影片的氛围更加浓厚，也让观众更容易沉浸在这个奇幻的世界中。', '很好，哪位大好人可以分享吗', '火爸的声音好像幻影忍者里的吴大师', '就是就是花钱了', '花钱来的必须留名', '免费了我在看', '现在还在观看', '看完《疯狂元素城》之后的一些tips：#疯狂元素城\n1、父母想给孩子最好的，但那末必是孩子真正想要的！小焰并不想接管商店，但是作为爱爸爸妈妈的孩子，知道商店是父母一生的心血，努力并且积极帮父母\n分担和守护，但是总在某些节点控制不好自己的脾气，父母或许觉得孩子是历练不够，孩子或许觉得自己能力\n不行，实则是孩子做的并不是自己真正想做的事情.\n2、爱是伟大的力量，水火本不相容，阿波却慢慢的走进了小焰的心，因为阿波看见了小焰的逃避和内心真正的渴望，并且陪着她一点点尝试和探索：“我知道这很\n不容易...”;“这是你的人生，你不试试怎么知道”；欣赏小焰的玻璃花，带她去看时光花，洪水爆发后拼命帮忙守护“蓝色火焰”，让水火亦相融，终于让小焰直面自己的内心，勇敢的告诉父母“真相”。看似柔弱爱哭的阿\n波勇敢的表达爱，坦然面对生死。外表坚强的小焰却不敢直面自己的内心，在家庭和梦想之问摇摆。最终是父母对他们的爱让他们可以自由的追求自己的梦想…。\n3、父母的回应是孩子一生向阳的重要仪式之一…火爸爸在离开部落的时候向爷爷行临别趴行礼，爷爷看着离开儿子有些失望或者不舍并没有回应，这让爸爸一直耿耿于怀，终于在小焰的跪别趴行礼时候，小焰和爸爸都普通话47:09完成了与自己的内心和解，一个关于梦想的一个关于亲情的….\n最后：我们不要怀疑父母对孩子的爱也不要低估了孩子\n对于父母的爱，多一些允许和接纳或许生命中会开出很多“时光花”', '在好久之前就看过了。真的太好看了。', '需要反复购买的吗？怎么前几天买的，现在就不能看了', '王梦梦，我就是喜欢你', '有会员还要购买电影，但电影挺好看的', '你们是懂元素的', '好看 而且根本看不够！[准奏][撒花N]', '太好看了！', '咋去投诉', '热情的火焰，纯洁的水', '爱情的能量爆满', '电影中的四大元素，是电影的一大亮点。电影将元素的特质和性格完美地融合在了角色中，让人印象深刻。风元素的守护者，灵动而又自由；火元素的守护者，热情而又坚定；水元素的守护者，温柔而又坚韧；土元素的守护者，稳健而又豁达。这些元素的特质，都与人类性格的某些方面相似，令人感到亲切。不仅如此，电影中还有一些充满深意的场景。比如，元素城市中的人们都是由元素构成的，而这些元素又恰恰是人们的情感和思维的体现。这是一种非常独特的表现方式，也是电影的一大特色。', '哇塞好好看[憨笑]他们生的孩子是水蒸气元素的吗[我不理解]阿波是胖子还是瘦子[我不理解]小焰是一生气就会变紫吗[我不理解]', '本来以为是迪士尼和皮克斯的强强联合，结果看完只觉得智商受到了侮辱，建议还是各做各的吧', '怎么去投诉', '陌杂日丹名🧚\u200d♀️🧚\u200d♀️', '你不能一直自己上。', '终于看到这了', '比比比比比', '吐槽不够看', '好看[笑死我了] 出第二部[皇冠]', '里面的火元素好少啊', '第二部地球特派员还有没有小焰和阿波了？真的很好看', '我有大把时间等你免费，免费在看', '《疯狂元素城》是一部兼具奇幻与科幻色彩的电影，其内涵易懂而不失深刻。虽然跨越“种族”恋爱和追逐梦想的剧情设计与此前的《疯狂动物城》等作品类似，稍显俗套，但其出色的画面展示和稳妥的节奏把控，仍使得其不失为一部老少皆宜的影片。\n对于不同年龄阶段的人来说，观看《疯狂元素城》能得到不同的感受：对于懵懂无知的孩童来说，有趣的画面和故事情节能焕发出别样的童趣；对于心花初绽的青少年来说，男女主角的双向奔赴与彼此欣赏最能令人向往；对于而立知天的中老年人来说，片中的父女、母女乃至婆媳关系，都十分生动有趣。', '特别好看 后悔没时间去影院观看', '😂爱哭的女婿', '为什么购买了一次，再看还需要购买', '不收费了我再来看，家人们记得踢我一下[吃瓜N]', '我是会员哦[666啊][一起冲][握草][准奏][富翁][皇冠][金币][准时]', '啊，真爽，免费的。', '就很离谱🌚🌝🌚🌝', '8 哈哈😃哈哈😃哈哈😃哈哈', '超级无敌赞，', '花了钱留个纪念', '2013  12  12广州', '好想看后续呀！期待😌', '好好看呀！家人们谁都啊', '源哥唱的主题曲在哪', '超级超级喜欢', '画质好好', '买了能退吗', '还没看够，希望有2', '不就是6块钱吗？买了😒😒😒😒😒', '看到彩虹不应该背对着太阳吗？', '真的超级好看[意难平]', '我们，会一直在一起的，对不对，程贤彬', '好看，太棒了', '还有后续吗？']</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 最后的真相 </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VIP · 10565热度</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>最后的真相《最后的真相》发片段黄晓明庭审逻辑大开划清边界,电影简介:六年未碰官司的律师丁义峰，为帮被告人金喜妹翻案辩护不择手段，主张反杀被害人马双喜属正当防卫，借此翻身一战成名，却遭公诉人孙宇的质疑与极力反对，双方针锋相对法庭激辩，然而金喜妹却誓死抗拒义峰的无罪辩护，她与马双喜之间的关系也似乎并不像案情描述的那般简单。</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.5分</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['我爸2020年出事，我们去请了律师，这律师没有提点什么该说什么不该说，就连和解协议也是我们自己去办的，这律师完全不管，让我们自己想办法解决，就连给他打电话发微信也是极其敷衍而且还不耐烦甚至发火，态度也不好。去法院审判当天他在法庭上也没提出什么关键性的问题，根本不像电影里演的那样字字珠玑犀利至极。检察院的人说什么他就同意什么。提出的观点我都感觉可笑，刚提出来就被检察院的人说不符。结束出来还拿着软中华发。后来是总共五万，他自己都觉得打的不好，退了三万。我真的后悔请律师了，还不如法律援助负责。经过这件事我真的不喜欢律师，律师这种职业更像是为了完成整个司法程序的流程而加上去来凑数的，律师在司法程序上的必要地位也成就了不负责的律师肆意盘削民脂的令牌。我希望我一辈子都不用再打官司，可恶的嘴脸我真的不想在神圣的法院里看到，那样会恶心到我。我不知道为什么社会的发展会变成这样，人越来越冷漠，势利，每个人都只喜欢钱，我并不是说喜欢钱有错，如果每个人可以靠自己的双手来满足自己的欲望，我只能说劳动最光荣。但每个人都想着如何去剥削别人来让自己衣食无忧，这样的社会是多么可悲？我常常思考是不是真的只有把自己的良心喂了狗才可以活的更好？我有的时候会觉得没有良心的我不是我，朴实憨厚的我才是真正的我，纵使良心这种无形东西失去可以换来更多的财富，我也不会去换，因为财富买不来的东西除了时间还可以是精神上的富足。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '哭死我了，被迫杀了爱人的时候都能感同身受那种心如刀绞的感觉', '看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。\n', '在丁义峰面前罗翔都要靠边站，罗翔最多能把对方律师送进去，丁义峰更狠，能把自己送进去！', '中国的律师有几个好货？！吃了上家吃下家！！！没有职业道德！！！[打卡-打][怒]', '别看闫妮平时像喝了假酒似的，可她拍戏认真的很，喜欢她。', '昨天看的这个，感觉一样的剧情', '这是爽了还是疼了', '请问这个女演员是谁。为什么演员表里没有她', '保险没了，老头白死，女的武器，律师吊销执照进监狱，儿子三年估计没钱治病也得凉凉！这个片告诉我们，保险公司太牛了！千万别骗保！', '电影很不错，主旨比较清晰。可惜，这不是网友想要的。真相这么重要？别忘了，法律服务于人。喜梅一心求死，求仁得仁。老头命不久矣，骗保固然不对，但是可以挽救一个年轻的生命。小伙子在狱中服刑之后，会更加阴暗，暴虐，必然报复社会。律师前途尽毁，阿兹海默的老娘也会孤老死去。整件案子，除了检方和保险公司，没有一个赢家。\n法理好过，情理难容。\n电影不错。', '￼为闫妮来的有吗？点个赞看看有多少人', '闫妮演的真好，一个是爱她的男人，一个是她的肉，那种撕扯感，我都看进去了', '为黄晓明来的有吗？点个赞看看有多少人', '最后万万没想到，金喜妹和老头是真爱，两次大反转，律师真的黑的能说成白的，白的能说成黑的，表达的思想大概是要有良知。疑点是为什么金喜妹的朋友会说她每次回来身上都有伤。儿子是真的心理扭曲，老头的三个孩子也是白眼狼。最后说一句，晓明哥认真演戏真挺帅！', '前无古人后无来者，PIAO出真爱，敬马大哥', '刚看完感觉这部片子导演把观众当傻子，我气的必须来这里评论一下 。 黄晓明开头就交代了是个有良知的律师，中间为什么要去逼供。折腾了一圈铁案没翻 把自己弄进去了想表达什么。细节上漏洞百出，家里有第三人的指纹，桌上 地上烟灰缸到处都是警察没查到？保险受益人不是他儿子，那他自杀的意义是什么？最后光凭闫妮一句话就证明是她补刀了吗？而不是她替儿子顶罪吗？', '估计要上映了，马上', '老马最后一刻还是求死想保全毛卫卫，那为什么不隐瞒下去  就让事情这样发展   骗保的钱给毛卫卫治疗烧伤   母女两个还可以继续生活下去   不管最后咋样老马都已经死了   这是个不可否认的结果     那为什么不让事情就这样结局   最后真相爆出来   女的无期徒刑   毛卫卫判三年   治疗的事情也没有任何着落了      有时候真相的代价是很大的', '马双喜明知道自己有肝硬化不能喝酒，为了自己爱的人，一杯一杯的喝，还喝假酒，所以他和金喜妹说“再等等，我这个人说过去就过去了”就为了骗保100万，给她儿子治病，金喜妹也是心疼老马，谁知他那不争气的儿子竟然按耐不住失手杀了老马，就在杀老马的前一刻，老马还在为了他喝假酒。我真哭死', '我作为一个特别喜欢看电影的观众，基本是不写，影评的，但是，翻了翻评论，真的，特别特别有一种窒息的感受！首先说说电影本身，这部戏，是准备院线观看的，因为，闫妮！平台看完以后，觉得，小明的演技，也有很大进步，最起码，很落地，能够让小人物性格，饱满起来了。浅谈一下剧情，所谓跌宕，真谈不上，所谓反转，也更加觉得牵强。有些东西，导演甚至不用交代，反而，应该，交代一下，为什么一对母子，如此相处。看了一个影评说，整部戏，其实用“良知”贯穿，我并不愿意去抬杠一些东西，仅表达个人观点与感受，毕竟，观影后的思考，万人万念！整部戏，看下来，可以说，特别压抑，折射出的社会问题，正是发生在我们日常周遭，真的，极有可能出现的小问题，生存，赚钱，社会底层的挣扎与无奈，被贴标签，被误解，被钉耻辱柱，甚至求死，连律师都可以用违法来辩护，从而寻求真相，一系列的人性至暗，可怕，可怜，可悲！我的观点，人之初，性本恶，唯一能够唤醒所谓良知，只有爱，大爱，让人能够一下子产生共鸣的那种力量，正义凌然，公正不阿！而，整部戏，只有三个镜头，呼唤良知，一个凝望，一个鞠躬，一个无奈的遗憾。\n也许，这是导演，最高级的表现手法，不表达，个人观点，把思考留给所有人。如果，导演没这么想，只是艺术化了一个故事，那确实，导演能力，低下。\n最终，我想跟朋友们，分享，生活在当下，特别扭曲的社会当中，千万不要去，把过多个性去适应匹配进某一种，机制，体制当中。做自己，往往会做得最不得体，还是应该，多读书，多积累，有真才实学，温良恭简，渡己渡人！不模仿，不跟随，不停靠，让自己能够摸爬滚打，孔孟之道，中庸之风。\n真希望，公为天下，天下太平。', '如果律师没有调查这个案子，简单的处理这个铁案，走个过场，那么，老马死了，喜妹或死或无期，儿子拿到保险金治病。这个结局我觉得很遗憾，几败俱伤，枉付了父母的苦心，全都搭进去了。但是从理想主义，儿子毁掉别人的同时就是毁掉了自己，一切欺骗都无处遁形，做错事就要承担后果。只能问，正义与同情，如何抉择。', '所以法律代表啦什么？冰凉且无情，被人唾弃的毁容男换到了监狱等死，爱他的被人唾弃的母亲失去啦爱她的人，善良没有儿女照顾的老头赌上啦性命也没换回毁容男活下去的机会，有良知的律师丢下啦老母亲却被锁在啦法律之内。闹外却是偷钱狠心的儿女，高高在上的法官，玩弄法律的有钱人，有洁癖的律师。。。所以法律改变啦什么？不幸的人依然不幸，有钱的人逍遥只在。最后的真像不过就是保险公公司获得了胜利不用赔钱拉吧。', '我给打9分，一是闫妮和黄晓明在电影中的出色演技，把角色演的很到位；二是故意情节跌宕起伏，多次出入意料，反转的合情合理。在国产片中，很少能看到这类电影。\n但我觉得，有一点，应该在电影中有所解释，为什么保险最后的受益人变成了那马双喜的过刘学诚呢，', '晓明哥演技越来越好了啊大器晚成也感谢baby这个毒瘤', '故事很好，写出没个人的人性，但是编剧还需努力，写的警察太笨了，案发现场出现过几个人都不知道。\n', '很多人看不明白，事实上很简单，一开始案情不符合谋杀逻辑，当然会认为她是找死，也很可能被告不懂法，无法界定自己是正当防卫，以及强奸，在剧情推进前，这些逻辑都是成立的! 所以他为了维护自己坚持的正义，用了点手段，第一是维护真相，第二是维护被告人权，尊严。 虽然威逼诱供做法律上是不认可的，但在良知上，大家都能接受! 因为这个视角是拯救被告的视角，一切证据都证实飞谋杀，和正当防卫! 在 剧情推进后，才找到新线索，在没有在医院见金喜妹之前，所有线索又指向她儿子误杀，劝他去自首，但见完金喜妹后，辞职转做证人，一切真相才真正浮出水面！ 片子告诉我们法律和正义也不能脱离人的良知，真相是什么也要有真正合理的逻辑，最后也说明，这并非是谋杀案，而是蓄谋骗保案，如果按一开始的证据链处理，就是一宗金钱纠纷谋杀案，之后的一切事情真相，将被永远埋葬!', '想不通为什么要拍这种片子，孩子已经经历了很多，他的极端是因为他从小被烧伤后，心理造成的创伤，再加上后续没有人给他进行心理上的疏导，不过我也知道，终身的残疾对于成年人都是很难接受的，何况还是那么小的孩子，为什么要这样拍，难道真的要证明残疾就是怪胎，就是灾难嘛？我觉得他们真的没有错，错的是世人看待他们的眼光。', '如果一开始直接判金喜妹故意杀人，保费能到手，毛卫卫的病也能治，结果一顿操作下来，自己搭进去，金喜妹还是故意杀人罪，保费没了，毛卫卫还被判了三年，这跟良知有关吗，这个反转的有的搞笑吧', '最后的真相就是三个人都送进去了，保险公司赢了真扯哈哈哈哈', '哈哈保险公司投资的电影，不要骗保哦不然你是张三也得进去，柯南看多了一下就猜出来凶手是谁，应该还没有到结局，￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '演技最好是老马和闫妮，晓明中规中矩，女检察官真是让人出戏，全程面部麻痹，台词吐字不清', '这个剧感觉这个编剧完全就是为了反转而反转，法庭开庭像儿戏一样。编剧一点法律常识都没有吗？真是无语了', '阚清子的演技我觉得不好，我看过她的一些视频还有这个电影，都是靠吼，就感觉喜怒无常，哈哈', '剧本本身有点扯淡，编剧应该没有法律相关从业经验，闫妮不演喜剧感觉有点出戏，检察官扮演者演的太过用力，感觉跟被告有仇，颜值不在线，声音难听！', '最后的真相也不一定是真相，小明可能是为了成全一个母亲\n', '黄晓明第一次监制的电影《最后的真相》非常成功，内容精彩无比。\n这部电影讲述了律师丁永辉在承办一起凶杀案时，发现该案真凶另有其人。在调查过程中，他不仅要面对各种阻力，还要解开多个谜团。在这部电影中，黄晓明凭借其出色的演技和独特的视角为观众呈现了一个不同于常规犯罪题材的电影。除了黄晓明之外，闫妮的表演也让人眼前一亮，她凭借出色的演技成功提名金鸡影后。这部电影的成功也离不开其制作团队的精心打造。在剧本创作方面，编剧发挥了自己的才华，将故事情节编织得扣人心弦。同时，导演也通过独特的视角和拍摄手法，将电影的氛围和情感传递得淋漓尽致。《最后的真相》的成功也表明了国内电影市场的成熟和发展，期待未来能够看到更多优秀的国产电影。\n如果你还没有看过这部电影，强烈建议你去看看。如果你已经看过了，那么你一定会和我一样对这部电影赞不绝口。', '看完提出几点思考：1.保险合同的受益人由他自己变成他铁哥们，那他铁哥们应该也参与到这个事情中了，但影片中未交代这方面。2.她儿子烧伤是个意外，是怎么烧伤的，与她有什么关系，以至于她儿子觉得是她欠下的，这方面没有交代清楚。3.她儿子的父亲又是谁，她又是如何生育养育儿子的，影片全篇未交代。4.真正的真相到底是什么，真相又是不是我们想要的，真相、良知、法律、正义，又该如何选择，这恐怕是影片想要传递给我们的思考。', '这丁义峰，岂不是把毛卫卫拖进来，还让金喜妹白判无期，马双喜白S了…吗？…因为保险100万也没能拿到，毛卫卫也得不到治疗……', '黄晓明的表演简直太精彩。厉害，这犀利的回答。直接把女律师怼到哑口无言。', '为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '这部电影的剧情和深度还是非常棒的。我建议可以重看一次。从电影的主线剧情来说，这是居于一个律师在不同时期阶段心里的不同层面变化做出的判断与决定。从支线剧情来说，其实是开放式的结局，疑点有很多导演未交代，1.儿子烧伤为什么极度怪罪于母亲。2.受益人为什么要给过命的兄弟，兄弟在其中作为什么角色。3.一百万剩下的40万去了哪（老三只交代偷走了60W）4.儿子的身世之谜……  还有很多待补充 这个案子不是按正常开头到结尾那么一句话概括的（那些说男主有病白忙活的是真没好好分析完电影） 最后的真相并不一定就是最后的真相 主线来说这个案件三次的反转 每次都能作为最后的判决或者真相 那么事实真的如此吗 最后的真相主角也搭进了自己 那么这个真相是真的还是另有其他？为了真相坚持的人是否都在做坚持呢 （个人观点勿喷）', '最后一次反转为反转而反转。有这样的律师吗？打着官司最后把自己送进去了。者的喝多少假酒能干出这事来。', '最后丁义峰和他老师的对话，让我感觉其实是金喜妹和丁义峰用自己做局串供，保下了毛卫卫', '来看黄晓明第一次监制的电影最后的真相，恭喜闫妮姐提名金鸡影后，加油加油', '虽然剧情有点扯，但小明演技好', '这片子是把现场调查的警察视为无物了，漏洞百出', '这逻辑思维也太差了，儿子用烟灰缸砸死了人，警察你居然查不到线索？', '￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '一般般，这类电影，孙红雷演的那部有关于父爱的电影已经称王了', '阚清子，你演的是检查官！一副冷漠脸，横眉冷对却两眼空洞无神，哪点像检察官？', '这是今年难得的几部佳片之一，让人深思的问题很多！', '闫妮挺喜欢的，但是，一看见黄晓明就什么兴趣都没有了', '我能说丁一峰这个人设崩塌了吗？前期为了赢，不择手段逼供，后面突然就放弃好不容易获得的胜利，把自己送进监狱。', '甚至看哭了。很多人都在纠结前后逻辑，人性哪儿有逻辑。就像我带着有色眼镜看人，觉得那种地方工作的人都是为了骗钱…………包括电影我爱你，我在思索老了真的挺难的，只有爱人相互陪伴，子女有子女自己的生活。夕阳红的感情生活，需要社会大众的正视。而不是带着有色眼镜。', '这难道不是老马白死了么  保还没骗成还是自己搭理了', '真不知道这案件什么的都这样，要公安，检察院干啥用，都是用律师找线索了', '啥跟啥啊，踩了个大雷，如果不是黄晓明在，都不会点进去看', '怎么这个女配角又是律师啊，跟佟丽娅那个家暴的也是她拍的', '这是一部票房辜负了的好电影。沉下心来看看，有赤诚有真心也有现实的无奈。', '影片最后说句实话，本片经过艺术加工[狗头]，现实中律师遇到了你就知道了', '现实生活中结局只会停留在一审，结局皆大欢喜，哪有为了良知放弃名利陷自己于牢狱之中的律师？', '真心不错，让我浑身鸡皮疙瘩掉一地，人性展示的淋漓尽致', '好想看，会员过期了', '真心和坚持最终会把我们引去该去的地方', '我快哭死了，莫名的我的悲伤无限大', '这个剧外行人可能看不太明白，我作为律师解读一下。真凶就是闫妮，最后无期或者死刑，她儿子故意伤害，判了3年，黄晓明扮演的律师是亦正亦邪的，如果没有闫妮对他的最后一次谈话，他也不可能说出自己诱导闫妮的事实，这种行为作为律师也是犯罪的，是要被吊销律师证的。黄小明一开始强行做无罪辩护，说闫妮是被强奸的，也是为了自己能翻身，能出名，毕竟他很多年没办案，也没啥钱了，他这个时候的行为就是要赢，不是为了什么正义，良知，最后闫妮找他倾诉，他被感动了，选择了良知，在庭上才说出了自己诱导闫妮的事实，也把自己献祭了。电影立意还是比较正能量的，但是现实基本上不会有律师会说出自己诱导、逼供的行为事实，因为这样就把自己毁了。现实中的律师，绝大部分都是那个律所主任，法律援助案子走走过程就好了，极少部分是黄晓明，把白的搞成黑的，当然也说明其自身的业务水平牛逼。', '老马白死，金喜妹无期，毛卫卫三年，骗保的钱也不合法，竹篮打水一场空。到底谁对谁错，反正这个律师没对', '真心不错', '啥都没说清楚，老头白死了，浪费我两个小时😏😏', '双数今年过年就回家', '老头是儿子杀的，最后的反转是因为检方已经发现骗保和儿子是凶手，丁律师之所以最后出来作假证，是为了保儿子故意伤害罪判三年，如果儿子死罪母亲无罪的话，母亲出去也是自杀。检方最后没有继续对丁律师质问，是看懂了丁律师的操作。这个片子不是普法片，最后还是拍成个悬疑片了。', '刚开始为了利益，逼迫被告说强奸，除了老头名誉受损其余的三赢的局面，律师收获了事业，儿子收获了金钱，女的无罪释放。结果为了一个律师突然无厘头的正义感，半途强行扭转局面，结果全输，老头没了保险也没了，女的无期徒刑，儿子三年有期徒刑还没了治病的保险金，律师丢了职业进去了。什么玩意，在这种权衡利弊的情况下，正常人根本不会为了这所谓的正义和真相，去牺牲这一切。', '真实社会坏人排行榜:第一:律师，第二:医生，第三:老师，第四:村干部，第五:黑社会...[欢颜-泪目]', '快撑不下去了什么时候才能是个 头欠了一屁股债', '说真的这个检察官确实不符合现实。入罪思想严重！', '看了十分钟那个女的让我烦没看了', '演员们的演技很好', '这部电影反封律师，公诉，保险公司！😅😅😅😅', '￼看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。', '好的律师都在影视作品里  现实中的律师真的是只知道狮子大开口 要完钱 收完钱对他来说就没事了 真的是没有一点职业道德[打卡-打]', '经过小明哥的操作，不仅葬送了自己，还把两个人送了进去，还把保费搞没了，牛逼[亲]', '躺在医院看呢', '再也看不到涂门老师的作品了！[破防][破防][破防][破防]', '前面的情节挺吸引人，但有的坑没埋，老马和金喜妹为了给毛卫卫治病而骗保，体现出父母对孩子伟大的爱，老年时期的爱情，后面保险的受益人写了刘，又是为什么，他是不是知道其中的事，毛卫卫因为别人对他异样的看待，使心理发生扭曲，但又因为什么事情，让毛卫卫说出这是金喜妹欠他的并没有体现出来，后面丁律因为自己的“良知”而在法庭上作证人证明老马是金喜妹杀的而毛卫卫只是故意伤害，结局就是毛卫卫因为烧伤皮肤癌要死了而且也被判了刑，金喜妹故意杀人和骗保被判刑，丁主角因为诱供被判刑，所以最后全都进监狱了？？？而且丁主角的母亲怎么办，他自己当时因为要赢所以诱供违背了良知，后面又因为一些事情想起了自己的良心，然后把所有人都送进去了，要是为了突出“良知”这个主题，这剧情就有点尬了吧。。。', '我觉得好看，哭了，我看到的是夕阳红的真心，母爱的伟大，底层老百姓的无奈，只能以命换命。', '嗯……一言难尽……', '老头不行，怎么就强奸了。那么多人证明的。', '很愚蠢的结果，所得来的真相没有任何一个人获得好处，睁一只眼闭一只眼大家各得其所不好吗？']</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve"> 变形金刚：超能勇士崛起 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>VIP · 10429热度</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>VIP · 10440热度</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>《变形金刚：超能勇士崛起》“双擎会战”片段,电影简介:故事重返上世纪90年代，终极反派宇宙大帝从天而降，驱使以天灾为首的恐惧兽掀起地球危机。绝境之中，蛰伏许久的巨无霸终觉醒，联合汽车人变形出发，一场前所未有的决战即将上演。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>7.6分</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
         <is>
           <t>动作</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>['大家要去投诉了，钱虽说不多，但不能当我们是傻子吧。', '能不能退钱我看了一半，退我2块行不行', '才买的又要我买', '额，感觉柱子没有以前高了，没有以前帅了，没有以前霸气了', '已经看完了，感觉还不错，不知道这个手机版的什么时候上线？', '地球都快毁灭了，居然就两人参与阻止，不知道以为地球没人了，真6', '擦，白花4.8元，不要买', '感觉很幼稚又是拯救世界', '是不是没有经费了 剧情巨差没以前版本好看[微笑]', '什么玩意，我想知道', '我个人觉得，1到5部，是一个编剧，怎么到这一部？汽车人瘦了一圈，怎么感觉像看了个半成品，总体的话，得看个人，看了才知道，好不好看，我个人觉得观看性不是很大，但是能看，希望下一部汽车人不要再瘦一圈了', '大黄峰 ，幻影，对擎天柱说：我是你相识最久的朋友，为了你我可以献出我的生命。', '￼擎天柱变样子了？.？ 感觉没有以前好看霸气呢？？', '啊啊，超级喜欢看的变形金刚又来了，超级爱的，期待', '新瓶装旧酒，还借鉴钢铁侠[狗头][狗头][狗头]', '离谱，花4.8买了，看了半个小时左右，因为有事退出了一下，结果等我回来再点开的时候又要购买。这真的很离谱[意难平][意难平][意难平][意难平][意难平][意难平][擦汗][擦汗][擦汗][擦汗][委屈][委屈][委屈][委屈][委屈][委屈]', '幻影 喜欢吗', '花了钱还看不了？还要收费什么意思？？？？？', '我在一个里面看完了！[富翁][富翁][狗头][狗头]', '擎天柱【他们】不会自己画自己！不喜欢建模，麻烦去喷美国的建模师！别说角色丑了！电影不等于≠2013剧场版《领袖之证》是独立世界观的！没有可比性！', '没有第6季吗', '能不能还我那5块钱[柠檬精]', '购买完看不了，白瞎了我4.8元', '怎么购买了还看不了怎么回事', '4.8块，我要饿4天半才能省回来…呜呜', '猩猩队长不会变身差评', '买了看不了  大家别买了', '今天看完了，感觉剧情有点不太对劲呢，变5的时候宇宙大帝已经快苏醒了，而地球就是宇宙大帝幻化的，怎么又从别的地方传送过来个宇宙大帝呢……再说变1抢火种时候也没见猛兽侠来帮忙啊，变6是要烂尾了吗？', '我前几天买过了，为钱今天看不了了，又要重新买😭', '能不能告诉我到底好不好看，变形金刚爱好者啊！看见评论都说不行，我到底要不要花五块钱[准时][准时]', '8 月上映', '都看了几十分钟勋章任务一动不动，真差劲👎🏻', '神雕侠侣之美国分雕', '这不是大猩猩吗！😱', '吐槽一下，感觉有些时候看着很变扭。', '还是原来的擎天柱帅，不许反驳', '这和之前的变形金刚有什么关联吗？', '临沧老乡有没有', '[上头-头][上头-上][加更-加][喜][大哭][大哭][KSWLA][PTSD][AWSL][SOSA][YYDSA][互粉][签到-到][赞N][庆祝N][蛋糕][钱]不太好吧🤷', '有自贡的吗', '已经购买了为什么看不了', '黑人怎么了？黑人就不配拍电影吗？不要种族歧视好不好', '导演用心良苦，为了他的黑人主人，贴心的添加了黑人男女主，大胆创新，以前那些美女观众都看腻了，丑男黑女才是现在的主流，男主演技在线，女主颜值在线，队友浴血奋战，男主哭哭啼啼，演技没有天灾的宠物好，女主除了长得让人作呕，别的没毛病，比男主有用一亿倍。', '幸亏大黄蜂复活了要是他死了这辈子不会看变形金刚了0.o[无羡]', '太精彩了，擎天柱', '慢慢来，熬到你免费[吃瓜N]', 'k\u2006k\u2006b\u2006m）\u2006b\u2006b\u2006n\u2006n', '汽车人代表的是美国一群盟友实际上是打着正义的旗号却干着破坏秩序打家劫舍的勾当', '环保局快来，美国的东西不环保，快查他[准时]', '我是v几啊', '嘎嘎好看', '哈哈哈。10月7十点。我发现了。我不用付钱了', '不是很认可这一部', '这男的你们怎么看', '每一部变形金刚都看唯独这部拍得抽象', '搞不懂，这算不算变形金刚系列续集，时间线混乱，宇宙大帝又不是地球了，1994年算是变形金刚系列前传？作为爆米花电影总要跟主线贯通吧，完全是一部独立的作品，还加入了主线角色，超能勇士的剧情还没了霸王龙就很迷，看过动漫的没看过动漫的都得懵', '老好看了可以可以', '贺秋，我想你了', '有恐龙吗😅️', '童年最喜欢的黄豹勇士居然没几个镜头', '变形金刚系列，最丑女主', '剧情没以前用心了，还得是迈克尔贝导演的片子看着好看', '收了钱补给看，只有老马做的出来！', '充六块会员不叫看', '精彩内容过少，片景插叙过多', '在电影院看过了，还是感觉在电影院看得近', '那。bm', '太牛了吧！', '那个黑暗大帝手下保管好一半钥匙然后大帝直接降临地球把地球吞了不就拿到另外一半钥匙了吗？', '回顾哼哼唧唧几', '善恶一体，无法消灭彼此。只有认识到造物的要义，阴阳合一才是永恒之道。', '会员免费香得勒\n[富翁]', '来了来了', '就想知道4.8元可以看几遍？', '这电影顺序是啥呀', '好看吗这个', '非常一般，完全没有前几部得劲', '大黄蜂已经死了', 'Want to go to that?', 'What do you want?', '腾讯视频出品，变形金刚，超能勇土崛起(•̀ᴗ•́)و̑，第7部❤️😭超强强烈支持。[签到-签][签到-到][狗头][打call了][西出玉门-超A][666啊][666啊]', '变形金刚版米莱狄', '看到评论很多在吐槽的，没有了期待。但是看完没感觉很差啊，毕竟都那么多部了，一开始看到的新鲜感和感官冲击和现在是没办法比较的。还是很喜欢，我带着娃把七部还是八部，反正都看了，希望一直有下一部🤭男孩子很喜欢看的', '心疼流量', '太帅了吧 这剧必须看', '黑命贵吗？看这两个老黑演技真尴尬', '乘迷、出一乊网1。华迷', '不因该叫擎天柱吗？', '太牛了吧', '后面都这么危险了，还在打感情牌，还在打个人英雄主义，真牛啊。']</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['大家要去投诉了，钱虽说不多，但不能当我们是傻子吧。', '能不能退钱我看了一半，退我2块行不行', '黑人怎么了？黑人就不配拍电影吗？不要种族歧视好不好', '才买的又要我买', '额，感觉柱子没有以前高了，没有以前帅了，没有以前霸气了', '已经看完了，感觉还不错，不知道这个手机版的什么时候上线？', '地球都快毁灭了，居然就两人参与阻止，不知道以为地球没人了，真6', '什么玩意，我想知道', '新瓶装旧酒，还借鉴钢铁侠[狗头][狗头][狗头]', '擎天柱【他们】不会自己画自己！不喜欢建模，麻烦去喷美国的建模师！别说角色丑了！电影不等于≠2013剧场版《领袖之证》是独立世界观的！没有可比性！', '擦，白花4.8元，不要买', '是不是没有经费了 剧情巨差没以前版本好看[微笑]', '我个人觉得，1到5部，是一个编剧，怎么到这一部？汽车人瘦了一圈，怎么感觉像看了个半成品，总体的话，得看个人，看了才知道，好不好看，我个人觉得观看性不是很大，但是能看，希望下一部汽车人不要再瘦一圈了', '大黄峰 ，幻影，对擎天柱说：我是你相识最久的朋友，为了你我可以献出我的生命。', '￼擎天柱变样子了？.？ 感觉没有以前好看霸气呢？？', '啊啊，超级喜欢看的变形金刚又来了，超级爱的，期待', '离谱，花4.8买了，看了半个小时左右，因为有事退出了一下，结果等我回来再点开的时候又要购买。这真的很离谱[意难平][意难平][意难平][意难平][意难平][意难平][擦汗][擦汗][擦汗][擦汗][委屈][委屈][委屈][委屈][委屈][委屈]', '花了钱还看不了？还要收费什么意思？？？？？', '没有第6季吗', '今天看完了，感觉剧情有点不太对劲呢，变5的时候宇宙大帝已经快苏醒了，而地球就是宇宙大帝幻化的，怎么又从别的地方传送过来个宇宙大帝呢……再说变1抢火种时候也没见猛兽侠来帮忙啊，变6是要烂尾了吗？', '我在一个里面看完了！[富翁][富翁][狗头][狗头]', '能不能还我那5块钱[柠檬精]', '购买完看不了，白瞎了我4.8元', '[富翁]这片子真不错，值得观看。就是时间只有6分钟，短了点。下回走点心，拍长点[金币][准时][吃瓜N][N刷][放大镜][蹲][打卡-打][打卡-卡][签到-签][签到-到][上头-上][上头-头][再见][抱抱][爱你][6周年][6周年][6周年][超越][超越][超越]￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼', '怎么购买了还看不了怎么回事', '4.8块，我要饿4天半才能省回来…呜呜', '猩猩队长不会变身差评', '预约打卡☺️٩(ˊωˋ*)و，腾讯视频，变形金刚电影🎬🎬🎬(ง•̀_•́)ง，回归了，明日就可以看了。预告片。快点过来看，超级好看的。 动物机甲，外星科技。外国的还是中国的，都是很好看，完美。', '买了看不了  大家别买了', '我前几天买过了，为钱今天看不了了，又要重新买😭', '已经购买了为什么看不了', '8 月上映', '都看了几十分钟勋章任务一动不动，真差劲👎🏻', '神雕侠侣之美国分雕', '这不是大猩猩吗！😱', '吐槽一下，感觉有些时候看着很变扭。', '还是原来的擎天柱帅，不许反驳', '这和之前的变形金刚有什么关联吗？', '临沧老乡有没有', '[上头-头][上头-上][加更-加][喜][大哭][大哭][KSWLA][PTSD][AWSL][SOSA][YYDSA][互粉][签到-到][赞N][庆祝N][蛋糕][钱]不太好吧🤷', '导演用心良苦，为了他的黑人主人，贴心的添加了黑人男女主，大胆创新，以前那些美女观众都看腻了，丑男黑女才是现在的主流，男主演技在线，女主颜值在线，队友浴血奋战，男主哭哭啼啼，演技没有天灾的宠物好，女主除了长得让人作呕，别的没毛病，比男主有用一亿倍。', '幸亏大黄蜂复活了要是他死了这辈子不会看变形金刚了0.o[无羡]', '太精彩了，擎天柱', '慢慢来，熬到你免费[吃瓜N]', '有自贡的吗', 'k\u2006k\u2006b\u2006m）\u2006b\u2006b\u2006n\u2006n', '汽车人代表的是美国一群盟友实际上是打着正义的旗号却干着破坏秩序打家劫舍的勾当', '环保局快来，美国的东西不环保，快查他[准时]', '我是v几啊', '不是很认可这一部', '嘎嘎好看', '哈哈哈。10月7十点。我发现了。我不用付钱了', '每一部变形金刚都看唯独这部拍得抽象', '这男的你们怎么看', '老好看了可以可以', '搞不懂，这算不算变形金刚系列续集，时间线混乱，宇宙大帝又不是地球了，1994年算是变形金刚系列前传？作为爆米花电影总要跟主线贯通吧，完全是一部独立的作品，还加入了主线角色，超能勇士的剧情还没了霸王龙就很迷，看过动漫的没看过动漫的都得懵', '贺秋，我想你了', '有恐龙吗😅️', '童年最喜欢的黄豹勇士居然没几个镜头', '精彩内容过少，片景插叙过多', '变形金刚系列，最丑女主', '剧情没以前用心了，还得是迈克尔贝导演的片子看着好看', '收了钱补给看，只有老马做的出来！', '充六块会员不叫看', '在电影院看过了，还是感觉在电影院看得近', '吓我一大跳', '那。bm', '太牛了吧！', '回顾哼哼唧唧几', '好看吗这个', '善恶一体，无法消灭彼此。只有认识到造物的要义，阴阳合一才是永恒之道。', '会员免费香得勒\n[富翁]', '就想知道4.8元可以看几遍？', '非常一般，完全没有前几部得劲', '太帅了吧 这剧必须看', '大黄蜂已经死了', 'Want to go to that?', '变形金刚版米莱狄', '心疼流量', '乘迷、出一乊网1。华迷', '腾讯视频出品，变形金刚，超能勇土崛起(•̀ᴗ•́)و̑，第7部❤️😭超强强烈支持。[签到-签][签到-到][狗头][打call了][西出玉门-超A][666啊][666啊]', '来了来了', '不因该叫擎天柱吗？', '看到评论很多在吐槽的，没有了期待。但是看完没感觉很差啊，毕竟都那么多部了，一开始看到的新鲜感和感官冲击和现在是没办法比较的。还是很喜欢，我带着娃把七部还是八部，反正都看了，希望一直有下一部🤭男孩子很喜欢看的', '太牛了吧', '黑命贵吗？看这两个老黑演技真尴尬', '每次出场都这些', '不是啊，擎天柱怎么没有以前霸气了？', '只能说是一坨黑色的答辩', '我讨厌黑人噗呲']</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 汪汪队立大功大电影 </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VIP · 10282热度</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>《汪汪队立大功大电影》汪汪队全员蹦迪，这个冬天“嗨”起来！,电影简介:汪汪队出发救援！邪恶的韩丁那成为了冒险湾的市长，并且准备对这座城市进行大肆破坏。小男孩莱德和他英勇的汪汪队小狗们必须打起十二分精神，准备迎接全新的挑战。与此同时，小狗阿奇不得不面对他在冒险湾复杂的过去。好在这时团队迎来了新的盟友，聪明的腊肠犬贝贝。带着升级的武器和装备，汪汪队已经准备好随时为拯救冒险湾的居民们而战！</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['狗狗们也太可爱了！[打call了]', '除了字音以外，汪汪队，是好看的，一部值得推荐', '汪汪队离大谱', '啊啊啊啊真特么可爱', '先踩一下，熬到免费', '这种电影对于高中生来说可能有点幼稚，但是对我们大学生来说刚刚好', '小孩喜欢看', '28看这个正常嘛', '丶，在干什么呀？', '天天都是我的错了。吗你', '最喜欢啦。', '哈哈哈哈哈这套衣服真的太忙了？！哈哈哈哈哈哈哈哈😂？哈哈哈😆？', '想知道天天当时在想啥😂', '每个画面都非常惊艳，非常好漂亮', '噜啦啦噜啦啦金海湖u：', '也？▽不白问', '是汪汪队立大功，加了个光影吧。', '我六岁都', '这一个电影一开头融入了多少动画片啊。？', '我27看这个幼稚不', '汪汪队立大功大电... 03:45还是那6只狗狗。不过有点不同', '对了你们的聊天记录了，，，，，', '画质好了，头发都快没了[破防][破防][破防][笑哭N]', '咯👂她她物业物业', '                                       请问他们 是怎么从大楼里出来的  ', '英雄不是无所畏惧，而是即使害怕也能克服并勇往直前', '？？？？？？？？？？啊奇怎么了……', '我好无语啊', '而且你要加油呀', '笑死我了哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '总结一下，汪汪队这些年来的成员：狗狗成员应该有阿奇，小砾，路马，天天，毛毛，珠珠，小克，灰灰，贝贝，还有一个猫咪成员：野猫。【本人总结出来的如有遗漏，可以评论告诉我】', '精灵太美了', '他们的级别高不高级？嗯，我感觉有点高级', '就有六个狗狗，不过这些狗狗也太可爱了', 'k科技节', '晚安！槟榔大队。', '汪汪队立大功大电.汪汪队长', '莱德看着没成年 但是他已经成年了 只是身高定格了', '汪汪队拯救城市', '我也喜欢听普通话的。', '我的生活居然连狗都不如 狗都开超跑', '很好很科幻', '咋下来呢？', ' B你好啊', '阿奇最后从这里跳到那里', '阿奇的吃车里还有电动车', '你却定是烟花不是炸弹', '我也7岁', '好喜欢看汪汪队呀，我都成年了还看', '不会就我觉得毛毛好可爱吧？', '旺旺队，旺旺队，我们都是土匪，左手拿着ak，右手拿着嘞白泉，去超市抢劫，晚上就做贼。', '阿奇不配做队长', '反正我觉得挺好看的，就是不太喜欢贝贝当上汪汪队队员，嗯嘛嘛，不过当上就好好待着冒险城帮助人们吧', '阿奇好勇敢', '来看看哭好几回', '我的长的路龙监控看到第一家朴三秦', '好朋友在北京市', '不对了我自己可以去', '我们自己可以去看看这个电影', '今天上午去的地方太远了？', '我一直以为这动画是中国做的', '阿奇，怎么这样子啦？', 't⊙ω⊙⊙ω⊙⊙ω⊙', '🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗', '这桥断了，他也走不过去。嗯，这个狗是不是他已经过不去了哦？我看过他好像他好像从锁上都过去了', '我在这个地方是天天说我有一个破家之后，他他看到雷子给给别人送东西，他天天就跟着来就来得，这次发现了。', '你们谁有会员', '一长一短全如1⃣️他', '#薛皓文#cv76*gghhuipllkkkyyddqqscttyiijhyttrwqqqaaaa❤️❤️❤️❤️😄😄😄🤣😇😍😍🥸🤪🤪😭😭😭😒😒💁', '不知道为什么', '❤️ (  ⚫︎ー⚫︎  ) balalala~\n\u3000／\u3000\u3000\u3000   ＼\n  /\u3000\u3000\u3000  ○  \u3000\\\n/\u3000 /  \u3000\u3000    ヽ   \\大白\n|\u3000/\u3000 \u3000\u3000\u3000  \\\u3000|\n \\Ԏ\u3000\u3000\u3000\u3000     Ԏ/\n\u3000卜−\u3000\u3000   ―イ\n\u3000  \\\u3000\u3000/\\\u3000   /\n\u3000\u3000 ︶\u3000   ︶为你加油！！！！！！\n\u3000☆  *\u3000.  \u3000☆\n\u3000\u3000. ∧＿∧\u3000∩\u3000* ☆\n*  ☆ ( ・∀・)/ .\n\u3000.  ⊂\u3000\u3000 ノ* ☆\n☆ * (つ ノ  .☆\n\u3000\u3000 (ノ♪ 加油加油! ♪\nミ ゛ミ ∧＿∧ ミ゛ミ\nミ ミ ( ・∀・ )ミ゛ミ\n゛゛ ＼\u3000\u3000\u3000／゛゛\n\u3000\u3000 \u3000i⌒ヽ ｜\n\u3000\u3000 \u3000 (＿) ノ\n\u3000\u3000\u3000\u3000\u3000 ∪老\n\u3000板\n\u3000\u3000说\n\u3000\u3000\u3000今\n\u3000\u3000\u3000\u3000天\n\u3000\u3000\u3000\u3000\u3000放\n\u3000\u3000\u3000\u3000\u3000 假\n\u3000\u3000\u3000     ！\n\u3000ヽ＼\u3000 /／\n\u3000 \u3000 ∧∧\u3000｡\n\u3000 ﾟ (ﾟ∀ﾟ)っ ﾟ\n\u3000\u3000\u3000(っﾉ\n\u3000 \u3000\u3000`Ｊ✨  ︵ \n("\\(●-●)\n \\ /     0\\ \\\n  (          )"\n  \\__T__/∴＾小狗狗真棒，我爱你', '看到最后我哭了[意难平][意难平][大哭][大哭][大哭]', '微信 谷歌汪汪队 ？？？？ ？丿', '勒沃库森看电视', '我我马上结束开始思考', '天气这部分不是借鉴天降美食', '这有点不科学 那个那一集的时候不是不能摸 我不用玩 为什么他摸了 ？', '对了，你了吗？？', '那时候才把汪汪队一大功之超能冒险也完全上市', '剧情很不错。值得推荐', '我看这个合适吗？9岁', '玫瑰花香和我的每生一个都一样是一个配吗？这一头乌龟怎么能知道中的。 是站在广德', '李冰冰后悔h', '就5了5了5了', '果然像马桶刷，哈哈哈', '哈克萨斯孔雀舞', '果然像马桶刷', '刚刚太好看了', '♥加油 加油 阿奇 阿奇 阿奇', '总部太小了 整大点不行啊']</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 碟中谍7：致命清算（上） </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VIP · 10271热度</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>《碟中谍7：致命清算（上）》“生死时速”特辑震撼来袭，阿汤哥真人实拍上演街头单手飙车,电影简介:《碟中谍7》是《碟中谍》系列的第七部，是由克里斯托夫·迈考利执导，汤姆·克鲁斯主演的动作电影，将于2021年11月19日在北美上映。</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['从第一部追到第七部的举个手，看看有多少人👀', '最喜欢白寡妇，她活肯定很好！', '天呐还有下集😮\u200d💨', '感觉女主一直在找死，男主应该第一时间弄死她，后边也没那么多事了', '阿汤哥骑摩托车跳悬崖那段，据说没用替身，自己练习了很久，太拼了！', '没有杰瑞米班纳了吗？有一点点失望', '最惊艳的是第四部 炸克林姆林宫，爬迪拜塔', '007退休了 碟中谍还能爬', '你们不觉得两部电影之间有某种联系吗[放大镜]哈哈哈哈哈', '这是世界强国？但是不包括中国？', '阿汤哥就是美国🇺🇸的成龙！！！👍👍👍', '四块八值不值？伙伴们', '不论情节如何，这种毅力先赞一个', '第一部1996年      第二部2000年      第三部2006年      \n     第四部2012年      第五部2015年      第六部2018年      第七部2021年', '速激10也是在罗马。你们两波人没有联谊一下子啊。😂', '超级喜欢这个女反派，上一部就喜欢她，感觉很适合这个角色。', '如果是我们中国小鲜肉，除了老演员 有哪个小鲜肉敢这样子？真实的在行驶中的火车顶上拍摄', '碟中谍7什么时候放上网', '终于等到了 ', '太精彩，太刺激了', '最喜欢的国外男演员没有之一！', '估计最后一部了吧', '烫老59岁了啊还那么牛逼', '听说要上太空', '2023年才上映，耐心等待', '比凯奇 厉害多了。一直在坚持拍，加油', '什么时候上演我只关心这个', '丽贝卡佛格森是不是在这一季要牺牲了？', '最终大老板总会变坏，第一部菲利普如实，第七部前局长如实', '这配音，一言难尽', '其实我挺喜欢这个角色！期待下次见', '太落后了。连个配钥匙的都没有', '这一次看为啥觉得男主角这么蠢呢？Grace坏了这么多事还差点杀了他，竟然还护着Grace，早点搞死后面就不会这么多事了…', '用不着那么费事，去58同城找个开锁师傅，给他照片就能配出来。', '这部电影，让我睡着了两次。碟中谍系列，到此为止吧', '什么情况？简介上写的北美上映时间是2021年11月上映？是简介错误还是引进错误？不可能倒时差要倒这么长时间吧？有人可以解惑吗？', '应该是在皮卡多', '沐蕾之声[666啊]', '近年难得能看进去的美国大片', '换个杨幂上去', '三颗星给阿汤哥60多岁拍片。\n另，想了解其他观众的观影感受，与其看评论，不如打开弹幕，前前后后翻翻来的真切。\n7的想象力不足，逻辑性太差。抑或是由于想象力不足，导致本想无脑看爽片的我，无法沉浸看片，不由自主的开始思考剧情。\n全片全三分之一尚可，智体前段也算有高光，后续智体挂机，只剩下了追抢钥匙的环节。\n具体槽点较多，不一一列举了。\n另，对于弹幕中诸如“要求这么多，去看国产片啊”之类的言论，太过幼稚，过去好莱坞受欢迎来源于其高质量，在电影行业绝对的统治力。现今需要拿这两者比较，只能说明你自己也知道好莱坞已经不复当年了。', '偷钥匙的那个女的真想打死她', '大战人工智能，选题一流，过程精彩，但结果显然让人失望。', '为什么国外的能拍到1234567，国内的不行啊，', '只是要是汤姆哥的电影，不管多少钱，我都会充会员看的', '配一把钥匙这么难么，十来块钱就搞定了吧，还需要飞机大炮？[笑死我了]', '下部那里能看', '故事不严谨', '就讲了一个道理，不能随便相信女人', '一意孤行最可怕', '都21世纪了，美国脑子里装的还是殖民主义奴化思想', '我是不是成功熬到了它免费？', '碟中谍系列忠实粉丝，真的太精彩，更佩服的是，拍了这么多部真的看到一部比一部科技感增多，格局更大，更“不可能完成”，还有阿汤哥不管是年轻还是现在都是努力型演员，有天赋有颜值更难得的是还这么努力，很多特技都是自己上，演技不敷衍。天呐看完7上真的感慨，故事一直有，在1～7虽然有的情节觉得太过夸张，有的任务要是真能完成那就是天人的神力相助，但是不变的还是合情合理的惊险刺激、让人惊叹的尖端科技和不得不佩服的每个角色的人格魅力和个人实力。碟中谍系列真的太精彩啦！！', '怜香惜玉得过份了，害死了自己的同伴', '这么精彩的电影！怎么能放过观看呢？太帅了！', '这咋没见人说开车不系安全带', '这种子才好看刺激，还是国外大片精彩刺激，中国始终拍不出这种效果。', '真的刺激，这才是动作大片，国产电影得学', '美国大片', '傻女为什么跑，不能理解', '汤奔跑的速度无敌了。还是那么认真。', '美国才是全球最大的恐怖分子，在电影上总把自己说得正义', '看普通话版本会不会被嘲笑😝', '以前看电影看到这些觉得是科幻，现在已经不再是科幻电影，感觉就是未来，人工智能已经不是机器，以后真会经历这些风险', '看过就忘，但每次看都很过瘾', '特工开纯电宝马！过分了啊！！', '4.5贷款以还清！', '这些警察都不拔钥匙啊', '老外的行李箱都没密码啊，直接拉链一拉就开啦', '就是原声的才舒服  虽要看字幕  国语版太那个了', '值得观看！值得期待下一部！', '没一点新意', '要我给钱才能看门都没有', '我是VIP', '碟中谍8：致命清算下 估计要2026年才上映去了', '这部是不是潜在里刚好在说AI智能和人类的关系呢？A及运用的好对人类有好处，要是让他们自己成为超控自己的，反而很可怕，离得的AI各个国家又都想要，成为自己称霸的工具，但是AI智能会这么容易被控制的吗？', '会员在这里看的话也还可以。去电影就更有视觉咯，剧情一般', '很好看 美剧看起来还是一如既往的有感觉', '主角光环严重了一些', '美国佬的思维。。。已经是最影响观影体验的因素了。', '人工智能终将吞噬一切，现在的大数据只不过是暂时可控的而已。', '★★★★★\n阿汤哥的碟中谍真是太经典了，每部都是佳作，百看不厌。', '还好有普通话，这钱花的值', '阿汤哥已经打不动了，好莱坞的套路一模一样看得遥遥欲睡。', '蹲个聊天搭子有没有', '小偷女存在的意义何在', '看完才发现有普通话的[大哭]', '又臭又长，剧情平淡', '真不错！阿汤哥纯爷们！', '真羡慕星光，我只是小V7']</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 匍匐求生 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VIP · 10251热度</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>生猛悍匪入室打劫，痛下毒手狂殴爆头,电影简介:一名男子在一间小屋里目睹了一起残忍的谋杀案后，躲在狭小的空间里，而凶手则在屋内搜寻隐藏的财富。当凶手越来越近时，他必须决定这个狭小空间是他的坟墓还是他为生存而战的战场。</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['铜仁的小伙伴有没有[666啊]', '成都的举手🙋🏻\u200d♀️', '但是，可但是，地板是不是能撬开[吃瓜N]', '女主得劲', '这剧情紧凑  真可以呢！[一起冲]', '以钱开头以钱结尾', '松柏欲盖弥彰', '遂宁的小伙伴有没有', '有没有小姐姐在看', '剧情单调，低智商犯罪，像小孩子玩家家', '宁夏的有没有', '悬疑惊悚的普通剧！', '兰州的举手🙋', '有没有人在？', '出来聊天了', '有电脑没有手机？继续往下编。', '英语34:30好不好看啊', '现在没什么好看的电影', '跟喜剧片似得哈哈哈', '恐怖片的主题是不是都一样 就一个字 黑 黑灯瞎火好办事', '人很少哦，留个足迹\n', '一个房子一部电影', '有点像《战栗空间》', '来了来了。', '喜剧吧哈哈哈', '悬疑题材不错', '这得仔细看，不能跳着看😂😂', '正片开始', '真心不错，就是不好', '留个脚印👣', '蛮好看的', '广西 站位', '山东省临沂市兰山区来报到', '是这样查税务的？再继续往下编。', '没人么，第一！', '不错，不好看', '别浪费时间了', '人在广东漂泊十年的🙋[金币]', '美国光头强砍树剧情', '居然是恐怖电影对我的口味大晚上看[吃瓜N]', '卡丽漂亮', '不错 不好看', '我是第7[柠檬精]', '人这么少', '？怎么没人']</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 劫数难逃 </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VIP · 10110热度</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>《劫数难逃》主创演员：张继聪采访,电影简介:本片讲述的是在1995年，香港商人孙逸臣出差时蒙冤入狱，在鱼龙混杂的异国监狱中挣扎求生的故事。</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.3分</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>犯罪</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['监狱里面不是应该非常严密吗？这样都能计划逃出去', '现在电影越来越长，怎么这90分钟都不到，是审核删减还是。。。。', '逸臣这是有多么幸运，才会遇到一个有良知的狱警啊', '2023年拍的大电影了，有多少人看过，帮忙点个赞，谢谢，一共是1小时多分钟', '看了这部剧百感交集，这是我第一次评论电影，本科退学后送外卖的我如同电影里的主人公，只有真正经历过这种落差才能体会那是一种怎么样的感觉，什么样的生活。\n看完后我得到了鼓励，参加成人高考，看着很遥远的目标，但是正如剧中说的一样，不努力尝试怎么知道不行，坚持不懈肯定会成功，与君共勉！', '我觉得监狱长才是最可怕的一个人，根本不在乎生命', '有点像肖申克的救赎', '电影：男主被冤枉进监狱，后面为自己上诉不成功，便和其他人越狱，途中有人越狱被狱长枪毙死了，有一个投降，另一个男主出狱成功，之后有一个看管犯人的狱警被开除了，做起了律师，男主角找那个狱警打官司，光明正大的无罪释放了', '最后环节，逸臣在水牢里装扮好直接出去了，怎么能见到五仔告诉逸臣司徒的钱在那这个事', '记得当初因为停车位我一打三，最后的结果就是被关一晚上！这还不是看守所，只是被关派出所！里面关的啥样的人都有，奉劝各位千万不要违法犯罪，老实本分做人', '所以，跑了又主动自首。太正能量了吧，比肖申克的救赎更🐂🍺', '这个故事告诉我们一个道理，那就是会一门手艺，走遍天下都不怕', '那个典狱长真的是太坏了光看他的面相就不是啥好人', '原来监狱中，烟才是硬通货，看来下次我进去的时候，要多准备点了', '这导演拍的  死者下体的污责没有DNA比对吗  就叛无期', '就是说被逸臣的智商给折服，看看这周密的计划就是万无一失', '五仔肯定是个销冠，就这商业头脑不得不服啊哪里都能赚钱', '监狱中就是一个魔窟啊，我们可千万别犯事，不然进去绝对脱层皮', '最喜欢的就是这胖子了，这家伙这么多年了还一直这么胖', '这样恐怖的地方能够待下来大家的毅力也是有点强了', '刚从莫斯科过来的有没有', '翻拍肖申克的救赎？', '还是这部好看😊', '肖克的救赎盗版', '一个女人，真的熬不住了，说得好啊', '本来坐四年，结果还多坐一年零一个月🤔', '我感觉这部电影给了我别的电影所没有给我的那种感受反正我觉得很好看', '张继聪上一部电影:坐牢是香港年轻人唯一的出路', '吾拍抖音晒游艇，来拍戏啊', '照抄肖申克救赎没啥意思[我裂开了][我裂开了][我裂开了]', '很多人聊监狱聊狱警，其实现在的监狱居住环境比很多老的大学都好，伙食超过我们县城90%的家庭，警察也很好', '三年的会员，没试过被赞的感觉', '￼最触动我的就是明明无罪却会因为越狱加刑，这个我年轻几岁一定看不懂，可我现在真的是懂了，没有犯罪却因为越狱而加刑，没有犯罪却在牢里待了五年多，没有犯罪……莫须有，然而这就是法律，这就是现实……', '中国版肖克申？', '劫数难逃（普通话... 17:36杀人，死了', '如果不是自己越狱找线索呢？', '有点高开低走的感觉 后面最后莫名其妙 有些太梦幻了', '我爱小锤', '整体来说可以的，主角是个文化人也是个技术人', '什么玩意', '8.3不知道怎么来的，，，，，', '中国版《肖申克的救赎》', '很好看真的是高知越狱', '好电影，愿天下少一些特权！', '对这肖申克跟速度与激情抄', '這些電影全部都是香港人，拍的好算是好不過不是在香港拍攝的，開始到結束有沒有見到一個港牌車輛？（呢啲戏全部都系香港人，拍好算系好，不过唔系喺香港摄影嘅，开始到尾有冇见到一个港牌车？）', '大淮南顶上去', '没头没尾', '这不是日本男演员吗，多少男人的目标。', '我没看懂什么意思', '看完这个电影只能说社会太黑暗人心太险恶，法律只是约束弱者，即使你正义了，也是迟到的公平', '什么破玩意', '逻辑性太差了，光天化日宾馆破门犯案，动静这么大整层楼应该都惊动了，得在当日有多大力量才敢这么干，有这能量的人还能让宾馆留下监控视频？两个人搞那么大在现场不可能一点痕迹不留，能让警方无视证据直接判你入狱，现在就一个门口监控就能翻案了？胡警官品性跟监狱其他所有人都格格不入，靠什么呆下去还能职级比别人高的。孙逸臣越狱，五仔被卖了一次，不让老婆直接去拿钱，还一定要转告给孙逸臣，他老婆靠什么去找人。全剧貌似把精力和脑筋都用在孙逸臣的越狱方式上，其它地方的逻辑漏洞多到吐不过来', '最终成功越狱的竟然是逸臣，厉害了！', '还是被关了五年多，多冤枉啊，其次，开头那两个杀人的原因也没有说明，这点也算是败笔', '请问扎多尔共和国在哪个洲？我在地图找半天没看到，难道是火星的？你这是科幻片？胡说八道的地名你发明的？', '非常一般', '天下万物生於有，有生於无', '兄弟听哥一句，这孩子不像你啊[意难平]', '睢县廖提路过', '周润发之后再无风云', '好好好，求老婆掉个监控这么难肯定要自己越出去掉是吧', '唯一一点，孙越狱，从哪里收到老五钱的位置信息？ 其他觉得还挺港剧的，好看', '我还以为会有些创新了  剧情照搬肖生克的救赎', '哈哈，这就是法律，白白关了五年多', '逃狱判7年，自首减三年\n\n这个男主本身就出去给自己上诉，本来就是抓错了\n\n这个介绍真是看不懂', '自己闭翳就想兄弟富贵啊嘛', '自己逃出去的  真可以[666啊]', '什么鬼东西', '还可以剧情不啰嗦', '全篇有一半情节抄袭肖申克的救赎[抠鼻][抠鼻][抠鼻]', '这结尾结束的太简洁了', '国产电影能到这个水平也算上了一个档次', '有点肖申克的救赎的样子', '有一的吗，我要进去', '国产肖申克的救赎🖕🏻', '山西高平报道', '监狱长司徒浩南啊很厉害的', '中国版肖恩克的救赎吗', '在里面呆两年，不是人在的地带，所以说干什么也不要犯罪', '没有丝毫逻辑可言，就是为过审而拍', '这个不就像那个肖申克的救赎吗？', '这是越狱和肖申克的救赎联合版', '据说是真事！九几年一个商人去东南亚出差，结果一起的女秘书在眼前被奸杀，自己也进了黑监狱，他很聪明用智慧逃出来了', '香港版肖申克的救赎', '他老婆连去酒店调个监控都不愿帮他办', '广电可不会让你逃出去', '什么钱这么难洗啊', '这狱警不错，你带他去一路向西吧', '我民权花园的']</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve"> 撞邪 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>VIP · 10153热度</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VIP · 10277热度</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>《撞邪》终极预告刺激发布：《中邪》姐妹篇来袭，张智尧李倩老宅入邪，11月25日腾讯视频全网首播！,电影简介:本片发生在民国年间，影片讲述了警察赵仁在调查无头女尸案的过程中，接连遭遇了如镜中人、凶灵附身、邪神祭拜等灵异事件。不信鬼神的赵仁决心要查出背后的真相，然而，随着命案调查的深入，案件背后越来越多惊悚离奇的细节浮出水面。</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>7.6分</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>恐怖</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['不用看了，国产恐怖片最后都是精神病的幻觉。国家规定建国以后动物都不能成精何来的鬼怪', '自建国以来，我国不允许成精， 结局都不用猜了，不是精神病就是迷幻药[吃瓜N][吃瓜N]', '推荐大家看这个电影', '在中国这个环境下，拍出这种片子已经不错了，能在片尾反转比一般的新颖多了', '摄像大哥都隔这站着呢\n😏', '窗户开了[狗头][狗头]', '哪里可怕了..有啥好怕', '很久没看到这么给力的恐怖片，虽然难逃国产恐怖片的结局，但是明显感觉导演用心了[打call了]', '我建议大家调一下胆小模式哈哈哈哈哈哈', '就这张吓人', '我发现很多人没有看懂电影，可能平常很少看悬疑片，我给大家简单解析一下。首先电影的故事整个是警长赵仁，也就是穆元的回忆加想象中进行的（昏迷中）。回忆的部分，也就是真实发生的部分是，警长赵仁3年前和青儿两人青梅竹马，且结婚生子，有了女儿小梦。他在警局用现在话来说就是个打酱油的，剧里说是打扫卫生。但由于贪慕权贵，加上穆府的大小姐穆芳爱慕赵仁，便雇凶刘勇害死了青儿，（刘勇在杀害青儿后再没有出现，后来的刘勇其实是他自己，后边我会解释）。改名穆元入赘穆家，想凭借穆家的势力上位，但没有成功，这也是后来家暴穆芳的原因。由于穆芳后来知道了他害死了青儿，便逼疯了穆芳，后又利用职务之便害死了穆芳，其实根本不是穆芳和他合谋的。在调查穆芳案件的时候他又杀害他的同事，也就是说，刘勇才是他真实的自己，这也是为什么后来刘勇一定要作法给青儿还头，他只是给自己赎罪。其实他就没有当上警长，那只不过是他回忆中美化自己的想象，在他的想象中青儿还活着，一家三口和睦幸福，就是警长夫人阿蓉。阿蓉就是青儿，青儿就是阿蓉。在想象中女儿不能说话是病，事实上女儿是因为他入赘穆家你不愿和他说话，他女儿当时应该是不知道真相的。神仙草和邪煞只不过是他逃避现实而编造出来的。电影开头的部分也算是他想象（编造）的，只是为了减少他的负罪感。后来终于承受不住压力一病不起，昏迷了。', '报看，最后就是那个警长的一场梦。我真的服，跟中邪哪有可比性啊？这噱头也打的太冠冕堂皇了。', '我的天，你给别人缝制头就不能选个好看的嘛，你这头别个鬼当然看不上呀。', '讲点中肯的评价吧，首先呢在国产恐怖片的大前提下，受限于过审条件，肯定不能怪力乱神的，最后结局写成这样也没有办法。看到有人评价是虎头蛇尾，我是认可的，开头真的非常精彩，一切都渲染得很到位，起的太高了，后续水平跟不上就有点虎头蛇尾了。剧情上呢更是有点定位不清晰，最初呢是恐怖片，然后在引出这些邪煞其实是有人利用神仙草制造幻觉杀人后剧情已经向悬疑推理上发展了，那之后就是一个盘逻辑的过程，观众的思绪都会跟着你的逻辑走：凶手是谁？怎么通过一系列的手法作案的？结果这些刚得出之后，编剧嘿嘿一笑说：“哈哈之前都是逗你玩哒！其实只是始作俑者由于自责在做梦罢了！”直接跟闹着玩一样就把逻辑全部推翻，告诉你根本没那些逻辑，这样的转折确实很出人意料，但是也相当于说先前全是扯皮，这种引入逻辑，再跳脱出来说根本没有逻辑跟真正意义上悬疑片里的“误导”是有差异的。但作为一部恐怖片，也不能要求那么严格，至少在前中期的逻辑都还算严谨，恐怖氛围也都很到位，算是近几年大陆拍的较为出色的恐怖片了，还是值得一看的。', '剧情不拉胯，故事情节设定也很精彩，真的是很有看点的一部恐怖片', '这是最好的一部恐怖题材的电影了，且看且珍惜吧，之后能不能在出这类型的片子都不一定。', '9.0评分刷出来的吧？你真敢拍撞邪给5分，都是灵异的幌子拍悬疑，还私带一点亲情，搞得悬疑不悬疑，灵异不灵异，惊悚不惊悚，亲情不亲情，四不像？', '为啥都这个时候了还要去温柔乡了？难道这些男人一天想的都是这个吗？感觉还真的是有点无语啊。', '精彩又刺激的恐怖氛围，跌宕起伏的剧情，整体观感很不错', '我的天，真的太恐怖了，光无头尸体出现的那一刻，我都被吓的汗毛竖起。', '结局万万没想到！[握草]', '国产片真的废了，哎，这不让拍那不让拍的[意难平][意难平][意难平]', '第一次知道胆小模式😂', '这……自己给自己打九分？？？？', '看的打瞌睡😪', '结果烂尾', '我就说怎么就得李倩不对劲，原来是志没有了', '我的没有这个功能', '太恐怖了，看完三天睡不着觉，太吓人了', '演员不错，故事一般，脏糠之妻不可弃总有因果', '太吓人了，有谁陪我一起看的吗？', '推荐大家看看这个电影，剧情紧张，刺激，肾上腺素狂飙。', '国产恐怖片我的评价是💩', '小样长的挺别致的，有没有人想要，只要4.444，包邮到家。', '剧情反转的让人尴尬，看完都不知道讲了个什么故事', '什么啊这是', '够恐怖可以', '哪有胆小模式？', '只能说成本低，构思不够', '这个形状挺特别', '一个警察都怕成这样，直服了，不要是头了没头也算个屁', '现实中谁相信鬼神存在，没有人相信，鬼神毕竟是人创造出来的！', '大半夜看这有点不敢看 祝愿不梦到鬼', '除了香港那些恐怖片以外。这部恐怖片绝对可以排行国内恐怖片第一了，这从头吓到尾。以后多拍这种滴少，像这种，昆岩池，超级恐怖片拍出来绝对碾压香港那些恐怖片了', '张智尧人帅演技好希望未来有更好的作品', '呀，我是 V2啊🤔', '大聪明拍这个片，咋没整成喜剧片', '胆小模式竟然是放烟雾弹[笑哭N]', '都没有山村老尸第一部吓人', '这拍的是个啥？前面拍的还可以，怎么就弄个这样的结尾，全是想出来的？树先生吗？', '灭火不用水的吗', '找不到剧看了👪们有什么推荐得', '老公我怕抱抱我', '这个世界上是有鬼的，其实鬼就是一种磁场生物，实体是伤不了人的，当然很早以前可以，现在不行，它们顶多可以入侵你们的梦，给你编一些乱七八糟的梦而已，那种就比较诡异的梦，还有在梦里杀人正常的，这些都是他们希望你觉得杀人很正常，慢慢改变你的世界观而已', '这部电影真好看，故事紧凑，情节跌宕起伏，引人入胜，墙裂推荐大家也去看', '结局没看懂', '真是够了，看别人做了一场梦', '好好好，懵逼树上懵逼果，懵逼树下你和我', '躲被窝一个人看[666啊]', '12-18赵振方实名观看！', '强烈呼吁广电局放开鬼片审核，使恐怖片里可以出现鬼怪', '我一女的一个人看都不害怕你们大老爷们怕个de', '他一个队长住得起大宅子？', '不懂就问，胆小模式是啥', '难看，看到最后居然是一场梦！', '胆小模式无敌', '哈哈哈哈，胆小？', '1557快来快来15424515457244', '咪哎哦哦您', '胆小鬼，模式是什么鬼？', '看的有点懵逼', '有点阴森', '都经不起推敲', '最让我奇怪的就是为什么他老婆和这个青儿长得这么相像呢？这应该也不是什么偶然的情况吧。', '这剧情像小学生写得', '民国时期的巡捕，审讯的时候不应该除了打就是打吗？像这种装神弄鬼的，5分钟就能破案了。', '看得我一愣一愣的，除了渲染恐怖气氛。节奏慢得赶得上日本动漫了。就算过审受限，咋也不至于这样吧', '绝绝子！，很无语', '姐姐～怕怕', '好久没看到这么好看恐怖片了', '有人在看吗', '晚上11点半看', '推荐大家看这部电影', '狗血剧情，佩服导演的思维，一般人欣赏不来', '看到主演的名字进来看一下', '诸神庇佑  点赞护体', '就是一个精神病的一场梦', '最后我想说一下:孔子没看懂，孟子没看懂，就连老子也没看懂[折磨]', '最后是不是警察局的刘勇是嫌疑人？', '[我裂开了]我要让我的大冤种朋友也来看，']</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 汪汪队立大功大电影 </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>VIP · 10320热度</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>《汪汪队立大功大电影》汪汪队全员蹦迪，这个冬天“嗨”起来！,电影简介:汪汪队出发救援！邪恶的韩丁那成为了冒险湾的市长，并且准备对这座城市进行大肆破坏。小男孩莱德和他英勇的汪汪队小狗们必须打起十二分精神，准备迎接全新的挑战。与此同时，小狗阿奇不得不面对他在冒险湾复杂的过去。好在这时团队迎来了新的盟友，聪明的腊肠犬贝贝。带着升级的武器和装备，汪汪队已经准备好随时为拯救冒险湾的居民们而战！</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8.8分</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['不用看了，国产恐怖片最后都是精神病的幻觉。国家规定建国以后动物都不能成精何来的鬼怪', '自建国以来，我国不允许成精， 结局都不用猜了，不是精神病就是迷幻药[吃瓜N][吃瓜N]', '推荐大家看这个电影', '在中国这个环境下，拍出这种片子已经不错了，能在片尾反转比一般的新颖多了', '摄像大哥都隔这站着呢\n😏', '窗户开了[狗头][狗头]', '哪里可怕了..有啥好怕', '很久没看到这么给力的恐怖片，虽然难逃国产恐怖片的结局，但是明显感觉导演用心了[打call了]', '我发现很多人没有看懂电影，可能平常很少看悬疑片，我给大家简单解析一下。首先电影的故事整个是警长赵仁，也就是穆元的回忆加想象中进行的（昏迷中）。回忆的部分，也就是真实发生的部分是，警长赵仁3年前和青儿两人青梅竹马，且结婚生子，有了女儿小梦。他在警局用现在话来说就是个打酱油的，剧里说是打扫卫生。但由于贪慕权贵，加上穆府的大小姐穆芳爱慕赵仁，便雇凶刘勇害死了青儿，（刘勇在杀害青儿后再没有出现，后来的刘勇其实是他自己，后边我会解释）。改名穆元入赘穆家，想凭借穆家的势力上位，但没有成功，这也是后来家暴穆芳的原因。由于穆芳后来知道了他害死了青儿，便逼疯了穆芳，后又利用职务之便害死了穆芳，其实根本不是穆芳和他合谋的。在调查穆芳案件的时候他又杀害他的同事，也就是说，刘勇才是他真实的自己，这也是为什么后来刘勇一定要作法给青儿还头，他只是给自己赎罪。其实他就没有当上警长，那只不过是他回忆中美化自己的想象，在他的想象中青儿还活着，一家三口和睦幸福，就是警长夫人阿蓉。阿蓉就是青儿，青儿就是阿蓉。在想象中女儿不能说话是病，事实上女儿是因为他入赘穆家你不愿和他说话，他女儿当时应该是不知道真相的。神仙草和邪煞只不过是他逃避现实而编造出来的。电影开头的部分也算是他想象（编造）的，只是为了减少他的负罪感。后来终于承受不住压力一病不起，昏迷了。', '我建议大家调一下胆小模式哈哈哈哈哈哈', '报看，最后就是那个警长的一场梦。我真的服，跟中邪哪有可比性啊？这噱头也打的太冠冕堂皇了。', '我的天，你给别人缝制头就不能选个好看的嘛，你这头别个鬼当然看不上呀。', '讲点中肯的评价吧，首先呢在国产恐怖片的大前提下，受限于过审条件，肯定不能怪力乱神的，最后结局写成这样也没有办法。看到有人评价是虎头蛇尾，我是认可的，开头真的非常精彩，一切都渲染得很到位，起的太高了，后续水平跟不上就有点虎头蛇尾了。剧情上呢更是有点定位不清晰，最初呢是恐怖片，然后在引出这些邪煞其实是有人利用神仙草制造幻觉杀人后剧情已经向悬疑推理上发展了，那之后就是一个盘逻辑的过程，观众的思绪都会跟着你的逻辑走：凶手是谁？怎么通过一系列的手法作案的？结果这些刚得出之后，编剧嘿嘿一笑说：“哈哈之前都是逗你玩哒！其实只是始作俑者由于自责在做梦罢了！”直接跟闹着玩一样就把逻辑全部推翻，告诉你根本没那些逻辑，这样的转折确实很出人意料，但是也相当于说先前全是扯皮，这种引入逻辑，再跳脱出来说根本没有逻辑跟真正意义上悬疑片里的“误导”是有差异的。但作为一部恐怖片，也不能要求那么严格，至少在前中期的逻辑都还算严谨，恐怖氛围也都很到位，算是近几年大陆拍的较为出色的恐怖片了，还是值得一看的。', '就这张吓人', '剧情不拉胯，故事情节设定也很精彩，真的是很有看点的一部恐怖片', '这是最好的一部恐怖题材的电影了，且看且珍惜吧，之后能不能在出这类型的片子都不一定。', '9.0评分刷出来的吧？你真敢拍撞邪给5分，都是灵异的幌子拍悬疑，还私带一点亲情，搞得悬疑不悬疑，灵异不灵异，惊悚不惊悚，亲情不亲情，四不像？', '一点都不好看 到最后居然是男主的一场梦 ，九分估计是请人刷的[意难平][意难平][意难平][意难平]', '为啥都这个时候了还要去温柔乡了？难道这些男人一天想的都是这个吗？感觉还真的是有点无语啊。', '精彩又刺激的恐怖氛围，跌宕起伏的剧情，整体观感很不错', '结局万万没想到！[握草]', '国产片真的废了，哎，这不让拍那不让拍的[意难平][意难平][意难平]', '第一次知道胆小模式😂', '这……自己给自己打九分？？？？', '看的打瞌睡😪', '结果烂尾', '我就说怎么就得李倩不对劲，原来是志没有了', '我的没有这个功能', '太恐怖了，看完三天睡不着觉，太吓人了', '演员不错，故事一般，脏糠之妻不可弃总有因果', '太吓人了，有谁陪我一起看的吗？', '推荐大家看看这个电影，剧情紧张，刺激，肾上腺素狂飙。', '国产恐怖片我的评价是💩', '小样长的挺别致的，有没有人想要，只要4.444，包邮到家。', '剧情反转的让人尴尬，看完都不知道讲了个什么故事', '什么啊这是', '够恐怖可以', '哪有胆小模式？', '只能说成本低，构思不够', '这个形状挺特别', '一个警察都怕成这样，直服了，不要是头了没头也算个屁', '现实中谁相信鬼神存在，没有人相信，鬼神毕竟是人创造出来的！', '大半夜看这有点不敢看 祝愿不梦到鬼', '除了香港那些恐怖片以外。这部恐怖片绝对可以排行国内恐怖片第一了，这从头吓到尾。以后多拍这种滴少，像这种，昆岩池，超级恐怖片拍出来绝对碾压香港那些恐怖片了', '张智尧人帅演技好希望未来有更好的作品', '呀，我是 V2啊🤔', '大聪明拍这个片，咋没整成喜剧片', '胆小模式竟然是放烟雾弹[笑哭N]', '都没有山村老尸第一部吓人', '这拍的是个啥？前面拍的还可以，怎么就弄个这样的结尾，全是想出来的？树先生吗？', '灭火不用水的吗', '全都带回去化验？这是那个时代的技术吗？', '老公我怕抱抱我', '这个世界上是有鬼的，其实鬼就是一种磁场生物，实体是伤不了人的，当然很早以前可以，现在不行，它们顶多可以入侵你们的梦，给你编一些乱七八糟的梦而已，那种就比较诡异的梦，还有在梦里杀人正常的，这些都是他们希望你觉得杀人很正常，慢慢改变你的世界观而已', '这部电影真好看，故事紧凑，情节跌宕起伏，引人入胜，墙裂推荐大家也去看', '世界上的鬼不可怕。可怕的是人心', '结局没看懂', '真是够了，看别人做了一场梦', '躲被窝一个人看[666啊]', '12-18赵振方实名观看！', '强烈呼吁广电局放开鬼片审核，使恐怖片里可以出现鬼怪', '我一女的一个人看都不害怕你们大老爷们怕个de', '他一个队长住得起大宅子？', '不懂就问，胆小模式是啥', '难看，看到最后居然是一场梦！', '胆小模式无敌', '哈哈哈哈，胆小？', '1557快来快来15424515457244', '咪哎哦哦您', '胆小鬼，模式是什么鬼？', '有鬼的不能怕，恐怖的不能拍，见血的不能拍，宫斗剧不能拍，还有两样不能拍：这样不能拍，那样不能拍😂', '不用看了，最后没有鬼', '都经不起推敲', '最让我奇怪的就是为什么他老婆和这个青儿长得这么相像呢？这应该也不是什么偶然的情况吧。', '这剧情像小学生写得', '民国时期的巡捕，审讯的时候不应该除了打就是打吗？像这种装神弄鬼的，5分钟就能破案了。', '看得我一愣一愣的，除了渲染恐怖气氛。节奏慢得赶得上日本动漫了。就算过审受限，咋也不至于这样吧', '绝绝子！，很无语', '头尾不协调啊，没意思', '姐姐～怕怕', '看的有点懵逼', '有点阴森', '看完全程都紧张刺激，非常身临其境，背景音乐设计很出色', '好久没看到这么好看恐怖片了', '诸神庇佑  点赞护体', '狗血剧情，佩服导演的思维，一般人欣赏不来', '看到主演的名字进来看一下', '就是一个精神病的一场梦', '最后我想说一下:孔子没看懂，孟子没看懂，就连老子也没看懂[折磨]', '胆小模式也不恐怖啊[EMO了]']</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 长津湖 </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VIP · 10108热度</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>“雷公”胡军独家新年祝福！,电影简介:电影《长津湖》以抗美援朝战争第二次战役中的长津湖战役为背景，讲述了一段波澜壮阔的历史：71年前，中国人民志愿军赴朝作战，在极寒严酷环境下，东线作战部队凭着钢铁意志和英勇无畏的战斗精神一路追击，奋勇杀敌，扭转了战场态势，打出了军威国威。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.7分</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['这是我爷爷留下的，能看出来是什么吗？', '看完这个电影，想起了我的姥爷。可惜他早已经不在了，在我小的时候因病去世。我只对他有模糊的印象，遗憾不能亲自听他讲述他的故事！', '没有听过您说过很多，却发现您的遗物。', '我姥爷今年94岁了，我为我姥爷感到骄傲和自豪！！！', '多希望父亲能在，能跟他一起看这部片子。', '怎么就没女生看了，女生+1', '要是我父亲还在世的话看到这电影会触动很大的，那些地方都是他曾经最痛的记忆！', '爷爷不在了存在我奶奶讲的故事中', '外公负伤回国，健在', '小时候经常听你说的故事，现在看来好伤心，', '说实话 现实绝对比电影残酷多了', '第七穿插连队，应到一百五十七人，实到十四亿人！', '怎么才8.9分 ，应该10分。', '这是伍千里原型，英雄至今还健在！', '评分应该是十分才是，怎么才8.9分？', '为什么我的眼里常含泪水，因为我对这土地爱得深沉', '有人问难道没有彩蛋吗，你打开窗户望外看，这就是彩蛋.', '我从来不过圣诞节', '#2021国庆档你最期待哪部片#我爷爷被子弹打中胳膊 ', '我爷爷当年是指导员，我为他骄傲', '这么好的电影评分太低了', '向老英雄致敬，我爷爷已经91了，身子骨还可以。', '首映当天和女朋友去看的，电影还在，人不在了', '#如何评价易烊千玺的表演#演得太好了，非常好看', '2022新年快乐！祝福祖国繁荣富强！致敬最可爱的人！', '希望祖国能把他们都带回家！一个都不能少！', '终于上线了，我要好好的看完', '#如何评价易烊千玺的表演#眼睛里有东西！年轻一代里演技真没人能跟他相比', '我爷爷身体越来越差了。', '哭了几个小时了', '雷公临死前一句别把我一个人留在这儿，直接给我哭破防了', '我哭了我老婆没哭我把她打哭了', '等了好久，终于上线，第四次重温', '再难有老一辈难吗？最后的人为阻击敌人逃跑，都冻成冰人了，活在当下，多幸福！', '我的爷爷！', '向英雄们致敬，祝福祖国繁荣富强！', '2022新年第一天来报个到……成都路过', '致敬英雄，喜欢看那部剧呢投个票吧！', '🧨2021 𝘽𝙮𝙚 𝘽𝙮𝙚 ·2022 𝙃𝙞 𝙃𝙞🧨\n滴~体温正常，欢迎进入2022', '终于可以看啦！！！', '终于上线了，我要再看亿遍', '人民英雄', '致敬抗美援朝的英雄们。', '我很想念我的爷爷，去年过世了，一辈子都献给可国家，得开老年痴呆走失，被发现的时候是再部队门口。', '不晒爷爷的，晒一下自己的吧。每一代人有每一代人的责任，为了人民，负重前行。', '这一场战争是残酷的，打出了中国的军人的威信，世界有名，只有国家的强大，科技的发展，任何敌人不敢侵犯，记住这个历史', '这也是一个教育片教育，后来人记住先一辈英雄，工具，向英雄们学习，爱自己的国家，祝我们的国家强大繁荣富强', '谢谢这个平台，谢谢各位看友，今天的幸福来自前辈们的先烈，这场电影真的很感动，愿大家每天看好片', '中国人民志愿军万岁，中国人民志愿军万岁！中国人民志愿军万万岁！！', '长津湖之后再无圣诞节', '长津湖战役，不应该是VIP，应该是免费的！', '这种剧[气到变形][气到变形][气到变形][气到变形]。还我时间[意难平][意难平][意难平]。', '想想当年的长津湖，再想想现在，致敬先辈', '炸药箱都是空的，露馅了', '这太恐怖了，直接插进别人肚子', '志愿军万岁！志愿军万岁！志愿军万万岁！！', '向伟大的志愿军致敬！！', '向伟大的英雄们致敬！！', '伍门三杰', '易烊千玺是头一次演抗战片吗？', '没有志愿军，哪来有今天的中国？', '真的很一般这电影', '砍死日本鬼子美国鬼子', '刚刚看完志愿军，现在又来回顾长津湖，感觉这些影片不应该要会员，应该免费观看，且不需要看广告，这是具有纪念性的影片，这能让我们的下一代有印象，牢记历史', '依稀记得我问爷爷:你总说你参加抗美援朝 那你到底有没有杀过敌人，  爷爷告诉我记不得杀了多少了  看完电影立马让我爸拿出我爷爷的遗物，  当场泪目 😭', '看谁的表情最好笑', '整个七连就伍万里活了', '#易烊千玺#讲真的，不敢看第二回', '易烊千玺妈咪，永远爱你', '你们都是为谁来的', '以前村里一位老人，参加过解放战争和抗美援朝，一辈子没结婚，也没收养子女，我们小时候几个小孩围到一起缠着他讲以前打仗的事情，刚开始的时候他只讲解放战争的，只字不提抗美援朝，直到他的老战友来开导他，我们才知道这些事：当年抗美援朝我们村里去了十几个人，只回来了两个，他是其中之一；长津湖战役时他是排长，一场仗下来只剩了他一个；自那以后他就把自己封闭起来，他认为那一排人牺牲他是罪人；负伤回来后他也没去专门赚钱，都是谁家有事找他帮忙给他钱，没给钱的他也不去要；村里人给他安排相亲他也不去，去了也是跟女方挑明了说他不结婚，直接把女方吓跑了，他妹妹为此还跟他决裂了；后来由于战场上的伤复发，身体也变得不好了，慢慢地什么活也干不了了，他被纳入低保；他认为他那一排人都死了只有他还活着，他不敢比那一排人活得好，否则就更对不起他们了。\n在他老战友走后，他开始给我们一点一点地讲长津湖的事，但他始终不提他那个排的事。当他讲到五六个人俘虏美军三四十人的时候我们都不相信，还以为他在敷衍我们，然后我们就都不愿意听了。\n九十岁那年得了一场大病，医生都下病危通知了，他硬是挺了过来；后来因为他是战斗英雄，民政局发生活费，照顾他，给他买了一台大彩电（当时村里也没有几台），可那时他因为最近一次高烧耳朵也不好使了（之前那次大病眼睛一只失明，另一只也几近失明）；九十八岁那年他去世了，去世时只有他妹妹在，还有村里几个干部帮忙出殡\n直到现在我才明白他是经历了怎样的艰难，他这一辈子都没离开过那个战场，他生前常说的一句话就是，活着真好', '我也晒晒我爷爷的', '中国万岁！万岁！万万岁！', '2小时43分，是不是欧豪？', '吴京太牛了，在 战狼2开坦克在长津湖依旧开坦克', '死神来了，你们都将死在这里', '什么电影都不如这个。', '希望祖国能把他们都带回家！一个都不能少！#长津湖中谁的演技最触动你#', '怎么才8.9分 ，应该10分。#长津湖中谁的演技最触动你#', '铭记历史，缅怀先烈', '理性评分，有些夸张了', '有谁是看了志愿军雄兵出击二刷长津湖的', '牛不牛逼啊？', '是不是要在我身边天了？你的图就是天太尴尬太', '易烊千玺好入戏', '跨过鸭绿江。从第九兵团开始入朝过来看的。', '伟人的伟大就是高瞻远瞩', '易烊千玺演技真的好', '易烊千玺，你真帅', '这里的弹幕让我见识到了现在物种的多样性']</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 卧鼠藏虫 </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10140热度</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>卧鼠藏虫：霸道总裁沦为最惨打工人，他还能否揭开迷雾重掌豪门,电影简介:影片讲述了失散多年的双生兄弟在企业抢夺战的反向推动、血脉亲情的感召与国际大案的卷入之下跨国重逢，在身份对调被识破后，兄弟俩统一目标，并肩作战对抗幕后黑手，赶走阴霾重新开始美好生活的喜剧式励志故事。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['看完感动的稀里哗啦的', '我名字叫郭浩', '和崔志佳怎么差这么多', '哭的稀里哗啦的', '大东北真的是鸟大了，林子都装不下《东北警察故事》《这个杀手不太冷静》《猛虫过江》《卧鼠藏虫》《我不是酒神》《你好，老叔》《锤神》…………', '笑死我了', '这张很明显不是一个人', '个人觉得评分应该在8.2以上', '这是谁啊🤣', '中国电影', '从头看到尾，看到了文松的用心和认真，感动', '小米广告', '没经历过此事的人根本不懂，挺不错。', '支持一下，主要导演比较爷们', '拍的挺好，个人比较喜欢。', '好一句“虽然隔着海，但我们是一家人”', '看的我云里雾里的，还是那个告别天团好看', '在平凡的岗位上致敬不凡，他们一生择一事，以匠心追求极致。这份用心，值得致敬！祝大家五一劳动节快乐！', '2022.5.3号疫情期间在隔离 就喜欢截屏 喜欢你演的每部剧 好看 同意的赞起来 ', '统计局投资。', '值得一看,非常精彩\n', '这是今年看到的除东北告别天团第二部精彩的电影', '被人砸晕扔海里还能活，😂', '拿一个小学生跟大学生比较文化程度，这很不公平。文松是喜剧人，他想做点自己喜欢的事，是挑战是学习。已经很不错了，不出戏，不像小品。演员不用师兄弟，是怕观众觉得怎么看都像小品。之前中心也是反应出国务工的安保，也是一种正能量。东北告别天团也很好，那是情怀，这是小众的调调。都很喜欢，加油！', '剧情挺饱满，但是多少缺了点味道，不过比很多为了搞笑而搞笑用力过度的电影要好，没有过多笑点，却能一直保持观众轻松、向往和期待的情绪，比较清新的轻喜剧。演员的演技很好，而且很多表演细节还是很到位的，是一部比较完整的作品，值得看。', '这部电影可以影院上映啊拍的真好是真好\n', '97年我三岁', '为什么我看到的是志愿军的封面啊？不能瞎搞哦', '电影都不审核吗？什么片都可以', '蹲女朋友', '代乐乐？是代乐乐吗？', '我不是VIP，直接看了', '这也太感动了。', '我喝了5瓶啤酒看完这个高质量电影', '弹幕带色吗？', '没看懂这片电影', '这个电影好好看，绝了！', '什么v几', '这都不是事儿', '我是V几呀', '河南人处个对象', '留个言2023年11月 16日祝自己一切都好', '烂的出奇，剧情烂，打戏烂，表演烂', '拍的太好了，下次别拍了[笑哭N][笑哭N][笑哭N]', '来包十句', '97年抽相思鸟', '我是v几啊', '为啥排第一？', '以假乱真了', '什么玩意儿这是', '差点意思', '留个言2023年11月20日凌晨3:19分 希望自己越来越好顺风顺水前程似锦', '有哪些兄弟是看小视频过来的🤔', '背景音乐太吵了', '前几天在学校看的，然后没看完到家看  真的很好看', '用的什么发胶发型都不会乱', '97年，不拿97年的纸币吗', '甘肃人处个对象', '难得看到文松正经的时候😃', '为什么蓝利群才十六块', '张少辅我爱你！', '都不要会员 偷摸看去吧。还评价', '鹅鹅鹅鹅', '感觉剧情很下饭 根本想吃了饭看 结果看入迷了，太好看了', '爱德华的妹妹真人名叫啥啊', '评论区比影片好看[大哭][大哭][大哭]', '想找个瑟瑟的男朋友', '喜剧，凑合着看吧 打戏可以跳过', '没看，先哭', '虽然有一点点剽窃的嫌疑，但有自己的故事，也很感人[打call了]', '看完了，还不错哦', '还挺好看的', '穿帮了吧[狗头]', '有些人评价别人之前也不看看自己什么角色', '这个年轻人没救了', '标准的 小型黑中介！上车，留下证件！发走…\n可惜没 体现出来…', '真好看谢谢', '云南的来个女朋友吧.202312.7', '男，93，石家庄，找个对象', '泊头火柴呀', '留个言2023年11月 12日祝自己一切都好', '就我看的最晚', '那年代有阿萨姆？', '有没有新疆的？', '太感动了！', '太搞笑了', '我是老实人你们别匡我', '我又不是兽医', '九七年用手机抽十元的烟应该也是大款了', '第一次哟，可以了，还不错，']</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 超能一家人 </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VIP · 10060热度</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>开心麻花《超能一家人》热映中，曝马丽魏翔东北译制腔彩蛋,电影简介:郑前新开发的APP被狡猾又诚实的反派乞乞科夫盯上了。幸好郑前一家人意外获得了超能力，姐姐会飞天，爸爸能隐身，爷爷不死术，妹妹力大无穷。郑前本指望家人们出手帮忙，一家人却常常出糗帮倒忙，虽强但傻的“超能力一家人”将如何对抗乞乞科夫，一场超能力VS钞能力的大战一触即发……</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['笑点很尬，没有什么内涵，亲情部分感觉也是强行升华', '已经看了不建议去看', '以为夏洛特烦恼是开心麻花的开始，没想到是巅峰[上头-上][上头-头][上头-上][上头-头]', '据说大年初一好像这个下架了\n、', '2022年贺岁片都不上映？', '又是艾伦当主角？不是我吹，肯定火不了，开心麻花凉了', '看简介介绍 这剧情电影好像在哪里见过', '在这么拍下去早晚凉凉  永远离不开以前的作品  笑点都一样  看多了就没意思了', '拍摄取景地青岛市市南区瞿塘峡路与三门峡交叉口，剧组人员中午吃饭在我店里吃的。', '别想了己经撤档了。', '不是怎么好看', '什么时候手机上就能看了', '一般我看喜剧，只看含腾量高不高…😁', '最好看的是彩蛋', '真的又一次惊艳到了我，沈腾的戏份再多一点更完美了，真的特别喜欢看沈腾', '真的好看', '大年初一沈腾直接两部电影春节档？', '啥时候上起码给个回应啊，吐了，一个交代都没有就突然销声匿迹了', '别跟我说像四海一样  含腾亮极低', '又是翻拍的啥电影', '看到沈腾就想笑，必看\n', '速度激情十上来就9.2.....国产5.2慢慢涨上来的，搞笑是搞笑他做主角不喜欢了', '当时不上映的原因是因为疫情影响的    上映没有上座率😀😀', '一般一般', '看沈腾的剧情看的挺过瘾的。开心麻花的电影看一次笑一次，感动一次', '缺个贾玲', '腾格尔又对网络歌曲下嘴了,可怕', '含腾量200%。双腾出没，🙈', '今年还能看到吗', '为什么没有马丽。。。。。不对啊', '春节为什么撤档啊', '抛弃喜剧的初衷，只是给人一个教育的电影，已经不叫喜剧了', '想采访腾哥学俄语的心路历程', '腾格尔唱这首歌，感觉鸡皮疙瘩都起来了', '没赶上电影院，主要也不知道啥时候上映的，这刷短视频也没推我啊，还是看到腾格尔翻唱合集，才想到超能电影，再一看评论……嗯……', '腾哥外语练了多久，说实话哈哈😄', '太喜欢沈腾了', '这片宣传得蛮早的嘛！', '以前记得看过一个外国的电影，也是一家人有超能力，去银行偷钱', '什么时候上线啊', '完整版可以看了呀', '沈腾的角色还是很好看的', '我以为是这个杀手不太冷看完也没看到扯裆镜头…', '改档期了', '2022年大年初一，提前了一年嘛？你们是过了年初一了？数学谁教的', '这蒸馏水咋一股草原味', '沈腾来咯啦咯', '难道今天不是大年初一', '神马玩意', '好家伙，这个点赞特效也太帅了', '如坐针毡，如芒在背，如鲠在喉，全片不如彩蛋好看', '演得很精彩[一起冲]', '里面还是有不少情节设计的很有趣，比如爷爷被电舞蹈，还有姐姐空中芭蕾（她最后打戏也运用了可惜设计的少。', '2分，全给沈腾，其他的一文不值，没看到制作电影的诚意！场面还是不错的，立意也很好，有家人的地方就有超能力👍沈腾现在接喜剧少了看得我好想进去体验一把拥有超能力的感觉，哈哈开心麻花演技很赞挺好的童话故事就是很好看啊你想终有什么超能力呢？我喜欢这个妹妹的大力气沈腾好搞笑啊真的很好笑，喜欢这种童话风的喜剧片，，看完一整个大开心，这就是喜剧的魅力，力荐力荐！真的又一次惊艳到了我，沈腾的戏份再多一点更完美了，真的特别喜欢看沈腾太喜欢沈腾了别跟我说像四海一样  含腾亮极低沈腾来咯啦咯沈腾的角色还是很好看的电影中的套鞋简直太帅了，我真爱了，想问哪里买的，真的好想来一双。大年初一沈腾直接两部电影春节档？超能一家人 1:47:58', '有笑点，有泪点', '开心麻花出品，必是精品', '打卡2023 12 23', '我觉得挺好看的啊 特效也可以', '还行，还是沈腾', '张楚岚爷爷重生了[666啊][666啊]', '很尴尬。。完全没有共鸣点，我反而比较喜欢两个反派，起码角色鲜明。这一家人无条件纵容主角，主角能丢下爷爷一走了之，即使明知道他离开爷爷就死了。在监狱就一回忆家人又来救他了。而且家人哪里是互相拖累了，这啥主题，家人明明是互相包容和成就。尤其那个小女孩，我真的很讨厌。我更喜欢波波洛娃，我是希望她能复仇成功的，主角拿着自己都站不住脚的道理去劝别人放下仇恨真的，可笑。当然了，也有笑点，但是不多，整体就是尴尬又无聊。', '编剧写包袱，全靠演员自己。剧情的发展煽情多于搞笑。全程吐槽没笑', '好好的喜剧片强行煽情，要搞笑就搞笑要看看以前是怎么拍的再看看现在', '真棒 和女朋友一起看的 好看爱看 我一般不评论的 我还现搜了怎么打评分 好好好 真棒', '谁敢和我斗图？', '说实话…..我觉得挺好看啊……很好笑啊', '挺好看的，看的很开心😁😁😁', '沈腾就是搞笑的存在', '腾哥在上面太搞笑了', '天吼战斗民族吗', '我看弹幕一直看到结尾，看到有人说全局没笑一次没有任何笑点，我想说那还真是辛苦您嘞，没笑点你都能看完整部电影属实厉害👍🏻', '幼稚，情节简单无内涵。', '杠杠的，很顶。演的好啊，真好看。不错，挺棒的，腾讯视频出品。开心麻花电影🎬超能一家人。【含艾伦】腾讯视频', '“郑前”     的字面意思是     “挣钱”', '超能一家人 1:17:36xsos😨😨😨😨😨😱😱', '真的特别特别好看，很喜欢这部电影！期待第二部', '斗地主赢了', '快乐加感动', '女生最开心的三件事就是：买、买、买', '看着挺不错的', '满分，能坑一个是一个', '说实话，如果不是有沈腾，这剧就废了…艾伦还是适合演搞笑角色，这部电影里他的感情戏好尬… 你说不好笑吧 还有几个点有点意思 你说好笑吧 也就那几个点而已… \n评分6.多真不是盖的… 已经算高评了😅', '6.7分是因为啥  谁能直接跟我说说', '为什么，我希望反派赢呢', '笑死人个人，看着笑着就没停过[一起冲][一起冲][一起冲][准奏]', '这是卖核弹的小女孩吧？(˵¯͒〰¯͒˵)', '我感觉这个姐姐非常的好', '我觉得挺好看的每个人的笑点不一样，不爱看的话你就别看了呗', '好喜欢！！！看中间真的好感动！！！', '好看剧情反转嘎嘎好看']</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 学爸 </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VIP · 10060热度</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>电影《学爸》片尾彩蛋,电影简介:雷大力为了让儿子雷小米能够拥有更高的人生起点，在单亲妈妈刘真真的带领下，被迫卷入了“幼升小”的激烈角逐。又在火哥和火嫂的影响下，不惜倾尽所有购入学区房，重重压力让父子二人的生活变得不堪一击。雷小米小姨的出现，又让雷大力领悟了“拼娃”的本质是“拼父母”……
+面对残酷的现实，父子的生活困境应该如何破局？几组家庭又将做出怎样的人生抉择？</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['剧本不火，是触犯了很多人的利益', '一部我不是药神整改医疗，希望这部剧整改中国式教育。', '家长为了孩子的未来拼了老命，但孩子没有兴趣，不快乐，这个竞争激烈的社会真的很现实很残酷。', '我连这部电影都要免费了再看，掏钱买什么学区房，资本家就喜欢制造各种各样的焦虑，忽略孩子的快乐才是最大的教育失败，孩子平庸无所谓，平安就够了。', '那些说外公来的时候就该让孩子跟着走的，真不知道怎么想的，如果可以，谁不愿意把孩子留在身边，孩子就是宁愿跟着你吃馒头也不愿意跟着别人吃肉的，孩子也感觉在你身边有安全感，就因为觉得肉比馒头好，就应该逼一个不喜欢吃肉的人去吃肉吗？', '我是一名老师，是一个民办贵族学校的老师，我看的时候真的深有体会。很多父母其实条件并没有那么好，但是还是拼尽全力把孩子送到这里来读书。其实有时候孩子并不适合这里的教学氛围，虽然聪明，但不开心，他们的成绩自然会越来越差。家长们就会很焦虑，觉得我们花这么多钱把你送到这里来读书，你还不认真，不好好学。然后就会更逼孩子，让孩子在学校也有压力回家了还要被父母逼。他们的身心疲惫，很痛苦。其实我觉得适合孩子的才是最好的。', '上学这么难，电瓶车只允许带一个小孩，国家为什么还提倡生二胎三胎，很矛盾吧', '不能宠坏孩子，也不能把我们的想法强加到孩子身上，就这样挺好！', '中国式教育：你知道的他也知道，大家学习的都一样去补习班他也去补习班，父母一切说为了孩子，可没问孩子是不是他想要的，孩子帮父母考上了清华，孩子跳楼遗书里说：为你们考上清华了，太累了一直按照你们的为了你好，物质很好精神崩塌。\n中国式教育：教育社会及制造业需要的  听话的雇员，工作，消费，消费完，工作，消费，消费完，工作。 循环。\n你问他们长大了要干嘛？找份好工作  赚钱 消费  消费完  赚钱  消费  消费完  赚钱', '我们都要学会接受自己的平凡与不平凡，因为那才是生活。', '￼我很喜欢黄渤，这个演员，很接地气。真实不做作，影片值得一看', '学区房贷款，物业费，高昂的 补课费，生生压垮了8090后', '所有人都在跑，我不敢停', '这部电影应该很有教育意义！值得看', '腾讯你是怎么觉得是喜剧电影的！！！！！！', '本来养娃就焦虑，看完更加不好了', '我花80万给小儿子买个学区房，现在天天班级倒数', '中国式教育就是这样 孩子从上幼儿园就开始学 各种作业 老是每天把作业发到手机里 家长成了孩子的老师 试问如果家长文化程度低 留守儿童 老人不会弄手机怎么教孩子 为了孩子能上好学校连夜排队 学区房 各种补课机构', '让我看看，好不好笑', '农村读书也不错', '￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '现实更残酷，电影最后还要找补点美好，从根本上想解决大环境，🉐有双宏观控制的手，如果不控就是越来越多人清醒的不结婚不生孩子。这是最悲哀的无声抵抗这充满套路压抑的生活', '支持黄渤，不能错过！', '电影《学爸》的片尾有句话“你不一定满分，我一定爱你”。这句话表达了父母为了孩子可以不顾一切，但孩子不一定快乐', '很好！！！！强烈推荐', '黄渤演的我都爱看！喜欢！一定很好看～', '哇 ！终于熬到新电影免费了[666啊][666啊][666啊][666啊]', '其实父母都是为了孩子 谁不想自己的孩子好', '四川 来了', '小时候开心了，后半辈子就难过了', '不能怨家长让孩子各种补习班，是社会出问题了，不学根本就什么都不懂跟不上', '看到16分23秒，看不进去了。不是电影不好，是自己不喜欢这种题材，且看起来太压抑剧情的片子。而且前面的镜头换来换去，晃来晃去。真的晕了。尤其是在黄渤被打流鼻血，和另一个店员聊天那一个片段的镜头切换，视觉感受非常不舒服。', '建议取消英语改成中医', '不是孩子的错，也不是父母的错，只是在这个社会我们都身不由己，致自己吧', '影后观感，平庸的父母，接受不了孩子像他们一样平庸', '我已经研究生毕业了，可是我还是怪我爸妈当初没把我送到市里去学习，都已经30多岁了，还是怪他们，所以我送我孩子去市里学习了，我不想让她怪我，至少这点上，我不想我愧对她。[蹲]', '夫妻俩唱双簧呢', '广西了来看看', '现实比电影更残酷', '领导问题', '中国教育的失败，令人痛心，我是名学生，我深知中国教育的黑暗，若能用我的命换中国教育的光明，死也知足', '升华了    真的不敢要二胎   别说好的教育   就连普通的物质生活都是拼了命的去满足     真的希望国家能去重视教育医疗这一块儿的弊病    最后祝愿自己的祖国越来越好', '看完只配说呵呵~不知道从什么时候所谓的九年义务教育，已经变成了家长的焦虑，孩子的噩梦，就拿我家侄子来说，他上高二，没有童年，只有充斥在生活中的各种补习班，就这他还没有那么多的兴趣班，看着他的近视镜，还有头上的白发，好心疼，他还是个孩子，大学，高等教育，什么时候变成吃人的魔窟了，选个专业都给请人来分析，不知道应该说是社会的悲哀，还是教育的失败，所谓的双减，所谓的分流，只不过是让普通人认清自己的阶层，承认自己的平庸，可即使是这样，我们的父母也在尽自己最大的力量给我们最好的，当然，如果可以忽略职场的阶级性，职场的无形霸凌！', '电影在呈现教育焦虑问题的同时，也以幽默的方式点亮了剧情。导演巧妙地运用川渝方言和和谐的幽默，让笑点与泪点交织在一起。黄渤饰演的爸爸在带娃过程中的种种奇葩经历，总是能够触发观众的共鸣，同时也传达出关爱孩子、包容孩子的情感。[送爱心]', '挺好看的，可能接近现实吧，不过我是在农村长大的挺好的，没体会过😂😂', '8090后疯狂的玩，也没耽误扛起国家的重任，为什么要让现在的孩子这么累，孩子快乐比什么都重要！', '不觉得好笑，中间好几段很让人生气，结局是好的，但是又感觉不真实', '很贴近现实，电影拍得也很不错', '27了  不结婚不生娃   3个女朋友     我搞不懂你们   结婚生娃的意义在哪', '现在的社会真的就是这样，父母希望孩子起点高把所有的希望寄托在孩子身上，但是对于孩子来说每一步更需要他们自己脚踏实地走，父母在旁边提点即可！让孩子们也享受自己当下的人生吧！[一起冲]', '这电影告诉我们别生孩子，不能让资本得逞', '看完电影，默默把对象删了，不祸害姑娘了，以后不会拖累儿女', '学区房，兴趣班，，，你们品，细细品！以前不是种个地都能把孩子送进清华北大的吗，那个年代的教育相对来说多纯粹。现在的教育模式培养的都是个啥？我就问问你们有些家长，你们家孩子在这个当下，学习效率如何？孩子有没有厌学症？孩子视力怎样？最后，家庭和谐指数怎样？统统乱七八糟！', '以单亲爸爸为小升初儿子找重点小学为切入点，通过讲述单亲爸爸凑钱买“学区房”、为上“户口”临时结婚组家庭、给孩子报特长班、练习孩子英文口语等各种方式方法，现实的批判了当前小孩子的升学压力以及当代普通父母为小孩升学的压力窘境。家长的反思，孩子的努力，双方共同成长并拒绝内卷追求童心。电影取自现实，升华现实，有笑点有泪点，展现现实生活无奈的同时，突出每一位父母对儿女的迫切愿望。片尾针对学区房、特长班等学业压力的法律法规指导办法，是电影的亮点，我想也是电影传达的教育意义。最好的并不一定是最适合的，是金子在哪里都会发光，共勉。彩蛋里，教育资源对农村郊区学校的倾斜使得家长留下来，孩子还保持童真与快乐的学习，有时候教育资源的均等化是改善升学教育难题的关键。', '现在还有想结婚生孩子的吗，房贷车贷，补习，还有很多补习班，孩子累，家长更累，', '新川外国语学校', '河南南阳的来报道', '好看，受益', '我是一个三岁孩子的妈妈，自从生了孩子，现在生活过的也不好，身体也不好。生孩子不是简单的事，真的很难很苦。', '会泽陪一条[666啊]', '中国教育问题已经很严重了', '很棒的电影！\n        我是一个初中孩子的妈妈，为了孩子我和孩子爸爸付出一切，就为换来一个所谓的乖孩子、好孩子、成绩拔尖的孩子，但是孩子给我的是什么？沉浸在手机中不可自拔，害怕去学校、不想上学。我自问我对孩子不好吗？但是一路走来的艰辛让我明白了一个道理：“不是我对他不好，而是扭曲的爱让孩子感到压抑、与束缚。我忘记了孩子的人生需要他自己去一步一个脚印的走出来的。”小米说的对——谁说只有鲤鱼跳龙门，土泥鳅也能坚韧不拔的打洞钻龙门。\n       此时的我只想给有同样感概的父母说一句——他若优秀，便报效祖国；他若平凡，便承欢膝下！孩子的心理健康、身体健康才是最重要的，成人才可成材！\n       感谢《学爸》让我悟了很多，懂了很多。终于我坚定的迈出了第一步，让他选择自己喜欢的学校。与《学爸》同款，非常棒的学校！\n        奔跑吧！少年，无论前路漫漫，我和爸爸都将是你永远的依靠……', '我不想给我儿子报补习班，只要完成课堂作业就行了，不想逼他，不想让孩子压力太大，现在好多孩子抑郁的，太可怕了', '看完电影后就觉得，中国式父母，真的好卷啊，为了孩子，太感慨了，最后上国际学校那段，隔着屏幕都觉得，现实好残酷啊，没有能力就只能释怀，顺其自然放过孩子也放过自己\n', '很多年前我就承诺过，我绝不会在中国这样的国家生孩子。', '广东韶关的有没有', '还可以哈，不错哈', '为什么为了上某一个学校而去买房，还是因为国家教育资源分别配不均，现在上学很简单乡镇也可以，但为什么不去呢？资源不同教育水平不同', '好看好看，真的太有寓意了，值得看！！！', '填补了现实里没有的', '上帝给我一个任务\n叫我牵一只蜗牛去散步。\n我不能走太快，蜗牛已经尽力爬，\n为何每次总是那么一点点？\n我催它，我唬它，我责备它。\n蜗牛用抱歉的眼光看着我，\n彷佛说：“人家已经尽力了嘛！”\n我拉它，我扯它，甚至想踢它。\n蜗牛受了伤，它流着汗，\n喘着气，往前爬…\n真奇怪，\n为什么上帝叫我牵一只蜗牛去散步？\n“上帝啊！为什么？”\n天上一片安静。\n“唉！也许上帝抓蜗牛去了！”\n好吧！松手了！\n反正上帝不管了，我还管什么？\n让蜗牛往前爬，我在后面生闷气。\n咦？我闻到花香，\n原来这边还有个花园，\n我感到微风，\n原来夜里的微风这么温柔。\n慢着！\n我听到鸟叫，我听到虫鸣。\n我看到满天的星斗多亮丽！\n咦？我以前怎么没有这般细腻的体会？\n我忽然想起来了，莫非我错了？\n是上帝叫一只蜗牛牵我去散步。', '勿忘国耻爱我中华致敬英雄', '自己当爸爸了，才知道小孩多难教，两个儿子都我在教，每天都气个半死。太难了，没有那个经济去攀比，过好自己就行了，成不成才无所谓，长大别学歪了我就满足知足了。', '老百姓的思想就是天真，会几句鸟语就能上天？不在城市生活根本不懂城市的险恶', '认不清自己的实力，老丈人的话也不听，一直白忙活，结局也挺扯谈。国际双语贵族学校会因为父慈子孝而让你通过？教育也是阶级固化的一种体现，普通人也别妄想通过好的学校来鱼跃龙门，可以追求好学校，但别太i离谱，普通的学校总得有人去上，平凡的生活总得有人去过', '演的不错，一步一个坑，坑完还没用[斜眼]', '真受不了这川普', '现实  力推', '在我没看电影前 其他平台对这部电影的评价都不算好 但是在我看了电影之后 所接收到的情感表达 故事的叙述都很好 已经可以排在靠前的位置了 唯一不足的一点 那也是我在挑刺了因为需要演这样一部电影小主人公已经很不错了 非常好的电影推荐[握草][握草]', '我终于等到了', '一部药神、一部学爸，道出百姓医疗、教育的辛酸与无奈……', '被资本绑架的国家，注定没有出路', '把农村的教育和医疗全部赶走，逼着把人往城市赶，可房价教育医疗三座大山压死多少人，提幸福感就是扯淡，活着都是不易。', '看了半天是想叫没有能力给孩子提供好条件的家长躺平呗！告诉普通人不要和命挣，顺其自然。为什么老要叫老百姓改变呢？社会制度不能为了老百姓改变吗？教育资源不能向老百姓倾斜吗？', '很好看，很现实。我现在还没结婚呢，今晚跟我对象聊以后，他也提到了买学区房，然后我点进腾讯就看到了这个。哎，没结婚压力大，结了婚压力也大，现在的小娃儿也压力大，上不完的补习班，写不完的作业。', '社会缺乏公平\n从娃娃已经开始了。', '现在的小朋友压力真大，为什么会变成这样子？\n教育改革迫在眉睫。', '这个电影有一点好笑。', '万茜演的不错', '欠渤哥好几张电影票了']</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 哪吒之魔童降世 </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VIP · 10037热度</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>《哪吒》哪吒敖丙仙魔互助逆天改命，成就今夏最强CP,电影简介:天地灵气孕育出一颗能量巨大的混元珠，元始天尊将混元珠提炼成灵珠和魔丸，灵珠投胎为人，助周伐纣时可堪大用；而魔丸则会诞出魔王，为祸人间。元始天尊启动了天劫咒语，3年后天雷将会降临，摧毁魔丸。太乙受命将灵珠托生于陈塘关李靖家的儿子哪吒身上。然而阴差阳错，灵珠和魔丸竟然被掉包。本应是灵珠英雄的哪吒却成了混世大魔王。调皮捣蛋顽劣不堪的哪吒却徒有一颗做英雄的心。然而面对众人对魔丸的误解和即将来临的天雷的降临，哪吒是否命中注定会立地成魔？他将何去何从？</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3分</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>动画</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['狗狗们也太可爱了！[打call了]', '除了字音以外，汪汪队，是好看的，一部值得推荐', '汪汪队离大谱', '啊啊啊啊真特么可爱', '这种电影对于高中生来说可能有点幼稚，但是对我们大学生来说刚刚好', '先踩一下，熬到免费', '小孩喜欢看', '28看这个正常嘛', '丶，在干什么呀？', '天天都是我的错了。吗你', '最喜欢啦。', '哈哈哈哈哈这套衣服真的太忙了？！哈哈哈哈哈哈哈哈😂？哈哈哈😆？', '想知道天天当时在想啥😂', '每个画面都非常惊艳，非常好漂亮', '噜啦啦噜啦啦金海湖u：', '也？▽不白问', '是汪汪队立大功，加了个光影吧。', '我六岁都', '这一个电影一开头融入了多少动画片啊。？', '我27看这个幼稚不', '汪汪队立大功大电... 03:45还是那6只狗狗。不过有点不同', '对了你们的聊天记录了，，，，，', '画质好了，头发都快没了[破防][破防][破防][笑哭N]', '咯👂她她物业物业', '                                       请问他们 是怎么从大楼里出来的  ', '英雄不是无所畏惧，而是即使害怕也能克服并勇往直前', '？？？？？？？？？？啊奇怎么了……', '我好无语啊', '而且你要加油呀', '笑死我了哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '总结一下，汪汪队这些年来的成员：狗狗成员应该有阿奇，小砾，路马，天天，毛毛，珠珠，小克，灰灰，贝贝，还有一个猫咪成员：野猫。【本人总结出来的如有遗漏，可以评论告诉我】', '精灵太美了', '他们的级别高不高级？嗯，我感觉有点高级', '就有六个狗狗，不过这些狗狗也太可爱了', '晚安！槟榔大队。', '莱德看着没成年 但是他已经成年了 只是身高定格了', '汪汪队立大功大电.汪汪队长', '看我空間啊', '汪汪队拯救城市', '我也喜欢听普通话的。', '我的生活居然连狗都不如 狗都开超跑', '很好很科幻', '咋下来呢？', ' B你好啊', '阿奇最后从这里跳到那里', '阿奇的吃车里还有电动车', '你却定是烟花不是炸弹', '我也7岁', '好喜欢看汪汪队呀，我都成年了还看', '谁懂，阿奇小时候，天天小时候还有毛毛都好可爱！！！！', '旺旺队，旺旺队，我们都是土匪，左手拿着ak，右手拿着嘞白泉，去超市抢劫，晚上就做贼。', '阿奇不配做队长', '反正我觉得挺好看的，就是不太喜欢贝贝当上汪汪队队员，嗯嘛嘛，不过当上就好好待着冒险城帮助人们吧', '阿奇好勇敢', '不会就我觉得毛毛好可爱吧？', '来看看哭好几回', '我的长的路龙监控看到第一家朴三秦', '好朋友在北京市', '不对了我自己可以去', '我们自己可以去看看这个电影', '我一直以为这动画是中国做的', '阿奇，怎么这样子啦？', 't⊙ω⊙⊙ω⊙⊙ω⊙', '微信 谷歌汪汪队 ？？？？ ？丿', '今天上午去的地方太远了？', '我在这个地方是天天说我有一个破家之后，他他看到雷子给给别人送东西，他天天就跟着来就来得，这次发现了。', '你们谁有会员', '一长一短全如1⃣️他', '#薛皓文#cv76*gghhuipllkkkyyddqqscttyiijhyttrwqqqaaaa❤️❤️❤️❤️😄😄😄🤣😇😍😍🥸🤪🤪😭😭😭😒😒💁', '不知道为什么', '❤️ (  ⚫︎ー⚫︎  ) balalala~\n\u3000／\u3000\u3000\u3000   ＼\n  /\u3000\u3000\u3000  ○  \u3000\\\n/\u3000 /  \u3000\u3000    ヽ   \\大白\n|\u3000/\u3000 \u3000\u3000\u3000  \\\u3000|\n \\Ԏ\u3000\u3000\u3000\u3000     Ԏ/\n\u3000卜−\u3000\u3000   ―イ\n\u3000  \\\u3000\u3000/\\\u3000   /\n\u3000\u3000 ︶\u3000   ︶为你加油！！！！！！\n\u3000☆  *\u3000.  \u3000☆\n\u3000\u3000. ∧＿∧\u3000∩\u3000* ☆\n*  ☆ ( ・∀・)/ .\n\u3000.  ⊂\u3000\u3000 ノ* ☆\n☆ * (つ ノ  .☆\n\u3000\u3000 (ノ♪ 加油加油! ♪\nミ ゛ミ ∧＿∧ ミ゛ミ\nミ ミ ( ・∀・ )ミ゛ミ\n゛゛ ＼\u3000\u3000\u3000／゛゛\n\u3000\u3000 \u3000i⌒ヽ ｜\n\u3000\u3000 \u3000 (＿) ノ\n\u3000\u3000\u3000\u3000\u3000 ∪老\n\u3000板\n\u3000\u3000说\n\u3000\u3000\u3000今\n\u3000\u3000\u3000\u3000天\n\u3000\u3000\u3000\u3000\u3000放\n\u3000\u3000\u3000\u3000\u3000 假\n\u3000\u3000\u3000     ！\n\u3000ヽ＼\u3000 /／\n\u3000 \u3000 ∧∧\u3000｡\n\u3000 ﾟ (ﾟ∀ﾟ)っ ﾟ\n\u3000\u3000\u3000(っﾉ\n\u3000 \u3000\u3000`Ｊ✨  ︵ \n("\\(●-●)\n \\ /     0\\ \\\n  (          )"\n  \\__T__/∴＾小狗狗真棒，我爱你', '看到最后我哭了[意难平][意难平][大哭][大哭][大哭]', '勒沃库森看电视', '这桥断了，他也走不过去。嗯，这个狗是不是他已经过不去了哦？我看过他好像他好像从锁上都过去了', '我我马上结束开始思考', '天气这部分不是借鉴天降美食', '这有点不科学 那个那一集的时候不是不能摸 我不用玩 为什么他摸了 ？', '对了，你了吗？？', '那时候才把汪汪队一大功之超能冒险也完全上市', '剧情很不错。值得推荐', '我看这个合适吗？9岁', '玫瑰花香和我的每生一个都一样是一个配吗？这一头乌龟怎么能知道中的。 是站在广德', '李冰冰后悔h', '就5了5了5了', '果然像马桶刷，哈哈哈', '哈克萨斯孔雀舞', '果然像马桶刷', '刚刚太好看了', '好像是小黄人\n这个电话很好看的呢', '♥加油 加油 阿奇 阿奇 阿奇']</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 碟中谍7：致命清算（上） </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>VIP · 10243热度</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>《碟中谍7：致命清算（上）》“生死时速”特辑震撼来袭，阿汤哥真人实拍上演街头单手飙车,电影简介:《碟中谍7》是《碟中谍》系列的第七部，是由克里斯托夫·迈考利执导，汤姆·克鲁斯主演的动作电影，将于2021年11月19日在北美上映。</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.8分</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>动作</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['从第一部追到第七部的举个手，看看有多少人👀', '最喜欢白寡妇，她活肯定很好！', '天呐还有下集😮\u200d💨', '感觉女主一直在找死，男主应该第一时间弄死她，后边也没那么多事了', '阿汤哥骑摩托车跳悬崖那段，据说没用替身，自己练习了很久，太拼了！', '没有杰瑞米班纳了吗？有一点点失望', '最惊艳的是第四部 炸克林姆林宫，爬迪拜塔', '007退休了 碟中谍还能爬', '你们不觉得两部电影之间有某种联系吗[放大镜]哈哈哈哈哈', '这是世界强国？但是不包括中国？', '阿汤哥就是美国🇺🇸的成龙！！！👍👍👍', '四块八值不值？伙伴们', '不论情节如何，这种毅力先赞一个', '第一部1996年      第二部2000年      第三部2006年      \n     第四部2012年      第五部2015年      第六部2018年      第七部2021年', '速激10也是在罗马。你们两波人没有联谊一下子啊。😂', '超级喜欢这个女反派，上一部就喜欢她，感觉很适合这个角色。', '如果是我们中国小鲜肉，除了老演员 有哪个小鲜肉敢这样子？真实的在行驶中的火车顶上拍摄', '碟中谍7什么时候放上网', '终于等到了 ', '太精彩，太刺激了', '最喜欢的国外男演员没有之一！', '估计最后一部了吧', '烫老59岁了啊还那么牛逼', '听说要上太空', '2023年才上映，耐心等待', '比凯奇 厉害多了。一直在坚持拍，加油', '什么时候上演我只关心这个', '丽贝卡佛格森是不是在这一季要牺牲了？', '最终大老板总会变坏，第一部菲利普如实，第七部前局长如实', '这配音，一言难尽', '太落后了。连个配钥匙的都没有', '这一次看为啥觉得男主角这么蠢呢？Grace坏了这么多事还差点杀了他，竟然还护着Grace，早点搞死后面就不会这么多事了…', '用不着那么费事，去58同城找个开锁师傅，给他照片就能配出来。', '为什么国外的能拍到1234567，国内的不行啊，', '这部电影，让我睡着了两次。碟中谍系列，到此为止吧', '什么情况？简介上写的北美上映时间是2021年11月上映？是简介错误还是引进错误？不可能倒时差要倒这么长时间吧？有人可以解惑吗？', '应该是在皮卡多', '沐蕾之声[666啊]', '近年难得能看进去的美国大片', '换个杨幂上去', '偷钥匙的那个女的真想打死她', '都21世纪了，美国脑子里装的还是殖民主义奴化思想', '大战人工智能，选题一流，过程精彩，但结果显然让人失望。', '只是要是汤姆哥的电影，不管多少钱，我都会充会员看的', '潜艇沉了还有电吗！不切实际。', '配一把钥匙这么难么，十来块钱就搞定了吧，还需要飞机大炮？[笑死我了]', '这种子才好看刺激，还是国外大片精彩刺激，中国始终拍不出这种效果。', '下部那里能看', '故事不严谨', '就讲了一个道理，不能随便相信女人', '三颗星给阿汤哥60多岁拍片。\n另，想了解其他观众的观影感受，与其看评论，不如打开弹幕，前前后后翻翻来的真切。\n7的想象力不足，逻辑性太差。抑或是由于想象力不足，导致本想无脑看爽片的我，无法沉浸看片，不由自主的开始思考剧情。\n全片全三分之一尚可，智体前段也算有高光，后续智体挂机，只剩下了追抢钥匙的环节。\n具体槽点较多，不一一列举了。\n另，对于弹幕中诸如“要求这么多，去看国产片啊”之类的言论，太过幼稚，过去好莱坞受欢迎来源于其高质量，在电影行业绝对的统治力。现今需要拿这两者比较，只能说明你自己也知道好莱坞已经不复当年了。', '我是不是成功熬到了它免费？', '以前看电影看到这些觉得是科幻，现在已经不再是科幻电影，感觉就是未来，人工智能已经不是机器，以后真会经历这些风险', '一意孤行最可怕', '这么精彩的电影！怎么能放过观看呢？太帅了！', '怜香惜玉得过份了，害死了自己的同伴', '这咋没见人说开车不系安全带', '真的刺激，这才是动作大片，国产电影得学', '美国大片', '傻女为什么跑，不能理解', '美国才是全球最大的恐怖分子，在电影上总把自己说得正义', '值得观看！值得期待下一部！', '看普通话版本会不会被嘲笑😝', '要我给钱才能看门都没有', '看过就忘，但每次看都很过瘾', '居然有田口的😀😀😀', '特工开纯电宝马！过分了啊！！', '4.5贷款以还清！', '这些警察都不拔钥匙啊', '老外的行李箱都没密码啊，直接拉链一拉就开啦', '汤奔跑的速度无敌了。还是那么认真。', '没一点新意', '还好有普通话，这钱花的值', '就是原声的才舒服  虽要看字幕  国语版太那个了', '这部是不是潜在里刚好在说AI智能和人类的关系呢？A及运用的好对人类有好处，要是让他们自己成为超控自己的，反而很可怕，离得的AI各个国家又都想要，成为自己称霸的工具，但是AI智能会这么容易被控制的吗？', '我是VIP', '碟中谍8：致命清算下 估计要2026年才上映去了', '女主很漂亮[狗头]', '会员在这里看的话也还可以。去电影就更有视觉咯，剧情一般', '很好看 美剧看起来还是一如既往的有感觉', '人工智能终将吞噬一切，现在的大数据只不过是暂时可控的而已。', '★★★★★\n阿汤哥的碟中谍真是太经典了，每部都是佳作，百看不厌。', '很精彩。好久没有看到这么精彩的谍战了。', '主角光环严重了一些', '小偷女存在的意义何在', '美国佬的思维。。。已经是最影响观影体验的因素了。', '有四川的不', '阿汤哥已经打不动了，好莱坞的套路一模一样看得遥遥欲睡。', '蹲个聊天搭子有没有', '看完才发现有普通话的[大哭]']</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 匍匐求生 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>VIP · 10185热度</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>生猛悍匪入室打劫，痛下毒手狂殴爆头,电影简介:一名男子在一间小屋里目睹了一起残忍的谋杀案后，躲在狭小的空间里，而凶手则在屋内搜寻隐藏的财富。当凶手越来越近时，他必须决定这个狭小空间是他的坟墓还是他为生存而战的战场。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>惊悚</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['铜仁的小伙伴有没有[666啊]', '成都的举手🙋🏻\u200d♀️', '女主得劲', '这剧情紧凑  真可以呢！[一起冲]', '以钱开头以钱结尾', '松柏欲盖弥彰', '遂宁的小伙伴有没有', '有没有小姐姐在看', '剧情单调，低智商犯罪，像小孩子玩家家', '兰州的举手🙋', '宁夏的有没有', '悬疑惊悚的普通剧！', '出来聊天了', '有没有人在？', '喜剧吧哈哈哈', '悬疑题材不错', '英语34:30好不好看啊', '现在没什么好看的电影', '跟喜剧片似得哈哈哈', '恐怖片的主题是不是都一样 就一个字 黑 黑灯瞎火好办事', '人很少哦，留个足迹\n', '卡丽漂亮', '有电脑没有手机？继续往下编。', '一个房子一部电影', '？怎么没人', '有点像《战栗空间》', '来了来了。', '这得仔细看，不能跳着看😂😂', '不知道好看不', '正片开始', '真心不错，就是不好', '留个脚印👣', '我是第7[柠檬精]', '蛮好看的', '不错 不好看', '山东省临沂市兰山区来报到', '是这样查税务的？再继续往下编。', '别浪费时间了', '人在广东漂泊十年的🙋[金币]', '美国光头强砍树剧情', '居然是恐怖电影对我的口味大晚上看[吃瓜N]', '不错，不好看', '不错  挺好看[富翁]', '广西 站位', '人这么少']</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 卧鼠藏虫 </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>10154热度</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>卧鼠藏虫：霸道总裁沦为最惨打工人，他还能否揭开迷雾重掌豪门,电影简介:影片讲述了失散多年的双生兄弟在企业抢夺战的反向推动、血脉亲情的感召与国际大案的卷入之下跨国重逢，在身份对调被识破后，兄弟俩统一目标，并肩作战对抗幕后黑手，赶走阴霾重新开始美好生活的喜剧式励志故事。</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.7分</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>喜剧</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>['看完感动的稀里哗啦的', '我名字叫郭浩', '和崔志佳怎么差这么多', '哭的稀里哗啦的', '大东北真的是鸟大了，林子都装不下《东北警察故事》《这个杀手不太冷静》《猛虫过江》《卧鼠藏虫》《我不是酒神》《你好，老叔》《锤神》…………', '笑死我了', '这张很明显不是一个人', '个人觉得评分应该在8.2以上', '这是谁啊🤣', '中国电影', '从头看到尾，看到了文松的用心和认真，感动', '小米广告', '没经历过此事的人根本不懂，挺不错。', '支持一下，主要导演比较爷们', '拍的挺好，个人比较喜欢。', '好一句“虽然隔着海，但我们是一家人”', '看的我云里雾里的，还是那个告别天团好看', '在平凡的岗位上致敬不凡，他们一生择一事，以匠心追求极致。这份用心，值得致敬！祝大家五一劳动节快乐！', '2022.5.3号疫情期间在隔离 就喜欢截屏 喜欢你演的每部剧 好看 同意的赞起来 ', '统计局投资。', '值得一看,非常精彩\n', '这是今年看到的除东北告别天团第二部精彩的电影', '被人砸晕扔海里还能活，😂', '拿一个小学生跟大学生比较文化程度，这很不公平。文松是喜剧人，他想做点自己喜欢的事，是挑战是学习。已经很不错了，不出戏，不像小品。演员不用师兄弟，是怕观众觉得怎么看都像小品。之前中心也是反应出国务工的安保，也是一种正能量。东北告别天团也很好，那是情怀，这是小众的调调。都很喜欢，加油！', '剧情挺饱满，但是多少缺了点味道，不过比很多为了搞笑而搞笑用力过度的电影要好，没有过多笑点，却能一直保持观众轻松、向往和期待的情绪，比较清新的轻喜剧。演员的演技很好，而且很多表演细节还是很到位的，是一部比较完整的作品，值得看。', '这部电影可以影院上映啊拍的真好是真好\n', '97年我三岁', '为什么我看到的是志愿军的封面啊？不能瞎搞哦', '电影都不审核吗？什么片都可以', '蹲女朋友', '代乐乐？是代乐乐吗？', '我不是VIP，直接看了', '这也太感动了。', '我喝了5瓶啤酒看完这个高质量电影', '弹幕带色吗？', '没看懂这片电影', '这个电影好好看，绝了！', '什么v几', '这都不是事儿', '我是V几呀', '河南人处个对象', '留个言2023年11月 16日祝自己一切都好', '烂的出奇，剧情烂，打戏烂，表演烂', '拍的太好了，下次别拍了[笑哭N][笑哭N][笑哭N]', '来包十句', '97年抽相思鸟', '我是v几啊', '为啥排第一？', '以假乱真了', '什么玩意儿这是', '留个言2023年11月20日凌晨3:19分 希望自己越来越好顺风顺水前程似锦', '张少辅我爱你！', '有哪些兄弟是看小视频过来的🤔', '背景音乐太吵了', '前几天在学校看的，然后没看完到家看  真的很好看', '用的什么发胶发型都不会乱', '甘肃人处个对象', '难得看到文松正经的时候😃', '为什么蓝利群才十六块', '评论区比影片好看[大哭][大哭][大哭]', '都不要会员 偷摸看去吧。还评价', '头不是头，尾不是尾', '感觉剧情很下饭 根本想吃了饭看 结果看入迷了，太好看了', '爱德华的妹妹真人名叫啥啊', '喜剧，凑合着看吧 打戏可以跳过', '想找个瑟瑟的男朋友', '没看，先哭', '虽然有一点点剽窃的嫌疑，但有自己的故事，也很感人[打call了]', '这个年轻人没救了', '标准的 小型黑中介！上车，留下证件！发走…\n可惜没 体现出来…', '这个电影好看吗？', '看完了，还不错哦', '留个言2023年11月 12日祝自己一切都好', '穿帮了吧[狗头]', '有些人评价别人之前也不看看自己什么角色', '真好看谢谢', '云南的来个女朋友吧.202312.7', '男，93，石家庄，找个对象', '泊头火柴呀', '我是老实人你们别匡我', '就我看的最晚', '这个电影就像山东威海，荣城那边的一样！希望有关部门去山东调查', '那年代有阿萨姆？', '有没有新疆的？', '太感动了！', '太搞笑了', '我又不是兽医', '九七年用手机抽十元的烟应该也是大款了', '第一次哟，可以了，还不错，', '有点东西']</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 劫数难逃 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>VIP · 10167热度</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>《劫数难逃》主创演员：张继聪采访,电影简介:本片讲述的是在1995年，香港商人孙逸臣出差时蒙冤入狱，在鱼龙混杂的异国监狱中挣扎求生的故事。</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.3分</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>犯罪</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>['监狱里面不是应该非常严密吗？这样都能计划逃出去', '现在电影越来越长，怎么这90分钟都不到，是审核删减还是。。。。', '逸臣这是有多么幸运，才会遇到一个有良知的狱警啊', '2023年拍的大电影了，有多少人看过，帮忙点个赞，谢谢，一共是1小时多分钟', '看了这部剧百感交集，这是我第一次评论电影，本科退学后送外卖的我如同电影里的主人公，只有真正经历过这种落差才能体会那是一种怎么样的感觉，什么样的生活。\n看完后我得到了鼓励，参加成人高考，看着很遥远的目标，但是正如剧中说的一样，不努力尝试怎么知道不行，坚持不懈肯定会成功，与君共勉！', '我觉得监狱长才是最可怕的一个人，根本不在乎生命', '有点像肖申克的救赎', '电影：男主被冤枉进监狱，后面为自己上诉不成功，便和其他人越狱，途中有人越狱被狱长枪毙死了，有一个投降，另一个男主出狱成功，之后有一个看管犯人的狱警被开除了，做起了律师，男主角找那个狱警打官司，光明正大的无罪释放了', '最后环节，逸臣在水牢里装扮好直接出去了，怎么能见到五仔告诉逸臣司徒的钱在那这个事', '记得当初因为停车位我一打三，最后的结果就是被关一晚上！这还不是看守所，只是被关派出所！里面关的啥样的人都有，奉劝各位千万不要违法犯罪，老实本分做人', '所以，跑了又主动自首。太正能量了吧，比肖申克的救赎更🐂🍺', '这个故事告诉我们一个道理，那就是会一门手艺，走遍天下都不怕', '那个典狱长真的是太坏了光看他的面相就不是啥好人', '原来监狱中，烟才是硬通货，看来下次我进去的时候，要多准备点了', '这导演拍的  死者下体的污责没有DNA比对吗  就叛无期', '就是说被逸臣的智商给折服，看看这周密的计划就是万无一失', '五仔肯定是个销冠，就这商业头脑不得不服啊哪里都能赚钱', '监狱中就是一个魔窟啊，我们可千万别犯事，不然进去绝对脱层皮', '最喜欢的就是这胖子了，这家伙这么多年了还一直这么胖', '这样恐怖的地方能够待下来大家的毅力也是有点强了', '刚从莫斯科过来的有没有', '翻拍肖申克的救赎？', '还是这部好看😊', '肖克的救赎盗版', '一个女人，真的熬不住了，说得好啊', '劫数难逃（普通话... 17:36杀人，死了', '张继聪上一部电影:坐牢是香港年轻人唯一的出路', '吾拍抖音晒游艇，来拍戏啊', '照抄肖申克救赎没啥意思[我裂开了][我裂开了][我裂开了]', '中国版肖克申？', '很多人聊监狱聊狱警，其实现在的监狱居住环境比很多老的大学都好，伙食超过我们县城90%的家庭，警察也很好', '三年的会员，没试过被赞的感觉', '￼最触动我的就是明明无罪却会因为越狱加刑，这个我年轻几岁一定看不懂，可我现在真的是懂了，没有犯罪却因为越狱而加刑，没有犯罪却在牢里待了五年多，没有犯罪……莫须有，然而这就是法律，这就是现实……', '很好看真的是高知越狱', '如果不是自己越狱找线索呢？', '有点高开低走的感觉 后面最后莫名其妙 有些太梦幻了', '我爱小锤', '整体来说可以的，主角是个文化人也是个技术人', '什么玩意', '好电影，愿天下少一些特权！', '8.3不知道怎么来的，，，，，', '中国版《肖申克的救赎》', '对这肖申克跟速度与激情抄', '国产电影能到这个水平也算上了一个档次', '大淮南顶上去', '睢县廖提路过', '没头没尾', '这不是日本男演员吗，多少男人的目标。', '我没看懂什么意思', '最终成功越狱的竟然是逸臣，厉害了！', '看完这个电影只能说社会太黑暗人心太险恶，法律只是约束弱者，即使你正义了，也是迟到的公平', '什么破玩意', '逻辑性太差了，光天化日宾馆破门犯案，动静这么大整层楼应该都惊动了，得在当日有多大力量才敢这么干，有这能量的人还能让宾馆留下监控视频？两个人搞那么大在现场不可能一点痕迹不留，能让警方无视证据直接判你入狱，现在就一个门口监控就能翻案了？胡警官品性跟监狱其他所有人都格格不入，靠什么呆下去还能职级比别人高的。孙逸臣越狱，五仔被卖了一次，不让老婆直接去拿钱，还一定要转告给孙逸臣，他老婆靠什么去找人。全剧貌似把精力和脑筋都用在孙逸臣的越狱方式上，其它地方的逻辑漏洞多到吐不过来', '还是被关了五年多，多冤枉啊，其次，开头那两个杀人的原因也没有说明，这点也算是败笔', '非常一般', '请问扎多尔共和国在哪个洲？我在地图找半天没看到，难道是火星的？你这是科幻片？胡说八道的地名你发明的？', '天下万物生於有，有生於无', '兄弟听哥一句，这孩子不像你啊[意难平]', '我还以为会有些创新了  剧情照搬肖生克的救赎', '哈哈，这就是法律，白白关了五年多', '周润发之后再无风云', '好好好，求老婆掉个监控这么难肯定要自己越出去掉是吧', '唯一一点，孙越狱，从哪里收到老五钱的位置信息？ 其他觉得还挺港剧的，好看', '自己闭翳就想兄弟富贵啊嘛', '自己逃出去的  真可以[666啊]', '逃狱判7年，自首减三年\n\n这个男主本身就出去给自己上诉，本来就是抓错了\n\n这个介绍真是看不懂', '什么鬼东西', '还可以剧情不啰嗦', '这结尾结束的太简洁了', '有点肖申克的救赎的样子', '等到黑夜翻面之后，会是新的白昼；等到海啸退去之后，只是潮起潮落', '山西高平报道', '国产肖申克的救赎🖕🏻', '拍的非常着急感觉，', '什么钱这么难洗啊', '他老婆连去酒店调个监控都不愿帮他办', '监狱长司徒浩南啊很厉害的', '模仿肖申克的救赎就是不知道能不能模仿成功', '中国版肖恩克的救赎吗', '在里面呆两年，不是人在的地带，所以说干什么也不要犯罪', '没有丝毫逻辑可言，就是为过审而拍', '这个不就像那个肖申克的救赎吗？', '这是越狱和肖申克的救赎联合版', '据说是真事！九几年一个商人去东南亚出差，结果一起的女秘书在眼前被奸杀，自己也进了黑监狱，他很聪明用智慧逃出来了', '怎么还吵电影啊.完全抄肖申克的救赎的啊', '跟另外一部逾越挺像的，但出逃方式和结局还算合法。', '香港版肖申克的救赎', '广电可不会让你逃出去', '这狱警不错，你带他去一路向西吧', '我民权花园的']</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 长津湖 </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>VIP · 10077热度</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>“雷公”胡军独家新年祝福！,电影简介:电影《长津湖》以抗美援朝战争第二次战役中的长津湖战役为背景，讲述了一段波澜壮阔的历史：71年前，中国人民志愿军赴朝作战，在极寒严酷环境下，东线作战部队凭着钢铁意志和英勇无畏的战斗精神一路追击，奋勇杀敌，扭转了战场态势，打出了军威国威。</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.7分</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>历史</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>['这是我爷爷留下的，能看出来是什么吗？', '看完这个电影，想起了我的姥爷。可惜他早已经不在了，在我小的时候因病去世。我只对他有模糊的印象，遗憾不能亲自听他讲述他的故事！', '没有听过您说过很多，却发现您的遗物。', '我姥爷今年94岁了，我为我姥爷感到骄傲和自豪！！！', '多希望父亲能在，能跟他一起看这部片子。', '怎么就没女生看了，女生+1', '要是我父亲还在世的话看到这电影会触动很大的，那些地方都是他曾经最痛的记忆！', '说实话 现实绝对比电影残酷多了', '第七穿插连队，应到一百五十七人，实到十四亿人！', '外公负伤回国，健在', '怎么才8.9分 ，应该10分。', '爷爷不在了存在我奶奶讲的故事中', '小时候经常听你说的故事，现在看来好伤心，', '这是伍千里原型，英雄至今还健在！', '评分应该是十分才是，怎么才8.9分？', '为什么我的眼里常含泪水，因为我对这土地爱得深沉', '有人问难道没有彩蛋吗，你打开窗户望外看，这就是彩蛋.', '我从来不过圣诞节', '#2021国庆档你最期待哪部片#我爷爷被子弹打中胳膊 ', '这么好的电影评分太低了', '向老英雄致敬，我爷爷已经91了，身子骨还可以。', '首映当天和女朋友去看的，电影还在，人不在了', '#如何评价易烊千玺的表演#演得太好了，非常好看', '2022新年快乐！祝福祖国繁荣富强！致敬最可爱的人！', '希望祖国能把他们都带回家！一个都不能少！', '#如何评价易烊千玺的表演#眼睛里有东西！年轻一代里演技真没人能跟他相比', '我爷爷当年是指导员，我为他骄傲', '我爷爷身体越来越差了。', '哭了几个小时了', '我的爷爷！', '终于上线了，我要好好的看完', '雷公临死前一句别把我一个人留在这儿，直接给我哭破防了', '我哭了我老婆没哭我把她打哭了', '等了好久，终于上线，第四次重温', '再难有老一辈难吗？最后的人为阻击敌人逃跑，都冻成冰人了，活在当下，多幸福！', '向英雄们致敬，祝福祖国繁荣富强！', '2022新年第一天来报个到……成都路过', '致敬英雄，喜欢看那部剧呢投个票吧！', '🧨2021 𝘽𝙮𝙚 𝘽𝙮𝙚 ·2022 𝙃𝙞 𝙃𝙞🧨\n滴~体温正常，欢迎进入2022', '终于可以看啦！！！', '终于上线了，我要再看亿遍', '人民英雄', '致敬抗美援朝的英雄们。', '我很想念我的爷爷，去年过世了，一辈子都献给可国家，得开老年痴呆走失，被发现的时候是再部队门口。', '不晒爷爷的，晒一下自己的吧。每一代人有每一代人的责任，为了人民，负重前行。', '这一场战争是残酷的，打出了中国的军人的威信，世界有名，只有国家的强大，科技的发展，任何敌人不敢侵犯，记住这个历史', '这也是一个教育片教育，后来人记住先一辈英雄，工具，向英雄们学习，爱自己的国家，祝我们的国家强大繁荣富强', '谢谢这个平台，谢谢各位看友，今天的幸福来自前辈们的先烈，这场电影真的很感动，愿大家每天看好片', '中国人民志愿军万岁，中国人民志愿军万岁！中国人民志愿军万万岁！！', '长津湖之后再无圣诞节', '长津湖战役，不应该是VIP，应该是免费的！', '这种剧[气到变形][气到变形][气到变形][气到变形]。还我时间[意难平][意难平][意难平]。', '想想当年的长津湖，再想想现在，致敬先辈', '炸药箱都是空的，露馅了', '这太恐怖了，直接插进别人肚子', '志愿军万岁！志愿军万岁！志愿军万万岁！！', '向伟大的志愿军致敬！！', '向伟大的英雄们致敬！！', '伍门三杰', '易烊千玺是头一次演抗战片吗？', '没有志愿军，哪来有今天的中国？', '以前村里一位老人，参加过解放战争和抗美援朝，一辈子没结婚，也没收养子女，我们小时候几个小孩围到一起缠着他讲以前打仗的事情，刚开始的时候他只讲解放战争的，只字不提抗美援朝，直到他的老战友来开导他，我们才知道这些事：当年抗美援朝我们村里去了十几个人，只回来了两个，他是其中之一；长津湖战役时他是排长，一场仗下来只剩了他一个；自那以后他就把自己封闭起来，他认为那一排人牺牲他是罪人；负伤回来后他也没去专门赚钱，都是谁家有事找他帮忙给他钱，没给钱的他也不去要；村里人给他安排相亲他也不去，去了也是跟女方挑明了说他不结婚，直接把女方吓跑了，他妹妹为此还跟他决裂了；后来由于战场上的伤复发，身体也变得不好了，慢慢地什么活也干不了了，他被纳入低保；他认为他那一排人都死了只有他还活着，他不敢比那一排人活得好，否则就更对不起他们了。\n在他老战友走后，他开始给我们一点一点地讲长津湖的事，但他始终不提他那个排的事。当他讲到五六个人俘虏美军三四十人的时候我们都不相信，还以为他在敷衍我们，然后我们就都不愿意听了。\n九十岁那年得了一场大病，医生都下病危通知了，他硬是挺了过来；后来因为他是战斗英雄，民政局发生活费，照顾他，给他买了一台大彩电（当时村里也没有几台），可那时他因为最近一次高烧耳朵也不好使了（之前那次大病眼睛一只失明，另一只也几近失明）；九十八岁那年他去世了，去世时只有他妹妹在，还有村里几个干部帮忙出殡\n直到现在我才明白他是经历了怎样的艰难，他这一辈子都没离开过那个战场，他生前常说的一句话就是，活着真好', '砍死日本鬼子美国鬼子', '刚刚看完志愿军，现在又来回顾长津湖，感觉这些影片不应该要会员，应该免费观看，且不需要看广告，这是具有纪念性的影片，这能让我们的下一代有印象，牢记历史', '依稀记得我问爷爷:你总说你参加抗美援朝 那你到底有没有杀过敌人，  爷爷告诉我记不得杀了多少了  看完电影立马让我爸拿出我爷爷的遗物，  当场泪目 😭', '看谁的表情最好笑', '整个七连就伍万里活了', '#易烊千玺#讲真的，不敢看第二回', '易烊千玺妈咪，永远爱你', '你们都是为谁来的', '我也晒晒我爷爷的', '中国万岁！万岁！万万岁！', '有谁是看了志愿军雄兵出击二刷长津湖的', '2小时43分，是不是欧豪？', '吴京太牛了，在 战狼2开坦克在长津湖依旧开坦克', '死神来了，你们都将死在这里', '什么电影都不如这个。', '希望祖国能把他们都带回家！一个都不能少！#长津湖中谁的演技最触动你#', '怎么才8.9分 ，应该10分。#长津湖中谁的演技最触动你#', '铭记历史，缅怀先烈', '打一拳开 免得百拳来', '长津湖战役，去了15万人，回来了9万人……', '牛不牛逼啊？', '是不是要在我身边天了？你的图就是天太尴尬太', '易烊千玺好入戏', '跨过鸭绿江。从第九兵团开始入朝过来看的。', '伟人的伟大就是高瞻远瞩', '易烊千玺演技真的好', '易烊千玺，你真帅', '这里的弹幕让我见识到了现在物种的多样性']</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 哪吒之魔童降世 </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>VIP · 10109热度</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>《哪吒》哪吒敖丙仙魔互助逆天改命，成就今夏最强CP,电影简介:天地灵气孕育出一颗能量巨大的混元珠，元始天尊将混元珠提炼成灵珠和魔丸，灵珠投胎为人，助周伐纣时可堪大用；而魔丸则会诞出魔王，为祸人间。元始天尊启动了天劫咒语，3年后天雷将会降临，摧毁魔丸。太乙受命将灵珠托生于陈塘关李靖家的儿子哪吒身上。然而阴差阳错，灵珠和魔丸竟然被掉包。本应是灵珠英雄的哪吒却成了混世大魔王。调皮捣蛋顽劣不堪的哪吒却徒有一颗做英雄的心。然而面对众人对魔丸的误解和即将来临的天雷的降临，哪吒是否命中注定会立地成魔？他将何去何从？</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3分</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>动画</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>['藕饼这个样子真搞笑😄😄', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈😂？不好意思你说了一句对不起🧎\u200d♂️！你说他喜欢的人会觉得我真的不愿意辅导他自己辅导小孩很多的作业不是作业不是滋味！不好意思也不能再联系你', '2022年，重温，还有人嘛', '看得我哭了呜呜😭', '哪吒小时候好可爱。', '又看了一下，妈的又不争气，又哭了。', '最伟大的动漫，没有之一，这部电影里真的有反派吗？申公豹算是反派吗？他为了证明自己的能力有错吗？敖丙有错吗？龙族有错吗？魔丸呢？非常有深度的动漫，内涵却不输星爷的电影，估计也是动漫巅峰了', '开的车吗？嫂子啊🙀🙀🙀🙀🙀🙀🙀🙀🙀啊啊啊啊啊啊啊啊啊啊啊啊啊我的错我的错', '好多桥段都是向周星驰致敬的啊', '这是敖丙小时候😘。', '看了半个小时 哪吒娘谁配的一塌糊涂她非要和哪吒配出姐妹的感觉才开心', '救命，哪吒好师！', '希望看到第二部', '不同的风格', '人心中的成见是一座大山，任凭你怎么努力都改变不了\n我一个魔丸活的都比你有个人样，你一个灵珠转世可以活的再怂些吗？', '这几张图挺好', '😮😮😮😮😲😲😲😲哪吒小时候可爱', '若命运不公，便和它斗下去！《哪吒之魔童降世》真是一部让人看了又哭又笑的电影，里面实在是有太多发人深省的台词了，来说说最让你印象深刻的是哪句台词？鹅叔想到的是我命由我不由天！', '元始天尊出关后，听说哪吒的事很感动，教了太乙一招，利用莲儿恢复哪吒真身，龙王为了救敖丙，用自身的龙丹换了敖丙一命。龙王死后。龙王小公主为了复仇，又和申公豹一起，把天牢里的怪兽放出来了，让他们去杀死陈塘关百姓，还有李靖和哪吒。龙王小公主抓了李靖夫妇要挟哪吒，哪吒要去赴死换回父母时，被敖丙偷偷将人放了，龙族将敖丙锁了起来准备邢死，哪吒知道消息，只身赴龙宫打算换敖丙一命，但是被申公豹用计谋抓住。为了救哪吒，太子真人与李靖夫妇也赶到了龙宫，将与申公豹和龙族怪兽开展一场殊死搏斗？最后如何，，，哪吒三会有预告！！！', '2022.4.8号还有人看吗，虽然看了七八遍，但还是看一次感动一次，好片。', '我之前就想一个问题，太乙真人是真傻还是假傻，要是假傻，太乙都算到了，从灵珠抢夺到最后，眼看事情有变，就为了就哪吒敖丙而被天雷费去修为拼命护住，那太乙的心机可就有点深啊！\n（当然这是我假如的一种可能，仅供参考，不喜勿喷，谢谢）', '二零二一年十月十三日没有比我更晚的吧', '因为你，又来重温一遍。不认命是哪吒的命，也是你的选择。那就一起加油！✊✊✊', '怎么感觉每一次看都不一样，第一次时感觉是申公豹错了！他偷灵珠，害的哪吒背黑锅！可是这次感觉不一样了！（灵珠或魔珠赋予的那一刻，有谁问过他？为了哪吒，给哪吒积德行善，有谁在乎他？哪吒最后两年光阴就应该被囚禁于山河图内？打退妖怪，村民不理解打骂，他父亲看出来了却不说出来，不为他辩解？）这些真的挺心寒的！从最开始魔丸降临的时候，魔气入体的不能自己，到孤身一人无玩伴所有人躲着他，再到别人大骂妖怪，再到囚禁，再到雷劫也是够阴暗的了！', '一个认真修炼，一个玩，一个状态全开，一个没有完全开，还有神甲，还打不赢笑了', '2022.1.7还有人看吗？', '2023年12月18号会员打卡', '有人去看隔壁那部哪吒2重生了吗……简直一言难尽😥', '牛牛牛⺧生牛牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼', '灵魂是你打我撒，你打我撒', '国产动画电影的巅峰  没有之一', '隔壁的哪咤，像木偶戏，皮影戏。根本没眼看。火了一个魔童降世，各种蹭ip的都出来了，', '好看的电影，后面很感动。我命由我不由天！', '太好看了吧！刚刚又刷了一遍，超级感动！，真好看要是有第二部就好了', '2022/4/16\n22：20打卡', '我仿佛看见了我们小时候的两个莲花灯。', '哈哈哈哈哈哈哈哈重刷', '可怜之人必有可恨之处，你保护的人可能就是最不值得救赎的人', '你们有没有忘记一件事他才三岁', '阿姨裤子鞋子休闲鞋韩版考虑考虑问题吧', '2023年来重温的看这里', '我是小妖怪， 逍遥又自在， 杀人不眨眼，吃人不放盐 ，一口七八个， 肚子要撑破， 茅房去拉屎， 想起忘带纸 。', '还是喜欢😍', '太好看了 快来看看看！！！', 'q\u2006q\u2006a\u2006s', '别的电影结局都是好的，这个是坏的。', '正所谓不要在意别人的眼光，做你自己就好不管是魔还是仙，只要你做的是好事，不要在意别人的眼光，你就是好的你就是好人有的是好人，表面是好人，但是做坏事他就是坏人有的坏人长相凶神恶煞，但他内心是善良的，那就是好人是魔是仙只在一念之间哪吒，你虽然是魔丸但是你为了阻止敖丙选择拯救大家，那你就是英雄是好的是魔怎么了只要你做好事，那你就是英雄，就是好人不要在意别人的眼光做你自己就好😊😊😊😊😊😊', '来回顾的，又哭又笑了一遍', '笑死，人了，东西都行了', '李靖成功洗白，“他是我儿”四字一出，热泪盈眶', '国漫顶级', '满分满分', '在2019年的《哪吒之魔童降世》，刚放出预告片时，片子被网友骂疯了。烟熏妆、鲨鱼牙、又丧又拽。张口就是「杀人不眨眼，吃人不放盐」。妥妥的「毁童年」系列。谁能想到就这么一个「丧王之王」，在2019票房居然吊打了《复仇者联盟4》。要知道，这部可是漫威十年收官之作啊！打败它的国产动画，谁敢不服。颠覆形象，是哪吒之所以爆火的重要原因。角色全是大家熟悉的人，事件也大差不差。可喊着「我命由我不由天」的的哪吒，和将爱藏在严厉外表下的李靖。加上敖丙和哪吒双雄对垒的设定。它用旧故事的壳，套入了当下观众的情感需求。另一方面，电影爆火也印证了传统文化的力量。与《大圣归来》类似的民族认同感，在它身上也得以印证。观众对「国产动画」崛起的心，反复被撩动。每逢爆款出现，总会引发集体狂欢。遗憾的是，「封神宇宙」只成就了哪吒。后续无论是杨戬，还是姜子牙，都难扛大旗。《哪吒2》呢？让我们拭目以待吧！', '2022年1月12日星期三凌晨07分，五刷😃 #哪吒#', '第二部是姜子牙吗', '国漫的天花板的确不错   值得一看', '如果你们看过周星驰的电影 你们就会发现 有很多台词 都是致敬周星驰 ', '期待第二', '加了啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊', '你打我撒，你打我撒。', '国产动漫巅峰了吧', '完美。。。就目前（国内）最好动漫电影没有之一', '这么高的分，如果是我审核这电影一定不让他通过，如果童年都是这样的童年怎么可能反转，对就是对错就是错，不是做了错的事，在做对的事就能功过共算。错必罚，功必赏，赏罚分明。不以小恶而为之。不以小善而不为。', '#迪丽热巴拍摄安乐传#加油', '这才是正版', '敖丙真的很可怜，所以说人就不能心软，就因为他不是人类救了人也要除掉他', '一歌女画家', '🥰中坛元帅最帅了', '给我低调点懂吗', '好喜欢哪吒他妈🌚贼豪迈，我真的爱死了！', '大胖子太坏了', '我第一次看哪扎', '每次看，都豆笑我，哈哈哈😄', '我和我妹妹看了100遍[笑死我了]', '托儿，他不是坏蛋，他是个守护世界的好人', '哪吒：天气冷了，给你们暖和暖和[撒花N][撒花N][撒花N]', '二三年十二月十二日重温[准奏]', '当我看完10万个冷笑话再来看这个，我操，居然过了那么久了', '踢个毽子能死人啊  *', '这肥子好嚣张叫吧。', '故事告诉我们没有开始就是坏人，或好人只说，只要做好自己就可以，哪怕你是杀人犯的后代，也不能因为上一代打上这样的标签，哪怕上一代是个善人，你是杀人犯，不要给上一辈也带上标签，这不知道看第几遍了，看懂了', '这就是中国人的天性，信命但不认命。命由天定运有己造。如果天命难违，那老子就他妈的逆天改命。', '骚气的太乙', '我一天之内看了三遍', '我想玩这手上的胖子的那一个什么东西', '那个是肾公公还是申公豹？', '欧冰之年怎么过了呢？', '我请问这一年怎么过这么快？', '还可以特别', '老头没眼珠']</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 超能一家人 </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>VIP · 10098热度</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>开心麻花《超能一家人》热映中，曝马丽魏翔东北译制腔彩蛋,电影简介:郑前新开发的APP被狡猾又诚实的反派乞乞科夫盯上了。幸好郑前一家人意外获得了超能力，姐姐会飞天，爸爸能隐身，爷爷不死术，妹妹力大无穷。郑前本指望家人们出手帮忙，一家人却常常出糗帮倒忙，虽强但傻的“超能力一家人”将如何对抗乞乞科夫，一场超能力VS钞能力的大战一触即发……</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.7分</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>喜剧</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>['笑点很尬，没有什么内涵，亲情部分感觉也是强行升华', '已经看了不建议去看', '以为夏洛特烦恼是开心麻花的开始，没想到是巅峰[上头-上][上头-头][上头-上][上头-头]', '据说大年初一好像这个下架了\n、', '2022年贺岁片都不上映？', '又是艾伦当主角？不是我吹，肯定火不了，开心麻花凉了', '看简介介绍 这剧情电影好像在哪里见过', '拍摄取景地青岛市市南区瞿塘峡路与三门峡交叉口，剧组人员中午吃饭在我店里吃的。', '大年初一沈腾直接两部电影春节档？', '又是翻拍的啥电影', '在这么拍下去早晚凉凉  永远离不开以前的作品  笑点都一样  看多了就没意思了', '不是怎么好看', '什么时候手机上就能看了', '一般我看喜剧，只看含腾量高不高…😁', '最好看的是彩蛋', '被这部喜剧电影咬到了，新颖的故事情节让我眼前一亮，很有意思', '真的好看', '看到沈腾就想笑，必看\n', '别跟我说像四海一样  含腾亮极低', '别想了己经撤档了。', '啥时候上起码给个回应啊，吐了，一个交代都没有就突然销声匿迹了', '速度激情十上来就9.2.....国产5.2慢慢涨上来的，搞笑是搞笑他做主角不喜欢了', '当时不上映的原因是因为疫情影响的    上映没有上座率😀😀', '一般一般', '看沈腾的剧情看的挺过瘾的。开心麻花的电影看一次笑一次，感动一次', '缺个贾玲', '腾格尔又对网络歌曲下嘴了,可怕', '春节为什么撤档啊', '含腾量200%。双腾出没，🙈', '为什么没有马丽。。。。。不对啊', '抛弃喜剧的初衷，只是给人一个教育的电影，已经不叫喜剧了', '想采访腾哥学俄语的心路历程', '腾格尔唱这首歌，感觉鸡皮疙瘩都起来了', '没赶上电影院，主要也不知道啥时候上映的，这刷短视频也没推我啊，还是看到腾格尔翻唱合集，才想到超能电影，再一看评论……嗯……', '腾哥外语练了多久，说实话哈哈😄', '太喜欢沈腾了', '这片宣传得蛮早的嘛！', '完整版可以看了呀', '今年还能看到吗', '什么时候上线啊', '沈腾的角色还是很好看的', '我以为是这个杀手不太冷看完也没看到扯裆镜头…', '改档期了', '2022年大年初一，提前了一年嘛？你们是过了年初一了？数学谁教的', '这蒸馏水咋一股草原味', '沈腾来咯啦咯', '难道今天不是大年初一', '神马玩意', '好家伙，这个点赞特效也太帅了', '有笑点，有泪点', '如坐针毡，如芒在背，如鲠在喉，全片不如彩蛋好看', '演得很精彩[一起冲]', '里面还是有不少情节设计的很有趣，比如爷爷被电舞蹈，还有姐姐空中芭蕾（她最后打戏也运用了可惜设计的少。', '谁敢和我斗图？', '2分，全给沈腾，其他的一文不值，没看到制作电影的诚意！场面还是不错的，立意也很好，有家人的地方就有超能力👍沈腾现在接喜剧少了看得我好想进去体验一把拥有超能力的感觉，哈哈开心麻花演技很赞挺好的童话故事就是很好看啊你想终有什么超能力呢？我喜欢这个妹妹的大力气沈腾好搞笑啊真的很好笑，喜欢这种童话风的喜剧片，，看完一整个大开心，这就是喜剧的魅力，力荐力荐！真的又一次惊艳到了我，沈腾的戏份再多一点更完美了，真的特别喜欢看沈腾太喜欢沈腾了别跟我说像四海一样  含腾亮极低沈腾来咯啦咯沈腾的角色还是很好看的电影中的套鞋简直太帅了，我真爱了，想问哪里买的，真的好想来一双。大年初一沈腾直接两部电影春节档？超能一家人 1:47:58', '开心麻花出品，必是精品', '打卡2023 12 23', '我觉得挺好看的啊 特效也可以', '还行，还是沈腾', '张楚岚爷爷重生了[666啊][666啊]', '很尴尬。。完全没有共鸣点，我反而比较喜欢两个反派，起码角色鲜明。这一家人无条件纵容主角，主角能丢下爷爷一走了之，即使明知道他离开爷爷就死了。在监狱就一回忆家人又来救他了。而且家人哪里是互相拖累了，这啥主题，家人明明是互相包容和成就。尤其那个小女孩，我真的很讨厌。我更喜欢波波洛娃，我是希望她能复仇成功的，主角拿着自己都站不住脚的道理去劝别人放下仇恨真的，可笑。当然了，也有笑点，但是不多，整体就是尴尬又无聊。', '编剧写包袱，全靠演员自己。剧情的发展煽情多于搞笑。全程吐槽没笑', '好好的喜剧片强行煽情，要搞笑就搞笑要看看以前是怎么拍的再看看现在', '真棒 和女朋友一起看的 好看爱看 我一般不评论的 我还现搜了怎么打评分 好好好 真棒', '说实话…..我觉得挺好看啊……很好笑啊', '杠杠的，很顶。演的好啊，真好看。不错，挺棒的，腾讯视频出品。开心麻花电影🎬超能一家人。【含艾伦】腾讯视频', '一点也不搞笑，刻意搞笑就不好笑了', '挺好看的，看的很开心😁😁😁', '沈腾就是搞笑的存在', '腾哥在上面太搞笑了', '我看弹幕一直看到结尾，看到有人说全局没笑一次没有任何笑点，我想说那还真是辛苦您嘞，没笑点你都能看完整部电影属实厉害👍🏻', '幼稚，情节简单无内涵。', '6.7分是因为啥  谁能直接跟我说说', '天吼战斗民族吗', '超能一家人 1:17:36xsos😨😨😨😨😨😱😱', '“郑前”     的字面意思是     “挣钱”', '真的特别特别好看，很喜欢这部电影！期待第二部', '斗地主赢了', '快乐加感动', '看着挺不错的', '满分，能坑一个是一个', '说实话，如果不是有沈腾，这剧就废了…艾伦还是适合演搞笑角色，这部电影里他的感情戏好尬… 你说不好笑吧 还有几个点有点意思 你说好笑吧 也就那几个点而已… \n评分6.多真不是盖的… 已经算高评了😅', '挺好看的[一起冲]', '很少发表评论，之前冲着沈腾对这部剧有很高的期待。喜剧加超能就意味着不可能存在很高的逻辑，忽略这方面还是不错的。但是对于我个人而言，题材让我很难笑出来，那种全家人打着为你好的旗号，即使自己错了也只会口头说说，还是理直气壮的说并且绝不会改的样子真是太让人生气了。我家也是这样，我爸也是喝完了酒就发疯，信他那些所谓的亲戚朋友兄弟也不信自己家人说的话，这些年我和我妈没少受气。我很能感受主角那种全家人都在使劲拖自己后退的感觉。知道他们是为了自己好，但他们做的方向完全就是相反的。真的很难受。很抱歉这样的经历让我完全笑不出来。啰嗦了那么多，也算是发泄一下，抱歉。', '为什么，我希望反派赢呢', '笑死人个人，看着笑着就没停过[一起冲][一起冲][一起冲][准奏]', '我觉得挺好看的每个人的笑点不一样，不爱看的话你就别看了呗', '好喜欢！！！看中间真的好感动！！！', '好看剧情反转嘎嘎好看', '呢哥们脚臭']</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 龙马精神 </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>VIP · 10001热度</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>成龙郭麒麟刘浩存，《龙马精神》“混搭”惊喜,电影简介:曾经风光一时，如今落魄的龙虎武师老罗与爱马赤兔相依为命。因赤兔卷入了一起债务纠纷，面临着“父子分离”的危机。情急之下，老罗向存在多年误会的女儿小宝和其男友乃华求救。在三人一马的自救之路中，闹出不少笑话，也渐渐靠近彼此……</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9.0分</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>喜剧</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['我感觉这是一部会大火的电影', '为什么是刘浩存 女主  真讨厌', '好后悔当初没去电影院支持一票，这是致敬龙虎武师，致敬成龙大哥一生的电影，希望有机会还您这张电影票。', '成龙大叔，我看你超级不顺眼，所以我诅咒你平平安安，健健康康，顺顺利利……', '[放大镜]￼￼￼￼￼￼￼￼为了成龙来的举个手看看有多少人￼￼￼￼￼￼￼ ￼￼￼？￼￼￼￼', '一定要去看看', '感觉成龙老了，电影没有以前的激情了！', '战损男跑这儿来了😂', '支持龙叔，上映当天已看完', '嗨嗨嗨，内卷了[斜眼][斜眼]', '成龙大哥老了 我也长大了', '说实话，龙叔的电影看一部少一部，所以就算不及格也会支持，不为别的，就为他是成龙', '好可惜呀。好喜欢郭麒麟 结果因为女主可能不会贡献票房啦 ', '我靠，这个7.4到底谁给打的，龙叔的电影在我心里一直是满分', '为成龙大哥的奉献精神加油', '只要成龙大哥拍电影我就看，因为他是青春呀', '喜欢刘浩存[准时]还喜欢周冬雨[随份子] 气死你们', '有刘浩存不看', '成龙大哥这部片是不是拍给他女儿看的呀?', '感觉成龙的电影动作片都是取巧，打他的不是自己碰到，就是自己摔倒。', '郭麒麟这辈子赚了能跟龙叔合作', '刚刚去影院观看了，影片很不错，有精彩打戏，也有亲情呈现。很不错的影片，值得推荐', '可惜了有女主', '一看就知道不好看，成龙老了，只能说年轻时那份精神可嘉', '好想看郭麒麟', '上映上映！不想去电影院！没时间去看', '火麒麟怎么在，真烦人', '这是龙叔的收关之作了吗？把以前的那些所有的电影都回顾了！', '如果人品不行，拍的电影电视剧看着都没意思，作为大众演员，人品过关拍出来的作品，才会让大众喜欢', '大米哥拍的时候肯定压力很大[EMO了]普通话07:52普通话07:54', '挺感动的片子，成龙一路走来确实不容易，拿命拼回来的。', '都怪刘浩存，希望她以后别去影响别人的电影票房', '22年12月31上映现在就出预告会不会太早了？', '很棒，感觉致敬了龙叔一生的奉献', '怎么感觉大哥在“告别”似的', '有成龙必须看', '郭麒麟郭麒麟（虽然我…嗯…怎么不算喜欢刘浩存呢[蹲]）', '刘浩存？笑呢？', '跑了个龙套，不知道有没有我的镜头😄', '超级计划果子狸炖水鱼鞭', '致敬龙虎武师。致敬经典。致敬敬业精神。也许在未来流量明星当道。再也不会有这些很好的作品了', '我是眼含泪水看完的   希望大哥身体健康  龙马精神', '成龙电影带领了一个时代，我们慢慢变老，以前的优秀演员慢慢落幕[没眼看][没眼看][没眼看]', '我们的龙叔真的老了，他的影片从小陪伴我们长大，他对这份事业的热爱与付出远超我们所想，此片应该也算了了他对动作影片的念想，，但愿我们的龙虎武师永远健康平安[打call了]', '这是我看哭得最多的一部剧了我们大家都感谢大哥給我们带来的这么多好看的电视剧电影向成龙大哥致敬[一起冲][一起冲][一起冲][一起冲][一起冲]', '一辈子的贡献，几代人的青春，感谢成龙大哥', '从小看成龙的电影长大的，长大后还是喜欢看他的电影。', '必须和女朋友贡献几张电影票', '这是我看过最好看的电影，没有之一', '居然腾讯vip能看全集', '龙叔是我一辈子偶像，从小是，长大也是，个人觉得好看.', '比满江红好看', '本身就是成龙的粉丝，龙叔的电影百看不厌，幸苦了，', '好久没有看到成龙演电影了，从小到大就喜欢成龙演的电影，很喜欢', '真好，好电影看一部少一部咯！成龙叔叔的电影也看一部少一部了！', '全程泪目啊   龙叔好样的', '成龙老师要对自己以后的电影说以后了。致敬你老人家这部电影很赞👍🏻', '哭了哭了哭惨了', '精神永不褪色', '支持龙叔，龙叔的电影必须看。', '敬成龙大哥👍', '寡人来看了，2023年12月14日', '9分52秒，替身[打卡-打][打卡-卡]', '还是我原来的龙叔，翻帽子名场面', '打卡成龙电影龙马精神 31:11😊😊', '哭了，推荐大家看', '完美！龙叔', '果然不亏是陪伴了我三十来年的龙叔，好久美看电影看哭过了，这会是真的哭的眼都肿了', '2023.12.22致敬龙叔，我的童年结束了～\n希望龙叔身体健健康康的。', '2023致敬龙叔', '很感人，马摔的时候，让人很心疼。很想知道马受伤了没有，片子不错，又一次塑造了经典。可是马遭罪，马是无辜的，心里很难过，希望马能被善待，妥善安置好，算是救赎吧，因为我们是人。希望你们能懂吧，为马儿祈祷！', '刘浩存是谁，就是单纯认为这个女的真的尴尬，不尴尬吗？没有这女的，可能多5亿，', '龙马精神 1:57:14，成龙的女儿让我来，谁也不要跟我抢[破防][破防][破防][破防]', '哈哈哈，太喜欢这个姿势爆满', '不摔，观众看什么啊！应该让小鲜肉们都看看这部电影👍👍👍👍👍', '确实很不错 值得推荐 嗯真的很不错👍', '[大哭][大哭][大哭][大哭]哭鼠我了', '这会是龙叔的封山之作嘛😭', '太感动了，龙叔电影总是给人力量。后半场一直哭着看完。', '好看，看哭了😭', '龙叔老了我们也长大了，真的好怀念第一次看龙叔的电影的时候，祝福龙叔身体健康，长命百岁龙叔谢谢你给我的童年带来了开心和快来。', '真正看完龙叔所有电影后来看龙马精神是不一样的感觉，龙叔真的老了，我不要评分多高，票房多高，我只需要自己内心的感觉，不管是不是最后一部，感谢龙叔，您辛苦了！', '如果没有刘浩存。票房估计能多一两亿。很多理性的网友肯定也是和我一样支持龙叔，但是又过不了心里道德那一关。才没买票去看。唉', '我觉得拍的不错啊，挺好的。感觉这可能是龙叔的最后一部电影了\n、', '龙马精神！🤙龙马精神 36:03', '郭麒麟又胖回去了吗', '我00后，龙叔是我的英雄，这辈子没有人能替代龙叔在我心目中的位置', '这个大伟淄博人吗？怎么说的是淄博话呢？', '不知道那些觉得不好看的是因为什么，我是个粗人，没有那么高的品鉴能力，我只能依靠我的本能去看，只要他能触动到我，他就是好作品，仅代表个人观点。', '很感人，我想养过动物的人都能懂']</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 狙击手 </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>VIP · 10043热度</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>张杰献声张艺谋春节电影《狙击手》《年轻人》致敬先烈守护盛世,电影简介:影片根据抗美援朝战争“冷枪冷炮”运动中神枪手群体事迹改编。1952年冬至1953年初，中国人民志愿军与联合国军在朝鲜战场形成僵持，双方发起了低强度的密集狙击战，史称“冷枪冷炮”。在连长带领下的狙击五班战士枪法过人，成为敌军的心头大患，班长刘文武更成为重点狙击对象。为重创狙击五班，敌方调配精英狙击小队，配以最先进的武器装备，更迫使狙击五班战士大永等人为救同伴进入其设好的险境之地。但正当敌军打响自己如意算盘之时，他们未料到，被他们当作诱饵的侦察兵亮亮身上其实隐藏着更大的秘密。</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.3分</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>历史</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>['很震撼的一部电影！值得观看！', '演的啥玩意，为了一个尸体一个一个的送死，送死敢死队？', '英雄枯骨无人问，戏子家事天下知！！那些被资本炒作捧红的流量明星不值得追捧', '我爸爸叫桑贵福当年就是38军的战士', '不真实，演员太胖了，刚解放的时候，人们几乎都是消瘦健康的。女演员说话语气太嗲，太现代。', '不懂战争的残酷就不要瞎喷。子弹和军人都没有错，为了自己祖国的利益，军人、子弹、炮弹都只是在完成自己的使命而已。全世界的军人都应当受当该有的尊重。其实军队就是国家机器，不要瞎喷军人。我向在历次战争中牺牲的每一位军人敬礼。\n', '之前唱歌那么大声，不怕暴露？', '向先辈烈士致敬', '立正，敬礼', '最初拿到绿卡的几个外国人之一', '伟大的中国人民志愿军万岁，中国共产党万岁', '幸福的生活，是前辈用命换来的，不忘历史，抵制美军，小鬼子', '可能剧情偏神话了，小米步枪干掉对方高精密武器团，实在话不可能的，能赢是我们中国牺牲很多很多换来的，珍惜现在的和平。', '这个月是要交智商税吗？还是我该补补脑', '按事实拍比这神多了…打死两百多还活着回中国', '我能开透视嘛？', '院线上映了吗？我怎么不记得啊，知道的话肯定去电影院看的', '这是一种精神寄托', '他们18岁已经是一名出色的战士，而我们呢？也许在校园追哪个女孩子，也许在哪里逍遥快活', '致敬先烈，致敬英雄！', '别人有的我们现在也有了，雄起。', '这么好的片子，必须高分，致敬我们的先辈，我们的英雄', '看起老火，非得去送死', '被敌人放这里的还有情报？', '好电影，打出了中国人的处事方式，打出了共产党的精神，张导好样的。', '致敬最可爱的人！！', '最后的点名  炸哭我', '以前当兵的都有真功夫的', '没看过瘾。以前的故事多拍一点。00后10后20后  都要知道', '老谋子还是老谋子，拍的很好，不是什么大战役，只是一瞬间的生和死，残酷，决绝，勇于奉献，一直很紧张的看着，看着看着就流泪了', '细节把握得很到位，故事逻辑性也很强，一步步引人入胜。', '为了祖国和平 为了共产党的信仰，我国的中华儿女奋勇向前，献出了自己宝贵的生命！为我国中华儿女的先辈们致敬！', '满屏诚意 连群演演技都很好 居然没有一个出圈的 怎么了这是 影视圈真的不需要演技派吗[蹲]', '超级好看！！！', '为什么用这种办法拖亮亮？', '我觉得没带上美国狙击枪有点不合理', '致敬英雄～敬礼！', '打的是肾上腺素吗？', '现在绝对没有这样的人了', '眼睛里进砖头了[大哭][大哭][大哭]', '泪目，数万五班换来今天的幸福生活…', '场面没有宏大，但情感描述到位了，与宏大场面的剧是两种形式，还是要点赞👍', '可以，不错', '真值得看一看。', '永生难忘', '你踏马闹着玩呢，狙击手对决敢这样？在讲感情也不可能这样，狙击手最起码的理智', '特别好看', '太喜欢了', '不管这是拍得好与不好！这样的都是真实的！有前辈们的牺牲才有现在我们的生活！', '看了几遍还想看', '致敬张桃芳', '水门桥他们比这苦太多了', '《狙击手》这部影片中的五班战士，是英雄更是一个个有血有肉、活生生的人。这符合张艺谋一贯的偏好，也没有他影片常见的造作。估计作为女儿的张末对此贡献不少。希望以后我们会有越来越多优秀战争电影涌现出来，打破美国人对于电影美学的定义权。', '拯救大兵亮亮', '能看看，毕竟中国狙击电影不多', '哭的稀里哗啦', '一点也不好，看，把志愿军和美帝都拍成了傻子', '差评的都是00后吧！', '致敬先烈\n', '很细节的电影', '佩服，神枪手太厉害了', '那些说风凉话的，你们真的很低俗普通话1:31:29', '抗美援朝胜利了，战争的残酷，电影艺术的表现形式可能有不及的程度，流着泪看完的，致敬英雄先烈们，您们的负重前行，才换来我们的太平生活！🙏🙏', '一直不敢看这类题材的，怕自己忍不住。后面把其他几部也慢慢看了', '最朴素的场景却又最震撼人心', '此类题材希望多拍，通过影片让更多后代去了解当年先辈们用生命换来今天的和平，先辈们把我们的苦都吃完了。致敬先辈，致敬中国军人。', '还是老谋子的电影好看', '确实好看力推', '题材真心感动！', '班长一路走好', '很好的电影，很有教育意义。深刻体会到革命先辈的不易和伟大！很喜欢章宇，很有魅力的演员，演技一流，演什么是什么！！！新人演员也都不错，很棒的影片！', '2023.12.12成功打卡[准时]', '绝对值得看', '为人民子弟兵致敬', '亮亮身上有重要情报', '战争的残酷，人性的光环', '非常精彩好看', '这么好的剧，评论这么少', '没当过兵的80后哭了一路，给80后丢脸了！', '了不起的先辈……敬礼！', '这是怎么了？暴露位置，对方也不打了？', '确实拍的不错', '狙击精英？', '今天看了三遍了', '是什么事情都摆平了，最后狗腿子就出来了', '熬到天黑一个也死不了', '非常好看的电影', '能把我眼泪看出来的就是好片', '这两个老美打一个人急成这样', '说神剧的都是不知道抗美援朝战争的冷枪冷炮']</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['藕饼这个样子真搞笑😄😄', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈😂？不好意思你说了一句对不起🧎\u200d♂️！你说他喜欢的人会觉得我真的不愿意辅导他自己辅导小孩很多的作业不是作业不是滋味！不好意思也不能再联系你', '2022年，重温，还有人嘛', '看得我哭了呜呜😭', '哪吒小时候好可爱。', '又看了一下，妈的又不争气，又哭了。', '最伟大的动漫，没有之一，这部电影里真的有反派吗？申公豹算是反派吗？他为了证明自己的能力有错吗？敖丙有错吗？龙族有错吗？魔丸呢？非常有深度的动漫，内涵却不输星爷的电影，估计也是动漫巅峰了', '开的车吗？嫂子啊🙀🙀🙀🙀🙀🙀🙀🙀🙀啊啊啊啊啊啊啊啊啊啊啊啊啊我的错我的错', '这是敖丙小时候😘。', '这几张图挺好', '好多桥段都是向周星驰致敬的啊', '看了半个小时 哪吒娘谁配的一塌糊涂她非要和哪吒配出姐妹的感觉才开心', '救命，哪吒好师！', '希望看到第二部', '不同的风格', '人心中的成见是一座大山，任凭你怎么努力都改变不了\n我一个魔丸活的都比你有个人样，你一个灵珠转世可以活的再怂些吗？', '若命运不公，便和它斗下去！《哪吒之魔童降世》真是一部让人看了又哭又笑的电影，里面实在是有太多发人深省的台词了，来说说最让你印象深刻的是哪句台词？鹅叔想到的是我命由我不由天！', '元始天尊出关后，听说哪吒的事很感动，教了太乙一招，利用莲儿恢复哪吒真身，龙王为了救敖丙，用自身的龙丹换了敖丙一命。龙王死后。龙王小公主为了复仇，又和申公豹一起，把天牢里的怪兽放出来了，让他们去杀死陈塘关百姓，还有李靖和哪吒。龙王小公主抓了李靖夫妇要挟哪吒，哪吒要去赴死换回父母时，被敖丙偷偷将人放了，龙族将敖丙锁了起来准备邢死，哪吒知道消息，只身赴龙宫打算换敖丙一命，但是被申公豹用计谋抓住。为了救哪吒，太子真人与李靖夫妇也赶到了龙宫，将与申公豹和龙族怪兽开展一场殊死搏斗？最后如何，，，哪吒三会有预告！！！', '2022.4.8号还有人看吗，虽然看了七八遍，但还是看一次感动一次，好片。', '我之前就想一个问题，太乙真人是真傻还是假傻，要是假傻，太乙都算到了，从灵珠抢夺到最后，眼看事情有变，就为了就哪吒敖丙而被天雷费去修为拼命护住，那太乙的心机可就有点深啊！\n（当然这是我假如的一种可能，仅供参考，不喜勿喷，谢谢）', '二零二一年十月十三日没有比我更晚的吧', '因为你，又来重温一遍。不认命是哪吒的命，也是你的选择。那就一起加油！✊✊✊', '怎么感觉每一次看都不一样，第一次时感觉是申公豹错了！他偷灵珠，害的哪吒背黑锅！可是这次感觉不一样了！（灵珠或魔珠赋予的那一刻，有谁问过他？为了哪吒，给哪吒积德行善，有谁在乎他？哪吒最后两年光阴就应该被囚禁于山河图内？打退妖怪，村民不理解打骂，他父亲看出来了却不说出来，不为他辩解？）这些真的挺心寒的！从最开始魔丸降临的时候，魔气入体的不能自己，到孤身一人无玩伴所有人躲着他，再到别人大骂妖怪，再到囚禁，再到雷劫也是够阴暗的了！', '一个认真修炼，一个玩，一个状态全开，一个没有完全开，还有神甲，还打不赢笑了', '2022.1.7还有人看吗？', '2023年12月18号会员打卡', '国产动画电影的巅峰  没有之一', '有人去看隔壁那部哪吒2重生了吗……简直一言难尽😥', '牛牛牛⺧生牛牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼', '这是哪位？？？看起来挺吊', '隔壁的哪咤，像木偶戏，皮影戏。根本没眼看。火了一个魔童降世，各种蹭ip的都出来了，', '2023年来重温的看这里', '好看的电影，后面很感动。我命由我不由天！', '太好看了吧！刚刚又刷了一遍，超级感动！，真好看要是有第二部就好了', '2022/4/16\n22：20打卡', '我仿佛看见了我们小时候的两个莲花灯。', '哈哈哈哈哈哈哈哈重刷', '可怜之人必有可恨之处，你保护的人可能就是最不值得救赎的人', '你们有没有忘记一件事他才三岁', '阿姨裤子鞋子休闲鞋韩版考虑考虑问题吧', '我是小妖怪， 逍遥又自在， 杀人不眨眼，吃人不放盐 ，一口七八个， 肚子要撑破， 茅房去拉屎， 想起忘带纸 。', '在2019年的《哪吒之魔童降世》，刚放出预告片时，片子被网友骂疯了。烟熏妆、鲨鱼牙、又丧又拽。张口就是「杀人不眨眼，吃人不放盐」。妥妥的「毁童年」系列。谁能想到就这么一个「丧王之王」，在2019票房居然吊打了《复仇者联盟4》。要知道，这部可是漫威十年收官之作啊！打败它的国产动画，谁敢不服。颠覆形象，是哪吒之所以爆火的重要原因。角色全是大家熟悉的人，事件也大差不差。可喊着「我命由我不由天」的的哪吒，和将爱藏在严厉外表下的李靖。加上敖丙和哪吒双雄对垒的设定。它用旧故事的壳，套入了当下观众的情感需求。另一方面，电影爆火也印证了传统文化的力量。与《大圣归来》类似的民族认同感，在它身上也得以印证。观众对「国产动画」崛起的心，反复被撩动。每逢爆款出现，总会引发集体狂欢。遗憾的是，「封神宇宙」只成就了哪吒。后续无论是杨戬，还是姜子牙，都难扛大旗。《哪吒2》呢？让我们拭目以待吧！', '还是喜欢😍', '太好看了 快来看看看！！！', 'q\u2006q\u2006a\u2006s', '没意思，这就没了。', '别的电影结局都是好的，这个是坏的。', '正所谓不要在意别人的眼光，做你自己就好不管是魔还是仙，只要你做的是好事，不要在意别人的眼光，你就是好的你就是好人有的是好人，表面是好人，但是做坏事他就是坏人有的坏人长相凶神恶煞，但他内心是善良的，那就是好人是魔是仙只在一念之间哪吒，你虽然是魔丸但是你为了阻止敖丙选择拯救大家，那你就是英雄是好的是魔怎么了只要你做好事，那你就是英雄，就是好人不要在意别人的眼光做你自己就好😊😊😊😊😊😊', '来回顾的，又哭又笑了一遍', '笑死，人了，东西都行了', '满分满分', '国漫顶级', '2022年1月12日星期三凌晨07分，五刷😃 #哪吒#', '#迪丽热巴拍摄安乐传#加油', '李靖成功洗白，“他是我儿”四字一出，热泪盈眶', '第二部是姜子牙吗', '国漫的天花板的确不错   值得一看', '如果你们看过周星驰的电影 你们就会发现 有很多台词 都是致敬周星驰 ', '期待第二', '加了啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊', '国产动漫巅峰了吧', '完美。。。就目前（国内）最好动漫电影没有之一', '这么高的分，如果是我审核这电影一定不让他通过，如果童年都是这样的童年怎么可能反转，对就是对错就是错，不是做了错的事，在做对的事就能功过共算。错必罚，功必赏，赏罚分明。不以小恶而为之。不以小善而不为。', '你打我撒，你打我撒。', '托儿，他不是坏蛋，他是个守护世界的好人', '真的好好看，我看了两次，还留着以后还会看，太好看了', '这才是正版', '敖丙真的很可怜，所以说人就不能心软，就因为他不是人类救了人也要除掉他', '一歌女画家', '🥰中坛元帅最帅了', '大胖子太坏了', '我第一次看哪扎', '每次看，都豆笑我，哈哈哈😄', '我一天之内看了三遍', '给我低调点懂吗', '好喜欢哪吒他妈🌚贼豪迈，我真的爱死了！', '我和我妹妹看了100遍[笑死我了]', '哪吒：天气冷了，给你们暖和暖和[撒花N][撒花N][撒花N]', '二三年十二月十二日重温[准奏]', '当我看完10万个冷笑话再来看这个，我操，居然过了那么久了', '故事告诉我们没有开始就是坏人，或好人只说，只要做好自己就可以，哪怕你是杀人犯的后代，也不能因为上一代打上这样的标签，哪怕上一代是个善人，你是杀人犯，不要给上一辈也带上标签，这不知道看第几遍了，看懂了', '这就是中国人的天性，信命但不认命。命由天定运有己造。如果天命难违，那老子就他妈的逆天改命。', '哪吒明明很讨厌他的父母，为什么藕饼打他父母却阻止了呢？', '骚气的太乙', '谁家孩子👶带着项链？', '踢个毽子能死人啊  *', '这肥子好嚣张叫吧。', '我想玩这手上的胖子的那一个什么东西', '那个是肾公公还是申公豹？', '欧冰之年怎么过了呢？']</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve"> 满江红 </t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>VIP · 10003热度</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VIP · 10040热度</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>《满江红》上线，实力派演员大集结！,电影简介:南宋绍兴年间，岳飞死后四年，秦桧率兵与金国会谈。会谈前夜，金国使者死在宰相驻地，所携密信也不翼而飞。一个小兵与亲兵营副统领机缘巧合被裹挟进这巨大阴谋之中，宰相秦桧命两人限一个时辰之内找到凶手，而事情却远没有这么简单……
 伴随危机四伏的深入调查，案件的背后似乎隐藏着一场更大的阴谋。局中有局、人外有人，人心叵测、生死难料，一夜之间风云变幻，各方势力暗流涌动……</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>8.7分</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>喜剧</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['俩个字，一般，可看可不看的那种', '怪不得被骂那么惨，是嫉妒啊，真的拍的很好，每人演技都在线[满江红张大][满江红张大][满江红张大][满江红张大]', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐，牵强的笑点。最后合唱诗词打着精忠报国的旗号', '有些没有血性，不了解历史的人。张嘴就说这电影不行，贻笑大方罢了', '可能会让你们失望了', '看完了，非常好看，近几年难得的好看电影，喜剧＋悬疑而且反转太多了，不看到最后你都不知道每个人是怎么回事，很棒', '拍得什么这玩意，强行消费岳飞的感觉。难怪春节档被人说用手段玩阴兵场，不然连球2的尾灯都看不见\n', '电影不错 就是只有六分钟 导演下次拍长点', '怒发冲冠 凭阑处 潇潇雨歇', '4.28满江红全网上线，一腔热血一生忠义，再入宰相府看风云涌动，探人心叵测，共破迷局~', '最让我震撼的是每个人都有一份属于自己的温柔，何力手下无活人，可是最后桃丫头活下来了', '就这玩意儿，票房怎么起来的', '昨天看了，很一般吧', '一颗太子屎，坏了一锅汤', '看完觉得之前网络上的那些喷子都是些没家国情怀的人。人不管在什么朝代，什么阶层，什么职位，都有迫不得已的苦衷。但是爱国是底薪。我们要继承岳飞的爱国情怀，把满江红深深地刻在DNA里！', '一开始看这演员阵容以为是部喜剧，看到一半想为自己的草率道歉，看完含泪点赞', '[打卡-打][打卡-卡]满江红，全片看完就是感觉是一个自喻聪明的人设计剧情，以为不断反转就是悬疑跌宕起伏，但看完后就是耍猴戏。片中走了好多次巷子放了多次音乐轰炸，新春档上来就杀杀杀，走一次巷子杀一次。片尾有洗白秦跪的台词，杀了那么多人，结局强行降智反派秦跪，逼背诵满江红，强行剧情杀，杀了后又直接反转，被杀的是替身，真身直接现身，啥护卫都没有。然后要杀真身又反转，说搞了那么多就为背首诗强行烂尾！十足烂片 \u200b[气到变形][气到变形][气到变形][气到变形][气到变形]', '特别好看真的 不知道为什么会有人喷[哭到脸大][哭到脸大][哭到脸大][哭到脸大]后半段我特别感动看一眼男朋友他眼泪也在眼眶里 看完出来我俩都特别感悟[意难平][意难平]真的特别好看', '大年初一，相约满江红', '看完了反转特别大，有些画面可能不适合太小的孩子', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐', '昨天去看了，搞笑片，全程没笑点最后我朋友大咕噜给大伙整乐了[狗头][狗头]', '谢谢你满江红，治好了我的失眠症', '真的绝绝子！在电影院看完了，很是震撼！！反转很多，后劲超大。从电影院出来的时候我都要哭死了！一句话，满江红值得！', '这个阵容谁看了不迷糊[憨笑]', '满江红，怒发冲冠，凭栏处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲，白了少年头，空悲切！靖康耻，犹未雪。臣子恨，何时灭！驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。', '我认为，这是张艺谋近十几年来，最好的片子！自打《英雄》后，張导的作品大多不如以前。这片子，張导宣传民族精神主题，但采用很现代的拍摄方式，，，内容正能量，形式上嬉笑怒骂，不拘传统，把正能量融入幽默滑稽之中。我看，挺新潮，前卫的，，', '我知道这部电影里面有你们喜欢的明星，或者是哥哥，就说电影本身，不关演员之类的，我看这个电影是看这演员阵容都很牛，才看的，但是我看了之后就俩字后悔😅，我跟那些看一半走了的不同，我是坚持完全看完了，都感觉没啥好看的 就是感觉被割韭菜一样，就这么几个地方，来回走一走，搞得好像那种综艺侦探破案。不多说了，我有点心疼我的钱[泪奔]', '还用不用掏六块钱了', '手机上可以看吗（免费的那种）', '不愧是大盗演，这部电影凭什么在春节档拿票房No1，真见识到上通天（官）下通地（资本）是什么样的了', '好看，反转总是出乎意料，演员演技都炸裂，特别是最后全军复诵满江红特别感人震撼。', '资本的力量这么强大，看看选角都是什么演员都大概看出什么电影了。知名大导演这几年水准不咋地', '电影还得是老谋子，拍的是真牛逼啊', '感觉票房估计要凉。因为，感觉怎么像三枪拍案惊奇汗', '像几个人玩的游戏一样，没有电影的感觉，期待太高，有些失望', '今天去看了，很好的电影。单论电影，是部好电影，电影本身来源于生活却高于生活，与现实肯定有些出入。电影剧情环环相扣，可能需要点脑子才能看懂。张大从投靠孙均开始，便已经有了打算，故意被射死的刘喜，和叛变说出一切都丁三旺，甚至张大的死，所有的一切都在张大的谋划中，为的就是孙均的觉醒，张孙均才是最关键的人物。为了这场计划，张大摸清了所有人的性格，堵上所有人的生命，至于瑶琴，有她才使这场谋划更加真实，当然，就算没有瑶琴进来，计划依旧是这样。而这一切都目的，就是制止秦桧的计划，还岳飞一个忠义名节，以岳飞遗志，唤醒民众，不能弯腰臣服于金人。可以说，张大将所有人都算计了进去，总的来说，值得一看', '“怒发冲冠，凭阑处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。”\n中国优秀传统文化志精华，除了感动，还有热血。感谢张艺谋导演，今后多拍些这类电影！祖国复兴，山河一统，就是要有这种中国精神！！！', '我女朋友今晚陪她老公去看的就是这个', '个人认为电影不错，就和无极一样刚开始看不懂，等多看几遍就理解了，会突然发现这些电影的内涵，我觉得还算可以的电影，看不懂的人是因为前面剧情无聊而没有耐心认真看下去', '没得说，真的好看，刚去电影院看了。今年最好看的电影，没有之一真的，直接冲。', '不懂老谋子的人还是太多，太深沉，厚重的原因吧。', '历史剧，最好不要找喜剧演员。因为在怎么演。看着有点搞笑。不是演的不好，让一直演坏人的人演好人，怎么都不像，个人观点。', '巨好看。初一去电影院看了。\n全军复诵:都去看 满江红', '我就想问一句话，岳云鹏真的会演电影吗？哎！！！', '把满江红拍成喜剧，简直就是不负责任。', '没有张译我是不会去看的，有多少人是奔着张译来的', '一星都是奢侈', '易烊千玺！！祝满江红票房大卖', '刚看完，并不算很好看，局中局计中计，剧情基本能猜到一半，搞笑情节不算多，个人观后感一般般吧。', '各有各的说辞。理性分析，为什么美国会批判我们的流浪地球，说明那个会影响他们的地位。', '六块钱呀，六块钱可以买两瓶冰红茶，可以买一顿早饭', '对历史要严肃啊', '玺哥的电影肯定要不见不散呀', '期待千玺的满江红', '这就是在咱们山西太原古县城拍的大片！必须捧场哈！', '可以可以，近年来不错的电影', '这么一会就这么多评论了呀，看来和我一样闲的人不少啊', '好看吗？好看吗？这种电影可以坐票房第一是为什么？', '手机啥时候能看？', '这表情不错', '难怪都说这部就是在一个院子里跑来跑去的，确实是这样！不过也有升华，最后的满江红真的很振奋人心！但仅仅是满江红，与这部电影无关！确切的来说这部电影与当时的票房不符，可见票房能超过同期的小破球2还是有手段的！电影也不至于太差，就是能超小破球2太可疑！仅个人所感！', '专门去打个卡，秦桧头都打烂了贴个补丁', '老谋子 不负众望 好片子 有搞笑 有泪点 有大义 有情怀  堪称经典', '浅浅剧透一下', '不会就我一个人其实已经看过了吧', '有一个逻辑破绽，既然想对死人开膛拿信，为何就不能对活人开膛拿信？', '最后背诵满江红升华，绷不住了[意难平]', '从此便有了满江红', '啥也不是', '看到1次，我要吐槽一次。纯纯的割韭菜电影，当初真是脑子不好了才会去影院看', '我也看了，很一般', '没有这群人斗智斗勇奔赴死，何来岳飞遗言满江红？', '满江红这首诗谁都可以念，唯独秦桧不能念出来，让岳飞后人怎么看', '怒发冲 冠', '再看一次', '玛德配音给我吓一跳', '可以用会员观看电影啦', '前面笑的有多欢乐，后面就哭的有多难受', '还可以，没有那么震撼的感觉', '这电影一般人还真看不懂，都会觉得拍的啥玩意，真正懂的人才知道这电影牛逼坏了', '现在的心情：壮怀激烈！全片不见岳武穆，全片处处岳武穆👍🏻张艺谋是懂什么叫家国情怀的～\n\n你永远可以相信张艺谋的艺术审美！镜头空间感运用的炉火纯青，很多一镜到底真的特别有代入感！喜剧元素处理的也十分巧妙，和剧情节奏融合的很自然，笑点很密但没有一处是为了爆梗而爆梗～配乐极其加分，诙谐又热血👍🏻\n\n剧情完美体现了什么是“聪明反被聪明误”“螳螂捕蝉黄雀在后”。每个角色都精准到位，情节环环相扣，不停反转，每当观众以为“啊 不会吧”下一秒就是“我去 还能这样” 不到最后一刻大幕落下，谁也不知道最后会发生什么～观众心态被很很拿捏！\n\n“比起市面上一些为了追求“所谓艺术”而味如嚼蜡的电影，《满江红》真的完美兼顾了电影商业性、艺术性、思想性！”\n\n最喜欢结尾，全军复诵岳飞词作《满江红》中，孙均满身带血的远走天涯，收拢剩余所有的诗意～\n\n总之，真心推荐大家都来看看满江红！一边长脑子，一边笑掉脑子，悬疑管够，笑到最后！', '不得不说，里面演员的演技全在线，可是剧情说实话就那样吧，我就是冲着满江红这一首诗来的，感觉如果没有这首诗和岳飞这部电影真不咋滴，就是一个院子跑来跑去，如果没有这些人的演技在线可能我都看不下去了。实话实说，个人观点，不喜勿喷[皇冠]', '欠张导一张电影票', '每个人看电影的感觉不一样，前面跑来跑去都是为后面的螳螂捕蝉黄雀在后做铺垫。不过比较讨厌一种评论就是说什么很假，历史不是这样的之类话。有谁知道历史的真相，历史压根就没真相。就算有真相也会被掩盖或者浮夸或者降调', '多拍好看电影', '可惜了，南宋近200年，上上下下没能完成这又骨气的事情，一直到老朱菜驱除鞑虏，恢复中华，收复燕云16州，还是再蒙古高压打的情况下，活不了才反抗，现在不可能了，全民教育，基本都知道礼义廉耻，不可能再有这样的事情了，又个别小丑，不可蒙蔽中华', '英雄岳家军', '何立好身段', '什么颜色']</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['俩个字，一般，可看可不看的那种', '怪不得被骂那么惨，是嫉妒啊，真的拍的很好，每人演技都在线[满江红张大][满江红张大][满江红张大][满江红张大]', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐，牵强的笑点。最后合唱诗词打着精忠报国的旗号', '有些没有血性，不了解历史的人。张嘴就说这电影不行，贻笑大方罢了', '可能会让你们失望了', '电影不错 就是只有六分钟 导演下次拍长点', '历史上的《满江红》都没有证实是岳飞写的，岳飞写的是《满江红，登黄鹤楼有感》。而且岳飞的死主要是赵构和金人谈判求和的一个条件。秦桧是千古奸臣，但不是在岳飞的事是体现。秦桧只是赵构杀岳飞的一个名正言顺的借口', '怒发冲冠 凭阑处 潇潇雨歇', '看完了反转特别大，有些画面可能不适合太小的孩子', '4.28满江红全网上线，一腔热血一生忠义，再入宰相府看风云涌动，探人心叵测，共破迷局~', '看完了，非常好看，近几年难得的好看电影，喜剧＋悬疑而且反转太多了，不看到最后你都不知道每个人是怎么回事，很棒', '拍得什么这玩意，强行消费岳飞的感觉。难怪春节档被人说用手段玩阴兵场，不然连球2的尾灯都看不见\n', '最让我震撼的是每个人都有一份属于自己的温柔，何力手下无活人，可是最后桃丫头活下来了', '就这玩意儿，票房怎么起来的', '昨天看了，很一般吧', '一颗太子屎，坏了一锅汤', '看完觉得之前网络上的那些喷子都是些没家国情怀的人。人不管在什么朝代，什么阶层，什么职位，都有迫不得已的苦衷。但是爱国是底薪。我们要继承岳飞的爱国情怀，把满江红深深地刻在DNA里！', '[打卡-打][打卡-卡]满江红，全片看完就是感觉是一个自喻聪明的人设计剧情，以为不断反转就是悬疑跌宕起伏，但看完后就是耍猴戏。片中走了好多次巷子放了多次音乐轰炸，新春档上来就杀杀杀，走一次巷子杀一次。片尾有洗白秦跪的台词，杀了那么多人，结局强行降智反派秦跪，逼背诵满江红，强行剧情杀，杀了后又直接反转，被杀的是替身，真身直接现身，啥护卫都没有。然后要杀真身又反转，说搞了那么多就为背首诗强行烂尾！十足烂片 \u200b[气到变形][气到变形][气到变形][气到变形][气到变形]', '流浪地球的失败是必然的。我去电影院看流浪地球，电影院售票人员给我调满江红界面，我说他是不是搞错了，他说都一样，然后然后用管理员账号把票价调成和流浪地球一样的58，上面显示我买了满江红的票，最后去别的厅看了流浪地球\n——转自其他网友\u200b', '大年初一，相约满江红', '一开始看这演员阵容以为是部喜剧，看到一半想为自己的草率道歉，看完含泪点赞', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐', '昨天去看了，搞笑片，全程没笑点最后我朋友大咕噜给大伙整乐了[狗头][狗头]', '谢谢你满江红，治好了我的失眠症', '真的绝绝子！在电影院看完了，很是震撼！！反转很多，后劲超大。从电影院出来的时候我都要哭死了！一句话，满江红值得！', '这个阵容谁看了不迷糊[憨笑]', '真的，笑点高一点点的都笑不出来，玩的大多是尬笑，玩梗，跟个剧本杀一样。虽说剧情紧凑，且以岳飞被害为背景，提现爱国情怀，也足够反转。但场景的单一，以及人物查案时的事件不够震撼，加上悬疑带点尬笑的影设，导致剧情显得稍有沉闷。人物进行场景转移的时候都会有戏腔音乐点缀，让人稍微精神，但还是难改沉闷。十分我评6.5分吧，稍有失望😞', '特别好看真的 不知道为什么会有人喷[哭到脸大][哭到脸大][哭到脸大][哭到脸大]后半段我特别感动看一眼男朋友他眼泪也在眼眶里 看完出来我俩都特别感悟[意难平][意难平]真的特别好看', '我知道这部电影里面有你们喜欢的明星，或者是哥哥，就说电影本身，不关演员之类的，我看这个电影是看这演员阵容都很牛，才看的，但是我看了之后就俩字后悔😅，我跟那些看一半走了的不同，我是坚持完全看完了，都感觉没啥好看的 就是感觉被割韭菜一样，就这么几个地方，来回走一走，搞得好像那种综艺侦探破案。不多说了，我有点心疼我的钱[泪奔]', '手机上可以看吗（免费的那种）', '满江红，怒发冲冠，凭栏处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲，白了少年头，空悲切！靖康耻，犹未雪。臣子恨，何时灭！驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。', '不愧是大盗演，这部电影凭什么在春节档拿票房No1，真见识到上通天（官）下通地（资本）是什么样的了', '好看，反转总是出乎意料，演员演技都炸裂，特别是最后全军复诵满江红特别感人震撼。', '资本的力量这么强大，看看选角都是什么演员都大概看出什么电影了。知名大导演这几年水准不咋地', '电影还得是老谋子，拍的是真牛逼啊', '感觉票房估计要凉。因为，感觉怎么像三枪拍案惊奇汗', '我认为，这是张艺谋近十几年来，最好的片子！自打《英雄》后，張导的作品大多不如以前。这片子，張导宣传民族精神主题，但采用很现代的拍摄方式，，，内容正能量，形式上嬉笑怒骂，不拘传统，把正能量融入幽默滑稽之中。我看，挺新潮，前卫的，，', '像几个人玩的游戏一样，没有电影的感觉，期待太高，有些失望', '我女朋友今晚陪她老公去看的就是这个', '还用不用掏六块钱了', '没得说，真的好看，刚去电影院看了。今年最好看的电影，没有之一真的，直接冲。', '不懂老谋子的人还是太多，太深沉，厚重的原因吧。', '今天去看了，很好的电影。单论电影，是部好电影，电影本身来源于生活却高于生活，与现实肯定有些出入。电影剧情环环相扣，可能需要点脑子才能看懂。张大从投靠孙均开始，便已经有了打算，故意被射死的刘喜，和叛变说出一切都丁三旺，甚至张大的死，所有的一切都在张大的谋划中，为的就是孙均的觉醒，张孙均才是最关键的人物。为了这场计划，张大摸清了所有人的性格，堵上所有人的生命，至于瑶琴，有她才使这场谋划更加真实，当然，就算没有瑶琴进来，计划依旧是这样。而这一切都目的，就是制止秦桧的计划，还岳飞一个忠义名节，以岳飞遗志，唤醒民众，不能弯腰臣服于金人。可以说，张大将所有人都算计了进去，总的来说，值得一看', '历史剧，最好不要找喜剧演员。因为在怎么演。看着有点搞笑。不是演的不好，让一直演坏人的人演好人，怎么都不像，个人观点。', '巨好看。初一去电影院看了。\n全军复诵:都去看 满江红', '我就想问一句话，岳云鹏真的会演电影吗？哎！！！', '“怒发冲冠，凭阑处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。”\n中国优秀传统文化志精华，除了感动，还有热血。感谢张艺谋导演，今后多拍些这类电影！祖国复兴，山河一统，就是要有这种中国精神！！！', '把满江红拍成喜剧，简直就是不负责任。', '没有张译我是不会去看的，有多少人是奔着张译来的', '个人认为电影不错，就和无极一样刚开始看不懂，等多看几遍就理解了，会突然发现这些电影的内涵，我觉得还算可以的电影，看不懂的人是因为前面剧情无聊而没有耐心认真看下去', '一星都是奢侈', '易烊千玺！！祝满江红票房大卖', '刚看完，并不算很好看，局中局计中计，剧情基本能猜到一半，搞笑情节不算多，个人观后感一般般吧。', '各有各的说辞。理性分析，为什么美国会批判我们的流浪地球，说明那个会影响他们的地位。', '六块钱呀，六块钱可以买两瓶冰红茶，可以买一顿早饭', '对历史要严肃啊', '玺哥的电影肯定要不见不散呀', '这就是在咱们山西太原古县城拍的大片！必须捧场哈！', '可以可以，近年来不错的电影', '好看吗？好看吗？这种电影可以坐票房第一是为什么？', '这么一会就这么多评论了呀，看来和我一样闲的人不少啊', '手机啥时候能看？', '这表情不错', '难怪都说这部就是在一个院子里跑来跑去的，确实是这样！不过也有升华，最后的满江红真的很振奋人心！但仅仅是满江红，与这部电影无关！确切的来说这部电影与当时的票房不符，可见票房能超过同期的小破球2还是有手段的！电影也不至于太差，就是能超小破球2太可疑！仅个人所感！', '专门去打个卡，秦桧头都打烂了贴个补丁', '孙均最后杀了宰相', '浅浅剧透一下', '为了刺杀秦桧[满江红孙均][满江红张大][反转]', '不会就我一个人其实已经看过了吧', '最后背诵满江红升华，绷不住了[意难平]', '看到1次，我要吐槽一次。纯纯的割韭菜电影，当初真是脑子不好了才会去影院看', '我也看了，很一般', '老谋子 不负众望 好片子 有搞笑 有泪点 有大义 有情怀  堪称经典', '从此便有了满江红', '有一个逻辑破绽，既然想对死人开膛拿信，为何就不能对活人开膛拿信？', '满江红·写怀\n\n宋 ·岳飞\n\n怒发冲冠，凭栏处、潇潇雨歇。抬望眼、仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。', '啥也不是', '怒发冲 冠', '再看一次', '值得推荐的一部电影[满江红孙均]', '这电影一般人还真看不懂，都会觉得拍的啥玩意，真正懂的人才知道这电影牛逼坏了', '现在的心情：壮怀激烈！全片不见岳武穆，全片处处岳武穆👍🏻张艺谋是懂什么叫家国情怀的～\n\n你永远可以相信张艺谋的艺术审美！镜头空间感运用的炉火纯青，很多一镜到底真的特别有代入感！喜剧元素处理的也十分巧妙，和剧情节奏融合的很自然，笑点很密但没有一处是为了爆梗而爆梗～配乐极其加分，诙谐又热血👍🏻\n\n剧情完美体现了什么是“聪明反被聪明误”“螳螂捕蝉黄雀在后”。每个角色都精准到位，情节环环相扣，不停反转，每当观众以为“啊 不会吧”下一秒就是“我去 还能这样” 不到最后一刻大幕落下，谁也不知道最后会发生什么～观众心态被很很拿捏！\n\n“比起市面上一些为了追求“所谓艺术”而味如嚼蜡的电影，《满江红》真的完美兼顾了电影商业性、艺术性、思想性！”\n\n最喜欢结尾，全军复诵岳飞词作《满江红》中，孙均满身带血的远走天涯，收拢剩余所有的诗意～\n\n总之，真心推荐大家都来看看满江红！一边长脑子，一边笑掉脑子，悬疑管够，笑到最后！', '没有这群人斗智斗勇奔赴死，何来岳飞遗言满江红？', '满江红这首诗谁都可以念，唯独秦桧不能念出来，让岳飞后人怎么看', '可以用会员观看电影啦', '前面笑的有多欢乐，后面就哭的有多难受', '还可以，没有那么震撼的感觉', '欠张导一张电影票', '多拍好看电影', '可惜了，南宋近200年，上上下下没能完成这又骨气的事情，一直到老朱菜驱除鞑虏，恢复中华，收复燕云16州，还是再蒙古高压打的情况下，活不了才反抗，现在不可能了，全民教育，基本都知道礼义廉耻，不可能再有这样的事情了，又个别小丑，不可蒙蔽中华']</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 狙击手 </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VIP · 10022热度</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>张杰献声张艺谋春节电影《狙击手》《年轻人》致敬先烈守护盛世,电影简介:影片根据抗美援朝战争“冷枪冷炮”运动中神枪手群体事迹改编。1952年冬至1953年初，中国人民志愿军与联合国军在朝鲜战场形成僵持，双方发起了低强度的密集狙击战，史称“冷枪冷炮”。在连长带领下的狙击五班战士枪法过人，成为敌军的心头大患，班长刘文武更成为重点狙击对象。为重创狙击五班，敌方调配精英狙击小队，配以最先进的武器装备，更迫使狙击五班战士大永等人为救同伴进入其设好的险境之地。但正当敌军打响自己如意算盘之时，他们未料到，被他们当作诱饵的侦察兵亮亮身上其实隐藏着更大的秘密。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.3分</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['很震撼的一部电影！值得观看！', '演的啥玩意，为了一个尸体一个一个的送死，送死敢死队？', '英雄枯骨无人问，戏子家事天下知！！那些被资本炒作捧红的流量明星不值得追捧', '我爸爸叫桑贵福当年就是38军的战士', '不真实，演员太胖了，刚解放的时候，人们几乎都是消瘦健康的。女演员说话语气太嗲，太现代。', '不懂战争的残酷就不要瞎喷。子弹和军人都没有错，为了自己祖国的利益，军人、子弹、炮弹都只是在完成自己的使命而已。全世界的军人都应当受当该有的尊重。其实军队就是国家机器，不要瞎喷军人。我向在历次战争中牺牲的每一位军人敬礼。\n', '之前唱歌那么大声，不怕暴露？', '向先辈烈士致敬', '立正，敬礼', '最初拿到绿卡的几个外国人之一', '伟大的中国人民志愿军万岁，中国共产党万岁', '幸福的生活，是前辈用命换来的，不忘历史，抵制美军，小鬼子', '可能剧情偏神话了，小米步枪干掉对方高精密武器团，实在话不可能的，能赢是我们中国牺牲很多很多换来的，珍惜现在的和平。', '这个月是要交智商税吗？还是我该补补脑', '按事实拍比这神多了…打死两百多还活着回中国', '我能开透视嘛？', '这是一种精神寄托', '他们18岁已经是一名出色的战士，而我们呢？也许在校园追哪个女孩子，也许在哪里逍遥快活', '致敬先烈，致敬英雄！', '看起老火，非得去送死', '这么好的片子，必须高分，致敬我们的先辈，我们的英雄', '细节把握得很到位，故事逻辑性也很强，一步步引人入胜。', '好电影，打出了中国人的处事方式，打出了共产党的精神，张导好样的。', '被敌人放这里的还有情报？', '最后的点名  炸哭我', '致敬最可爱的人！！', '以前当兵的都有真功夫的', '没看过瘾。以前的故事多拍一点。00后10后20后  都要知道', '老谋子还是老谋子，拍的很好，不是什么大战役，只是一瞬间的生和死，残酷，决绝，勇于奉献，一直很紧张的看着，看着看着就流泪了', '为什么用这种办法拖亮亮？', '想不明白为什么要为一个尸体再做不必要的牺牲', '为了祖国和平 为了共产党的信仰，我国的中华儿女奋勇向前，献出了自己宝贵的生命！为我国中华儿女的先辈们致敬！', '致敬英雄～敬礼！', '真值得看一看。', '打的是肾上腺素吗？', '你踏马闹着玩呢，狙击手对决敢这样？在讲感情也不可能这样，狙击手最起码的理智', '现在绝对没有这样的人了', '眼睛里进砖头了[大哭][大哭][大哭]', '可以，不错', '永生难忘', '泪目，数万五班换来今天的幸福生活…', '场面没有宏大，但情感描述到位了，与宏大场面的剧是两种形式，还是要点赞👍', '特别好看', '超级好看！！！', '眼睛有点湿', '我觉得没带上美国狙击枪有点不合理', '太喜欢了', '不管这是拍得好与不好！这样的都是真实的！有前辈们的牺牲才有现在我们的生活！', '看了几遍还想看', '水门桥他们比这苦太多了', '致敬张桃芳', '弹幕看的我直接关掉了，真的是不知道怎么说那些人，那时候我们的通信设备只有电台，而电台也是很稀缺的，想会用电台就必须经过长期的训练才行，能说出为了救两个尸体而牺牲那么多人有什么意义的那些人，你以为我们的英雄想要这样子去送吗，我们那时候想要得到重要情报，很多时候都是靠人命去堆出来的，那时候我们要是通信设备和对方一样普及，我们还需要这样吗？请记住一句话：落后就要挨打。在这种面对面的情况下想要得到情报而不牺牲的，基本不可能，不要被现在的一些神剧带偏了', '拯救大兵亮亮', '一点也不好，看，把志愿军和美帝都拍成了傻子', '今天看了三遍了', '《狙击手》这部影片中的五班战士，是英雄更是一个个有血有肉、活生生的人。这符合张艺谋一贯的偏好，也没有他影片常见的造作。估计作为女儿的张末对此贡献不少。希望以后我们会有越来越多优秀战争电影涌现出来，打破美国人对于电影美学的定义权。', '差评的都是00后吧！', '很细节的电影', '那些说风凉话的，你们真的很低俗普通话1:31:29', '简单的剧情，甚至在战役中没有记录，可见中国军魂', '佩服，神枪手太厉害了', '一直不敢看这类题材的，怕自己忍不住。后面把其他几部也慢慢看了', '抗美援朝胜利了，战争的残酷，电影艺术的表现形式可能有不及的程度，流着泪看完的，致敬英雄先烈们，您们的负重前行，才换来我们的太平生活！🙏🙏', '还是老谋子的电影好看', '伟大的中国万岁', '致敬所有牺牲的抗美援朝烈士们，致敬所有英雄们。你们是当之无愧的英雄。敬礼！', '确实好看力推', '题材真心感动！', '班长一路走好', '为人民子弟兵致敬', '很好的电影，很有教育意义。深刻体会到革命先辈的不易和伟大！很喜欢章宇，很有魅力的演员，演技一流，演什么是什么！！！新人演员也都不错，很棒的影片！', '又骗我眼泪[柠檬精]', '狙击精英？', '非常精彩好看', '太好看了', '此类题材希望多拍，通过影片让更多后代去了解当年先辈们用生命换来今天的和平，先辈们把我们的苦都吃完了。致敬先辈，致敬中国军人。', '2023.12.12成功打卡[准时]', '这么好的剧，评论这么少', '没当过兵的80后哭了一路，给80后丢脸了！', '战争的残酷，人性的光环', '了不起的先辈……敬礼！', '难得的好剧', '确实拍的不错', '这是怎么了？暴露位置，对方也不打了？', '吹牛一个班几个人打五万', '连长就好像一个孩子的父亲', '亮亮身上有重要情报', '非常好看的电影', '这两个老美打一个人急成这样', '说神剧的都是不知道抗美援朝战争的冷枪冷炮']</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 龙马精神 </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VIP · 10035热度</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>成龙郭麒麟刘浩存，《龙马精神》“混搭”惊喜,电影简介:曾经风光一时，如今落魄的龙虎武师老罗与爱马赤兔相依为命。因赤兔卷入了一起债务纠纷，面临着“父子分离”的危机。情急之下，老罗向存在多年误会的女儿小宝和其男友乃华求救。在三人一马的自救之路中，闹出不少笑话，也渐渐靠近彼此……</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9.0分</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['为什么是刘浩存 女主  真讨厌', '成龙大叔，我看你超级不顺眼，所以我诅咒你平平安安，健健康康，顺顺利利……', '好后悔当初没去电影院支持一票，这是致敬龙虎武师，致敬成龙大哥一生的电影，希望有机会还您这张电影票。', '[放大镜]￼￼￼￼￼￼￼￼为了成龙来的举个手看看有多少人￼￼￼￼￼￼￼ ￼￼￼？￼￼￼￼', '成龙大哥老了 我也长大了', '说实话，龙叔的电影看一部少一部，所以就算不及格也会支持，不为别的，就为他是成龙', '好可惜呀。好喜欢郭麒麟 结果因为女主可能不会贡献票房啦 ', '战损男跑这儿来了😂', '支持龙叔，上映当天已看完', '嗨嗨嗨，内卷了[斜眼][斜眼]', '我靠，这个7.4到底谁给打的，龙叔的电影在我心里一直是满分', '为成龙大哥的奉献精神加油', '喜欢刘浩存[准时]还喜欢周冬雨[随份子] 气死你们', '郭麒麟这辈子赚了能跟龙叔合作', '刚刚去影院观看了，影片很不错，有精彩打戏，也有亲情呈现。很不错的影片，值得推荐', '可惜了有女主', '一看就知道不好看，成龙老了，只能说年轻时那份精神可嘉', '有刘浩存不看', '一定要去看看', '感觉成龙老了，电影没有以前的激情了！', '好想看郭麒麟', '上映上映！不想去电影院！没时间去看', '火麒麟怎么在，真烦人', '挺感动的片子，成龙一路走来确实不容易，拿命拼回来的。', '都怪刘浩存，希望她以后别去影响别人的电影票房', '22年12月31上映现在就出预告会不会太早了？', '很棒，感觉致敬了龙叔一生的奉献', '这是龙叔的收关之作了吗？把以前的那些所有的电影都回顾了！', '成龙大哥这部片是不是拍给他女儿看的呀?', '感觉成龙的电影动作片都是取巧，打他的不是自己碰到，就是自己摔倒。', '怎么感觉大哥在“告别”似的', '有成龙必须看', '郭麒麟郭麒麟（虽然我…嗯…怎么不算喜欢刘浩存呢[蹲]）', '致敬龙虎武师。致敬经典。致敬敬业精神。也许在未来流量明星当道。再也不会有这些很好的作品了', '我是眼含泪水看完的   希望大哥身体健康  龙马精神', '如果人品不行，拍的电影电视剧看着都没意思，作为大众演员，人品过关拍出来的作品，才会让大众喜欢', '成龙电影带领了一个时代，我们慢慢变老，以前的优秀演员慢慢落幕[没眼看][没眼看][没眼看]', '我们的龙叔真的老了，他的影片从小陪伴我们长大，他对这份事业的热爱与付出远超我们所想，此片应该也算了了他对动作影片的念想，，但愿我们的龙虎武师永远健康平安[打call了]', '刘浩存？笑呢？', '大米哥拍的时候肯定压力很大[EMO了]普通话07:52普通话07:54', '这是我看哭得最多的一部剧了我们大家都感谢大哥給我们带来的这么多好看的电视剧电影向成龙大哥致敬[一起冲][一起冲][一起冲][一起冲][一起冲]', '一辈子的贡献，几代人的青春，感谢成龙大哥', '从小看成龙的电影长大的，长大后还是喜欢看他的电影。', '龙叔是我一辈子偶像，从小是，长大也是，个人觉得好看.', '比满江红好看', '本身就是成龙的粉丝，龙叔的电影百看不厌，幸苦了，', '必须和女朋友贡献几张电影票', '这是我看过最好看的电影，没有之一', '跑了个龙套，不知道有没有我的镜头😄', '超级计划果子狸炖水鱼鞭', '好久没有看到成龙演电影了，从小到大就喜欢成龙演的电影，很喜欢', '真好，好电影看一部少一部咯！成龙叔叔的电影也看一部少一部了！', '致敬了很多龙叔的电影片段', '全程泪目啊   龙叔好样的', '成龙老师要对自己以后的电影说以后了。致敬你老人家这部电影很赞👍🏻', '看着成龙电影，这部电影看出了成龙的确不容易，支持龙哥，给你点赞', '哭了哭了哭惨了', '精神永不褪色', '支持龙叔，龙叔的电影必须看。', '居然腾讯vip能看全集', '敬成龙大哥👍', '寡人来看了，2023年12月14日', '9分52秒，替身[打卡-打][打卡-卡]', '还是我原来的龙叔，翻帽子名场面', '打卡成龙电影龙马精神 31:11😊😊', '哭了，推荐大家看', '完美！龙叔', '果然不亏是陪伴了我三十来年的龙叔，好久美看电影看哭过了，这会是真的哭的眼都肿了', '2023.12.22致敬龙叔，我的童年结束了～\n希望龙叔身体健健康康的。', '2023致敬龙叔', '很感人，马摔的时候，让人很心疼。很想知道马受伤了没有，片子不错，又一次塑造了经典。可是马遭罪，马是无辜的，心里很难过，希望马能被善待，妥善安置好，算是救赎吧，因为我们是人。希望你们能懂吧，为马儿祈祷！', '刘浩存是谁，就是单纯认为这个女的真的尴尬，不尴尬吗？没有这女的，可能多5亿，', '龙马精神 1:57:14，成龙的女儿让我来，谁也不要跟我抢[破防][破防][破防][破防]', '哈哈哈，太喜欢这个姿势爆满', '不摔，观众看什么啊！应该让小鲜肉们都看看这部电影👍👍👍👍👍', '确实很不错 值得推荐 嗯真的很不错👍', '[大哭][大哭][大哭][大哭]哭鼠我了', '这会是龙叔的封山之作嘛😭', '太感动了，龙叔电影总是给人力量。后半场一直哭着看完。', '好看，看哭了😭', '龙叔老了我们也长大了，真的好怀念第一次看龙叔的电影的时候，祝福龙叔身体健康，长命百岁龙叔谢谢你给我的童年带来了开心和快来。', '成龙大哥拍的都好好看，熬夜看完，哭的稀里哗啦😭😭😭', '如果没有刘浩存。票房估计能多一两亿。很多理性的网友肯定也是和我一样支持龙叔，但是又过不了心里道德那一关。才没买票去看。唉', '我觉得拍的不错啊，挺好的。感觉这可能是龙叔的最后一部电影了\n、', '龙马精神！🤙龙马精神 36:03', '郭麒麟又胖回去了吗', '我00后，龙叔是我的英雄，这辈子没有人能替代龙叔在我心目中的位置', '这个大伟淄博人吗？怎么说的是淄博话呢？', '不知道那些觉得不好看的是因为什么，我是个粗人，没有那么高的品鉴能力，我只能依靠我的本能去看，只要他能触动到我，他就是好作品，仅代表个人观点。', '很感人，我想养过动物的人都能懂']</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 冰雪奇缘 </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VIP · 9937热度</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4部迪士尼动画中的隐藏彩蛋，艾莎和人猿泰山竟然是“亲姐弟”？,电影简介:在四面环海、风景如画的阿伦黛尔王国，生活着两位可爱美丽的小公主，艾莎和安娜。艾莎天生具有制造冰雪的能力，随着年龄的增长，她的能力越来越强，甚至险些夺走妹妹的生命。为此国王紧闭宫门，也中断了两姐妹的联系。悲哀的海难过后，艾莎终于到了加冕的年龄，各国王公齐来祝贺。艾莎战战兢兢，唯恐被人识破隐藏了多年的秘密。然而当听说安娜将要和初次见面的南埃尔斯王子汉斯结婚时，依然情绪失控露出了马脚。在此之后她逃到山中，构建了属于自己的冰雪王国，而阿伦黛尔也陷入可怕的寒冷之中。
+安娜独自来到山中，在山民克斯托夫的帮助下总算来到姐姐的宫殿，她能否让国家重新找回失落的绿意？</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.1分</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['姐姐为了不伤害别人，伤害安娜，把安娜拒之门外，每天戴着手套，安娜不明白为什么？以为姐姐讨厌她，后来，与一个刚认识一天的男人订婚，姐姐不同意，还逼的姐姐爆发，逃离城堡了，从刚开始到这里我都不怎么喜欢安娜，结局安娜为了救姐姐牺牲自己，让姐姐明白爱可以让冬天变回夏天，安娜最后也找到的真正爱自己的人，从头到尾都心疼姐姐艾莎，妹妹从小天真烂漫，可艾莎因为不能控制魔法，容易误伤别人，只能把所有人拒之门外，心里承受的太多了#艾莎女王#', '就我觉得安娜很烦吗？', '艾莎心中是充满爱的，正是为了保护她的子民、保护安娜，才独自一人远离城堡。\n当她真正感受到被爱时，同时也救醒了安娜，爱能感化一切，纯粹无私的爱最伟大！', '之前能投屏 怎么现在不能了', '冰雪女王。生来就与他人不一样，明明很厉害，却要收起自己的光芒。隐藏自我。因为没有人会教自己如何使用自己的强大技能，用不好就会伤人，尤其是伤害了自己最亲近的人。\n想要逃离，却被告知越是害怕越是容易被控制。\n世界上的人不全是友好的，小心翼翼的抵挡，小心翼翼的提防。我有个可爱的妹妹，她重新给予我勇气与力量。勇气不是不害怕，而是在害怕的同时选择做比害怕更重要的事情。\n冰雪女王做到了。以爱为出发点，冰雪的力量得以很好的控制！\n爱，不一定是爱情，亲情也可以，无关乎性别，无关乎种族。\n每个女孩子都可以做自己的女王，相信自己的力量，爱自己，爱爱自己的人。', '从2018年的时候，就开始看《冰雪奇缘》，逐渐开始，就是每年无聊的时候就来看看我也是冰雪奇缘的老粉，可如今爱莎公主的颜值，还是那样的漂亮可看见，《万界神主》和《完美世界》，女主的颜值也十分感叹，但也没说艾莎公主的颜值落于下风，我只能说国漫的技术是国外不能媲美的 ୧⍢⃝୨ ୧⍢⃝୨ ୧⍢⃝୨可惜《冰雪奇缘》不允许截图', '今天晚上🌃', '我的投屏成功了', '我投上了🤣', '22年2月8号了，还在回味冰奇', '其实不能投屏是版权问题。', '俺不是爱上你唱的歌真好听', '“公主才需要王子，而女王不需要。”', '1314怎么说[狗头]', '冰雪奇缘徽章[打卡-打][打卡-卡]', '千山不了一山中山', '这魔法真强，冰城堡', '内容没有内涵，太难看了', '喜欢😍艾莎[超越][喜欢][一起冲][一起冲]', '被咯取消🌸🌟🧚\u200d♂️🧚\u200d♀️🧞\u200d♀️🧞\u200d♂️👗🧢👠💄🌻🌺🌸🌼🍄💐🌷🌹🔮🎀🎁🧡💜💙💚💛❤️💕', '哦不🙅🏻\u200d♂️！我求你了别唱歌🎤了', '印象最深的就是艾莎说:爱能解冻。所以我相信艾莎心里是有爱的，她本有不同于别人的能力，以为把自己封闭起来就可以让自己逃避，可是安娜让她明白了，爱能解冻，只要有爱可以融化一切，最后的艾莎克服恐惧，勇敢的做了自己的女王。', '《冰雪奇缘》是一部动画电影，赢得了广泛的赞誉。\n故事以两位姐妹安娜和艾莎为中心展开。故事中融入了家庭和自我救赎的主题，赋予了电影极大的情感和意义。\n动画制作水平非常出色，令人叹为观止。精美的动画风格、生动的角色表情和流畅的动作设计提升了整部影片观赏性。\n该片的角色塑造着重于女性角色的成长和自我价值的追寻。安娜和艾莎都是坚强独立的女性角色，她们展现了不同的性格和面对困境时的勇气和智慧，为年轻观众树立了积极的榜样。[撒花N][撒花N][撒花N]', '好喜欢安娜这句Do you want build a snowman?', '好可爱的雪宝呀我好喜欢你啊我真的好喜欢你呀我好想抱着你一起回家', '第二部跟第一部相比就能发现安娜真的成长了很多[意难平]她很勇敢啊', '看着电影看到艾莎唱歌那个片段震撼了', '不喜欢安娜是因为单纯讨厌恋爱脑', 'annanan/ansjsn', '刚开始穿那个蓝色衣服的时候好漂亮呀！', '这个反派王子挺不错的，有野心，有手段，有勇气，是个合格的国王，就是运气不好。', '爱莎，你是我的偶像，也是我的本事。我喜欢你，哼。', '这是多少人的童年回忆。我记得这是我唯一一部重复看的电影，小时候经常重复看，因为真的太喜欢了', '在手机投屏还没反应过来的时候赶紧点投屏！就能投了！', '艾莎数学训练。', '不会掉下去吗？', '广东省广州市公安局交警👮', '汉撕坏人', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好', '我也是一个很努力的人', '23年了还有人看吗哈哈哈哈', '艾莎我看见长发公主，你那时候不应该躲在房间里该出去，而且我也是你的粉丝不应该这样就逃跑哎呦你妹妹也是很想看你，他不是故意的，你唱的那首歌很好听我是你', '僵尸艾莎公主，我看到这个电影，现在我要吃，我要吃坑的，他现在问的是每一天看他出这七个空间，我都玩了，怎么说都不回说啊', '勋章来了', '我的第100个勋章', '现在好了，凉凉。', '我看完了妹妹看，现在我的闺女开始看了，一整天不带换的[我裂开了]', '好看，百看不厌', '23年年底看完星愿回来n刷，不管看多少遍还是很震撼！', '这下给那男的一巴掌', '大哥我求你了，能不能别唱了？', '安娜的记忆被篡改过来，只剩下一些美好的记忆，我们是上帝视角所以觉得安娜不对，但是安娜的视角就是本来玩的很好的姐姐，突然不联系了，整个城堡也就变成一个牢笼，父母去之后更是只剩艾莎一个亲人，但艾莎不理她！爱莎是知道原因主动把自己封闭的，安娜是莫名其妙的就被限制和外界接触的！安娜就跟楚门一样在一个封闭的世界生活，但是楚门至少有别人陪他演戏，城堡里的仆人可不敢跟公主说三道四，从小也没人教过安娜什么事爱情！被关了十多年，刚出门遇见一个文质彬彬的王子，上来就是一顿糖衣炮弹性格又跟你合得来，你爱不爱？安娜想帮助艾莎跟他一起寻找解决之道，艾莎害怕伤害她们跑了，安娜一路追到北山，安娜一直选择面对，艾莎一直逃避，小时候地精族长就说过击中心脏难搞，艾莎仍旧选择把安娜赶出去，即便在生命的最后关头，面对活命的机会和自己的姐姐，安娜依旧选择救姐姐！我们是上帝视角，安娜不是！', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦冰雪奇缘(普通话... 05:20', '哦可斯诺克睡觉睡觉三甲集哎阿吉十几集啊就爱就啊经济阿吉手机啊经济阿吉就啊叫撒爱莎公主最喜欢澜 每天我要多看爱莎公主', '这个电影里，50%都是唱歌，管一人', '艾莎和安娜唱的歌好好听啊，但是太多了吧', '我最喜欢看冰雪奇缘了！', '不是你刚才那个裙子好漂亮', '我来艾莎从哪来的魔法', '我家狗狗一会儿瞅一会儿不瞅，一会儿睡觉。', '过去这么多年还是喜欢\U0001f979', '他会使用多种魔法比如说是🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️💦💦💦💦💧💧💧💧💧⛄️⛄️⛄️⛄️⛄️', '#重磅！欧文近期将重返篮网#', '这不怪爱莎吧[我不理解]', '前面还挺好看的', '快点来来来来来来来来来', '为什么安娜和艾莎？长大以后不上学呢？', '一会艾莎。肯定就要倒霉了。', '好看从小看到大', '安娜死亡寄', '我最喜欢这个埃拉特们的声音', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦', '不就是拳击手安娜\n\n', '安娜怎么就在逼艾莎了，她一直都在鼓励艾莎给艾莎面对恐惧的勇气[冰块狗头][擦汗]', '$…%…@？%%…%@IPTV，%$%突然有事先到时再说吧了吧啦的大师', '真的很喜欢，oh my god', '很好看，看的很感动。', 'dimfkfnnv~know how you feel better', '太难了呀，安娜公主', '几度回首，一阵阵无声的祝福自心底发出，亲爱的朋友，祝你快乐，事事如意!🚣皮垫〖考学🤵补足sm9z‖ 15UAH', '那时候用的是我爸爸的培根。那个是我爸爸的会员。', '真的就很好看，我已经看了很多遍了希望能推荐更多像这种的电影', '很符合一般的童话，唉，就唯一的迷惑，女王其实可以从小练习如何让正确利用魔法，最终成为一代强者，毕竟这个国家地精都有，估计也会有强大的魔法师是来教，不过这样就会成为热血少女漫画，哈哈哈。就蛮遗憾的。', '好看好看就好看', '王子真会', '我喜欢这个雪人', '能不能别动不动就唱歌ಠ╭╮ಠ', '我是觉得是特别好看', '太喜欢了啊啊啊啊', '简直不要太棒我已经看了不知道多少遍了']</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 消失的她 </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VIP · 10923热度</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹅斯卡X电影《消失的她》：文咏珊克服砸酒瓶的心里恐惧，只为呈现最好的效果,电影简介:东南亚某国，年轻男子何非疯狂寻找失踪的妻子李木子，然而当地警局视若罔闻，令他出离愤怒。可就在某个清晨，何非突然发现身边躺着一名陌生女子，更令他毛骨悚然的是，女子居然声称是他的妻子李木子。慌乱之余，何找来华人警察郑成，试图揭穿假冒者的骗局，谁知种种迹象表明，对面的陌生人真实不虚。隐隐之中，何非认为妻子被犯罪团伙绑架，他只得求助干练的金牌律师陈麦追索真相。在调查中过程中，细微线索逐渐浮出水面，而更加黑暗的真相也开始暴露在阳光之下……
+本片改编自前苏联电影《为单身汉设下的陷阱》。</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.5分</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['这部电影成功的把所有女性洗脑了', ']看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n[鞠躬]看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n[鞠躬]看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活的好，必须要靠自己向命运挥拳！\n[鞠躬]看完《孤注一掷》不是让你别相信朋友，是让你学会在这个社会保护自己\n[鞠躬]看完《我经历过风暴》不是让你别结婚，而是一定要擦亮眼睛，可以多谈几个，日久见人心，婚后见人性\n所以，一定要有正确的三观，不要盲目跟风，不然苦的是自己。[求求了][求求了]', '剧情一般，没有让人觉得眼前一亮的一个瞬间，但细节处理的不错，木子怀孕了摸肚子，何非一直要求立案而不是找人。说到处都找过了，问过，身边的人（酒店服务员等）却没有感受出他对找妻子的急迫和同情，急迫的表情只对警察和陈麦表现。人物身份大概能猜测出来，警察都不愿意帮他，郑成出现在警察门口而不是警署内，陈麦一个颇负盛名的律师会欲擒故纵一样无条件帮他寻找他的妻子（有名的律师一般不会接这种穿着不像有钱人的案子，咨询费都挺贵的，一般不会自降身价）陈麦肯定就是知道他是谁才帮他，后面问他闺蜜尸体在哪里的时候，有人影晃动时间流逝造出一种压迫感，但却迟迟没有人来就能猜到陈麦和郑成是一伙的了。开始以为何非吃药可能也是为了让自己意识模糊骗自己真的在寻找妻子，结果是真有病，脑子和心理都治不好的那种，最后何非哭可能也是因为杀了自己的孩子而哭吧[抠鼻]还说做这些是为了匹配木子。说何非是赌徒不如说木子是最大的赌徒，赌一场虚幻的爱情和变幻莫测的人性。剃头发那里或许是一镜到底眼神没有感受到真正的惊恐，胸口以上没有绑住，麻药也刚打上还没有发挥作用，完全可以试着挣脱而不是任人宰割，面部抽搐演的还行。反而是郑成的笑感觉挺到位的。', '李木子是最大的赌徒，她在赌一个赌徒的真心', '这个不建议看，我和我女朋友就是这样，和我女朋友在电影院看完消失的她然后想一起去吃个饭，她直接不理我，把我手甩开了，是真的，当时我还拿着她的包，我一看这样立马就生气了，包直接给她扔了，我说，如果你因为一部电影就认为我没有安全感，那我们也没必要在一起了，然后我自己就打车回去了收起到了第二天她来找我复合，说她错了，我说你拒绝我一次之后，第二次你就没机会了，电影里说的是女生不要让男生伤害第二次，那么同样，你是女生，我是男生，我也不会让你伤害我第二次，我是异地恋，当晚就坐动车回来了，然后就把她所有联系方式都给删了，你用行动拒绝我，我也会明确回应，狠下死心跟你分手，花着我的，吃着我的，包也是我买的，到头看完一部电影就甩脸子？给谁看呢？原谅是不可能的！', '这部电影拆散了好多情侣', '建议情人节档安排上，更适合情侣宝宝的好电影❤️！', '首先，这部电影并不是单单针对男人，现实生活中为了获得配偶遗产，杀夫与杀妻的现象都是存在的，不要说看了这部电影就要远离男人，影片所揭示人性的丑恶是针对不论男人女人的所有人。还有，男主是个好演员，他不是何非，请不要伤害演员！[意难平][意难平][意难平]', '前有秦昊老师带你爬山\n后有朱一龙老师带你看海\n所爱隔山海，渣男送棺材[偷笑]', '《消失的她》……其实我们都知道！爱会消失！承诺会失效！人会走散！只是我们太执着！相信自己是个例外！可到最后无一例外···', '特别好看，最后朱一龙为了保护木子和孩子把她放在防鲨笼，自己去引开鲨鱼，流的血汇成了海底星空那段真的感动死了，好久没看过这么好看的电影了[机智]', '什么时候可以在手机上看啊救命', '这个赌鬼把刚怀孕的李木子把别人关在笼子里，一切多是沈漫计划的一场戏，就是为了让这个男的说实话', '朱一龙又要拿影帝了[666啊]真牛', '跟有那种的感觉 我看了两遍第一次在影院出门有分手的[泪目]这个我当时挺喜欢的后来单曲循环《笼》这首歌', '所以，沾染了黄，赌，毒的人绝对不要相信他（她）会改邪归正，果断远离才是明智之举[打call了]', '这种也能放到电影院上？有啥一意义？', '看完《消失的她》远离男人看《我爱你》别生孩子看《八角笼》养不起孩子今年的电影主打一个不婚不育，小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角上亿资产你有啥，还带入自己什么锅，配什么盖也别怪你男朋友，有人破防今夏大爆款《消失的她》值得反复观看品味朱一龙演技朱一龙演技炸裂真的很好看啊！何非最后那个表情一刹那变脸太吓人了，朱一龙演的真的好，演技牛逼 不愧是金鸡影帝非常不错，演员演技都在线看了，很好看！朱一龙对角色的饰演和理解人物很透测，这个电影告诉我们，不要恋爱脑，远离黄赌毒好看好看好看，电影院看了一次手机看了一次，非常好看#2023暑期档最想看的电影#[高血压][泪目][高能][反转][欢乐快逃][梦海保护]', '真的很好看，非常悬疑', '确实挺不错的，唯一的缺憾就是酒瓶子砸脑袋，就两滴血还是顺着鼻梁留下来的。相信喝过酒的人都知道酒瓶子砸出血不可能就两滴，还想让它流哪就流哪。血有点偏黑，还是得用猪血，别的真不像。如果打分我只能打个8.5。', '远离黄赌毒，是有道理的！出轨，外遇，嫖娼，赌博，毒品毁了多少家庭！', '今天我才看这个消失的她，当初我女朋友看的时候也跟我说，没感全感，也跟我提过分手，因为一部电影分手，我原谅她，不计较，没太在意，直到七夕那天，我主动发红包，然后我说了一句今天应该收到很多红包吧？这句话说完就把我删了，我瞬间炸了，我就当她心情不好吧，下班了，我就打电话，发短信，发抖音，都把我删了，我加了微信无数次，通过了，立马发个红包人家131.4人家嫌弃少，说我哄小孩子呢。我她妈的辛辛苦苦的上班赚钱，异地恋，半年我主动发红包转账，1314+5200+520+52.0+131.4从来没有低于52.0的，我一个普通人打工的，我也要生活，异地恋啊，我一个月给你花几千，我得不到关心，疼爱陪伴，我去找你坐飞机去找你你不让我去就算了，任何事情都是我主动，男人主动发红包转账，任何事情我都是主动，从来没有让她开口，男人不花钱吧你说男人不爱你，花了吧换来的是删除，第一次删除我，我求爷爷告奶奶的加回来通过了，看到我发的131.4又把我删了，我去抖音评论把我拉黑了。害怕其他追求者看到了，把我藏起来谈恋爱生怕身边的人知道了，花我的钱，从来没有满足我任何事情，过年的时候在一起挺好的去了外地她就变了，都是成年人，因为一个电影，一句话就删除微信，说分手的那女人不要也罢，男人辛苦赚钱容易？真心对你爱你，你非要作，你说男人去赌博了，或者跟别的女人上床了不给你花钱了你折腾说分手，删除都可以理解的，她妈的我呢都没有因为一部电影分手，一句话删除微信，我看完消失的她，总结了，人啊一定要擦亮眼睛选择人，选择错了女人毁三代。选择错了男人你就是尸体！为何女主结局那样，因为她选择的男人野心渴望太大了，对钱，他只爱钱，同样女人也是的，当一个女人只爱钱，在爱情里，男人给她钱了就是爱，不给了就不是爱，电影里的男主不就是？女主不给钱了就没有爱了，现代女的她妈的就是这样，记住了没有男同胞们，但凡你的女朋友眼里只有钱，只爱钱的时候你一定让她滚，不要让她毁三代，因为当你一旦不给她钱的时候，她要么跟你分手，要么就让你家破人亡，给你戴绿帽子，男人们，看完消失的她，你记住做任何事问心无愧，给你钱花，是你值得，是爱你，不给你花那么因为我也要生活，生存，你太自私，只爱钱，这样的女人，不要也罢，今天看完了，我就把前任所有东西拉黑删除了，最气人的是，她说我跟你谈恋爱，可不能保证跟你结婚，你说你都三十的人了说出这样的话，不以结婚为目的的恋爱？', '看完以后真的很难压制住自己的愤怒，对一个那么爱自己的人去要了她的命，真的cs，当然不是指剧中演员，但是这部电影是根据事实改编的就很让人惋惜，这部剧告诉我们不能轻易相信一个男人的甜言蜜语，在他说这些话之前你应该先想想他说的和他做的，如果一个人粘上了赌毒那他几乎是戒不了，广大女性朋友在选择恋爱时真的应该把他了解清楚，认清他的为人，人品，这个世界真的存在太多居心莫测，保护好自己才是最重要的，作为一个男生看的何非这样对一个爱他的人下了杀手是真的愤怒，真的把渣男体现的淋漓尽致，女士如果碰到这样的人真的很危险，奉劝各位女性朋友以及男性朋友，不要恋爱脑，不要恋爱脑，当你用感情去看问题的时候你的理性就被屏蔽了，你会忘记他的缺点，他的不好，感情不应该是处处的处心积虑，两个人中有一方动了小心思那就真的很危险了，真的希望各位女同胞也好男同胞也好，遇到一个真正爱你，珍惜你的人，珍惜好眼前的人', '你亲手杀死了这个世界最爱你的人', '能被电影左右的，老子祝它一辈子不会幸福', '好看是好看，就是总有小仙女一个月欠着三千块花呗老把自己代入成女主，三观脆弱的人建议别看', '那个男的是个赌徒之后老婆对象帮他还债，然后他又去赌，欠了钱她老婆怀孕了男的想杀死她老婆来获得💰 之后就是她的好姐妹和兄弟们演了一出戏，那个男的并不知道她老婆怀孕了他老婆很爱他，可他并不珍惜。最后知道啦后悔一辈子，执行死刑了嘎了', '太狗血了，男主竟然是渣男，女主让你受委屈😢了', '看完之后，我老婆问我有啥感想，我说这男主也蠢了点，应该翻翻女主的手机，把知道我们事情的闺蜜找出来，一并杀掉，才不会有手尾。这部剧也告诉了男人们，要完美犯罪，得多留个心眼', '全剧看完了，剧情紧凑，我也是在出租潜水装具的那个人说的那句话脑海里闪过一个猜想，结果事实确实证明了这一点。另外结尾最后这个彩蛋，如果换成行刑前几个带有跨度的慢镜头，枪声响起后，男主角脑海里瞬间回想起他们一起在夕阳余晖下拍照的场景，最后画面再回到男主的脸上，随着瞳孔越来越大，镜头也越来越远。画面再次回到那个两人一起的合照上，整部剧随着照片的飘落整部剧落下帷幕。话说你们是在哪里开始怀疑男主的？', '三分之一的时候我猜了一个结局，三分之二的时候我又猜了一个结局，租潜水设备的时候而电影也接近尾声，闺蜜这个重要角色一直没有出现，又想到唯一一张闺蜜的照片，突然整部片子里的暗示就都明朗了，一直在被整部片子牵引着。真的太棒了', '现实中可能没有那么多钱可骗，就是画饼，发誓对你好，等结婚了，小孩生了，原形毕露，有家不回，家外有家，', '谁能告诉我去哪里举办，中国人民不想结婚就是这部电影害的', '这部电影超虐的，不建议情侣一起去看', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]小丑电影我不理解那些说是根据真实改编的，首先长津湖也是根据真实改编的，你怎么不说你怎么不说你要去当兵？其次消失的她原剧情是泰国的泰国是什么地方？你心里没点数吗？泰国人彘都有我国什么地方？你敢赌博，别人就敢举报，还得蹲牢，电影里的女主角有上亿资产你有啥，还带入自己什么锅配什么盖也别怪你男朋友，有人默默破防有人默默划走', '后半段看得我鸡皮疙瘩都起来了 朱一龙演技好牛逼！！！！！！！', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]', '如果能因为一部电影影响感情，那还不如趁早结束[皇冠]', '就好奇何非为啥要去报案？唯一觉得这影片不合理的地方！', '一个电影，会导致多少情侣分手？跟那些毒鸡汤有什么区别？本来在这个物质的社会，男孩子找个女朋友就很麻烦，现在因为一些鸡汤，每天又有多少情侣、两口子在分手，离婚。想想吧。', '好想看这个电影啊', '朱一龙的何非演的太棒了，初到大城市和后面赌徒的他完全不一样，他的眼神也很到位，后面谎言被戳破那段表演爆发力很棒，剃头的戏演的很惊艳！让人对何非又怜又恨！\n电影消失的她引入了世界名画和动物元素，艺术价值和商业价值兼备！', '三观不正，不良嗜好，直到最后人性丧失，人心真是不可直视，爱情在人性面前一文不值，又何尝不是讽刺当今社会人活在面具下', '朱一龙演技炸裂 看第五遍了，哈哈哈，影院看了3遍，今天线下腾讯看2遍～太棒了 不愧是金鸡影帝，集演技人品努力颜值于一身的演员，值得赞美。', '朱一龙不仅有颜值，还有演技！有颜值却没受困于颜值！不像有些演员，已经是油腻大叔了，却偏偏要尬演小鲜肉角色，相信朱一龙最终会是帅大叔一枚！[打call了]', '我就想问问，女生们，人家女主资产过亿，所以被人谋害，请问你们有啥？？。[抠鼻][抠鼻][抠鼻]', '不沾赌，不吸毒，不出去乱玩，长得也还不错，最后我提出分手了，因为给不了她想要的二十万彩礼，最后我祝她幸福。', '看完《消失的她》远离男人\n看完《我爱你》别生孩子\n看完《八角笼》养不起孩子\n今年的电影主打一个不婚不育[爱你]有人默默破防有人默默划走', '主要讲些什么呢？那个妻子到底怎么消失是，后面怎么又出现是的，有人告知吗？', '唯一不懂的是，为什么他报警，表现的那么着急，然后还找律师帮忙，为什么', '打死都不去泰国缅甸老挝这些国家，怎么死都不知道', '啊啊啊啊啊！最后反转绝了，剃头那里才反应过来，朱一龙演技好好啊啊啊啊！！！！', '为啥手机上面不能看', '★★★★★朱一龙演技真的不错。很多情绪都塑造得很到位。这个片子也拍的很不错。值得一看。结局令人唏嘘。', '可能没有感同身受吧，觉得很平淡，并不觉得很好看，只是个人观点', '你说他和曼曼在水塔下喝酒的时候就不会愧疚嘛，水塔下有最爱他的人', '昨天去电影院看的，值得一张电影票。去看吧！不会后悔。', '朱一龙牛逼啊，怎么做到控制面部抽搐的，不愧是影帝啊，演技太好了！', '所以说有个爱他的女人，而且那么有钱主要是这男主这么6嘛赌博长的又丑这么有钱又漂亮的女生怎么看上他的呢，钱真的有那么重要嘛杀人就为了钱', '看完真的不知道说啥了[意难平]\n姐妹儿们，以后谈恋爱一定要看清对方。男孩子们也要擦亮眼睛，不要被坏女孩骗了。[意难平][意难平][意难平][意难平][意难平]', '朱一龙演的真好。电影悬疑的不止剧情还有人性。', '演技很好的朱一龙演了纯爱战士何非！剧情反转大家都看过了，但情感上的抒发才是最动人的。最后的海底星空让人动容。朱一龙加油，期待下部电影。', '这阵容悬疑剧颜值天花板啊', '朱一龙演技好厉害，好看好看', '听说看了这个离婚率提高了很多？？？', '电影相当不错，值得二刷，作为观众来说这部剧的剧情是给我的感觉是为了反转而反转，反转的痕迹很强烈，如果还能深度打磨剧本，可能会成为电影史上的佳作', '不是什么时候手机上才能看啊', '今天去电影院看了，简直了，反转太厉害了，后面刀有点刀', '赌博就像是吸毒，都有瘾虫在作怪；戒毒难，戒赌亦然；我辈平平，控制住好奇心，可是碰不得。电影拍的真好啊，妻就妻，还妻带儿，难了个大受！😫😫😫', '真的好看 全剧可能唯一不好解释的点就是摄影师哈苏为什么是沈曼的人了吧 总体看来瑕不掩瑜 很后悔没有在电影院看这部剧', '人心，不可直视', '恋爱脑就别看了，我怕你疯', '我以为可以看，搞得我会员都开了[意难平]', '什么时候可以在手机上看', '什么时候可以在手机上看啊', '朱一龙演技好好啊！佩服佩服，在电影院看的时候给我惊的，牛逼！', '去电影院没有带眼镜看不清楚，又不好意思二刷，终于可以在网上看了', '昨天看了，超级好看', '作为一个剧本杀的硬核玩家 看一半就知道端倪了[吃瓜N]', '这个还要付6元子吧', '看完这个我感觉，少去外国旅游，远离赌博。', '希望且爱且珍惜吧。珍惜当下，不要错过。男的最后是后悔的。但是晚了。所以有幸福在身边的人就要珍惜不要错过。', '真的好看，之前电影院看过，但有一些细节没看懂，现在网上能看了，再过一遍👍朱一龙演的何非，真的很不错👍', '看完心里堵得慌', '来了来了。在影院看非常震撼！', '远离黄赌毒吧！', '这是恐怖片吗', '终于等到了[意难平][意难平][意难平]', '只能说看了这部影片两口子吵架的都是幻想大师，特别是女生都想当白富美，觉得对自己的好的男人都是渣男，可悲！', '全部看完就明白了']</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 斗破苍穹·觉醒 </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VIP · 10802热度</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>《斗破苍穹·觉醒》终极预告，马伯骞斗气觉醒，少年意气斩尽藩篱,电影简介:身为乌坦城三大家族之一的三公子的萧炎，因斗气等级不高成为众人的笑柄。在遭到云岚宗大弟子纳兰嫣然退婚之时，萧炎不堪受辱与嫣然订了三年之约，约定三年后以比武胜负来决定婚约。为提升斗气，萧炎来到了魔兽山脉，结识了小医仙，但也被卷入了狼头兵团的纠纷中。因为躲避狼头兵团追击时，萧炎偶然撞见了斗皇云芝和紫晶翼狮王在搏斗，云芝不敌狮皇，萧炎救下了云芝，两人经过一番曲折之后决定再次去挑战狮王，两人分头行动，最终成功。云芝偷偷离开，萧炎也决定离开魔兽山脉，前往蛇族沙漠……</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.8分</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>奇幻</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['我的评价是不如他', '谁要是买了我笑他六十年，三十年在河东笑，三十年在河西笑', '强烈要求严查导演，我怀疑拍这部电影的目的是为了洗💰！', '找不到拍的了吗？实在不行你去拍天线宝宝也行啊！！！', '对不起吴磊，我承认之前的声音有点大[意难平]', '终于免费了，我来看眼怎么个事，看到这个表情请戳瞎我，谢谢。', '大家别误会，我只是点进来骂几句就走！拍的和💩一样', '打倒反派消炎', '消炎，云山，熏儿，这这这', '我的天呐，无语ing…', '拍的好，大力支持，这一颗星是六星溢出来了！！！！！！！！！！……', '看了前面感觉还不错 花了六元买了看着更爽了 物有所值', '这要不是为了洗q，我把异火都吃了，第一次想看云山打死萧炎', '能不能退我六块钱，不是差钱，我感觉我的智商被侮辱了！', '这钱这么难洗吗[666啊]', '看完这部戏后，我面色凝重，深深地低下头，默默的关掉电脑，起身打开冰箱，拿出一瓶伊利酸酸乳，紧紧地握在手里，细细的回忆着刚才的剧情，慢慢的走向窗前，外面的景色有些暗淡，就像我的心情一样，沉重。。。很沉重！渐渐的，外面灰蒙蒙的下起了小雨，为什么会这样？我的视线开始模糊了……不知道是我 流泪了、还是雨太大了！可能都有吧…… 我的心情更忧郁了，我再也无法抑制内心的情感！导演和编剧真的太侮辱观众智商啦！我缓缓的仰起头。。。对着窗外大喊了一声：这到底演的神马玩意啊？', '有一种打开奶奶家的皇家曲奇饼干盒确发现里面是针线的无力感', '萧炎还得他来演，吴磊也演不出', '………..emmm很难评。[泪奔]', '🙈我就不喷了', '这波我站魂殿这边，魂天帝必胜！[打call了]', '6块钱，我宁愿拿去买两瓶快乐水', '猖狂猖狂猖狂、三千雷动动动动动动', '人家辛辛苦苦拍的给你们看评分搞那么低对得起人们吗？又不想出钱，又想VIP有的看。看了里面的弹幕，个个都要白嫖。', '莫欺少年穷，当萧炎强势归来的时候，任何人都不配跟萧炎提鞋', '不是大哥，你们都没有手机吗？都没键盘吗？开喷啊，还等啥呢，等过年啊？', '小马太敬业了 白内障了 还出来拍戏   点赞。。。。。', '就说咱能不能尊重一下原著，原著没有人物描述吗，这一个个的是啥？\n这封面——\n萧炎要不要那么邪魅，跟个反派似的一点没有正气\n药老更离谱人家原著说的道风仙骨这咋出来个算命的瞎子\n云山虽说是岁数大但是人家突破斗宗后变年轻了啊，不说你找老演员了，就是找老演员也得找个像原著描述的啊，那姜武大圆脸戴假发玩呐，要是把假发摘了我都感觉像个大厨！\n也就是萧战这个演员还想点原著的任务描述', '这还演什么斗破苍穹，我觉得有歪嘴龙王就挺适合的😂', '这玩意这演员阵容能看吗？？？？？熏儿只能李沁或者李一桐才完美', '真的有被马伯赛惊艳到，真的好适合这种片子，希望哥哥继续努力', '你要是实在没播的  你播天气预报  今天的博不准就播昨天的', '我的评价是一托史', '就这破东西我还犹豫了一会才点开，结果还收费？笑死，9毛钱我都嫌弃', '4.6的超高评分，我希望没有三年之约，我更希望云山干死萧炎', '真好看啊，我看了。推荐朋友也花了6块。第二天被朋友打进医院，朋友陪了我1万。以后有这样的片子，我还看', '导演不负众望，无论是剧情还是特效都非常的震撼！强烈推荐！！！\n唯一的缺点就是不够看，6分钟就看完了，希望导演能加些时长。', '作怪的，如这个吗？啊？导演是谁？毁了一代人的三观', '要不要买，买了的说一下', '我靠，这拍的啥，有我美有我酷吗？', '谁花六块钱，我笑他60年，30年在河东笑，30年的河西笑', '咱就是说，这些特效真的很不错，看起来就很有意思', '我怀疑着导演不是为了拍电影是为了洗一下不干净的Q', '像萧炎这样有能力的男生，没有哪一个女生不喜欢吧', '我觉得腾讯应该搞一个缴费看评论，应该会比这个电影收益高很多[上头-上][上头-头]', '观众们的期待；熏儿——刘亦菲，雅妃——柳岩，纳兰嫣然——赵丽颖，云韵——佟丽娅，美杜莎——张雨绮，小医仙——古力娜扎，萧炎——我[看]', '期待～一直在期待，上班熬了个通宵都等到10点上线，还浪费了我省吃俭用的6块钱的早餐钱。看完这斗破苍穹后，我面色凝重，面无表情，躺到床上两眼一闭，回忆我看过的小说，回顾我追过的动漫，再总结我刚刚花早餐6块钱看完的电影，我直接开骂了，这尼玛的什么跟什么，毫无逻辑，毫无剧情，毫无经典。欺骗我对原著的情怀吗？拍的什么鬼，我起来跑的冰箱拿了一瓶啤酒，一口气喝完倒头睡下，听到窗外的雨声 仿佛我现在的心情，。。很沉重。很生气', '我叫萧炎\n我叫林动\n我叫牧尘\n萧炎：我目标是成为斗帝\n林动：我目标是晋级祖境\n牧尘：我目标是进入主宰境\n萧炎：我的戒指有个药老，比攻略还NB\n林动：我的石符里有个貂爷，比攻略还NB\n牧尘：我的黑纸里有个九幽雀，比攻略还NB\n萧炎：我有种东西叫异火，威力堪比神器级绝版装备\n林动：我有种东西叫祖符，威力堪比神器级绝版装备。”\n牧尘：我有种东西叫至尊身法，威力堪比神器级绝版装备\n萧炎：我出自乌坦城的萧家，是个小少爷\n林动：我出自青阳镇的林家，是个小少爷\n牧尘：我出自北灵境的牧域，是个小少爷\n萧炎：我喜欢古熏儿，可他家势大，不让我和她在一起\n林动：我喜欢绫清竹，可她家势大，不让我跟她在一起\n牧尘：我喜欢洛璃，可她家势大，不让我跟她在一起\n萧炎：年少时，我的目标是打败纳兰嫣然\n林动：年少时，我的目标是杀死林琅天\n牧尘：年少时，我的目标是打败姬玄\n萧炎：想当初，我斗皇的时候，栽在我手上的斗宗一大堆\n林动：想当初，我生玄境的时候，栽在我手上的死玄境一大堆\n牧尘：想当初，我化天境的时候，栽在我手上的通天境一大堆\n萧炎：我有特长，我会炼丹\n林动：我有特长，我会画符\n牧尘：我有特长，我会布阵\n萧炎：我有两个老婆\n林动：我也有两个老婆\n牧尘：我目前只有一个老婆，但我相信我会有第二个的\n萧炎：我的武器是尺子，叫玄重尺\n林动：我的武器有很多，合称九大神物\n牧尘：我的武器还没出现，现在用的都是一些缴获的，求武器啊，嘤嘤嘤。ＱＡＱ\n萧炎：我最后成为斗帝，打败了魂天帝，夺回了大陆的和平\n林动：我最后晋级祖境，打败了异魔皇，拯救了世界的万千生灵\n牧尘：我没有他们那么NB的事迹，但我还小，我相信我将来会比他们更Nb\n萧炎：后来，我加入了迦南学院，参加了学员大赛，一战成名\n林动：后来，我加入了道宗，参加了殿试，一战成名\n牧尘：后来，我加入北苍灵院，参加了狩猎赛，一战成名\n萧炎：我有一个特NB的大招，叫佛怒火莲\n林动：我有一个特NB的大招，叫青龙化天决\n牧尘：我有一个特NB的大招，叫九级浮屠塔\n萧炎：如有雷同\n林动：纯属巧合\n牧尘：我也没辙\u200b舞动', '没看过动漫的我，觉得很好看啊！全程看完，很有意思啊', '我可没有购买六块钱看，我只看看五分钟的鼻炎', '[狗头]谁要是买了 我笑他六十年 三十年在河东笑 三十年在河西笑￼', '推荐给我的好兄弟们一起看，不能只有我自己难受', '毁三观的电影 我以为王晶的新倚天屠龙记已经天下无敌了 这是谁的部将', '我以为吴磊已经天下无敌了，没想到有人比他还勇猛[憨笑]', '家人们谁懂啊，我为了勋章，看了六个六分钟的经典大电影，谁懂啊，可惜电影太短了点就是！', '浪费我一瓶饮料钱 我承认之前对吴磊的声音有点大', '我的评价是：依托勾史', '笑死，药老哪来的女弟子？还有小说都不知道萧炎他娘是谁，这还好意思拍出来？', '这种肯定要先看评论再买，我就问个事，对比吴磊的你们还喷吴磊吗？😂', '主角团用这些人就直接封神了\n萧炎：胡歌   萧熏儿：迪丽热巴/古力娜扎   小医仙：刘亦菲   \n云芝：白鹿   纳兰嫣然：关晓彤   美杜莎：迪丽热巴/古力娜扎', '这几个老戏骨怎么接这种片子，实在是多穷接不到片子拍了', '离离原上谱', '从来没看过这么好看的电影，剧情选角特效都是绝佳，真心推荐大家看，五星好评虽然只有6分钟', '建议严查 不然这演的那么随意？现在什么电影都可以上架吗？', '我的评价是勾史一样的主角，勾史一样的剧情，勾史一样的演技，勾史一样的特效', '我就没花6块，我就看了6分钟。我买了两瓶快乐水，我骄傲啊。', '鱼越大，鱼刺越大，鱼刺越大，鱼肉越少，鱼肉越少，鱼越小，所以鱼越大，鱼越小。', '我VIP7级表示不愿意花这6块，看这玩意儿（啥也不是）', '影史上改编成功的只有仙剑1和三了，其他小说游戏改编都很失败', '马伯骞真的nb，先参加明日之子，被毛不易压制，没火起来，又以不到而立之年参加《哥哥》，现在还能直接演电影', '观影20分钟才能评分，可我俩分钟就坚持不下去了。', '我以为斗气化马已经是极致了，没想到还有高手，对不起吴磊', '看来上一次被骂的还不够狠，兄弟们等这部片子出了继续骂。', '你们充钱的观后感是不是很好，我感觉6分钟够看了', '真人萧炎还得看吴磊，虽然电视剧特效差，但是吴磊很符合我对萧炎这个角色的少年感和有趣', '你们没看就别黑了，，真的挺好看的，就是只有六分钟', '那个云芝是打算要收萧炎为孙子吗', '上来就雷了，萧炎来个妈，又来个姜武，一下出来两个斗宗强者', '还没买，不知道好不好看？买过的可以告诉我嘛？值不值得？', '斗破苍穹是个好机会看谁能抓住名留青史！我觉得周星驰导演够用，他对细节的把控非常到位！国内科幻类型的特效比较差要是能克服才能有大成就', '我宁愿动漫追到死，也别想在这电影里赚我9块钱', '看了20分钟就为了给个差评.如果开始能评价我都不带看20分钟的.', '看来现在这钱确实是很难洗啊 ，但你也不能嚯嚯这小说啊 ……', '兄弟们建议大家不要看了，六块钱不如买个鸡腿吃吃', '别说六块钱    别说流量费    单单是浪费老子手机电量我都感觉巨亏', '投资者这么有钱，过来投资我，我要拍真人版葫芦娃', '吾等都说，客户是上帝，是衣食父母，如此行径犹如杀父弑母，众人必弃之。', '特效不错，还行吧，败就败在前有小说有动漫以及人性这玩意，像国外那些科幻片的新鲜感就能是他们的爸爸😂😂😂😂😂', '没有吴磊演的好 只是吴磊那特效不好看，吴磊符合萧炎这角色', '我觉得所有的小说翻拍，只有靳东的精绝古城最好看']</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 失而复得 </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VIP · 11077热度</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>张亮私下交易假币，闹出人命,电影简介:如果有一百万美金放在你面前，你会想要得到它吗？出国归来的张博受人之托，要将百万美金送出境，同时青梅竹马的冯乐琪正在竭力调查一起假币案。两人连同各阶层爱财之人，意外卷入百万美金的陷阱中。真真假假的钞票、虚虚实实的情愫，每个人都成了局中人，一场好戏正在上演。</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.9分</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['居然还能看到赵英俊😭', '趁现在评论少，我先吃个快餐', '为啥只有78条评论？不好看吗小伙伴们？', '祝我29岁生日快乐！[666啊]愿以后每天开心！[一起冲]', '我的妈呀！赵英俊死而复活了', '为了赵英俊而来。失而复得 00:49', '2023.12.05 第一个报道！！！！！', '谁能说说这是咋回事？怎么是2023年的呢？穿越了么？', '为什么还没看，就排斥辛芷蕾', '张亮麻辣烫', '2024负债清零就好', '真的挺好看的 要好好捋一下情节 有疯狂石头那个意思', '导演功底不够 硬抄疯狂的石头吧', '你这是认真的吗？帽子这个链花都歪了', '疯狂的石头', '看得我一脸懵', '这是幻灯片还是ppt', '来看蕾子~~~~', '有意思，和疯狂的石头类似', '流水席一样对付', '不错的片子，几路齐发线索，最后汇聚在一起，推荐路过朋友看看', '天网恢恢疏而不漏。', 'x6连倒车影像都没有，搞个串串', '洛阳来了', '纹身贴是贴的', '派人去糗（qiu三声），这不是东北话么[笑死我了][笑死我了][笑死我了]', '大家都是会员说话嚣张一点', '还不错，多个故事线串在一起', '🌊🌤🌴✨\n想过一千句描写旅行风景的句子\n却不及按一次留住幸福的快门📷', '肥皂剧吧，挺无趣的', '有点意思，也有点混乱，最后不太搞得清谁是谁了。', '有点没看明白啥意思', '逻辑混乱', '差劣的模仿…', '所以为啥开旅游公司的最后拿的是真钱？他拿的不是卖假币收藏的那个人的假钱吗？那个卖包的拿的钱咋是假钱？卖包的最后拿的不是王老爷子的一百万吗？？', '看了30分钟还不知道讲什么', '不是死了吗？', '主演应该换成黄渤', '这片不拿吴樾辛芷蕾做宣传，估计没人点进来', '疯狂的赛车？', '辛芷雷的👄', '都干嘛呢😁', '有点看不懂', '为了潇洒哥而来', '啥啊这是', '这是麻辣烫那个张亮吗', '能不能演个恐怖片？', '这电影至少是3年前的了吧！赵英俊都走了快三年了。', '这个电影好看吗？先来评论区逛逛😅', '客串的明星真不少，喜欢吴越', '天啊张博他爸看的节目爸爸去哪儿1：12：20', '来了 来了', '给烂苹果打广告\n', '很搞笑，也非常有意思。剧情有点类似于《疯狂的石头》，喜欢看石头的，可以看看这个电影🎬。', '不错不错', '都看不出什么来', '编剧有点厉害三个故事窜在一起玩', '挺好的剧', '为啥电影名不叫张亮亮麻辣烫', '没王法了哈哈哈w', '南海归墟来的', '这年头，男模都拍电影了', '人少占个座[准奏]', '一般酒吧舞女赌场镜头多的，多半都是烂...懂得都懂。哎。', '乱七八糟', '这应该是赵英俊最后一部电影', '没看明白', '真的不好看', '演的个啥', '突然看到赵英俊，真觉得恍惚了', '2023   12   8号观看', '赵英俊失而复得了', '这导演牛逼', '张亮会演戏吗……', '我是一点没笑出来啊🙄', '2023.12.7日打卡', '这啥时候拍的呀？还有赵英俊？[放大镜]', '还热乎赶紧站个坐', '12月15日[吃瓜N]', '挺有意思哈哈哈😁', '看不懂的举手', '人这么少？？？啥子情况呀？', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈歇一会哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '捐的钱最后还是进了那些人口袋', '张亮是麻辣烫老板吗', '乱码七糟，看不进去', '笑死我了，屋里打架那段', '这剧情设计得有点复杂了。', '值得一看', '有点烧脑']</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 茶啊二中 </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VIP · 10758热度</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>孤注一掷、死磕五年！电影《茶啊二中》曝“强迫症”导演故事,电影简介:初三三班最调皮的“学渣”王强和“暴躁班主任”石妙娜意外互换了身体，压迫已久的王强过了一把当班主任的瘾，石妙娜也体会到了做“学渣”的滋味。石妙娜的公开课比赛日期临近，二人急需找到换回身体的方法，却遇到重重阻碍……</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.5分</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['看不出来哪一件好看', '三年了，你知道我这三年怎么过来的吗，等了这部电影足足三年，茶啊二中一到四季足足看了不下一百多遍了，不容易啊终于等到了', '好看好看好看  必须去看绝对不后悔 评分给打上去 茶啊二中第五季也在做这呢', '起初奔着搞笑去的 没想到这么有情怀', '就喜欢这个画风，不接受反驳', '快上腾讯视频，顶上去喜剧电影《茶啊二... 01:07', '很好看，国漫越来越好了，', '有些人在怀恋青春，在后悔在，还口口声声说回到过去就好好读书，却唯独不说现在该干嘛，看过去是为了反思现在，之前都不努力的你，现在还不知道努力，你也就那样了', '看了，这是结尾，有一小段录屏这里发不了，真的很推荐观看', '哈哈实在', '手机什么时候可以看啊', '画风没以前好看 感觉', '好看，五星⭐⭐⭐⭐⭐', '想起刚上初中的时候英语老师对我不放弃多次叫我回去继续上学叫我多努力学习步入社会就没那么苦🤧没听劝后悔当初', '电影是多少个小时？', '高伟会回来吗', '不容易啊终于要来了5年啊', '一天刷了这个动漫全四季，挺好的，挺喜欢！想起以前好多尬事，哈哈...\n不过，这动漫一开始定义的主题就是，青春，回忆，校园...以及写实！\n大电影继续这个风格不好吗？为啥非要跟风搞奇幻呢？\n还身体互换？一听这几个字，就剧透了一大半了，有点像...炒剩菜...\n无意褒贬，只是个人想法，勿喷~', '3年的遗憾补上了', '手机上什么时候可以看', '前面很好笑，后面也很感人', '六年级开始等现在都高一了终于出来了', '手机上什么时候上线', '鞠婧祎唱的歌[一起冲]', '啊啊啊，鞠婧祎唱的主题曲[撒花N][色][色]', '凌晨卡点看不会看不了吧？', '八月十五晚上带我女儿看的希望能给我女儿点启发吧，我自己觉得好看。茶啊二中 1:27:36', '什么时候手机上能看', '7.14号上映，这都7.17了，废了', '我是废了，荒度了学生时光，我的娃我希望她以后能有多彩的回忆', '哇塞 居然开播了！！！等了那么久！', '终于来了！😭', '兄弟们，卡点过来了', '差评   变成了神话故事', '彩蛋这段应该是很多人曾幻想过的吧', '青春与遗憾的联名是每个人都有的限量版', '茶啊二中 51:03可突击了', '好看，怀念读书时光', '好看好看，推，一定要看看\n', '我的心情已经不能用语言来表达了，期待第五季，期待下一个大电影', '寝室吃火锅，用汤灭火！这些行为实在不该出现在电影里', '中学时代', '被记住的那一刻，已经变成了永远', '石老师 你永远是我们最好的老师', '我是听了刘宇宁那首《二中中二日记》来看这电影的，不错！挺好看的啊', '王强导不了怎么办', '有点对不起高中老师', 'yx嫁给我', '非常好看啊！[一起冲][打call了][YYDSA]', '怪不得小胖那么胖，原来他还在偷吃零食，那个老师都不用他的', '老套路互换身体没意思了', '真的无厘头，毫无看点', '唉。居然见不到这人了。', '真的看得很感动，今年大学毕业了，看完之后怀念起了初中高中的生活，七年前的那个时候还没有手机，很遗憾好多事情没能记录下来。\n那个时候的晚霞很漂亮，和同学一起躲在教室里看外面下的大雨也很有氛围感，自习的时候班级里的确很吵，还有那些老师和同学的故事，真的真的会想起那个时候，就像是歌词里说的“在我的少年时代里面，永远有个滚烫的夏天”或许现在想想真的是青春的感觉吧，人永远无法同时拥有青春和对青春的感受。', '好٩(•̤̀ᵕ•̤́๑)ᵒᵏᵎᵎᵎᵎ', '本来就是坨大便', '宿舍里真冷，我室友都已经被冻残', '这才是学校', '好看，幽默又感人。', '感动！这就是青春！', '用个男的来配女的声音夹子音？难听', '动画片。。果然是哄小孩的。。看网上评论，期待太高了，感觉中规中矩吧。。', '我从头看到尾一次都没笑，一直期待笑点能让我开心一小会儿可是却没有，我笑点真的不高，是真的没啥好笑的', '之前看抖音说这个电影不好看不值得看，就没去电影院，现在是真后悔，真的特别好看的一部电影，特别喜欢。', '就这，还天天前人在抖音刷存在感，还好没去看，真的不知道说什么好', '感动！这就是青春。', '张忆冉我…我想你了', '挺搞笑，人物很丰满', '必须杠杠滴', '非常不错，好看', '当我们有部分的人思考上学的路程的时候，这部电影就已经成功了', '茶二中是我小时候的童年回忆，没想到一晃都20多岁了', '错过，不是错了，而是过了 ——夏达《长歌行》', '我一生中最难看的电影', '我的妈呀', '真的还挺好看的', '太吓人了', '十老师太快了吧', '是我来晚了，再见了我的青春', '特别好看，我很喜欢', '没意思儿', '夏洛特烦恼+羞羞的铁拳', '很怀念初中那段时间，虽然我是一个不良少年，抽烟，打架，早恋，也被班主任斥责过，检讨也写过，但还是改变不了我叛逆的十五六岁，直道现在出了社会才知道生活的不易，也懂得了老师的辛勤付出，但现在才明白这些已经晚了，希望看到这条评论的在读学生好好珍惜这段时间吧', '剧情有点离谱，可是谁的青春不离谱呢', '太好看了欠一张电影票', '笑中带泪🥲 好片！', '真实的青春啊', '推嘎嘎好嘎嘎推荐等了三年的', '评论区那些没良心的肯定就觉得不好看呀，有良心的都觉得好看。', '看了这部电影，怀念我的青春时光，非常好的片子，值得一看。']</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 八角笼中 </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VIP · 10915热度</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>缘尽至此，王宝强与八角孩子爆发冲突放手一搏,电影简介:电影讲述了向腾辉倾注心血想把当地无人照料的孩子培养成才，这让生活本没有出路的孩子们看到了一丝通向未来的曙光。然而，随着往日的表演视频被爆出，这些“残忍、血腥”的画面刺激了不明真相的人们的神经。一夜之间，舆论开始发酵。向腾辉的生活、孩子们的前途都陷入到人们以善良为名编织的大网中，让他们难以挣脱，重回泥沼，关于未来，他们的“出路”又将在哪……</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.6分</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>励志</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['非常不喜欢这部八角笼，不管是不是真实事件改编个人观点非常不喜欢，底层人没有资源没有钱就用唯一有的命去博去打去抗吗，人人平等，人人平等，人人平等，重要的事情说三遍', '电影讲述了，政府的腐败 资本的利益 跟网络的可怕 还有人们不去了解真相的去伤害别人', '看完《八角笼中》这部电影，你也许就会明白。王宝强能以导演的身份翻身，不奇怪。而这个故事，也只有他来拍，才最有说服力。借着这部电影，让我们重新走进这位“龙套之王。电影《八角笼中》改编自真实事件。恩波先生曾先后资助和培养了近百位来自山区的贫困孩子，让他们学习拳击，以格斗打出自己的未来。而在2017年，有记者曝光，有些孩子在铁笼打拳，而且伤势不轻。恩波被指责“剥削儿童”，他的举动遭遇了很大的争议。为什么说这个故事，最适合由王宝强来拍？提炼一下，王宝强跟那些“格斗孤儿”一样，区别是。面对人生，孩子们的武器是拳头，而王宝强，靠的是戏。2017年，王宝强以导演的身份拍了《大闹天竺》。同样是公路喜剧，编剧也是《泰囧》的班底，但这部影片在审美、笑料、节奏层面都一言难尽。最终，影片豪取票房7.5亿。但口碑惨淡，3.7分收场。王宝强再次遭遇质疑：拍电影是有门槛的，而他是门外汉。拍《八角笼中》，是对非议的再次回应。为了第二部导演作品，王宝强在拍完《唐探3》后，就没再接过其他角色，一门心思投入其中。这需要极大的魄力。用演员王迅的话说就是——这几年，他要面对多少诱惑？找他的都是大戏啊，都是好角色。他能把这些戏推掉，就是成功的第一步。这不是每个人都能做到的。你推掉的就是钱啊。王宝强的这种品质，就是真诚。真诚面对观众，真诚面对创作，真诚面对自己。', '难道就我发现 今年唯一一部发火不收费的么？就这一点 就够赞的 给你一个大拇哥👍', '能看懂这个片子的只有农村出来的孩子，有钱人家的孩子根本就体会不到', '八角笼中道尽了这个社会的肮脏和黑暗。道尽了资本和官方的恶心，🉐谢谢官方', '￼￼￼￼￼￼￼￼￼￼￼￼有多少人和我一样是为了王宝强来的，看看有没有100万人点赞👍🏻', '《八角笼中》这部电影，是时隔数年后王宝强在现实主义题材的一次回归。而在山区找来的儿童演员身上，他看到了曾经的自己。这似乎是一种传承。拍这个故事，他是有优势的。他和片中人物一样，都是底层逆袭，破笼而出。为了尽可能地呈现真实。王宝强在将近三年的时间里，去四川体验生活，“让这个作品成为他身上的一部分”。到了现场，对服化道，他的要求极为严格。唯一准则：“真”。落实在表演上，尽量做减法。他会要求王迅在塑造人物时，避免出现过多的枝节。再比如他饰演的向腾辉。在最开始，还有些唐仁的影子。慢慢的，整个人物就回归到了现实之中，他的表演越来越偏于内敛，以呈现人物的复杂心理。比如被记者围追堵截的惊恐与惶惑。比如对学员的愧疚与自责。在故事层面，他又尝试做加法。在《八角笼中》中，他加入了很多复杂、丰富的议题。比如向腾辉收留儿童所面对的道德困境，比如新闻媒体在公共事件中起到的作用，比如格斗孤儿的命运，以及他们对向腾辉的微妙感情。他想讲的内容，涉及人性、媒体与社会。看完这部作品，你能感受到，在导演层面，王宝强有了不小的进步。他用打水漂的石子和八角笼这样的意象，来阐明彼时贫困儿童的命运。他用丰富的影像，充盈叙事的表意。他用拳拳到肉的笼中格斗，来呈现猛兽出笼的痛苦、畅快和自由。王宝强是内娱少见的具有人格魅力的演员，他跟一些作品中的形象有着某种相似之处，朴素、真诚。现实中的他，还有一种特质：不服。每一次，他都以诚恳的态度面对，以踏实的行动抵达。王宝强，像极了《八角笼中》里的那些孩子们，单纯而热烈，等待着打破命运的那一天。而这样的人，我们似乎都不希望他们输掉。', '看完了。演的很好👍', '抽烟演技在线   树先生', '这是电影史上第一次请的贫困山区孩子 来扮演主要角色 而且还是真实事件改编的  剧情励志催泪 必支持宝强的电影 这是暑假期间 最期待的一部电影 宝强这次出品必是精品 必须支持 预测票房40亿超上', '确实是个好电影，放在国际上都是一部不错的片子', '王宝强能当领演  乌鸦变凤凰了  试问你有文化吗？', '我就是大山里走出来的弃婴，那些没有经历过苦难的人不会明白底层人的世界，不理解没关系，但请心存善意，有能力就帮，没能力说句安慰的话，不会说就闭上你那高贵的嘴谢谢', '又是一部堪比我不是药神的剧。每年来一部这种的就够了。宝强牛逼', '三分钟就看完了，也不知道有什么意义，重点在哪里', '好，反映的山区孩子的困境，讽刺了道德绑架和披上伪善外衣的人性，', '@妈妈说名字不要起得太长因为会有傻子跟着念: 看《消失的他》不是让你远离男人，是让你明白黄赌毒的危害\n看《我爱你》不是让你别生孩子，是让你对父母多一点关心，孝顺一点！\n看《八角笼中》不是让你觉得养孩子难，而是告诉你看不到出路的普通人要想活，必须要靠自己向命运挥拳！\n看完《扫毒3》不是让你别相信朋友，是让你学会在这个社会保护自己\n所以，那些人该有点正确的价值观了[抠鼻]', '￼￼￼￼￼￼￼￼￼￼￼有多少人是为了王宝强来的，举手￼￼🙋🏻\u200d♂️', '你见过那个CBA球员是农村人和那个运动员是农村人的吗？也许剧中为和怎么样都要修那两百万的足球场只是这段没有写得很好，现实点还记得前段时间烟草公司吗？别人你一个普通人就算上了好的大学没背景资源出来没打螺丝就算幸运了，说这话可能会有很多人不喜欢听不过也无所谓。', '￼￼￼￼好电影！做为演员，王宝强成功了！做为导演，他也成功了！🏆这才是我国影视行业进步的样子。', '有钱没品的人看不懂这个电影的真谛，他们根本感受不地道穷的没饭吃是什么滋味，穷人跟富人永远不会平等，等你出生的那一刻基本就决定了你的人生，极少部分人才会遇到贵人。就像马虎跟苏木，腾辉就是他们的贵人。', '看完电影后 揭示了人性的复杂性和社会的阴暗面，引发了人们对道德与正义的深思，是一部非常感人的电影，它让我们看到了现实社会的残酷，也让我们看到了善良的力量。\n\u200b山沟里的贫穷,孤儿们的困苦,体育界的黑暗,虚伪贪心的教育人士,断章取义的新闻媒体,假仁假义的网络圣母,在影片中都有一一体现出来，选择这样一个真实事件还原进行题材改编拍摄，当初的恩波自己也是有一段不为人知的故事。', '评差的。让他们去山里生活个半年，让他们看看那里的孩子。在山里的孩子们，有多少人关注过，那里的教育、生活条件等等，能造就出什么文化方面的人才。但是他们需要生存，需要过的更好，需要家里人顿顿吃到肉。那些什么慈善机构别动不动给这个困难给钱，那个困难支援，走到山里去，帮帮他们。灾难当中有国家支援，有民众支援，灾难后都可以恢复正常。但是山里的那些孩子们却天天都在灾难中生活呀。我看到对这个影片的一些花絮，其中一个片段直击内心，两个孩子在吃饭，有个工作人员过去掰走一个男孩的半个馒头走。另一个男孩怕也掰走半个，直接就一口吃下去。（印象中这个花絮是工作人员有意的一个测试，看看孩子的反应）。另一个花絮是一个不会游泳的孩子，在水里训练手中举着石头，蹲下起来的）拍完后才知道这个孩子不会水，但是这个孩子知道这也许是他能走出大山的一个机会，用命去拼一个看不到的机会。王宝强能把这个搬到银幕上面就不能感动大家一些吗，还在这里风言风语的，不就是认为草根出了好作品，心里不平衡嘛，还看到马蓉都出来蹭热度，怎么不去看看影片的内容呢，怎么不换位思考一下那些孩子，为什么那么拼呢！外国的拍真实事件，成就英雄。我们拍的真实事件都是，差评。世态炎凉。永远支持王宝强，也希望王宝强多拍这种类型的电影。质量不是重要的，重要的是让人们的三观正一点。', '好评！草根英雄是否被水军排挤？居然有人评论差的？草根导演和草根拍出来的电影是否打了某些商演的脸？', '现在这个社会很畸形，真正做善举的人和机构被有心人和某些私心重机构网络引流攻击，一些无良媒体失去了无冕之王的正义和作为新闻人的严谨和公正，不核实真假，不辩明真相，为博头条，毫无新闻人的素养与底线。一群不知真假的唯恐天下不乱的网民像苍蝇闻到臭肉，兴奋狂欢，跟着起哄，像参加一场狂欢。把整个社会氛围变的戾气重重，压抑无比。', '说真的，看的过程中泪水打着⭕，这不是矫情，我也是大山里出来的孩子，深刻体会到那样的生活，电影里那个姐姐那种无奈和绝望和对生活的妥协，最真实。别看现在的大环境好了，有机会你去偏远地区看看，去农村看看走一走，也许对你会有些许感触！\n\n唉，太真实了，看完想说的太多了，勾起太多的回忆！一言难尽', '大多数城里人都看不起从大山里跟农村出来的人，在他们眼里，我们很粗俗，愚不可及，在资本的推动下，他们就是那么的高高在上，我们就是他们眼里最底层的人，而往往这些人却不知道，他们吃的穿用的，都是我们努力拼搏出来的，哪怕工资低点，累点，没事，顶的住，因为还有妻儿老小要用钱，加油老乡们（没文化的农村人路过）[拳头][拳头][拳头]', '一直觉得自己过的挺苦的，不想看太苦的剧，今天看了八角笼中，还是被剧情跟所有演员的演技打动了，善良的人即使最初的目的并美好，也不妨碍最终成为心有大爱的人，王宝强牛啊！', '电影院已经看过，说句真心话吧，看到一半我就想走，唉，宝强还是适合喜剧！', '这部剧拍的太赞了，题材非常好，真实改编才能深入人心，这个世界不良媒体太多，网络圣人太多，黑心资本更多，大山深出穷人的孩子想有出路太难，那些黑这部剧的看完了么？有良心么？', '这部电影是我今年以来看过最具有色彩的影剧，剧情真实，内容感人，十分能带动观众的情绪', '非常不错，我不爱看国产电影，但是这一步我是真的动容了，国产电影崛起！！！宝强崛起！', '王宝强翻拍恩波格斗馆事件的同时，也是王宝强在翻拍他自己的人生经历', '在电影院刚看完，很好看，值得一看👍', '星爷看了〈八角笼中〉默默地流泪。\n火🔥大火🔥🔥', '拍的非常好，非常棒', '王宝强演这个角色，感觉他沉淀好久才可以演的这么出彩。', '王宝强什么时候上啊', '还是预告啊', '王宝强拍了那么多好电影，塑造了那么多经典角色，却还没拿过主流权威电影奖的影帝，希望这次八角笼中能弥补这个遗憾吧[意难平][意难平][意难平][意难平]', '有人现在看旳吗', '要演技有演技，要人品有人品，王宝强真的很不错', '我是预言家，这个电影爆火了', '这就是我们的媒体。只报道自己想报道的。一点职业道德都没有了。', '太励志了很感动 是我今年看过最好看的电影没有之一 宝强我欠你一张电影票[意难平][意难平]', '宝哥是我喜欢为数不多的演员，人品好，演技也很好', '我从深渊艰难爬出，你们又把我打回谷底，还要让我谢谢你的恩赐！', '王宝强历害了', '抽两个皮友给电影票', '支持王宝强', '苏木就是另一个我们，加油', '期待王宝强的新电影，这个这个电影是真实事件改变来的😭😭😭', '王导，7.6毕有一张电影票', '玲离尽致', '永远支持宝强[一起冲]', '6666666', '不喜欢，但还是看完，因为评分高，我想搞清楚。方言已经让人产生厌恶感，时代不同了，叫过时吧。用贫穷吸引同情，现在全国各地门槛下降，人人可以自力更生，时代不同了。贫穷可以使人更加无底线努力，那是因为死不足惜（穷不怕死），但自信必须是克在骨里，那叫难能可贵。总而言之，言而总之，穷不怕死不一定光荣，贵不怕死一票难求', '八角笼中 49:482023年12月18号晚上18点14分深圳宝安黄丽珍', '对王宝强的最初印象是那部士兵突击，很有好感。剧情也很赞。后来的那个泰囧和唐探中，剧情角色仿佛掉到了同一种模式中，剧情故事也有些浮夸就很少关注了。八角笼中的出现开始有些突破，剧情讲述起点依旧是底层人的命运，但能感受到角色设定不再单一化，演技也提升了不少，情感的表达设定更加合理化，有隐忍有冲动。那几个年轻演员也是表现不俗。就是有一点，人物的心理回顾和回忆，镜头切换的有些生硬，不够自然。总之还是一部挺赞的片子。', '那些喜欢在网上乱说话的注意了，有时候你不经意的一句话可能会害了人命，谢谢王哥拍出这么有含义又励志的电影', '我把他们骗出了那个山沟沟，我骗他们练格斗，骗他们能拿冠军，以后能靠这个吃饭。咋了?他们是啥子人?家里牛牛没有，地地没有，工作工作没有，钱钱没有，他们往哪儿走啊?他们是一群除了我，连骗他们的人都没有的人[意难平]', '可以说，《八角笼中》是从方方面面，各个层次，揭露着社会和人心的罪恶与邪恶！\n\n但是王宝强终究是王宝强，他没有让苏木趴下，生活很难，那八角笼子不只是他们格斗的场所，更是生活的牢笼，可是只要不服输，只要不认命，只要心中的那口气不灭，只要你敢去反抗，只要你来向往美好未来，那就努力把战斗吧，把那牢笼打开！闯出去，不遗余力地闯出去，哪怕受伤哪怕流血，只要出去了，就是另只要出去了，就是另一片天空！\n\n\n就像王宝强自己，他能从一无所有的草根，凭着自己一步步的踏实努力，走到如今，成就传奇。\n\n\n所以，他用最现实的手法，想纪录片一样，揭露着恶，却在着恶包围的世界里，颂扬着善良与正义，倡导着努力与坚强，给所有苦难中人们以阳光和希望！\n\n\n所以，苏木成功了！苏木的姐姐走出来大山！向腾辉沉冤得雪了！王凤从未背叛！更多的孩子们有了新的机会和人生！[赞N]', '值得深看', '一句话，这才叫电影。', '河南陪两根', '很有深度的电影反应和影射很多社会面', '很推荐，拍的很好，希望能有更多这么好的电影，更希望更多的不是根据现实改编。', '宝强真的变得高大上了.不是以前的傻根了。这电影真心不错。成功转型', '可以的这电影', '这么好的苗子 被治本和良心糟蹋成了这个样子……这个世道太黑暗了！', '看到这些孩子，我更不能理解国家每年几十个亿的援助非洲是在做什么？', '这部电影挺励志的，王宝强演技也不错，孩子们也很棒，值得一看。', '支持宝强的每一部电影', '刚满18岁～', '八角笼中 17:51', '有内容，有演技，故事节奏好，观感效果佳', '我没文化  牛逼', '少宝强一张电影票', '这部电影给我最大的困难是没证别管你有通天本领没证你只能打工，有些证不是普通人能办的，成年人才知道证有多重要，最后引起关注了才成功没有关注依然是没有证回归大山，现实中有多少个人会引起这么大的关注证是国家的收钱工具同样也是限制普通人致富的最大难关，没证你有多大本事只能去打工，想找个和我一样看到问题关键得评价都看不到，一群评价没有一个有用的', '八角笼播出以来，我从未看过，但是今天看到，这部电影内心有很大触动，反映出了社会中的种种事情，腐败等，穷人拼不了钱，就得拼命，加油吧，奋斗的年轻人！致敬！', '不知道为什么我不喜欢这部片子。夸大了', '如果说因为一个地方的孩子穷你就可以这样子去私自的拥有  让他们去进行一些违法的事儿   个人觉得跟黄赌毒没啥区别  让没有法律意识年龄的孩子签合同   说什么是你给别人的路  说是你把他们带出了山沟沟  你的这些道理在黄赌毒上利用起来一样可以  是承认十几二十年前的国家并能照顾到方方面面   这是一个严重灰色地带电影', '当时用孩子打假拳不也挣钱了吗？挣了钱也并没有改善生活，当有穷人的孩子送来的时候，为什么还要收？我不理解，既然是小人物从电影中我并没有看出男主有多大的情怀 到后来签给新俱乐部，也不跟孩子解释？真的看不懂', '绝佳的作品', '只有真正在生活中才会发现艺术', '有深度 加油宝强', '点赞，绝对支持！', '王宝强，棒棒哒 好电影', '非常真实的一部电影[一起冲][一起冲][一起冲][一起冲]']</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 黑豹2 </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>VIP · 10859热度</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>《黑豹2》：英雄重生！瓦坎达全族共迎战海底变种人,电影简介:在“黑豹”特查拉国王不幸去世后，苏睿、奥克耶、拉曼达女王、姆巴库为了保护瓦坎达而战。瓦坎达人努力迎接他们的新篇章，他们必须在娜吉雅和罗斯探员的帮助下团结起来，为瓦坎达王国开辟新道路。</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.1分</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['颠覆了我对漫威的看法，选角随意，从海里出来，从海里的既视感完全比不上海王，感觉太随意了，打斗也随意', '已经看完了，会员不是免费的吗？', '明明可以联合一起保护振金，为了救公主好好的杀人家的人完事也不管也不救也不解释，人家复仇死了女王，完了又想着复仇杀回去，，这么狗血的剧情么', '我对黑人没有歧视。但是肤色本来就黑这电影晚上的光能亮点吗？根本看不见…不知道调色师搞什么鬼。', '我看过了，剧中一直期待黑豹复活，直到电影结尾才发现此片结尾敬博斯曼，上网一查原来他本人真的去世了才没参演黑豹2。更没想到的是黑豹1和复联34都是在癌症晚期参演的，致敬', '我还是免费，哎呀', '建议让欧文出演', '评论区让我省了7块2毛！感谢各位大冤种！', '《黑豹2》是一部伟大的续集，继续讲述着瓦坎达王子翻身做大哥的故事。影片对非洲文化和历史进行了深刻的探索，人物形象塑造也更加丰富、立体，引人入胜。同时，电影的特效和动作场面堪称一流，让观众身临其境地感受瓦坎达的奇幻世界。不过，个人认为电影的反派角色塑造上有待加强，缺少了一些令人难忘的反派人物。总之，《黑豹2》是一部绝佳的科幻动作电影，引人入胜，强烈推荐。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '真难看，故事剧情简直胡扯淡，明明是美国在那里挑事不干美国两个高文明打起来，美国鬼子搁旁边看戏呢吗？永远是奥特曼打怪兽剧情', '喜欢黑豹2', '不管你信不信，六分钟之后我也退出了！', '最强大的国家和战士，我可以说美国资本做法是你喜欢意淫他十分愿意满足你', '两个高文明本来聊得好好的  然后因为一点点小事 直接开战 最后又因为心里放不下人民 又休战 和好如初  跟小孩子闹脾气一个样的科幻电影', '钢铁侠过后再无漫威', '这就很扯，这人鱼既然这么强，那灭霸来的时候他在干啥？说要保护族人，灭霸打响指的时候他又在干啥？纯属扯淡', '第三部不会是这个小孩回去挑战成为了新的黑豹吧！', '非常一般。在观看的两个小时内我一直在期待着精彩剧情的出现，然后就大冤种般地一直期待到了结尾......总之从头到尾我的内心都毫无波澜。', '黑豹主演不是去世了吗？又换一个？', '可惜再也看不到黑豹1里的黑豹了', '本来想买的，一看评论那么拉，不买了', '明明2小时35分钟07秒，为什么那么多人说只有六分钟？', '第一部就很好看了，2肯定也很精彩，期待上映', '国外不是已经上应了吗', '银河护卫队3来的', '我有个想法那就是中国能拍部昆仑墟吗，故事是这样传说在中国昆仑山里有个与世隔绝的昆仑墟，昆仑墟里的科技比外面发达几千年，想进去只能找到空间节点传送阵，故事开始就是在大洪水泛滥时代有龙族图腾，凤族图腾，麒麟族图腾，玄武族图腾，白虎族图腾，的部落为躲避大洪水迁徙到了昆仑山里的在探索定居的过程中五大部落发现了一个神秘的空间小世界，世界里有一艘采矿飞船不知道在里面多久了（反正已经损坏），小世界里有种神秘物质改变了周围的环境，植物，生物，矿石，于此五大部落的人们在这个神秘的小世界里开始了宏伟的大建设发展，在发展中因为破解了飞船里的科技使得后面从小世界各地发现了灵石、精金、万年玄铁、千年钢木、琉璃金沙，生命原液等东西，但人类没有走上修炼之路而是选择走上奇幻科技之路，用灵石替代能源，用精金、万年玄铁、千年钢木、琉璃金沙打造武器或者科技产品，喝生命原液使身体进化寿命长达上千年，直此昆仑墟文明进入大发展直到外面的世界进入二战时代发生世界大战发射核武器振荡地脉打开了无数年封闭的昆仑墟节界，直此昆仑人能进出外面的世界，但昆仑人没有侵略世界，昆仑人发现外面的世界里有好几个文明科技都要比明面上的国家发达几百年-几千年，如非洲黑人瓦坎达文明，大西洋海底海族亚特兰蒂斯文明，西方玛雅人文明，地下蜥蜴人文明', '这算不算免费的', '熬到了免费   还好没买   ', '都不知道长什么样，黑黑的看不见啊', '剧情先不说因为我没看完，而没看完的原因就是黑夜是真的黑，黑的看不清楚，我视力本来就不好，这样看我眼睛受不了', '唉 ，黑豹二这个剧情是不是有点问题啊 ？共同的敌人不是是寻找振金的人吗？别人在海里生活的很正常 ，别人为了保护家园，想同盟 ， 先表示出了诚意 ，告诉了秘密 ，瓦坎达人先偷击别人， 别人反击不是很正常吗 ？刷新我的三观，哎！', '这玩意跟黑豹有一毛钱关系吗？', '黑2和黑1的差距不是一点啊  在黑2中一直人为黑1的男主会复活站出来  即便是男主真正的不在世了好歹也弄个不露脸的黑1男主在关键时刻出现在黑2中  黑2中的女主的力量与科技远远落后与黑1 自钢铁侠 黑1 复仇联盟1 2到无限后就下滑了', 'ufc乌斯曼居然客串了！！！', '漫威电影开始拉垮了', '确实像威少[吃瓜N][我裂开了][我裂开了]', '没有1好看啊', '差评差评，太黑了，看不清楚，根本看不清楚。', '怎么说呢，钢铁侠和黑豹的结合版，一句话，漫威真是不禁看了', '终于免费啦啦啦～', '很难评，电影三分之二都是在黑夜，还全是黑人，导演也挺不容易的，估计是把全世界黑人都找出来演这部电影了，总的来说看完眼睛很难受，一片漆黑，又是夜晚又是黑人，一直在找人', '电影大多数时间都是暗色系，关键里面的人一个比一个黑，看的眼睛好辛苦啊', '我先声明。没有一点种族歧视！！！片子很好看！！！就我一看到黑人亲嘴就特别别扭！！！说不出来的感觉！有没有跟我一样的？', '每个英雄的死亡都是跟档期和合约到期走的吗', '复联四就已经是结局了', '强行渲染主题', '必须刷好吧', '还能咋说，[富翁][富翁][富翁]', '瓦坎达万岁，都是打过灭霸的人怎么还会怕海里的臭虫', '不知道大家喜不喜欢超清，漫威怎么基本上每部电影都是超清为天花板，怕别人盗蓝光版吗[握草]', '草率了，还我早点钱', '称为漫威最烂', '片子整体比1少了很多打斗镜头，更多的是各种情感，可能是少了黑豹，最后结局也是伏笔，可能还会有三，毕竟都是系列版，结局和速度与激情一样，纪念黑豹本人', '只有我觉得不好看吗？快进着看还断断续续看了3天[狗头]', '请问谁知道黑豹是怎么不幸去世的？什么原因啊？这个系列要结束来那么一个收尾也太扯了吧[准时]', '真不愧是黑豹啊，真黑呀', '动作榜第三  怎么评分这么低', '这部太拉了吧  马上出第三部 孩子长大后又不得不变成黑豹拯救世界', '很好 在水里你们也说不了话是吧 ', '第二部的剧情比第一部更复杂，但是少了黑豹，总感觉少了点什么。', '歌曲还是很好听的', '陆地对瓦坎达贼心不死，也许还会出第三部', '哎，漫威啊漫威。复联4之后的漫威，真不知道说啥了。失望', '女主毫无战斗力，剧情简单。', '看完了，为啥没见黑豹，有知道的吗，可以为我讲解一下吗', '又长又臭[金币]', '全程黑，看不清', '南京再次', '所有的和平都是打出来的', '一部不应该在我们国家上映的电影。一个为了生存，躲与海底，一个高科技文明，不想侵略，而自封国家。却因为美国所谓的发展，而互相大打出手。是体现美国玩弄权势的手段？两个和平的国家发生战争，真的是可笑。这部电影最终想表达的是什么？', '什么逻辑呢，一个不能在陆地上生存的种族要去占领陆地，', '很好看不错', '真心地，不咋滴，十分满分的话，给个3分4分不错了', '看完了  只有一个感觉  瓦坎达活该', '看了四十多分钟，全是乌漆麻黑的场面，亮度拉到最高都看不清楚，这看个集贸啊', '真的一言难尽', '看了半天不知道看了啥', '没得意思', '你看看海王的亚特兰蒂斯 多亮', '一个高度文明居然被一个与世隔绝的原始文明按在地上摩擦', '冗长，故事情节单调简单，没什么重点，影片传达的核心非常混乱', '你声音大聊不起呀 我泰兴吕林说的', '蛙看打这世界最强大的国家，派艘船两只小飞机几十只跑龙套的就敢发动国与国、文明对文明的复仇战，最后这几号人被堵船头差点嗝屁，那蛙看打算不算灭亡，梁静茹给的勇气吗？就这水平就敢在联合国大会镇压世界五常，其中一个还是拥有大量“妇联”牛鬼蛇神漫威英雄的国家！编剧看不起谁！', '好像看到了乌斯曼', '为什么这个电影我希望黑豹早点挂？希望善良的海洋文明赢？', '美国队长：小鱼人你有点皮啊！', '挺不错的', '难道不是申公豹出场吗？', '啥啊这是']</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 扫毒3：人在天涯 </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>VIP · 10653热度</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>警匪动作巨制《扫毒3：人在天涯》曝“炸！”预告郭富城古天乐刘青云真打真枪真炸,电影简介:毒枭康素差一直带着手下张建行从事毒品交易，新加入的成员欧志远也因一次意外与两人有了过命交情，三人情同手足。康素差在香港的贩毒生意被警方查处后带团队逃到金三角发展，却意外发现身边藏有卧底。此刻，是敌是友，一片茫然。</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['看看人家的电影，再看看内地的电影，人家直接不收费，内地的电影一直在收费', '看不起我阿伟[狗头]', '还是老演员演的经典，现在的小鲜肉演的什么东西？', '没有渣渣辉，有点小遗憾噢', '没有张家辉灵魂人物，搞什么', '也不知道，这几个老家伙还能拍几部电影，，，好好珍惜，以后没得看咯！', '还得是老戏骨啊', '老戏骨演技就是不一样', '天天扫毒，有本事去缅甸扫啊', '这导演宋小宝亲哥？', '没有渣渣辉', '非常喜欢这些老戏骨的演的电影，要是把张家辉和张学友请来那真是太好了，看他们一起飙戏太过瘾啦', '渣渣辉没在，有一点点失望，但是也影响不了古仔跟刘青云的同台，能撑得起，😎😎😎', '上线了推我一下', '没有张家辉没有灵魂', '去电影院看了', '郭富城不适合扫毒系列 比利换成张家辉就完美了', '毒品在哪里进货啊？搞点门路过来呀。', '怎么感觉不如前两部好看呢[发呆]', '五毛特效', '上线了踢我一下谢谢', '我记得有粤语版的预告吧', '阿伟已经死了，你挑的嘛偶像[富翁]', '香港电影一点创意没有啊，一直翻来覆去这点东西', '上线来个提示呗[666啊]', '真大片，不像某些。国产货什么时候能出点高质量的影视？港星大部分都老了还在拼，年轻一辈抗不起来，悲哀！', '应该，上渣渣辉的', '没有张家辉', '扫毒3部曲感觉没有连贯性', '感觉不太好，又是邱礼涛导演，你看.扫毒2，拆弹2，不能再烂了', '这部戏没一个大陆演员，说明大陆演员不适合演动作片', '和前作相比，真的太烂了！动作场面掩盖不了剧本逻辑的一塌糊涂！感受不到扫毒工作的残酷性！', '为什么没有渣渣辉呢', '实力演技派。看的就是过瘾', '不是可以看吗？没有网络的？', '故事线太乱了，一下子几月前，六月前，时不时回忆', '2023-8-10看的有没有', '我想找个老婆', '为什么没有渣渣辉？', '非常喜欢这些老戏骨的演的电影，看他们一起飙戏太过瘾啦', '云南第一', '打卡打卡', '朕已看完', '发么帖#腾讯视频9号开[意难平]放日# 北京线下有没有二维码~', '可以永远相信港片', '自己人打自己人，还得是古天乐', 'noon应该没死，她应该是司令的女儿。那个镇上碰到比利和noon后面被枪击的军方卧底，告密得是noon，参谋第一次去noon的村子也特别看了noon一眼。包括noon说她小时候爸爸离开，应该就是司令去贩毒', '这个是农夫山泉矿泉水吗', '云南人集合', '看了这部片子后，一直在想一个问题，港片为什么会没落？原因就是香港电影人还在延续着过去的辉煌当中，老套的剧情，精彩的打斗场面，然后呢？格格不入的理念，整个电影除了刘青云，其他演员都是满屏的尴尬，除了消费老演员的情怀以外并没有什么新意，这或许就是现在港片的现状吧', '挺好看的电影，老戏骨演技还是[赞N][赞N][赞N]', '三个影帝加➕起来都 200 岁了🤗🤗', '老戏骨对垒，大饱眼福！\n激战名场面，太燃了！\n#扫毒三兄弟再聚首#\n#古天乐52岁生日快乐#', '这个女的应该是泰国警方的卧底', '刘青云你要长命百岁，我们看你电影长大的很喜欢你', '我也是卧底', '河南南阳打卡', '古天乐，我男神', '廖志磊我爱你🤟', '现在为数不多的港片电影了，制作剧情方面都很不错，汽车冲撞和枪战也都是好水准。很好看，很不错的电影，题材也很不错。', '差哥到最后都没怀疑过自己的兄弟，赴汤蹈火啊差哥', '还是喜欢看老牌演员演的电影', '动不动3个月前，动不动6个月前，好好拍行不？作为一个资深卧底随便在车上就跟外国警方人员承认自己是卧底太让人惊讶了。', '好无聊的剧情', '信阳光山', '总司令：我在干什么？', '刘青云厉害👍', '贵州黔东南苗族侗族自治州的有没有，凯里市', '一会儿5年，一会儿一年，一会一个月', '太好看了！！', '希望各位卡里有钱，车里有油，不用因为物质而烦恼', '爱我别走', '为古天乐而来的请举手，看看有多少人🙋🏻\u200d♂️🙋🏻\u200d♂️', '扫毒3中完美的展示了香港警察的职业素养以及提现了现如今缉毒警察的不容易，在电影中我们可以明显的感觉到香港警察和毒贩之间的关系，整部电影中人物特色明显，演绎生动形象，完美的刻画了各个人物的人物个性，能够完美的将所要展示的内容体现出来，在观影过程中我们也能明显的感受当整部电影的细节。其中打斗部分相当的激烈，能够很好的吸引观众的眼球，是一部很值得观赏的电影，非常值得推荐。当我观看完这部电影，对我的感触也是特别深，懂得了缉毒警察的困难，也明白了缉毒警察的危险。电影能够给人深刻的影响，也能充分展示影片的哲学道理。', '兄弟们，我在监狱看扫毒✌️', '人不用减压，直接就起来了。真厉害', '远离黄赌毒，幸福一生', '来个大哥我跟你咚咚锵', '李慧我对象', '这女的为什么要跑出去，急的死么，莫名其妙的剧情', '第四部明年上映', '龚倩是我老婆', '别的先不说就这个枪战就值得五星，喜欢枪战的完全可以看，剧情基本都在打枪战就是感觉女主的戏份有点多余不如来一场纯粹的枪战这样更爽看的更过瘾。', '阿伟呢？阿伟已经死了[柠檬精]', '至少感觉香港电影的辉煌岁月已经成过去式，现在我的感觉错了，但是演员还是青黄不接状态', '总司令准备火线入党', '知恩不报  是🐖🐩', '我感觉按电影这么演除了国外三不管那种地方，国内基本没活路，因为你任何一个新招的人都可能是卧底，搞这个死人是常有的，你不可能永远不补充人手，但是你补充就会有卧底，所以他们为啥要回国干呢？', '片子不错', '楚人来也']</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 你的婚礼 </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VIP · 10676热度</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>《你的婚礼》终极预告，腾讯视频正在热播！谢谢你，青春里给过我的幸福,电影简介:电影讲述游泳特长生周潇齐与转校生尤咏慈长达15年的爱情故事。高中时，周潇齐对尤咏慈一见钟情，年少懵懂的纯纯爱恋，男孩默默守护，但女孩却不告而别。此后的人生，15年的爱情长跑。你的婚礼，也是我的成人礼。</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>爱情</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['尤咏慈永远不知道那场烟花是周萧齐给她放的，而周萧齐也永远不知道尤咏慈的那场婚礼到最后也没有新郎。', '挺遗憾的 青春就只有一个', '你的婚礼 1:52:59也许青春里面的遗憾才是我的结局了吧！再见了 我最爱的汤喻欣！！！\n希望你以后在新的生活里面能再次遇到一位真正能对你好非常爱你的男孩子 谢谢你！！！', '太感动了', "I'm so touched.", '尤咏慈永远不知道那场烟花是的周潇齐为她放的   周潇齐永远不知道那场婚礼没有新郎', '我感觉这俩图片很配[随份子]', '尤咏慈永远不知道那场烟花是周潇齐为她放的，而周潇齐永远不知道尤咏慈的婚礼没有新郎。', '我的那个她也在2022年2月七日结束了谢谢你夏梦婷', '个个都说没新郎这个是什么啊这就是结局', '兄弟们我截到了女主电话', '尤永慈永远都不会知道，生日那场烟花是周潇齐为她专门准备的，而周潇齐不知道的是，在尤永慈的婚礼上，根本就没有新郎', '再见了 陪伴了我三年的女孩.', '给我看哭了[意难平]', '  尤咏慈永远都不知道那晚的烟花是周潇齐特意为她放的 周潇齐也不知道其实在尤咏慈的未来规划里一直有他.', '看到这里就可以了 后面不看了 就当这是最美好得结局❤️', '第一张图是我初恋，第二张图我初恋和她老公，第三张图是我初恋的女儿她叫我爸爸O(∩_∩)O', '两个小时我哭了半个小时', '失去她272天咯.这期间我也何尝不是每天都后悔自己不努力，没考上大学，如果我考上大学我们过的肯定很幸福.....', '再一次重温，如何才能释怀，四年了每天都忘不掉点点滴滴，也不知道你过得怎么样，', '我睡过她的房间，喝过她的水\n吃过她的剩饭，亲过她的嘴\n也见过她刚起床素颜的样子\n这辈子就当我娶过她了吧。', '我爱你，感谢你曾在我的生活里出现过。', '受不了了 太好看了 妈妈', '虽然很虐但是真的很喜欢', '她永远不知道他为她放了一场烟花', '再见她时，已经是两个孩子的妈了', '周萧齐和尤泳慈的十五年都没有结果 我和你的七年又算得了什么更何况七年里我们只见过三次.', '应该劫婚的', '祝福你“我错过的女孩@', '异地恋，去年偶尔一次聊天提到要去找你看这部电影、怪我又一次失信了，现在想用这种方式和你说再见、zyf谢谢你出现在我真挚而有热烈的十八岁、谢谢你教会我很多东南、遇到你我绝不后悔、感谢遇见！还想问下截屏ly是你对我说的话吗？', '太感动了😭', '尤咏慈永远不知道，那场烟花是周潇齐给她放的，周潇齐永远不知道，尤咏慈的婚礼上没新郎', '电影的世界真的好小，离开了几次的人又能再遇见。现实的世界真的好大，一个人走了就再也没有了消息', '2007年，17岁的我们在一起，18岁分开，2010年，20岁的我们各自去了不同的大学，分别有了新的恋爱，2013年，为了见她，我组织了同学聚会，2014年毕业后，我去了更远的城市，2015年，我们再次相遇，义无反顾走在一起，2017年，我们步入婚姻，我是幸运的，回忆这一路，无语表达内心滋味', '这场电影 我一个人去的影院看的！\n', '如果我是导演，我希望……那场婚礼，是尤咏慈给周潇齐的一个惊喜.', '尤咏慈因为周潇齐的“后悔”  就质\n疑了周潇齐15年的爱\n《你的婚礼》上映的时候好多人说周潇齐是舔狗  说这个电影毁三观  可是什么时候开始纯深情被加上了舔狗的标签\n就没有考虑过尤咏慈的成长坏境  原生家庭是一个很可怕的东西  周潇齐永远都不知道他的后悔对尤咏慈意味着什么  尤咏慈也是在及时止损  如果他们继续在一起  那么那一句后悔会消磨掉他们15年里所有的美好  （也不是所有人都懂周潇齐的后悔对尤咏齐意味着什么）', '尤咏慈永远也不会知道那一场烟花是周潇齐为她放的', '这辈子最羡慕的就是从校园到婚礼的爱情', '我希望剧情可以反转 我真的好希望站在礼堂的新郎就是周潇齐 一个人为另一个的十五年 用尽青春 最后都被 后悔 这两个字毁掉了 遇见一个人就没有什么后悔可言 为了你 我可以放弃一切 不管什么冠军 爱一个人 总而言之 珍惜彼此', '2021.8.30-2022.3.12 很遗憾没能走进你的心里', '很幸运遇见你，迪丽热巴，虽然已经分手了', '这样的结局配不上男主至死不渝的爱', '尤咏慈永远都不会知道那场烟花是为而她放的，周潇齐永远都不会知道尤咏慈的婚礼上没有新郎～～……', '这女主啥毛病啊，一和男主分开，马上能和其他男的好上，也是醉了。。。', '再见了 认识五年零四个月20天的女孩', '我们再也不会像以前一样了，hxy', '巧   下辈子别再错过我了   下辈子希望我们早点遇见   下辈子我带你回家😌', '看完了，没任何感觉，可能没谈过恋爱吧', '分手两个月，本来以为看完会很感动。但是现在看完了，我一点也不感动，有的只是替男主的不值。虽说是15年时间，但是真正在一起的也就那么两年。前面的十几年可以说都是男主单方面的追求女主。从喜欢的角度讲，男主喜欢女主明显要比女主喜欢男主多的多。男主的喜欢是纯粹的喜欢，而女主的喜欢掺杂了感动 感激和愧疚。不能说两人不相爱，但是这种爱并不对等。男主真正应该后悔的是，没有答应女主的求婚。已经付出了那么多，结果最后一场空。而女主付出了什么？她什么都没有付出，却得到了幸福的结局。这就是爱情吗？', '这个电影是我和她在2021年5月4日去影院看的，当时那个影院一个人都没有，只有我和她，那个时候都怪我太懦弱了，要是那个时候鼓起勇气给她表白，现在她也就不会是别人的宝贝了，但我不后悔，至少我曾经整个青春都是她的身影，潘广燕，我陈果曾经喜欢过你，我不遗憾，最后祝你幸福！', '2022年2🈷️2日 00:56分 这个电影我看哭了……\n  但还是祝我心里的那个他 永远幸福吧', '看了五遍还是觉得好看，五年内看过的最好的电影', '尤咏慈永远不知道周潇齐给她放了场烟花，男孩为了女孩重读，怕女孩遇到渣男打了她的男朋友，然后为了她断送自己的职业生涯，因为两个字女孩就离开了他，换我我理解不了', '2022年1月28日15点39分，我又一次看哭了，即使缘分已尽，但还是感谢你曾经出现在我的生活中', '周潇齐永远不知道尤咏慈的婚礼上没有新郎', '2022.2.14 情人节我来看这个?哈哈哈哈哈', '其实送你的那些礼物我都是我不吃饭留下来的', '真的会改吗', '连个合照都没有的集合一下吧！', '看第五次了', '男主也对不住现任 明明有女朋友跟初恋成双入对的', '2023.11.28凌晨3：40看完了。', '以前吧，不知道《你的婚礼》讲的是什么，直到我遇到她我彻底明白了什么是遗憾。在这里，我在爱的前任祝你幸福，希望你天天开心。', '再见了陪了我7年的女孩子', '心真的好痛在分手的这晚看了这部电影。\n所以说放不下以前，还是接受不了过去。', '结局真遗憾', '电影可以重映，我们呢', '那个陪我六年的女孩 原谅我 你的婚礼我没参加 再见了我的女孩….', '太浪眼泪了', '十二年的 你     希望我能看到你的婚礼  ', '遇见你\n是我这辈子最骄傲的事情\n是你让我这个幼稚的男孩长大了', '看完就释怀了。', '2年了我来到了你们曾躲雨的地方却在也找不回感觉了', '还是不能释怀', '31号电影院见，一个人', '这个剧要被改了，是不是结局会在一起了', '生活不是电影   错过了就是真的错过了', '08年哪来的王者？', '希望能两个在一起', '终于等来重映了', '别人口中的烂片，我看了一遍又一遍', '谢谢你的陪伴宋女士', '怎么她也在啊？\n', '第一眼喜欢的人 我就没想过再爱别人 她不在的时候好像什么都没有了意义\n我总是惹她生气 有时候我在她面前确实挺傻我一做错事去光顾着和他道歉，忘了解释清楚 我说过永远爱她 我怕我放弃 有一天她不开心的时候找不到我 我不想错过她。[准奏] ', '付大头我爱你', '烟花再美 终究是灰', '中奖了 但是过期了', '非常好看，就是看的太遗憾了，非常的想哭', '再见了，我真正的初恋zxt，电影会重映我们不会重逢但是我还是想说，我不怪你，也祝我们各自的生活越来越好。']</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 移动迷宫3：死亡解药 </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>VIP · 10790热度</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>《移动迷宫3》肾上腺素预告负重前行打造良心终章,电影简介:被困在迷宫里三年，成功逃脱的他们，这一次他们要再次回到迷宫。托马斯带领小队成员开展最危险的行动，营救同伴、同时探索从进入迷宫开始就困扰大家的终极问题。</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.0分</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['移动迷宫4（新冠病毒）', '刚刚看完第三部，挺好看的', '结局可以，女主死了我就放心了', '注意了，移动迷宫是国内译名，原名叫maze runner，也就是迷宫行者，所以说内容重点是行者而不是迷宫，而且runner们也的确都在各种跑，所以并没有跑题', '123。1最好看，2一般般，3最难看。说实话1那么精彩，结尾感觉构造了一个庞大的末日世界，出了迷宫他们会经历很多精彩的估计，但是拍完23感觉是个烂尾。啥剧情啊？整个过程下来男主没感觉有什么聪明才智，只是圣母而已，谁都放不下，就是一路救人而已，呵呵。', '三只能看预告，要在哪里看呢', '求求上映', '我有个问题哦，男主在知道自己血液可以救人的时候，为什么不把自己的血液的给纽特，毕竟纽特当时已经是生死边缘了，死马当活马医啊，而且他自己也相信女主的话不然也不会回去了，而且就算他的血液当时做不了血清，但是给纽特喝下去，最起码也能起到一些抑制作用吧，毕竟他的血才是血清里最重要的物质', '纽特是怎么感染病毒的？？', '&lt;p&gt;人类处于神与禽兽之间，时而倾向一类，时而倾向另一类;有些人日益神圣，有些人变成野兽，大部分人保持中庸。凡事具有阴阳两面性，故而人性既有自私贪婪、急功近利的一面，也有宽容仁慈、勇于牺牲的一面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;电影《移动迷宫3：死亡解药》就完美演绎了人性中这样的两个极端。试验部负责人艾娃和詹森代表了自私贪婪和急功近利；而以托马斯为首的青少年们代表了宽容仁慈和勇于牺牲。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171945313/0"&gt;&lt;/p&gt;&lt;p&gt;过去，美国电影特别强调个人英雄主义比如《超人》《蜘蛛侠》等，都是依靠一个超能力者来救助贫民百姓，形成一个人拯救全世界的局面。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;现在，美国电影的中心思想发生了改变，越来越强调团结合作了，比如《复仇者联盟》《移动迷宫》等，都是各有所长的人们组合在一起，共同拯救世界了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;没有看过《移动迷宫1》的人，理解第三部是困难的，所以我在此给大家科普一下这个故事发生的背景。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171963518/0"&gt;&lt;/p&gt;&lt;p&gt;这个故事发生在未来世界，那个时候虽然科技非常发达，但是环境污染也十分严重，导致人类受到病毒感染，死亡率急剧上升。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;为了制造免疫药物，人类统治者们成立了一个试验部，在全球寻找来没有被感染的青少年关在一个秘密基地——“林间空地”。而一个天生具有免疫力的青年托马斯和试验部的一个成员特瑞莎，也被送到了这个基地。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;这个基地实际上是一个可以移动的迷宫，想要出去必须穿过迷宫。而迷宫中藏有很多的食人怪物，但最终经过托马斯、纽特、米诺等努力，带领林间空地的青少年逃出了这个基地。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171973635/0"&gt;&lt;/p&gt;&lt;p&gt;他们以为逃出去就能回到过去幸福的生活，然而现实却让他们十分的沮丧。原来外面的世界早已被摧毁，绝大多数人因为感染了病毒而丧命。山川河流不复存在，家人们也不知所踪。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;迷茫之时，詹森出现了，他告诉托马斯他们还有一个安全的没有被感染的保护区可以让他们生活。等他们被带到保护区才发现，詹森想要拿他们来做免疫试验。于是，托马斯他们又开始了逃离之路。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;在脱跑的途中，米诺和其他几个青年又被抓走了。为了救出米诺，托马斯带领小伙伴们再一次展开了与试验部的斗争。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171983478/0"&gt;&lt;/p&gt;&lt;p&gt;试验部嘴上说的仁义道德，他们宣称是为了拯救全人类，找到治疗病毒的药物，才要做这样的试验。而实际上，他们为了达到目的不择手段，毫无人性地拿人做试验。这本身就违背了人伦道德。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;试验部的负责人艾娃一再强调，为了拯救人类总要有所牺牲的观点。是的，咋一听这个理论，似乎有那么点道理。但细想一下，所谓牺牲，难道不是应该牺牲自己吗？牺牲别人换取成就，不过是自私贪婪的借口罢了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果说艾娃还想给自己的行为找一个遮羞布，那么詹森就是连遮羞布都不要，更加赤裸裸的表现出急功近利的一面。他说托马斯他们不过就是实验室的小白鼠，所以根本就没有人权和尊严，只能够被利用。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;可见，即便科技再发达，人性如果不进步，世界一样会变得可怕。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540171994329/0"&gt;&lt;/p&gt;&lt;p&gt;托马斯所带领的团队，和试验部的人形成了鲜明的对比。在为了活下去的战斗中，他们互相配合，通力合作，一次次战胜了试验部的追杀。当然这并不是说他们之间没有一点矛盾和冲突。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;但是他们因为共同的理念而把最大的宽容留给了队友。盖里曾经因为感染了病毒，失去意识杀死了队友，可以为了救出被关在试验部的米诺，托马斯选择了原谅他。于是他们合力救出了米诺。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;纽特也曾捅过盖里一刀，但是盖里却救了纽特。盖里说：“谁没有点错呢？”特瑞莎曾经和托马斯一起出生入死过，可是为了找到病毒的解药，她又回到了试验部。被特瑞莎背叛的托马斯，为了救人，再一次选择了相信她。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;人性最闪闪发光的就是宽容。所以他们虽然存在矛盾和冲突，但是最终因为宽容仁慈，又团结在一起。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172009359/0"&gt;&lt;/p&gt;&lt;p&gt;比宽容更难能可贵的是牺牲。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;相比艾娃的让别人牺牲的伪善，这群青年们却都甘愿为了别人自我牺牲。去救米诺是需要冒生命危险的，但是托马斯他们却毫不犹豫地去了。当纽特发现自己感染了病毒，会伤害托马斯的时候，为了保全托马斯，他自杀了。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;最后托马斯和特瑞莎跑到屋顶，打算登上飞机逃走时，大楼却发生了爆炸。在这紧急关头，特瑞莎用尽全力把托马斯推上了飞机，自己却葬身火海。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;成全别人牺牲自己，才是这世间最伟大的爱。当托马斯打开纽特的遗物，发现了纽特的信。信中写到，他担心因为感染病毒而遗忘战友们，所以他把所有牺牲了的人的名字都记了下来。\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;托马斯留着热泪看完信，把所有牺牲了的人的名字都刻在了岩石上。他心中有一个信念，那就是一定要带领大家找到新的家园，带所有牺牲的人回家。\n&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172027907/0"&gt;&lt;/p&gt;&lt;p&gt;本片导演韦斯·波尔说，他想借本片表达的是希望和人性。同时也向我们提出另一个值得深思的问题：是要等到世界末日来临之际才开始重视希望和人性，还是从现在做起？\n&lt;/p&gt;&lt;p&gt;\n&lt;/p&gt;&lt;p&gt;如果我们从现在开始就重视这些问题，也许就不会再有世界末日！&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/fans_admin/0/1_812352097_1540172043629/0"&gt;&lt;/p&gt;', '整个世界观好奇怪呀，既然免疫者这么珍贵为啥要被放进迷宫？人们既然能造出机械兽为啥不对付丧失呢？就不能好好研究和发展吗？这都末日了还要内耗？还是新生代被牺牲，这搞得人类这个物种和傻子似的。', '18年的电影就知道要人人戴口罩了，是巧合还是有先见之明。这是个问题。', '早就出了第三部，几年前我就看完了，纽特死了，被感染了，解药来晚一步，纽特自杀了', '上线提醒，我来了', '😭️😭️😭️第一部看3遍了，现在第三都出来了，第二哪里可以看啊？', '纽特真的意难平', '这么好的电影才7.9分', '个人觉得第三部算是给第二部一个不错的结尾。\n首先，跟第一部的主题以及“迷宫”虽然已经在第二部就开始偏离了，但可能迷宫两个字不仅仅是表层意思，可能暗指另一种意思。换个角度说，如果第一部给我们一个好的结局，主角团们都逃出迷宫了，那么续作该如何延续迷宫就是个问题，所以肯定要往深层意义去挖掘。\n第二，我是很舍不得主角团们的牺牲，特别是纽特和特蕾莎。纽特怎么被抓伤就很不清楚，但是强忍着痛苦继续作战本身就困难，更何况是最后不想连累托马斯们选择自杀。而特蕾莎在本片中也是在研究与友谊之间来回切换的，她不是选择加入敌人，她是想着研究解药救助更多的人，才选择暂时接受研究，最后也是选择帮助男主脱离追杀以及火海最后牺牲。他们两个我是最渴望他们能和主角团们永远生活在一起，但现实依旧是残酷的。\n第三，我认为可能第二第三部的剧情就有点不合理。主角想要将实验对象们都救出来不被研究所抓到，但是救出来后只能选择一边躲避军队和和狂客，另外一边又要远离有病毒感染者的地方，虽然在一个岛屿上找到了所谓的“天堂”，但世界上最大的问题就是病毒该如何治疗，最后也拿到了解药，但主角团不一定会选择冒险离岛去就外面的人吧，所以解药怎么用就是个迷。另外一边，研究人员想要得到免疫者的血液，却要对他们有所隐瞒，直到第三部主角才确信自己的血液可以跟血清混合成为解药，这些就导致了研究进展不顺利了，其实第二部“右支”里面的军医就已经知道托马斯的血液可以救人成为解药，可惜愚蠢的敌人选择开枪射杀。实验体选择逃跑，剩下的人类只能听天由命，这也不算是一个很彻底的结尾吧。\n要我说推荐的话，第一部是力推的，而相对于第二、第三部我更推荐是两部一起看，第一部与第二、三部主题不一样让很多人对后续口碑有些差是没办法。所以要么先看二三再看一，这感觉就是两部不同主题的电影；而按顺序看的话剧情是通的，但是主题改变了就可能会跌口碑。', '我是vip几', '我可以拿自己做实验，那么你会实验吗，你能提供什么技术能力呢', '你把剧情写成当权者或者富人要这些免疫者的血续命我都能理解。这样搞真的逆天，还有主角团和反派的各种行为纯纯的降智，编也编的合理一点好吗。太逆天了', '非常好看，剧情反转，关键时候队友总是很给力。就是纽特死了有点可惜', '为什么一二部那个男的都叫民浩，三部又叫他米诺了呢？', '纽特本来可以不死的，给他喝点血就行，难道他的死就是为了最后让我掉几滴眼泪么', '所以纽特是什么时候被感染的？', '都是死于嚰叽！', '移动迷宫可惜没有第四部移动迷宫3：死亡... 02:05', '我勒个豆。因为女主死了多少人了，纽特说的挺对的。', '2099年12月20号地球最后一万人中一员穿越报到', '这电影很好看就是不知道后面还会出吗？有人知道吗', '本来一个人的血就可以支出疫苗，但却无辜牺牲了那么多人，就像国内一样总有几个张珊珊，还有一个不明白的是，他们还制造魔蛛干嘛啊', '不能投屏，差评', '评论区有些人表示不理解，为什么这个样子拍，因为人家这个是照着小说拍的，这三部电影就是外国同名小说改编的，人家不按照小说拍按照你的思路拍吗[我不理解][我不理解][我不理解]', '3出来了，1和2都忘完了', '刚看了12，这世界观有问题吧，既然是全球性的问题，为什么不能从免疫的年轻人里面挑选自愿者，公开正大关明的研究解药？抽血，实验，哪怕是付出生命的代价，是怕他们都不愿意吗？价值观都不对吧', '让我想到了葛优的那个剧： 如果你有100万你愿意用来帮助别人么 愿意  如果你有一个亿呢？ 全捐了  那如果你有一辆车呢  不愿意 因为他真有一辆车', '快来一起观看(つ≧▽≦)つ🎉🎉🎉🎉🎉🎉🎉🎉🎉🎉，亲爱的小伙伴', '叫回去送人头', '总结两个字：磨叽', '精准指向性实在是太强了[意难平]', '发现外国人老得真快，第一部特丽莎和托马斯多嫩啊，这才过了几年，抬头纹鱼尾纹法令纹都出来了', '好好的移动迷宫，却成了僵尸大作战', '真的不理解你们看个电影那里这么多不理解', '移动迷宫拍着拍着就只剩移动了迷宫不见了[吃瓜N]', '资本主义从来不把底层人民当人', '知道布伦达有血清，不早点给纽特用', '男主不死不解气。唯一一部想让男女主死的', '有这对视的时间，早踏马救上来了，真墨迹', '你对着驾驶室开两枪能干嘛，吸引火力么', '加利第一部被插心脏都能复活，纽特第四部也能复活。', '原来纽特真名叫托马斯，真巧', '应该会有第4部吧，超好看，超期待', '牛逼太烧脑无尿点', '未来会不会真存在人和僵尸大战之类的谁也说不准，实验室会不会搞错会不会爆炸等等日本核废水排海，人污染了会是什么结果，会人传人吗？变异等，等等都说不准，一切前因和后果都是人造成的', '第十部才是最经典的。', '没有一点准备就去救人，主角除了热血什么都没有，连车玻璃都不会加上铁板，子弹也带不够，降智', '移动迷宫5 投屏需要人民币', '女主死了，好可惜', '真的不错🤩', '真不错 看着真挺好看[准奏][准奏][准奏][准奏]', '好遗憾，纽特竟然嘎了', '值得一看', '我去，快2022年了。', '有没有女的一起看的', '超极好看', '看看我是谁', '非常精彩', '会员都不能看高清    我❌哦', '这女的真墨迹，跳一下 兴许能活呢', '刚看了开头，太假了几个破枪打人家全副武装的，跟国产神剧有什么区别', '真的太好看了[打call了]', '再回来看一眼纽特', '女主男主真的讨厌🙃', '不是，我看完了三部，我怎么感觉看了个寂寞？第一男主跟女主都是实验公司的人知道内幕的，突然间男主看不下去了实验，开始以各种信息传递给外面的人，然后他自己被送进迷宫了，后面开始逃出去，自己用了病毒恢复记忆了，开始了我们要自由，要有自己的家，然后就死一大波，出去了几个人，后面该是第二部，东扯西扯又挂了一波人，后面兄弟抓，女主又回去了。这第二部一开始把女主救她的记忆基本上已经恢复完了，她知道这样救不了人类，跟男主绕了一圈，搞死一波人，又回去搞实验了。第三部感觉一样还在循环一样的剧情，男主救兄弟，女主搞解药，实验公司那边又拿男主的血来研究血清，到最后，兄弟没救到女主也挂了，好像女二也挂了，男主就救出一波人看着都不到1000个人和一个血清，搞死了这个末日世界2/3的人，然后就在一个岛上生存了？要武器没有武器，要装备没装备的这点人，外面全部是病毒肆虐的，这跟慢性等死有什么区别？这里面的反派实验公司主要的立场目的就是研究解药救人类的，男主的立场是内幕我都知道，就是看不惯你们，这样搞实验研究解药的不人道。看完我给看无语了。还有到达这种世界末日，人类种族要灭绝的的地步，男主的个人主义不感觉很渺小嘛？要是反派实验公司来个直接个公布男主血可以研究血清，根据这个末日世界观，还有人性这种，男主不就跟过街老鼠一样嘛，能走到那里去啊，就好像一两百个人说你错的不一定是错，但是有98%的人说你错了，哪就是一定错的。', '为什么纽特要死，如果没死的话是不是不会像现在看完这样哭死', '电影来源于生活', '还没第一部好看。 [EMO了]', '纽特我的意难平', '黄毛是快银', '期待第4部', '剧情真的是烂，很早就发现纽特被感染了，就是不用血清，快死了才去拿血清，', '太值得看了，希望有第四部', '这部移动迷宫的影子都没有了，人倒是有', '米诺死了吗？太可惜了，3部他都很帅😭😭😭😭', '啊，我最喜欢的那个是不是死了😭😭😭', '你们不觉得布伦达 很像 阿力塔 吗？', '男主可以盐速度与激情', '保罗沃克', '复制生化危机还是行尸走肉', '亲嘴学会了吗']</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 疯狂动物城 </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>VIP · 10607热度</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>疯狂动物城树懒片段要被急疯的节奏,电影简介:故事发生在一个所有哺乳类动物和谐共存的美好世界中，兔子朱迪从小就梦想着能够成为一名惩恶扬善的刑警，凭借着智慧和努力，朱迪成功的从警校中毕业进入了疯狂动物城警察局，殊不知这里是大型肉食类动物的领地，作为第一只，也是唯一的小型食草类动物，朱迪会遇到怎样的故事呢？
+近日里，城中接连发生动物失踪案件，就在全部警员都致力于调查案件真相之时，朱迪却被局长发配成为了一名无足轻重的交警。某日，正在执勤的兔子遇见了名为尼克的狐狸，两人不打不相识，之后又误打误撞的接受了寻找失踪的水獭先生的任务，如果不能在两天之内找到水獭先生，朱迪就必须自愿离开警局。朱迪找到了尼克，两人联手揭露了一个隐藏在疯狂动物城之中的惊天秘密。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.6分</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', ' 尼克跟朱迪没有在谈恋爱', '尼克真的是迪士尼系列最佳男友！！！！', '&lt;p&gt;我只能说：9.5分太低了，起码得给个9.8分吧&lt;/p&gt;', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道', '糖尿病患者慎看。', '朋友之上，恋人未满\nYou know you love me😘\n痞帅的尼克和乐观朱迪', '🎬《疯狂动物城》\n主角朱迪从小就有一个警察梦，经过自己的不断坚持和努力，终于成功跻身一座现代化的动物城市去做警察，为了打破身边对于兔子当警察的偏见，朱迪和狐狸尼克开始调查一桩棘手的案件，并解开了阴谋背后的真相，最后成功的收获了身边人的认可和跨越种族的友情。\n看似是一个动物主题的冒险故事，但电影当中的不少片段，都折射出了生活当中的讽刺和隐喻', '看完开端决定再重温一遍动物城等更新', '开端来的', '尼克比现在的偶像剧男主还会撩', '这部动画讲了很多道理，把人性的丑恶和善良都描绘出来。食肉动物和食草动物，强大对弱小，偏见与傲慢，我们以为强势的老虎市长是始作俑者，但其实看似弱小值得同情的绵羊助理才是贪婪的恶人。我们以为肉食者改不了贪婪的本性，兔子警官下意识的拿出防御武器的时候尼克是心碎的。我们以为黑道大哥应该是强大恐怖的，结果是一只小小的老鼠，并且他也知恩图报。我们以为狐狸是狡猾的骗子，实际他们也有脆弱和希望得到认可的愿望。喜剧的内核必须有很多现实的元素才能让人觉得真实，饱满。里面的每个角色都有他的缺陷但又有其可爱之处。强烈的对比让我们反思人性的弱点', '同意出第二部的，点赞吧', '一只狐狸干过迪士尼所有王子', '主题很棒，大有讽刺的意味，但是有演绎的完美无瑕，用动物们来影射人类，小孩子看见正义与欢乐，成年人能看见明争暗斗与种族歧视', '出场才三分钟的树懒，简直承包了十足的笑点，哈哈哈', '五年前刚出来的时候就跟男朋友去电影院看了，时间过得真快，现在他已经是别人的男朋友了，而我也是别人的男朋友了', '高分电影果然就是不一样 想看尼克和兔子结婚！', '为什么不能投屏呢！！', '因为《开端》，我决定把这个加入播放列表，明天就看', '迪士尼那么多的王子，果然最帅的还是尼克(˘•ω•˘)', '秒杀所有迪士尼王子的狐狸', '包容各种动物，包容别人的过失，兔子承担自己的过失，狐狸兔子的 梦想，狐狸的 友情，兔子家人的 亲情。国产电影有这个表现力就好了！', '😂😂我是因为开端的二创视频来看的，，兔子好可爱啊', '看完开端，再来看遍看动物城', '《关于本人因为太想看开端把疯狂动物城又看了一遍这件事》', '尼克：你知道你爱我 朱迪：这事我知道吗？好吧，就算我知道。如果说朱迪是梦想，那么尼克就是现实。但是当有一天两个人相遇的时候，就等于梦想照进了现实。', '本来性取向就不稳定，看完疯狂动物城连物种都不稳定了（我爱上这只狐狸了！！！！）', '有种cp叫朱迪尼克，糖尿病患者慎看。疯狂动物城(原声... 05:54', '一个字，好！', '这画质真拉垮', '“尼克狐尼克，你被捕了”\n“噢？为什么？因为伤了你的小心脏？”\n啊啊啊啊啊真的磕死我了\n“你知道你爱我”\n“我知道吗？好吧，就算我知道”\n呜呜呜大家都来看好吗！！[上头-上][上头-头]', '“you know you love me”尼克妥妥的理想型', '大先生和白熊', '很有意义的一部电影', '她现在啊是', '好看，是真好看', '超好看，三刷啦！', '超级无敌喜欢💕', '我都有老婆了', '尼克啊啊啊，全迪士尼的王子加一起也比不上一只狐狸[喜欢]', '这个小可爱是美洲狮啦，别搞错了呦', '￼有种cp叫朱迪尼克，', '小学时期的电影了，高中了还是很喜欢\n2023再来', '原来这电影是16年上映的，当年是在电影院看的', '办了他们', '意义好，内容好，而且很适合学英语', '好看 爱上一只狐狸', '为什么画质变低了', '2023.12.13来过', '2022年了，还有人看疯狂动物城吗', '在我看来这是汉语配音最完美的电影，还记得尼克狐尼克的那句：“为什么?伤了你的小心脏~”[打call了]', '兔子与狐狸🦊🐰', '&lt;p&gt;《疯狂动物城》，这是一部轻松的动画电影，当然，感触最深的大概是主题曲的歌词。故事很简单，表达的都是一些大家都明白的道理。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;梦想就坚持，说不准哪天就成功了呢&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个年轻人对大城市都心怀憧憬，那里有我们的梦想，我们的期望。想法很美好，然而这世上没有净土，伊甸园更多的只存于想象。&lt;/p&gt;&lt;p&gt;你追求梦想的赤诚，也许无形中会给他人带来伤害，更甚者，会被人利用，成为罪恶的推手。&lt;/p&gt;&lt;p&gt;与梦想几乎背道而驰的现实，善意的信念带来的却是糟糕的恶果，能不能承受？&lt;/p&gt;&lt;p&gt;兔子朱迪的职场经历何尝不是我们每一个人的缩影，追梦的道路上哪里又没有遇到过挫折和绝望。&lt;/p&gt;&lt;p&gt;失败也许还只是最小的打击，怕只怕，你所以为的善意，不仅没有带来追求的正义，反而还失去了其他重要的事物。&lt;/p&gt;&lt;p&gt;也许，为了某个职业梦想，放弃了深爱的人。也许，为了心底的善意，放弃了本属于自己的幸福。&lt;/p&gt;&lt;p&gt;经历过世事后才发现，那些你以为重要的，说不准才是不惧怕失去的。那些你以为可以舍弃的，才发现是无论如何不该放手的。&lt;/p&gt;&lt;p&gt;电影中，朱迪的梦想有过冲动，有过热血，有过失败，有过彷徨，她也曾失去，她也曾舍弃，她也曾伤害，她也曾挽回。所幸，最后她实现了梦想，也收获了幸福。&lt;/p&gt;&lt;p&gt;很多道理，知道的太迟，懂得的代价太大。幸运的是，时间没有太晚，还有机会改变。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKsA63MbGk8sJCf9lwteYyVQHicpCGqGoSjA/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;成为异类的日子里，哪怕被人排挤，你还是要努力发光&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;狐狸尼克不是一开始就圆滑事故，小时候的狐狸也有过单纯热情的梦想。直到有一天，它被信任的朋友们排斥在外，甚至于肆意践踏。&lt;/p&gt;&lt;p&gt;和别人不同，就会被视为异类。太过于聪明，平庸的人就会感到害怕。&lt;/p&gt;&lt;p&gt;你的聪明没有错，有错的是那些盲目的人们，你的热忱没有错，错的是那些以狭隘眼光对待你的人们。&lt;/p&gt;&lt;p&gt;你没有办法改变他人，如果你还是打算坚持自己选择的道路，就只能独自一人尝试坚持，直到有一天找到同伴。&lt;/p&gt;&lt;p&gt;这个世界上，总有一个人会来到你的身边，帮助你，支持你，成为你的同伴，从此携手同行。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKnZaAYSnatZPzMexy23wtebVIHibV36cLJw/0" title="" data-width="600" data-height="388" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;生活总会有点不顺意，我们都会犯错。天性如何并不重要，重要的是你开始改变。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;每个人都无法预测明天会如何，我们往往没有那么多先见之明，没办法提前规避风险。&lt;/p&gt;&lt;p&gt;有时候我们会把未来想象得太好，会把梦想看得太重，当真正的一步一步走向期待的目标时，才会发现它并没有那么美好，这时，我们会失落，会受打击。&lt;/p&gt;&lt;p&gt;痛苦是必然的，煎熬也是必然的，尤其在付出了那么多之后，才发现一直渴望的生活与想象中差距那么大，说句信念坍塌也不为过。&lt;/p&gt;&lt;p&gt;仔细想象，现实与理想的差距太大，还是因为自己不够强，不够优秀，还没有能力缩短两者的距离。这个时候，别放弃，别妥协，要重新出发，勇敢去尝试每一件事情，别担心失败，别过于苛求，每一步都全力以赴，我们最终会抵达目标。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puui.qpic.cn/yingping_pic/Q3auHgzwzM4VcOejxGlGaITiaOIXnsfQScUlhVjdwiaMO6LDYGCE365A/0" data-width="450" data-height="600"/&gt;&lt;/p&gt;&lt;p&gt;如果你喜欢我的影评，欢迎关注天天快报、今日头条“糖果悠唐”。&lt;/p&gt;&lt;p&gt;&lt;img src="http://puep.qpic.cn/coral/Q3auHgzwzM4jQ0xZXOPjKm3PNV7zRn45cogGBefsnK6x6b5WhibLPXw/0" title="" data-width="400" data-height="400" alt=""/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', '我要好好学习天天向上吧', '喜欢尼克！！', 'anyone could be anything, try it.', '24年第二部电影院见🥣', '帅气尼克and可爱朱迪', '这个很好。', '好看，先收藏，将来跟我的孩子看', '中国语的可以吗？', '什么玩意不让投屏，我挠', '超级好看 很有深度 超级棒', '尼克真tm的烦！朱迪明明没有说他他就一直搁那对号入座！！真是个心机男！😡😡😡😡', '我居然会喜欢一只狐狸，他真的好好看', '这个地址都是南安特殊教育学校的 地址泰国这个玩意了视频', '嘎嘎嘎嘎嘎嘎嘎嘎', '放下偏见', '超喜欢看无数遍了呜呜呜喜欢豹豹警官', '把树懒当公务员，还真是这样，😂😂😂', '看玩之后满满的感动。\n作为一个男生，我确实应该像尼克学习，学会独立挣钱，养活自己，做事有原则，有担当，懂得生活的意义。\n我也要像朱迪学习，朱迪在小时候时，别人嘲笑她的梦想，她有过失落和痛苦，但是她还是坚持了下来。如果朱迪当初放弃了自己的梦想，选择和现实低头，那么她也不会遇到尼克，也不会遇到和她志同道合的人。所以说，努力提升自己的能力，不断让自己变得强大，进去更好的圈子，才有可能遇到贵人。\n确实世界是不公平的，只有强者是制定规则的人，弱者只有服从的命令。赚到钱的人，一定是哪些不走寻常路，不随大流，有独立思考能力的人。', '有没有第二部，狐狸和兔子生出来是什么🤔', '我又回来重温了，闪电闪电', '希望以后做的越来越好', '百看不腻', '很真实，剧情很意想不到', '好好看啊，期待第二部', '希望国漫也有这样的巨作！', '太好看了，yyds值得N刷', '谁同意一定要出第二部点赞吧', '😘😘😆朱迪和尼克好磕[配R][配R]', '回老家了现在在家里面🍜腌就恐慌了', '这部电影就揭示了“动物（也包括人）心中与生俱来的成见",多数的食草动物对食肉动物的残暴成见，兔子对狐狸的狡猾的成见，包括那些身体高大的警官对于弱小兔子的成见。在人的层面讲，善良的人们总是对那些看似罪恶的人们有成见，强大有权势的人们总是看不起弱小的人们，那些正常聪明的人们对那些天生残缺的人有成见。就像哪吒动漫中所说的”人们心中有座山，那座山就是成见“。\n  世界本来就不公平，公平就是那些”享受公平“的人提出来安抚那些”不公平的人\'。生活中的我们就是那只兔子：总认为自己能改变点什么，但是最后才发现我们什么都做不了，默默地感到着自己。\n  “我竟然妄想自己能有所作为。”\n“我想我们应该放下顾虑 ...”\n                                                 2022，10，17', '这片的第二部预告片出了有段时间了吧？正片呢', '几十年前就睡觉觉五哈', '是一部让人赏心悦目的电影，希望大家都可以静下心来看[准奏]', '改天左右眼了10', '狗好可爱晴晴雨雨停停', '后期狗狗好可爱']</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 纸新娘 </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>VIP · 10614热度</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>《纸新娘》热播！活人犯禁忌，与纸人结阴亲全家中邪！,电影简介:民国初年，清宝村马家大夫人正在为其因病去世的大孙子马不明举办阴婚，突然纸新娘离奇复活，现场一片混乱。阴阳半仙认为是其二孙子马不快因血跟纸新娘结了孽缘，从而被纸新娘缠上，必须送他离开马宅。十一年后，马不快携恋人李招娣回乡谈论婚嫁之事，不料在他回到马宅后诡异命案接连发生，不信任何鬼神怪论的他认为此事另有蹊跷，决定亲自解开谜团，并且在这过程中逐渐了解到一段尘封已久的恩怨。</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.0分</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '那姑娘都愿意了，还在树后不答应。害人害己的东西[EMO了]', '一，老夫人该死，封建迷信害死人，\n二，戏子该死，要了女人身子又不带她走，让她留下肯定是没好结果\n三，借鬼神杀人敛财更该死。', '帘外芭蕉惹骤雨门环惹铜绿，而我路过那江南小镇惹了你。在泼墨山水画里，你从墨色深处被隐去', '8分20秒🙏🙏🙏', '好像发生了什么，又好像什么也没发生', '很好很好很好纸新娘 1:31:04', '气氛一下就没了', '我走错片场了吗？', '根本没有恐怖气氛感哟', '要么是梦要么是人为复仇', '其实要不是碍于鬼怪电影大环境限制，国内很多这种题材还是可以拍的不错的，要不然总觉得差口气', '和春晚最后都要包饺子一样，鬼片最后都能科学解释', '每次看到国产恐怖片的高分影评就禁不住感慨，混口饭吃不容易', '调色师和导演是懂中式恐怖的，，配乐，音乐，色调，布景，小道具。这剧组拍灵异文也是完全可以的', '最该杀的不应该是戏子吗？要是他能带走她，还会有后面的事吗？', '这个结尾挺有意思，有悬疑，小时候缺氧昏迷扔水里都不能死的人大了自己跳应该是没死，让人有个疑影', '嘿竟然还行，拍的不是很水，小成本电影特效稍微有点差也能接受', '民俗中式恐怖电影麻烦请按这个标准卷起来！很好啊，就很好', '呢个电影纸新娘一般般，我估纸嫁衣游戏有一啲一致嘅情节呢，冇谂到系唔同嘅，就个女主角！也算冇问题了！', '电影里开场便是阴雨，加上恐怖的老房子场景，难免有些毛骨悚然的感觉', '架不住剧情的零散，两条主线的设定，并没有做到剧情的融合，而显得十分薄弱空洞', '哦豁！住进祖宅第一天晚上那个妹儿镯子都碎了，必有大凶啊！', '真的很不错，不说废话，不是很恐怖却很有深意告诉大家真的要破除封建迷信', '如果真的有鬼 那当年那些日本人都走不出南京。', '真的很吓人啊几乎全程捂眼睛不敢看，算是国产的及格了~', '推荐你们看国产恐怖片《山村狐妻》，回魂之夜，黄皮子坟（电影版），纸人回魂，落天荒，欧美恐怖片死寂，这个首屈一指，爽死你 厉鬼将映，禁闭岛', '现在的鬼片 没劲哪有鬼全是迷药', '排的真的一般', '有没有女生起床看这个的', '￼如果真的有鬼 那当年那些日本人都走不出南京。', '一点也不恐怖', '一个男孩喜欢一个女孩，但女孩并不喜欢男孩，于是男孩把女孩杀了，并将尸体丢到了深山老林，第二天男孩觉得身体很沉重，像是被什么东西压着一样，很难受，喘不过气。就出门散心，遇到一老道士，道士告诉他，他已经被女孩缠上了。男孩问我该怎么办？道士说七天后是回魂夜女孩必定回来杀你，你要在这七天完成三件事。第一去最近香火最盛的寺庙，求一个平安符，第二为女孩做一场法事并将尸体按正常下葬，第三把你杀女孩时她穿的衣服上的血迹清洗干净，这样或许能逃过一劫，男孩先去附近的寺庙求了一个平安符，将符戴上后男孩感觉自己身上的压力顿时消失了，走的时候主持看了他一眼说了一句善哉善哉，然后做了三天法事，第六天将女孩尸体下葬回去后已经下午七点，男孩赶紧把女孩那天穿的衣服拿出来洗，洗着感觉过了很久，一看已经十点了，男孩笑了，搞定了，把衣拿起一看腰部还有一片血迹，男孩大惊赶紧放在水中搓洗，\n23:59最后一分钟男孩绝望了，恐惧降临，头顶电灯一闪一闪像失灵一般，穿白色衣服的女孩漂在空中，惨白的脸，女孩发出刺耳的笑声，\n你洗啊 洗啊，男孩被吓的倒在地下双手撑在后面住后退 你别过来说着伸手拿出那枚平安符，突然灯熄灭了，男孩手中的平安符也碎了，黑暗中女孩问男孩你知道为什么你洗不干净吗？为什么？惨白的脸慢慢贴在男孩脸上，因为因为你没用立白洗衣服粉.….', '现在的恐怖片都是这样？有什么看法？开局几分钟吓人的，后面就是男主女主去破案，最后真相大白要么精神分裂要么别人复仇扮鬼', '看到那个疯子的时候就知道咋回事了！', '过去的，别再遗憾；未来的，无须忧虑；现在的，加倍珍惜过去的，', '差点以为是纸嫁衣', '怎么所有都要剧情都一样，还要为什么没有女主的名字？！', '戏精本精，戏子无情', '逻辑思维好', '挺好的恐怖片了', '这男人没度量', '什么东西啊？', '没太看懂，是大少爷死了假借冥婚娶纸新娘，实际上娶的是个活人，把活人活埋了吗？', '有害怕鬼新娘的不，来组个队一起看，我请你喝奶茶', '就想知道是中式恐怖吗？有真鬼吗？现在的国产鬼片烂的要死，到最后全是人做怪', '￼今天无论如何，看到这个帖子的人，日后，必须大吉大利，升官发财，毕竟祖师爷我都搬过来了！', '既然电影不让有鬼的存在，那就多余拍这种片。', '南阳的有没有', '装神弄鬼，全是疯子罢了', '全程没感觉恐怖  笑着看完的[富翁]', '鬼片拍成悬疑片，不过剧情还可以', '。。。。。[再见][再见]剧情编剧真的一言难尽0.0。就不该对国产恐怖片抱有希望', '现在大陆的这类片看到最后都是人为的，是不是不让拍真鬼了过不了审', '这是非常遗憾爱情片好叭😭', '不好，套路俗套', '挺好看的 女主让人看着很舒服', '看不明白', '挺好看，女主没错，感觉戏子有点渣', '凶手应该是招娣吧，妹妹给姐姐报仇', '真的建议任何胆小的，在家人或者朋友的陪同下观看此影片', '今天卡了吗。我Vip咋不能用了。[EMO了]', '导演很用功呀，电影的摄影和剪辑非常精细，每个场景都处理得恰到好处', '我还以为是纸嫁衣嘞', '又是人为的结局。', '他为什么晚上要来不白天来？', '又是这种剧情', '真的不错兄弟们', '不这么安排能过审吗？', '已经很不错了', '几乎所有的的案件类鬼片，技巧和手法都千篇一律了，国产恐怖片急需提升啊', '永远都是正义战胜邪恶。没啥意思。', '12月16日打卡', '哥哥死了，那三个坏人逼姐姐冥婚。那为什么让弟弟娶纸新娘', '我想说的是为什结局女主跳水了，男主第一时间反应过来跳水救女主没救成？真不知道导演怎么想的，虽然说结局不能让坏人逍遥法外，但是你他喵的人家男主也是第一时间跳的，最后男主上岸连个尸体都没抱上来，我看到最后以为男主会抱着女主上岸的，不得不说导演想像力也是一坨翔，为了过审这么拍结局是吧？', '不知道这片电影纸新娘好不好看\n反正我看了撞邪感觉给我一种\n不是狠恐怖惊的感觉[笑哭N][笑哭N][笑哭N][笑哭N][笑哭N]\n看到后来我都想笑了\n希望纸新娘可以给我一种焕然一新的感觉\n期待(*^o^*)这片纸新娘加油噢力给哦\n[泪奔][泪奔][泪奔][泪奔][泪奔][泪奔]', '国产恐怖片越来越好了，演技道具音乐剧情都不差', '有没有说说好看吗', '管家有问题绝对', '招娣有问题绝对', '最近恐怖电影不少啊，不错不错', '有现在看的吗', '媒婆绑她姐干嘛她姐也没去马家啊她姐不是活着吗之前为什么要用纸人党替身稀里糊涂的', '半夜12:00看正常吗？', '纸嫁衣游戏出了之后，国产民俗电影和游戏一个接一个，不戳不戳，味道好极啦，奉天白事铺算一个，这又一个，喜欢看', '评论区实名', '其实用纸人可以了，听说以前都是用刚嘎不久的来配，也不知道真的假的', '那么坏，应该用机枪扫了他们！', '封建迷信要不得哦！时代变了，要与时俱进！', '嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟嘟啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦啦[吃瓜N][666啊][666啊][EMO了][一起冲][皇冠][一起冲][皇冠][笑死我了][一起冲][笑死我了][意难平][皇冠][富翁][666啊][富翁][放大镜][没眼看][气到变形][我裂开了][我裂开了][击退][击退][击退][击退][打卡-卡][打卡-打][打卡-打][打卡-卡][打卡-卡][笑哭N][笑哭N][鼓掌][擦汗]']</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 蜘蛛侠：纵横宇宙 </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>VIP · 10546热度</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>【幕后短花絮】我要按我的方式来,电影简介:影片讲述了新生代蜘蛛侠迈尔斯携手蜘蛛格温，穿越多元宇宙踏上更宏大的冒险征程的故事。面临每个蜘蛛侠都会失去至亲的宿命，迈尔斯誓言打破命运魔咒，找到属于自己的英雄之路。而这个决定和蜘蛛侠2099所领军的蜘蛛联盟产生了极大冲突，一场以一敌百的蜘蛛侠大内战即将拉响！</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.4分</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['越拍越难看！', '下周五出了踹我，往死里踹。', '电影院看了，效果剧炸裂，贼强', '动漫吗？那没必要看啦', '蜘蛛侠还得是索尼玩得好，漫威拍的太拉了，支持索尼宇宙', '就是没有中国蜘蛛侠哈哈哈', '我丢，应该还有一部 最精彩的时候没有了', '这个黑人这么大的爆炸头，蜘蛛侠的头套是怎么做到没有凸起的？', '祝你和温', '剧透一下，猜猜这是谁？', '出了踹死我，往死了踹', '虞书欣配的音太爱了', '出了踹我！\n', '为什么是英语\n', '为啥颜色是粉色太刺眼了，都不高舒服点啊', '上映了踹我一下', '牛啊牛啊   多元宇宙算是被漫威玩透了', '只要什么时候上线呢？我好想看', '7.2就没人出呗', '什么时候出啊', '勾屎真的', '又是黑人。。。美国也快黑化了！', '迈尔斯是真的der，就一小屁孩，满是个人主义', '两个半小时看个预告片。', '找几个人送他权限', '猜测之后的剧情就是斑点开始搞破坏，在主角宇宙的蜘蛛侠阻止开始对战，格温她们找到主角并前往主角宇宙，加入对付斑点的战斗，在战斗中其他宇宙的反派通过虫洞出现，蜘蛛侠们请求支援，在一段打斗争吵醒悟之后斑点被消灭，主角爸爸也没死，主角爸爸也知道主角是蜘蛛侠了。但是蜘蛛老大不乐意了，为什么我改变是事件造成了平行宇宙崩塌，而主角却并没有失去什么。(因为洛基掌握了神圣时间线，可以让每个宇宙的人拥有自己的选择，而不是按照规定的命运。)之后可能还有点故事看除了啥样吧', '首先，提醒各位看不懂的，这是《蜘蛛侠：纵横宇宙》上集！上集！上集！，下集《超越宇宙》预约明年3月在北美上映！[一起冲]\n真爱粉一定要看！超酷！各种画风各种年代的融合！已经不能说是动画电影了，这是艺术！[666啊]\n欣赏不了的人最好还是不要看了，省得看了还看不懂在那叫[吃瓜N]\n上集，基本上就是讲，接上前传迈尔斯的宇宙同一个宇宙两个蜘蛛侠，由于金并的对撞机，迈尔斯成了整个异次元错乱的源头，目前最大的敌人斑点(不知道下集会怎么样)。同时讲了迈尔斯与百蛛集结互相的关系，这里由女朋友格温引入。最后，小小剧透一点点，迈尔斯和格温确定了心意，导致格温才有强烈的信心招募联合愿意帮迈尔斯的蜘蛛侠们，一起打破命运，一起见证(下集)！\n42号宇宙的迈尔斯徘徊者登场的时候真的超帅，泰酷辣！[打call了][打call了][打call了]（42号宇宙没有蜘蛛侠）\n百蛛登场的地方，真的是经典名场面！还有好几个老熟人，真人版客串，还有加菲[放大镜][狗头]不看真的会后悔的！每个场景的配乐真的很nice！[一起冲]\n花了7.2元刷了三遍了还是不觉得腻！[金币]', '我是不是看错顺序了我先看的是平行宇宙然后又看这个应该顺序是对的吧', '张泽鸥我爱你😘', '我充了VIP', '动画片有啥好看的', '申请退款', '混乱，为赋新词强说愁。', '7.2元看了一个预告。', '谁买了？能不能私信我一下当一次好人好不好', '谁懂啊，看了两个半小时都是为第二部铺垫，没正片，两个多小时看的都是第二部的预告', '电影院的效果才炸裂呢，手机上看没那味儿', '看的热血沸腾', '怎么说呢，没第一季好看，电影看完一点感觉都没有，就像听了一首口水歌，挺失望的，看了又像什么都没看，没第一季惊艳，而且可能受传统文化和东西方文化差异的影响，我挺反感这一季的主角的，希望下一季能做好吧。', '今天刚能免费吗', '虞书欣配音惊艳到你了吗 这么爱破防吗 你发这些有什么目的？谁指使你的？你的动机是什么？你取得有关部门许可了吗？他们容许你发了吗？你背后是谁，发这些想做什么？你在讽刺谁？想颠覆什么？破坏什么？影射什么？', '说看不懂的什么成分？期待下一部', '拍的不错，下次拍时间长一点，才看6分钟就结束啦，不过瘾。', '想来想去还是世界太无趣 那么多人都在忙着辜负自己', '不是能力越大责任越大吗？蜘蛛侠拯救世界也会选择拯救世界（这个是啥？黑猪侠，烧的嘛而且半生不熟坏肚子那种）', '期待下一步', '现在内个也能当蜘蛛侠了吗', '2023/12/21打卡！！', '讨厌的政治正确，什么都要加黑人。', '这不是平行宇宙吗？', '还跟和平联动了？！', '这预告片居然花了我两个多小时', '今年的美国不管是什么类型的，为什么主角都是黑人，我也是服了', '[准奏]本身就是不同宇宙线的蜘蛛侠 蜘蛛侠2099代表老旧恪守的一派 2099为各个平行宇宙的蜘蛛侠建立了基地 他也很热爱蜘蛛侠大家族 其他宇宙的蜘蛛侠围绕着蜘蛛侠2099身边组成了一个强大的守旧势力 他不是反派 但他依旧是迈尔斯最难抗衡的力量 而迈尔斯就属于颠覆派 迈尔斯不相信这些命运 他想要冲破旧格局 他想重新定义蜘蛛侠的命运 这就是两种信念的碰撞 不很好的把平行宇宙的概念引入进来了吗 看不懂就去看看解说￼￼', '这是在侮辱智商呢 那么多蜘蛛侠整不过一个迈尔斯 呵呵呵', '好看的地方我都在哈哈[666啊]', '英语2:14:26看完啦 周三晚上19:23 2023.12.20看了一周[一起冲][一起冲][一起冲]', '除了内个主角，其他一切完美', '我都看过了，再看一次', '就看视觉效果过去，一般', '6分钟的电影真好看', '电影特别好看，特别精彩，多种画风演技超高制作，导演简直是个天才，当然了，演员也是一堆天才我，而且里面还有真人扮演', '勋章不少', '棉花侠摘棉花一定很快', '彼得帕克啥时候变成niggggger了。。。。。', '好棒的电影，除了最后该死的“to be continued”主题贯穿整个故事，虽然是老套的“我命由我不由天”，但故事表现的很好，原本以为是宝宝宣传教育片，后面发现整个故事给人思维一种很震撼的感觉。', '尼哥居居侠', '我花这些钱只为看个预告片', '艺术 视听 画面 拉满了', '不是哥们，我看了个预告片', '我就知道还会出', '听说动画版与蜘蛛侠更配哦。', '2023...12--18', '第三部呢', '哪来的9.4分啊不能理解', '视效 音效都是顶级的！ 还有不同蜘蛛侠不同画风的展现也是很好的创意！故事有点好懂希望下一部也能有同等水平 三部曲都获得奥斯卡就很牛逼了', '什么玩意啊', '说句实话，真心不好看，中间我也没看到有什么高潮部分结果我以为高潮部分要开始了结果结束了', '画面很不错', '我天太帅了吧\n下一部必看啊', '我真的很喜欢蜘蛛侠，当时刚出来的时候太忙没时间去看，腾讯竟然这么快就出来了，很开心', '蜘蛛侠都变成nigher了果然政治正确  我呸！', '这是2023年的电影？我怎么感觉几年前就看过了？还是说以前有这么一部类似的？我穿越了？', '哇哦要出啦！！！', '感觉应该不错', '今年好像都流行拍一半', '😈😈😈😈😈😈👿😈😈😈😈😈😈😈😈😈😈👿👿😈😈😈👿😈😈👿😈👿😈😈😈😈😈😈😈😈😈😈😈😈👿😈😈😈👿😈😈😈😈👿找😈有十个', '熬到你免费了 终于！', '黑猩猩，蜘蛛侠[吃瓜N]', '为什么是动画？']</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 阿凡达 </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VIP · 10555热度</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>《阿凡达》“卡神”独家珍藏狩猎片段 首次曝光,电影简介:在未来世界中，人类为获取另一星球——潘多拉星球资源，启动了阿凡达计划，并以人类与纳美人（潘多拉星球土著）的DNA混血，培养出身高近3米高的“阿凡达”，以方便在潘多拉星球生存及开采矿产。受伤的退役军人杰克，同意接受实验并以他的阿凡达来到天堂般的潘多拉星球。然而，在这唯美幽境里，地上爬的、天上飞的、土里钻的生物却只只巨大且致命……杰克背负重任，身处险境中，在与纳美人首次意外接触后，虽然开启了沟通的可能，却也即将面临一场异想不到、浩瀚壮烈的世纪冲突，从中他也将获得空前启示……</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6分</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['真棒，还能变成付费，真棒', '十年了，画质还是无人超越', '神迹，也许本身就存在于自然界，只是人类无法明白才称之为神迹。科技也不是人类发明的，只是人类通过理解自然界的现象捕捉到“灵感”，以理论阐述出来，并弄出实物，称之为“发明”', '阿凡达是一部映射美国侵略印第安部落的作品', '我敢打赌2022年没有00后的女生会在腾讯看这个电影并且翻评论', '今天看了阿凡达2非常震撼好看，觉得人类真的是聪明又残忍', '太好看了吧，感动😭', '第二部水之道最多给7分', '满满回忆', '看来我才是真爱呀', '下午刚看完《阿凡达2水之道》  剧情拖沓  演员演技一般  还是老套路  就剩特效支撑了   很失望！ 电影院坐的人不多！中途还有人打瞌睡 看的睡着的！ 哎 不是花了钱的  中途我就撤了！不看了 没意思！剧情都能猜到！！很失望', '小的时候光看到了特效，长大了在看却发现了偏人文的性质。这部片子很好的反映出来了当时欧洲殖民者占领了美洲大陆后，当地土著友好的接待他们，但是这些殖民者却想要的是他们的土地和他们的命。哈哈哈哈是真的讽刺', '￼我敢打赌2023年没有女生会在腾讯看这个电影并且翻评论', '今天零点过后这个帐号会员就到期了 是我爸一直充会员看电视的账号 他很爱看电视 我妈前不久还批评过他看电视冲这么多钱 他说不充了 18号那天他走了  什么都来不及 连会员都没到期 心梗就把他从我们身边带走了 我17岁 女生 爸爸挑起的梁落到我身上了 我爸爸很可怜 我妈妈也是 我弟弟也是 可怜 我很想他 真的很想他 他真的对我们超好 我这一辈子都见不到他了\n以后这个账号不会亮起了', '有没有发现，美国电影只要出现跨种族爱情，绝对都是土著女人爱上白人侵略者，白人都是带领她们走向性自由走向美好，是解放者不是侵略者。比如中国拍的红河谷，歌剧西贡小姐，蝴蝶夫人等等。偶尔出现《情人》这种白女+亚男的，那绝对是白人施舍的高高在上的结果悲惨的。', '反人类罪，这与印第安人的事没有一点可比性，印第安人与我们同为人类，外星人与我们是不同生命体系。人类终将踏灭星辰', '除了侵略战争这层意义，我觉得导演还想说的是，我们人类现在过度追求物质需求依赖现代科技产品，过度疏离自然，阿凡达的生活方式是精神层面的，而我们人类现在只会没日没夜的为了钱工作学习，像行尸走肉一样活着，精神层面极度空虚，所以在阿凡达看来人类才是低级生物', '这不妥妥的表现美国人屠杀印第安人的另一个角度吗。', '感觉像一群强盗看上了别人家的东西，然后闯入别人家里边拿棍棒殴打边给人嘴里塞颗糖，然后说“你怎么那么不识趣”', '从客观角度来讲，我挺认同上校的观点的，阿凡达计划其实可行性确实比较低。如果真的双方爆发战争，科技落后的纳威是无法和现代武装力量抗衡的。从人类的利益角度来说，我们来潘多拉就是为了开发它、利用它的矿产。不破坏纳威人的生存环境当然更好，但如果他们执意不让步的话，那只好采取强硬手段了（仅代表个人观点）', '我国什么时候有这样的特效，那些神话人物一定是最美的', '现在是2022年，第一次看这部影片，但我知道这是十年前的电影，为什么到现在才看，因为看之前就能猜到主题，真的很美国，拯救地球没有了新意，开始拯救外星人，故事是新故事，但桥段还是老桥段。看这一个镜头就知道下一个镜头要演什么。但有一点不可否认，在当年，这样的制作水平是一流的，确实很美国，影视工业很强大，大多数人都被影片的特效所震撼。从影片情节中，我也看到了现实中的美国，从哥伦布发现新大陆，白人屠杀印第安，到如今美国为资源挑起的战争。现在俄国还在跟乌克兰打仗，心情很压抑。有人和我一样吗？', '太震撼了，12年之后看仍然是最顶尖的科幻作品。', '第二部今年就要上了，重温一遍第一部，卡梅隆真的永远的神，还记得当时几百块一张的电影票还供不应求，朋友跑去香港看了一场，这是第一部3d啊，有着跨时代意义的电影', '电影说的是美国白人屠杀印第安人', '太好看了吧', '终于可以不付费了🎉', '一个背叛人类的人做主角！', '终于不用付费！', '一小时二十四分灵魂树哪里我记得有他们两个人辫子交缠在一起了好像，咋没了', '终于看上了熬了12年。小样的，咋不收费了。', '第一次看，特效制作水平确实被震撼了', '抛开所有的种族歧视，从零的角度看问题说一下你们的感觉！\n人类有时候真的很贪婪，为了自己的世界可以不择手段。对应我们现在的状况是不是正好对称，有多少稀有动物灭绝，有多少人在努力的挽留住大自然的馈赠。总有人去破坏生态平衡，这是地球的生存法则，想要发达，强大，繁荣，发展，生存，就要有牺牲，总会有失去。用原生态换取现代的需求！', '大家小心，买了还有期限的，不及时看下次还要再买一次', '科幻电影巅峰之作，至今没有超越，期待续集', '外国人十多年前拍摄的特效都这么厉害，叼！', '《阿凡达》中纳美人有杰克，《三体》中人类有云天明。\n它们在不同的角度，各自为王！\n“黑暗森林法则”\n“当别人拥有你想要的，就把他们变成敌人，然后理直气壮地摧毁。”', '我之前没看过，现在付费看值不值？谢谢大家告诉我呀😊', '放在12年后的现在看，仍旧震撼。', '《阿凡达2》曝光正式片名Logo：为《阿凡达2：水之道》！同时，《阿凡达1》重制版又一次全球重映，时间是9月23日！阔别13年终于来啦，《阿凡达2》的公映日期确定不会再发生变动，詹姆斯·卡梅隆执导，萨姆·沃辛顿、佐伊·索尔达娜、凯特·温丝莱特、范·迪塞尔主演，12月16日上映。人类电影的奇迹，期待！', '电影中的人类公司侵略罪大恶极，但主角杰克也是人奸吧。开头说了屠杀土著会造成负面舆论，说明人类主流是反对侵略的，这只是这家公司的私人行为。但主角选择作为纳威人来抵抗侵略，最后彻底放弃了人类的身份，这是背叛自己种族了吧。他队友就以人类的身份留下来了，感觉比主角强。', '对，我们终于把他熬到免费了，赞', '第一遍看深深被电影特效震撼的不行，第二遍看很喜欢这个故事越来越相信潘多拉真的存在，第三遍看感觉电影何尝不是对咱们世界某些国家的一些东西的隐射:某些国家看上别的国家的东西了想要，跟人家商量没成功就发动战争打人家，然后还反过来叫人家暴民。。。果然坏人的行为就是擅长倒打一耙还装好人～电影真的很棒！', '为什么阿凡达不能投屏？', '2022.4.25现在看的是免费  过不了多久应该又收费吧', '一部经典的电影！即使放在十几年后的今天依然是巅峰。但是主角的行为还是背叛了人类！种族战争我永远站在人类这一立场！不管这场战争是否符合人类世界的道德标准和是否正义！这是作为一个人类的底线！！！', '阿凡达二零二二年五月四日00:51看完，小样，终于等到不收费。真的是很精彩', '这个不会是前些年那个阿凡达吧？现在找那部阿凡达找不到了，谁看过了？能不能和我说一下是新的还是之前那部🙏🙏🙏', '团结就是力量', '哪里有小姐？', '人口是财富，不是负担', '纳美人不就是暗喻美洲土著印第安人（黄种人）吗', '发张全家福，反光猫猫眼', '￼第二部虽然还没上架，但是我想说的是，很多人都说剧情枯燥乏味没有亮点，但是《阿凡达》一共五部曲，第二部剧情上不好我觉得可能是因为这五个是连续性的，不可能这么快完结的，并不像敢死队那样每一部是个独立的故事。第二部与其说剧情枯燥无味，倒不如说在剧情上卡神更想警醒世人的是当下的社会问题：人与自然的关系问题、父母与孩子之间的问题和种族歧视的问题，狩猎图鲲的鱼叉上有写着日浦的标识，这个细节意味着什么？海洋族歧视森林族，不就是在映射着种族歧视最严重的美国吗？如何与叛逆期的孩子交流？父母有没有真正懂得理解孩子的内心？难道只有奈特亚的死才会让男主和弟弟真正了解到自己犯下的错误吗？难道只有发生了结果了才追悔莫及吗？', '《最后的莫西干人》也是部印第安人电影，挺好看的啊', '投屏都不能，吃相不要太难看', '有多少人看完2回来看1的', '想像這是一部N年前的電影 放在2023年看一點也不覺得舊', '好看死了', '经典就是经典阿凡达(原声版) 04:19', '印第安人的血泪史，了解吗', '1492年哥伦布大航海时代，了解吗', '真喜欢男主他儿，虽然第一部没他。他真的好温柔，还有点皮，是个护姐狂魔，这小崽子这么可爱谁受得了', '看了2回忆一下1🥳', '我是水平座，但是我水平很高', '我觉得阿凡达讲述的更像是人与自然的较量，人为了自己的利益只知道firefire，惹得众怒，最终不自量力自食恶果。', '牛 逼，自己都忘了[笑哭N][笑哭N][笑哭N]', '六六六啊', '没有空气还能点火？', '这是第一部第二部我都看完了', '外国人的目的是鸠占鹊巢', '看看法国吧！本土人的灾难！', '2023了这部电影出来这么多年第一次看', '在圣母庇佑下，杰克成为真正的潘多拉新的人的纳威人，他虽然背叛了自己的人，但是没有背叛他的人性道德，这部电影像偷了别人的东西侵略试图独吞掉潘多拉星球纳威人的领地，打了别人巴掌还给糖别人吃说不是你的，我相信杰克的选择没有错的，幸好他选择不违背自己的人性，而选择了潘多拉星球，这是他唯一重新活在潘多拉星球唯一的希望新开始的人生，相信第二部《阿凡达》不会让我们失望，请期待而揭幕', '杰克家熊孩子表情包[狗头]', '好看好看，经典回顾阿凡达(原声版) 00:32', '寓意美国的侵略行为', '第一部居然09年的了吗？等了那么久才有免费的第二部[吃瓜N]', '09年的电影，哎！特效还吊打23年国产，加油了，我滴国产科幻电影', '这特效放到现在2023年依旧能打，阿凡达的脸太能打了🚀', '存地失人，人地皆失！', '这么好看的电影，可惜只有5分钟，希望导演下次拍的时间长一点。', '今天和闺蜜看了《阿凡达：水之道》3个多小时的剧情太好看了！[打call了][打call了][打call了][打call了]', '[蹲]留下片名赠片[互粉]', '牛逼的科幻电影，2023年才看到😭', '相当好看', '有点光遇雨林的感觉', '太好看啦，激动的心', '2023/12/21日重温', '美帝霸权主义，他的存在对全球来说就是个巨大的灾难']</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 疯狂元素城 </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>云首发 · 10503热度</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>和腾讯视频迪士尼电影星推官金晨一起，看更多迪士尼优质好片！,电影简介:曾几何时，火焰一族的火柱和怀孕的妻子灯花背井离乡，远渡重洋，来到了元素城开始新的生活。经过十数年的经营，火柱老板的杂货店开得有声有色，而气竭力衰的他也开始琢磨将这家店传给开朗热情却脾气火爆的独生女小焰。在独自筹备某次促销活动时，小焰家的地下室管道出现意外，她也进而邂逅了水一族的青年渡阿波。阿波感性善良，作为市政府检查员，他不得不准备给这家店开出罚单。可是，这个店凝聚了小焰父亲全部的心血啊！为了阻止阿波，小焰使出浑身解数。
+而就在这一过程中，水火不相容的两个人开始尝试了解对方……</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9.5分</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['中国回头拍个，疯狂元素表', '花5钱的举手🙋\u200d♂️', '我这是什么，交了会员，不能看', '等免费了我再来看', '已经可以看了', '剧情非常不错', '4399小游戏水娃火娃？', '源哥的《下个路口》真的超级好听啊啊啊啊啊', '我在电影院已经提前看过，剧情嘛，只能算是中等偏上吧，男主真的超爱哭，他们一家都是这样的，女主的嘛，她脾气很暴躁，反正就是控制不好脾气，而且生气的时候火焰会变紫色', '片尾曲真好听', '觉得剧情一般，没有想象中的好，钱花的有点不值', '开心，六月十六号是我的生日哎！！！！推广曲还是源哥唱的，开心开心', '疯狂动物城元素版？', '电影看过啦，超级好看\\(//∇//)\\', '#元素城e人i人大集合# 看《疯狂元素城》写影评，领元素城精美正版周边！', '我昨天花钱买的，过了一天就又要重新买了', '然后它们生了个双胞胎，就是森林冰火人，对吗？', '谁说水火不相融呢，相爱自会相融，而有缘也自会相见', '给我看哭了', '写出了说话不用但又疯狂的爱情', '挺好看的，可惜剧组没钱，只拍了五分钟，希望下次拍长点。', '只要功夫深，铁杵磨成针。发挥我国传统美德愚公移山的精神。俺必能等到免费观看的一天[放大镜][放大镜][放大镜][超越][超越][超越]', '这是一部充满创意和想象力的动画电影，它以独特的视角展现了一个充满奇幻色彩的元素世界。影片中的元素城市充满了各种奇特的生物和现象，让人目不暇接，同时也引发了观众对于现实生活中科学知识的好奇心。\n\n影片的画面表现力非常出色。导演通过精湛的技艺，将元素城市描绘得栩栩如生，各种奇特的生物和景象都呈现出极具视觉冲击力的效果。色彩搭配也非常和谐，既有梦幻般的蓝色，又有热情奔放的红色，为观众带来了一场视觉盛宴。\n\n剧情设定充满了想象力。元素城市中的各种元素都有各自的性格和特点，如火焰精灵热情奔放，水元素温柔善良等。这些元素之间的互动和冲突，构成了一幅五彩斑斓的世界画卷。同时，影片还通过元素城市的故事，传达了友谊、勇气和智慧等主题，具有很高的教育意义。\n\n音乐来说也为观众带来了愉悦的听觉体验。背景音乐旋律优美，与画面相得益彰，为影片增色不少。同时，影片中的音效也非常到位，如火焰燃烧的声音、水滴落下的声响等，都让观众仿佛置身于元素城市之中。\n\n但是在角色塑造方面略显不足。虽然各个元素都有各自的性格特点，但部分角色的个性较为单一，缺乏深度。此外，影片在情感表达方面也略显稚嫩，部分情节过于简单化，难以引起观众的共鸣。', '固安全来报告。', 'Beautiful', '剧情不错，很好看，就是6分钟太短了。', '期待第二部[金币][金币][金币]', '2023，12月21日', '画面细节真的超棒', '打卡，20231220', '水火都能相容，你我却不能', '白花了4.8元，应该用观影券看', '电影名称：《疯狂元素城》\n导演：彼得·孙\n演员：莉娅·刘易斯、马莫多·阿西\n上映年份及国家：2023年6月16日，美国、中国\n\n《疯狂元素城》是由皮克斯制作的一部动画电影，由才华横溢的彼得·孙执导。这部电影的配音阵容非常强大，由莉娅·刘易斯和马莫多·阿西担任主要角色的配音工作。\n\n电影的故事发生在一个充满各种元素的城市中，这些元素都有自己的特性和生活习性。然而，当城市的平衡被打破，一场混乱即将爆发时，主角们必须团结起来，找到恢复城市平衡的方法。\n\n《疯狂元素城》是一部充满想象力和创新的动画电影。导演彼得·孙巧妙地将各种元素的特性融入到故事中，使得电影既有趣味性，又富有教育意义。配音演员莉娅·刘易斯和马莫多·阿西的表演也非常出色，他们的声音为电影增添了更多的生动性和感染力。\n\n电影的画面精美绝伦，色彩鲜艳且富有层次感，让人仿佛置身于一个充满活力的元素世界。音乐也是电影的一大亮点，既有动感十足的节奏，又有深情的旋律，为电影增添了更多的魅力。\n\n总的来说，《疯狂元素城》是一部值得一看的动画电影，无论是对于孩子还是成年人，都能从中找到乐趣和启示。它不仅展示了皮克斯一贯的高水准制作，也再次证明了动画电影的魅力无穷。', '继疯狂动物城的新一部让我们对美好爱情的憧憬', '《疯狂元素城》是一部充满想象力和创意的动画电影，它以一种独特的方式展现了一个充满奇幻色彩的世界。影片中的城市由各种不同的元素构成，如火、水、土、风等，这些元素共同构成了一个充满活力和生机的城市。\n\n画面风格非常独特，色彩鲜艳且富有层次感。导演通过对各种元素的巧妙运用，创造出了一个充满奇幻色彩的世界。这种视觉上的冲击力让人印象深刻，也让观众更容易沉浸在这个奇妙的世界中。\n\n影片的故事情节紧凑且富有趣味性。主人公在寻找失落的元素的过程中，遇到了各种各样的困难和挑战。这些情节既充满了冒险和刺激，又不乏幽默和温情。观众在观看过程中，不仅能感受到主人公的成长和变化，还能体会到友情、亲情和爱情等深刻的情感。\n\n影片的音乐也是一大亮点。背景音乐既有动感十足的节奏，又有优美动听的旋律，为影片增色不少。音乐与画面的结合，使得整部影片的氛围更加浓厚，也让观众更容易沉浸在这个奇幻的世界中。', '很好，哪位大好人可以分享吗', '火爸的声音好像幻影忍者里的吴大师', '就是就是花钱了', '花钱来的必须留名', '免费了我在看', '水族天生爱哭，气族天生爱生气。', '现在还在观看', '电影中的四大元素，是电影的一大亮点。电影将元素的特质和性格完美地融合在了角色中，让人印象深刻。风元素的守护者，灵动而又自由；火元素的守护者，热情而又坚定；水元素的守护者，温柔而又坚韧；土元素的守护者，稳健而又豁达。这些元素的特质，都与人类性格的某些方面相似，令人感到亲切。不仅如此，电影中还有一些充满深意的场景。比如，元素城市中的人们都是由元素构成的，而这些元素又恰恰是人们的情感和思维的体现。这是一种非常独特的表现方式，也是电影的一大特色。', '需要反复购买的吗？怎么前几天买的，现在就不能看了', '王梦梦，我就是喜欢你', '有会员还要购买电影，但电影挺好看的', '你们是懂元素的', '好看 而且根本看不够！[准奏][撒花N]', '太好看了！', '咋去投诉', '在好久之前就看过了。真的太好看了。', '热情的火焰，纯洁的水', '哇塞好好看[憨笑]他们生的孩子是水蒸气元素的吗[我不理解]阿波是胖子还是瘦子[我不理解]小焰是一生气就会变紫吗[我不理解]', '本来以为是迪士尼和皮克斯的强强联合，结果看完只觉得智商受到了侮辱，建议还是各做各的吧', '《疯狂元素城》是一部兼具奇幻与科幻色彩的电影，其内涵易懂而不失深刻。虽然跨越“种族”恋爱和追逐梦想的剧情设计与此前的《疯狂动物城》等作品类似，稍显俗套，但其出色的画面展示和稳妥的节奏把控，仍使得其不失为一部老少皆宜的影片。\n对于不同年龄阶段的人来说，观看《疯狂元素城》能得到不同的感受：对于懵懂无知的孩童来说，有趣的画面和故事情节能焕发出别样的童趣；对于心花初绽的青少年来说，男女主角的双向奔赴与彼此欣赏最能令人向往；对于而立知天的中老年人来说，片中的父女、母女乃至婆媳关系，都十分生动有趣。', '怎么去投诉', '陌杂日丹名🧚\u200d♀️🧚\u200d♀️', '你不能一直自己上。', '终于看到这了', '比比比比比', '看完《疯狂元素城》之后的一些tips：#疯狂元素城\n1、父母想给孩子最好的，但那末必是孩子真正想要的！小焰并不想接管商店，但是作为爱爸爸妈妈的孩子，知道商店是父母一生的心血，努力并且积极帮父母\n分担和守护，但是总在某些节点控制不好自己的脾气，父母或许觉得孩子是历练不够，孩子或许觉得自己能力\n不行，实则是孩子做的并不是自己真正想做的事情.\n2、爱是伟大的力量，水火本不相容，阿波却慢慢的走进了小焰的心，因为阿波看见了小焰的逃避和内心真正的渴望，并且陪着她一点点尝试和探索：“我知道这很\n不容易...”;“这是你的人生，你不试试怎么知道”；欣赏小焰的玻璃花，带她去看时光花，洪水爆发后拼命帮忙守护“蓝色火焰”，让水火亦相融，终于让小焰直面自己的内心，勇敢的告诉父母“真相”。看似柔弱爱哭的阿\n波勇敢的表达爱，坦然面对生死。外表坚强的小焰却不敢直面自己的内心，在家庭和梦想之问摇摆。最终是父母对他们的爱让他们可以自由的追求自己的梦想…。\n3、父母的回应是孩子一生向阳的重要仪式之一…火爸爸在离开部落的时候向爷爷行临别趴行礼，爷爷看着离开儿子有些失望或者不舍并没有回应，这让爸爸一直耿耿于怀，终于在小焰的跪别趴行礼时候，小焰和爸爸都普通话47:09完成了与自己的内心和解，一个关于梦想的一个关于亲情的….\n最后：我们不要怀疑父母对孩子的爱也不要低估了孩子\n对于父母的爱，多一些允许和接纳或许生命中会开出很多“时光花”', '吐槽不够看', '好看[笑死我了] 出第二部[皇冠]', '里面的火元素好少啊', '第二部地球特派员还有没有小焰和阿波了？真的很好看', '我有大把时间等你免费，免费在看', '特别好看 后悔没时间去影院观看', '😂爱哭的女婿', '为什么购买了一次，再看还需要购买', '不收费了我再来看，家人们记得踢我一下[吃瓜N]', '我是会员哦[666啊][一起冲][握草][准奏][富翁][皇冠][金币][准时]', '超级超级喜欢', '就很离谱🌚🌝🌚🌝', '8 哈哈😃哈哈😃哈哈😃哈哈', '超级无敌赞，', '好喜欢这首主题曲', '花了钱留个纪念', '2013  12  12广州', '好想看后续呀！期待😌', '好好看呀！家人们谁都啊', '画质好好', 'w y e 你看水跟火都能在一起，为什么你跟我就不能！[意难平]', '源哥唱的主题曲在哪', '还没看够，希望有2', '买了能退吗', '看到彩虹不应该背对着太阳吗？', '不就是6块钱吗？买了😒😒😒😒😒', '真的超级好看[意难平]', '我们，会一直在一起的，对不对，程贤彬', '好看，太棒了']</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 最后的真相 </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VIP · 10565热度</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>最后的真相《最后的真相》发片段黄晓明庭审逻辑大开划清边界,电影简介:六年未碰官司的律师丁义峰，为帮被告人金喜妹翻案辩护不择手段，主张反杀被害人马双喜属正当防卫，借此翻身一战成名，却遭公诉人孙宇的质疑与极力反对，双方针锋相对法庭激辩，然而金喜妹却誓死抗拒义峰的无罪辩护，她与马双喜之间的关系也似乎并不像案情描述的那般简单。</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.5分</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['我爸2020年出事，我们去请了律师，这律师没有提点什么该说什么不该说，就连和解协议也是我们自己去办的，这律师完全不管，让我们自己想办法解决，就连给他打电话发微信也是极其敷衍而且还不耐烦甚至发火，态度也不好。去法院审判当天他在法庭上也没提出什么关键性的问题，根本不像电影里演的那样字字珠玑犀利至极。检察院的人说什么他就同意什么。提出的观点我都感觉可笑，刚提出来就被检察院的人说不符。结束出来还拿着软中华发。后来是总共五万，他自己都觉得打的不好，退了三万。我真的后悔请律师了，还不如法律援助负责。经过这件事我真的不喜欢律师，律师这种职业更像是为了完成整个司法程序的流程而加上去来凑数的，律师在司法程序上的必要地位也成就了不负责的律师肆意盘削民脂的令牌。我希望我一辈子都不用再打官司，可恶的嘴脸我真的不想在神圣的法院里看到，那样会恶心到我。我不知道为什么社会的发展会变成这样，人越来越冷漠，势利，每个人都只喜欢钱，我并不是说喜欢钱有错，如果每个人可以靠自己的双手来满足自己的欲望，我只能说劳动最光荣。但每个人都想着如何去剥削别人来让自己衣食无忧，这样的社会是多么可悲？我常常思考是不是真的只有把自己的良心喂了狗才可以活的更好？我有的时候会觉得没有良心的我不是我，朴实憨厚的我才是真正的我，纵使良心这种无形东西失去可以换来更多的财富，我也不会去换，因为财富买不来的东西除了时间还可以是精神上的富足。', '不知道有多少人，默默的等着广告！翻看着评论，而这一秒，你刚好看到我的评论！陌生人你好！祝你全家幸福！2023兔年事事如意！财源广进！愿大家往后一切顺利平安！', '哭死我了，被迫杀了爱人的时候都能感同身受那种心如刀绞的感觉', '看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。\n', '在丁义峰面前罗翔都要靠边站，罗翔最多能把对方律师送进去，丁义峰更狠，能把自己送进去！', '中国的律师有几个好货？！吃了上家吃下家！！！没有职业道德！！！[打卡-打][怒]', '别看闫妮平时像喝了假酒似的，可她拍戏认真的很，喜欢她。', '保险没了，老头白死，女的武器，律师吊销执照进监狱，儿子三年估计没钱治病也得凉凉！这个片告诉我们，保险公司太牛了！千万别骗保！', '这是爽了还是疼了', '请问这个女演员是谁。为什么演员表里没有她', '电影很不错，主旨比较清晰。可惜，这不是网友想要的。真相这么重要？别忘了，法律服务于人。喜梅一心求死，求仁得仁。老头命不久矣，骗保固然不对，但是可以挽救一个年轻的生命。小伙子在狱中服刑之后，会更加阴暗，暴虐，必然报复社会。律师前途尽毁，阿兹海默的老娘也会孤老死去。整件案子，除了检方和保险公司，没有一个赢家。\n法理好过，情理难容。\n电影不错。', '￼为闫妮来的有吗？点个赞看看有多少人', '闫妮演的真好，一个是爱她的男人，一个是她的肉，那种撕扯感，我都看进去了', '为黄晓明来的有吗？点个赞看看有多少人', '最后万万没想到，金喜妹和老头是真爱，两次大反转，律师真的黑的能说成白的，白的能说成黑的，表达的思想大概是要有良知。疑点是为什么金喜妹的朋友会说她每次回来身上都有伤。儿子是真的心理扭曲，老头的三个孩子也是白眼狼。最后说一句，晓明哥认真演戏真挺帅！', '马双喜明知道自己有肝硬化不能喝酒，为了自己爱的人，一杯一杯的喝，还喝假酒，所以他和金喜妹说“再等等，我这个人说过去就过去了”就为了骗保100万，给她儿子治病，金喜妹也是心疼老马，谁知他那不争气的儿子竟然按耐不住失手杀了老马，就在杀老马的前一刻，老马还在为了他喝假酒。我真哭死', '我作为一个特别喜欢看电影的观众，基本是不写，影评的，但是，翻了翻评论，真的，特别特别有一种窒息的感受！首先说说电影本身，这部戏，是准备院线观看的，因为，闫妮！平台看完以后，觉得，小明的演技，也有很大进步，最起码，很落地，能够让小人物性格，饱满起来了。浅谈一下剧情，所谓跌宕，真谈不上，所谓反转，也更加觉得牵强。有些东西，导演甚至不用交代，反而，应该，交代一下，为什么一对母子，如此相处。看了一个影评说，整部戏，其实用“良知”贯穿，我并不愿意去抬杠一些东西，仅表达个人观点与感受，毕竟，观影后的思考，万人万念！整部戏，看下来，可以说，特别压抑，折射出的社会问题，正是发生在我们日常周遭，真的，极有可能出现的小问题，生存，赚钱，社会底层的挣扎与无奈，被贴标签，被误解，被钉耻辱柱，甚至求死，连律师都可以用违法来辩护，从而寻求真相，一系列的人性至暗，可怕，可怜，可悲！我的观点，人之初，性本恶，唯一能够唤醒所谓良知，只有爱，大爱，让人能够一下子产生共鸣的那种力量，正义凌然，公正不阿！而，整部戏，只有三个镜头，呼唤良知，一个凝望，一个鞠躬，一个无奈的遗憾。\n也许，这是导演，最高级的表现手法，不表达，个人观点，把思考留给所有人。如果，导演没这么想，只是艺术化了一个故事，那确实，导演能力，低下。\n最终，我想跟朋友们，分享，生活在当下，特别扭曲的社会当中，千万不要去，把过多个性去适应匹配进某一种，机制，体制当中。做自己，往往会做得最不得体，还是应该，多读书，多积累，有真才实学，温良恭简，渡己渡人！不模仿，不跟随，不停靠，让自己能够摸爬滚打，孔孟之道，中庸之风。\n真希望，公为天下，天下太平。', '如果律师没有调查这个案子，简单的处理这个铁案，走个过场，那么，老马死了，喜妹或死或无期，儿子拿到保险金治病。这个结局我觉得很遗憾，几败俱伤，枉付了父母的苦心，全都搭进去了。但是从理想主义，儿子毁掉别人的同时就是毁掉了自己，一切欺骗都无处遁形，做错事就要承担后果。只能问，正义与同情，如何抉择。', '昨天看的这个，感觉一样的剧情', '老马最后一刻还是求死想保全毛卫卫，那为什么不隐瞒下去  就让事情这样发展   骗保的钱给毛卫卫治疗烧伤   母女两个还可以继续生活下去   不管最后咋样老马都已经死了   这是个不可否认的结果     那为什么不让事情就这样结局   最后真相爆出来   女的无期徒刑   毛卫卫判三年   治疗的事情也没有任何着落了      有时候真相的代价是很大的', '所以法律代表啦什么？冰凉且无情，被人唾弃的毁容男换到了监狱等死，爱他的被人唾弃的母亲失去啦爱她的人，善良没有儿女照顾的老头赌上啦性命也没换回毁容男活下去的机会，有良知的律师丢下啦老母亲却被锁在啦法律之内。闹外却是偷钱狠心的儿女，高高在上的法官，玩弄法律的有钱人，有洁癖的律师。。。所以法律改变啦什么？不幸的人依然不幸，有钱的人逍遥只在。最后的真像不过就是保险公公司获得了胜利不用赔钱拉吧。', '我给打9分，一是闫妮和黄晓明在电影中的出色演技，把角色演的很到位；二是故意情节跌宕起伏，多次出入意料，反转的合情合理。在国产片中，很少能看到这类电影。\n但我觉得，有一点，应该在电影中有所解释，为什么保险最后的受益人变成了那马双喜的过刘学诚呢，', '晓明哥演技越来越好了啊大器晚成也感谢baby这个毒瘤', '故事很好，写出没个人的人性，但是编剧还需努力，写的警察太笨了，案发现场出现过几个人都不知道。\n', '最后的真相就是三个人都送进去了，保险公司赢了真扯哈哈哈哈', '哈哈保险公司投资的电影，不要骗保哦不然你是张三也得进去，柯南看多了一下就猜出来凶手是谁，应该还没有到结局，￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '演技最好是老马和闫妮，晓明中规中矩，女检察官真是让人出戏，全程面部麻痹，台词吐字不清', '前无古人后无来者，PIAO出真爱，敬马大哥', '刚看完感觉这部片子导演把观众当傻子，我气的必须来这里评论一下 。 黄晓明开头就交代了是个有良知的律师，中间为什么要去逼供。折腾了一圈铁案没翻 把自己弄进去了想表达什么。细节上漏洞百出，家里有第三人的指纹，桌上 地上烟灰缸到处都是警察没查到？保险受益人不是他儿子，那他自杀的意义是什么？最后光凭闫妮一句话就证明是她补刀了吗？而不是她替儿子顶罪吗？', '估计要上映了，马上', '这个剧感觉这个编剧完全就是为了反转而反转，法庭开庭像儿戏一样。编剧一点法律常识都没有吗？真是无语了', '阚清子的演技我觉得不好，我看过她的一些视频还有这个电影，都是靠吼，就感觉喜怒无常，哈哈', '剧本本身有点扯淡，编剧应该没有法律相关从业经验，闫妮不演喜剧感觉有点出戏，检察官扮演者演的太过用力，感觉跟被告有仇，颜值不在线，声音难听！', '最后的真相也不一定是真相，小明可能是为了成全一个母亲\n', '黄晓明的表演简直太精彩。厉害，这犀利的回答。直接把女律师怼到哑口无言。', '为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '黄晓明第一次监制的电影《最后的真相》非常成功，内容精彩无比。\n这部电影讲述了律师丁永辉在承办一起凶杀案时，发现该案真凶另有其人。在调查过程中，他不仅要面对各种阻力，还要解开多个谜团。在这部电影中，黄晓明凭借其出色的演技和独特的视角为观众呈现了一个不同于常规犯罪题材的电影。除了黄晓明之外，闫妮的表演也让人眼前一亮，她凭借出色的演技成功提名金鸡影后。这部电影的成功也离不开其制作团队的精心打造。在剧本创作方面，编剧发挥了自己的才华，将故事情节编织得扣人心弦。同时，导演也通过独特的视角和拍摄手法，将电影的氛围和情感传递得淋漓尽致。《最后的真相》的成功也表明了国内电影市场的成熟和发展，期待未来能够看到更多优秀的国产电影。\n如果你还没有看过这部电影，强烈建议你去看看。如果你已经看过了，那么你一定会和我一样对这部电影赞不绝口。', '很多人看不明白，事实上很简单，一开始案情不符合谋杀逻辑，当然会认为她是找死，也很可能被告不懂法，无法界定自己是正当防卫，以及强奸，在剧情推进前，这些逻辑都是成立的! 所以他为了维护自己坚持的正义，用了点手段，第一是维护真相，第二是维护被告人权，尊严。 虽然威逼诱供做法律上是不认可的，但在良知上，大家都能接受! 因为这个视角是拯救被告的视角，一切证据都证实飞谋杀，和正当防卫! 在 剧情推进后，才找到新线索，在没有在医院见金喜妹之前，所有线索又指向她儿子误杀，劝他去自首，但见完金喜妹后，辞职转做证人，一切真相才真正浮出水面！ 片子告诉我们法律和正义也不能脱离人的良知，真相是什么也要有真正合理的逻辑，最后也说明，这并非是谋杀案，而是蓄谋骗保案，如果按一开始的证据链处理，就是一宗金钱纠纷谋杀案，之后的一切事情真相，将被永远埋葬!', '想不通为什么要拍这种片子，孩子已经经历了很多，他的极端是因为他从小被烧伤后，心理造成的创伤，再加上后续没有人给他进行心理上的疏导，不过我也知道，终身的残疾对于成年人都是很难接受的，何况还是那么小的孩子，为什么要这样拍，难道真的要证明残疾就是怪胎，就是灾难嘛？我觉得他们真的没有错，错的是世人看待他们的眼光。', '如果一开始直接判金喜妹故意杀人，保费能到手，毛卫卫的病也能治，结果一顿操作下来，自己搭进去，金喜妹还是故意杀人罪，保费没了，毛卫卫还被判了三年，这跟良知有关吗，这个反转的有的搞笑吧', '这部电影的剧情和深度还是非常棒的。我建议可以重看一次。从电影的主线剧情来说，这是居于一个律师在不同时期阶段心里的不同层面变化做出的判断与决定。从支线剧情来说，其实是开放式的结局，疑点有很多导演未交代，1.儿子烧伤为什么极度怪罪于母亲。2.受益人为什么要给过命的兄弟，兄弟在其中作为什么角色。3.一百万剩下的40万去了哪（老三只交代偷走了60W）4.儿子的身世之谜……  还有很多待补充 这个案子不是按正常开头到结尾那么一句话概括的（那些说男主有病白忙活的是真没好好分析完电影） 最后的真相并不一定就是最后的真相 主线来说这个案件三次的反转 每次都能作为最后的判决或者真相 那么事实真的如此吗 最后的真相主角也搭进了自己 那么这个真相是真的还是另有其他？为了真相坚持的人是否都在做坚持呢 （个人观点勿喷）', '最后一次反转为反转而反转。有这样的律师吗？打着官司最后把自己送进去了。者的喝多少假酒能干出这事来。', '最后丁义峰和他老师的对话，让我感觉其实是金喜妹和丁义峰用自己做局串供，保下了毛卫卫', '来看黄晓明第一次监制的电影最后的真相，恭喜闫妮姐提名金鸡影后，加油加油', '虽然剧情有点扯，但小明演技好', '这片子是把现场调查的警察视为无物了，漏洞百出', '一般般，这类电影，孙红雷演的那部有关于父爱的电影已经称王了', '这是今年难得的几部佳片之一，让人深思的问题很多！', '看完提出几点思考：1.保险合同的受益人由他自己变成他铁哥们，那他铁哥们应该也参与到这个事情中了，但影片中未交代这方面。2.她儿子烧伤是个意外，是怎么烧伤的，与她有什么关系，以至于她儿子觉得是她欠下的，这方面没有交代清楚。3.她儿子的父亲又是谁，她又是如何生育养育儿子的，影片全篇未交代。4.真正的真相到底是什么，真相又是不是我们想要的，真相、良知、法律、正义，又该如何选择，这恐怕是影片想要传递给我们的思考。', '这丁义峰，岂不是把毛卫卫拖进来，还让金喜妹白判无期，马双喜白S了…吗？…因为保险100万也没能拿到，毛卫卫也得不到治疗……', '这逻辑思维也太差了，儿子用烟灰缸砸死了人，警察你居然查不到线索？', '闫妮挺喜欢的，但是，一看见黄晓明就什么兴趣都没有了', '我能说丁一峰这个人设崩塌了吗？前期为了赢，不择手段逼供，后面突然就放弃好不容易获得的胜利，把自己送进监狱。', '甚至看哭了。很多人都在纠结前后逻辑，人性哪儿有逻辑。就像我带着有色眼镜看人，觉得那种地方工作的人都是为了骗钱…………包括电影我爱你，我在思索老了真的挺难的，只有爱人相互陪伴，子女有子女自己的生活。夕阳红的感情生活，需要社会大众的正视。而不是带着有色眼镜。', '这难道不是老马白死了么  保还没骗成还是自己搭理了', '真不知道这案件什么的都这样，要公安，检察院干啥用，都是用律师找线索了', '这是一部票房辜负了的好电影。沉下心来看看，有赤诚有真心也有现实的无奈。', '影片最后说句实话，本片经过艺术加工[狗头]，现实中律师遇到了你就知道了', '怎么这个女配角又是律师啊，跟佟丽娅那个家暴的也是她拍的', '￼为什么金喜妹经常浑身是伤的从老马那里回去？作为保险受益人的那个老大爷刘学城应该知道些什么，电影里却没有提及，所谓最后的真相可能是没有真相', '现实生活中结局只会停留在一审，结局皆大欢喜，哪有为了良知放弃名利陷自己于牢狱之中的律师？', '啥跟啥啊，踩了个大雷，如果不是黄晓明在，都不会点进去看', '真心不错，让我浑身鸡皮疙瘩掉一地，人性展示的淋漓尽致', '好想看，会员过期了', '真心和坚持最终会把我们引去该去的地方', '我快哭死了，莫名的我的悲伤无限大', '啥都没说清楚，老头白死了，浪费我两个小时😏😏', '这个剧外行人可能看不太明白，我作为律师解读一下。真凶就是闫妮，最后无期或者死刑，她儿子故意伤害，判了3年，黄晓明扮演的律师是亦正亦邪的，如果没有闫妮对他的最后一次谈话，他也不可能说出自己诱导闫妮的事实，这种行为作为律师也是犯罪的，是要被吊销律师证的。黄小明一开始强行做无罪辩护，说闫妮是被强奸的，也是为了自己能翻身，能出名，毕竟他很多年没办案，也没啥钱了，他这个时候的行为就是要赢，不是为了什么正义，良知，最后闫妮找他倾诉，他被感动了，选择了良知，在庭上才说出了自己诱导闫妮的事实，也把自己献祭了。电影立意还是比较正能量的，但是现实基本上不会有律师会说出自己诱导、逼供的行为事实，因为这样就把自己毁了。现实中的律师，绝大部分都是那个律所主任，法律援助案子走走过程就好了，极少部分是黄晓明，把白的搞成黑的，当然也说明其自身的业务水平牛逼。', '老马白死，金喜妹无期，毛卫卫三年，骗保的钱也不合法，竹篮打水一场空。到底谁对谁错，反正这个律师没对', '真心不错', '双数今年过年就回家', '老头是儿子杀的，最后的反转是因为检方已经发现骗保和儿子是凶手，丁律师之所以最后出来作假证，是为了保儿子故意伤害罪判三年，如果儿子死罪母亲无罪的话，母亲出去也是自杀。检方最后没有继续对丁律师质问，是看懂了丁律师的操作。这个片子不是普法片，最后还是拍成个悬疑片了。', '刚开始为了利益，逼迫被告说强奸，除了老头名誉受损其余的三赢的局面，律师收获了事业，儿子收获了金钱，女的无罪释放。结果为了一个律师突然无厘头的正义感，半途强行扭转局面，结果全输，老头没了保险也没了，女的无期徒刑，儿子三年有期徒刑还没了治病的保险金，律师丢了职业进去了。什么玩意，在这种权衡利弊的情况下，正常人根本不会为了这所谓的正义和真相，去牺牲这一切。', '真实社会坏人排行榜:第一:律师，第二:医生，第三:老师，第四:村干部，第五:黑社会...[欢颜-泪目]', '快撑不下去了什么时候才能是个 头欠了一屁股债', '说真的这个检察官确实不符合现实。入罪思想严重！', '看了十分钟那个女的让我烦没看了', '演员们的演技很好', '这部电影反封律师，公诉，保险公司！😅😅😅😅', '再也看不到涂门老师的作品了！[破防][破防][破防][破防]', '￼看很多评论说例如 “早说强奸不就好了”，可能是观感理解不同，我说下我的看法。\n电影中有一句话，“人生有两件事医不好，一个是病，一个是良知” \n“病”医不好体现在了马老的肝硬化晚期，那么“良知”贯穿了全篇。\n最简单的死法，马老喝假酒意外死亡。但是中间发生了金喜妹儿子的插曲。\n既然忧伤，那就得顺势做下去，不然别说医药费，儿子都保护不了。\n马老的“良知”，在于要用有限的生命去救一个初次谋面的儿子，这是善良，大爱，该受尊重。\n金喜妹的“良知”，是最重要的，因为呈启了剧情。如果金喜妹没有良知，翻供强奸的时候就不会 在看守所 撞柱自杀，也不会有下面的故事。直接理赔给马老的兄弟，也会转交给他儿子需要的医药费。（按剧情讲，现实保险理赔否另算）。所以，金喜妹的“良知”更多的是感恩。\n黄晓明的“良知”，在于前面举报同事律所的正义，在于后面坚持本心的初衷。在于舍生取义的无畏，和还原真相的本真。\n黄妈妈的“良知”，在于几十年如一日的信念，在于不让事件被世人遗忘的愿望。也见潜移默化的影响黄晓明最后选择的加注。\n黄晓明师兄的“良知”，在于最后赌上律所声誉，请黄晓明作证人的选择。\n实习律师、检察官、马老子女等等等等.......\n哪怕是最令人诟病，人格畸形的，金喜妹的儿子，最后也深深的鞠了一躬，“良知”未泯。因为他看到了马老的真心，黄晓明的正直。\n【不讨论剧情是否合理，因为片尾说了纯属虚构，经过艺术化】\n所以，跌宕起伏的剧情，病与良知还是贯穿了剧情的。两个小时就个人而言，相对值得观看。', '好的律师都在影视作品里  现实中的律师真的是只知道狮子大开口 要完钱 收完钱对他来说就没事了 真的是没有一点职业道德[打卡-打]', '经过小明哥的操作，不仅葬送了自己，还把两个人送了进去，还把保费搞没了，牛逼[亲]', '我觉得好看，哭了，我看到的是夕阳红的真心，母爱的伟大，底层老百姓的无奈，只能以命换命。', '嗯……一言难尽……', '前面的情节挺吸引人，但有的坑没埋，老马和金喜妹为了给毛卫卫治病而骗保，体现出父母对孩子伟大的爱，老年时期的爱情，后面保险的受益人写了刘，又是为什么，他是不是知道其中的事，毛卫卫因为别人对他异样的看待，使心理发生扭曲，但又因为什么事情，让毛卫卫说出这是金喜妹欠他的并没有体现出来，后面丁律因为自己的“良知”而在法庭上作证人证明老马是金喜妹杀的而毛卫卫只是故意伤害，结局就是毛卫卫因为烧伤皮肤癌要死了而且也被判了刑，金喜妹故意杀人和骗保被判刑，丁主角因为诱供被判刑，所以最后全都进监狱了？？？而且丁主角的母亲怎么办，他自己当时因为要赢所以诱供违背了良知，后面又因为一些事情想起了自己的良心，然后把所有人都送进去了，要是为了突出“良知”这个主题，这剧情就有点尬了吧。。。', '老头不行，怎么就强奸了。那么多人证明的。', '很愚蠢的结果，所得来的真相没有任何一个人获得好处，睁一只眼闭一只眼大家各得其所不好吗？', '这种电影适合在韩国拍', '电影实在一般，甚至这么高分应该全是各位演员的演技分，剧本可以说是太烂了，强行反转，塑造主角，即使是09年的案发时间，警方的作用在剧中微乎其微，基本就是立案抓人起诉，完全没有相关证据体现，检方对案件的侦查也没有相关进展，法庭中检方的话语也漏洞百出，诱供，拍打桌面恐吓嫌疑人心理，攻破嫌疑人心理防线，这些违规行为真的允许吗，这真的是作为影视剧版国家司法机关做的事？法庭中法官也默不作声，种种证据链根本支撑不起这个案子。案件一直反转，是体现律师个人业务能力强悍，还是体现公检法三方的无能？剧情反转确实精彩，但是为了剧情精彩硬是不符合现实因素，时代一直在进步，演员的演技也都在线，剧本越来越拉胯，白瞎了']</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 变形金刚：超能勇士崛起 </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VIP · 10440热度</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>《变形金刚：超能勇士崛起》“双擎会战”片段,电影简介:故事重返上世纪90年代，终极反派宇宙大帝从天而降，驱使以天灾为首的恐惧兽掀起地球危机。绝境之中，蛰伏许久的巨无霸终觉醒，联合汽车人变形出发，一场前所未有的决战即将上演。</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.6分</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['大家要去投诉了，钱虽说不多，但不能当我们是傻子吧。', '能不能退钱我看了一半，退我2块行不行', '黑人怎么了？黑人就不配拍电影吗？不要种族歧视好不好', '才买的又要我买', '额，感觉柱子没有以前高了，没有以前帅了，没有以前霸气了', '已经看完了，感觉还不错，不知道这个手机版的什么时候上线？', '地球都快毁灭了，居然就两人参与阻止，不知道以为地球没人了，真6', '擦，白花4.8元，不要买', '感觉很幼稚又是拯救世界', '什么玩意，我想知道', '我个人觉得，1到5部，是一个编剧，怎么到这一部？汽车人瘦了一圈，怎么感觉像看了个半成品，总体的话，得看个人，看了才知道，好不好看，我个人觉得观看性不是很大，但是能看，希望下一部汽车人不要再瘦一圈了', '大黄峰 ，幻影，对擎天柱说：我是你相识最久的朋友，为了你我可以献出我的生命。', '￼擎天柱变样子了？.？ 感觉没有以前好看霸气呢？？', '啊啊，超级喜欢看的变形金刚又来了，超级爱的，期待', '新瓶装旧酒，还借鉴钢铁侠[狗头][狗头][狗头]', '离谱，花4.8买了，看了半个小时左右，因为有事退出了一下，结果等我回来再点开的时候又要购买。这真的很离谱[意难平][意难平][意难平][意难平][意难平][意难平][擦汗][擦汗][擦汗][擦汗][委屈][委屈][委屈][委屈][委屈][委屈]', '幻影 喜欢吗', '花了钱还看不了？还要收费什么意思？？？？？', '擎天柱【他们】不会自己画自己！不喜欢建模，麻烦去喷美国的建模师！别说角色丑了！电影不等于≠2013剧场版《领袖之证》是独立世界观的！没有可比性！', '今天看完了，感觉剧情有点不太对劲呢，变5的时候宇宙大帝已经快苏醒了，而地球就是宇宙大帝幻化的，怎么又从别的地方传送过来个宇宙大帝呢……再说变1抢火种时候也没见猛兽侠来帮忙啊，变6是要烂尾了吗？', '我在一个里面看完了！[富翁][富翁][狗头][狗头]', '没有第6季吗', '能不能还我那5块钱[柠檬精]', '购买完看不了，白瞎了我4.8元', '[富翁]这片子真不错，值得观看。就是时间只有6分钟，短了点。下回走点心，拍长点[金币][准时][吃瓜N][N刷][放大镜][蹲][打卡-打][打卡-卡][签到-签][签到-到][上头-上][上头-头][再见][抱抱][爱你][6周年][6周年][6周年][超越][超越][超越]￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼￼', '怎么购买了还看不了怎么回事', '4.8块，我要饿4天半才能省回来…呜呜', '已经购买了为什么看不了', '我前几天买过了，为钱今天看不了了，又要重新买😭', '能不能告诉我到底好不好看，变形金刚爱好者啊！看见评论都说不行，我到底要不要花五块钱[准时][准时]', '猩猩队长不会变身差评', '买了看不了  大家别买了', '8 月上映', '都看了几十分钟勋章任务一动不动，真差劲👎🏻', '神雕侠侣之美国分雕', '这不是大猩猩吗！😱', '吐槽一下，感觉有些时候看着很变扭。', '还是原来的擎天柱帅，不许反驳', '这和之前的变形金刚有什么关联吗？', '临沧老乡有没有', '导演用心良苦，为了他的黑人主人，贴心的添加了黑人男女主，大胆创新，以前那些美女观众都看腻了，丑男黑女才是现在的主流，男主演技在线，女主颜值在线，队友浴血奋战，男主哭哭啼啼，演技没有天灾的宠物好，女主除了长得让人作呕，别的没毛病，比男主有用一亿倍。', '幸亏大黄蜂复活了要是他死了这辈子不会看变形金刚了0.o[无羡]', '太精彩了，擎天柱', '慢慢来，熬到你免费[吃瓜N]', '[上头-头][上头-上][加更-加][喜][大哭][大哭][KSWLA][PTSD][AWSL][SOSA][YYDSA][互粉][签到-到][赞N][庆祝N][蛋糕][钱]不太好吧🤷', '有自贡的吗', 'k\u2006k\u2006b\u2006m）\u2006b\u2006b\u2006n\u2006n', '汽车人代表的是美国一群盟友实际上是打着正义的旗号却干着破坏秩序打家劫舍的勾当', '环保局快来，美国的东西不环保，快查他[准时]', '我是v几啊', '嘎嘎好看', '哈哈哈。10月7十点。我发现了。我不用付钱了', '不是很认可这一部', '这男的你们怎么看', '每一部变形金刚都看唯独这部拍得抽象', '搞不懂，这算不算变形金刚系列续集，时间线混乱，宇宙大帝又不是地球了，1994年算是变形金刚系列前传？作为爆米花电影总要跟主线贯通吧，完全是一部独立的作品，还加入了主线角色，超能勇士的剧情还没了霸王龙就很迷，看过动漫的没看过动漫的都得懵', '老好看了可以可以', '贺秋，我想你了', '有恐龙吗😅️', '童年最喜欢的黄豹勇士居然没几个镜头', '变形金刚系列，最丑女主', '剧情没以前用心了，还得是迈克尔贝导演的片子看着好看', '收了钱补给看，只有老马做的出来！', '充六块会员不叫看', '精彩内容过少，片景插叙过多', '在电影院看过了，还是感觉在电影院看得近', '吓我一大跳', '那。bm', '太牛了吧！', '那个黑暗大帝手下保管好一半钥匙然后大帝直接降临地球把地球吞了不就拿到另外一半钥匙了吗？', '善恶一体，无法消灭彼此。只有认识到造物的要义，阴阳合一才是永恒之道。', '会员免费香得勒\n[富翁]', '来了来了', '就想知道4.8元可以看几遍？', '回顾哼哼唧唧几', '好看吗这个', '非常一般，完全没有前几部得劲', '大黄蜂已经死了', 'Want to go to that?', 'What do you want?', '预约打卡☺️٩(ˊωˋ*)و，腾讯视频，变形金刚电影🎬🎬🎬(ง•̀_•́)ง，回归了，明日就可以看了。预告片。快点过来看，超级好看的。 动物机甲，外星科技。外国的还是中国的，都是很好看，完美。', '腾讯视频出品，变形金刚，超能勇土崛起(•̀ᴗ•́)و̑，第7部❤️😭超强强烈支持。[签到-签][签到-到][狗头][打call了][西出玉门-超A][666啊][666啊]', '变形金刚版米莱狄', '看到评论很多在吐槽的，没有了期待。但是看完没感觉很差啊，毕竟都那么多部了，一开始看到的新鲜感和感官冲击和现在是没办法比较的。还是很喜欢，我带着娃把七部还是八部，反正都看了，希望一直有下一部🤭男孩子很喜欢看的', '心疼流量', '黑命贵吗？看这两个老黑演技真尴尬', '乘迷、出一乊网1。华迷', '不因该叫擎天柱吗？', '太牛了吧', '后面都这么危险了，还在打感情牌，还在打个人英雄主义，真牛啊。']</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 汪汪队立大功大电影 </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VIP · 10282热度</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>《汪汪队立大功大电影》汪汪队全员蹦迪，这个冬天“嗨”起来！,电影简介:汪汪队出发救援！邪恶的韩丁那成为了冒险湾的市长，并且准备对这座城市进行大肆破坏。小男孩莱德和他英勇的汪汪队小狗们必须打起十二分精神，准备迎接全新的挑战。与此同时，小狗阿奇不得不面对他在冒险湾复杂的过去。好在这时团队迎来了新的盟友，聪明的腊肠犬贝贝。带着升级的武器和装备，汪汪队已经准备好随时为拯救冒险湾的居民们而战！</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['狗狗们也太可爱了！[打call了]', '除了字音以外，汪汪队，是好看的，一部值得推荐', '汪汪队离大谱', '啊啊啊啊真特么可爱', '这种电影对于高中生来说可能有点幼稚，但是对我们大学生来说刚刚好', '先踩一下，熬到免费', '小孩喜欢看', '28看这个正常嘛', '丶，在干什么呀？', '天天都是我的错了。吗你', '最喜欢啦。', '哈哈哈哈哈这套衣服真的太忙了？！哈哈哈哈哈哈哈哈😂？哈哈哈😆？', '想知道天天当时在想啥😂', '每个画面都非常惊艳，非常好漂亮', '噜啦啦噜啦啦金海湖u：', '也？▽不白问', '是汪汪队立大功，加了个光影吧。', '我六岁都', '这一个电影一开头融入了多少动画片啊。？', '我27看这个幼稚不', '汪汪队立大功大电... 03:45还是那6只狗狗。不过有点不同', '对了你们的聊天记录了，，，，，', '画质好了，头发都快没了[破防][破防][破防][笑哭N]', '咯👂她她物业物业', '                                       请问他们 是怎么从大楼里出来的  ', '英雄不是无所畏惧，而是即使害怕也能克服并勇往直前', '？？？？？？？？？？啊奇怎么了……', '我好无语啊', '而且你要加油呀', '笑死我了哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈', '精灵太美了', '我的生活居然连狗都不如 狗都开超跑', '他们的级别高不高级？嗯，我感觉有点高级', '咋下来呢？', 'k科技节', '汪汪队立大功大电.汪汪队长', '晚安！槟榔大队。', '莱德看着没成年 但是他已经成年了 只是身高定格了', '看我空間啊', '汪汪队拯救城市', '很好很科幻', '旺旺队，旺旺队，我们都是土匪，左手拿着ak，右手拿着嘞白泉，去超市抢劫，晚上就做贼。', '反正我觉得挺好看的，就是不太喜欢贝贝当上汪汪队队员，嗯嘛嘛，不过当上就好好待着冒险城帮助人们吧', ' B你好啊', '我也喜欢听普通话的。', '阿奇最后从这里跳到那里', '阿奇的吃车里还有电动车', '你却定是烟花不是炸弹', '我也7岁', '好喜欢看汪汪队呀，我都成年了还看', '阿奇不配做队长', '我一直以为这动画是中国做的', 't⊙ω⊙⊙ω⊙⊙ω⊙', '阿奇好勇敢', '不会就我觉得毛毛好可爱吧？', '来看看哭好几回', '我的长的路龙监控看到第一家朴三秦', '好朋友在北京市', '不对了我自己可以去', '我们自己可以去看看这个电影', '阿奇，怎么这样子啦？', '❤️ (  ⚫︎ー⚫︎  ) balalala~\n\u3000／\u3000\u3000\u3000   ＼\n  /\u3000\u3000\u3000  ○  \u3000\\\n/\u3000 /  \u3000\u3000    ヽ   \\大白\n|\u3000/\u3000 \u3000\u3000\u3000  \\\u3000|\n \\Ԏ\u3000\u3000\u3000\u3000     Ԏ/\n\u3000卜−\u3000\u3000   ―イ\n\u3000  \\\u3000\u3000/\\\u3000   /\n\u3000\u3000 ︶\u3000   ︶为你加油！！！！！！\n\u3000☆  *\u3000.  \u3000☆\n\u3000\u3000. ∧＿∧\u3000∩\u3000* ☆\n*  ☆ ( ・∀・)/ .\n\u3000.  ⊂\u3000\u3000 ノ* ☆\n☆ * (つ ノ  .☆\n\u3000\u3000 (ノ♪ 加油加油! ♪\nミ ゛ミ ∧＿∧ ミ゛ミ\nミ ミ ( ・∀・ )ミ゛ミ\n゛゛ ＼\u3000\u3000\u3000／゛゛\n\u3000\u3000 \u3000i⌒ヽ ｜\n\u3000\u3000 \u3000 (＿) ノ\n\u3000\u3000\u3000\u3000\u3000 ∪老\n\u3000板\n\u3000\u3000说\n\u3000\u3000\u3000今\n\u3000\u3000\u3000\u3000天\n\u3000\u3000\u3000\u3000\u3000放\n\u3000\u3000\u3000\u3000\u3000 假\n\u3000\u3000\u3000     ！\n\u3000ヽ＼\u3000 /／\n\u3000 \u3000 ∧∧\u3000｡\n\u3000 ﾟ (ﾟ∀ﾟ)っ ﾟ\n\u3000\u3000\u3000(っﾉ\n\u3000 \u3000\u3000`Ｊ✨  ︵ \n("\\(●-●)\n \\ /     0\\ \\\n  (          )"\n  \\__T__/∴＾小狗狗真棒，我爱你', '微信 谷歌汪汪队 ？？？？ ？丿', '今天上午去的地方太远了？', '🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗🛗', '天气这部分不是借鉴天降美食', '我在这个地方是天天说我有一个破家之后，他他看到雷子给给别人送东西，他天天就跟着来就来得，这次发现了。', '你们谁有会员', '一长一短全如1⃣️他', '#薛皓文#cv76*gghhuipllkkkyyddqqscttyiijhyttrwqqqaaaa❤️❤️❤️❤️😄😄😄🤣😇😍😍🥸🤪🤪😭😭😭😒😒💁', '看到最后我哭了[意难平][意难平][大哭][大哭][大哭]', '玫瑰花香和我的每生一个都一样是一个配吗？这一头乌龟怎么能知道中的。 是站在广德', '就5了5了5了', '不知道为什么', '这桥断了，他也走不过去。嗯，这个狗是不是他已经过不去了哦？我看过他好像他好像从锁上都过去了', '勒沃库森看电视', '我我马上结束开始思考', '这有点不科学 那个那一集的时候不是不能摸 我不用玩 为什么他摸了 ？', '对了，你了吗？？', '那时候才把汪汪队一大功之超能冒险也完全上市', '咖啡到夹糕楼上好高呀', '会比较不好跟 v', '李冰冰后悔h', '哈克萨斯孔雀舞', '剧情很不错。值得推荐', '这个是是想市长', '果然像马桶刷，哈哈哈', '果然像马桶刷', '刚刚太好看了', '好像是小黄人\n这个电话很好看的呢']</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 碟中谍7：致命清算（上） </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VIP · 10349热度</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>《碟中谍7：致命清算（上）》“生死时速”特辑震撼来袭，阿汤哥真人实拍上演街头单手飙车,电影简介:《碟中谍7》是《碟中谍》系列的第七部，是由克里斯托夫·迈考利执导，汤姆·克鲁斯主演的动作电影，将于2021年11月19日在北美上映。</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.8分</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['从第一部追到第七部的举个手，看看有多少人👀', '最喜欢白寡妇，她活肯定很好！', '天呐还有下集😮\u200d💨', '感觉女主一直在找死，男主应该第一时间弄死她，后边也没那么多事了', '阿汤哥骑摩托车跳悬崖那段，据说没用替身，自己练习了很久，太拼了！', '没有杰瑞米班纳了吗？有一点点失望', '最惊艳的是第四部 炸克林姆林宫，爬迪拜塔', '你们不觉得两部电影之间有某种联系吗[放大镜]哈哈哈哈哈', '终于等到了 ', '这是世界强国？但是不包括中国？', '007退休了 碟中谍还能爬', '阿汤哥就是美国🇺🇸的成龙！！！👍👍👍', '四块八值不值？伙伴们', '不论情节如何，这种毅力先赞一个', '第一部1996年      第二部2000年      第三部2006年      \n     第四部2012年      第五部2015年      第六部2018年      第七部2021年', '速激10也是在罗马。你们两波人没有联谊一下子啊。😂', '超级喜欢这个女反派，上一部就喜欢她，感觉很适合这个角色。', '如果是我们中国小鲜肉，除了老演员 有哪个小鲜肉敢这样子？真实的在行驶中的火车顶上拍摄', '碟中谍7什么时候放上网', '最喜欢的国外男演员没有之一！', '估计最后一部了吧', '烫老59岁了啊还那么牛逼', '听说要上太空', '2023年才上映，耐心等待', '比凯奇 厉害多了。一直在坚持拍，加油', '什么时候上演我只关心这个', '丽贝卡佛格森是不是在这一季要牺牲了？', '最终大老板总会变坏，第一部菲利普如实，第七部前局长如实', '其实我挺喜欢这个角色！期待下次见', '这配音，一言难尽', '太落后了。连个配钥匙的都没有', '这一次看为啥觉得男主角这么蠢呢？Grace坏了这么多事还差点杀了他，竟然还护着Grace，早点搞死后面就不会这么多事了…', '用不着那么费事，去58同城找个开锁师傅，给他照片就能配出来。', '为什么国外的能拍到1234567，国内的不行啊，', '这部电影，让我睡着了两次。碟中谍系列，到此为止吧', '什么情况？简介上写的北美上映时间是2021年11月上映？是简介错误还是引进错误？不可能倒时差要倒这么长时间吧？有人可以解惑吗？', '沐蕾之声[666啊]', '近年难得能看进去的美国大片', '换个杨幂上去', '潜艇沉了还有电吗！不切实际。', '三颗星给阿汤哥60多岁拍片。\n另，想了解其他观众的观影感受，与其看评论，不如打开弹幕，前前后后翻翻来的真切。\n7的想象力不足，逻辑性太差。抑或是由于想象力不足，导致本想无脑看爽片的我，无法沉浸看片，不由自主的开始思考剧情。\n全片全三分之一尚可，智体前段也算有高光，后续智体挂机，只剩下了追抢钥匙的环节。\n具体槽点较多，不一一列举了。\n另，对于弹幕中诸如“要求这么多，去看国产片啊”之类的言论，太过幼稚，过去好莱坞受欢迎来源于其高质量，在电影行业绝对的统治力。现今需要拿这两者比较，只能说明你自己也知道好莱坞已经不复当年了。', '偷钥匙的那个女的真想打死她', '碟中谍系列忠实粉丝，真的太精彩，更佩服的是，拍了这么多部真的看到一部比一部科技感增多，格局更大，更“不可能完成”，还有阿汤哥不管是年轻还是现在都是努力型演员，有天赋有颜值更难得的是还这么努力，很多特技都是自己上，演技不敷衍。天呐看完7上真的感慨，故事一直有，在1～7虽然有的情节觉得太过夸张，有的任务要是真能完成那就是天人的神力相助，但是不变的还是合情合理的惊险刺激、让人惊叹的尖端科技和不得不佩服的每个角色的人格魅力和个人实力。碟中谍系列真的太精彩啦！！', '大战人工智能，选题一流，过程精彩，但结果显然让人失望。', '只是要是汤姆哥的电影，不管多少钱，我都会充会员看的', '配一把钥匙这么难么，十来块钱就搞定了吧，还需要飞机大炮？[笑死我了]', '下部那里能看', '就讲了一个道理，不能随便相信女人', '一意孤行最可怕', '怜香惜玉得过份了，害死了自己的同伴', '都21世纪了，美国脑子里装的还是殖民主义奴化思想', '我是不是成功熬到了它免费？', '以前看电影看到这些觉得是科幻，现在已经不再是科幻电影，感觉就是未来，人工智能已经不是机器，以后真会经历这些风险', '这咋没见人说开车不系安全带', '这么精彩的电影！怎么能放过观看呢？太帅了！', '真的刺激，这才是动作大片，国产电影得学', '美国大片', '傻女为什么跑，不能理解', '看过就忘，但每次看都很过瘾', '居然有田口的😀😀😀', '汤奔跑的速度无敌了。还是那么认真。', '美国才是全球最大的恐怖分子，在电影上总把自己说得正义', '看普通话版本会不会被嘲笑😝', '要我给钱才能看门都没有', '特工开纯电宝马！过分了啊！！', '4.5贷款以还清！', '这些警察都不拔钥匙啊', '老外的行李箱都没密码啊，直接拉链一拉就开啦', '就是原声的才舒服  虽要看字幕  国语版太那个了', '我是VIP', '值得观看！值得期待下一部！', '没一点新意', '还好有普通话，这钱花的值', '碟中谍8：致命清算下 估计要2026年才上映去了', '这部是不是潜在里刚好在说AI智能和人类的关系呢？A及运用的好对人类有好处，要是让他们自己成为超控自己的，反而很可怕，离得的AI各个国家又都想要，成为自己称霸的工具，但是AI智能会这么容易被控制的吗？', '女主很漂亮[狗头]', '会员在这里看的话也还可以。去电影就更有视觉咯，剧情一般', '很好看 美剧看起来还是一如既往的有感觉', '主角光环严重了一些', '美国佬的思维。。。已经是最影响观影体验的因素了。', '人工智能终将吞噬一切，现在的大数据只不过是暂时可控的而已。', '★★★★★\n阿汤哥的碟中谍真是太经典了，每部都是佳作，百看不厌。', '很精彩。好久没有看到这么精彩的谍战了。', '阿汤哥已经打不动了，好莱坞的套路一模一样看得遥遥欲睡。', '小偷女存在的意义何在', '蹲个聊天搭子有没有', '看完才发现有普通话的[大哭]', '又臭又长，剧情平淡', '原声在哪', '真不错！阿汤哥纯爷们！']</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 匍匐求生 </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VIP · 10192热度</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>生猛悍匪入室打劫，痛下毒手狂殴爆头,电影简介:一名男子在一间小屋里目睹了一起残忍的谋杀案后，躲在狭小的空间里，而凶手则在屋内搜寻隐藏的财富。当凶手越来越近时，他必须决定这个狭小空间是他的坟墓还是他为生存而战的战场。</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['铜仁的小伙伴有没有[666啊]', '成都的举手🙋🏻\u200d♀️', '但是，可但是，地板是不是能撬开[吃瓜N]', '女主得劲', '这剧情紧凑  真可以呢！[一起冲]', '以钱开头以钱结尾', '松柏欲盖弥彰', '遂宁的小伙伴有没有', '有没有小姐姐在看', '剧情单调，低智商犯罪，像小孩子玩家家', '宁夏的有没有', '悬疑惊悚的普通剧！', '兰州的举手🙋', '有没有人在？', '出来聊天了', '有电脑没有手机？继续往下编。', '英语34:30好不好看啊', '现在没什么好看的电影', '跟喜剧片似得哈哈哈', '恐怖片的主题是不是都一样 就一个字 黑 黑灯瞎火好办事', '人很少哦，留个足迹\n', '人在广东漂泊十年的🙋[金币]', '悬疑题材不错', '来了来了。', '真心不错，就是不好', '这得仔细看，不能跳着看😂😂', '不知道好看不', '正片开始', '留个脚印👣', '蛮好看的', '是这样查税务的？再继续往下编。', '没人么，第一！', '山东省临沂市兰山区来报到', '美国光头强砍树剧情', '我是第7[柠檬精]', '不错，不好看', '居然是恐怖电影对我的口味大晚上看[吃瓜N]', '卡丽漂亮', '喜剧吧哈哈哈', '不错 不好看', '人这么少', '不错  挺好看[富翁]', '？怎么没人']</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 劫数难逃 </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VIP · 10110热度</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>《劫数难逃》主创演员：张继聪采访,电影简介:本片讲述的是在1995年，香港商人孙逸臣出差时蒙冤入狱，在鱼龙混杂的异国监狱中挣扎求生的故事。</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.3分</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>犯罪</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['监狱里面不是应该非常严密吗？这样都能计划逃出去', '现在电影越来越长，怎么这90分钟都不到，是审核删减还是。。。。', '逸臣这是有多么幸运，才会遇到一个有良知的狱警啊', '2023年拍的大电影了，有多少人看过，帮忙点个赞，谢谢，一共是1小时多分钟', '看了这部剧百感交集，这是我第一次评论电影，本科退学后送外卖的我如同电影里的主人公，只有真正经历过这种落差才能体会那是一种怎么样的感觉，什么样的生活。\n看完后我得到了鼓励，参加成人高考，看着很遥远的目标，但是正如剧中说的一样，不努力尝试怎么知道不行，坚持不懈肯定会成功，与君共勉！', '我觉得监狱长才是最可怕的一个人，根本不在乎生命', '有点像肖申克的救赎', '电影：男主被冤枉进监狱，后面为自己上诉不成功，便和其他人越狱，途中有人越狱被狱长枪毙死了，有一个投降，另一个男主出狱成功，之后有一个看管犯人的狱警被开除了，做起了律师，男主角找那个狱警打官司，光明正大的无罪释放了', '最后环节，逸臣在水牢里装扮好直接出去了，怎么能见到五仔告诉逸臣司徒的钱在那这个事', '记得当初因为停车位我一打三，最后的结果就是被关一晚上！这还不是看守所，只是被关派出所！里面关的啥样的人都有，奉劝各位千万不要违法犯罪，老实本分做人', '所以，跑了又主动自首。太正能量了吧，比肖申克的救赎更🐂🍺', '这个故事告诉我们一个道理，那就是会一门手艺，走遍天下都不怕', '那个典狱长真的是太坏了光看他的面相就不是啥好人', '原来监狱中，烟才是硬通货，看来下次我进去的时候，要多准备点了', '这导演拍的  死者下体的污责没有DNA比对吗  就叛无期', '就是说被逸臣的智商给折服，看看这周密的计划就是万无一失', '五仔肯定是个销冠，就这商业头脑不得不服啊哪里都能赚钱', '监狱中就是一个魔窟啊，我们可千万别犯事，不然进去绝对脱层皮', '最喜欢的就是这胖子了，这家伙这么多年了还一直这么胖', '这样恐怖的地方能够待下来大家的毅力也是有点强了', '刚从莫斯科过来的有没有', '翻拍肖申克的救赎？', '还是这部好看😊', '肖克的救赎盗版', '一个女人，真的熬不住了，说得好啊', '本来坐四年，结果还多坐一年零一个月🤔', '张继聪上一部电影:坐牢是香港年轻人唯一的出路', '吾拍抖音晒游艇，来拍戏啊', '照抄肖申克救赎没啥意思[我裂开了][我裂开了][我裂开了]', '如果不是自己越狱找线索呢？', '很多人聊监狱聊狱警，其实现在的监狱居住环境比很多老的大学都好，伙食超过我们县城90%的家庭，警察也很好', '三年的会员，没试过被赞的感觉', '￼最触动我的就是明明无罪却会因为越狱加刑，这个我年轻几岁一定看不懂，可我现在真的是懂了，没有犯罪却因为越狱而加刑，没有犯罪却在牢里待了五年多，没有犯罪……莫须有，然而这就是法律，这就是现实……', '我爱小锤', '劫数难逃（普通话... 17:36杀人，死了', '整体来说可以的，主角是个文化人也是个技术人', '什么玩意', '好电影，愿天下少一些特权！', '对这肖申克跟速度与激情抄', '没头没尾', '8.3不知道怎么来的，，，，，', '中国版《肖申克的救赎》', '很好看真的是高知越狱', '这不是日本男演员吗，多少男人的目标。', '我没看懂什么意思', '這些電影全部都是香港人，拍的好算是好不過不是在香港拍攝的，開始到結束有沒有見到一個港牌車輛？（呢啲戏全部都系香港人，拍好算系好，不过唔系喺香港摄影嘅，开始到尾有冇见到一个港牌车？）', '最终成功越狱的竟然是逸臣，厉害了！', '还是被关了五年多，多冤枉啊，其次，开头那两个杀人的原因也没有说明，这点也算是败笔', '非常一般', '天下万物生於有，有生於无', '看完这个电影只能说社会太黑暗人心太险恶，法律只是约束弱者，即使你正义了，也是迟到的公平', '什么破玩意', '逻辑性太差了，光天化日宾馆破门犯案，动静这么大整层楼应该都惊动了，得在当日有多大力量才敢这么干，有这能量的人还能让宾馆留下监控视频？两个人搞那么大在现场不可能一点痕迹不留，能让警方无视证据直接判你入狱，现在就一个门口监控就能翻案了？胡警官品性跟监狱其他所有人都格格不入，靠什么呆下去还能职级比别人高的。孙逸臣越狱，五仔被卖了一次，不让老婆直接去拿钱，还一定要转告给孙逸臣，他老婆靠什么去找人。全剧貌似把精力和脑筋都用在孙逸臣的越狱方式上，其它地方的逻辑漏洞多到吐不过来', '兄弟听哥一句，这孩子不像你啊[意难平]', '睢县廖提路过', '请问扎多尔共和国在哪个洲？我在地图找半天没看到，难道是火星的？你这是科幻片？胡说八道的地名你发明的？', '我还以为会有些创新了  剧情照搬肖生克的救赎', '哈哈，这就是法律，白白关了五年多', '自己闭翳就想兄弟富贵啊嘛', '自己逃出去的  真可以[666啊]', '周润发之后再无风云', '好好好，求老婆掉个监控这么难肯定要自己越出去掉是吧', '唯一一点，孙越狱，从哪里收到老五钱的位置信息？ 其他觉得还挺港剧的，好看', '有点高开低走的感觉 后面最后莫名其妙 有些太梦幻了', '大淮南顶上去', '逃狱判7年，自首减三年\n\n这个男主本身就出去给自己上诉，本来就是抓错了\n\n这个介绍真是看不懂', '什么鬼东西', '还可以剧情不啰嗦', '这结尾结束的太简洁了', '有点肖申克的救赎的样子', '全篇有一半情节抄袭肖申克的救赎[抠鼻][抠鼻][抠鼻]', '山西高平报道', '国产电影能到这个水平也算上了一个档次', '拍的非常着急感觉，', '模仿肖申克的救赎就是不知道能不能模仿成功', '国产肖申克的救赎🖕🏻', '监狱长司徒浩南啊很厉害的', '中国版肖恩克的救赎吗', '在里面呆两年，不是人在的地带，所以说干什么也不要犯罪', '这是越狱和肖申克的救赎联合版', '没有丝毫逻辑可言，就是为过审而拍', '这个不就像那个肖申克的救赎吗？', '怎么还吵电影啊.完全抄肖申克的救赎的啊', '据说是真事！九几年一个商人去东南亚出差，结果一起的女秘书在眼前被奸杀，自己也进了黑监狱，他很聪明用智慧逃出来了', '香港版肖申克的救赎', '他老婆连去酒店调个监控都不愿帮他办', '广电可不会让你逃出去', '什么钱这么难洗啊', '这狱警不错，你带他去一路向西吧', '没觉得哪里好看了，只是让我看懂了一个道理：好好读书，利用科技犯罪别人是抓不住滴[富翁]']</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 撞邪 </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>VIP · 10277热度</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>《撞邪》终极预告刺激发布：《中邪》姐妹篇来袭，张智尧李倩老宅入邪，11月25日腾讯视频全网首播！,电影简介:本片发生在民国年间，影片讲述了警察赵仁在调查无头女尸案的过程中，接连遭遇了如镜中人、凶灵附身、邪神祭拜等灵异事件。不信鬼神的赵仁决心要查出背后的真相，然而，随着命案调查的深入，案件背后越来越多惊悚离奇的细节浮出水面。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.6分</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>恐怖</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['不用看了，国产恐怖片最后都是精神病的幻觉。国家规定建国以后动物都不能成精何来的鬼怪', '自建国以来，我国不允许成精， 结局都不用猜了，不是精神病就是迷幻药[吃瓜N][吃瓜N]', '推荐大家看这个电影', '在中国这个环境下，拍出这种片子已经不错了，能在片尾反转比一般的新颖多了', '摄像大哥都隔这站着呢\n😏', '窗户开了[狗头][狗头]', '哪里可怕了..有啥好怕', '很久没看到这么给力的恐怖片，虽然难逃国产恐怖片的结局，但是明显感觉导演用心了[打call了]', '我发现很多人没有看懂电影，可能平常很少看悬疑片，我给大家简单解析一下。首先电影的故事整个是警长赵仁，也就是穆元的回忆加想象中进行的（昏迷中）。回忆的部分，也就是真实发生的部分是，警长赵仁3年前和青儿两人青梅竹马，且结婚生子，有了女儿小梦。他在警局用现在话来说就是个打酱油的，剧里说是打扫卫生。但由于贪慕权贵，加上穆府的大小姐穆芳爱慕赵仁，便雇凶刘勇害死了青儿，（刘勇在杀害青儿后再没有出现，后来的刘勇其实是他自己，后边我会解释）。改名穆元入赘穆家，想凭借穆家的势力上位，但没有成功，这也是后来家暴穆芳的原因。由于穆芳后来知道了他害死了青儿，便逼疯了穆芳，后又利用职务之便害死了穆芳，其实根本不是穆芳和他合谋的。在调查穆芳案件的时候他又杀害他的同事，也就是说，刘勇才是他真实的自己，这也是为什么后来刘勇一定要作法给青儿还头，他只是给自己赎罪。其实他就没有当上警长，那只不过是他回忆中美化自己的想象，在他的想象中青儿还活着，一家三口和睦幸福，就是警长夫人阿蓉。阿蓉就是青儿，青儿就是阿蓉。在想象中女儿不能说话是病，事实上女儿是因为他入赘穆家你不愿和他说话，他女儿当时应该是不知道真相的。神仙草和邪煞只不过是他逃避现实而编造出来的。电影开头的部分也算是他想象（编造）的，只是为了减少他的负罪感。后来终于承受不住压力一病不起，昏迷了。', '我建议大家调一下胆小模式哈哈哈哈哈哈', '报看，最后就是那个警长的一场梦。我真的服，跟中邪哪有可比性啊？这噱头也打的太冠冕堂皇了。', '我的天，你给别人缝制头就不能选个好看的嘛，你这头别个鬼当然看不上呀。', '讲点中肯的评价吧，首先呢在国产恐怖片的大前提下，受限于过审条件，肯定不能怪力乱神的，最后结局写成这样也没有办法。看到有人评价是虎头蛇尾，我是认可的，开头真的非常精彩，一切都渲染得很到位，起的太高了，后续水平跟不上就有点虎头蛇尾了。剧情上呢更是有点定位不清晰，最初呢是恐怖片，然后在引出这些邪煞其实是有人利用神仙草制造幻觉杀人后剧情已经向悬疑推理上发展了，那之后就是一个盘逻辑的过程，观众的思绪都会跟着你的逻辑走：凶手是谁？怎么通过一系列的手法作案的？结果这些刚得出之后，编剧嘿嘿一笑说：“哈哈之前都是逗你玩哒！其实只是始作俑者由于自责在做梦罢了！”直接跟闹着玩一样就把逻辑全部推翻，告诉你根本没那些逻辑，这样的转折确实很出人意料，但是也相当于说先前全是扯皮，这种引入逻辑，再跳脱出来说根本没有逻辑跟真正意义上悬疑片里的“误导”是有差异的。但作为一部恐怖片，也不能要求那么严格，至少在前中期的逻辑都还算严谨，恐怖氛围也都很到位，算是近几年大陆拍的较为出色的恐怖片了，还是值得一看的。', '就这张吓人', '剧情不拉胯，故事情节设定也很精彩，真的是很有看点的一部恐怖片', '这是最好的一部恐怖题材的电影了，且看且珍惜吧，之后能不能在出这类型的片子都不一定。', '9.0评分刷出来的吧？你真敢拍撞邪给5分，都是灵异的幌子拍悬疑，还私带一点亲情，搞得悬疑不悬疑，灵异不灵异，惊悚不惊悚，亲情不亲情，四不像？', '一点都不好看 到最后居然是男主的一场梦 ，九分估计是请人刷的[意难平][意难平][意难平][意难平]', '为啥都这个时候了还要去温柔乡了？难道这些男人一天想的都是这个吗？感觉还真的是有点无语啊。', '精彩又刺激的恐怖氛围，跌宕起伏的剧情，整体观感很不错', '我的天，真的太恐怖了，光无头尸体出现的那一刻，我都被吓的汗毛竖起。', '国产片真的废了，哎，这不让拍那不让拍的[意难平][意难平][意难平]', '太吓人了，有谁陪我一起看的吗？', '推荐大家看看这个电影，剧情紧张，刺激，肾上腺素狂飙。', '这……自己给自己打九分？？？？', '看的打瞌睡😪', '结果烂尾', '我就说怎么就得李倩不对劲，原来是志没有了', '太恐怖了，看完三天睡不着觉，太吓人了', '演员不错，故事一般，脏糠之妻不可弃总有因果', '一个警察都怕成这样，直服了，不要是头了没头也算个屁', '国产恐怖片我的评价是💩', '除了香港那些恐怖片以外。这部恐怖片绝对可以排行国内恐怖片第一了，这从头吓到尾。以后多拍这种滴少，像这种，昆岩池，超级恐怖片拍出来绝对碾压香港那些恐怖片了', '小样长的挺别致的，有没有人想要，只要4.444，包邮到家。', '什么啊这是', '够恐怖可以', '哪有胆小模式？', '只能说成本低，构思不够', '这个形状挺特别', '张智尧人帅演技好希望未来有更好的作品', '现实中谁相信鬼神存在，没有人相信，鬼神毕竟是人创造出来的！', '全都带回去化验？这是那个时代的技术吗？', '大半夜看这有点不敢看 祝愿不梦到鬼', '老公我怕抱抱我', '这个世界上是有鬼的，其实鬼就是一种磁场生物，实体是伤不了人的，当然很早以前可以，现在不行，它们顶多可以入侵你们的梦，给你编一些乱七八糟的梦而已，那种就比较诡异的梦，还有在梦里杀人正常的，这些都是他们希望你觉得杀人很正常，慢慢改变你的世界观而已', '大聪明拍这个片，咋没整成喜剧片', '都没有山村老尸第一部吓人', '这拍的是个啥？前面拍的还可以，怎么就弄个这样的结尾，全是想出来的？树先生吗？', '世界上的鬼不可怕。可怕的是人心', '结局没看懂', '灭火不用水的吗', '找不到剧看了👪们有什么推荐得', '他一个队长住得起大宅子？', '不懂就问，胆小模式是啥', '这部电影真好看，故事紧凑，情节跌宕起伏，引人入胜，墙裂推荐大家也去看', '真是够了，看别人做了一场梦', '好好好，懵逼树上懵逼果，懵逼树下你和我', '躲被窝一个人看[666啊]', '12-18赵振方实名观看！', '难看，看到最后居然是一场梦！', '强烈呼吁广电局放开鬼片审核，使恐怖片里可以出现鬼怪', '我一女的一个人看都不害怕你们大老爷们怕个de', '不用看了，最后没有鬼', '最让我奇怪的就是为什么他老婆和这个青儿长得这么相像呢？这应该也不是什么偶然的情况吧。', '胆小模式无敌', '哈哈哈哈，胆小？', '1557快来快来15424515457244', '咪哎哦哦您', '这剧情像小学生写得', '民国时期的巡捕，审讯的时候不应该除了打就是打吗？像这种装神弄鬼的，5分钟就能破案了。', '看的有点懵逼', '有点阴森', '都经不起推敲', '看得我一愣一愣的，除了渲染恐怖气氛。节奏慢得赶得上日本动漫了。就算过审受限，咋也不至于这样吧', '绝绝子！，很无语', '诸神庇佑  点赞护体', '头尾不协调啊，没意思', '姐姐～怕怕', '好久没看到这么好看恐怖片了', '狗血剧情，佩服导演的思维，一般人欣赏不来', '有人在看吗', '晚上11点半看', '推荐大家看这部电影', '看完全程都紧张刺激，非常身临其境，背景音乐设计很出色', '就是一个精神病的一场梦', '最后我想说一下:孔子没看懂，孟子没看懂，就连老子也没看懂[折磨]', '胆小模式也不恐怖啊[EMO了]', '最后是不是警察局的刘勇是嫌疑人？', '[我裂开了]我要让我的大冤种朋友也来看，', '🐶血但是，还行，不是很恐怖']</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 长津湖 </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>VIP · 10108热度</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>“雷公”胡军独家新年祝福！,电影简介:电影《长津湖》以抗美援朝战争第二次战役中的长津湖战役为背景，讲述了一段波澜壮阔的历史：71年前，中国人民志愿军赴朝作战，在极寒严酷环境下，东线作战部队凭着钢铁意志和英勇无畏的战斗精神一路追击，奋勇杀敌，扭转了战场态势，打出了军威国威。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.7分</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['这是我爷爷留下的，能看出来是什么吗？', '看完这个电影，想起了我的姥爷。可惜他早已经不在了，在我小的时候因病去世。我只对他有模糊的印象，遗憾不能亲自听他讲述他的故事！', '没有听过您说过很多，却发现您的遗物。', '我姥爷今年94岁了，我为我姥爷感到骄傲和自豪！！！', '多希望父亲能在，能跟他一起看这部片子。', '怎么就没女生看了，女生+1', '要是我父亲还在世的话看到这电影会触动很大的，那些地方都是他曾经最痛的记忆！', '说实话 现实绝对比电影残酷多了', '第七穿插连队，应到一百五十七人，实到十四亿人！', '外公负伤回国，健在', '怎么才8.9分 ，应该10分。', '爷爷不在了存在我奶奶讲的故事中', '小时候经常听你说的故事，现在看来好伤心，', '这是伍千里原型，英雄至今还健在！', '评分应该是十分才是，怎么才8.9分？', '为什么我的眼里常含泪水，因为我对这土地爱得深沉', '有人问难道没有彩蛋吗，你打开窗户望外看，这就是彩蛋.', '我从来不过圣诞节', '#2021国庆档你最期待哪部片#我爷爷被子弹打中胳膊 ', '这么好的电影评分太低了', '向老英雄致敬，我爷爷已经91了，身子骨还可以。', '首映当天和女朋友去看的，电影还在，人不在了', '#如何评价易烊千玺的表演#演得太好了，非常好看', '希望祖国能把他们都带回家！一个都不能少！', '2022新年快乐！祝福祖国繁荣富强！致敬最可爱的人！', '#如何评价易烊千玺的表演#眼睛里有东西！年轻一代里演技真没人能跟他相比', '终于上线了，我要好好的看完', '我爷爷当年是指导员，我为他骄傲', '我爷爷身体越来越差了。', '哭了几个小时了', '雷公临死前一句别把我一个人留在这儿，直接给我哭破防了', '我哭了我老婆没哭我把她打哭了', '等了好久，终于上线，第四次重温', '再难有老一辈难吗？最后的人为阻击敌人逃跑，都冻成冰人了，活在当下，多幸福！', '我的爷爷！', '向英雄们致敬，祝福祖国繁荣富强！', '2022新年第一天来报个到……成都路过', '致敬英雄，喜欢看那部剧呢投个票吧！', '🧨2021 𝘽𝙮𝙚 𝘽𝙮𝙚 ·2022 𝙃𝙞 𝙃𝙞🧨\n滴~体温正常，欢迎进入2022', '终于可以看啦！！！', '终于上线了，我要再看亿遍', '人民英雄', '致敬抗美援朝的英雄们。', '我很想念我的爷爷，去年过世了，一辈子都献给可国家，得开老年痴呆走失，被发现的时候是再部队门口。', '不晒爷爷的，晒一下自己的吧。每一代人有每一代人的责任，为了人民，负重前行。', '这一场战争是残酷的，打出了中国的军人的威信，世界有名，只有国家的强大，科技的发展，任何敌人不敢侵犯，记住这个历史', '这也是一个教育片教育，后来人记住先一辈英雄，工具，向英雄们学习，爱自己的国家，祝我们的国家强大繁荣富强', '谢谢这个平台，谢谢各位看友，今天的幸福来自前辈们的先烈，这场电影真的很感动，愿大家每天看好片', '中国人民志愿军万岁，中国人民志愿军万岁！中国人民志愿军万万岁！！', '长津湖之后再无圣诞节', '长津湖战役，不应该是VIP，应该是免费的！', '这种剧[气到变形][气到变形][气到变形][气到变形]。还我时间[意难平][意难平][意难平]。', '想想当年的长津湖，再想想现在，致敬先辈', '炸药箱都是空的，露馅了', '这太恐怖了，直接插进别人肚子', '志愿军万岁！志愿军万岁！志愿军万万岁！！', '向伟大的志愿军致敬！！', '向伟大的英雄们致敬！！', '伍门三杰', '易烊千玺是头一次演抗战片吗？', '没有志愿军，哪来有今天的中国？', '真的很一般这电影', '砍死日本鬼子美国鬼子', '刚刚看完志愿军，现在又来回顾长津湖，感觉这些影片不应该要会员，应该免费观看，且不需要看广告，这是具有纪念性的影片，这能让我们的下一代有印象，牢记历史', '依稀记得我问爷爷:你总说你参加抗美援朝 那你到底有没有杀过敌人，  爷爷告诉我记不得杀了多少了  看完电影立马让我爸拿出我爷爷的遗物，  当场泪目 😭', '看谁的表情最好笑', '整个七连就伍万里活了', '#易烊千玺#讲真的，不敢看第二回', '易烊千玺妈咪，永远爱你', '你们都是为谁来的', '以前村里一位老人，参加过解放战争和抗美援朝，一辈子没结婚，也没收养子女，我们小时候几个小孩围到一起缠着他讲以前打仗的事情，刚开始的时候他只讲解放战争的，只字不提抗美援朝，直到他的老战友来开导他，我们才知道这些事：当年抗美援朝我们村里去了十几个人，只回来了两个，他是其中之一；长津湖战役时他是排长，一场仗下来只剩了他一个；自那以后他就把自己封闭起来，他认为那一排人牺牲他是罪人；负伤回来后他也没去专门赚钱，都是谁家有事找他帮忙给他钱，没给钱的他也不去要；村里人给他安排相亲他也不去，去了也是跟女方挑明了说他不结婚，直接把女方吓跑了，他妹妹为此还跟他决裂了；后来由于战场上的伤复发，身体也变得不好了，慢慢地什么活也干不了了，他被纳入低保；他认为他那一排人都死了只有他还活着，他不敢比那一排人活得好，否则就更对不起他们了。\n在他老战友走后，他开始给我们一点一点地讲长津湖的事，但他始终不提他那个排的事。当他讲到五六个人俘虏美军三四十人的时候我们都不相信，还以为他在敷衍我们，然后我们就都不愿意听了。\n九十岁那年得了一场大病，医生都下病危通知了，他硬是挺了过来；后来因为他是战斗英雄，民政局发生活费，照顾他，给他买了一台大彩电（当时村里也没有几台），可那时他因为最近一次高烧耳朵也不好使了（之前那次大病眼睛一只失明，另一只也几近失明）；九十八岁那年他去世了，去世时只有他妹妹在，还有村里几个干部帮忙出殡\n直到现在我才明白他是经历了怎样的艰难，他这一辈子都没离开过那个战场，他生前常说的一句话就是，活着真好', '我也晒晒我爷爷的', '中国万岁！万岁！万万岁！', '2小时43分，是不是欧豪？', '吴京太牛了，在 战狼2开坦克在长津湖依旧开坦克', '死神来了，你们都将死在这里', '什么电影都不如这个。', '希望祖国能把他们都带回家！一个都不能少！#长津湖中谁的演技最触动你#', '怎么才8.9分 ，应该10分。#长津湖中谁的演技最触动你#', '易烊千玺好入戏', '理性评分，有些夸张了', '有谁是看了志愿军雄兵出击二刷长津湖的', '牛不牛逼啊？', '是不是要在我身边天了？你的图就是天太尴尬太', '跨过鸭绿江。从第九兵团开始入朝过来看的。', '伟人的伟大就是高瞻远瞩', '易烊千玺演技真的好', '这里的弹幕让我见识到了现在物种的多样性', '这脸长也被压下去了', '美国的老嚣张了']</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 卧鼠藏虫 </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>10140热度</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>卧鼠藏虫：霸道总裁沦为最惨打工人，他还能否揭开迷雾重掌豪门,电影简介:影片讲述了失散多年的双生兄弟在企业抢夺战的反向推动、血脉亲情的感召与国际大案的卷入之下跨国重逢，在身份对调被识破后，兄弟俩统一目标，并肩作战对抗幕后黑手，赶走阴霾重新开始美好生活的喜剧式励志故事。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['看完感动的稀里哗啦的', '我名字叫郭浩', '和崔志佳怎么差这么多', '哭的稀里哗啦的', '大东北真的是鸟大了，林子都装不下《东北警察故事》《这个杀手不太冷静》《猛虫过江》《卧鼠藏虫》《我不是酒神》《你好，老叔》《锤神》…………', '笑死我了', '这张很明显不是一个人', '个人觉得评分应该在8.2以上', '这是谁啊🤣', '中国电影', '从头看到尾，看到了文松的用心和认真，感动', '小米广告', '没经历过此事的人根本不懂，挺不错。', '支持一下，主要导演比较爷们', '拍的挺好，个人比较喜欢。', '好一句“虽然隔着海，但我们是一家人”', '看的我云里雾里的，还是那个告别天团好看', '2022.5.3号疫情期间在隔离 就喜欢截屏 喜欢你演的每部剧 好看 同意的赞起来 ', '这是今年看到的除东北告别天团第二部精彩的电影', '统计局投资。', '在平凡的岗位上致敬不凡，他们一生择一事，以匠心追求极致。这份用心，值得致敬！祝大家五一劳动节快乐！', '值得一看,非常精彩\n', '被人砸晕扔海里还能活，😂', '拿一个小学生跟大学生比较文化程度，这很不公平。文松是喜剧人，他想做点自己喜欢的事，是挑战是学习。已经很不错了，不出戏，不像小品。演员不用师兄弟，是怕观众觉得怎么看都像小品。之前中心也是反应出国务工的安保，也是一种正能量。东北告别天团也很好，那是情怀，这是小众的调调。都很喜欢，加油！', '剧情挺饱满，但是多少缺了点味道，不过比很多为了搞笑而搞笑用力过度的电影要好，没有过多笑点，却能一直保持观众轻松、向往和期待的情绪，比较清新的轻喜剧。演员的演技很好，而且很多表演细节还是很到位的，是一部比较完整的作品，值得看。', '这部电影可以影院上映啊拍的真好是真好\n', '97年我三岁', '为什么我看到的是志愿军的封面啊？不能瞎搞哦', '电影都不审核吗？什么片都可以', '蹲女朋友', '代乐乐？是代乐乐吗？', '我不是VIP，直接看了', '这也太感动了。', '我喝了5瓶啤酒看完这个高质量电影', '弹幕带色吗？', '没看懂这片电影', '这个电影好好看，绝了！', '这都不是事儿', '我是V几呀', '来包十句', '河南人处个对象', '留个言2023年11月 16日祝自己一切都好', '烂的出奇，剧情烂，打戏烂，表演烂', '拍的太好了，下次别拍了[笑哭N][笑哭N][笑哭N]', '97年抽相思鸟', '我是v几啊', '为啥排第一？', '以假乱真了', '什么玩意儿这是', '用的什么发胶发型都不会乱', '差点意思', '留个言2023年11月20日凌晨3:19分 希望自己越来越好顺风顺水前程似锦', '有哪些兄弟是看小视频过来的🤔', '背景音乐太吵了', '前几天在学校看的，然后没看完到家看  真的很好看', '难得看到文松正经的时候😃', '甘肃人处个对象', '为什么蓝利群才十六块', '评论区比影片好看[大哭][大哭][大哭]', '喜剧，凑合着看吧 打戏可以跳过', '张少辅我爱你！', '都不要会员 偷摸看去吧。还评价', '感觉剧情很下饭 根本想吃了饭看 结果看入迷了，太好看了', '爱德华的妹妹真人名叫啥啊', '没看，先哭', '想找个瑟瑟的男朋友', '虽然有一点点剽窃的嫌疑，但有自己的故事，也很感人[打call了]', '这个年轻人没救了', '标准的 小型黑中介！上车，留下证件！发走…\n可惜没 体现出来…', '真好看谢谢', '头不是头，尾不是尾', '这个电影好看吗？', '看完了，还不错哦', '穿帮了吧[狗头]', '有些人评价别人之前也不看看自己什么角色', '云南的来个女朋友吧.202312.7', '男，93，石家庄，找个对象', '泊头火柴呀', '我是老实人你们别匡我', '我又不是兽医', '还挺好看的', '留个言2023年11月 12日祝自己一切都好', '那年代有阿萨姆？', '有没有新疆的？', '太感动了！', '太搞笑了', '九七年用手机抽十元的烟应该也是大款了', '第一次哟，可以了，还不错，', '有点东西', '这不是爱情公寓那个胡建人嘛']</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 超能一家人 </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>VIP · 10109热度</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>开心麻花《超能一家人》热映中，曝马丽魏翔东北译制腔彩蛋,电影简介:郑前新开发的APP被狡猾又诚实的反派乞乞科夫盯上了。幸好郑前一家人意外获得了超能力，姐姐会飞天，爸爸能隐身，爷爷不死术，妹妹力大无穷。郑前本指望家人们出手帮忙，一家人却常常出糗帮倒忙，虽强但傻的“超能力一家人”将如何对抗乞乞科夫，一场超能力VS钞能力的大战一触即发……</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.7分</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['笑点很尬，没有什么内涵，亲情部分感觉也是强行升华', '已经看了不建议去看', '以为夏洛特烦恼是开心麻花的开始，没想到是巅峰[上头-上][上头-头][上头-上][上头-头]', '据说大年初一好像这个下架了\n、', '2022年贺岁片都不上映？', '又是艾伦当主角？不是我吹，肯定火不了，开心麻花凉了', '看简介介绍 这剧情电影好像在哪里见过', '拍摄取景地青岛市市南区瞿塘峡路与三门峡交叉口，剧组人员中午吃饭在我店里吃的。', '大年初一沈腾直接两部电影春节档？', '又是翻拍的啥电影', '在这么拍下去早晚凉凉  永远离不开以前的作品  笑点都一样  看多了就没意思了', '不是怎么好看', '一般我看喜剧，只看含腾量高不高…😁', '什么时候手机上就能看了', '最好看的是彩蛋', '被这部喜剧电影咬到了，新颖的故事情节让我眼前一亮，很有意思', '别跟我说像四海一样  含腾亮极低', '春节为什么撤档啊', '腾哥外语练了多久，说实话哈哈😄', '别想了己经撤档了。', '真的好看', '看到沈腾就想笑，必看\n', '啥时候上起码给个回应啊，吐了，一个交代都没有就突然销声匿迹了', '速度激情十上来就9.2.....国产5.2慢慢涨上来的，搞笑是搞笑他做主角不喜欢了', '当时不上映的原因是因为疫情影响的    上映没有上座率😀😀', '看沈腾的剧情看的挺过瘾的。开心麻花的电影看一次笑一次，感动一次', '缺个贾玲', '今年还能看到吗', '为什么没有马丽。。。。。不对啊', '什么时候上线啊', '腾格尔又对网络歌曲下嘴了,可怕', '抛弃喜剧的初衷，只是给人一个教育的电影，已经不叫喜剧了', '含腾量200%。双腾出没，🙈', '腾格尔唱这首歌，感觉鸡皮疙瘩都起来了', '没赶上电影院，主要也不知道啥时候上映的，这刷短视频也没推我啊，还是看到腾格尔翻唱合集，才想到超能电影，再一看评论……嗯……', '太喜欢沈腾了', '这片宣传得蛮早的嘛！', '完整版可以看了呀', '沈腾的角色还是很好看的', '以前记得看过一个外国的电影，也是一家人有超能力，去银行偷钱', '我以为是这个杀手不太冷看完也没看到扯裆镜头…', '改档期了', '2022年大年初一，提前了一年嘛？你们是过了年初一了？数学谁教的', '这蒸馏水咋一股草原味', '沈腾来咯啦咯', '难道今天不是大年初一', '神马玩意', '好家伙，这个点赞特效也太帅了', '里面还是有不少情节设计的很有趣，比如爷爷被电舞蹈，还有姐姐空中芭蕾（她最后打戏也运用了可惜设计的少。', '有笑点，有泪点', '如坐针毡，如芒在背，如鲠在喉，全片不如彩蛋好看', '演得很精彩[一起冲]', '谁敢和我斗图？', '2分，全给沈腾，其他的一文不值，没看到制作电影的诚意！场面还是不错的，立意也很好，有家人的地方就有超能力👍沈腾现在接喜剧少了看得我好想进去体验一把拥有超能力的感觉，哈哈开心麻花演技很赞挺好的童话故事就是很好看啊你想终有什么超能力呢？我喜欢这个妹妹的大力气沈腾好搞笑啊真的很好笑，喜欢这种童话风的喜剧片，，看完一整个大开心，这就是喜剧的魅力，力荐力荐！真的又一次惊艳到了我，沈腾的戏份再多一点更完美了，真的特别喜欢看沈腾太喜欢沈腾了别跟我说像四海一样  含腾亮极低沈腾来咯啦咯沈腾的角色还是很好看的电影中的套鞋简直太帅了，我真爱了，想问哪里买的，真的好想来一双。大年初一沈腾直接两部电影春节档？超能一家人 1:47:58', '开心麻花出品，必是精品', '打卡2023 12 23', '我觉得挺好看的啊 特效也可以', '还行，还是沈腾', '张楚岚爷爷重生了[666啊][666啊]', '一点也不搞笑，刻意搞笑就不好笑了', '很尴尬。。完全没有共鸣点，我反而比较喜欢两个反派，起码角色鲜明。这一家人无条件纵容主角，主角能丢下爷爷一走了之，即使明知道他离开爷爷就死了。在监狱就一回忆家人又来救他了。而且家人哪里是互相拖累了，这啥主题，家人明明是互相包容和成就。尤其那个小女孩，我真的很讨厌。我更喜欢波波洛娃，我是希望她能复仇成功的，主角拿着自己都站不住脚的道理去劝别人放下仇恨真的，可笑。当然了，也有笑点，但是不多，整体就是尴尬又无聊。', '编剧写包袱，全靠演员自己。剧情的发展煽情多于搞笑。全程吐槽没笑', '好好的喜剧片强行煽情，要搞笑就搞笑要看看以前是怎么拍的再看看现在', '真棒 和女朋友一起看的 好看爱看 我一般不评论的 我还现搜了怎么打评分 好好好 真棒', '说实话…..我觉得挺好看啊……很好笑啊', '杠杠的，很顶。演的好啊，真好看。不错，挺棒的，腾讯视频出品。开心麻花电影🎬超能一家人。【含艾伦】腾讯视频', '挺好看的，看的很开心😁😁😁', '沈腾就是搞笑的存在', '腾哥在上面太搞笑了', '天吼战斗民族吗', '我看弹幕一直看到结尾，看到有人说全局没笑一次没有任何笑点，我想说那还真是辛苦您嘞，没笑点你都能看完整部电影属实厉害👍🏻', '幼稚，情节简单无内涵。', '6.7分是因为啥  谁能直接跟我说说', '“郑前”     的字面意思是     “挣钱”', '超能一家人 1:17:36xsos😨😨😨😨😨😱😱', '真的特别特别好看，很喜欢这部电影！期待第二部', '斗地主赢了', '快乐加感动', '看着挺不错的', '为什么，我希望反派赢呢', '满分，能坑一个是一个', '说实话，如果不是有沈腾，这剧就废了…艾伦还是适合演搞笑角色，这部电影里他的感情戏好尬… 你说不好笑吧 还有几个点有点意思 你说好笑吧 也就那几个点而已… \n评分6.多真不是盖的… 已经算高评了😅', '挺好看的[一起冲]', '笑死人个人，看着笑着就没停过[一起冲][一起冲][一起冲][准奏]', '我感觉这个姐姐非常的好', '这是卖核弹的小女孩吧？(˵¯͒〰¯͒˵)', '我觉得挺好看的每个人的笑点不一样，不爱看的话你就别看了呗', '好喜欢！！！看中间真的好感动！！！', '好看剧情反转嘎嘎好看', '呢哥们脚臭']</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t xml:space="preserve"> 学爸 </t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>VIP · 10077热度</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>VIP · 10026热度</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>电影《学爸》片尾彩蛋,电影简介:雷大力为了让儿子雷小米能够拥有更高的人生起点，在单亲妈妈刘真真的带领下，被迫卷入了“幼升小”的激烈角逐。又在火哥和火嫂的影响下，不惜倾尽所有购入学区房，重重压力让父子二人的生活变得不堪一击。雷小米小姨的出现，又让雷大力领悟了“拼娃”的本质是“拼父母”……
 面对残酷的现实，父子的生活困境应该如何破局？几组家庭又将做出怎样的人生抉择？</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>8.7分</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>喜剧</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>['剧本不火，是触犯了很多人的利益', '学的是习，拼的是父母', '那些说外公来的时候就该让孩子跟着走的，真不知道怎么想的，如果可以，谁不愿意把孩子留在身边，孩子就是宁愿跟着你吃馒头也不愿意跟着别人吃肉的，孩子也感觉在你身边有安全感，就因为觉得肉比馒头好，就应该逼一个不喜欢吃肉的人去吃肉吗？', '一部我不是药神整改医疗，希望这部剧整改中国式教育。', '家长为了孩子的未来拼了老命，但孩子没有兴趣，不快乐，这个竞争激烈的社会真的很现实很残酷。', '我连这部电影都要免费了再看，掏钱买什么学区房，资本家就喜欢制造各种各样的焦虑，忽略孩子的快乐才是最大的教育失败，孩子平庸无所谓，平安就够了。', '我是一名老师，是一个民办贵族学校的老师，我看的时候真的深有体会。很多父母其实条件并没有那么好，但是还是拼尽全力把孩子送到这里来读书。其实有时候孩子并不适合这里的教学氛围，虽然聪明，但不开心，他们的成绩自然会越来越差。家长们就会很焦虑，觉得我们花这么多钱把你送到这里来读书，你还不认真，不好好学。然后就会更逼孩子，让孩子在学校也有压力回家了还要被父母逼。他们的身心疲惫，很痛苦。其实我觉得适合孩子的才是最好的。', '上学这么难，电瓶车只允许带一个小孩，国家为什么还提倡生二胎三胎，很矛盾吧', '￼我很喜欢黄渤，这个演员，很接地气。真实不做作，影片值得一看', '学区房贷款，物业费，高昂的 补课费，生生压垮了8090后', '所有人都在跑，我不敢停', '中国教育的可悲，如果是家长看到了这个电影，恐怕会直接评论来骂，中国式的教育是真的恐怖，你们只想着自己，却不想想自己的孩子，对，你为他好，这是对的，但是别人接受你的好吗？？你自己都没成功，为什么要逼迫别人呢？', '这部电影应该很有教育意义！值得看', '腾讯你是怎么觉得是喜剧电影的！！！！！！', '本来养娃就焦虑，看完更加不好了', '不能宠坏孩子，也不能把我们的想法强加到孩子身上，就这样挺好！', '￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '中国式教育就是这样 孩子从上幼儿园就开始学 各种作业 老是每天把作业发到手机里 家长成了孩子的老师 试问如果家长文化程度低 留守儿童 老人不会弄手机怎么教孩子 为了孩子能上好学校连夜排队 学区房 各种补课机构', '现实更残酷，电影最后还要找补点美好，从根本上想解决大环境，🉐有双宏观控制的手，如果不控就是越来越多人清醒的不结婚不生孩子。这是最悲哀的无声抵抗这充满套路压抑的生活', '中国式教育：你知道的他也知道，大家学习的都一样去补习班他也去补习班，父母一切说为了孩子，可没问孩子是不是他想要的，孩子帮父母考上了清华，孩子跳楼遗书里说：为你们考上清华了，太累了一直按照你们的为了你好，物质很好精神崩塌。\n中国式教育：教育社会及制造业需要的  听话的雇员，工作，消费，消费完，工作，消费，消费完，工作。 循环。\n你问他们长大了要干嘛？找份好工作  赚钱 消费  消费完  赚钱  消费  消费完  赚钱', '支持黄渤，不能错过！', '电影《学爸》的片尾有句话“你不一定满分，我一定爱你”。这句话表达了父母为了孩子可以不顾一切，但孩子不一定快乐', '让我看看，好不好笑', '￼￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '农村读书也不错', '很好！！！！强烈推荐', '黄渤演的我都爱看！喜欢！一定很好看～', '哇 ！终于熬到新电影免费了[666啊][666啊][666啊][666啊]', '现在还有学区房唛？', '黄渤主演的学爸，超级有看点', '四川 来了', '不能怨家长让孩子各种补习班，是社会出问题了，不学根本就什么都不懂跟不上', '看到16分23秒，看不进去了。不是电影不好，是自己不喜欢这种题材，且看起来太压抑剧情的片子。而且前面的镜头换来换去，晃来晃去。真的晕了。尤其是在黄渤被打流鼻血，和另一个店员聊天那一个片段的镜头切换，视觉感受非常不舒服。', '建议取消英语改成中医', '不是孩子的错，也不是父母的错，只是在这个社会我们都身不由己，致自己吧', '我已经研究生毕业了，可是我还是怪我爸妈当初没把我送到市里去学习，都已经30多岁了，还是怪他们，所以我送我孩子去市里学习了，我不想让她怪我，至少这点上，我不想我愧对她。[蹲]', '小时候开心了，后半辈子就难过了', '夫妻俩唱双簧呢', '广西了来看看', '现实比电影更残酷', '中国教育的失败，令人痛心，我是名学生，我深知中国教育的黑暗，若能用我的命换中国教育的光明，死也知足', '升华了    真的不敢要二胎   别说好的教育   就连普通的物质生活都是拼了命的去满足     真的希望国家能去重视教育医疗这一块儿的弊病    最后祝愿自己的祖国越来越好', '看完只配说呵呵~不知道从什么时候所谓的九年义务教育，已经变成了家长的焦虑，孩子的噩梦，就拿我家侄子来说，他上高二，没有童年，只有充斥在生活中的各种补习班，就这他还没有那么多的兴趣班，看着他的近视镜，还有头上的白发，好心疼，他还是个孩子，大学，高等教育，什么时候变成吃人的魔窟了，选个专业都给请人来分析，不知道应该说是社会的悲哀，还是教育的失败，所谓的双减，所谓的分流，只不过是让普通人认清自己的阶层，承认自己的平庸，可即使是这样，我们的父母也在尽自己最大的力量给我们最好的，当然，如果可以忽略职场的阶级性，职场的无形霸凌！', '电影在呈现教育焦虑问题的同时，也以幽默的方式点亮了剧情。导演巧妙地运用川渝方言和和谐的幽默，让笑点与泪点交织在一起。黄渤饰演的爸爸在带娃过程中的种种奇葩经历，总是能够触发观众的共鸣，同时也传达出关爱孩子、包容孩子的情感。[送爱心]', '影后观感，平庸的父母，接受不了孩子像他们一样平庸', '领导问题', '拍的真的好', '挺好看的，可能接近现实吧，不过我是在农村长大的挺好的，没体会过😂😂', '8090后疯狂的玩，也没耽误扛起国家的重任，为什么要让现在的孩子这么累，孩子快乐比什么都重要！', '不觉得好笑，中间好几段很让人生气，结局是好的，但是又感觉不真实', '这电影告诉我们别生孩子，不能让资本得逞', '看完电影，默默把对象删了，不祸害姑娘了，以后不会拖累儿女', '学区房，兴趣班，，，你们品，细细品！以前不是种个地都能把孩子送进清华北大的吗，那个年代的教育相对来说多纯粹。现在的教育模式培养的都是个啥？我就问问你们有些家长，你们家孩子在这个当下，学习效率如何？孩子有没有厌学症？孩子视力怎样？最后，家庭和谐指数怎样？统统乱七八糟！', '以单亲爸爸为小升初儿子找重点小学为切入点，通过讲述单亲爸爸凑钱买“学区房”、为上“户口”临时结婚组家庭、给孩子报特长班、练习孩子英文口语等各种方式方法，现实的批判了当前小孩子的升学压力以及当代普通父母为小孩升学的压力窘境。家长的反思，孩子的努力，双方共同成长并拒绝内卷追求童心。电影取自现实，升华现实，有笑点有泪点，展现现实生活无奈的同时，突出每一位父母对儿女的迫切愿望。片尾针对学区房、特长班等学业压力的法律法规指导办法，是电影的亮点，我想也是电影传达的教育意义。最好的并不一定是最适合的，是金子在哪里都会发光，共勉。彩蛋里，教育资源对农村郊区学校的倾斜使得家长留下来，孩子还保持童真与快乐的学习，有时候教育资源的均等化是改善升学教育难题的关键。', '很贴近现实，电影拍得也很不错', '27了  不结婚不生娃   3个女朋友     我搞不懂你们   结婚生娃的意义在哪', '现在的社会真的就是这样，父母希望孩子起点高把所有的希望寄托在孩子身上，但是对于孩子来说每一步更需要他们自己脚踏实地走，父母在旁边提点即可！让孩子们也享受自己当下的人生吧！[一起冲]', '现在还有想结婚生孩子的吗，房贷车贷，补习，还有很多补习班，孩子累，家长更累，', '新川外国语学校', '好看，受益', '我不想给我儿子报补习班，只要完成课堂作业就行了，不想逼他，不想让孩子压力太大，现在好多孩子抑郁的，太可怕了', '勿忘国耻爱我中华致敬英雄', '看完电影后就觉得，中国式父母，真的好卷啊，为了孩子，太感慨了，最后上国际学校那段，隔着屏幕都觉得，现实好残酷啊，没有能力就只能释怀，顺其自然放过孩子也放过自己\n', '很多年前我就承诺过，我绝不会在中国这样的国家生孩子。', '自己当爸爸了，才知道小孩多难教，两个儿子都我在教，每天都气个半死。太难了，没有那个经济去攀比，过好自己就行了，成不成才无所谓，长大别学歪了我就满足知足了。', '我是一个三岁孩子的妈妈，自从生了孩子，现在生活过的也不好，身体也不好。生孩子不是简单的事，真的很难很苦。', '会泽陪一条[666啊]', '广东韶关的有没有', '还可以哈，不错哈', '为什么为了上某一个学校而去买房，还是因为国家教育资源分别配不均，现在上学很简单乡镇也可以，但为什么不去呢？资源不同教育水平不同', '中国教育问题已经很严重了', '很棒的电影！\n        我是一个初中孩子的妈妈，为了孩子我和孩子爸爸付出一切，就为换来一个所谓的乖孩子、好孩子、成绩拔尖的孩子，但是孩子给我的是什么？沉浸在手机中不可自拔，害怕去学校、不想上学。我自问我对孩子不好吗？但是一路走来的艰辛让我明白了一个道理：“不是我对他不好，而是扭曲的爱让孩子感到压抑、与束缚。我忘记了孩子的人生需要他自己去一步一个脚印的走出来的。”小米说的对——谁说只有鲤鱼跳龙门，土泥鳅也能坚韧不拔的打洞钻龙门。\n       此时的我只想给有同样感概的父母说一句——他若优秀，便报效祖国；他若平凡，便承欢膝下！孩子的心理健康、身体健康才是最重要的，成人才可成材！\n       感谢《学爸》让我悟了很多，懂了很多。终于我坚定的迈出了第一步，让他选择自己喜欢的学校。与《学爸》同款，非常棒的学校！\n        奔跑吧！少年，无论前路漫漫，我和爸爸都将是你永远的依靠……', '一部药神、一部学爸，道出百姓医疗、教育的辛酸与无奈……', '很好看，很现实。我现在还没结婚呢，今晚跟我对象聊以后，他也提到了买学区房，然后我点进腾讯就看到了这个。哎，没结婚压力大，结了婚压力也大，现在的小娃儿也压力大，上不完的补习班，写不完的作业。', '好看好看，真的太有寓意了，值得看！！！', '填补了现实里没有的', '老百姓的思想就是天真，会几句鸟语就能上天？不在城市生活根本不懂城市的险恶', '演的不错，一步一个坑，坑完还没用[斜眼]', '也不觉得好笑是不是演错了', '真受不了这川普', '被资本绑架的国家，注定没有出路', '我家的我就是散养，没有任何辅导班，看他爱好。学习也一般。但是他快乐就好.\n', '看了半天是想叫没有能力给孩子提供好条件的家长躺平呗！告诉普通人不要和命挣，顺其自然。为什么老要叫老百姓改变呢？社会制度不能为了老百姓改变吗？教育资源不能向老百姓倾斜吗？', '中国多少领域都受外国人控制 我们还不反思自己吗？外国人创办的学校那么好？', '现实  力推', '认不清自己的实力，老丈人的话也不听，一直白忙活，结局也挺扯谈。国际双语贵族学校会因为父慈子孝而让你通过？教育也是阶级固化的一种体现，普通人也别妄想通过好的学校来鱼跃龙门，可以追求好学校，但别太i离谱，普通的学校总得有人去上，平凡的生活总得有人去过', '在我没看电影前 其他平台对这部电影的评价都不算好 但是在我看了电影之后 所接收到的情感表达 故事的叙述都很好 已经可以排在靠前的位置了 唯一不足的一点 那也是我在挑刺了因为需要演这样一部电影小主人公已经很不错了 非常好的电影推荐[握草][握草]', '我终于等到了', '社会缺乏公平\n从娃娃已经开始了。', '现在的小朋友压力真大，为什么会变成这样子？\n教育改革迫在眉睫。']</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['剧本不火，是触犯了很多人的利益', '学的是习，拼的是父母', '我们都要学会接受自己的平凡与不平凡，因为那才是生活。', '一部我不是药神整改医疗，希望这部剧整改中国式教育。', '我连这部电影都要免费了再看，掏钱买什么学区房，资本家就喜欢制造各种各样的焦虑，忽略孩子的快乐才是最大的教育失败，孩子平庸无所谓，平安就够了。', '我是一名老师，是一个民办贵族学校的老师，我看的时候真的深有体会。很多父母其实条件并没有那么好，但是还是拼尽全力把孩子送到这里来读书。其实有时候孩子并不适合这里的教学氛围，虽然聪明，但不开心，他们的成绩自然会越来越差。家长们就会很焦虑，觉得我们花这么多钱把你送到这里来读书，你还不认真，不好好学。然后就会更逼孩子，让孩子在学校也有压力回家了还要被父母逼。他们的身心疲惫，很痛苦。其实我觉得适合孩子的才是最好的。', '上学这么难，电瓶车只允许带一个小孩，国家为什么还提倡生二胎三胎，很矛盾吧', '￼我很喜欢黄渤，这个演员，很接地气。真实不做作，影片值得一看', '学区房贷款，物业费，高昂的 补课费，生生压垮了8090后', '不能宠坏孩子，也不能把我们的想法强加到孩子身上，就这样挺好！', '所有人都在跑，我不敢停', '中国教育的可悲，如果是家长看到了这个电影，恐怕会直接评论来骂，中国式的教育是真的恐怖，你们只想着自己，却不想想自己的孩子，对，你为他好，这是对的，但是别人接受你的好吗？？你自己都没成功，为什么要逼迫别人呢？', '那些说外公来的时候就该让孩子跟着走的，真不知道怎么想的，如果可以，谁不愿意把孩子留在身边，孩子就是宁愿跟着你吃馒头也不愿意跟着别人吃肉的，孩子也感觉在你身边有安全感，就因为觉得肉比馒头好，就应该逼一个不喜欢吃肉的人去吃肉吗？', '这部电影应该很有教育意义！值得看', '家长为了孩子的未来拼了老命，但孩子没有兴趣，不快乐，这个竞争激烈的社会真的很现实很残酷。', '腾讯你是怎么觉得是喜剧电影的！！！！！！', '本来养娃就焦虑，看完更加不好了', '￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '中国式教育就是这样 孩子从上幼儿园就开始学 各种作业 老是每天把作业发到手机里 家长成了孩子的老师 试问如果家长文化程度低 留守儿童 老人不会弄手机怎么教孩子 为了孩子能上好学校连夜排队 学区房 各种补课机构', '中国式教育：你知道的他也知道，大家学习的都一样去补习班他也去补习班，父母一切说为了孩子，可没问孩子是不是他想要的，孩子帮父母考上了清华，孩子跳楼遗书里说：为你们考上清华了，太累了一直按照你们的为了你好，物质很好精神崩塌。\n中国式教育：教育社会及制造业需要的  听话的雇员，工作，消费，消费完，工作，消费，消费完，工作。 循环。\n你问他们长大了要干嘛？找份好工作  赚钱 消费  消费完  赚钱  消费  消费完  赚钱', '我花80万给小儿子买个学区房，现在天天班级倒数', '现实更残酷，电影最后还要找补点美好，从根本上想解决大环境，🉐有双宏观控制的手，如果不控就是越来越多人清醒的不结婚不生孩子。这是最悲哀的无声抵抗这充满套路压抑的生活', '支持黄渤，不能错过！', '电影《学爸》的片尾有句话“你不一定满分，我一定爱你”。这句话表达了父母为了孩子可以不顾一切，但孩子不一定快乐', '让我看看，好不好笑', '￼￼《学爸》是一部贴近现实但又笑中带泪的电影，值得一看。', '农村读书也不错', '很好！！！！强烈推荐', '黄渤演的我都爱看！喜欢！一定很好看～', '现在还有学区房唛？', '哇 ！终于熬到新电影免费了[666啊][666啊][666啊][666啊]', '其实父母都是为了孩子 谁不想自己的孩子好', '黄渤主演的学爸，超级有看点', '四川 来了', '不能怨家长让孩子各种补习班，是社会出问题了，不学根本就什么都不懂跟不上', '看到16分23秒，看不进去了。不是电影不好，是自己不喜欢这种题材，且看起来太压抑剧情的片子。而且前面的镜头换来换去，晃来晃去。真的晕了。尤其是在黄渤被打流鼻血，和另一个店员聊天那一个片段的镜头切换，视觉感受非常不舒服。', '上帝给我一个任务\n叫我牵一只蜗牛去散步。\n我不能走太快，蜗牛已经尽力爬，\n为何每次总是那么一点点？\n我催它，我唬它，我责备它。\n蜗牛用抱歉的眼光看着我，\n彷佛说：“人家已经尽力了嘛！”\n我拉它，我扯它，甚至想踢它。\n蜗牛受了伤，它流着汗，\n喘着气，往前爬…\n真奇怪，\n为什么上帝叫我牵一只蜗牛去散步？\n“上帝啊！为什么？”\n天上一片安静。\n“唉！也许上帝抓蜗牛去了！”\n好吧！松手了！\n反正上帝不管了，我还管什么？\n让蜗牛往前爬，我在后面生闷气。\n咦？我闻到花香，\n原来这边还有个花园，\n我感到微风，\n原来夜里的微风这么温柔。\n慢着！\n我听到鸟叫，我听到虫鸣。\n我看到满天的星斗多亮丽！\n咦？我以前怎么没有这般细腻的体会？\n我忽然想起来了，莫非我错了？\n是上帝叫一只蜗牛牵我去散步。', '我已经研究生毕业了，可是我还是怪我爸妈当初没把我送到市里去学习，都已经30多岁了，还是怪他们，所以我送我孩子去市里学习了，我不想让她怪我，至少这点上，我不想我愧对她。[蹲]', '小时候开心了，后半辈子就难过了', '夫妻俩唱双簧呢', '建议取消英语改成中医', '中国教育的失败，令人痛心，我是名学生，我深知中国教育的黑暗，若能用我的命换中国教育的光明，死也知足', '看完只配说呵呵~不知道从什么时候所谓的九年义务教育，已经变成了家长的焦虑，孩子的噩梦，就拿我家侄子来说，他上高二，没有童年，只有充斥在生活中的各种补习班，就这他还没有那么多的兴趣班，看着他的近视镜，还有头上的白发，好心疼，他还是个孩子，大学，高等教育，什么时候变成吃人的魔窟了，选个专业都给请人来分析，不知道应该说是社会的悲哀，还是教育的失败，所谓的双减，所谓的分流，只不过是让普通人认清自己的阶层，承认自己的平庸，可即使是这样，我们的父母也在尽自己最大的力量给我们最好的，当然，如果可以忽略职场的阶级性，职场的无形霸凌！', '不是孩子的错，也不是父母的错，只是在这个社会我们都身不由己，致自己吧', '电影在呈现教育焦虑问题的同时，也以幽默的方式点亮了剧情。导演巧妙地运用川渝方言和和谐的幽默，让笑点与泪点交织在一起。黄渤饰演的爸爸在带娃过程中的种种奇葩经历，总是能够触发观众的共鸣，同时也传达出关爱孩子、包容孩子的情感。[送爱心]', '影后观感，平庸的父母，接受不了孩子像他们一样平庸', '广西了来看看', '现实比电影更残酷', '领导问题', '拍的真的好', '升华了    真的不敢要二胎   别说好的教育   就连普通的物质生活都是拼了命的去满足     真的希望国家能去重视教育医疗这一块儿的弊病    最后祝愿自己的祖国越来越好', '看完电影，默默把对象删了，不祸害姑娘了，以后不会拖累儿女', '学区房，兴趣班，，，你们品，细细品！以前不是种个地都能把孩子送进清华北大的吗，那个年代的教育相对来说多纯粹。现在的教育模式培养的都是个啥？我就问问你们有些家长，你们家孩子在这个当下，学习效率如何？孩子有没有厌学症？孩子视力怎样？最后，家庭和谐指数怎样？统统乱七八糟！', '以单亲爸爸为小升初儿子找重点小学为切入点，通过讲述单亲爸爸凑钱买“学区房”、为上“户口”临时结婚组家庭、给孩子报特长班、练习孩子英文口语等各种方式方法，现实的批判了当前小孩子的升学压力以及当代普通父母为小孩升学的压力窘境。家长的反思，孩子的努力，双方共同成长并拒绝内卷追求童心。电影取自现实，升华现实，有笑点有泪点，展现现实生活无奈的同时，突出每一位父母对儿女的迫切愿望。片尾针对学区房、特长班等学业压力的法律法规指导办法，是电影的亮点，我想也是电影传达的教育意义。最好的并不一定是最适合的，是金子在哪里都会发光，共勉。彩蛋里，教育资源对农村郊区学校的倾斜使得家长留下来，孩子还保持童真与快乐的学习，有时候教育资源的均等化是改善升学教育难题的关键。', '挺好看的，可能接近现实吧，不过我是在农村长大的挺好的，没体会过😂😂', '8090后疯狂的玩，也没耽误扛起国家的重任，为什么要让现在的孩子这么累，孩子快乐比什么都重要！', '不觉得好笑，中间好几段很让人生气，结局是好的，但是又感觉不真实', '很贴近现实，电影拍得也很不错', '27了  不结婚不生娃   3个女朋友     我搞不懂你们   结婚生娃的意义在哪', '现在的社会真的就是这样，父母希望孩子起点高把所有的希望寄托在孩子身上，但是对于孩子来说每一步更需要他们自己脚踏实地走，父母在旁边提点即可！让孩子们也享受自己当下的人生吧！[一起冲]', '我不想给我儿子报补习班，只要完成课堂作业就行了，不想逼他，不想让孩子压力太大，现在好多孩子抑郁的，太可怕了', '一部药神、一部学爸，道出百姓医疗、教育的辛酸与无奈……', '很多年前我就承诺过，我绝不会在中国这样的国家生孩子。', '自己当爸爸了，才知道小孩多难教，两个儿子都我在教，每天都气个半死。太难了，没有那个经济去攀比，过好自己就行了，成不成才无所谓，长大别学歪了我就满足知足了。', '现在还有想结婚生孩子的吗，房贷车贷，补习，还有很多补习班，孩子累，家长更累，', '新川外国语学校', '河南南阳的来报道', '好看，受益', '我是一个三岁孩子的妈妈，自从生了孩子，现在生活过的也不好，身体也不好。生孩子不是简单的事，真的很难很苦。', '广东韶关的有没有', '勿忘国耻爱我中华致敬英雄', '被资本绑架的国家，注定没有出路', '看了半天是想叫没有能力给孩子提供好条件的家长躺平呗！告诉普通人不要和命挣，顺其自然。为什么老要叫老百姓改变呢？社会制度不能为了老百姓改变吗？教育资源不能向老百姓倾斜吗？', '看完电影后就觉得，中国式父母，真的好卷啊，为了孩子，太感慨了，最后上国际学校那段，隔着屏幕都觉得，现实好残酷啊，没有能力就只能释怀，顺其自然放过孩子也放过自己\n', '很好看，很现实。我现在还没结婚呢，今晚跟我对象聊以后，他也提到了买学区房，然后我点进腾讯就看到了这个。哎，没结婚压力大，结了婚压力也大，现在的小娃儿也压力大，上不完的补习班，写不完的作业。', '还可以哈，不错哈', '为什么为了上某一个学校而去买房，还是因为国家教育资源分别配不均，现在上学很简单乡镇也可以，但为什么不去呢？资源不同教育水平不同', '我以为你睡了', '好看好看，真的太有寓意了，值得看！！！', '填补了现实里没有的', '中国教育问题已经很严重了', '我家的我就是散养，没有任何辅导班，看他爱好。学习也一般。但是他快乐就好.\n', '中国的教育真的要改革了，孩子累，家长累，老师也累。', '挺好，总结：没有权没有钱没有厉害的亲人，别结婚有了孩子也只是受苦，我说的是我自己，不是你们。', '老百姓的思想就是天真，会几句鸟语就能上天？不在城市生活根本不懂城市的险恶', '演的不错，一步一个坑，坑完还没用[斜眼]', '也不觉得好笑是不是演错了', '真受不了这川普', '现实  力推', '在我没看电影前 其他平台对这部电影的评价都不算好 但是在我看了电影之后 所接收到的情感表达 故事的叙述都很好 已经可以排在靠前的位置了 唯一不足的一点 那也是我在挑刺了因为需要演这样一部电影小主人公已经很不错了 非常好的电影推荐[握草][握草]']</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 哪吒之魔童降世 </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VIP · 10037热度</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>《哪吒》哪吒敖丙仙魔互助逆天改命，成就今夏最强CP,电影简介:天地灵气孕育出一颗能量巨大的混元珠，元始天尊将混元珠提炼成灵珠和魔丸，灵珠投胎为人，助周伐纣时可堪大用；而魔丸则会诞出魔王，为祸人间。元始天尊启动了天劫咒语，3年后天雷将会降临，摧毁魔丸。太乙受命将灵珠托生于陈塘关李靖家的儿子哪吒身上。然而阴差阳错，灵珠和魔丸竟然被掉包。本应是灵珠英雄的哪吒却成了混世大魔王。调皮捣蛋顽劣不堪的哪吒却徒有一颗做英雄的心。然而面对众人对魔丸的误解和即将来临的天雷的降临，哪吒是否命中注定会立地成魔？他将何去何从？</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3分</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['藕饼这个样子真搞笑😄😄', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈哈😂？不好意思你说了一句对不起🧎\u200d♂️！你说他喜欢的人会觉得我真的不愿意辅导他自己辅导小孩很多的作业不是作业不是滋味！不好意思也不能再联系你', '2022年，重温，还有人嘛', '看得我哭了呜呜😭', '哪吒小时候好可爱。', '又看了一下，妈的又不争气，又哭了。', '最伟大的动漫，没有之一，这部电影里真的有反派吗？申公豹算是反派吗？他为了证明自己的能力有错吗？敖丙有错吗？龙族有错吗？魔丸呢？非常有深度的动漫，内涵却不输星爷的电影，估计也是动漫巅峰了', '开的车吗？嫂子啊🙀🙀🙀🙀🙀🙀🙀🙀🙀啊啊啊啊啊啊啊啊啊啊啊啊啊我的错我的错', '好多桥段都是向周星驰致敬的啊', '这是敖丙小时候😘。', '看了半个小时 哪吒娘谁配的一塌糊涂她非要和哪吒配出姐妹的感觉才开心', '救命，哪吒好师！', '希望看到第二部', '不同的风格', '人心中的成见是一座大山，任凭你怎么努力都改变不了\n我一个魔丸活的都比你有个人样，你一个灵珠转世可以活的再怂些吗？', '这几张图挺好', '😮😮😮😮😲😲😲😲哪吒小时候可爱', '若命运不公，便和它斗下去！《哪吒之魔童降世》真是一部让人看了又哭又笑的电影，里面实在是有太多发人深省的台词了，来说说最让你印象深刻的是哪句台词？鹅叔想到的是我命由我不由天！', '元始天尊出关后，听说哪吒的事很感动，教了太乙一招，利用莲儿恢复哪吒真身，龙王为了救敖丙，用自身的龙丹换了敖丙一命。龙王死后。龙王小公主为了复仇，又和申公豹一起，把天牢里的怪兽放出来了，让他们去杀死陈塘关百姓，还有李靖和哪吒。龙王小公主抓了李靖夫妇要挟哪吒，哪吒要去赴死换回父母时，被敖丙偷偷将人放了，龙族将敖丙锁了起来准备邢死，哪吒知道消息，只身赴龙宫打算换敖丙一命，但是被申公豹用计谋抓住。为了救哪吒，太子真人与李靖夫妇也赶到了龙宫，将与申公豹和龙族怪兽开展一场殊死搏斗？最后如何，，，哪吒三会有预告！！！', '怎么感觉每一次看都不一样，第一次时感觉是申公豹错了！他偷灵珠，害的哪吒背黑锅！可是这次感觉不一样了！（灵珠或魔珠赋予的那一刻，有谁问过他？为了哪吒，给哪吒积德行善，有谁在乎他？哪吒最后两年光阴就应该被囚禁于山河图内？打退妖怪，村民不理解打骂，他父亲看出来了却不说出来，不为他辩解？）这些真的挺心寒的！从最开始魔丸降临的时候，魔气入体的不能自己，到孤身一人无玩伴所有人躲着他，再到别人大骂妖怪，再到囚禁，再到雷劫也是够阴暗的了！', '2022.4.8号还有人看吗，虽然看了七八遍，但还是看一次感动一次，好片。', '我之前就想一个问题，太乙真人是真傻还是假傻，要是假傻，太乙都算到了，从灵珠抢夺到最后，眼看事情有变，就为了就哪吒敖丙而被天雷费去修为拼命护住，那太乙的心机可就有点深啊！\n（当然这是我假如的一种可能，仅供参考，不喜勿喷，谢谢）', '二零二一年十月十三日没有比我更晚的吧', '因为你，又来重温一遍。不认命是哪吒的命，也是你的选择。那就一起加油！✊✊✊', '一个认真修炼，一个玩，一个状态全开，一个没有完全开，还有神甲，还打不赢笑了', '2022.1.7还有人看吗？', '2023年12月18号会员打卡', '有人去看隔壁那部哪吒2重生了吗……简直一言难尽😥', '牛牛牛⺧生牛牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼牛逼', '灵魂是你打我撒，你打我撒', '国产动画电影的巅峰  没有之一', '隔壁的哪咤，像木偶戏，皮影戏。根本没眼看。火了一个魔童降世，各种蹭ip的都出来了，', '好看的电影，后面很感动。我命由我不由天！', '太好看了吧！刚刚又刷了一遍，超级感动！，真好看要是有第二部就好了', '2022/4/16\n22：20打卡', '我仿佛看见了我们小时候的两个莲花灯。', '哈哈哈哈哈哈哈哈重刷', '你们有没有忘记一件事他才三岁', '阿姨裤子鞋子休闲鞋韩版考虑考虑问题吧', '太好看了 快来看看看！！！', '2023年来重温的看这里', '满分满分', '还是喜欢😍', '没意思，这就没了。', 'q\u2006q\u2006a\u2006s', '别的电影结局都是好的，这个是坏的。', '正所谓不要在意别人的眼光，做你自己就好不管是魔还是仙，只要你做的是好事，不要在意别人的眼光，你就是好的你就是好人有的是好人，表面是好人，但是做坏事他就是坏人有的坏人长相凶神恶煞，但他内心是善良的，那就是好人是魔是仙只在一念之间哪吒，你虽然是魔丸但是你为了阻止敖丙选择拯救大家，那你就是英雄是好的是魔怎么了只要你做好事，那你就是英雄，就是好人不要在意别人的眼光做你自己就好😊😊😊😊😊😊', '来回顾的，又哭又笑了一遍', '笑死，人了，东西都行了', '李靖成功洗白，“他是我儿”四字一出，热泪盈眶', '国漫顶级', '我是小妖怪， 逍遥又自在， 杀人不眨眼，吃人不放盐 ，一口七八个， 肚子要撑破， 茅房去拉屎， 想起忘带纸 。', '2022年1月12日星期三凌晨07分，五刷😃 #哪吒#', '第二部是姜子牙吗', '托儿，他不是坏蛋，他是个守护世界的好人', '国漫的天花板的确不错   值得一看', '如果你们看过周星驰的电影 你们就会发现 有很多台词 都是致敬周星驰 ', '期待第二', '加了啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊', '你打我撒，你打我撒。', '国产动漫巅峰了吧', '在2019年的《哪吒之魔童降世》，刚放出预告片时，片子被网友骂疯了。烟熏妆、鲨鱼牙、又丧又拽。张口就是「杀人不眨眼，吃人不放盐」。妥妥的「毁童年」系列。谁能想到就这么一个「丧王之王」，在2019票房居然吊打了《复仇者联盟4》。要知道，这部可是漫威十年收官之作啊！打败它的国产动画，谁敢不服。颠覆形象，是哪吒之所以爆火的重要原因。角色全是大家熟悉的人，事件也大差不差。可喊着「我命由我不由天」的的哪吒，和将爱藏在严厉外表下的李靖。加上敖丙和哪吒双雄对垒的设定。它用旧故事的壳，套入了当下观众的情感需求。另一方面，电影爆火也印证了传统文化的力量。与《大圣归来》类似的民族认同感，在它身上也得以印证。观众对「国产动画」崛起的心，反复被撩动。每逢爆款出现，总会引发集体狂欢。遗憾的是，「封神宇宙」只成就了哪吒。后续无论是杨戬，还是姜子牙，都难扛大旗。《哪吒2》呢？让我们拭目以待吧！', '完美。。。就目前（国内）最好动漫电影没有之一', '#迪丽热巴拍摄安乐传#加油', '真的好好看，我看了两次，还留着以后还会看，太好看了', '这才是正版', '敖丙真的很可怜，所以说人就不能心软，就因为他不是人类救了人也要除掉他', '🥰中坛元帅最帅了', '好喜欢哪吒他妈🌚贼豪迈，我真的爱死了！', '我和我妹妹看了100遍[笑死我了]', '大胖子太坏了', '我第一次看哪扎', '每次看，都豆笑我，哈哈哈😄', '这么高的分，如果是我审核这电影一定不让他通过，如果童年都是这样的童年怎么可能反转，对就是对错就是错，不是做了错的事，在做对的事就能功过共算。错必罚，功必赏，赏罚分明。不以小恶而为之。不以小善而不为。', '哪吒：天气冷了，给你们暖和暖和[撒花N][撒花N][撒花N]', '二三年十二月十二日重温[准奏]', '当我看完10万个冷笑话再来看这个，我操，居然过了那么久了', '我想玩这手上的胖子的那一个什么东西', '那个是肾公公还是申公豹？', '欧冰之年怎么过了呢？', '故事告诉我们没有开始就是坏人，或好人只说，只要做好自己就可以，哪怕你是杀人犯的后代，也不能因为上一代打上这样的标签，哪怕上一代是个善人，你是杀人犯，不要给上一辈也带上标签，这不知道看第几遍了，看懂了', '这就是中国人的天性，信命但不认命。命由天定运有己造。如果天命难违，那老子就他妈的逆天改命。', '骚气的太乙', '我一天之内看了三遍', '我请问这一年怎么过这么快？', '还可以特别', '老头没眼珠', '哪咤根本就没有错，为什么呢？', '应该看了三遍了，很好看', '觉得写的非常好']</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 满江红 </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>VIP · 10040热度</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>《满江红》上线，实力派演员大集结！,电影简介:南宋绍兴年间，岳飞死后四年，秦桧率兵与金国会谈。会谈前夜，金国使者死在宰相驻地，所携密信也不翼而飞。一个小兵与亲兵营副统领机缘巧合被裹挟进这巨大阴谋之中，宰相秦桧命两人限一个时辰之内找到凶手，而事情却远没有这么简单……
+伴随危机四伏的深入调查，案件的背后似乎隐藏着一场更大的阴谋。局中有局、人外有人，人心叵测、生死难料，一夜之间风云变幻，各方势力暗流涌动……</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.7分</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['俩个字，一般，可看可不看的那种', '怪不得被骂那么惨，是嫉妒啊，真的拍的很好，每人演技都在线[满江红张大][满江红张大][满江红张大][满江红张大]', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐，牵强的笑点。最后合唱诗词打着精忠报国的旗号', '有些没有血性，不了解历史的人。张嘴就说这电影不行，贻笑大方罢了', '可能会让你们失望了', '看完了，非常好看，近几年难得的好看电影，喜剧＋悬疑而且反转太多了，不看到最后你都不知道每个人是怎么回事，很棒', '拍得什么这玩意，强行消费岳飞的感觉。难怪春节档被人说用手段玩阴兵场，不然连球2的尾灯都看不见\n', '电影不错 就是只有六分钟 导演下次拍长点', '怒发冲冠 凭阑处 潇潇雨歇', '4.28满江红全网上线，一腔热血一生忠义，再入宰相府看风云涌动，探人心叵测，共破迷局~', '最让我震撼的是每个人都有一份属于自己的温柔，何力手下无活人，可是最后桃丫头活下来了', '就这玩意儿，票房怎么起来的', '昨天看了，很一般吧', '一颗太子屎，坏了一锅汤', '看完觉得之前网络上的那些喷子都是些没家国情怀的人。人不管在什么朝代，什么阶层，什么职位，都有迫不得已的苦衷。但是爱国是底薪。我们要继承岳飞的爱国情怀，把满江红深深地刻在DNA里！', '一开始看这演员阵容以为是部喜剧，看到一半想为自己的草率道歉，看完含泪点赞', '从头到尾就一个场景院子里走来走去，没有逻辑的台词，突兀的背景音乐', '流浪地球的失败是必然的。我去电影院看流浪地球，电影院售票人员给我调满江红界面，我说他是不是搞错了，他说都一样，然后然后用管理员账号把票价调成和流浪地球一样的58，上面显示我买了满江红的票，最后去别的厅看了流浪地球\n——转自其他网友\u200b', '历史上的《满江红》都没有证实是岳飞写的，岳飞写的是《满江红，登黄鹤楼有感》。而且岳飞的死主要是赵构和金人谈判求和的一个条件。秦桧是千古奸臣，但不是在岳飞的事是体现。秦桧只是赵构杀岳飞的一个名正言顺的借口', '看完了反转特别大，有些画面可能不适合太小的孩子', '昨天去看了，搞笑片，全程没笑点最后我朋友大咕噜给大伙整乐了[狗头][狗头]', '谢谢你满江红，治好了我的失眠症', '真的绝绝子！在电影院看完了，很是震撼！！反转很多，后劲超大。从电影院出来的时候我都要哭死了！一句话，满江红值得！', '这个阵容谁看了不迷糊[憨笑]', '满江红，怒发冲冠，凭栏处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲，白了少年头，空悲切！靖康耻，犹未雪。臣子恨，何时灭！驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。', '不愧是大盗演，这部电影凭什么在春节档拿票房No1，真见识到上通天（官）下通地（资本）是什么样的了', '好看，反转总是出乎意料，演员演技都炸裂，特别是最后全军复诵满江红特别感人震撼。', '真的，笑点高一点点的都笑不出来，玩的大多是尬笑，玩梗，跟个剧本杀一样。虽说剧情紧凑，且以岳飞被害为背景，提现爱国情怀，也足够反转。但场景的单一，以及人物查案时的事件不够震撼，加上悬疑带点尬笑的影设，导致剧情显得稍有沉闷。人物进行场景转移的时候都会有戏腔音乐点缀，让人稍微精神，但还是难改沉闷。十分我评6.5分吧，稍有失望😞', '[打卡-打][打卡-卡]满江红，全片看完就是感觉是一个自喻聪明的人设计剧情，以为不断反转就是悬疑跌宕起伏，但看完后就是耍猴戏。片中走了好多次巷子放了多次音乐轰炸，新春档上来就杀杀杀，走一次巷子杀一次。片尾有洗白秦跪的台词，杀了那么多人，结局强行降智反派秦跪，逼背诵满江红，强行剧情杀，杀了后又直接反转，被杀的是替身，真身直接现身，啥护卫都没有。然后要杀真身又反转，说搞了那么多就为背首诗强行烂尾！十足烂片 \u200b[气到变形][气到变形][气到变形][气到变形][气到变形]', '大年初一，相约满江红', '资本的力量这么强大，看看选角都是什么演员都大概看出什么电影了。知名大导演这几年水准不咋地', '电影还得是老谋子，拍的是真牛逼啊', '感觉票房估计要凉。因为，感觉怎么像三枪拍案惊奇汗', '我认为，这是张艺谋近十几年来，最好的片子！自打《英雄》后，張导的作品大多不如以前。这片子，張导宣传民族精神主题，但采用很现代的拍摄方式，，，内容正能量，形式上嬉笑怒骂，不拘传统，把正能量融入幽默滑稽之中。我看，挺新潮，前卫的，，', '像几个人玩的游戏一样，没有电影的感觉，期待太高，有些失望', '没得说，真的好看，刚去电影院看了。今年最好看的电影，没有之一真的，直接冲。', '不懂老谋子的人还是太多，太深沉，厚重的原因吧。', '今天去看了，很好的电影。单论电影，是部好电影，电影本身来源于生活却高于生活，与现实肯定有些出入。电影剧情环环相扣，可能需要点脑子才能看懂。张大从投靠孙均开始，便已经有了打算，故意被射死的刘喜，和叛变说出一切都丁三旺，甚至张大的死，所有的一切都在张大的谋划中，为的就是孙均的觉醒，张孙均才是最关键的人物。为了这场计划，张大摸清了所有人的性格，堵上所有人的生命，至于瑶琴，有她才使这场谋划更加真实，当然，就算没有瑶琴进来，计划依旧是这样。而这一切都目的，就是制止秦桧的计划，还岳飞一个忠义名节，以岳飞遗志，唤醒民众，不能弯腰臣服于金人。可以说，张大将所有人都算计了进去，总的来说，值得一看', '特别好看真的 不知道为什么会有人喷[哭到脸大][哭到脸大][哭到脸大][哭到脸大]后半段我特别感动看一眼男朋友他眼泪也在眼眶里 看完出来我俩都特别感悟[意难平][意难平]真的特别好看', '我知道这部电影里面有你们喜欢的明星，或者是哥哥，就说电影本身，不关演员之类的，我看这个电影是看这演员阵容都很牛，才看的，但是我看了之后就俩字后悔😅，我跟那些看一半走了的不同，我是坚持完全看完了，都感觉没啥好看的 就是感觉被割韭菜一样，就这么几个地方，来回走一走，搞得好像那种综艺侦探破案。不多说了，我有点心疼我的钱[泪奔]', '历史剧，最好不要找喜剧演员。因为在怎么演。看着有点搞笑。不是演的不好，让一直演坏人的人演好人，怎么都不像，个人观点。', '巨好看。初一去电影院看了。\n全军复诵:都去看 满江红', '我就想问一句话，岳云鹏真的会演电影吗？哎！！！', '“怒发冲冠，凭阑处、潇潇雨歇。抬望眼，仰天长啸，壮怀激烈。三十功名尘与土，八千里路云和月。莫等闲、白了少年头，空悲切。\n靖康耻，犹未雪。臣子恨，何时灭。驾长车，踏破贺兰山缺。壮志饥餐胡虏肉，笑谈渴饮匈奴血。待从头、收拾旧山河，朝天阙。”\n中国优秀传统文化志精华，除了感动，还有热血。感谢张艺谋导演，今后多拍些这类电影！祖国复兴，山河一统，就是要有这种中国精神！！！', '把满江红拍成喜剧，简直就是不负责任。', '没有张译我是不会去看的，有多少人是奔着张译来的', '我女朋友今晚陪她老公去看的就是这个', '个人认为电影不错，就和无极一样刚开始看不懂，等多看几遍就理解了，会突然发现这些电影的内涵，我觉得还算可以的电影，看不懂的人是因为前面剧情无聊而没有耐心认真看下去', '还用不用掏六块钱了', '手机上可以看吗（免费的那种）', '一星都是奢侈', '易烊千玺！！祝满江红票房大卖', '刚看完，并不算很好看，局中局计中计，剧情基本能猜到一半，搞笑情节不算多，个人观后感一般般吧。', '各有各的说辞。理性分析，为什么美国会批判我们的流浪地球，说明那个会影响他们的地位。', '六块钱呀，六块钱可以买两瓶冰红茶，可以买一顿早饭', '对历史要严肃啊', '玺哥的电影肯定要不见不散呀', '期待千玺的满江红', '这就是在咱们山西太原古县城拍的大片！必须捧场哈！', '可以可以，近年来不错的电影', '这么一会就这么多评论了呀，看来和我一样闲的人不少啊', '好看吗？好看吗？这种电影可以坐票房第一是为什么？', '手机啥时候能看？', '这表情不错', '难怪都说这部就是在一个院子里跑来跑去的，确实是这样！不过也有升华，最后的满江红真的很振奋人心！但仅仅是满江红，与这部电影无关！确切的来说这部电影与当时的票房不符，可见票房能超过同期的小破球2还是有手段的！电影也不至于太差，就是能超小破球2太可疑！仅个人所感！', '专门去打个卡，秦桧头都打烂了贴个补丁', '孙均最后杀了宰相', '浅浅剧透一下', '为了刺杀秦桧[满江红孙均][满江红张大][反转]', '不会就我一个人其实已经看过了吧', '我也看了，很一般', '这电影一般人还真看不懂，都会觉得拍的啥玩意，真正懂的人才知道这电影牛逼坏了', '满江红这首诗谁都可以念，唯独秦桧不能念出来，让岳飞后人怎么看', '最后背诵满江红升华，绷不住了[意难平]', '有一个逻辑破绽，既然想对死人开膛拿信，为何就不能对活人开膛拿信？', '从此便有了满江红', '啥也不是', '怒发冲 冠', '再看一次', '值得推荐的一部电影[满江红孙均]', '现在的心情：壮怀激烈！全片不见岳武穆，全片处处岳武穆👍🏻张艺谋是懂什么叫家国情怀的～\n\n你永远可以相信张艺谋的艺术审美！镜头空间感运用的炉火纯青，很多一镜到底真的特别有代入感！喜剧元素处理的也十分巧妙，和剧情节奏融合的很自然，笑点很密但没有一处是为了爆梗而爆梗～配乐极其加分，诙谐又热血👍🏻\n\n剧情完美体现了什么是“聪明反被聪明误”“螳螂捕蝉黄雀在后”。每个角色都精准到位，情节环环相扣，不停反转，每当观众以为“啊 不会吧”下一秒就是“我去 还能这样” 不到最后一刻大幕落下，谁也不知道最后会发生什么～观众心态被很很拿捏！\n\n“比起市面上一些为了追求“所谓艺术”而味如嚼蜡的电影，《满江红》真的完美兼顾了电影商业性、艺术性、思想性！”\n\n最喜欢结尾，全军复诵岳飞词作《满江红》中，孙均满身带血的远走天涯，收拢剩余所有的诗意～\n\n总之，真心推荐大家都来看看满江红！一边长脑子，一边笑掉脑子，悬疑管够，笑到最后！', '这部电影水到如何卖出去的43亿？', '没有这群人斗智斗勇奔赴死，何来岳飞遗言满江红？', '可以用会员观看电影啦', '前面笑的有多欢乐，后面就哭的有多难受', '每个人看电影的感觉不一样，前面跑来跑去都是为后面的螳螂捕蝉黄雀在后做铺垫。不过比较讨厌一种评论就是说什么很假，历史不是这样的之类话。有谁知道历史的真相，历史压根就没真相。就算有真相也会被掩盖或者浮夸或者降调', '还可以，没有那么震撼的感觉', '多拍好看电影', '可惜了，南宋近200年，上上下下没能完成这又骨气的事情，一直到老朱菜驱除鞑虏，恢复中华，收复燕云16州，还是再蒙古高压打的情况下，活不了才反抗，现在不可能了，全民教育，基本都知道礼义廉耻，不可能再有这样的事情了，又个别小丑，不可蒙蔽中华', '英雄岳家军']</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 狙击手 </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VIP · 10096热度</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>张杰献声张艺谋春节电影《狙击手》《年轻人》致敬先烈守护盛世,电影简介:影片根据抗美援朝战争“冷枪冷炮”运动中神枪手群体事迹改编。1952年冬至1953年初，中国人民志愿军与联合国军在朝鲜战场形成僵持，双方发起了低强度的密集狙击战，史称“冷枪冷炮”。在连长带领下的狙击五班战士枪法过人，成为敌军的心头大患，班长刘文武更成为重点狙击对象。为重创狙击五班，敌方调配精英狙击小队，配以最先进的武器装备，更迫使狙击五班战士大永等人为救同伴进入其设好的险境之地。但正当敌军打响自己如意算盘之时，他们未料到，被他们当作诱饵的侦察兵亮亮身上其实隐藏着更大的秘密。</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.3分</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['很震撼的一部电影！值得观看！', '演的啥玩意，为了一个尸体一个一个的送死，送死敢死队？', '英雄枯骨无人问，戏子家事天下知！！那些被资本炒作捧红的流量明星不值得追捧', '我爸爸叫桑贵福当年就是38军的战士', '不真实，演员太胖了，刚解放的时候，人们几乎都是消瘦健康的。女演员说话语气太嗲，太现代。', '不懂战争的残酷就不要瞎喷。子弹和军人都没有错，为了自己祖国的利益，军人、子弹、炮弹都只是在完成自己的使命而已。全世界的军人都应当受当该有的尊重。其实军队就是国家机器，不要瞎喷军人。我向在历次战争中牺牲的每一位军人敬礼。\n', '之前唱歌那么大声，不怕暴露？', '向先辈烈士致敬', '立正，敬礼', '最初拿到绿卡的几个外国人之一', '伟大的中国人民志愿军万岁，中国共产党万岁', '幸福的生活，是前辈用命换来的，不忘历史，抵制美军，小鬼子', '可能剧情偏神话了，小米步枪干掉对方高精密武器团，实在话不可能的，能赢是我们中国牺牲很多很多换来的，珍惜现在的和平。', '这个月是要交智商税吗？还是我该补补脑', '我能开透视嘛？', '被敌人放这里的还有情报？', '这是一种精神寄托', '他们18岁已经是一名出色的战士，而我们呢？也许在校园追哪个女孩子，也许在哪里逍遥快活', '致敬先烈，致敬英雄！', '好电影，打出了中国人的处事方式，打出了共产党的精神，张导好样的。', '别人有的我们现在也有了，雄起。', '这么好的片子，必须高分，致敬我们的先辈，我们的英雄', '最后的点名  炸哭我', '致敬最可爱的人！！', '以前当兵的都有真功夫的', '不管这是拍得好与不好！这样的都是真实的！有前辈们的牺牲才有现在我们的生活！', '没看过瘾。以前的故事多拍一点。00后10后20后  都要知道', '老谋子还是老谋子，拍的很好，不是什么大战役，只是一瞬间的生和死，残酷，决绝，勇于奉献，一直很紧张的看着，看着看着就流泪了', '满屏诚意 连群演演技都很好 居然没有一个出圈的 怎么了这是 影视圈真的不需要演技派吗[蹲]', '为什么用这种办法拖亮亮？', '细节把握得很到位，故事逻辑性也很强，一步步引人入胜。', '为了祖国和平 为了共产党的信仰，我国的中华儿女奋勇向前，献出了自己宝贵的生命！为我国中华儿女的先辈们致敬！', '致敬英雄～敬礼！', '真值得看一看。', '打的是肾上腺素吗？', '你踏马闹着玩呢，狙击手对决敢这样？在讲感情也不可能这样，狙击手最起码的理智', '现在绝对没有这样的人了', '眼睛里进砖头了[大哭][大哭][大哭]', '可以，不错', '永生难忘', '泪目，数万五班换来今天的幸福生活…', '场面没有宏大，但情感描述到位了，与宏大场面的剧是两种形式，还是要点赞👍', '特别好看', '《狙击手》这部影片中的五班战士，是英雄更是一个个有血有肉、活生生的人。这符合张艺谋一贯的偏好，也没有他影片常见的造作。估计作为女儿的张末对此贡献不少。希望以后我们会有越来越多优秀战争电影涌现出来，打破美国人对于电影美学的定义权。', '班长一路走好', '超级好看！！！', '太喜欢了', '看了几遍还想看', '拯救大兵亮亮', '一点也不好，看，把志愿军和美帝都拍成了傻子', '致敬张桃芳', '弹幕看的我直接关掉了，真的是不知道怎么说那些人，那时候我们的通信设备只有电台，而电台也是很稀缺的，想会用电台就必须经过长期的训练才行，能说出为了救两个尸体而牺牲那么多人有什么意义的那些人，你以为我们的英雄想要这样子去送吗，我们那时候想要得到重要情报，很多时候都是靠人命去堆出来的，那时候我们要是通信设备和对方一样普及，我们还需要这样吗？请记住一句话：落后就要挨打。在这种面对面的情况下想要得到情报而不牺牲的，基本不可能，不要被现在的一些神剧带偏了', '佩服，神枪手太厉害了', '差评的都是00后吧！', '致敬先烈\n', '我觉得没带上美国狙击枪有点不合理', '很细节的电影', '那些说风凉话的，你们真的很低俗普通话1:31:29', '简单的剧情，甚至在战役中没有记录，可见中国军魂', '一直不敢看这类题材的，怕自己忍不住。后面把其他几部也慢慢看了', '还是老谋子的电影好看', '这么好的剧，评论这么少', '抗美援朝胜利了，战争的残酷，电影艺术的表现形式可能有不及的程度，流着泪看完的，致敬英雄先烈们，您们的负重前行，才换来我们的太平生活！🙏🙏', '确实好看力推', '能看看，毕竟中国狙击电影不多', '致敬所有牺牲的抗美援朝烈士们，致敬所有英雄们。你们是当之无愧的英雄。敬礼！', '题材真心感动！', '为人民子弟兵致敬', '非常精彩好看', '2023.12.12成功打卡[准时]', '很好的电影，很有教育意义。深刻体会到革命先辈的不易和伟大！很喜欢章宇，很有魅力的演员，演技一流，演什么是什么！！！新人演员也都不错，很棒的影片！', '没看过就不要乱说，肯定是有情报才要救', '狙击精英？', '没当过兵的80后哭了一路，给80后丢脸了！', '说神剧的都是不知道抗美援朝战争的冷枪冷炮', '绝对值得看', '战争的残酷，人性的光环', '了不起的先辈……敬礼！', '这是怎么了？暴露位置，对方也不打了？', '亮亮身上有重要情报', '今天看了三遍了', '最后忍不住流泪，焰火年代，无数的牺牲换来今天和平日子', '确实拍的不错', '非常好看的电影', '见火在敲，后发制人', '此类题材希望多拍，通过影片让更多后代去了解当年先辈们用生命换来今天的和平，先辈们把我们的苦都吃完了。致敬先辈，致敬中国军人。', '这两个老美打一个人急成这样', '眼睛有点湿', '哭的稀里哗啦', '狙击枪那些不拿阿，八倍镜呢']</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 龙马精神 </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VIP · 10035热度</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>成龙郭麒麟刘浩存，《龙马精神》“混搭”惊喜,电影简介:曾经风光一时，如今落魄的龙虎武师老罗与爱马赤兔相依为命。因赤兔卷入了一起债务纠纷，面临着“父子分离”的危机。情急之下，老罗向存在多年误会的女儿小宝和其男友乃华求救。在三人一马的自救之路中，闹出不少笑话，也渐渐靠近彼此……</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.0分</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>内地</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['我感觉这是一部会大火的电影', '为什么是刘浩存 女主  真讨厌', '好后悔当初没去电影院支持一票，这是致敬龙虎武师，致敬成龙大哥一生的电影，希望有机会还您这张电影票。', '成龙大叔，我看你超级不顺眼，所以我诅咒你平平安安，健健康康，顺顺利利……', '[放大镜]￼￼￼￼￼￼￼￼为了成龙来的举个手看看有多少人￼￼￼￼￼￼￼ ￼￼￼？￼￼￼￼', '成龙大哥老了 我也长大了', '感觉成龙老了，电影没有以前的激情了！', '战损男跑这儿来了😂', '支持龙叔，上映当天已看完', '嗨嗨嗨，内卷了[斜眼][斜眼]', '说实话，龙叔的电影看一部少一部，所以就算不及格也会支持，不为别的，就为他是成龙', '好可惜呀。好喜欢郭麒麟 结果因为女主可能不会贡献票房啦 ', '我靠，这个7.4到底谁给打的，龙叔的电影在我心里一直是满分', '为成龙大哥的奉献精神加油', '只要成龙大哥拍电影我就看，因为他是青春呀', '有刘浩存不看', '这是龙叔的收关之作了吗？把以前的那些所有的电影都回顾了！', '成龙大哥这部片是不是拍给他女儿看的呀?', '一定要去看看', '感觉成龙的电影动作片都是取巧，打他的不是自己碰到，就是自己摔倒。', '喜欢刘浩存[准时]还喜欢周冬雨[随份子] 气死你们', '郭麒麟这辈子赚了能跟龙叔合作', '刚刚去影院观看了，影片很不错，有精彩打戏，也有亲情呈现。很不错的影片，值得推荐', '可惜了有女主', '一看就知道不好看，成龙老了，只能说年轻时那份精神可嘉', '好想看郭麒麟', '都怪刘浩存，希望她以后别去影响别人的电影票房', '如果人品不行，拍的电影电视剧看着都没意思，作为大众演员，人品过关拍出来的作品，才会让大众喜欢', '刘浩存？笑呢？', '大米哥拍的时候肯定压力很大[EMO了]普通话07:52普通话07:54', '上映上映！不想去电影院！没时间去看', '火麒麟怎么在，真烦人', '挺感动的片子，成龙一路走来确实不容易，拿命拼回来的。', '22年12月31上映现在就出预告会不会太早了？', '很棒，感觉致敬了龙叔一生的奉献', '怎么感觉大哥在“告别”似的', '有成龙必须看', '郭麒麟郭麒麟（虽然我…嗯…怎么不算喜欢刘浩存呢[蹲]）', '致敬龙虎武师。致敬经典。致敬敬业精神。也许在未来流量明星当道。再也不会有这些很好的作品了', '跑了个龙套，不知道有没有我的镜头😄', '我是眼含泪水看完的   希望大哥身体健康  龙马精神', '成龙电影带领了一个时代，我们慢慢变老，以前的优秀演员慢慢落幕[没眼看][没眼看][没眼看]', '我们的龙叔真的老了，他的影片从小陪伴我们长大，他对这份事业的热爱与付出远超我们所想，此片应该也算了了他对动作影片的念想，，但愿我们的龙虎武师永远健康平安[打call了]', '这是我看哭得最多的一部剧了我们大家都感谢大哥給我们带来的这么多好看的电视剧电影向成龙大哥致敬[一起冲][一起冲][一起冲][一起冲][一起冲]', '一辈子的贡献，几代人的青春，感谢成龙大哥', '从小看成龙的电影长大的，长大后还是喜欢看他的电影。', '龙叔是我一辈子偶像，从小是，长大也是，个人觉得好看.', '必须和女朋友贡献几张电影票', '这是我看过最好看的电影，没有之一', '居然腾讯vip能看全集', '比满江红好看', '本身就是成龙的粉丝，龙叔的电影百看不厌，幸苦了，', '好久没有看到成龙演电影了，从小到大就喜欢成龙演的电影，很喜欢', '真好，好电影看一部少一部咯！成龙叔叔的电影也看一部少一部了！', '童年就最喜欢龙叔的电影，到现在都没变过，[意难平]我爱龙叔的电影，致敬龙叔[意难平]', '全程泪目啊   龙叔好样的', '成龙老师要对自己以后的电影说以后了。致敬你老人家这部电影很赞👍🏻', '看着成龙电影，这部电影看出了成龙的确不容易，支持龙哥，给你点赞', '哭了哭了哭惨了', '精神永不褪色', '支持龙叔，龙叔的电影必须看。', '敬成龙大哥👍', '寡人来看了，2023年12月14日', '9分52秒，替身[打卡-打][打卡-卡]', '还是我原来的龙叔，翻帽子名场面', '打卡成龙电影龙马精神 31:11😊😊', '哭了，推荐大家看', '完美！龙叔', '果然不亏是陪伴了我三十来年的龙叔，好久美看电影看哭过了，这会是真的哭的眼都肿了', '2023.12.22致敬龙叔，我的童年结束了～\n希望龙叔身体健健康康的。', '很感人，马摔的时候，让人很心疼。很想知道马受伤了没有，片子不错，又一次塑造了经典。可是马遭罪，马是无辜的，心里很难过，希望马能被善待，妥善安置好，算是救赎吧，因为我们是人。希望你们能懂吧，为马儿祈祷！', '刘浩存是谁，就是单纯认为这个女的真的尴尬，不尴尬吗？没有这女的，可能多5亿，', '龙马精神 1:57:14，成龙的女儿让我来，谁也不要跟我抢[破防][破防][破防][破防]', '哈哈哈，太喜欢这个姿势爆满', '2023致敬龙叔', '不摔，观众看什么啊！应该让小鲜肉们都看看这部电影👍👍👍👍👍', '确实很不错 值得推荐 嗯真的很不错👍', '[大哭][大哭][大哭][大哭]哭鼠我了', '这会是龙叔的封山之作嘛😭', '太感动了，龙叔电影总是给人力量。后半场一直哭着看完。', '龙叔老了我们也长大了，真的好怀念第一次看龙叔的电影的时候，祝福龙叔身体健康，长命百岁龙叔谢谢你给我的童年带来了开心和快来。', '真正看完龙叔所有电影后来看龙马精神是不一样的感觉，龙叔真的老了，我不要评分多高，票房多高，我只需要自己内心的感觉，不管是不是最后一部，感谢龙叔，您辛苦了！', '如果没有刘浩存。票房估计能多一两亿。很多理性的网友肯定也是和我一样支持龙叔，但是又过不了心里道德那一关。才没买票去看。唉', '我觉得拍的不错啊，挺好的。感觉这可能是龙叔的最后一部电影了\n、', '龙马精神！🤙龙马精神 36:03', '好看，看哭了😭', '郭麒麟又胖回去了吗', '我00后，龙叔是我的英雄，这辈子没有人能替代龙叔在我心目中的位置', '这个大伟淄博人吗？怎么说的是淄博话呢？', '不知道那些觉得不好看的是因为什么，我是个粗人，没有那么高的品鉴能力，我只能依靠我的本能去看，只要他能触动到我，他就是好作品，仅代表个人观点。']</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve"> 冰雪奇缘 </t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>VIP · 9993热度</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>VIP · 9937热度</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>4部迪士尼动画中的隐藏彩蛋，艾莎和人猿泰山竟然是“亲姐弟”？,电影简介:在四面环海、风景如画的阿伦黛尔王国，生活着两位可爱美丽的小公主，艾莎和安娜。艾莎天生具有制造冰雪的能力，随着年龄的增长，她的能力越来越强，甚至险些夺走妹妹的生命。为此国王紧闭宫门，也中断了两姐妹的联系。悲哀的海难过后，艾莎终于到了加冕的年龄，各国王公齐来祝贺。艾莎战战兢兢，唯恐被人识破隐藏了多年的秘密。然而当听说安娜将要和初次见面的南埃尔斯王子汉斯结婚时，依然情绪失控露出了马脚。在此之后她逃到山中，构建了属于自己的冰雪王国，而阿伦黛尔也陷入可怕的寒冷之中。
 安娜独自来到山中，在山民克斯托夫的帮助下总算来到姐姐的宫殿，她能否让国家重新找回失落的绿意？</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>9.1分</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>动画</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>['姐姐为了不伤害别人，伤害安娜，把安娜拒之门外，每天戴着手套，安娜不明白为什么？以为姐姐讨厌她，后来，与一个刚认识一天的男人订婚，姐姐不同意，还逼的姐姐爆发，逃离城堡了，从刚开始到这里我都不怎么喜欢安娜，结局安娜为了救姐姐牺牲自己，让姐姐明白爱可以让冬天变回夏天，安娜最后也找到的真正爱自己的人，从头到尾都心疼姐姐艾莎，妹妹从小天真烂漫，可艾莎因为不能控制魔法，容易误伤别人，只能把所有人拒之门外，心里承受的太多了#艾莎女王#', '就我觉得安娜很烦吗？', '艾莎心中是充满爱的，正是为了保护她的子民、保护安娜，才独自一人远离城堡。\n当她真正感受到被爱时，同时也救醒了安娜，爱能感化一切，纯粹无私的爱最伟大！', '之前能投屏 怎么现在不能了', '冰雪女王。生来就与他人不一样，明明很厉害，却要收起自己的光芒。隐藏自我。因为没有人会教自己如何使用自己的强大技能，用不好就会伤人，尤其是伤害了自己最亲近的人。\n想要逃离，却被告知越是害怕越是容易被控制。\n世界上的人不全是友好的，小心翼翼的抵挡，小心翼翼的提防。我有个可爱的妹妹，她重新给予我勇气与力量。勇气不是不害怕，而是在害怕的同时选择做比害怕更重要的事情。\n冰雪女王做到了。以爱为出发点，冰雪的力量得以很好的控制！\n爱，不一定是爱情，亲情也可以，无关乎性别，无关乎种族。\n每个女孩子都可以做自己的女王，相信自己的力量，爱自己，爱爱自己的人。', '从2018年的时候，就开始看《冰雪奇缘》，逐渐开始，就是每年无聊的时候就来看看我也是冰雪奇缘的老粉，可如今爱莎公主的颜值，还是那样的漂亮可看见，《万界神主》和《完美世界》，女主的颜值也十分感叹，但也没说艾莎公主的颜值落于下风，我只能说国漫的技术是国外不能媲美的 ୧⍢⃝୨ ୧⍢⃝୨ ୧⍢⃝୨可惜《冰雪奇缘》不允许截图', '今天晚上🌃', '我的投屏成功了', '我投上了🤣', '22年2月8号了，还在回味冰奇', '其实不能投屏是版权问题。', '俺不是爱上你唱的歌真好听', '“公主才需要王子，而女王不需要。”', '1314怎么说[狗头]', '冰雪奇缘徽章[打卡-打][打卡-卡]', '千山不了一山中山', '这魔法真强，冰城堡', '内容没有内涵，太难看了', '喜欢😍艾莎[超越][喜欢][一起冲][一起冲]', '被咯取消🌸🌟🧚\u200d♂️🧚\u200d♀️🧞\u200d♀️🧞\u200d♂️👗🧢👠💄🌻🌺🌸🌼🍄💐🌷🌹🔮🎀🎁🧡💜💙💚💛❤️💕', '哦不🙅🏻\u200d♂️！我求你了别唱歌🎤了', '印象最深的就是艾莎说:爱能解冻。所以我相信艾莎心里是有爱的，她本有不同于别人的能力，以为把自己封闭起来就可以让自己逃避，可是安娜让她明白了，爱能解冻，只要有爱可以融化一切，最后的艾莎克服恐惧，勇敢的做了自己的女王。', '《冰雪奇缘》是一部动画电影，赢得了广泛的赞誉。\n故事以两位姐妹安娜和艾莎为中心展开。故事中融入了家庭和自我救赎的主题，赋予了电影极大的情感和意义。\n动画制作水平非常出色，令人叹为观止。精美的动画风格、生动的角色表情和流畅的动作设计提升了整部影片观赏性。\n该片的角色塑造着重于女性角色的成长和自我价值的追寻。安娜和艾莎都是坚强独立的女性角色，她们展现了不同的性格和面对困境时的勇气和智慧，为年轻观众树立了积极的榜样。[撒花N][撒花N][撒花N]', '好喜欢安娜这句Do you want build a snowman?', '好可爱的雪宝呀我好喜欢你啊我真的好喜欢你呀我好想抱着你一起回家', '第二部跟第一部相比就能发现安娜真的成长了很多[意难平]她很勇敢啊', '看着电影看到艾莎唱歌那个片段震撼了', '不喜欢安娜是因为单纯讨厌恋爱脑', 'annanan/ansjsn', '刚开始穿那个蓝色衣服的时候好漂亮呀！', '这个反派王子挺不错的，有野心，有手段，有勇气，是个合格的国王，就是运气不好。', '爱莎，你是我的偶像，也是我的本事。我喜欢你，哼。', '这是多少人的童年回忆。我记得这是我唯一一部重复看的电影，小时候经常重复看，因为真的太喜欢了', '在手机投屏还没反应过来的时候赶紧点投屏！就能投了！', '艾莎数学训练。', '不会掉下去吗？', '广东省广州市公安局交警👮', '汉撕坏人', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好', '我也是一个很努力的人', '23年了还有人看吗哈哈哈哈', '艾莎我看见长发公主，你那时候不应该躲在房间里该出去，而且我也是你的粉丝不应该这样就逃跑哎呦你妹妹也是很想看你，他不是故意的，你唱的那首歌很好听我是你', '僵尸艾莎公主，我看到这个电影，现在我要吃，我要吃坑的，他现在问的是每一天看他出这七个空间，我都玩了，怎么说都不回说啊', '勋章来了', '我的第100个勋章', '现在好了，凉凉。', '我看完了妹妹看，现在我的闺女开始看了，一整天不带换的[我裂开了]', '好看，百看不厌', '23年年底看完星愿回来n刷，不管看多少遍还是很震撼！', '这下给那男的一巴掌', '大哥我求你了，能不能别唱了？', '小时候真的贼喜欢艾莎建城堡那段，反反复复至少看了不下50次[一起冲][一起冲]虽然我现在已经成年了，哈哈哈', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦冰雪奇缘(普通话... 05:20', '哦可斯诺克睡觉睡觉三甲集哎阿吉十几集啊就爱就啊经济阿吉手机啊经济阿吉就啊叫撒爱莎公主最喜欢澜 每天我要多看爱莎公主', '这个电影里，50%都是唱歌，管一人', '艾莎和安娜唱的歌好好听啊，但是太多了吧', '不是你刚才那个裙子好漂亮', '我来艾莎从哪来的魔法', '我家狗狗一会儿瞅一会儿不瞅，一会儿睡觉。', '这不怪爱莎吧[我不理解]', '过去这么多年还是喜欢\U0001f979', '安娜的记忆被篡改过来，只剩下一些美好的记忆，我们是上帝视角所以觉得安娜不对，但是安娜的视角就是本来玩的很好的姐姐，突然不联系了，整个城堡也就变成一个牢笼，父母去之后更是只剩艾莎一个亲人，但艾莎不理她！爱莎是知道原因主动把自己封闭的，安娜是莫名其妙的就被限制和外界接触的！安娜就跟楚门一样在一个封闭的世界生活，但是楚门至少有别人陪他演戏，城堡里的仆人可不敢跟公主说三道四，从小也没人教过安娜什么事爱情！被关了十多年，刚出门遇见一个文质彬彬的王子，上来就是一顿糖衣炮弹性格又跟你合得来，你爱不爱？安娜想帮助艾莎跟他一起寻找解决之道，艾莎害怕伤害她们跑了，安娜一路追到北山，安娜一直选择面对，艾莎一直逃避，小时候地精族长就说过击中心脏难搞，艾莎仍旧选择把安娜赶出去，即便在生命的最后关头，面对活命的机会和自己的姐姐，安娜依旧选择救姐姐！我们是上帝视角，安娜不是！', '他会使用多种魔法比如说是🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️💦💦💦💦💧💧💧💧💧⛄️⛄️⛄️⛄️⛄️', '快点来来来来来来来来来', '为什么安娜和艾莎？长大以后不上学呢？', '前面还挺好看的', '好看从小看到大', '安娜死亡寄', '安娜怎么就在逼艾莎了，她一直都在鼓励艾莎给艾莎面对恐惧的勇气[冰块狗头][擦汗]', '真的很喜欢，oh my god', '那时候用的是我爸爸的培根。那个是我爸爸的会员。', '好看，希望每个女孩都是自己的女王', '我最喜欢这个埃拉特们的声音', '#重磅！欧文近期将重返篮网#', '$…%…@？%%…%@IPTV，%$%突然有事先到时再说吧了吧啦的大师', '很好看，看的很感动。', 'dimfkfnnv~know how you feel better', '太难了呀，安娜公主', '几度回首，一阵阵无声的祝福自心底发出，亲爱的朋友，祝你快乐，事事如意!🚣皮垫〖考学🤵补足sm9z‖ 15UAH', '好看好看就好看', '真的就很好看，我已经看了很多遍了希望能推荐更多像这种的电影', '为什么艾莎和安娜不会一起出现呢？', '很符合一般的童话，唉，就唯一的迷惑，女王其实可以从小练习如何让正确利用魔法，最终成为一代强者，毕竟这个国家地精都有，估计也会有强大的魔法师是来教，不过这样就会成为热血少女漫画，哈哈哈。就蛮遗憾的。', '不就是拳击手安娜\n\n', '王子真会', '能不能别动不动就唱歌ಠ╭╮ಠ', '我是觉得是特别好看', '太喜欢了啊啊啊啊', '简直不要太棒我已经看了不知道多少遍了', '我喜欢这个雪人']</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>['姐姐为了不伤害别人，伤害安娜，把安娜拒之门外，每天戴着手套，安娜不明白为什么？以为姐姐讨厌她，后来，与一个刚认识一天的男人订婚，姐姐不同意，还逼的姐姐爆发，逃离城堡了，从刚开始到这里我都不怎么喜欢安娜，结局安娜为了救姐姐牺牲自己，让姐姐明白爱可以让冬天变回夏天，安娜最后也找到的真正爱自己的人，从头到尾都心疼姐姐艾莎，妹妹从小天真烂漫，可艾莎因为不能控制魔法，容易误伤别人，只能把所有人拒之门外，心里承受的太多了#艾莎女王#', '就我觉得安娜很烦吗？', '艾莎心中是充满爱的，正是为了保护她的子民、保护安娜，才独自一人远离城堡。\n当她真正感受到被爱时，同时也救醒了安娜，爱能感化一切，纯粹无私的爱最伟大！', '之前能投屏 怎么现在不能了', '冰雪女王。生来就与他人不一样，明明很厉害，却要收起自己的光芒。隐藏自我。因为没有人会教自己如何使用自己的强大技能，用不好就会伤人，尤其是伤害了自己最亲近的人。\n想要逃离，却被告知越是害怕越是容易被控制。\n世界上的人不全是友好的，小心翼翼的抵挡，小心翼翼的提防。我有个可爱的妹妹，她重新给予我勇气与力量。勇气不是不害怕，而是在害怕的同时选择做比害怕更重要的事情。\n冰雪女王做到了。以爱为出发点，冰雪的力量得以很好的控制！\n爱，不一定是爱情，亲情也可以，无关乎性别，无关乎种族。\n每个女孩子都可以做自己的女王，相信自己的力量，爱自己，爱爱自己的人。', '今天晚上🌃', '我的投屏成功了', '我投上了🤣', '22年2月8号了，还在回味冰奇', '其实不能投屏是版权问题。', '俺不是爱上你唱的歌真好听', '“公主才需要王子，而女王不需要。”', '1314怎么说[狗头]', '冰雪奇缘徽章[打卡-打][打卡-卡]', '千山不了一山中山', '这魔法真强，冰城堡', '内容没有内涵，太难看了', '喜欢😍艾莎[超越][喜欢][一起冲][一起冲]', '被咯取消🌸🌟🧚\u200d♂️🧚\u200d♀️🧞\u200d♀️🧞\u200d♂️👗🧢👠💄🌻🌺🌸🌼🍄💐🌷🌹🔮🎀🎁🧡💜💙💚💛❤️💕', '好可爱的雪宝呀我好喜欢你啊我真的好喜欢你呀我好想抱着你一起回家', '哦不🙅🏻\u200d♂️！我求你了别唱歌🎤了', '印象最深的就是艾莎说:爱能解冻。所以我相信艾莎心里是有爱的，她本有不同于别人的能力，以为把自己封闭起来就可以让自己逃避，可是安娜让她明白了，爱能解冻，只要有爱可以融化一切，最后的艾莎克服恐惧，勇敢的做了自己的女王。', '《冰雪奇缘》是一部动画电影，赢得了广泛的赞誉。\n故事以两位姐妹安娜和艾莎为中心展开。故事中融入了家庭和自我救赎的主题，赋予了电影极大的情感和意义。\n动画制作水平非常出色，令人叹为观止。精美的动画风格、生动的角色表情和流畅的动作设计提升了整部影片观赏性。\n该片的角色塑造着重于女性角色的成长和自我价值的追寻。安娜和艾莎都是坚强独立的女性角色，她们展现了不同的性格和面对困境时的勇气和智慧，为年轻观众树立了积极的榜样。[撒花N][撒花N][撒花N]', '好喜欢安娜这句Do you want build a snowman?', '第二部跟第一部相比就能发现安娜真的成长了很多[意难平]她很勇敢啊', '看着电影看到艾莎唱歌那个片段震撼了', '不喜欢安娜是因为单纯讨厌恋爱脑', 'annanan/ansjsn', '刚开始穿那个蓝色衣服的时候好漂亮呀！', '不会掉下去吗？', '这个反派王子挺不错的，有野心，有手段，有勇气，是个合格的国王，就是运气不好。', '爱莎，你是我的偶像，也是我的本事。我喜欢你，哼。', '艾莎我看见长发公主，你那时候不应该躲在房间里该出去，而且我也是你的粉丝不应该这样就逃跑哎呦你妹妹也是很想看你，他不是故意的，你唱的那首歌很好听我是你', '这是多少人的童年回忆。我记得这是我唯一一部重复看的电影，小时候经常重复看，因为真的太喜欢了', '在手机投屏还没反应过来的时候赶紧点投屏！就能投了！', '艾莎数学训练。', '广东省广州市公安局交警👮', '汉撕坏人', '哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好哈哈哈哈哈哈哈哈哈哈哈哈哈哈好', '我也是一个很努力的人', '23年了还有人看吗哈哈哈哈', '僵尸艾莎公主，我看到这个电影，现在我要吃，我要吃坑的，他现在问的是每一天看他出这七个空间，我都玩了，怎么说都不回说啊', '勋章来了', '我的第100个勋章', '现在好了，凉凉。', '我看完了妹妹看，现在我的闺女开始看了，一整天不带换的[我裂开了]', '23年年底看完星愿回来n刷，不管看多少遍还是很震撼！', '这下给那男的一巴掌', '这个电影里，50%都是唱歌，管一人', '艾莎和安娜唱的歌好好听啊，但是太多了吧', '过去这么多年还是喜欢\U0001f979', '大哥我求你了，能不能别唱了？', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦冰雪奇缘(普通话... 05:20', '哦可斯诺克睡觉睡觉三甲集哎阿吉十几集啊就爱就啊经济阿吉手机啊经济阿吉就啊叫撒爱莎公主最喜欢澜 每天我要多看爱莎公主', '不是你刚才那个裙子好漂亮', '我来艾莎从哪来的魔法', '我家狗狗一会儿瞅一会儿不瞅，一会儿睡觉。', '这不怪爱莎吧[我不理解]', '快点来来来来来来来来来', '为什么安娜和艾莎？长大以后不上学呢？', '小时候真的贼喜欢艾莎建城堡那段，反反复复至少看了不下50次[一起冲][一起冲]虽然我现在已经成年了，哈哈哈', '安娜的记忆被篡改过来，只剩下一些美好的记忆，我们是上帝视角所以觉得安娜不对，但是安娜的视角就是本来玩的很好的姐姐，突然不联系了，整个城堡也就变成一个牢笼，父母去之后更是只剩艾莎一个亲人，但艾莎不理她！爱莎是知道原因主动把自己封闭的，安娜是莫名其妙的就被限制和外界接触的！安娜就跟楚门一样在一个封闭的世界生活，但是楚门至少有别人陪他演戏，城堡里的仆人可不敢跟公主说三道四，从小也没人教过安娜什么事爱情！被关了十多年，刚出门遇见一个文质彬彬的王子，上来就是一顿糖衣炮弹性格又跟你合得来，你爱不爱？安娜想帮助艾莎跟他一起寻找解决之道，艾莎害怕伤害她们跑了，安娜一路追到北山，安娜一直选择面对，艾莎一直逃避，小时候地精族长就说过击中心脏难搞，艾莎仍旧选择把安娜赶出去，即便在生命的最后关头，面对活命的机会和自己的姐姐，安娜依旧选择救姐姐！我们是上帝视角，安娜不是！', '我最喜欢这个埃拉特们的声音', '一会艾莎。肯定就要倒霉了。', '$…%…@？%%…%@IPTV，%$%突然有事先到时再说吧了吧啦的大师', '好看从小看到大', '前面还挺好看的', '安娜死亡寄', '安娜怎么就在逼艾莎了，她一直都在鼓励艾莎给艾莎面对恐惧的勇气[冰块狗头][擦汗]', '真的很喜欢，oh my god', '那时候用的是我爸爸的培根。那个是我爸爸的会员。', '为什么艾莎和安娜不会一起出现呢？', '他会使用多种魔法比如说是🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊🧊❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️❄️💦💦💦💦💧💧💧💧💧⛄️⛄️⛄️⛄️⛄️', '#重磅！欧文近期将重返篮网#', '很好看，看的很感动。', 'dimfkfnnv~know how you feel better', '太难了呀，安娜公主', '几度回首，一阵阵无声的祝福自心底发出，亲爱的朋友，祝你快乐，事事如意!🚣皮垫〖考学🤵补足sm9z‖ 15UAH', '好看好看就好看', '王子真会', '迪士尼的电影很烦，这种剧情看中文才有内味儿，因为牵扯到中国的语言文化和一些梗。但是迪士尼总是有一些唱歌的段还是原声好听，这就导致要来回切换就很麻烦', '很符合一般的童话，唉，就唯一的迷惑，女王其实可以从小练习如何让正确利用魔法，最终成为一代强者，毕竟这个国家地精都有，估计也会有强大的魔法师是来教，不过这样就会成为热血少女漫画，哈哈哈。就蛮遗憾的。', '不就是拳击手安娜\n\n', '能不能别动不动就唱歌ಠ╭╮ಠ', '我是觉得是特别好看', '我喜欢这个雪人', '太喜欢了啊啊啊啊', '简直不要太棒我已经看了不知道多少遍了', '老姐儿 我想你了', '小到大我都在看。']</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
         <v>90</v>
       </c>
     </row>
